--- a/AAII_Financials/Quarterly/ASAI_QTR_FIN.xlsx
+++ b/AAII_Financials/Quarterly/ASAI_QTR_FIN.xlsx
@@ -305,7 +305,7 @@
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
   <numFmts count="1">
-    <numFmt numFmtId="165" formatCode="[$-409]d\-mmm\-yy;@"/>
+    <numFmt numFmtId="164" formatCode="[$-409]d\-mmm\-yy;@"/>
   </numFmts>
   <fonts count="3" x14ac:knownFonts="1">
     <font>
@@ -347,7 +347,7 @@
   <cellXfs count="4">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="165" fontId="2" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
+    <xf numFmtId="164" fontId="2" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
     <xf numFmtId="3" fontId="1" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
       <alignment horizontal="right"/>
     </xf>
@@ -714,16 +714,16 @@
         <v>4</v>
       </c>
       <c r="D8" s="3">
-        <v>6382100</v>
+        <v>6760900</v>
       </c>
       <c r="E8" s="3">
-        <v>7256900</v>
+        <v>7687600</v>
       </c>
       <c r="F8" s="3">
-        <v>1415500</v>
+        <v>1499500</v>
       </c>
       <c r="G8" s="3">
-        <v>3557000</v>
+        <v>3768100</v>
       </c>
       <c r="H8" s="3" t="s">
         <v>3</v>
@@ -743,16 +743,16 @@
         <v>5</v>
       </c>
       <c r="D9" s="3">
-        <v>5334900</v>
+        <v>5651600</v>
       </c>
       <c r="E9" s="3">
-        <v>5853800</v>
+        <v>6201200</v>
       </c>
       <c r="F9" s="3">
-        <v>1180000</v>
+        <v>1250000</v>
       </c>
       <c r="G9" s="3">
-        <v>2954400</v>
+        <v>3129800</v>
       </c>
       <c r="H9" s="3" t="s">
         <v>3</v>
@@ -772,16 +772,16 @@
         <v>6</v>
       </c>
       <c r="D10" s="3">
-        <v>1047200</v>
+        <v>1109300</v>
       </c>
       <c r="E10" s="3">
-        <v>1403100</v>
+        <v>1486400</v>
       </c>
       <c r="F10" s="3">
-        <v>235500</v>
+        <v>249500</v>
       </c>
       <c r="G10" s="3">
-        <v>602600</v>
+        <v>638300</v>
       </c>
       <c r="H10" s="3" t="s">
         <v>3</v>
@@ -872,16 +872,16 @@
         <v>10</v>
       </c>
       <c r="D14" s="3">
-        <v>39500</v>
+        <v>41800</v>
       </c>
       <c r="E14" s="3">
-        <v>43000</v>
+        <v>45600</v>
       </c>
       <c r="F14" s="3">
-        <v>29400</v>
+        <v>31100</v>
       </c>
       <c r="G14" s="3">
-        <v>2800</v>
+        <v>3000</v>
       </c>
       <c r="H14" s="3" t="s">
         <v>3</v>
@@ -901,16 +901,16 @@
         <v>11</v>
       </c>
       <c r="D15" s="3">
-        <v>89100</v>
+        <v>94400</v>
       </c>
       <c r="E15" s="3">
-        <v>157400</v>
+        <v>166800</v>
       </c>
       <c r="F15" s="3">
-        <v>18900</v>
+        <v>20100</v>
       </c>
       <c r="G15" s="3">
-        <v>51000</v>
+        <v>54000</v>
       </c>
       <c r="H15" s="3" t="s">
         <v>3</v>
@@ -940,16 +940,16 @@
         <v>12</v>
       </c>
       <c r="D17" s="3">
-        <v>6016000</v>
+        <v>6373000</v>
       </c>
       <c r="E17" s="3">
-        <v>6961500</v>
+        <v>7374700</v>
       </c>
       <c r="F17" s="3">
-        <v>1320100</v>
+        <v>1398400</v>
       </c>
       <c r="G17" s="3">
-        <v>3351000</v>
+        <v>3550000</v>
       </c>
       <c r="H17" s="3" t="s">
         <v>3</v>
@@ -969,16 +969,16 @@
         <v>13</v>
       </c>
       <c r="D18" s="3">
-        <v>366200</v>
+        <v>387900</v>
       </c>
       <c r="E18" s="3">
-        <v>295400</v>
+        <v>312900</v>
       </c>
       <c r="F18" s="3">
-        <v>95400</v>
+        <v>101100</v>
       </c>
       <c r="G18" s="3">
-        <v>205900</v>
+        <v>218200</v>
       </c>
       <c r="H18" s="3" t="s">
         <v>3</v>
@@ -1011,16 +1011,16 @@
         <v>15</v>
       </c>
       <c r="D20" s="3">
-        <v>44300</v>
+        <v>46900</v>
       </c>
       <c r="E20" s="3">
-        <v>-700</v>
+        <v>-800</v>
       </c>
       <c r="F20" s="3">
-        <v>3000</v>
+        <v>3200</v>
       </c>
       <c r="G20" s="3">
-        <v>29700</v>
+        <v>31500</v>
       </c>
       <c r="H20" s="3" t="s">
         <v>3</v>
@@ -1040,16 +1040,16 @@
         <v>16</v>
       </c>
       <c r="D21" s="3">
-        <v>653400</v>
+        <v>692200</v>
       </c>
       <c r="E21" s="3">
-        <v>472100</v>
+        <v>500100</v>
       </c>
       <c r="F21" s="3">
-        <v>130300</v>
+        <v>138100</v>
       </c>
       <c r="G21" s="3">
-        <v>289500</v>
+        <v>306700</v>
       </c>
       <c r="H21" s="3" t="s">
         <v>3</v>
@@ -1069,16 +1069,16 @@
         <v>17</v>
       </c>
       <c r="D22" s="3">
-        <v>122700</v>
+        <v>130000</v>
       </c>
       <c r="E22" s="3">
-        <v>118100</v>
+        <v>125100</v>
       </c>
       <c r="F22" s="3">
-        <v>35200</v>
+        <v>37300</v>
       </c>
       <c r="G22" s="3">
-        <v>32900</v>
+        <v>34900</v>
       </c>
       <c r="H22" s="3" t="s">
         <v>3</v>
@@ -1098,16 +1098,16 @@
         <v>18</v>
       </c>
       <c r="D23" s="3">
-        <v>287700</v>
+        <v>304800</v>
       </c>
       <c r="E23" s="3">
-        <v>176500</v>
+        <v>187000</v>
       </c>
       <c r="F23" s="3">
-        <v>63200</v>
+        <v>67000</v>
       </c>
       <c r="G23" s="3">
-        <v>202700</v>
+        <v>214800</v>
       </c>
       <c r="H23" s="3" t="s">
         <v>3</v>
@@ -1127,16 +1127,16 @@
         <v>19</v>
       </c>
       <c r="D24" s="3">
-        <v>77200</v>
+        <v>81800</v>
       </c>
       <c r="E24" s="3">
-        <v>29600</v>
+        <v>31300</v>
       </c>
       <c r="F24" s="3">
-        <v>9700</v>
+        <v>10300</v>
       </c>
       <c r="G24" s="3">
-        <v>65700</v>
+        <v>69600</v>
       </c>
       <c r="H24" s="3" t="s">
         <v>3</v>
@@ -1185,16 +1185,16 @@
         <v>21</v>
       </c>
       <c r="D26" s="3">
-        <v>210500</v>
+        <v>223000</v>
       </c>
       <c r="E26" s="3">
-        <v>147000</v>
+        <v>155700</v>
       </c>
       <c r="F26" s="3">
-        <v>53500</v>
+        <v>56600</v>
       </c>
       <c r="G26" s="3">
-        <v>137100</v>
+        <v>145200</v>
       </c>
       <c r="H26" s="3" t="s">
         <v>3</v>
@@ -1214,16 +1214,16 @@
         <v>22</v>
       </c>
       <c r="D27" s="3">
-        <v>210500</v>
+        <v>223000</v>
       </c>
       <c r="E27" s="3">
-        <v>126100</v>
+        <v>133600</v>
       </c>
       <c r="F27" s="3">
-        <v>51200</v>
+        <v>54200</v>
       </c>
       <c r="G27" s="3">
-        <v>137100</v>
+        <v>145200</v>
       </c>
       <c r="H27" s="3" t="s">
         <v>3</v>
@@ -1272,13 +1272,13 @@
         <v>24</v>
       </c>
       <c r="D29" s="3">
-        <v>65000</v>
+        <v>68800</v>
       </c>
       <c r="E29" s="3" t="s">
         <v>3</v>
       </c>
       <c r="F29" s="3">
-        <v>-2800</v>
+        <v>-3000</v>
       </c>
       <c r="G29" s="3" t="s">
         <v>3</v>
@@ -1359,16 +1359,16 @@
         <v>27</v>
       </c>
       <c r="D32" s="3">
-        <v>-44300</v>
+        <v>-46900</v>
       </c>
       <c r="E32" s="3">
-        <v>700</v>
+        <v>800</v>
       </c>
       <c r="F32" s="3">
-        <v>-3000</v>
+        <v>-3200</v>
       </c>
       <c r="G32" s="3">
-        <v>-29700</v>
+        <v>-31500</v>
       </c>
       <c r="H32" s="3" t="s">
         <v>3</v>
@@ -1388,16 +1388,16 @@
         <v>28</v>
       </c>
       <c r="D33" s="3">
-        <v>275500</v>
+        <v>291900</v>
       </c>
       <c r="E33" s="3">
-        <v>126100</v>
+        <v>133600</v>
       </c>
       <c r="F33" s="3">
-        <v>48300</v>
+        <v>51200</v>
       </c>
       <c r="G33" s="3">
-        <v>137100</v>
+        <v>145200</v>
       </c>
       <c r="H33" s="3" t="s">
         <v>3</v>
@@ -1446,16 +1446,16 @@
         <v>30</v>
       </c>
       <c r="D35" s="3">
-        <v>275500</v>
+        <v>291900</v>
       </c>
       <c r="E35" s="3">
-        <v>126100</v>
+        <v>133600</v>
       </c>
       <c r="F35" s="3">
-        <v>48300</v>
+        <v>51200</v>
       </c>
       <c r="G35" s="3">
-        <v>137100</v>
+        <v>145200</v>
       </c>
       <c r="H35" s="3" t="s">
         <v>3</v>
@@ -2594,16 +2594,16 @@
         <v>28</v>
       </c>
       <c r="D81" s="3">
-        <v>275500</v>
+        <v>291900</v>
       </c>
       <c r="E81" s="3">
-        <v>126100</v>
+        <v>133600</v>
       </c>
       <c r="F81" s="3">
-        <v>48300</v>
+        <v>51200</v>
       </c>
       <c r="G81" s="3">
-        <v>137100</v>
+        <v>145200</v>
       </c>
       <c r="H81" s="3" t="s">
         <v>3</v>
@@ -2636,16 +2636,16 @@
         <v>72</v>
       </c>
       <c r="D83" s="3">
-        <v>242900</v>
+        <v>257400</v>
       </c>
       <c r="E83" s="3">
-        <v>177400</v>
+        <v>188000</v>
       </c>
       <c r="F83" s="3">
-        <v>31900</v>
+        <v>33800</v>
       </c>
       <c r="G83" s="3">
-        <v>53800</v>
+        <v>57000</v>
       </c>
       <c r="H83" s="3" t="s">
         <v>3</v>
@@ -2810,16 +2810,16 @@
         <v>78</v>
       </c>
       <c r="D89" s="3">
-        <v>619400</v>
+        <v>656200</v>
       </c>
       <c r="E89" s="3">
-        <v>-113700</v>
+        <v>-120400</v>
       </c>
       <c r="F89" s="3">
-        <v>501500</v>
+        <v>531200</v>
       </c>
       <c r="G89" s="3">
-        <v>57900</v>
+        <v>61300</v>
       </c>
       <c r="H89" s="3" t="s">
         <v>3</v>
@@ -2852,16 +2852,16 @@
         <v>80</v>
       </c>
       <c r="D91" s="3">
-        <v>-2700</v>
+        <v>-2800</v>
       </c>
       <c r="E91" s="3">
-        <v>-2100</v>
+        <v>-2300</v>
       </c>
       <c r="F91" s="3">
-        <v>147000</v>
+        <v>155700</v>
       </c>
       <c r="G91" s="3">
-        <v>-149100</v>
+        <v>-157900</v>
       </c>
       <c r="H91" s="3" t="s">
         <v>3</v>
@@ -2939,16 +2939,16 @@
         <v>83</v>
       </c>
       <c r="D94" s="3">
-        <v>-847600</v>
+        <v>-897900</v>
       </c>
       <c r="E94" s="3">
-        <v>-122200</v>
+        <v>-129400</v>
       </c>
       <c r="F94" s="3">
-        <v>-618700</v>
+        <v>-655400</v>
       </c>
       <c r="G94" s="3">
-        <v>-155100</v>
+        <v>-164300</v>
       </c>
       <c r="H94" s="3" t="s">
         <v>3</v>
@@ -3097,16 +3097,16 @@
         <v>89</v>
       </c>
       <c r="D100" s="3">
-        <v>-140400</v>
+        <v>-148800</v>
       </c>
       <c r="E100" s="3">
-        <v>-39700</v>
+        <v>-42000</v>
       </c>
       <c r="F100" s="3">
-        <v>-657500</v>
+        <v>-696500</v>
       </c>
       <c r="G100" s="3">
-        <v>1492300</v>
+        <v>1580900</v>
       </c>
       <c r="H100" s="3" t="s">
         <v>3</v>
@@ -3126,13 +3126,13 @@
         <v>90</v>
       </c>
       <c r="D101" s="3">
-        <v>104100</v>
+        <v>110300</v>
       </c>
       <c r="E101" s="3">
-        <v>75800</v>
+        <v>80300</v>
       </c>
       <c r="F101" s="3">
-        <v>19700</v>
+        <v>20800</v>
       </c>
       <c r="G101" s="3">
         <v>0</v>
@@ -3155,16 +3155,16 @@
         <v>91</v>
       </c>
       <c r="D102" s="3">
-        <v>-264500</v>
+        <v>-280200</v>
       </c>
       <c r="E102" s="3">
-        <v>-199700</v>
+        <v>-211600</v>
       </c>
       <c r="F102" s="3">
-        <v>-755000</v>
+        <v>-799800</v>
       </c>
       <c r="G102" s="3">
-        <v>1395100</v>
+        <v>1477900</v>
       </c>
       <c r="H102" s="3" t="s">
         <v>3</v>

--- a/AAII_Financials/Quarterly/ASAI_QTR_FIN.xlsx
+++ b/AAII_Financials/Quarterly/ASAI_QTR_FIN.xlsx
@@ -22,7 +22,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="221" uniqueCount="92">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="212" uniqueCount="92">
   <si>
     <t>ASAI</t>
   </si>
@@ -656,7 +656,7 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <sheetPr codeName="Sheet2"/>
-  <dimension ref="A5:K102"/>
+  <dimension ref="A5:M102"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -665,138 +665,167 @@
     <col min="1" max="1" width="6.85546875" style="1" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="26.85546875" style="1" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="69.140625" style="1" bestFit="1" customWidth="1"/>
-    <col min="4" max="7" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="8" max="11" width="4.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="12" max="16384" width="9.140625" style="1"/>
+    <col min="4" max="4" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="6" max="7" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="10" max="10" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="11" max="13" width="4.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="14" max="16384" width="9.140625" style="1"/>
   </cols>
   <sheetData>
-    <row r="5" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="5" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A5" s="1" t="s">
         <v>0</v>
       </c>
     </row>
-    <row r="6" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="6" spans="1:13" x14ac:dyDescent="0.2">
       <c r="B6" s="1" t="s">
         <v>1</v>
       </c>
     </row>
-    <row r="7" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="7" spans="1:13" x14ac:dyDescent="0.2">
       <c r="C7" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D7" s="2">
+        <v>44377</v>
+      </c>
+      <c r="E7" s="2">
+        <v>44286</v>
+      </c>
+      <c r="F7" s="2">
         <v>44196</v>
       </c>
-      <c r="E7" s="2">
+      <c r="G7" s="2">
         <v>44104</v>
       </c>
-      <c r="F7" s="2">
+      <c r="H7" s="2">
+        <v>44012</v>
+      </c>
+      <c r="I7" s="2">
+        <v>43921</v>
+      </c>
+      <c r="J7" s="2">
         <v>43830</v>
       </c>
-      <c r="G7" s="2">
-        <v>43738</v>
-      </c>
-      <c r="H7" s="2" t="s">
-        <v>3</v>
-      </c>
-      <c r="I7" s="2" t="s">
-        <v>3</v>
-      </c>
-      <c r="J7" s="2" t="s">
-        <v>3</v>
-      </c>
       <c r="K7" s="2" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="8" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="L7" s="2" t="s">
+        <v>3</v>
+      </c>
+      <c r="M7" s="2" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="8" spans="1:13" x14ac:dyDescent="0.2">
       <c r="C8" s="1" t="s">
         <v>4</v>
       </c>
       <c r="D8" s="3">
-        <v>6760900</v>
+        <v>1856100</v>
       </c>
       <c r="E8" s="3">
-        <v>7687600</v>
+        <v>1745000</v>
       </c>
       <c r="F8" s="3">
-        <v>1499500</v>
+        <v>6657100</v>
       </c>
       <c r="G8" s="3">
-        <v>3768100</v>
-      </c>
-      <c r="H8" s="3" t="s">
-        <v>3</v>
-      </c>
-      <c r="I8" s="3" t="s">
-        <v>3</v>
-      </c>
-      <c r="J8" s="3" t="s">
-        <v>3</v>
+        <v>2691400</v>
+      </c>
+      <c r="H8" s="3">
+        <v>1522300</v>
+      </c>
+      <c r="I8" s="3">
+        <v>1447700</v>
+      </c>
+      <c r="J8" s="3">
+        <v>1476500</v>
       </c>
       <c r="K8" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="9" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="L8" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="M8" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="9" spans="1:13" x14ac:dyDescent="0.2">
       <c r="C9" s="1" t="s">
         <v>5</v>
       </c>
       <c r="D9" s="3">
-        <v>5651600</v>
+        <v>1538000</v>
       </c>
       <c r="E9" s="3">
-        <v>6201200</v>
+        <v>1466700</v>
       </c>
       <c r="F9" s="3">
-        <v>1250000</v>
+        <v>5564800</v>
       </c>
       <c r="G9" s="3">
-        <v>3129800</v>
-      </c>
-      <c r="H9" s="3" t="s">
-        <v>3</v>
-      </c>
-      <c r="I9" s="3" t="s">
-        <v>3</v>
-      </c>
-      <c r="J9" s="3" t="s">
-        <v>3</v>
+        <v>2166700</v>
+      </c>
+      <c r="H9" s="3">
+        <v>1275200</v>
+      </c>
+      <c r="I9" s="3">
+        <v>1222900</v>
+      </c>
+      <c r="J9" s="3">
+        <v>1230800</v>
       </c>
       <c r="K9" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="10" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="L9" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="M9" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="10" spans="1:13" x14ac:dyDescent="0.2">
       <c r="C10" s="1" t="s">
         <v>6</v>
       </c>
       <c r="D10" s="3">
-        <v>1109300</v>
+        <v>318100</v>
       </c>
       <c r="E10" s="3">
-        <v>1486400</v>
+        <v>278300</v>
       </c>
       <c r="F10" s="3">
-        <v>249500</v>
+        <v>1092300</v>
       </c>
       <c r="G10" s="3">
-        <v>638300</v>
-      </c>
-      <c r="H10" s="3" t="s">
-        <v>3</v>
-      </c>
-      <c r="I10" s="3" t="s">
-        <v>3</v>
-      </c>
-      <c r="J10" s="3" t="s">
-        <v>3</v>
+        <v>524700</v>
+      </c>
+      <c r="H10" s="3">
+        <v>247100</v>
+      </c>
+      <c r="I10" s="3">
+        <v>224800</v>
+      </c>
+      <c r="J10" s="3">
+        <v>245700</v>
       </c>
       <c r="K10" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="11" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="L10" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="M10" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="11" spans="1:13" x14ac:dyDescent="0.2">
       <c r="C11" s="1" t="s">
         <v>7</v>
       </c>
@@ -808,8 +837,10 @@
       <c r="I11" s="3"/>
       <c r="J11" s="3"/>
       <c r="K11" s="3"/>
-    </row>
-    <row r="12" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="L11" s="3"/>
+      <c r="M11" s="3"/>
+    </row>
+    <row r="12" spans="1:13" x14ac:dyDescent="0.2">
       <c r="C12" s="1" t="s">
         <v>8</v>
       </c>
@@ -837,8 +868,14 @@
       <c r="K12" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="13" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="L12" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="M12" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="13" spans="1:13" x14ac:dyDescent="0.2">
       <c r="C13" s="1" t="s">
         <v>9</v>
       </c>
@@ -866,66 +903,84 @@
       <c r="K13" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="14" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="L13" s="3">
+        <v>0</v>
+      </c>
+      <c r="M13" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="14" spans="1:13" x14ac:dyDescent="0.2">
       <c r="C14" s="1" t="s">
         <v>10</v>
       </c>
       <c r="D14" s="3">
-        <v>41800</v>
+        <v>6500</v>
       </c>
       <c r="E14" s="3">
-        <v>45600</v>
+        <v>400</v>
       </c>
       <c r="F14" s="3">
-        <v>31100</v>
+        <v>41200</v>
       </c>
       <c r="G14" s="3">
-        <v>3000</v>
-      </c>
-      <c r="H14" s="3" t="s">
-        <v>3</v>
-      </c>
-      <c r="I14" s="3" t="s">
-        <v>3</v>
-      </c>
-      <c r="J14" s="3" t="s">
-        <v>3</v>
+        <v>8700</v>
+      </c>
+      <c r="H14" s="3">
+        <v>14000</v>
+      </c>
+      <c r="I14" s="3">
+        <v>7900</v>
+      </c>
+      <c r="J14" s="3">
+        <v>22900</v>
       </c>
       <c r="K14" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="15" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="L14" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="M14" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="15" spans="1:13" x14ac:dyDescent="0.2">
       <c r="C15" s="1" t="s">
         <v>11</v>
       </c>
       <c r="D15" s="3">
-        <v>94400</v>
+        <v>28400</v>
       </c>
       <c r="E15" s="3">
-        <v>166800</v>
+        <v>26800</v>
       </c>
       <c r="F15" s="3">
-        <v>20100</v>
+        <v>92900</v>
       </c>
       <c r="G15" s="3">
-        <v>54000</v>
-      </c>
-      <c r="H15" s="3" t="s">
-        <v>3</v>
-      </c>
-      <c r="I15" s="3" t="s">
-        <v>3</v>
-      </c>
-      <c r="J15" s="3" t="s">
-        <v>3</v>
+        <v>56300</v>
+      </c>
+      <c r="H15" s="3">
+        <v>22300</v>
+      </c>
+      <c r="I15" s="3">
+        <v>21600</v>
+      </c>
+      <c r="J15" s="3">
+        <v>19800</v>
       </c>
       <c r="K15" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="16" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="L15" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="M15" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="16" spans="1:13" x14ac:dyDescent="0.2">
       <c r="D16" s="3"/>
       <c r="E16" s="3"/>
       <c r="F16" s="3"/>
@@ -934,66 +989,80 @@
       <c r="I16" s="3"/>
       <c r="J16" s="3"/>
       <c r="K16" s="3"/>
-    </row>
-    <row r="17" spans="3:11" x14ac:dyDescent="0.2">
+      <c r="L16" s="3"/>
+      <c r="M16" s="3"/>
+    </row>
+    <row r="17" spans="3:13" x14ac:dyDescent="0.2">
       <c r="C17" s="1" t="s">
         <v>12</v>
       </c>
       <c r="D17" s="3">
-        <v>6373000</v>
+        <v>1746000</v>
       </c>
       <c r="E17" s="3">
-        <v>7374700</v>
+        <v>1655800</v>
       </c>
       <c r="F17" s="3">
-        <v>1398400</v>
+        <v>6275200</v>
       </c>
       <c r="G17" s="3">
-        <v>3550000</v>
-      </c>
-      <c r="H17" s="3" t="s">
-        <v>3</v>
-      </c>
-      <c r="I17" s="3" t="s">
-        <v>3</v>
-      </c>
-      <c r="J17" s="3" t="s">
-        <v>3</v>
+        <v>2552900</v>
+      </c>
+      <c r="H17" s="3">
+        <v>1451400</v>
+      </c>
+      <c r="I17" s="3">
+        <v>1387500</v>
+      </c>
+      <c r="J17" s="3">
+        <v>1376900</v>
       </c>
       <c r="K17" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="18" spans="3:11" x14ac:dyDescent="0.2">
+      <c r="L17" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="M17" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="18" spans="3:13" x14ac:dyDescent="0.2">
       <c r="C18" s="1" t="s">
         <v>13</v>
       </c>
       <c r="D18" s="3">
-        <v>387900</v>
+        <v>110100</v>
       </c>
       <c r="E18" s="3">
-        <v>312900</v>
+        <v>89200</v>
       </c>
       <c r="F18" s="3">
-        <v>101100</v>
+        <v>382000</v>
       </c>
       <c r="G18" s="3">
-        <v>218200</v>
-      </c>
-      <c r="H18" s="3" t="s">
-        <v>3</v>
-      </c>
-      <c r="I18" s="3" t="s">
-        <v>3</v>
-      </c>
-      <c r="J18" s="3" t="s">
-        <v>3</v>
+        <v>138500</v>
+      </c>
+      <c r="H18" s="3">
+        <v>70900</v>
+      </c>
+      <c r="I18" s="3">
+        <v>60200</v>
+      </c>
+      <c r="J18" s="3">
+        <v>99600</v>
       </c>
       <c r="K18" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="19" spans="3:11" x14ac:dyDescent="0.2">
+      <c r="L18" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="M18" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="19" spans="3:13" x14ac:dyDescent="0.2">
       <c r="C19" s="1" t="s">
         <v>14</v>
       </c>
@@ -1005,153 +1074,185 @@
       <c r="I19" s="3"/>
       <c r="J19" s="3"/>
       <c r="K19" s="3"/>
-    </row>
-    <row r="20" spans="3:11" x14ac:dyDescent="0.2">
+      <c r="L19" s="3"/>
+      <c r="M19" s="3"/>
+    </row>
+    <row r="20" spans="3:13" x14ac:dyDescent="0.2">
       <c r="C20" s="1" t="s">
         <v>15</v>
       </c>
       <c r="D20" s="3">
-        <v>46900</v>
+        <v>6600</v>
       </c>
       <c r="E20" s="3">
-        <v>-800</v>
+        <v>1500</v>
       </c>
       <c r="F20" s="3">
-        <v>3200</v>
+        <v>46200</v>
       </c>
       <c r="G20" s="3">
-        <v>31500</v>
-      </c>
-      <c r="H20" s="3" t="s">
-        <v>3</v>
-      </c>
-      <c r="I20" s="3" t="s">
-        <v>3</v>
-      </c>
-      <c r="J20" s="3" t="s">
-        <v>3</v>
+        <v>-1800</v>
+      </c>
+      <c r="H20" s="3">
+        <v>-14400</v>
+      </c>
+      <c r="I20" s="3">
+        <v>13700</v>
+      </c>
+      <c r="J20" s="3">
+        <v>3100</v>
       </c>
       <c r="K20" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="21" spans="3:11" x14ac:dyDescent="0.2">
+      <c r="L20" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="M20" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="21" spans="3:13" x14ac:dyDescent="0.2">
       <c r="C21" s="1" t="s">
         <v>16</v>
       </c>
       <c r="D21" s="3">
-        <v>692200</v>
+        <v>147600</v>
       </c>
       <c r="E21" s="3">
-        <v>500100</v>
+        <v>119700</v>
       </c>
       <c r="F21" s="3">
-        <v>138100</v>
+        <v>681500</v>
       </c>
       <c r="G21" s="3">
-        <v>306700</v>
-      </c>
-      <c r="H21" s="3" t="s">
-        <v>3</v>
-      </c>
-      <c r="I21" s="3" t="s">
-        <v>3</v>
-      </c>
-      <c r="J21" s="3" t="s">
-        <v>3</v>
+        <v>202400</v>
+      </c>
+      <c r="H21" s="3">
+        <v>117800</v>
+      </c>
+      <c r="I21" s="3">
+        <v>131900</v>
+      </c>
+      <c r="J21" s="3">
+        <v>135900</v>
       </c>
       <c r="K21" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="22" spans="3:11" x14ac:dyDescent="0.2">
+      <c r="L21" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="M21" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="22" spans="3:13" x14ac:dyDescent="0.2">
       <c r="C22" s="1" t="s">
         <v>17</v>
       </c>
       <c r="D22" s="3">
-        <v>130000</v>
+        <v>33400</v>
       </c>
       <c r="E22" s="3">
-        <v>125100</v>
+        <v>26200</v>
       </c>
       <c r="F22" s="3">
-        <v>37300</v>
+        <v>128000</v>
       </c>
       <c r="G22" s="3">
-        <v>34900</v>
-      </c>
-      <c r="H22" s="3" t="s">
-        <v>3</v>
-      </c>
-      <c r="I22" s="3" t="s">
-        <v>3</v>
-      </c>
-      <c r="J22" s="3" t="s">
-        <v>3</v>
+        <v>40100</v>
+      </c>
+      <c r="H22" s="3">
+        <v>9800</v>
+      </c>
+      <c r="I22" s="3">
+        <v>42300</v>
+      </c>
+      <c r="J22" s="3">
+        <v>36800</v>
       </c>
       <c r="K22" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="23" spans="3:11" x14ac:dyDescent="0.2">
+      <c r="L22" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="M22" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="23" spans="3:13" x14ac:dyDescent="0.2">
       <c r="C23" s="1" t="s">
         <v>18</v>
       </c>
       <c r="D23" s="3">
-        <v>304800</v>
+        <v>83300</v>
       </c>
       <c r="E23" s="3">
-        <v>187000</v>
+        <v>64500</v>
       </c>
       <c r="F23" s="3">
-        <v>67000</v>
+        <v>300100</v>
       </c>
       <c r="G23" s="3">
-        <v>214800</v>
-      </c>
-      <c r="H23" s="3" t="s">
-        <v>3</v>
-      </c>
-      <c r="I23" s="3" t="s">
-        <v>3</v>
-      </c>
-      <c r="J23" s="3" t="s">
-        <v>3</v>
+        <v>96600</v>
+      </c>
+      <c r="H23" s="3">
+        <v>46700</v>
+      </c>
+      <c r="I23" s="3">
+        <v>31600</v>
+      </c>
+      <c r="J23" s="3">
+        <v>65900</v>
       </c>
       <c r="K23" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="24" spans="3:11" x14ac:dyDescent="0.2">
+      <c r="L23" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="M23" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="24" spans="3:13" x14ac:dyDescent="0.2">
       <c r="C24" s="1" t="s">
         <v>19</v>
       </c>
       <c r="D24" s="3">
-        <v>81800</v>
+        <v>27000</v>
       </c>
       <c r="E24" s="3">
-        <v>31300</v>
+        <v>20100</v>
       </c>
       <c r="F24" s="3">
-        <v>10300</v>
+        <v>80500</v>
       </c>
       <c r="G24" s="3">
-        <v>69600</v>
-      </c>
-      <c r="H24" s="3" t="s">
-        <v>3</v>
-      </c>
-      <c r="I24" s="3" t="s">
-        <v>3</v>
-      </c>
-      <c r="J24" s="3" t="s">
-        <v>3</v>
+        <v>7800</v>
+      </c>
+      <c r="H24" s="3">
+        <v>15500</v>
+      </c>
+      <c r="I24" s="3">
+        <v>10200</v>
+      </c>
+      <c r="J24" s="3">
+        <v>10200</v>
       </c>
       <c r="K24" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="25" spans="3:11" x14ac:dyDescent="0.2">
+      <c r="L24" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="M24" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="25" spans="3:13" x14ac:dyDescent="0.2">
       <c r="C25" s="1" t="s">
         <v>20</v>
       </c>
@@ -1179,66 +1280,84 @@
       <c r="K25" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="26" spans="3:11" x14ac:dyDescent="0.2">
+      <c r="L25" s="3">
+        <v>0</v>
+      </c>
+      <c r="M25" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="26" spans="3:13" x14ac:dyDescent="0.2">
       <c r="C26" s="1" t="s">
         <v>21</v>
       </c>
       <c r="D26" s="3">
-        <v>223000</v>
+        <v>56300</v>
       </c>
       <c r="E26" s="3">
-        <v>155700</v>
+        <v>44300</v>
       </c>
       <c r="F26" s="3">
-        <v>56600</v>
+        <v>219600</v>
       </c>
       <c r="G26" s="3">
-        <v>145200</v>
-      </c>
-      <c r="H26" s="3" t="s">
-        <v>3</v>
-      </c>
-      <c r="I26" s="3" t="s">
-        <v>3</v>
-      </c>
-      <c r="J26" s="3" t="s">
-        <v>3</v>
+        <v>88800</v>
+      </c>
+      <c r="H26" s="3">
+        <v>31200</v>
+      </c>
+      <c r="I26" s="3">
+        <v>21400</v>
+      </c>
+      <c r="J26" s="3">
+        <v>55800</v>
       </c>
       <c r="K26" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="27" spans="3:11" x14ac:dyDescent="0.2">
+      <c r="L26" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="M26" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="27" spans="3:13" x14ac:dyDescent="0.2">
       <c r="C27" s="1" t="s">
         <v>22</v>
       </c>
       <c r="D27" s="3">
-        <v>223000</v>
+        <v>56300</v>
       </c>
       <c r="E27" s="3">
-        <v>133600</v>
+        <v>44300</v>
       </c>
       <c r="F27" s="3">
-        <v>54200</v>
+        <v>190400</v>
       </c>
       <c r="G27" s="3">
-        <v>145200</v>
-      </c>
-      <c r="H27" s="3" t="s">
-        <v>3</v>
-      </c>
-      <c r="I27" s="3" t="s">
-        <v>3</v>
-      </c>
-      <c r="J27" s="3" t="s">
-        <v>3</v>
+        <v>80700</v>
+      </c>
+      <c r="H27" s="3">
+        <v>21600</v>
+      </c>
+      <c r="I27" s="3">
+        <v>17400</v>
+      </c>
+      <c r="J27" s="3">
+        <v>53400</v>
       </c>
       <c r="K27" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="28" spans="3:11" x14ac:dyDescent="0.2">
+      <c r="L27" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="M27" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="28" spans="3:13" x14ac:dyDescent="0.2">
       <c r="C28" s="1" t="s">
         <v>23</v>
       </c>
@@ -1266,37 +1385,49 @@
       <c r="K28" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="29" spans="3:11" x14ac:dyDescent="0.2">
+      <c r="L28" s="3">
+        <v>0</v>
+      </c>
+      <c r="M28" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="29" spans="3:13" x14ac:dyDescent="0.2">
       <c r="C29" s="1" t="s">
         <v>24</v>
       </c>
       <c r="D29" s="3">
-        <v>68800</v>
-      </c>
-      <c r="E29" s="3" t="s">
-        <v>3</v>
+        <v>0</v>
+      </c>
+      <c r="E29" s="3">
+        <v>0</v>
       </c>
       <c r="F29" s="3">
+        <v>67800</v>
+      </c>
+      <c r="G29" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="H29" s="3">
+        <v>10700</v>
+      </c>
+      <c r="I29" s="3">
+        <v>1100</v>
+      </c>
+      <c r="J29" s="3">
         <v>-3000</v>
       </c>
-      <c r="G29" s="3" t="s">
-        <v>3</v>
-      </c>
-      <c r="H29" s="3" t="s">
-        <v>3</v>
-      </c>
-      <c r="I29" s="3" t="s">
-        <v>3</v>
-      </c>
-      <c r="J29" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="K29" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="30" spans="3:11" x14ac:dyDescent="0.2">
+      <c r="L29" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="M29" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="30" spans="3:13" x14ac:dyDescent="0.2">
       <c r="C30" s="1" t="s">
         <v>25</v>
       </c>
@@ -1324,8 +1455,14 @@
       <c r="K30" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="31" spans="3:11" x14ac:dyDescent="0.2">
+      <c r="L30" s="3">
+        <v>0</v>
+      </c>
+      <c r="M30" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="31" spans="3:13" x14ac:dyDescent="0.2">
       <c r="C31" s="1" t="s">
         <v>26</v>
       </c>
@@ -1353,66 +1490,84 @@
       <c r="K31" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="32" spans="3:11" x14ac:dyDescent="0.2">
+      <c r="L31" s="3">
+        <v>0</v>
+      </c>
+      <c r="M31" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="32" spans="3:13" x14ac:dyDescent="0.2">
       <c r="C32" s="1" t="s">
         <v>27</v>
       </c>
       <c r="D32" s="3">
-        <v>-46900</v>
+        <v>-6600</v>
       </c>
       <c r="E32" s="3">
-        <v>800</v>
+        <v>-1500</v>
       </c>
       <c r="F32" s="3">
-        <v>-3200</v>
+        <v>-46200</v>
       </c>
       <c r="G32" s="3">
-        <v>-31500</v>
-      </c>
-      <c r="H32" s="3" t="s">
-        <v>3</v>
-      </c>
-      <c r="I32" s="3" t="s">
-        <v>3</v>
-      </c>
-      <c r="J32" s="3" t="s">
-        <v>3</v>
+        <v>1800</v>
+      </c>
+      <c r="H32" s="3">
+        <v>14400</v>
+      </c>
+      <c r="I32" s="3">
+        <v>-13700</v>
+      </c>
+      <c r="J32" s="3">
+        <v>-3100</v>
       </c>
       <c r="K32" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="33" spans="2:11" x14ac:dyDescent="0.2">
+      <c r="L32" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="M32" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="33" spans="2:13" x14ac:dyDescent="0.2">
       <c r="C33" s="1" t="s">
         <v>28</v>
       </c>
       <c r="D33" s="3">
-        <v>291900</v>
+        <v>56300</v>
       </c>
       <c r="E33" s="3">
-        <v>133600</v>
+        <v>44300</v>
       </c>
       <c r="F33" s="3">
-        <v>51200</v>
+        <v>258200</v>
       </c>
       <c r="G33" s="3">
-        <v>145200</v>
-      </c>
-      <c r="H33" s="3" t="s">
-        <v>3</v>
-      </c>
-      <c r="I33" s="3" t="s">
-        <v>3</v>
-      </c>
-      <c r="J33" s="3" t="s">
-        <v>3</v>
+        <v>80700</v>
+      </c>
+      <c r="H33" s="3">
+        <v>32300</v>
+      </c>
+      <c r="I33" s="3">
+        <v>18500</v>
+      </c>
+      <c r="J33" s="3">
+        <v>50400</v>
       </c>
       <c r="K33" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="34" spans="2:11" x14ac:dyDescent="0.2">
+      <c r="L33" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="M33" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="34" spans="2:13" x14ac:dyDescent="0.2">
       <c r="C34" s="1" t="s">
         <v>29</v>
       </c>
@@ -1440,71 +1595,89 @@
       <c r="K34" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="35" spans="2:11" x14ac:dyDescent="0.2">
+      <c r="L34" s="3">
+        <v>0</v>
+      </c>
+      <c r="M34" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="35" spans="2:13" x14ac:dyDescent="0.2">
       <c r="C35" s="1" t="s">
         <v>30</v>
       </c>
       <c r="D35" s="3">
-        <v>291900</v>
+        <v>56300</v>
       </c>
       <c r="E35" s="3">
-        <v>133600</v>
+        <v>44300</v>
       </c>
       <c r="F35" s="3">
-        <v>51200</v>
+        <v>258200</v>
       </c>
       <c r="G35" s="3">
-        <v>145200</v>
-      </c>
-      <c r="H35" s="3" t="s">
-        <v>3</v>
-      </c>
-      <c r="I35" s="3" t="s">
-        <v>3</v>
-      </c>
-      <c r="J35" s="3" t="s">
-        <v>3</v>
+        <v>80700</v>
+      </c>
+      <c r="H35" s="3">
+        <v>32300</v>
+      </c>
+      <c r="I35" s="3">
+        <v>18500</v>
+      </c>
+      <c r="J35" s="3">
+        <v>50400</v>
       </c>
       <c r="K35" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="37" spans="2:11" x14ac:dyDescent="0.2">
+      <c r="L35" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="M35" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="37" spans="2:13" x14ac:dyDescent="0.2">
       <c r="B37" s="1" t="s">
         <v>31</v>
       </c>
     </row>
-    <row r="38" spans="2:11" x14ac:dyDescent="0.2">
+    <row r="38" spans="2:13" x14ac:dyDescent="0.2">
       <c r="C38" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D38" s="2">
+        <v>44377</v>
+      </c>
+      <c r="E38" s="2">
+        <v>44286</v>
+      </c>
+      <c r="F38" s="2">
         <v>44196</v>
       </c>
-      <c r="E38" s="2">
+      <c r="G38" s="2">
         <v>44104</v>
       </c>
-      <c r="F38" s="2">
+      <c r="H38" s="2">
+        <v>44012</v>
+      </c>
+      <c r="I38" s="2">
+        <v>43921</v>
+      </c>
+      <c r="J38" s="2">
         <v>43830</v>
       </c>
-      <c r="G38" s="2">
-        <v>43738</v>
-      </c>
-      <c r="H38" s="2" t="s">
-        <v>3</v>
-      </c>
-      <c r="I38" s="2" t="s">
-        <v>3</v>
-      </c>
-      <c r="J38" s="2" t="s">
-        <v>3</v>
-      </c>
       <c r="K38" s="2" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="39" spans="2:11" x14ac:dyDescent="0.2">
+      <c r="L38" s="2" t="s">
+        <v>3</v>
+      </c>
+      <c r="M38" s="2" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="39" spans="2:13" x14ac:dyDescent="0.2">
       <c r="C39" s="1" t="s">
         <v>32</v>
       </c>
@@ -1516,8 +1689,10 @@
       <c r="I39" s="3"/>
       <c r="J39" s="3"/>
       <c r="K39" s="3"/>
-    </row>
-    <row r="40" spans="2:11" x14ac:dyDescent="0.2">
+      <c r="L39" s="3"/>
+      <c r="M39" s="3"/>
+    </row>
+    <row r="40" spans="2:13" x14ac:dyDescent="0.2">
       <c r="C40" s="1" t="s">
         <v>33</v>
       </c>
@@ -1529,269 +1704,325 @@
       <c r="I40" s="3"/>
       <c r="J40" s="3"/>
       <c r="K40" s="3"/>
-    </row>
-    <row r="41" spans="2:11" x14ac:dyDescent="0.2">
+      <c r="L40" s="3"/>
+      <c r="M40" s="3"/>
+    </row>
+    <row r="41" spans="2:13" x14ac:dyDescent="0.2">
       <c r="C41" s="1" t="s">
         <v>34</v>
       </c>
       <c r="D41" s="3">
-        <v>0</v>
+        <v>17200</v>
       </c>
       <c r="E41" s="3">
-        <v>0</v>
+        <v>18500</v>
       </c>
       <c r="F41" s="3">
-        <v>0</v>
+        <v>17200</v>
       </c>
       <c r="G41" s="3">
-        <v>0</v>
+        <v>325300</v>
       </c>
       <c r="H41" s="3">
-        <v>0</v>
+        <v>432400</v>
       </c>
       <c r="I41" s="3">
-        <v>0</v>
-      </c>
-      <c r="J41" s="3">
-        <v>0</v>
+        <v>500700</v>
+      </c>
+      <c r="J41" s="3" t="s">
+        <v>3</v>
       </c>
       <c r="K41" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="42" spans="2:11" x14ac:dyDescent="0.2">
+      <c r="L41" s="3">
+        <v>0</v>
+      </c>
+      <c r="M41" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="42" spans="2:13" x14ac:dyDescent="0.2">
       <c r="C42" s="1" t="s">
         <v>35</v>
       </c>
       <c r="D42" s="3">
-        <v>0</v>
+        <v>816000</v>
       </c>
       <c r="E42" s="3">
-        <v>0</v>
+        <v>492000</v>
       </c>
       <c r="F42" s="3">
-        <v>0</v>
+        <v>635200</v>
       </c>
       <c r="G42" s="3">
-        <v>0</v>
+        <v>394700</v>
       </c>
       <c r="H42" s="3">
-        <v>0</v>
+        <v>420600</v>
       </c>
       <c r="I42" s="3">
-        <v>0</v>
-      </c>
-      <c r="J42" s="3">
-        <v>0</v>
+        <v>196900</v>
+      </c>
+      <c r="J42" s="3" t="s">
+        <v>3</v>
       </c>
       <c r="K42" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="43" spans="2:11" x14ac:dyDescent="0.2">
+      <c r="L42" s="3">
+        <v>0</v>
+      </c>
+      <c r="M42" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="43" spans="2:13" x14ac:dyDescent="0.2">
       <c r="C43" s="1" t="s">
         <v>36</v>
       </c>
       <c r="D43" s="3">
-        <v>0</v>
+        <v>174900</v>
       </c>
       <c r="E43" s="3">
-        <v>0</v>
+        <v>146800</v>
       </c>
       <c r="F43" s="3">
-        <v>0</v>
+        <v>181700</v>
       </c>
       <c r="G43" s="3">
-        <v>0</v>
+        <v>335000</v>
       </c>
       <c r="H43" s="3">
-        <v>0</v>
+        <v>352000</v>
       </c>
       <c r="I43" s="3">
-        <v>0</v>
-      </c>
-      <c r="J43" s="3">
-        <v>0</v>
+        <v>289800</v>
+      </c>
+      <c r="J43" s="3" t="s">
+        <v>3</v>
       </c>
       <c r="K43" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="44" spans="2:11" x14ac:dyDescent="0.2">
+      <c r="L43" s="3">
+        <v>0</v>
+      </c>
+      <c r="M43" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="44" spans="2:13" x14ac:dyDescent="0.2">
       <c r="C44" s="1" t="s">
         <v>37</v>
       </c>
       <c r="D44" s="3">
-        <v>0</v>
+        <v>681200</v>
       </c>
       <c r="E44" s="3">
-        <v>0</v>
+        <v>634600</v>
       </c>
       <c r="F44" s="3">
-        <v>0</v>
+        <v>690600</v>
       </c>
       <c r="G44" s="3">
-        <v>0</v>
+        <v>1178900</v>
       </c>
       <c r="H44" s="3">
-        <v>0</v>
+        <v>1043700</v>
       </c>
       <c r="I44" s="3">
-        <v>0</v>
-      </c>
-      <c r="J44" s="3">
-        <v>0</v>
+        <v>1072400</v>
+      </c>
+      <c r="J44" s="3" t="s">
+        <v>3</v>
       </c>
       <c r="K44" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="45" spans="2:11" x14ac:dyDescent="0.2">
+      <c r="L44" s="3">
+        <v>0</v>
+      </c>
+      <c r="M44" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="45" spans="2:13" x14ac:dyDescent="0.2">
       <c r="C45" s="1" t="s">
         <v>38</v>
       </c>
       <c r="D45" s="3">
-        <v>0</v>
+        <v>41600</v>
       </c>
       <c r="E45" s="3">
-        <v>0</v>
+        <v>16600</v>
       </c>
       <c r="F45" s="3">
-        <v>0</v>
+        <v>17400</v>
       </c>
       <c r="G45" s="3">
-        <v>0</v>
+        <v>59700</v>
       </c>
       <c r="H45" s="3">
-        <v>0</v>
+        <v>79600</v>
       </c>
       <c r="I45" s="3">
-        <v>0</v>
-      </c>
-      <c r="J45" s="3">
-        <v>0</v>
+        <v>159800</v>
+      </c>
+      <c r="J45" s="3" t="s">
+        <v>3</v>
       </c>
       <c r="K45" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="46" spans="2:11" x14ac:dyDescent="0.2">
+      <c r="L45" s="3">
+        <v>0</v>
+      </c>
+      <c r="M45" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="46" spans="2:13" x14ac:dyDescent="0.2">
       <c r="C46" s="1" t="s">
         <v>39</v>
       </c>
       <c r="D46" s="3">
-        <v>0</v>
+        <v>1730800</v>
       </c>
       <c r="E46" s="3">
-        <v>0</v>
+        <v>1308600</v>
       </c>
       <c r="F46" s="3">
-        <v>0</v>
+        <v>1542100</v>
       </c>
       <c r="G46" s="3">
-        <v>0</v>
+        <v>2293600</v>
       </c>
       <c r="H46" s="3">
-        <v>0</v>
+        <v>2328300</v>
       </c>
       <c r="I46" s="3">
-        <v>0</v>
-      </c>
-      <c r="J46" s="3">
-        <v>0</v>
+        <v>2219500</v>
+      </c>
+      <c r="J46" s="3" t="s">
+        <v>3</v>
       </c>
       <c r="K46" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="47" spans="2:11" x14ac:dyDescent="0.2">
+      <c r="L46" s="3">
+        <v>0</v>
+      </c>
+      <c r="M46" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="47" spans="2:13" x14ac:dyDescent="0.2">
       <c r="C47" s="1" t="s">
         <v>40</v>
       </c>
       <c r="D47" s="3">
-        <v>0</v>
+        <v>322900</v>
       </c>
       <c r="E47" s="3">
-        <v>0</v>
+        <v>323200</v>
       </c>
       <c r="F47" s="3">
-        <v>0</v>
+        <v>334900</v>
       </c>
       <c r="G47" s="3">
-        <v>0</v>
+        <v>270400</v>
       </c>
       <c r="H47" s="3">
-        <v>0</v>
+        <v>273000</v>
       </c>
       <c r="I47" s="3">
-        <v>0</v>
-      </c>
-      <c r="J47" s="3">
-        <v>0</v>
+        <v>307700</v>
+      </c>
+      <c r="J47" s="3" t="s">
+        <v>3</v>
       </c>
       <c r="K47" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="48" spans="2:11" x14ac:dyDescent="0.2">
+      <c r="L47" s="3">
+        <v>0</v>
+      </c>
+      <c r="M47" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="48" spans="2:13" x14ac:dyDescent="0.2">
       <c r="C48" s="1" t="s">
         <v>41</v>
       </c>
       <c r="D48" s="3">
-        <v>0</v>
+        <v>1507200</v>
       </c>
       <c r="E48" s="3">
-        <v>0</v>
+        <v>1404300</v>
       </c>
       <c r="F48" s="3">
-        <v>0</v>
+        <v>1380800</v>
       </c>
       <c r="G48" s="3">
-        <v>0</v>
+        <v>3865200</v>
       </c>
       <c r="H48" s="3">
-        <v>0</v>
+        <v>3803000</v>
       </c>
       <c r="I48" s="3">
-        <v>0</v>
-      </c>
-      <c r="J48" s="3">
-        <v>0</v>
+        <v>3379500</v>
+      </c>
+      <c r="J48" s="3" t="s">
+        <v>3</v>
       </c>
       <c r="K48" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="49" spans="3:11" x14ac:dyDescent="0.2">
+      <c r="L48" s="3">
+        <v>0</v>
+      </c>
+      <c r="M48" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="49" spans="3:13" x14ac:dyDescent="0.2">
       <c r="C49" s="1" t="s">
         <v>42</v>
       </c>
       <c r="D49" s="3">
-        <v>0</v>
+        <v>193400</v>
       </c>
       <c r="E49" s="3">
-        <v>0</v>
+        <v>191500</v>
       </c>
       <c r="F49" s="3">
-        <v>0</v>
+        <v>191500</v>
       </c>
       <c r="G49" s="3">
-        <v>0</v>
+        <v>914800</v>
       </c>
       <c r="H49" s="3">
-        <v>0</v>
+        <v>910400</v>
       </c>
       <c r="I49" s="3">
-        <v>0</v>
-      </c>
-      <c r="J49" s="3">
-        <v>0</v>
+        <v>823600</v>
+      </c>
+      <c r="J49" s="3" t="s">
+        <v>3</v>
       </c>
       <c r="K49" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="50" spans="3:11" x14ac:dyDescent="0.2">
+      <c r="L49" s="3">
+        <v>0</v>
+      </c>
+      <c r="M49" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="50" spans="3:13" x14ac:dyDescent="0.2">
       <c r="C50" s="1" t="s">
         <v>43</v>
       </c>
@@ -1819,8 +2050,14 @@
       <c r="K50" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="51" spans="3:11" x14ac:dyDescent="0.2">
+      <c r="L50" s="3">
+        <v>0</v>
+      </c>
+      <c r="M50" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="51" spans="3:13" x14ac:dyDescent="0.2">
       <c r="C51" s="1" t="s">
         <v>44</v>
       </c>
@@ -1848,37 +2085,49 @@
       <c r="K51" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="52" spans="3:11" x14ac:dyDescent="0.2">
+      <c r="L51" s="3">
+        <v>0</v>
+      </c>
+      <c r="M51" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="52" spans="3:13" x14ac:dyDescent="0.2">
       <c r="C52" s="1" t="s">
         <v>45</v>
       </c>
       <c r="D52" s="3">
-        <v>0</v>
+        <v>28600</v>
       </c>
       <c r="E52" s="3">
-        <v>0</v>
+        <v>26000</v>
       </c>
       <c r="F52" s="3">
-        <v>0</v>
+        <v>27000</v>
       </c>
       <c r="G52" s="3">
-        <v>0</v>
+        <v>39000</v>
       </c>
       <c r="H52" s="3">
-        <v>0</v>
+        <v>37300</v>
       </c>
       <c r="I52" s="3">
-        <v>0</v>
-      </c>
-      <c r="J52" s="3">
-        <v>0</v>
+        <v>40600</v>
+      </c>
+      <c r="J52" s="3" t="s">
+        <v>3</v>
       </c>
       <c r="K52" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="53" spans="3:11" x14ac:dyDescent="0.2">
+      <c r="L52" s="3">
+        <v>0</v>
+      </c>
+      <c r="M52" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="53" spans="3:13" x14ac:dyDescent="0.2">
       <c r="C53" s="1" t="s">
         <v>46</v>
       </c>
@@ -1906,37 +2155,49 @@
       <c r="K53" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="54" spans="3:11" x14ac:dyDescent="0.2">
+      <c r="L53" s="3">
+        <v>0</v>
+      </c>
+      <c r="M53" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="54" spans="3:13" x14ac:dyDescent="0.2">
       <c r="C54" s="1" t="s">
         <v>47</v>
       </c>
       <c r="D54" s="3">
-        <v>0</v>
+        <v>3782800</v>
       </c>
       <c r="E54" s="3">
-        <v>0</v>
+        <v>3253700</v>
       </c>
       <c r="F54" s="3">
-        <v>0</v>
+        <v>3476200</v>
       </c>
       <c r="G54" s="3">
-        <v>0</v>
+        <v>7383000</v>
       </c>
       <c r="H54" s="3">
-        <v>0</v>
+        <v>7352000</v>
       </c>
       <c r="I54" s="3">
-        <v>0</v>
-      </c>
-      <c r="J54" s="3">
-        <v>0</v>
+        <v>6770900</v>
+      </c>
+      <c r="J54" s="3" t="s">
+        <v>3</v>
       </c>
       <c r="K54" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="55" spans="3:11" x14ac:dyDescent="0.2">
+      <c r="L54" s="3">
+        <v>0</v>
+      </c>
+      <c r="M54" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="55" spans="3:13" x14ac:dyDescent="0.2">
       <c r="C55" s="1" t="s">
         <v>48</v>
       </c>
@@ -1948,8 +2209,10 @@
       <c r="I55" s="3"/>
       <c r="J55" s="3"/>
       <c r="K55" s="3"/>
-    </row>
-    <row r="56" spans="3:11" x14ac:dyDescent="0.2">
+      <c r="L55" s="3"/>
+      <c r="M55" s="3"/>
+    </row>
+    <row r="56" spans="3:13" x14ac:dyDescent="0.2">
       <c r="C56" s="1" t="s">
         <v>49</v>
       </c>
@@ -1961,144 +2224,170 @@
       <c r="I56" s="3"/>
       <c r="J56" s="3"/>
       <c r="K56" s="3"/>
-    </row>
-    <row r="57" spans="3:11" x14ac:dyDescent="0.2">
+      <c r="L56" s="3"/>
+      <c r="M56" s="3"/>
+    </row>
+    <row r="57" spans="3:13" x14ac:dyDescent="0.2">
       <c r="C57" s="1" t="s">
         <v>50</v>
       </c>
       <c r="D57" s="3">
-        <v>0</v>
+        <v>851300</v>
       </c>
       <c r="E57" s="3">
-        <v>0</v>
+        <v>777400</v>
       </c>
       <c r="F57" s="3">
-        <v>0</v>
+        <v>941800</v>
       </c>
       <c r="G57" s="3">
-        <v>0</v>
+        <v>1544800</v>
       </c>
       <c r="H57" s="3">
-        <v>0</v>
+        <v>1534100</v>
       </c>
       <c r="I57" s="3">
-        <v>0</v>
-      </c>
-      <c r="J57" s="3">
-        <v>0</v>
+        <v>1516200</v>
+      </c>
+      <c r="J57" s="3" t="s">
+        <v>3</v>
       </c>
       <c r="K57" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="58" spans="3:11" x14ac:dyDescent="0.2">
+      <c r="L57" s="3">
+        <v>0</v>
+      </c>
+      <c r="M57" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="58" spans="3:13" x14ac:dyDescent="0.2">
       <c r="C58" s="1" t="s">
         <v>51</v>
       </c>
       <c r="D58" s="3">
-        <v>0</v>
+        <v>444000</v>
       </c>
       <c r="E58" s="3">
-        <v>0</v>
+        <v>378300</v>
       </c>
       <c r="F58" s="3">
-        <v>0</v>
+        <v>423300</v>
       </c>
       <c r="G58" s="3">
-        <v>0</v>
+        <v>775700</v>
       </c>
       <c r="H58" s="3">
-        <v>0</v>
+        <v>496800</v>
       </c>
       <c r="I58" s="3">
-        <v>0</v>
-      </c>
-      <c r="J58" s="3">
-        <v>0</v>
+        <v>539100</v>
+      </c>
+      <c r="J58" s="3" t="s">
+        <v>3</v>
       </c>
       <c r="K58" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="59" spans="3:11" x14ac:dyDescent="0.2">
+      <c r="L58" s="3">
+        <v>0</v>
+      </c>
+      <c r="M58" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="59" spans="3:13" x14ac:dyDescent="0.2">
       <c r="C59" s="1" t="s">
         <v>52</v>
       </c>
       <c r="D59" s="3">
-        <v>0</v>
+        <v>183400</v>
       </c>
       <c r="E59" s="3">
-        <v>0</v>
+        <v>183000</v>
       </c>
       <c r="F59" s="3">
-        <v>0</v>
+        <v>246000</v>
       </c>
       <c r="G59" s="3">
-        <v>0</v>
+        <v>482100</v>
       </c>
       <c r="H59" s="3">
-        <v>0</v>
+        <v>460500</v>
       </c>
       <c r="I59" s="3">
-        <v>0</v>
-      </c>
-      <c r="J59" s="3">
-        <v>0</v>
+        <v>407600</v>
+      </c>
+      <c r="J59" s="3" t="s">
+        <v>3</v>
       </c>
       <c r="K59" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="60" spans="3:11" x14ac:dyDescent="0.2">
+      <c r="L59" s="3">
+        <v>0</v>
+      </c>
+      <c r="M59" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="60" spans="3:13" x14ac:dyDescent="0.2">
       <c r="C60" s="1" t="s">
         <v>53</v>
       </c>
       <c r="D60" s="3">
-        <v>0</v>
+        <v>1478700</v>
       </c>
       <c r="E60" s="3">
-        <v>0</v>
+        <v>1338700</v>
       </c>
       <c r="F60" s="3">
-        <v>0</v>
+        <v>1611100</v>
       </c>
       <c r="G60" s="3">
-        <v>0</v>
+        <v>2802600</v>
       </c>
       <c r="H60" s="3">
-        <v>0</v>
+        <v>2491400</v>
       </c>
       <c r="I60" s="3">
-        <v>0</v>
-      </c>
-      <c r="J60" s="3">
-        <v>0</v>
+        <v>2463000</v>
+      </c>
+      <c r="J60" s="3" t="s">
+        <v>3</v>
       </c>
       <c r="K60" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="61" spans="3:11" x14ac:dyDescent="0.2">
+      <c r="L60" s="3">
+        <v>0</v>
+      </c>
+      <c r="M60" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="61" spans="3:13" x14ac:dyDescent="0.2">
       <c r="C61" s="1" t="s">
         <v>54</v>
       </c>
       <c r="D61" s="3">
-        <v>0</v>
+        <v>1888000</v>
       </c>
       <c r="E61" s="3">
-        <v>0</v>
+        <v>1548900</v>
       </c>
       <c r="F61" s="3">
-        <v>0</v>
+        <v>1535800</v>
       </c>
       <c r="G61" s="3">
-        <v>0</v>
+        <v>1968200</v>
       </c>
       <c r="H61" s="3">
-        <v>0</v>
+        <v>2317200</v>
       </c>
       <c r="I61" s="3">
-        <v>0</v>
+        <v>2073800</v>
       </c>
       <c r="J61" s="3">
         <v>0</v>
@@ -2106,37 +2395,49 @@
       <c r="K61" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="62" spans="3:11" x14ac:dyDescent="0.2">
+      <c r="L61" s="3">
+        <v>0</v>
+      </c>
+      <c r="M61" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="62" spans="3:13" x14ac:dyDescent="0.2">
       <c r="C62" s="1" t="s">
         <v>55</v>
       </c>
       <c r="D62" s="3">
-        <v>0</v>
+        <v>62100</v>
       </c>
       <c r="E62" s="3">
-        <v>0</v>
+        <v>72400</v>
       </c>
       <c r="F62" s="3">
-        <v>0</v>
+        <v>68900</v>
       </c>
       <c r="G62" s="3">
-        <v>0</v>
+        <v>266900</v>
       </c>
       <c r="H62" s="3">
-        <v>0</v>
+        <v>292200</v>
       </c>
       <c r="I62" s="3">
-        <v>0</v>
-      </c>
-      <c r="J62" s="3">
-        <v>0</v>
+        <v>297700</v>
+      </c>
+      <c r="J62" s="3" t="s">
+        <v>3</v>
       </c>
       <c r="K62" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="63" spans="3:11" x14ac:dyDescent="0.2">
+      <c r="L62" s="3">
+        <v>0</v>
+      </c>
+      <c r="M62" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="63" spans="3:13" x14ac:dyDescent="0.2">
       <c r="C63" s="1" t="s">
         <v>56</v>
       </c>
@@ -2164,8 +2465,14 @@
       <c r="K63" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="64" spans="3:11" x14ac:dyDescent="0.2">
+      <c r="L63" s="3">
+        <v>0</v>
+      </c>
+      <c r="M63" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="64" spans="3:13" x14ac:dyDescent="0.2">
       <c r="C64" s="1" t="s">
         <v>20</v>
       </c>
@@ -2193,8 +2500,14 @@
       <c r="K64" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="65" spans="2:11" x14ac:dyDescent="0.2">
+      <c r="L64" s="3">
+        <v>0</v>
+      </c>
+      <c r="M64" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="65" spans="2:13" x14ac:dyDescent="0.2">
       <c r="C65" s="1" t="s">
         <v>57</v>
       </c>
@@ -2222,37 +2535,49 @@
       <c r="K65" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="66" spans="2:11" x14ac:dyDescent="0.2">
+      <c r="L65" s="3">
+        <v>0</v>
+      </c>
+      <c r="M65" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="66" spans="2:13" x14ac:dyDescent="0.2">
       <c r="C66" s="1" t="s">
         <v>58</v>
       </c>
       <c r="D66" s="3">
-        <v>0</v>
+        <v>3428800</v>
       </c>
       <c r="E66" s="3">
-        <v>0</v>
+        <v>2960000</v>
       </c>
       <c r="F66" s="3">
-        <v>0</v>
+        <v>3215800</v>
       </c>
       <c r="G66" s="3">
-        <v>0</v>
+        <v>5619500</v>
       </c>
       <c r="H66" s="3">
-        <v>0</v>
+        <v>5673400</v>
       </c>
       <c r="I66" s="3">
-        <v>0</v>
-      </c>
-      <c r="J66" s="3">
-        <v>0</v>
+        <v>5331700</v>
+      </c>
+      <c r="J66" s="3" t="s">
+        <v>3</v>
       </c>
       <c r="K66" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="67" spans="2:11" x14ac:dyDescent="0.2">
+      <c r="L66" s="3">
+        <v>0</v>
+      </c>
+      <c r="M66" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="67" spans="2:13" x14ac:dyDescent="0.2">
       <c r="C67" s="1" t="s">
         <v>59</v>
       </c>
@@ -2264,8 +2589,10 @@
       <c r="I67" s="3"/>
       <c r="J67" s="3"/>
       <c r="K67" s="3"/>
-    </row>
-    <row r="68" spans="2:11" x14ac:dyDescent="0.2">
+      <c r="L67" s="3"/>
+      <c r="M67" s="3"/>
+    </row>
+    <row r="68" spans="2:13" x14ac:dyDescent="0.2">
       <c r="C68" s="1" t="s">
         <v>60</v>
       </c>
@@ -2293,8 +2620,14 @@
       <c r="K68" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="69" spans="2:11" x14ac:dyDescent="0.2">
+      <c r="L68" s="3">
+        <v>0</v>
+      </c>
+      <c r="M68" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="69" spans="2:13" x14ac:dyDescent="0.2">
       <c r="C69" s="1" t="s">
         <v>61</v>
       </c>
@@ -2322,8 +2655,14 @@
       <c r="K69" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="70" spans="2:11" x14ac:dyDescent="0.2">
+      <c r="L69" s="3">
+        <v>0</v>
+      </c>
+      <c r="M69" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="70" spans="2:13" x14ac:dyDescent="0.2">
       <c r="C70" s="1" t="s">
         <v>62</v>
       </c>
@@ -2351,8 +2690,14 @@
       <c r="K70" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="71" spans="2:11" x14ac:dyDescent="0.2">
+      <c r="L70" s="3">
+        <v>0</v>
+      </c>
+      <c r="M70" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="71" spans="2:13" x14ac:dyDescent="0.2">
       <c r="C71" s="1" t="s">
         <v>63</v>
       </c>
@@ -2380,37 +2725,49 @@
       <c r="K71" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="72" spans="2:11" x14ac:dyDescent="0.2">
+      <c r="L71" s="3">
+        <v>0</v>
+      </c>
+      <c r="M71" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="72" spans="2:13" x14ac:dyDescent="0.2">
       <c r="C72" s="1" t="s">
         <v>64</v>
       </c>
       <c r="D72" s="3">
-        <v>0</v>
+        <v>210200</v>
       </c>
       <c r="E72" s="3">
-        <v>0</v>
+        <v>153100</v>
       </c>
       <c r="F72" s="3">
-        <v>0</v>
+        <v>119900</v>
       </c>
       <c r="G72" s="3">
-        <v>0</v>
+        <v>533200</v>
       </c>
       <c r="H72" s="3">
-        <v>0</v>
+        <v>510900</v>
       </c>
       <c r="I72" s="3">
-        <v>0</v>
-      </c>
-      <c r="J72" s="3">
-        <v>0</v>
+        <v>478000</v>
+      </c>
+      <c r="J72" s="3" t="s">
+        <v>3</v>
       </c>
       <c r="K72" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="73" spans="2:11" x14ac:dyDescent="0.2">
+      <c r="L72" s="3">
+        <v>0</v>
+      </c>
+      <c r="M72" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="73" spans="2:13" x14ac:dyDescent="0.2">
       <c r="C73" s="1" t="s">
         <v>65</v>
       </c>
@@ -2438,8 +2795,14 @@
       <c r="K73" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="74" spans="2:11" x14ac:dyDescent="0.2">
+      <c r="L73" s="3">
+        <v>0</v>
+      </c>
+      <c r="M73" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="74" spans="2:13" x14ac:dyDescent="0.2">
       <c r="C74" s="1" t="s">
         <v>66</v>
       </c>
@@ -2467,8 +2830,14 @@
       <c r="K74" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="75" spans="2:11" x14ac:dyDescent="0.2">
+      <c r="L74" s="3">
+        <v>0</v>
+      </c>
+      <c r="M74" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="75" spans="2:13" x14ac:dyDescent="0.2">
       <c r="C75" s="1" t="s">
         <v>67</v>
       </c>
@@ -2496,37 +2865,49 @@
       <c r="K75" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="76" spans="2:11" x14ac:dyDescent="0.2">
+      <c r="L75" s="3">
+        <v>0</v>
+      </c>
+      <c r="M75" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="76" spans="2:13" x14ac:dyDescent="0.2">
       <c r="C76" s="1" t="s">
         <v>68</v>
       </c>
       <c r="D76" s="3">
-        <v>0</v>
+        <v>354100</v>
       </c>
       <c r="E76" s="3">
-        <v>0</v>
+        <v>293700</v>
       </c>
       <c r="F76" s="3">
-        <v>0</v>
+        <v>260400</v>
       </c>
       <c r="G76" s="3">
-        <v>0</v>
+        <v>1763500</v>
       </c>
       <c r="H76" s="3">
-        <v>0</v>
+        <v>1678600</v>
       </c>
       <c r="I76" s="3">
-        <v>0</v>
-      </c>
-      <c r="J76" s="3">
-        <v>0</v>
+        <v>1439200</v>
+      </c>
+      <c r="J76" s="3" t="s">
+        <v>3</v>
       </c>
       <c r="K76" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="77" spans="2:11" x14ac:dyDescent="0.2">
+      <c r="L76" s="3">
+        <v>0</v>
+      </c>
+      <c r="M76" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="77" spans="2:13" x14ac:dyDescent="0.2">
       <c r="C77" s="1" t="s">
         <v>69</v>
       </c>
@@ -2554,71 +2935,89 @@
       <c r="K77" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="79" spans="2:11" x14ac:dyDescent="0.2">
+      <c r="L77" s="3">
+        <v>0</v>
+      </c>
+      <c r="M77" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="79" spans="2:13" x14ac:dyDescent="0.2">
       <c r="B79" s="1" t="s">
         <v>70</v>
       </c>
     </row>
-    <row r="80" spans="2:11" x14ac:dyDescent="0.2">
+    <row r="80" spans="2:13" x14ac:dyDescent="0.2">
       <c r="C80" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D80" s="2">
+        <v>44377</v>
+      </c>
+      <c r="E80" s="2">
+        <v>44286</v>
+      </c>
+      <c r="F80" s="2">
         <v>44196</v>
       </c>
-      <c r="E80" s="2">
+      <c r="G80" s="2">
         <v>44104</v>
       </c>
-      <c r="F80" s="2">
+      <c r="H80" s="2">
+        <v>44012</v>
+      </c>
+      <c r="I80" s="2">
+        <v>43921</v>
+      </c>
+      <c r="J80" s="2">
         <v>43830</v>
       </c>
-      <c r="G80" s="2">
-        <v>43738</v>
-      </c>
-      <c r="H80" s="2" t="s">
-        <v>3</v>
-      </c>
-      <c r="I80" s="2" t="s">
-        <v>3</v>
-      </c>
-      <c r="J80" s="2" t="s">
-        <v>3</v>
-      </c>
       <c r="K80" s="2" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="81" spans="3:11" x14ac:dyDescent="0.2">
+      <c r="L80" s="2" t="s">
+        <v>3</v>
+      </c>
+      <c r="M80" s="2" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="81" spans="3:13" x14ac:dyDescent="0.2">
       <c r="C81" s="1" t="s">
         <v>28</v>
       </c>
       <c r="D81" s="3">
-        <v>291900</v>
+        <v>56300</v>
       </c>
       <c r="E81" s="3">
-        <v>133600</v>
+        <v>44300</v>
       </c>
       <c r="F81" s="3">
-        <v>51200</v>
+        <v>258200</v>
       </c>
       <c r="G81" s="3">
-        <v>145200</v>
-      </c>
-      <c r="H81" s="3" t="s">
-        <v>3</v>
-      </c>
-      <c r="I81" s="3" t="s">
-        <v>3</v>
-      </c>
-      <c r="J81" s="3" t="s">
-        <v>3</v>
+        <v>80700</v>
+      </c>
+      <c r="H81" s="3">
+        <v>32300</v>
+      </c>
+      <c r="I81" s="3">
+        <v>18500</v>
+      </c>
+      <c r="J81" s="3">
+        <v>50400</v>
       </c>
       <c r="K81" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="82" spans="3:11" x14ac:dyDescent="0.2">
+      <c r="L81" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="M81" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="82" spans="3:13" x14ac:dyDescent="0.2">
       <c r="C82" s="1" t="s">
         <v>71</v>
       </c>
@@ -2630,37 +3029,45 @@
       <c r="I82" s="3"/>
       <c r="J82" s="3"/>
       <c r="K82" s="3"/>
-    </row>
-    <row r="83" spans="3:11" x14ac:dyDescent="0.2">
+      <c r="L82" s="3"/>
+      <c r="M82" s="3"/>
+    </row>
+    <row r="83" spans="3:13" x14ac:dyDescent="0.2">
       <c r="C83" s="1" t="s">
         <v>72</v>
       </c>
       <c r="D83" s="3">
-        <v>257400</v>
+        <v>30800</v>
       </c>
       <c r="E83" s="3">
-        <v>188000</v>
+        <v>29000</v>
       </c>
       <c r="F83" s="3">
-        <v>33800</v>
+        <v>253400</v>
       </c>
       <c r="G83" s="3">
-        <v>57000</v>
-      </c>
-      <c r="H83" s="3" t="s">
-        <v>3</v>
-      </c>
-      <c r="I83" s="3" t="s">
-        <v>3</v>
-      </c>
-      <c r="J83" s="3" t="s">
-        <v>3</v>
+        <v>65800</v>
+      </c>
+      <c r="H83" s="3">
+        <v>61300</v>
+      </c>
+      <c r="I83" s="3">
+        <v>58000</v>
+      </c>
+      <c r="J83" s="3">
+        <v>33200</v>
       </c>
       <c r="K83" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="84" spans="3:11" x14ac:dyDescent="0.2">
+      <c r="L83" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="M83" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="84" spans="3:13" x14ac:dyDescent="0.2">
       <c r="C84" s="1" t="s">
         <v>73</v>
       </c>
@@ -2688,8 +3095,14 @@
       <c r="K84" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="85" spans="3:11" x14ac:dyDescent="0.2">
+      <c r="L84" s="3">
+        <v>0</v>
+      </c>
+      <c r="M84" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="85" spans="3:13" x14ac:dyDescent="0.2">
       <c r="C85" s="1" t="s">
         <v>74</v>
       </c>
@@ -2717,8 +3130,14 @@
       <c r="K85" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="86" spans="3:11" x14ac:dyDescent="0.2">
+      <c r="L85" s="3">
+        <v>0</v>
+      </c>
+      <c r="M85" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="86" spans="3:13" x14ac:dyDescent="0.2">
       <c r="C86" s="1" t="s">
         <v>75</v>
       </c>
@@ -2746,8 +3165,14 @@
       <c r="K86" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="87" spans="3:11" x14ac:dyDescent="0.2">
+      <c r="L86" s="3">
+        <v>0</v>
+      </c>
+      <c r="M86" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="87" spans="3:13" x14ac:dyDescent="0.2">
       <c r="C87" s="1" t="s">
         <v>76</v>
       </c>
@@ -2775,8 +3200,14 @@
       <c r="K87" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="88" spans="3:11" x14ac:dyDescent="0.2">
+      <c r="L87" s="3">
+        <v>0</v>
+      </c>
+      <c r="M87" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="88" spans="3:13" x14ac:dyDescent="0.2">
       <c r="C88" s="1" t="s">
         <v>77</v>
       </c>
@@ -2804,37 +3235,49 @@
       <c r="K88" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="89" spans="3:11" x14ac:dyDescent="0.2">
+      <c r="L88" s="3">
+        <v>0</v>
+      </c>
+      <c r="M88" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="89" spans="3:13" x14ac:dyDescent="0.2">
       <c r="C89" s="1" t="s">
         <v>78</v>
       </c>
       <c r="D89" s="3">
-        <v>656200</v>
+        <v>132100</v>
       </c>
       <c r="E89" s="3">
-        <v>-120400</v>
+        <v>-40400</v>
       </c>
       <c r="F89" s="3">
-        <v>531200</v>
+        <v>646100</v>
       </c>
       <c r="G89" s="3">
-        <v>61300</v>
-      </c>
-      <c r="H89" s="3" t="s">
-        <v>3</v>
-      </c>
-      <c r="I89" s="3" t="s">
-        <v>3</v>
-      </c>
-      <c r="J89" s="3" t="s">
-        <v>3</v>
+        <v>45400</v>
+      </c>
+      <c r="H89" s="3">
+        <v>188900</v>
+      </c>
+      <c r="I89" s="3">
+        <v>-353000</v>
+      </c>
+      <c r="J89" s="3">
+        <v>523100</v>
       </c>
       <c r="K89" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="90" spans="3:11" x14ac:dyDescent="0.2">
+      <c r="L89" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="M89" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="90" spans="3:13" x14ac:dyDescent="0.2">
       <c r="C90" s="1" t="s">
         <v>79</v>
       </c>
@@ -2846,37 +3289,45 @@
       <c r="I90" s="3"/>
       <c r="J90" s="3"/>
       <c r="K90" s="3"/>
-    </row>
-    <row r="91" spans="3:11" x14ac:dyDescent="0.2">
+      <c r="L90" s="3"/>
+      <c r="M90" s="3"/>
+    </row>
+    <row r="91" spans="3:13" x14ac:dyDescent="0.2">
       <c r="C91" s="1" t="s">
         <v>80</v>
       </c>
       <c r="D91" s="3">
-        <v>-2800</v>
+        <v>-104400</v>
       </c>
       <c r="E91" s="3">
-        <v>-2300</v>
+        <v>-32100</v>
       </c>
       <c r="F91" s="3">
-        <v>155700</v>
+        <v>-288500</v>
       </c>
       <c r="G91" s="3">
-        <v>-157900</v>
-      </c>
-      <c r="H91" s="3" t="s">
-        <v>3</v>
-      </c>
-      <c r="I91" s="3" t="s">
-        <v>3</v>
-      </c>
-      <c r="J91" s="3" t="s">
-        <v>3</v>
+        <v>-81500</v>
+      </c>
+      <c r="H91" s="3">
+        <v>-61900</v>
+      </c>
+      <c r="I91" s="3">
+        <v>-66900</v>
+      </c>
+      <c r="J91" s="3">
+        <v>-95100</v>
       </c>
       <c r="K91" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="92" spans="3:11" x14ac:dyDescent="0.2">
+      <c r="L91" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="M91" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="92" spans="3:13" x14ac:dyDescent="0.2">
       <c r="C92" s="1" t="s">
         <v>81</v>
       </c>
@@ -2904,8 +3355,14 @@
       <c r="K92" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="93" spans="3:11" x14ac:dyDescent="0.2">
+      <c r="L92" s="3">
+        <v>0</v>
+      </c>
+      <c r="M92" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="93" spans="3:13" x14ac:dyDescent="0.2">
       <c r="C93" s="1" t="s">
         <v>82</v>
       </c>
@@ -2933,37 +3390,49 @@
       <c r="K93" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="94" spans="3:11" x14ac:dyDescent="0.2">
+      <c r="L93" s="3">
+        <v>0</v>
+      </c>
+      <c r="M93" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="94" spans="3:13" x14ac:dyDescent="0.2">
       <c r="C94" s="1" t="s">
         <v>83</v>
       </c>
       <c r="D94" s="3">
-        <v>-897900</v>
+        <v>-107100</v>
       </c>
       <c r="E94" s="3">
-        <v>-129400</v>
+        <v>-32700</v>
       </c>
       <c r="F94" s="3">
-        <v>-655400</v>
+        <v>-884200</v>
       </c>
       <c r="G94" s="3">
-        <v>-164300</v>
-      </c>
-      <c r="H94" s="3" t="s">
-        <v>3</v>
-      </c>
-      <c r="I94" s="3" t="s">
-        <v>3</v>
-      </c>
-      <c r="J94" s="3" t="s">
-        <v>3</v>
+        <v>-61100</v>
+      </c>
+      <c r="H94" s="3">
+        <v>4800</v>
+      </c>
+      <c r="I94" s="3">
+        <v>-71100</v>
+      </c>
+      <c r="J94" s="3">
+        <v>-645300</v>
       </c>
       <c r="K94" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="95" spans="3:11" x14ac:dyDescent="0.2">
+      <c r="L94" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="M94" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="95" spans="3:13" x14ac:dyDescent="0.2">
       <c r="C95" s="1" t="s">
         <v>84</v>
       </c>
@@ -2975,37 +3444,45 @@
       <c r="I95" s="3"/>
       <c r="J95" s="3"/>
       <c r="K95" s="3"/>
-    </row>
-    <row r="96" spans="3:11" x14ac:dyDescent="0.2">
+      <c r="L95" s="3"/>
+      <c r="M95" s="3"/>
+    </row>
+    <row r="96" spans="3:13" x14ac:dyDescent="0.2">
       <c r="C96" s="1" t="s">
         <v>85</v>
       </c>
       <c r="D96" s="3">
-        <v>0</v>
+        <v>-15700</v>
       </c>
       <c r="E96" s="3">
         <v>0</v>
       </c>
       <c r="F96" s="3">
-        <v>0</v>
+        <v>-90300</v>
       </c>
       <c r="G96" s="3">
-        <v>0</v>
+        <v>-2600</v>
       </c>
       <c r="H96" s="3">
-        <v>0</v>
+        <v>-19800</v>
       </c>
       <c r="I96" s="3">
-        <v>0</v>
+        <v>-3100</v>
       </c>
       <c r="J96" s="3">
-        <v>0</v>
+        <v>-46000</v>
       </c>
       <c r="K96" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="97" spans="3:11" x14ac:dyDescent="0.2">
+      <c r="L96" s="3">
+        <v>0</v>
+      </c>
+      <c r="M96" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="97" spans="3:13" x14ac:dyDescent="0.2">
       <c r="C97" s="1" t="s">
         <v>86</v>
       </c>
@@ -3033,8 +3510,14 @@
       <c r="K97" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="98" spans="3:11" x14ac:dyDescent="0.2">
+      <c r="L97" s="3">
+        <v>0</v>
+      </c>
+      <c r="M97" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="98" spans="3:13" x14ac:dyDescent="0.2">
       <c r="C98" s="1" t="s">
         <v>87</v>
       </c>
@@ -3062,8 +3545,14 @@
       <c r="K98" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="99" spans="3:11" x14ac:dyDescent="0.2">
+      <c r="L98" s="3">
+        <v>0</v>
+      </c>
+      <c r="M98" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="99" spans="3:13" x14ac:dyDescent="0.2">
       <c r="C99" s="1" t="s">
         <v>88</v>
       </c>
@@ -3091,91 +3580,115 @@
       <c r="K99" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="100" spans="3:11" x14ac:dyDescent="0.2">
+      <c r="L99" s="3">
+        <v>0</v>
+      </c>
+      <c r="M99" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="100" spans="3:13" x14ac:dyDescent="0.2">
       <c r="C100" s="1" t="s">
         <v>89</v>
       </c>
       <c r="D100" s="3">
-        <v>-148800</v>
+        <v>297700</v>
       </c>
       <c r="E100" s="3">
-        <v>-42000</v>
+        <v>-68700</v>
       </c>
       <c r="F100" s="3">
-        <v>-696500</v>
+        <v>-146500</v>
       </c>
       <c r="G100" s="3">
-        <v>1580900</v>
-      </c>
-      <c r="H100" s="3" t="s">
-        <v>3</v>
-      </c>
-      <c r="I100" s="3" t="s">
-        <v>3</v>
-      </c>
-      <c r="J100" s="3" t="s">
-        <v>3</v>
+        <v>-112300</v>
+      </c>
+      <c r="H100" s="3">
+        <v>-93600</v>
+      </c>
+      <c r="I100" s="3">
+        <v>164600</v>
+      </c>
+      <c r="J100" s="3">
+        <v>-685800</v>
       </c>
       <c r="K100" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="101" spans="3:11" x14ac:dyDescent="0.2">
+      <c r="L100" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="M100" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="101" spans="3:13" x14ac:dyDescent="0.2">
       <c r="C101" s="1" t="s">
         <v>90</v>
       </c>
       <c r="D101" s="3">
-        <v>110300</v>
+        <v>0</v>
       </c>
       <c r="E101" s="3">
-        <v>80300</v>
+        <v>0</v>
       </c>
       <c r="F101" s="3">
-        <v>20800</v>
+        <v>108600</v>
       </c>
       <c r="G101" s="3">
-        <v>0</v>
-      </c>
-      <c r="H101" s="3" t="s">
-        <v>3</v>
-      </c>
-      <c r="I101" s="3" t="s">
-        <v>3</v>
-      </c>
-      <c r="J101" s="3" t="s">
-        <v>3</v>
+        <v>-5000</v>
+      </c>
+      <c r="H101" s="3">
+        <v>55200</v>
+      </c>
+      <c r="I101" s="3">
+        <v>28800</v>
+      </c>
+      <c r="J101" s="3">
+        <v>20500</v>
       </c>
       <c r="K101" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="102" spans="3:11" x14ac:dyDescent="0.2">
+      <c r="L101" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="M101" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="102" spans="3:13" x14ac:dyDescent="0.2">
       <c r="C102" s="1" t="s">
         <v>91</v>
       </c>
       <c r="D102" s="3">
-        <v>-280200</v>
+        <v>322700</v>
       </c>
       <c r="E102" s="3">
-        <v>-211600</v>
+        <v>-141800</v>
       </c>
       <c r="F102" s="3">
-        <v>-799800</v>
+        <v>-275900</v>
       </c>
       <c r="G102" s="3">
-        <v>1477900</v>
-      </c>
-      <c r="H102" s="3" t="s">
-        <v>3</v>
-      </c>
-      <c r="I102" s="3" t="s">
-        <v>3</v>
-      </c>
-      <c r="J102" s="3" t="s">
-        <v>3</v>
+        <v>-133000</v>
+      </c>
+      <c r="H102" s="3">
+        <v>155300</v>
+      </c>
+      <c r="I102" s="3">
+        <v>-230700</v>
+      </c>
+      <c r="J102" s="3">
+        <v>-787600</v>
       </c>
       <c r="K102" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="L102" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="M102" s="3" t="s">
         <v>3</v>
       </c>
     </row>

--- a/AAII_Financials/Quarterly/ASAI_QTR_FIN.xlsx
+++ b/AAII_Financials/Quarterly/ASAI_QTR_FIN.xlsx
@@ -725,25 +725,25 @@
         <v>4</v>
       </c>
       <c r="D8" s="3">
-        <v>1856100</v>
+        <v>1793900</v>
       </c>
       <c r="E8" s="3">
-        <v>1745000</v>
+        <v>1686700</v>
       </c>
       <c r="F8" s="3">
-        <v>6657100</v>
+        <v>6434400</v>
       </c>
       <c r="G8" s="3">
-        <v>2691400</v>
+        <v>2601400</v>
       </c>
       <c r="H8" s="3">
-        <v>1522300</v>
+        <v>1471400</v>
       </c>
       <c r="I8" s="3">
-        <v>1447700</v>
+        <v>1399200</v>
       </c>
       <c r="J8" s="3">
-        <v>1476500</v>
+        <v>1427100</v>
       </c>
       <c r="K8" s="3" t="s">
         <v>3</v>
@@ -760,25 +760,25 @@
         <v>5</v>
       </c>
       <c r="D9" s="3">
-        <v>1538000</v>
+        <v>1486500</v>
       </c>
       <c r="E9" s="3">
-        <v>1466700</v>
+        <v>1417600</v>
       </c>
       <c r="F9" s="3">
-        <v>5564800</v>
+        <v>5378600</v>
       </c>
       <c r="G9" s="3">
-        <v>2166700</v>
+        <v>2094200</v>
       </c>
       <c r="H9" s="3">
-        <v>1275200</v>
+        <v>1232500</v>
       </c>
       <c r="I9" s="3">
-        <v>1222900</v>
+        <v>1182000</v>
       </c>
       <c r="J9" s="3">
-        <v>1230800</v>
+        <v>1189700</v>
       </c>
       <c r="K9" s="3" t="s">
         <v>3</v>
@@ -795,25 +795,25 @@
         <v>6</v>
       </c>
       <c r="D10" s="3">
-        <v>318100</v>
+        <v>307400</v>
       </c>
       <c r="E10" s="3">
-        <v>278300</v>
+        <v>269000</v>
       </c>
       <c r="F10" s="3">
-        <v>1092300</v>
+        <v>1055800</v>
       </c>
       <c r="G10" s="3">
-        <v>524700</v>
+        <v>507200</v>
       </c>
       <c r="H10" s="3">
-        <v>247100</v>
+        <v>238900</v>
       </c>
       <c r="I10" s="3">
-        <v>224800</v>
+        <v>217300</v>
       </c>
       <c r="J10" s="3">
-        <v>245700</v>
+        <v>237400</v>
       </c>
       <c r="K10" s="3" t="s">
         <v>3</v>
@@ -915,25 +915,25 @@
         <v>10</v>
       </c>
       <c r="D14" s="3">
-        <v>6500</v>
+        <v>6200</v>
       </c>
       <c r="E14" s="3">
         <v>400</v>
       </c>
       <c r="F14" s="3">
-        <v>41200</v>
+        <v>39800</v>
       </c>
       <c r="G14" s="3">
-        <v>8700</v>
+        <v>8400</v>
       </c>
       <c r="H14" s="3">
-        <v>14000</v>
+        <v>13600</v>
       </c>
       <c r="I14" s="3">
-        <v>7900</v>
+        <v>7700</v>
       </c>
       <c r="J14" s="3">
-        <v>22900</v>
+        <v>22100</v>
       </c>
       <c r="K14" s="3" t="s">
         <v>3</v>
@@ -950,25 +950,25 @@
         <v>11</v>
       </c>
       <c r="D15" s="3">
-        <v>28400</v>
+        <v>27500</v>
       </c>
       <c r="E15" s="3">
-        <v>26800</v>
+        <v>25900</v>
       </c>
       <c r="F15" s="3">
-        <v>92900</v>
+        <v>89800</v>
       </c>
       <c r="G15" s="3">
-        <v>56300</v>
+        <v>54400</v>
       </c>
       <c r="H15" s="3">
-        <v>22300</v>
+        <v>21600</v>
       </c>
       <c r="I15" s="3">
-        <v>21600</v>
+        <v>20900</v>
       </c>
       <c r="J15" s="3">
-        <v>19800</v>
+        <v>19100</v>
       </c>
       <c r="K15" s="3" t="s">
         <v>3</v>
@@ -997,25 +997,25 @@
         <v>12</v>
       </c>
       <c r="D17" s="3">
-        <v>1746000</v>
+        <v>1687500</v>
       </c>
       <c r="E17" s="3">
-        <v>1655800</v>
+        <v>1600400</v>
       </c>
       <c r="F17" s="3">
-        <v>6275200</v>
+        <v>6065200</v>
       </c>
       <c r="G17" s="3">
-        <v>2552900</v>
+        <v>2467500</v>
       </c>
       <c r="H17" s="3">
-        <v>1451400</v>
+        <v>1402800</v>
       </c>
       <c r="I17" s="3">
-        <v>1387500</v>
+        <v>1341000</v>
       </c>
       <c r="J17" s="3">
-        <v>1376900</v>
+        <v>1330900</v>
       </c>
       <c r="K17" s="3" t="s">
         <v>3</v>
@@ -1032,25 +1032,25 @@
         <v>13</v>
       </c>
       <c r="D18" s="3">
-        <v>110100</v>
+        <v>106400</v>
       </c>
       <c r="E18" s="3">
-        <v>89200</v>
+        <v>86200</v>
       </c>
       <c r="F18" s="3">
-        <v>382000</v>
+        <v>369200</v>
       </c>
       <c r="G18" s="3">
-        <v>138500</v>
+        <v>133900</v>
       </c>
       <c r="H18" s="3">
-        <v>70900</v>
+        <v>68600</v>
       </c>
       <c r="I18" s="3">
-        <v>60200</v>
+        <v>58200</v>
       </c>
       <c r="J18" s="3">
-        <v>99600</v>
+        <v>96200</v>
       </c>
       <c r="K18" s="3" t="s">
         <v>3</v>
@@ -1082,25 +1082,25 @@
         <v>15</v>
       </c>
       <c r="D20" s="3">
-        <v>6600</v>
+        <v>6400</v>
       </c>
       <c r="E20" s="3">
-        <v>1500</v>
+        <v>1400</v>
       </c>
       <c r="F20" s="3">
-        <v>46200</v>
+        <v>44600</v>
       </c>
       <c r="G20" s="3">
         <v>-1800</v>
       </c>
       <c r="H20" s="3">
-        <v>-14400</v>
+        <v>-13900</v>
       </c>
       <c r="I20" s="3">
-        <v>13700</v>
+        <v>13200</v>
       </c>
       <c r="J20" s="3">
-        <v>3100</v>
+        <v>3000</v>
       </c>
       <c r="K20" s="3" t="s">
         <v>3</v>
@@ -1117,25 +1117,25 @@
         <v>16</v>
       </c>
       <c r="D21" s="3">
-        <v>147600</v>
+        <v>142600</v>
       </c>
       <c r="E21" s="3">
-        <v>119700</v>
+        <v>115700</v>
       </c>
       <c r="F21" s="3">
-        <v>681500</v>
+        <v>658700</v>
       </c>
       <c r="G21" s="3">
-        <v>202400</v>
+        <v>195700</v>
       </c>
       <c r="H21" s="3">
-        <v>117800</v>
+        <v>113900</v>
       </c>
       <c r="I21" s="3">
-        <v>131900</v>
+        <v>127500</v>
       </c>
       <c r="J21" s="3">
-        <v>135900</v>
+        <v>131400</v>
       </c>
       <c r="K21" s="3" t="s">
         <v>3</v>
@@ -1152,25 +1152,25 @@
         <v>17</v>
       </c>
       <c r="D22" s="3">
-        <v>33400</v>
+        <v>32300</v>
       </c>
       <c r="E22" s="3">
-        <v>26200</v>
+        <v>25300</v>
       </c>
       <c r="F22" s="3">
-        <v>128000</v>
+        <v>123700</v>
       </c>
       <c r="G22" s="3">
-        <v>40100</v>
+        <v>38700</v>
       </c>
       <c r="H22" s="3">
-        <v>9800</v>
+        <v>9500</v>
       </c>
       <c r="I22" s="3">
-        <v>42300</v>
+        <v>40900</v>
       </c>
       <c r="J22" s="3">
-        <v>36800</v>
+        <v>35500</v>
       </c>
       <c r="K22" s="3" t="s">
         <v>3</v>
@@ -1187,25 +1187,25 @@
         <v>18</v>
       </c>
       <c r="D23" s="3">
-        <v>83300</v>
+        <v>80500</v>
       </c>
       <c r="E23" s="3">
-        <v>64500</v>
+        <v>62300</v>
       </c>
       <c r="F23" s="3">
-        <v>300100</v>
+        <v>290100</v>
       </c>
       <c r="G23" s="3">
-        <v>96600</v>
+        <v>93400</v>
       </c>
       <c r="H23" s="3">
-        <v>46700</v>
+        <v>45200</v>
       </c>
       <c r="I23" s="3">
-        <v>31600</v>
+        <v>30500</v>
       </c>
       <c r="J23" s="3">
-        <v>65900</v>
+        <v>63700</v>
       </c>
       <c r="K23" s="3" t="s">
         <v>3</v>
@@ -1222,25 +1222,25 @@
         <v>19</v>
       </c>
       <c r="D24" s="3">
-        <v>27000</v>
+        <v>26100</v>
       </c>
       <c r="E24" s="3">
-        <v>20100</v>
+        <v>19500</v>
       </c>
       <c r="F24" s="3">
-        <v>80500</v>
+        <v>77800</v>
       </c>
       <c r="G24" s="3">
-        <v>7800</v>
+        <v>7500</v>
       </c>
       <c r="H24" s="3">
-        <v>15500</v>
+        <v>15000</v>
       </c>
       <c r="I24" s="3">
-        <v>10200</v>
+        <v>9800</v>
       </c>
       <c r="J24" s="3">
-        <v>10200</v>
+        <v>9800</v>
       </c>
       <c r="K24" s="3" t="s">
         <v>3</v>
@@ -1292,25 +1292,25 @@
         <v>21</v>
       </c>
       <c r="D26" s="3">
-        <v>56300</v>
+        <v>54400</v>
       </c>
       <c r="E26" s="3">
-        <v>44300</v>
+        <v>42800</v>
       </c>
       <c r="F26" s="3">
-        <v>219600</v>
+        <v>212300</v>
       </c>
       <c r="G26" s="3">
-        <v>88800</v>
+        <v>85900</v>
       </c>
       <c r="H26" s="3">
-        <v>31200</v>
+        <v>30200</v>
       </c>
       <c r="I26" s="3">
-        <v>21400</v>
+        <v>20700</v>
       </c>
       <c r="J26" s="3">
-        <v>55800</v>
+        <v>53900</v>
       </c>
       <c r="K26" s="3" t="s">
         <v>3</v>
@@ -1327,25 +1327,25 @@
         <v>22</v>
       </c>
       <c r="D27" s="3">
-        <v>56300</v>
+        <v>54400</v>
       </c>
       <c r="E27" s="3">
-        <v>44300</v>
+        <v>42800</v>
       </c>
       <c r="F27" s="3">
-        <v>190400</v>
+        <v>184100</v>
       </c>
       <c r="G27" s="3">
-        <v>80700</v>
+        <v>78000</v>
       </c>
       <c r="H27" s="3">
-        <v>21600</v>
+        <v>20900</v>
       </c>
       <c r="I27" s="3">
-        <v>17400</v>
+        <v>16800</v>
       </c>
       <c r="J27" s="3">
-        <v>53400</v>
+        <v>51600</v>
       </c>
       <c r="K27" s="3" t="s">
         <v>3</v>
@@ -1403,19 +1403,19 @@
         <v>0</v>
       </c>
       <c r="F29" s="3">
-        <v>67800</v>
+        <v>65500</v>
       </c>
       <c r="G29" s="3" t="s">
         <v>3</v>
       </c>
       <c r="H29" s="3">
-        <v>10700</v>
+        <v>10400</v>
       </c>
       <c r="I29" s="3">
         <v>1100</v>
       </c>
       <c r="J29" s="3">
-        <v>-3000</v>
+        <v>-2900</v>
       </c>
       <c r="K29" s="3" t="s">
         <v>3</v>
@@ -1502,25 +1502,25 @@
         <v>27</v>
       </c>
       <c r="D32" s="3">
-        <v>-6600</v>
+        <v>-6400</v>
       </c>
       <c r="E32" s="3">
-        <v>-1500</v>
+        <v>-1400</v>
       </c>
       <c r="F32" s="3">
-        <v>-46200</v>
+        <v>-44600</v>
       </c>
       <c r="G32" s="3">
         <v>1800</v>
       </c>
       <c r="H32" s="3">
-        <v>14400</v>
+        <v>13900</v>
       </c>
       <c r="I32" s="3">
-        <v>-13700</v>
+        <v>-13200</v>
       </c>
       <c r="J32" s="3">
-        <v>-3100</v>
+        <v>-3000</v>
       </c>
       <c r="K32" s="3" t="s">
         <v>3</v>
@@ -1537,25 +1537,25 @@
         <v>28</v>
       </c>
       <c r="D33" s="3">
-        <v>56300</v>
+        <v>54400</v>
       </c>
       <c r="E33" s="3">
-        <v>44300</v>
+        <v>42800</v>
       </c>
       <c r="F33" s="3">
-        <v>258200</v>
+        <v>249600</v>
       </c>
       <c r="G33" s="3">
-        <v>80700</v>
+        <v>78000</v>
       </c>
       <c r="H33" s="3">
-        <v>32300</v>
+        <v>31200</v>
       </c>
       <c r="I33" s="3">
-        <v>18500</v>
+        <v>17900</v>
       </c>
       <c r="J33" s="3">
-        <v>50400</v>
+        <v>48700</v>
       </c>
       <c r="K33" s="3" t="s">
         <v>3</v>
@@ -1607,25 +1607,25 @@
         <v>30</v>
       </c>
       <c r="D35" s="3">
-        <v>56300</v>
+        <v>54400</v>
       </c>
       <c r="E35" s="3">
-        <v>44300</v>
+        <v>42800</v>
       </c>
       <c r="F35" s="3">
-        <v>258200</v>
+        <v>249600</v>
       </c>
       <c r="G35" s="3">
-        <v>80700</v>
+        <v>78000</v>
       </c>
       <c r="H35" s="3">
-        <v>32300</v>
+        <v>31200</v>
       </c>
       <c r="I35" s="3">
-        <v>18500</v>
+        <v>17900</v>
       </c>
       <c r="J35" s="3">
-        <v>50400</v>
+        <v>48700</v>
       </c>
       <c r="K35" s="3" t="s">
         <v>3</v>
@@ -1712,22 +1712,22 @@
         <v>34</v>
       </c>
       <c r="D41" s="3">
-        <v>17200</v>
+        <v>16600</v>
       </c>
       <c r="E41" s="3">
-        <v>18500</v>
+        <v>17900</v>
       </c>
       <c r="F41" s="3">
-        <v>17200</v>
+        <v>16600</v>
       </c>
       <c r="G41" s="3">
-        <v>325300</v>
+        <v>314400</v>
       </c>
       <c r="H41" s="3">
-        <v>432400</v>
+        <v>417900</v>
       </c>
       <c r="I41" s="3">
-        <v>500700</v>
+        <v>484000</v>
       </c>
       <c r="J41" s="3" t="s">
         <v>3</v>
@@ -1747,22 +1747,22 @@
         <v>35</v>
       </c>
       <c r="D42" s="3">
-        <v>816000</v>
+        <v>788700</v>
       </c>
       <c r="E42" s="3">
-        <v>492000</v>
+        <v>475600</v>
       </c>
       <c r="F42" s="3">
-        <v>635200</v>
+        <v>613900</v>
       </c>
       <c r="G42" s="3">
-        <v>394700</v>
+        <v>381500</v>
       </c>
       <c r="H42" s="3">
-        <v>420600</v>
+        <v>406500</v>
       </c>
       <c r="I42" s="3">
-        <v>196900</v>
+        <v>190300</v>
       </c>
       <c r="J42" s="3" t="s">
         <v>3</v>
@@ -1782,22 +1782,22 @@
         <v>36</v>
       </c>
       <c r="D43" s="3">
-        <v>174900</v>
+        <v>169100</v>
       </c>
       <c r="E43" s="3">
-        <v>146800</v>
+        <v>141900</v>
       </c>
       <c r="F43" s="3">
-        <v>181700</v>
+        <v>175700</v>
       </c>
       <c r="G43" s="3">
-        <v>335000</v>
+        <v>323800</v>
       </c>
       <c r="H43" s="3">
-        <v>352000</v>
+        <v>340300</v>
       </c>
       <c r="I43" s="3">
-        <v>289800</v>
+        <v>280100</v>
       </c>
       <c r="J43" s="3" t="s">
         <v>3</v>
@@ -1817,22 +1817,22 @@
         <v>37</v>
       </c>
       <c r="D44" s="3">
-        <v>681200</v>
+        <v>658400</v>
       </c>
       <c r="E44" s="3">
-        <v>634600</v>
+        <v>613400</v>
       </c>
       <c r="F44" s="3">
-        <v>690600</v>
+        <v>667500</v>
       </c>
       <c r="G44" s="3">
-        <v>1178900</v>
+        <v>1139500</v>
       </c>
       <c r="H44" s="3">
-        <v>1043700</v>
+        <v>1008800</v>
       </c>
       <c r="I44" s="3">
-        <v>1072400</v>
+        <v>1036500</v>
       </c>
       <c r="J44" s="3" t="s">
         <v>3</v>
@@ -1852,22 +1852,22 @@
         <v>38</v>
       </c>
       <c r="D45" s="3">
-        <v>41600</v>
+        <v>40200</v>
       </c>
       <c r="E45" s="3">
-        <v>16600</v>
+        <v>16100</v>
       </c>
       <c r="F45" s="3">
-        <v>17400</v>
+        <v>16800</v>
       </c>
       <c r="G45" s="3">
-        <v>59700</v>
+        <v>57700</v>
       </c>
       <c r="H45" s="3">
-        <v>79600</v>
+        <v>76900</v>
       </c>
       <c r="I45" s="3">
-        <v>159800</v>
+        <v>154400</v>
       </c>
       <c r="J45" s="3" t="s">
         <v>3</v>
@@ -1887,22 +1887,22 @@
         <v>39</v>
       </c>
       <c r="D46" s="3">
-        <v>1730800</v>
+        <v>1672900</v>
       </c>
       <c r="E46" s="3">
-        <v>1308600</v>
+        <v>1264800</v>
       </c>
       <c r="F46" s="3">
-        <v>1542100</v>
+        <v>1490500</v>
       </c>
       <c r="G46" s="3">
-        <v>2293600</v>
+        <v>2216900</v>
       </c>
       <c r="H46" s="3">
-        <v>2328300</v>
+        <v>2250400</v>
       </c>
       <c r="I46" s="3">
-        <v>2219500</v>
+        <v>2145300</v>
       </c>
       <c r="J46" s="3" t="s">
         <v>3</v>
@@ -1922,22 +1922,22 @@
         <v>40</v>
       </c>
       <c r="D47" s="3">
-        <v>322900</v>
+        <v>312100</v>
       </c>
       <c r="E47" s="3">
-        <v>323200</v>
+        <v>312400</v>
       </c>
       <c r="F47" s="3">
-        <v>334900</v>
+        <v>323700</v>
       </c>
       <c r="G47" s="3">
-        <v>270400</v>
+        <v>261400</v>
       </c>
       <c r="H47" s="3">
-        <v>273000</v>
+        <v>263900</v>
       </c>
       <c r="I47" s="3">
-        <v>307700</v>
+        <v>297400</v>
       </c>
       <c r="J47" s="3" t="s">
         <v>3</v>
@@ -1957,22 +1957,22 @@
         <v>41</v>
       </c>
       <c r="D48" s="3">
-        <v>1507200</v>
+        <v>1456700</v>
       </c>
       <c r="E48" s="3">
-        <v>1404300</v>
+        <v>1357300</v>
       </c>
       <c r="F48" s="3">
-        <v>1380800</v>
+        <v>1334600</v>
       </c>
       <c r="G48" s="3">
-        <v>3865200</v>
+        <v>3735900</v>
       </c>
       <c r="H48" s="3">
-        <v>3803000</v>
+        <v>3675700</v>
       </c>
       <c r="I48" s="3">
-        <v>3379500</v>
+        <v>3266400</v>
       </c>
       <c r="J48" s="3" t="s">
         <v>3</v>
@@ -1992,22 +1992,22 @@
         <v>42</v>
       </c>
       <c r="D49" s="3">
-        <v>193400</v>
+        <v>186900</v>
       </c>
       <c r="E49" s="3">
-        <v>191500</v>
+        <v>185100</v>
       </c>
       <c r="F49" s="3">
-        <v>191500</v>
+        <v>185100</v>
       </c>
       <c r="G49" s="3">
-        <v>914800</v>
+        <v>884200</v>
       </c>
       <c r="H49" s="3">
-        <v>910400</v>
+        <v>879900</v>
       </c>
       <c r="I49" s="3">
-        <v>823600</v>
+        <v>796000</v>
       </c>
       <c r="J49" s="3" t="s">
         <v>3</v>
@@ -2097,22 +2097,22 @@
         <v>45</v>
       </c>
       <c r="D52" s="3">
-        <v>28600</v>
+        <v>27700</v>
       </c>
       <c r="E52" s="3">
-        <v>26000</v>
+        <v>25200</v>
       </c>
       <c r="F52" s="3">
-        <v>27000</v>
+        <v>26100</v>
       </c>
       <c r="G52" s="3">
-        <v>39000</v>
+        <v>37700</v>
       </c>
       <c r="H52" s="3">
-        <v>37300</v>
+        <v>36100</v>
       </c>
       <c r="I52" s="3">
-        <v>40600</v>
+        <v>39300</v>
       </c>
       <c r="J52" s="3" t="s">
         <v>3</v>
@@ -2167,22 +2167,22 @@
         <v>47</v>
       </c>
       <c r="D54" s="3">
-        <v>3782800</v>
+        <v>3656300</v>
       </c>
       <c r="E54" s="3">
-        <v>3253700</v>
+        <v>3144800</v>
       </c>
       <c r="F54" s="3">
-        <v>3476200</v>
+        <v>3359900</v>
       </c>
       <c r="G54" s="3">
-        <v>7383000</v>
+        <v>7136000</v>
       </c>
       <c r="H54" s="3">
-        <v>7352000</v>
+        <v>7106000</v>
       </c>
       <c r="I54" s="3">
-        <v>6770900</v>
+        <v>6544400</v>
       </c>
       <c r="J54" s="3" t="s">
         <v>3</v>
@@ -2232,22 +2232,22 @@
         <v>50</v>
       </c>
       <c r="D57" s="3">
-        <v>851300</v>
+        <v>822800</v>
       </c>
       <c r="E57" s="3">
-        <v>777400</v>
+        <v>751400</v>
       </c>
       <c r="F57" s="3">
-        <v>941800</v>
+        <v>910300</v>
       </c>
       <c r="G57" s="3">
-        <v>1544800</v>
+        <v>1493100</v>
       </c>
       <c r="H57" s="3">
-        <v>1534100</v>
+        <v>1482800</v>
       </c>
       <c r="I57" s="3">
-        <v>1516200</v>
+        <v>1465500</v>
       </c>
       <c r="J57" s="3" t="s">
         <v>3</v>
@@ -2267,22 +2267,22 @@
         <v>51</v>
       </c>
       <c r="D58" s="3">
-        <v>444000</v>
+        <v>429200</v>
       </c>
       <c r="E58" s="3">
-        <v>378300</v>
+        <v>365600</v>
       </c>
       <c r="F58" s="3">
-        <v>423300</v>
+        <v>409200</v>
       </c>
       <c r="G58" s="3">
-        <v>775700</v>
+        <v>749800</v>
       </c>
       <c r="H58" s="3">
-        <v>496800</v>
+        <v>480200</v>
       </c>
       <c r="I58" s="3">
-        <v>539100</v>
+        <v>521100</v>
       </c>
       <c r="J58" s="3" t="s">
         <v>3</v>
@@ -2302,22 +2302,22 @@
         <v>52</v>
       </c>
       <c r="D59" s="3">
-        <v>183400</v>
+        <v>177300</v>
       </c>
       <c r="E59" s="3">
-        <v>183000</v>
+        <v>176900</v>
       </c>
       <c r="F59" s="3">
-        <v>246000</v>
+        <v>237800</v>
       </c>
       <c r="G59" s="3">
-        <v>482100</v>
+        <v>465900</v>
       </c>
       <c r="H59" s="3">
-        <v>460500</v>
+        <v>445100</v>
       </c>
       <c r="I59" s="3">
-        <v>407600</v>
+        <v>394000</v>
       </c>
       <c r="J59" s="3" t="s">
         <v>3</v>
@@ -2337,22 +2337,22 @@
         <v>53</v>
       </c>
       <c r="D60" s="3">
-        <v>1478700</v>
+        <v>1429200</v>
       </c>
       <c r="E60" s="3">
-        <v>1338700</v>
+        <v>1293900</v>
       </c>
       <c r="F60" s="3">
-        <v>1611100</v>
+        <v>1557200</v>
       </c>
       <c r="G60" s="3">
-        <v>2802600</v>
+        <v>2708900</v>
       </c>
       <c r="H60" s="3">
-        <v>2491400</v>
+        <v>2408100</v>
       </c>
       <c r="I60" s="3">
-        <v>2463000</v>
+        <v>2380600</v>
       </c>
       <c r="J60" s="3" t="s">
         <v>3</v>
@@ -2372,22 +2372,22 @@
         <v>54</v>
       </c>
       <c r="D61" s="3">
-        <v>1888000</v>
+        <v>1824800</v>
       </c>
       <c r="E61" s="3">
-        <v>1548900</v>
+        <v>1497100</v>
       </c>
       <c r="F61" s="3">
-        <v>1535800</v>
+        <v>1484400</v>
       </c>
       <c r="G61" s="3">
-        <v>1968200</v>
+        <v>1902300</v>
       </c>
       <c r="H61" s="3">
-        <v>2317200</v>
+        <v>2239700</v>
       </c>
       <c r="I61" s="3">
-        <v>2073800</v>
+        <v>2004400</v>
       </c>
       <c r="J61" s="3">
         <v>0</v>
@@ -2407,22 +2407,22 @@
         <v>55</v>
       </c>
       <c r="D62" s="3">
-        <v>62100</v>
+        <v>60000</v>
       </c>
       <c r="E62" s="3">
-        <v>72400</v>
+        <v>70000</v>
       </c>
       <c r="F62" s="3">
-        <v>68900</v>
+        <v>66600</v>
       </c>
       <c r="G62" s="3">
-        <v>266900</v>
+        <v>258000</v>
       </c>
       <c r="H62" s="3">
-        <v>292200</v>
+        <v>282400</v>
       </c>
       <c r="I62" s="3">
-        <v>297700</v>
+        <v>287800</v>
       </c>
       <c r="J62" s="3" t="s">
         <v>3</v>
@@ -2547,22 +2547,22 @@
         <v>58</v>
       </c>
       <c r="D66" s="3">
-        <v>3428800</v>
+        <v>3314000</v>
       </c>
       <c r="E66" s="3">
-        <v>2960000</v>
+        <v>2861000</v>
       </c>
       <c r="F66" s="3">
-        <v>3215800</v>
+        <v>3108200</v>
       </c>
       <c r="G66" s="3">
-        <v>5619500</v>
+        <v>5431500</v>
       </c>
       <c r="H66" s="3">
-        <v>5673400</v>
+        <v>5483600</v>
       </c>
       <c r="I66" s="3">
-        <v>5331700</v>
+        <v>5153300</v>
       </c>
       <c r="J66" s="3" t="s">
         <v>3</v>
@@ -2737,22 +2737,22 @@
         <v>64</v>
       </c>
       <c r="D72" s="3">
-        <v>210200</v>
+        <v>203200</v>
       </c>
       <c r="E72" s="3">
-        <v>153100</v>
+        <v>148000</v>
       </c>
       <c r="F72" s="3">
-        <v>119900</v>
+        <v>115900</v>
       </c>
       <c r="G72" s="3">
-        <v>533200</v>
+        <v>515400</v>
       </c>
       <c r="H72" s="3">
-        <v>510900</v>
+        <v>493800</v>
       </c>
       <c r="I72" s="3">
-        <v>478000</v>
+        <v>462000</v>
       </c>
       <c r="J72" s="3" t="s">
         <v>3</v>
@@ -2877,22 +2877,22 @@
         <v>68</v>
       </c>
       <c r="D76" s="3">
-        <v>354100</v>
+        <v>342200</v>
       </c>
       <c r="E76" s="3">
-        <v>293700</v>
+        <v>283800</v>
       </c>
       <c r="F76" s="3">
-        <v>260400</v>
+        <v>251700</v>
       </c>
       <c r="G76" s="3">
-        <v>1763500</v>
+        <v>1704500</v>
       </c>
       <c r="H76" s="3">
-        <v>1678600</v>
+        <v>1622400</v>
       </c>
       <c r="I76" s="3">
-        <v>1439200</v>
+        <v>1391000</v>
       </c>
       <c r="J76" s="3" t="s">
         <v>3</v>
@@ -2987,25 +2987,25 @@
         <v>28</v>
       </c>
       <c r="D81" s="3">
-        <v>56300</v>
+        <v>54400</v>
       </c>
       <c r="E81" s="3">
-        <v>44300</v>
+        <v>42800</v>
       </c>
       <c r="F81" s="3">
-        <v>258200</v>
+        <v>249600</v>
       </c>
       <c r="G81" s="3">
-        <v>80700</v>
+        <v>78000</v>
       </c>
       <c r="H81" s="3">
-        <v>32300</v>
+        <v>31200</v>
       </c>
       <c r="I81" s="3">
-        <v>18500</v>
+        <v>17900</v>
       </c>
       <c r="J81" s="3">
-        <v>50400</v>
+        <v>48700</v>
       </c>
       <c r="K81" s="3" t="s">
         <v>3</v>
@@ -3037,25 +3037,25 @@
         <v>72</v>
       </c>
       <c r="D83" s="3">
-        <v>30800</v>
+        <v>29800</v>
       </c>
       <c r="E83" s="3">
-        <v>29000</v>
+        <v>28000</v>
       </c>
       <c r="F83" s="3">
-        <v>253400</v>
+        <v>244900</v>
       </c>
       <c r="G83" s="3">
-        <v>65800</v>
+        <v>63600</v>
       </c>
       <c r="H83" s="3">
-        <v>61300</v>
+        <v>59300</v>
       </c>
       <c r="I83" s="3">
-        <v>58000</v>
+        <v>56100</v>
       </c>
       <c r="J83" s="3">
-        <v>33200</v>
+        <v>32100</v>
       </c>
       <c r="K83" s="3" t="s">
         <v>3</v>
@@ -3247,25 +3247,25 @@
         <v>78</v>
       </c>
       <c r="D89" s="3">
-        <v>132100</v>
+        <v>127600</v>
       </c>
       <c r="E89" s="3">
-        <v>-40400</v>
+        <v>-39100</v>
       </c>
       <c r="F89" s="3">
-        <v>646100</v>
+        <v>624500</v>
       </c>
       <c r="G89" s="3">
-        <v>45400</v>
+        <v>43900</v>
       </c>
       <c r="H89" s="3">
-        <v>188900</v>
+        <v>182600</v>
       </c>
       <c r="I89" s="3">
-        <v>-353000</v>
+        <v>-341200</v>
       </c>
       <c r="J89" s="3">
-        <v>523100</v>
+        <v>505600</v>
       </c>
       <c r="K89" s="3" t="s">
         <v>3</v>
@@ -3297,25 +3297,25 @@
         <v>80</v>
       </c>
       <c r="D91" s="3">
-        <v>-104400</v>
+        <v>-100900</v>
       </c>
       <c r="E91" s="3">
-        <v>-32100</v>
+        <v>-31100</v>
       </c>
       <c r="F91" s="3">
-        <v>-288500</v>
+        <v>-278800</v>
       </c>
       <c r="G91" s="3">
-        <v>-81500</v>
+        <v>-78700</v>
       </c>
       <c r="H91" s="3">
-        <v>-61900</v>
+        <v>-59800</v>
       </c>
       <c r="I91" s="3">
-        <v>-66900</v>
+        <v>-64600</v>
       </c>
       <c r="J91" s="3">
-        <v>-95100</v>
+        <v>-91900</v>
       </c>
       <c r="K91" s="3" t="s">
         <v>3</v>
@@ -3402,25 +3402,25 @@
         <v>83</v>
       </c>
       <c r="D94" s="3">
-        <v>-107100</v>
+        <v>-103500</v>
       </c>
       <c r="E94" s="3">
-        <v>-32700</v>
+        <v>-31600</v>
       </c>
       <c r="F94" s="3">
-        <v>-884200</v>
+        <v>-854600</v>
       </c>
       <c r="G94" s="3">
-        <v>-61100</v>
+        <v>-59100</v>
       </c>
       <c r="H94" s="3">
-        <v>4800</v>
+        <v>4600</v>
       </c>
       <c r="I94" s="3">
-        <v>-71100</v>
+        <v>-68700</v>
       </c>
       <c r="J94" s="3">
-        <v>-645300</v>
+        <v>-623700</v>
       </c>
       <c r="K94" s="3" t="s">
         <v>3</v>
@@ -3452,25 +3452,25 @@
         <v>85</v>
       </c>
       <c r="D96" s="3">
-        <v>-15700</v>
+        <v>-15200</v>
       </c>
       <c r="E96" s="3">
         <v>0</v>
       </c>
       <c r="F96" s="3">
-        <v>-90300</v>
+        <v>-87300</v>
       </c>
       <c r="G96" s="3">
-        <v>-2600</v>
+        <v>-2500</v>
       </c>
       <c r="H96" s="3">
-        <v>-19800</v>
+        <v>-19100</v>
       </c>
       <c r="I96" s="3">
-        <v>-3100</v>
+        <v>-3000</v>
       </c>
       <c r="J96" s="3">
-        <v>-46000</v>
+        <v>-44500</v>
       </c>
       <c r="K96" s="3">
         <v>0</v>
@@ -3592,25 +3592,25 @@
         <v>89</v>
       </c>
       <c r="D100" s="3">
-        <v>297700</v>
+        <v>287800</v>
       </c>
       <c r="E100" s="3">
-        <v>-68700</v>
+        <v>-66400</v>
       </c>
       <c r="F100" s="3">
-        <v>-146500</v>
+        <v>-141600</v>
       </c>
       <c r="G100" s="3">
-        <v>-112300</v>
+        <v>-108500</v>
       </c>
       <c r="H100" s="3">
-        <v>-93600</v>
+        <v>-90500</v>
       </c>
       <c r="I100" s="3">
-        <v>164600</v>
+        <v>159100</v>
       </c>
       <c r="J100" s="3">
-        <v>-685800</v>
+        <v>-662800</v>
       </c>
       <c r="K100" s="3" t="s">
         <v>3</v>
@@ -3633,19 +3633,19 @@
         <v>0</v>
       </c>
       <c r="F101" s="3">
-        <v>108600</v>
+        <v>105000</v>
       </c>
       <c r="G101" s="3">
-        <v>-5000</v>
+        <v>-4800</v>
       </c>
       <c r="H101" s="3">
-        <v>55200</v>
+        <v>53400</v>
       </c>
       <c r="I101" s="3">
-        <v>28800</v>
+        <v>27800</v>
       </c>
       <c r="J101" s="3">
-        <v>20500</v>
+        <v>19800</v>
       </c>
       <c r="K101" s="3" t="s">
         <v>3</v>
@@ -3662,25 +3662,25 @@
         <v>91</v>
       </c>
       <c r="D102" s="3">
-        <v>322700</v>
+        <v>311900</v>
       </c>
       <c r="E102" s="3">
-        <v>-141800</v>
+        <v>-137100</v>
       </c>
       <c r="F102" s="3">
-        <v>-275900</v>
+        <v>-266700</v>
       </c>
       <c r="G102" s="3">
-        <v>-133000</v>
+        <v>-128500</v>
       </c>
       <c r="H102" s="3">
-        <v>155300</v>
+        <v>150100</v>
       </c>
       <c r="I102" s="3">
-        <v>-230700</v>
+        <v>-223000</v>
       </c>
       <c r="J102" s="3">
-        <v>-787600</v>
+        <v>-761200</v>
       </c>
       <c r="K102" s="3" t="s">
         <v>3</v>

--- a/AAII_Financials/Quarterly/ASAI_QTR_FIN.xlsx
+++ b/AAII_Financials/Quarterly/ASAI_QTR_FIN.xlsx
@@ -22,7 +22,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="212" uniqueCount="92">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="240" uniqueCount="92">
   <si>
     <t>ASAI</t>
   </si>
@@ -656,7 +656,7 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <sheetPr codeName="Sheet2"/>
-  <dimension ref="A5:M102"/>
+  <dimension ref="A5:O102"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -665,167 +665,192 @@
     <col min="1" max="1" width="6.85546875" style="1" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="26.85546875" style="1" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="69.140625" style="1" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="6" max="7" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="8" max="8" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="9" max="9" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="10" max="10" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="11" max="13" width="4.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="14" max="16384" width="9.140625" style="1"/>
+    <col min="4" max="5" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="8" max="9" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="10" max="10" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="11" max="11" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="12" max="12" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="13" max="15" width="4.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="16" max="16384" width="9.140625" style="1"/>
   </cols>
   <sheetData>
-    <row r="5" spans="1:13" x14ac:dyDescent="0.2">
+    <row r="5" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A5" s="1" t="s">
         <v>0</v>
       </c>
     </row>
-    <row r="6" spans="1:13" x14ac:dyDescent="0.2">
+    <row r="6" spans="1:15" x14ac:dyDescent="0.2">
       <c r="B6" s="1" t="s">
         <v>1</v>
       </c>
     </row>
-    <row r="7" spans="1:13" x14ac:dyDescent="0.2">
+    <row r="7" spans="1:15" x14ac:dyDescent="0.2">
       <c r="C7" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D7" s="2">
+        <v>44561</v>
+      </c>
+      <c r="E7" s="2">
+        <v>44469</v>
+      </c>
+      <c r="F7" s="2">
         <v>44377</v>
       </c>
-      <c r="E7" s="2">
+      <c r="G7" s="2">
         <v>44286</v>
       </c>
-      <c r="F7" s="2">
+      <c r="H7" s="2">
         <v>44196</v>
       </c>
-      <c r="G7" s="2">
+      <c r="I7" s="2">
         <v>44104</v>
       </c>
-      <c r="H7" s="2">
+      <c r="J7" s="2">
         <v>44012</v>
       </c>
-      <c r="I7" s="2">
+      <c r="K7" s="2">
         <v>43921</v>
       </c>
-      <c r="J7" s="2">
+      <c r="L7" s="2">
         <v>43830</v>
       </c>
-      <c r="K7" s="2" t="s">
-        <v>3</v>
-      </c>
-      <c r="L7" s="2" t="s">
-        <v>3</v>
-      </c>
       <c r="M7" s="2" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="8" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="N7" s="2" t="s">
+        <v>3</v>
+      </c>
+      <c r="O7" s="2" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="8" spans="1:15" x14ac:dyDescent="0.2">
       <c r="C8" s="1" t="s">
         <v>4</v>
       </c>
       <c r="D8" s="3">
-        <v>1793900</v>
+        <v>2277200</v>
       </c>
       <c r="E8" s="3">
-        <v>1686700</v>
+        <v>2137100</v>
       </c>
       <c r="F8" s="3">
-        <v>6434400</v>
+        <v>1980300</v>
       </c>
       <c r="G8" s="3">
-        <v>2601400</v>
+        <v>1861800</v>
       </c>
       <c r="H8" s="3">
-        <v>1471400</v>
+        <v>7102600</v>
       </c>
       <c r="I8" s="3">
+        <v>1822800</v>
+      </c>
+      <c r="J8" s="3">
+        <v>1624200</v>
+      </c>
+      <c r="K8" s="3">
         <v>1399200</v>
       </c>
-      <c r="J8" s="3">
+      <c r="L8" s="3">
         <v>1427100</v>
       </c>
-      <c r="K8" s="3" t="s">
-        <v>3</v>
-      </c>
-      <c r="L8" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="M8" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="9" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="N8" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="O8" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="9" spans="1:15" x14ac:dyDescent="0.2">
       <c r="C9" s="1" t="s">
         <v>5</v>
       </c>
       <c r="D9" s="3">
-        <v>1486500</v>
+        <v>1885300</v>
       </c>
       <c r="E9" s="3">
-        <v>1417600</v>
+        <v>1757400</v>
       </c>
       <c r="F9" s="3">
-        <v>5378600</v>
+        <v>1640900</v>
       </c>
       <c r="G9" s="3">
-        <v>2094200</v>
+        <v>1564900</v>
       </c>
       <c r="H9" s="3">
-        <v>1232500</v>
+        <v>5937200</v>
       </c>
       <c r="I9" s="3">
+        <v>1520500</v>
+      </c>
+      <c r="J9" s="3">
+        <v>1360500</v>
+      </c>
+      <c r="K9" s="3">
         <v>1182000</v>
       </c>
-      <c r="J9" s="3">
+      <c r="L9" s="3">
         <v>1189700</v>
       </c>
-      <c r="K9" s="3" t="s">
-        <v>3</v>
-      </c>
-      <c r="L9" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="M9" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="10" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="N9" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="O9" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="10" spans="1:15" x14ac:dyDescent="0.2">
       <c r="C10" s="1" t="s">
         <v>6</v>
       </c>
       <c r="D10" s="3">
-        <v>307400</v>
+        <v>392000</v>
       </c>
       <c r="E10" s="3">
-        <v>269000</v>
+        <v>379700</v>
       </c>
       <c r="F10" s="3">
-        <v>1055800</v>
+        <v>339300</v>
       </c>
       <c r="G10" s="3">
-        <v>507200</v>
+        <v>297000</v>
       </c>
       <c r="H10" s="3">
-        <v>238900</v>
+        <v>1165400</v>
       </c>
       <c r="I10" s="3">
+        <v>302300</v>
+      </c>
+      <c r="J10" s="3">
+        <v>263700</v>
+      </c>
+      <c r="K10" s="3">
         <v>217300</v>
       </c>
-      <c r="J10" s="3">
+      <c r="L10" s="3">
         <v>237400</v>
       </c>
-      <c r="K10" s="3" t="s">
-        <v>3</v>
-      </c>
-      <c r="L10" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="M10" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="11" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="N10" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="O10" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="11" spans="1:15" x14ac:dyDescent="0.2">
       <c r="C11" s="1" t="s">
         <v>7</v>
       </c>
@@ -839,8 +864,10 @@
       <c r="K11" s="3"/>
       <c r="L11" s="3"/>
       <c r="M11" s="3"/>
-    </row>
-    <row r="12" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="N11" s="3"/>
+      <c r="O11" s="3"/>
+    </row>
+    <row r="12" spans="1:15" x14ac:dyDescent="0.2">
       <c r="C12" s="1" t="s">
         <v>8</v>
       </c>
@@ -874,8 +901,14 @@
       <c r="M12" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="13" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="N12" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="O12" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="13" spans="1:15" x14ac:dyDescent="0.2">
       <c r="C13" s="1" t="s">
         <v>9</v>
       </c>
@@ -909,78 +942,96 @@
       <c r="M13" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="14" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="N13" s="3">
+        <v>0</v>
+      </c>
+      <c r="O13" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="14" spans="1:15" x14ac:dyDescent="0.2">
       <c r="C14" s="1" t="s">
         <v>10</v>
       </c>
-      <c r="D14" s="3">
-        <v>6200</v>
+      <c r="D14" s="3" t="s">
+        <v>3</v>
       </c>
       <c r="E14" s="3">
+        <v>1200</v>
+      </c>
+      <c r="F14" s="3">
+        <v>6900</v>
+      </c>
+      <c r="G14" s="3">
         <v>400</v>
       </c>
-      <c r="F14" s="3">
-        <v>39800</v>
-      </c>
-      <c r="G14" s="3">
-        <v>8400</v>
-      </c>
       <c r="H14" s="3">
-        <v>13600</v>
+        <v>43900</v>
       </c>
       <c r="I14" s="3">
+        <v>3200</v>
+      </c>
+      <c r="J14" s="3">
+        <v>15000</v>
+      </c>
+      <c r="K14" s="3">
         <v>7700</v>
       </c>
-      <c r="J14" s="3">
+      <c r="L14" s="3">
         <v>22100</v>
       </c>
-      <c r="K14" s="3" t="s">
-        <v>3</v>
-      </c>
-      <c r="L14" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="M14" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="15" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="N14" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="O14" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="15" spans="1:15" x14ac:dyDescent="0.2">
       <c r="C15" s="1" t="s">
         <v>11</v>
       </c>
       <c r="D15" s="3">
-        <v>27500</v>
+        <v>34900</v>
       </c>
       <c r="E15" s="3">
-        <v>25900</v>
+        <v>31900</v>
       </c>
       <c r="F15" s="3">
-        <v>89800</v>
+        <v>30300</v>
       </c>
       <c r="G15" s="3">
-        <v>54400</v>
+        <v>28600</v>
       </c>
       <c r="H15" s="3">
-        <v>21600</v>
+        <v>99100</v>
       </c>
       <c r="I15" s="3">
+        <v>25400</v>
+      </c>
+      <c r="J15" s="3">
+        <v>23800</v>
+      </c>
+      <c r="K15" s="3">
         <v>20900</v>
       </c>
-      <c r="J15" s="3">
+      <c r="L15" s="3">
         <v>19100</v>
       </c>
-      <c r="K15" s="3" t="s">
-        <v>3</v>
-      </c>
-      <c r="L15" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="M15" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="16" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="N15" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="O15" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="16" spans="1:15" x14ac:dyDescent="0.2">
       <c r="D16" s="3"/>
       <c r="E16" s="3"/>
       <c r="F16" s="3"/>
@@ -991,78 +1042,92 @@
       <c r="K16" s="3"/>
       <c r="L16" s="3"/>
       <c r="M16" s="3"/>
-    </row>
-    <row r="17" spans="3:13" x14ac:dyDescent="0.2">
+      <c r="N16" s="3"/>
+      <c r="O16" s="3"/>
+    </row>
+    <row r="17" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C17" s="1" t="s">
         <v>12</v>
       </c>
-      <c r="D17" s="3">
-        <v>1687500</v>
+      <c r="D17" s="3" t="s">
+        <v>3</v>
       </c>
       <c r="E17" s="3">
-        <v>1600400</v>
+        <v>1979500</v>
       </c>
       <c r="F17" s="3">
-        <v>6065200</v>
+        <v>1862800</v>
       </c>
       <c r="G17" s="3">
-        <v>2467500</v>
+        <v>1766600</v>
       </c>
       <c r="H17" s="3">
-        <v>1402800</v>
+        <v>6695100</v>
       </c>
       <c r="I17" s="3">
+        <v>1711100</v>
+      </c>
+      <c r="J17" s="3">
+        <v>1548500</v>
+      </c>
+      <c r="K17" s="3">
         <v>1341000</v>
       </c>
-      <c r="J17" s="3">
+      <c r="L17" s="3">
         <v>1330900</v>
       </c>
-      <c r="K17" s="3" t="s">
-        <v>3</v>
-      </c>
-      <c r="L17" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="M17" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="18" spans="3:13" x14ac:dyDescent="0.2">
+      <c r="N17" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="O17" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="18" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C18" s="1" t="s">
         <v>13</v>
       </c>
-      <c r="D18" s="3">
-        <v>106400</v>
+      <c r="D18" s="3" t="s">
+        <v>3</v>
       </c>
       <c r="E18" s="3">
-        <v>86200</v>
+        <v>157600</v>
       </c>
       <c r="F18" s="3">
-        <v>369200</v>
+        <v>117400</v>
       </c>
       <c r="G18" s="3">
-        <v>133900</v>
+        <v>95200</v>
       </c>
       <c r="H18" s="3">
-        <v>68600</v>
+        <v>407500</v>
       </c>
       <c r="I18" s="3">
+        <v>111700</v>
+      </c>
+      <c r="J18" s="3">
+        <v>75700</v>
+      </c>
+      <c r="K18" s="3">
         <v>58200</v>
       </c>
-      <c r="J18" s="3">
+      <c r="L18" s="3">
         <v>96200</v>
       </c>
-      <c r="K18" s="3" t="s">
-        <v>3</v>
-      </c>
-      <c r="L18" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="M18" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="19" spans="3:13" x14ac:dyDescent="0.2">
+      <c r="N18" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="O18" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="19" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C19" s="1" t="s">
         <v>14</v>
       </c>
@@ -1076,183 +1141,215 @@
       <c r="K19" s="3"/>
       <c r="L19" s="3"/>
       <c r="M19" s="3"/>
-    </row>
-    <row r="20" spans="3:13" x14ac:dyDescent="0.2">
+      <c r="N19" s="3"/>
+      <c r="O19" s="3"/>
+    </row>
+    <row r="20" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C20" s="1" t="s">
         <v>15</v>
       </c>
-      <c r="D20" s="3">
-        <v>6400</v>
+      <c r="D20" s="3" t="s">
+        <v>3</v>
       </c>
       <c r="E20" s="3">
-        <v>1400</v>
+        <v>8300</v>
       </c>
       <c r="F20" s="3">
-        <v>44600</v>
+        <v>7100</v>
       </c>
       <c r="G20" s="3">
-        <v>-1800</v>
+        <v>1600</v>
       </c>
       <c r="H20" s="3">
-        <v>-13900</v>
+        <v>49300</v>
       </c>
       <c r="I20" s="3">
+        <v>2800</v>
+      </c>
+      <c r="J20" s="3">
+        <v>-15400</v>
+      </c>
+      <c r="K20" s="3">
         <v>13200</v>
       </c>
-      <c r="J20" s="3">
+      <c r="L20" s="3">
         <v>3000</v>
       </c>
-      <c r="K20" s="3" t="s">
-        <v>3</v>
-      </c>
-      <c r="L20" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="M20" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="21" spans="3:13" x14ac:dyDescent="0.2">
+      <c r="N20" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="O20" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="21" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C21" s="1" t="s">
         <v>16</v>
       </c>
-      <c r="D21" s="3">
-        <v>142600</v>
+      <c r="D21" s="3" t="s">
+        <v>3</v>
       </c>
       <c r="E21" s="3">
-        <v>115700</v>
+        <v>200400</v>
       </c>
       <c r="F21" s="3">
-        <v>658700</v>
+        <v>157500</v>
       </c>
       <c r="G21" s="3">
-        <v>195700</v>
+        <v>127700</v>
       </c>
       <c r="H21" s="3">
-        <v>113900</v>
+        <v>727200</v>
       </c>
       <c r="I21" s="3">
+        <v>184600</v>
+      </c>
+      <c r="J21" s="3">
+        <v>125700</v>
+      </c>
+      <c r="K21" s="3">
         <v>127500</v>
       </c>
-      <c r="J21" s="3">
+      <c r="L21" s="3">
         <v>131400</v>
       </c>
-      <c r="K21" s="3" t="s">
-        <v>3</v>
-      </c>
-      <c r="L21" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="M21" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="22" spans="3:13" x14ac:dyDescent="0.2">
+      <c r="N21" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="O21" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="22" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C22" s="1" t="s">
         <v>17</v>
       </c>
-      <c r="D22" s="3">
-        <v>32300</v>
+      <c r="D22" s="3" t="s">
+        <v>3</v>
       </c>
       <c r="E22" s="3">
-        <v>25300</v>
+        <v>40600</v>
       </c>
       <c r="F22" s="3">
-        <v>123700</v>
+        <v>35700</v>
       </c>
       <c r="G22" s="3">
-        <v>38700</v>
+        <v>28000</v>
       </c>
       <c r="H22" s="3">
-        <v>9500</v>
+        <v>136600</v>
       </c>
       <c r="I22" s="3">
+        <v>28400</v>
+      </c>
+      <c r="J22" s="3">
+        <v>10400</v>
+      </c>
+      <c r="K22" s="3">
         <v>40900</v>
       </c>
-      <c r="J22" s="3">
+      <c r="L22" s="3">
         <v>35500</v>
       </c>
-      <c r="K22" s="3" t="s">
-        <v>3</v>
-      </c>
-      <c r="L22" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="M22" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="23" spans="3:13" x14ac:dyDescent="0.2">
+      <c r="N22" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="O22" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="23" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C23" s="1" t="s">
         <v>18</v>
       </c>
       <c r="D23" s="3">
-        <v>80500</v>
+        <v>81400</v>
       </c>
       <c r="E23" s="3">
-        <v>62300</v>
+        <v>125300</v>
       </c>
       <c r="F23" s="3">
-        <v>290100</v>
+        <v>88900</v>
       </c>
       <c r="G23" s="3">
-        <v>93400</v>
+        <v>68800</v>
       </c>
       <c r="H23" s="3">
-        <v>45200</v>
+        <v>320200</v>
       </c>
       <c r="I23" s="3">
+        <v>86100</v>
+      </c>
+      <c r="J23" s="3">
+        <v>49900</v>
+      </c>
+      <c r="K23" s="3">
         <v>30500</v>
       </c>
-      <c r="J23" s="3">
+      <c r="L23" s="3">
         <v>63700</v>
       </c>
-      <c r="K23" s="3" t="s">
-        <v>3</v>
-      </c>
-      <c r="L23" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="M23" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="24" spans="3:13" x14ac:dyDescent="0.2">
+      <c r="N23" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="O23" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="24" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C24" s="1" t="s">
         <v>19</v>
       </c>
       <c r="D24" s="3">
-        <v>26100</v>
+        <v>-22500</v>
       </c>
       <c r="E24" s="3">
-        <v>19500</v>
+        <v>19300</v>
       </c>
       <c r="F24" s="3">
-        <v>77800</v>
+        <v>28800</v>
       </c>
       <c r="G24" s="3">
-        <v>7500</v>
+        <v>21500</v>
       </c>
       <c r="H24" s="3">
-        <v>15000</v>
+        <v>85900</v>
       </c>
       <c r="I24" s="3">
+        <v>7100</v>
+      </c>
+      <c r="J24" s="3">
+        <v>16600</v>
+      </c>
+      <c r="K24" s="3">
         <v>9800</v>
       </c>
-      <c r="J24" s="3">
+      <c r="L24" s="3">
         <v>9800</v>
       </c>
-      <c r="K24" s="3" t="s">
-        <v>3</v>
-      </c>
-      <c r="L24" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="M24" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="25" spans="3:13" x14ac:dyDescent="0.2">
+      <c r="N24" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="O24" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="25" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C25" s="1" t="s">
         <v>20</v>
       </c>
@@ -1286,78 +1383,96 @@
       <c r="M25" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="26" spans="3:13" x14ac:dyDescent="0.2">
+      <c r="N25" s="3">
+        <v>0</v>
+      </c>
+      <c r="O25" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="26" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C26" s="1" t="s">
         <v>21</v>
       </c>
-      <c r="D26" s="3">
-        <v>54400</v>
+      <c r="D26" s="3" t="s">
+        <v>3</v>
       </c>
       <c r="E26" s="3">
-        <v>42800</v>
+        <v>106000</v>
       </c>
       <c r="F26" s="3">
-        <v>212300</v>
+        <v>60100</v>
       </c>
       <c r="G26" s="3">
-        <v>85900</v>
+        <v>47300</v>
       </c>
       <c r="H26" s="3">
-        <v>30200</v>
+        <v>234300</v>
       </c>
       <c r="I26" s="3">
+        <v>79000</v>
+      </c>
+      <c r="J26" s="3">
+        <v>33300</v>
+      </c>
+      <c r="K26" s="3">
         <v>20700</v>
       </c>
-      <c r="J26" s="3">
+      <c r="L26" s="3">
         <v>53900</v>
       </c>
-      <c r="K26" s="3" t="s">
-        <v>3</v>
-      </c>
-      <c r="L26" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="M26" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="27" spans="3:13" x14ac:dyDescent="0.2">
+      <c r="N26" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="O26" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="27" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C27" s="1" t="s">
         <v>22</v>
       </c>
-      <c r="D27" s="3">
-        <v>54400</v>
+      <c r="D27" s="3" t="s">
+        <v>3</v>
       </c>
       <c r="E27" s="3">
-        <v>42800</v>
+        <v>106000</v>
       </c>
       <c r="F27" s="3">
-        <v>184100</v>
+        <v>60100</v>
       </c>
       <c r="G27" s="3">
-        <v>78000</v>
+        <v>47300</v>
       </c>
       <c r="H27" s="3">
-        <v>20900</v>
+        <v>203200</v>
       </c>
       <c r="I27" s="3">
+        <v>70400</v>
+      </c>
+      <c r="J27" s="3">
+        <v>23100</v>
+      </c>
+      <c r="K27" s="3">
         <v>16800</v>
       </c>
-      <c r="J27" s="3">
+      <c r="L27" s="3">
         <v>51600</v>
       </c>
-      <c r="K27" s="3" t="s">
-        <v>3</v>
-      </c>
-      <c r="L27" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="M27" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="28" spans="3:13" x14ac:dyDescent="0.2">
+      <c r="N27" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="O27" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="28" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C28" s="1" t="s">
         <v>23</v>
       </c>
@@ -1391,43 +1506,55 @@
       <c r="M28" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="29" spans="3:13" x14ac:dyDescent="0.2">
+      <c r="N28" s="3">
+        <v>0</v>
+      </c>
+      <c r="O28" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="29" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C29" s="1" t="s">
         <v>24</v>
       </c>
       <c r="D29" s="3">
         <v>0</v>
       </c>
-      <c r="E29" s="3">
-        <v>0</v>
+      <c r="E29" s="3" t="s">
+        <v>3</v>
       </c>
       <c r="F29" s="3">
-        <v>65500</v>
-      </c>
-      <c r="G29" s="3" t="s">
-        <v>3</v>
+        <v>0</v>
+      </c>
+      <c r="G29" s="3">
+        <v>0</v>
       </c>
       <c r="H29" s="3">
-        <v>10400</v>
+        <v>72300</v>
       </c>
       <c r="I29" s="3">
+        <v>15800</v>
+      </c>
+      <c r="J29" s="3">
+        <v>11400</v>
+      </c>
+      <c r="K29" s="3">
         <v>1100</v>
       </c>
-      <c r="J29" s="3">
+      <c r="L29" s="3">
         <v>-2900</v>
       </c>
-      <c r="K29" s="3" t="s">
-        <v>3</v>
-      </c>
-      <c r="L29" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="M29" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="30" spans="3:13" x14ac:dyDescent="0.2">
+      <c r="N29" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="O29" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="30" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C30" s="1" t="s">
         <v>25</v>
       </c>
@@ -1461,8 +1588,14 @@
       <c r="M30" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="31" spans="3:13" x14ac:dyDescent="0.2">
+      <c r="N30" s="3">
+        <v>0</v>
+      </c>
+      <c r="O30" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="31" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C31" s="1" t="s">
         <v>26</v>
       </c>
@@ -1496,78 +1629,96 @@
       <c r="M31" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="32" spans="3:13" x14ac:dyDescent="0.2">
+      <c r="N31" s="3">
+        <v>0</v>
+      </c>
+      <c r="O31" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="32" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C32" s="1" t="s">
         <v>27</v>
       </c>
-      <c r="D32" s="3">
-        <v>-6400</v>
+      <c r="D32" s="3" t="s">
+        <v>3</v>
       </c>
       <c r="E32" s="3">
-        <v>-1400</v>
+        <v>-8300</v>
       </c>
       <c r="F32" s="3">
-        <v>-44600</v>
+        <v>-7100</v>
       </c>
       <c r="G32" s="3">
-        <v>1800</v>
+        <v>-1600</v>
       </c>
       <c r="H32" s="3">
-        <v>13900</v>
+        <v>-49300</v>
       </c>
       <c r="I32" s="3">
+        <v>-2800</v>
+      </c>
+      <c r="J32" s="3">
+        <v>15400</v>
+      </c>
+      <c r="K32" s="3">
         <v>-13200</v>
       </c>
-      <c r="J32" s="3">
+      <c r="L32" s="3">
         <v>-3000</v>
       </c>
-      <c r="K32" s="3" t="s">
-        <v>3</v>
-      </c>
-      <c r="L32" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="M32" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="33" spans="2:13" x14ac:dyDescent="0.2">
+      <c r="N32" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="O32" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="33" spans="2:15" x14ac:dyDescent="0.2">
       <c r="C33" s="1" t="s">
         <v>28</v>
       </c>
-      <c r="D33" s="3">
-        <v>54400</v>
+      <c r="D33" s="3" t="s">
+        <v>3</v>
       </c>
       <c r="E33" s="3">
-        <v>42800</v>
+        <v>106000</v>
       </c>
       <c r="F33" s="3">
-        <v>249600</v>
+        <v>60100</v>
       </c>
       <c r="G33" s="3">
-        <v>78000</v>
+        <v>47300</v>
       </c>
       <c r="H33" s="3">
-        <v>31200</v>
+        <v>275500</v>
       </c>
       <c r="I33" s="3">
+        <v>86100</v>
+      </c>
+      <c r="J33" s="3">
+        <v>34500</v>
+      </c>
+      <c r="K33" s="3">
         <v>17900</v>
       </c>
-      <c r="J33" s="3">
+      <c r="L33" s="3">
         <v>48700</v>
       </c>
-      <c r="K33" s="3" t="s">
-        <v>3</v>
-      </c>
-      <c r="L33" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="M33" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="34" spans="2:13" x14ac:dyDescent="0.2">
+      <c r="N33" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="O33" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="34" spans="2:15" x14ac:dyDescent="0.2">
       <c r="C34" s="1" t="s">
         <v>29</v>
       </c>
@@ -1601,83 +1752,101 @@
       <c r="M34" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="35" spans="2:13" x14ac:dyDescent="0.2">
+      <c r="N34" s="3">
+        <v>0</v>
+      </c>
+      <c r="O34" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="35" spans="2:15" x14ac:dyDescent="0.2">
       <c r="C35" s="1" t="s">
         <v>30</v>
       </c>
-      <c r="D35" s="3">
-        <v>54400</v>
+      <c r="D35" s="3" t="s">
+        <v>3</v>
       </c>
       <c r="E35" s="3">
-        <v>42800</v>
+        <v>106000</v>
       </c>
       <c r="F35" s="3">
-        <v>249600</v>
+        <v>60100</v>
       </c>
       <c r="G35" s="3">
-        <v>78000</v>
+        <v>47300</v>
       </c>
       <c r="H35" s="3">
-        <v>31200</v>
+        <v>275500</v>
       </c>
       <c r="I35" s="3">
+        <v>86100</v>
+      </c>
+      <c r="J35" s="3">
+        <v>34500</v>
+      </c>
+      <c r="K35" s="3">
         <v>17900</v>
       </c>
-      <c r="J35" s="3">
+      <c r="L35" s="3">
         <v>48700</v>
       </c>
-      <c r="K35" s="3" t="s">
-        <v>3</v>
-      </c>
-      <c r="L35" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="M35" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="37" spans="2:13" x14ac:dyDescent="0.2">
+      <c r="N35" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="O35" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="37" spans="2:15" x14ac:dyDescent="0.2">
       <c r="B37" s="1" t="s">
         <v>31</v>
       </c>
     </row>
-    <row r="38" spans="2:13" x14ac:dyDescent="0.2">
+    <row r="38" spans="2:15" x14ac:dyDescent="0.2">
       <c r="C38" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D38" s="2">
+        <v>44561</v>
+      </c>
+      <c r="E38" s="2">
+        <v>44469</v>
+      </c>
+      <c r="F38" s="2">
         <v>44377</v>
       </c>
-      <c r="E38" s="2">
+      <c r="G38" s="2">
         <v>44286</v>
       </c>
-      <c r="F38" s="2">
+      <c r="H38" s="2">
         <v>44196</v>
       </c>
-      <c r="G38" s="2">
+      <c r="I38" s="2">
         <v>44104</v>
       </c>
-      <c r="H38" s="2">
+      <c r="J38" s="2">
         <v>44012</v>
       </c>
-      <c r="I38" s="2">
+      <c r="K38" s="2">
         <v>43921</v>
       </c>
-      <c r="J38" s="2">
+      <c r="L38" s="2">
         <v>43830</v>
       </c>
-      <c r="K38" s="2" t="s">
-        <v>3</v>
-      </c>
-      <c r="L38" s="2" t="s">
-        <v>3</v>
-      </c>
       <c r="M38" s="2" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="39" spans="2:13" x14ac:dyDescent="0.2">
+      <c r="N38" s="2" t="s">
+        <v>3</v>
+      </c>
+      <c r="O38" s="2" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="39" spans="2:15" x14ac:dyDescent="0.2">
       <c r="C39" s="1" t="s">
         <v>32</v>
       </c>
@@ -1691,8 +1860,10 @@
       <c r="K39" s="3"/>
       <c r="L39" s="3"/>
       <c r="M39" s="3"/>
-    </row>
-    <row r="40" spans="2:13" x14ac:dyDescent="0.2">
+      <c r="N39" s="3"/>
+      <c r="O39" s="3"/>
+    </row>
+    <row r="40" spans="2:15" x14ac:dyDescent="0.2">
       <c r="C40" s="1" t="s">
         <v>33</v>
       </c>
@@ -1706,323 +1877,379 @@
       <c r="K40" s="3"/>
       <c r="L40" s="3"/>
       <c r="M40" s="3"/>
-    </row>
-    <row r="41" spans="2:13" x14ac:dyDescent="0.2">
+      <c r="N40" s="3"/>
+      <c r="O40" s="3"/>
+    </row>
+    <row r="41" spans="2:15" x14ac:dyDescent="0.2">
       <c r="C41" s="1" t="s">
         <v>34</v>
       </c>
-      <c r="D41" s="3">
-        <v>16600</v>
+      <c r="D41" s="3" t="s">
+        <v>3</v>
       </c>
       <c r="E41" s="3">
-        <v>17900</v>
+        <v>19100</v>
       </c>
       <c r="F41" s="3">
-        <v>16600</v>
+        <v>18300</v>
       </c>
       <c r="G41" s="3">
-        <v>314400</v>
+        <v>19700</v>
       </c>
       <c r="H41" s="3">
-        <v>417900</v>
+        <v>18300</v>
       </c>
       <c r="I41" s="3">
+        <v>347000</v>
+      </c>
+      <c r="J41" s="3">
+        <v>461300</v>
+      </c>
+      <c r="K41" s="3">
         <v>484000</v>
       </c>
-      <c r="J41" s="3" t="s">
-        <v>3</v>
-      </c>
-      <c r="K41" s="3">
-        <v>0</v>
-      </c>
-      <c r="L41" s="3">
-        <v>0</v>
+      <c r="L41" s="3" t="s">
+        <v>3</v>
       </c>
       <c r="M41" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="42" spans="2:13" x14ac:dyDescent="0.2">
+      <c r="N41" s="3">
+        <v>0</v>
+      </c>
+      <c r="O41" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="42" spans="2:15" x14ac:dyDescent="0.2">
       <c r="C42" s="1" t="s">
         <v>35</v>
       </c>
-      <c r="D42" s="3">
-        <v>788700</v>
+      <c r="D42" s="3" t="s">
+        <v>3</v>
       </c>
       <c r="E42" s="3">
-        <v>475600</v>
+        <v>548600</v>
       </c>
       <c r="F42" s="3">
-        <v>613900</v>
+        <v>870600</v>
       </c>
       <c r="G42" s="3">
-        <v>381500</v>
+        <v>525000</v>
       </c>
       <c r="H42" s="3">
-        <v>406500</v>
+        <v>677700</v>
       </c>
       <c r="I42" s="3">
+        <v>421100</v>
+      </c>
+      <c r="J42" s="3">
+        <v>448700</v>
+      </c>
+      <c r="K42" s="3">
         <v>190300</v>
       </c>
-      <c r="J42" s="3" t="s">
-        <v>3</v>
-      </c>
-      <c r="K42" s="3">
-        <v>0</v>
-      </c>
-      <c r="L42" s="3">
-        <v>0</v>
+      <c r="L42" s="3" t="s">
+        <v>3</v>
       </c>
       <c r="M42" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="43" spans="2:13" x14ac:dyDescent="0.2">
+      <c r="N42" s="3">
+        <v>0</v>
+      </c>
+      <c r="O42" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="43" spans="2:15" x14ac:dyDescent="0.2">
       <c r="C43" s="1" t="s">
         <v>36</v>
       </c>
-      <c r="D43" s="3">
-        <v>169100</v>
+      <c r="D43" s="3" t="s">
+        <v>3</v>
       </c>
       <c r="E43" s="3">
-        <v>141900</v>
+        <v>255600</v>
       </c>
       <c r="F43" s="3">
-        <v>175700</v>
+        <v>186600</v>
       </c>
       <c r="G43" s="3">
-        <v>323800</v>
+        <v>156700</v>
       </c>
       <c r="H43" s="3">
-        <v>340300</v>
+        <v>193900</v>
       </c>
       <c r="I43" s="3">
+        <v>357500</v>
+      </c>
+      <c r="J43" s="3">
+        <v>375600</v>
+      </c>
+      <c r="K43" s="3">
         <v>280100</v>
       </c>
-      <c r="J43" s="3" t="s">
-        <v>3</v>
-      </c>
-      <c r="K43" s="3">
-        <v>0</v>
-      </c>
-      <c r="L43" s="3">
-        <v>0</v>
+      <c r="L43" s="3" t="s">
+        <v>3</v>
       </c>
       <c r="M43" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="44" spans="2:13" x14ac:dyDescent="0.2">
+      <c r="N43" s="3">
+        <v>0</v>
+      </c>
+      <c r="O43" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="44" spans="2:15" x14ac:dyDescent="0.2">
       <c r="C44" s="1" t="s">
         <v>37</v>
       </c>
-      <c r="D44" s="3">
-        <v>658400</v>
+      <c r="D44" s="3" t="s">
+        <v>3</v>
       </c>
       <c r="E44" s="3">
-        <v>613400</v>
+        <v>878900</v>
       </c>
       <c r="F44" s="3">
-        <v>667500</v>
+        <v>726800</v>
       </c>
       <c r="G44" s="3">
-        <v>1139500</v>
+        <v>677100</v>
       </c>
       <c r="H44" s="3">
-        <v>1008800</v>
+        <v>736800</v>
       </c>
       <c r="I44" s="3">
+        <v>1257800</v>
+      </c>
+      <c r="J44" s="3">
+        <v>1113600</v>
+      </c>
+      <c r="K44" s="3">
         <v>1036500</v>
       </c>
-      <c r="J44" s="3" t="s">
-        <v>3</v>
-      </c>
-      <c r="K44" s="3">
-        <v>0</v>
-      </c>
-      <c r="L44" s="3">
-        <v>0</v>
+      <c r="L44" s="3" t="s">
+        <v>3</v>
       </c>
       <c r="M44" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="45" spans="2:13" x14ac:dyDescent="0.2">
+      <c r="N44" s="3">
+        <v>0</v>
+      </c>
+      <c r="O44" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="45" spans="2:15" x14ac:dyDescent="0.2">
       <c r="C45" s="1" t="s">
         <v>38</v>
       </c>
-      <c r="D45" s="3">
-        <v>40200</v>
+      <c r="D45" s="3" t="s">
+        <v>3</v>
       </c>
       <c r="E45" s="3">
-        <v>16100</v>
+        <v>47900</v>
       </c>
       <c r="F45" s="3">
-        <v>16800</v>
+        <v>44300</v>
       </c>
       <c r="G45" s="3">
-        <v>57700</v>
+        <v>17700</v>
       </c>
       <c r="H45" s="3">
-        <v>76900</v>
+        <v>18500</v>
       </c>
       <c r="I45" s="3">
+        <v>63700</v>
+      </c>
+      <c r="J45" s="3">
+        <v>84900</v>
+      </c>
+      <c r="K45" s="3">
         <v>154400</v>
       </c>
-      <c r="J45" s="3" t="s">
-        <v>3</v>
-      </c>
-      <c r="K45" s="3">
-        <v>0</v>
-      </c>
-      <c r="L45" s="3">
-        <v>0</v>
+      <c r="L45" s="3" t="s">
+        <v>3</v>
       </c>
       <c r="M45" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="46" spans="2:13" x14ac:dyDescent="0.2">
+      <c r="N45" s="3">
+        <v>0</v>
+      </c>
+      <c r="O45" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="46" spans="2:15" x14ac:dyDescent="0.2">
       <c r="C46" s="1" t="s">
         <v>39</v>
       </c>
-      <c r="D46" s="3">
-        <v>1672900</v>
+      <c r="D46" s="3" t="s">
+        <v>3</v>
       </c>
       <c r="E46" s="3">
-        <v>1264800</v>
+        <v>1750100</v>
       </c>
       <c r="F46" s="3">
-        <v>1490500</v>
+        <v>1846600</v>
       </c>
       <c r="G46" s="3">
-        <v>2216900</v>
+        <v>1396200</v>
       </c>
       <c r="H46" s="3">
-        <v>2250400</v>
+        <v>1645300</v>
       </c>
       <c r="I46" s="3">
+        <v>2447100</v>
+      </c>
+      <c r="J46" s="3">
+        <v>2484100</v>
+      </c>
+      <c r="K46" s="3">
         <v>2145300</v>
       </c>
-      <c r="J46" s="3" t="s">
-        <v>3</v>
-      </c>
-      <c r="K46" s="3">
-        <v>0</v>
-      </c>
-      <c r="L46" s="3">
-        <v>0</v>
+      <c r="L46" s="3" t="s">
+        <v>3</v>
       </c>
       <c r="M46" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="47" spans="2:13" x14ac:dyDescent="0.2">
+      <c r="N46" s="3">
+        <v>0</v>
+      </c>
+      <c r="O46" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="47" spans="2:15" x14ac:dyDescent="0.2">
       <c r="C47" s="1" t="s">
         <v>40</v>
       </c>
-      <c r="D47" s="3">
-        <v>312100</v>
+      <c r="D47" s="3" t="s">
+        <v>3</v>
       </c>
       <c r="E47" s="3">
-        <v>312400</v>
+        <v>351200</v>
       </c>
       <c r="F47" s="3">
-        <v>323700</v>
+        <v>344500</v>
       </c>
       <c r="G47" s="3">
-        <v>261400</v>
+        <v>344900</v>
       </c>
       <c r="H47" s="3">
-        <v>263900</v>
+        <v>357300</v>
       </c>
       <c r="I47" s="3">
+        <v>288500</v>
+      </c>
+      <c r="J47" s="3">
+        <v>291300</v>
+      </c>
+      <c r="K47" s="3">
         <v>297400</v>
       </c>
-      <c r="J47" s="3" t="s">
-        <v>3</v>
-      </c>
-      <c r="K47" s="3">
-        <v>0</v>
-      </c>
-      <c r="L47" s="3">
-        <v>0</v>
+      <c r="L47" s="3" t="s">
+        <v>3</v>
       </c>
       <c r="M47" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="48" spans="2:13" x14ac:dyDescent="0.2">
+      <c r="N47" s="3">
+        <v>0</v>
+      </c>
+      <c r="O47" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="48" spans="2:15" x14ac:dyDescent="0.2">
       <c r="C48" s="1" t="s">
         <v>41</v>
       </c>
-      <c r="D48" s="3">
-        <v>1456700</v>
+      <c r="D48" s="3" t="s">
+        <v>3</v>
       </c>
       <c r="E48" s="3">
-        <v>1357300</v>
+        <v>1753200</v>
       </c>
       <c r="F48" s="3">
-        <v>1334600</v>
+        <v>1608000</v>
       </c>
       <c r="G48" s="3">
-        <v>3735900</v>
+        <v>1498200</v>
       </c>
       <c r="H48" s="3">
-        <v>3675700</v>
+        <v>1473200</v>
       </c>
       <c r="I48" s="3">
+        <v>4123900</v>
+      </c>
+      <c r="J48" s="3">
+        <v>4057500</v>
+      </c>
+      <c r="K48" s="3">
         <v>3266400</v>
       </c>
-      <c r="J48" s="3" t="s">
-        <v>3</v>
-      </c>
-      <c r="K48" s="3">
-        <v>0</v>
-      </c>
-      <c r="L48" s="3">
-        <v>0</v>
+      <c r="L48" s="3" t="s">
+        <v>3</v>
       </c>
       <c r="M48" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="49" spans="3:13" x14ac:dyDescent="0.2">
+      <c r="N48" s="3">
+        <v>0</v>
+      </c>
+      <c r="O48" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="49" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C49" s="1" t="s">
         <v>42</v>
       </c>
-      <c r="D49" s="3">
-        <v>186900</v>
+      <c r="D49" s="3" t="s">
+        <v>3</v>
       </c>
       <c r="E49" s="3">
-        <v>185100</v>
+        <v>208900</v>
       </c>
       <c r="F49" s="3">
-        <v>185100</v>
+        <v>206300</v>
       </c>
       <c r="G49" s="3">
-        <v>884200</v>
+        <v>204400</v>
       </c>
       <c r="H49" s="3">
-        <v>879900</v>
+        <v>204400</v>
       </c>
       <c r="I49" s="3">
+        <v>976000</v>
+      </c>
+      <c r="J49" s="3">
+        <v>971300</v>
+      </c>
+      <c r="K49" s="3">
         <v>796000</v>
       </c>
-      <c r="J49" s="3" t="s">
-        <v>3</v>
-      </c>
-      <c r="K49" s="3">
-        <v>0</v>
-      </c>
-      <c r="L49" s="3">
-        <v>0</v>
+      <c r="L49" s="3" t="s">
+        <v>3</v>
       </c>
       <c r="M49" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="50" spans="3:13" x14ac:dyDescent="0.2">
+      <c r="N49" s="3">
+        <v>0</v>
+      </c>
+      <c r="O49" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="50" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C50" s="1" t="s">
         <v>43</v>
       </c>
@@ -2056,8 +2283,14 @@
       <c r="M50" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="51" spans="3:13" x14ac:dyDescent="0.2">
+      <c r="N50" s="3">
+        <v>0</v>
+      </c>
+      <c r="O50" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="51" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C51" s="1" t="s">
         <v>44</v>
       </c>
@@ -2091,43 +2324,55 @@
       <c r="M51" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="52" spans="3:13" x14ac:dyDescent="0.2">
+      <c r="N51" s="3">
+        <v>0</v>
+      </c>
+      <c r="O51" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="52" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C52" s="1" t="s">
         <v>45</v>
       </c>
       <c r="D52" s="3">
-        <v>27700</v>
+        <v>0</v>
       </c>
       <c r="E52" s="3">
-        <v>25200</v>
+        <v>29400</v>
       </c>
       <c r="F52" s="3">
-        <v>26100</v>
+        <v>30500</v>
       </c>
       <c r="G52" s="3">
-        <v>37700</v>
+        <v>27800</v>
       </c>
       <c r="H52" s="3">
-        <v>36100</v>
+        <v>28800</v>
       </c>
       <c r="I52" s="3">
+        <v>41600</v>
+      </c>
+      <c r="J52" s="3">
+        <v>39800</v>
+      </c>
+      <c r="K52" s="3">
         <v>39300</v>
       </c>
-      <c r="J52" s="3" t="s">
-        <v>3</v>
-      </c>
-      <c r="K52" s="3">
-        <v>0</v>
-      </c>
-      <c r="L52" s="3">
-        <v>0</v>
+      <c r="L52" s="3" t="s">
+        <v>3</v>
       </c>
       <c r="M52" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="53" spans="3:13" x14ac:dyDescent="0.2">
+      <c r="N52" s="3">
+        <v>0</v>
+      </c>
+      <c r="O52" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="53" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C53" s="1" t="s">
         <v>46</v>
       </c>
@@ -2161,43 +2406,55 @@
       <c r="M53" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="54" spans="3:13" x14ac:dyDescent="0.2">
+      <c r="N53" s="3">
+        <v>0</v>
+      </c>
+      <c r="O53" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="54" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C54" s="1" t="s">
         <v>47</v>
       </c>
-      <c r="D54" s="3">
-        <v>3656300</v>
+      <c r="D54" s="3" t="s">
+        <v>3</v>
       </c>
       <c r="E54" s="3">
-        <v>3144800</v>
+        <v>4092700</v>
       </c>
       <c r="F54" s="3">
-        <v>3359900</v>
+        <v>4036000</v>
       </c>
       <c r="G54" s="3">
-        <v>7136000</v>
+        <v>3471400</v>
       </c>
       <c r="H54" s="3">
-        <v>7106000</v>
+        <v>3708900</v>
       </c>
       <c r="I54" s="3">
+        <v>7877100</v>
+      </c>
+      <c r="J54" s="3">
+        <v>7844000</v>
+      </c>
+      <c r="K54" s="3">
         <v>6544400</v>
       </c>
-      <c r="J54" s="3" t="s">
-        <v>3</v>
-      </c>
-      <c r="K54" s="3">
-        <v>0</v>
-      </c>
-      <c r="L54" s="3">
-        <v>0</v>
+      <c r="L54" s="3" t="s">
+        <v>3</v>
       </c>
       <c r="M54" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="55" spans="3:13" x14ac:dyDescent="0.2">
+      <c r="N54" s="3">
+        <v>0</v>
+      </c>
+      <c r="O54" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="55" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C55" s="1" t="s">
         <v>48</v>
       </c>
@@ -2211,8 +2468,10 @@
       <c r="K55" s="3"/>
       <c r="L55" s="3"/>
       <c r="M55" s="3"/>
-    </row>
-    <row r="56" spans="3:13" x14ac:dyDescent="0.2">
+      <c r="N55" s="3"/>
+      <c r="O55" s="3"/>
+    </row>
+    <row r="56" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C56" s="1" t="s">
         <v>49</v>
       </c>
@@ -2226,218 +2485,256 @@
       <c r="K56" s="3"/>
       <c r="L56" s="3"/>
       <c r="M56" s="3"/>
-    </row>
-    <row r="57" spans="3:13" x14ac:dyDescent="0.2">
+      <c r="N56" s="3"/>
+      <c r="O56" s="3"/>
+    </row>
+    <row r="57" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C57" s="1" t="s">
         <v>50</v>
       </c>
       <c r="D57" s="3">
-        <v>822800</v>
+        <v>1243400</v>
       </c>
       <c r="E57" s="3">
-        <v>751400</v>
+        <v>1068100</v>
       </c>
       <c r="F57" s="3">
-        <v>910300</v>
+        <v>908200</v>
       </c>
       <c r="G57" s="3">
-        <v>1493100</v>
+        <v>829400</v>
       </c>
       <c r="H57" s="3">
-        <v>1482800</v>
+        <v>1004800</v>
       </c>
       <c r="I57" s="3">
+        <v>1648200</v>
+      </c>
+      <c r="J57" s="3">
+        <v>1636800</v>
+      </c>
+      <c r="K57" s="3">
         <v>1465500</v>
       </c>
-      <c r="J57" s="3" t="s">
-        <v>3</v>
-      </c>
-      <c r="K57" s="3">
-        <v>0</v>
-      </c>
-      <c r="L57" s="3">
-        <v>0</v>
+      <c r="L57" s="3" t="s">
+        <v>3</v>
       </c>
       <c r="M57" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="58" spans="3:13" x14ac:dyDescent="0.2">
+      <c r="N57" s="3">
+        <v>0</v>
+      </c>
+      <c r="O57" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="58" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C58" s="1" t="s">
         <v>51</v>
       </c>
       <c r="D58" s="3">
-        <v>429200</v>
+        <v>168900</v>
       </c>
       <c r="E58" s="3">
-        <v>365600</v>
+        <v>507600</v>
       </c>
       <c r="F58" s="3">
-        <v>409200</v>
+        <v>473700</v>
       </c>
       <c r="G58" s="3">
-        <v>749800</v>
+        <v>403600</v>
       </c>
       <c r="H58" s="3">
-        <v>480200</v>
+        <v>451700</v>
       </c>
       <c r="I58" s="3">
+        <v>827700</v>
+      </c>
+      <c r="J58" s="3">
+        <v>530100</v>
+      </c>
+      <c r="K58" s="3">
         <v>521100</v>
       </c>
-      <c r="J58" s="3" t="s">
-        <v>3</v>
-      </c>
-      <c r="K58" s="3">
-        <v>0</v>
-      </c>
-      <c r="L58" s="3">
-        <v>0</v>
+      <c r="L58" s="3" t="s">
+        <v>3</v>
       </c>
       <c r="M58" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="59" spans="3:13" x14ac:dyDescent="0.2">
+      <c r="N58" s="3">
+        <v>0</v>
+      </c>
+      <c r="O58" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="59" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C59" s="1" t="s">
         <v>52</v>
       </c>
       <c r="D59" s="3">
-        <v>177300</v>
+        <v>291100</v>
       </c>
       <c r="E59" s="3">
-        <v>176900</v>
+        <v>230800</v>
       </c>
       <c r="F59" s="3">
-        <v>237800</v>
+        <v>195700</v>
       </c>
       <c r="G59" s="3">
-        <v>465900</v>
+        <v>195300</v>
       </c>
       <c r="H59" s="3">
-        <v>445100</v>
+        <v>262500</v>
       </c>
       <c r="I59" s="3">
+        <v>514300</v>
+      </c>
+      <c r="J59" s="3">
+        <v>491300</v>
+      </c>
+      <c r="K59" s="3">
         <v>394000</v>
       </c>
-      <c r="J59" s="3" t="s">
-        <v>3</v>
-      </c>
-      <c r="K59" s="3">
-        <v>0</v>
-      </c>
-      <c r="L59" s="3">
-        <v>0</v>
+      <c r="L59" s="3" t="s">
+        <v>3</v>
       </c>
       <c r="M59" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="60" spans="3:13" x14ac:dyDescent="0.2">
+      <c r="N59" s="3">
+        <v>0</v>
+      </c>
+      <c r="O59" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="60" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C60" s="1" t="s">
         <v>53</v>
       </c>
       <c r="D60" s="3">
-        <v>1429200</v>
+        <v>1703400</v>
       </c>
       <c r="E60" s="3">
-        <v>1293900</v>
+        <v>1806400</v>
       </c>
       <c r="F60" s="3">
-        <v>1557200</v>
+        <v>1577700</v>
       </c>
       <c r="G60" s="3">
-        <v>2708900</v>
+        <v>1428300</v>
       </c>
       <c r="H60" s="3">
-        <v>2408100</v>
+        <v>1719000</v>
       </c>
       <c r="I60" s="3">
+        <v>2990200</v>
+      </c>
+      <c r="J60" s="3">
+        <v>2658100</v>
+      </c>
+      <c r="K60" s="3">
         <v>2380600</v>
       </c>
-      <c r="J60" s="3" t="s">
-        <v>3</v>
-      </c>
-      <c r="K60" s="3">
-        <v>0</v>
-      </c>
-      <c r="L60" s="3">
-        <v>0</v>
+      <c r="L60" s="3" t="s">
+        <v>3</v>
       </c>
       <c r="M60" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="61" spans="3:13" x14ac:dyDescent="0.2">
+      <c r="N60" s="3">
+        <v>0</v>
+      </c>
+      <c r="O60" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="61" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C61" s="1" t="s">
         <v>54</v>
       </c>
       <c r="D61" s="3">
-        <v>1824800</v>
+        <v>2212400</v>
       </c>
       <c r="E61" s="3">
-        <v>1497100</v>
+        <v>1754000</v>
       </c>
       <c r="F61" s="3">
-        <v>1484400</v>
+        <v>2014300</v>
       </c>
       <c r="G61" s="3">
-        <v>1902300</v>
+        <v>1652500</v>
       </c>
       <c r="H61" s="3">
-        <v>2239700</v>
+        <v>1638600</v>
       </c>
       <c r="I61" s="3">
+        <v>2099900</v>
+      </c>
+      <c r="J61" s="3">
+        <v>2472300</v>
+      </c>
+      <c r="K61" s="3">
         <v>2004400</v>
       </c>
-      <c r="J61" s="3">
-        <v>0</v>
-      </c>
-      <c r="K61" s="3">
-        <v>0</v>
-      </c>
       <c r="L61" s="3">
         <v>0</v>
       </c>
       <c r="M61" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="62" spans="3:13" x14ac:dyDescent="0.2">
+      <c r="N61" s="3">
+        <v>0</v>
+      </c>
+      <c r="O61" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="62" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C62" s="1" t="s">
         <v>55</v>
       </c>
       <c r="D62" s="3">
-        <v>60000</v>
+        <v>42800</v>
       </c>
       <c r="E62" s="3">
-        <v>70000</v>
+        <v>58900</v>
       </c>
       <c r="F62" s="3">
-        <v>66600</v>
+        <v>66200</v>
       </c>
       <c r="G62" s="3">
-        <v>258000</v>
+        <v>77200</v>
       </c>
       <c r="H62" s="3">
-        <v>282400</v>
+        <v>73500</v>
       </c>
       <c r="I62" s="3">
+        <v>284800</v>
+      </c>
+      <c r="J62" s="3">
+        <v>311700</v>
+      </c>
+      <c r="K62" s="3">
         <v>287800</v>
       </c>
-      <c r="J62" s="3" t="s">
-        <v>3</v>
-      </c>
-      <c r="K62" s="3">
-        <v>0</v>
-      </c>
-      <c r="L62" s="3">
-        <v>0</v>
+      <c r="L62" s="3" t="s">
+        <v>3</v>
       </c>
       <c r="M62" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="63" spans="3:13" x14ac:dyDescent="0.2">
+      <c r="N62" s="3">
+        <v>0</v>
+      </c>
+      <c r="O62" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="63" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C63" s="1" t="s">
         <v>56</v>
       </c>
@@ -2471,8 +2768,14 @@
       <c r="M63" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="64" spans="3:13" x14ac:dyDescent="0.2">
+      <c r="N63" s="3">
+        <v>0</v>
+      </c>
+      <c r="O63" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="64" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C64" s="1" t="s">
         <v>20</v>
       </c>
@@ -2506,8 +2809,14 @@
       <c r="M64" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="65" spans="2:13" x14ac:dyDescent="0.2">
+      <c r="N64" s="3">
+        <v>0</v>
+      </c>
+      <c r="O64" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="65" spans="2:15" x14ac:dyDescent="0.2">
       <c r="C65" s="1" t="s">
         <v>57</v>
       </c>
@@ -2541,43 +2850,55 @@
       <c r="M65" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="66" spans="2:13" x14ac:dyDescent="0.2">
+      <c r="N65" s="3">
+        <v>0</v>
+      </c>
+      <c r="O65" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="66" spans="2:15" x14ac:dyDescent="0.2">
       <c r="C66" s="1" t="s">
         <v>58</v>
       </c>
       <c r="D66" s="3">
-        <v>3314000</v>
+        <v>3958500</v>
       </c>
       <c r="E66" s="3">
-        <v>2861000</v>
+        <v>3619400</v>
       </c>
       <c r="F66" s="3">
-        <v>3108200</v>
+        <v>3658200</v>
       </c>
       <c r="G66" s="3">
-        <v>5431500</v>
+        <v>3158100</v>
       </c>
       <c r="H66" s="3">
-        <v>5483600</v>
+        <v>3431000</v>
       </c>
       <c r="I66" s="3">
+        <v>5995600</v>
+      </c>
+      <c r="J66" s="3">
+        <v>6053100</v>
+      </c>
+      <c r="K66" s="3">
         <v>5153300</v>
       </c>
-      <c r="J66" s="3" t="s">
-        <v>3</v>
-      </c>
-      <c r="K66" s="3">
-        <v>0</v>
-      </c>
-      <c r="L66" s="3">
-        <v>0</v>
+      <c r="L66" s="3" t="s">
+        <v>3</v>
       </c>
       <c r="M66" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="67" spans="2:13" x14ac:dyDescent="0.2">
+      <c r="N66" s="3">
+        <v>0</v>
+      </c>
+      <c r="O66" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="67" spans="2:15" x14ac:dyDescent="0.2">
       <c r="C67" s="1" t="s">
         <v>59</v>
       </c>
@@ -2591,8 +2912,10 @@
       <c r="K67" s="3"/>
       <c r="L67" s="3"/>
       <c r="M67" s="3"/>
-    </row>
-    <row r="68" spans="2:13" x14ac:dyDescent="0.2">
+      <c r="N67" s="3"/>
+      <c r="O67" s="3"/>
+    </row>
+    <row r="68" spans="2:15" x14ac:dyDescent="0.2">
       <c r="C68" s="1" t="s">
         <v>60</v>
       </c>
@@ -2626,8 +2949,14 @@
       <c r="M68" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="69" spans="2:13" x14ac:dyDescent="0.2">
+      <c r="N68" s="3">
+        <v>0</v>
+      </c>
+      <c r="O68" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="69" spans="2:15" x14ac:dyDescent="0.2">
       <c r="C69" s="1" t="s">
         <v>61</v>
       </c>
@@ -2661,8 +2990,14 @@
       <c r="M69" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="70" spans="2:13" x14ac:dyDescent="0.2">
+      <c r="N69" s="3">
+        <v>0</v>
+      </c>
+      <c r="O69" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="70" spans="2:15" x14ac:dyDescent="0.2">
       <c r="C70" s="1" t="s">
         <v>62</v>
       </c>
@@ -2696,8 +3031,14 @@
       <c r="M70" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="71" spans="2:13" x14ac:dyDescent="0.2">
+      <c r="N70" s="3">
+        <v>0</v>
+      </c>
+      <c r="O70" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="71" spans="2:15" x14ac:dyDescent="0.2">
       <c r="C71" s="1" t="s">
         <v>63</v>
       </c>
@@ -2731,43 +3072,55 @@
       <c r="M71" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="72" spans="2:13" x14ac:dyDescent="0.2">
+      <c r="N71" s="3">
+        <v>0</v>
+      </c>
+      <c r="O71" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="72" spans="2:15" x14ac:dyDescent="0.2">
       <c r="C72" s="1" t="s">
         <v>64</v>
       </c>
       <c r="D72" s="3">
-        <v>203200</v>
+        <v>390000</v>
       </c>
       <c r="E72" s="3">
-        <v>148000</v>
+        <v>318300</v>
       </c>
       <c r="F72" s="3">
-        <v>115900</v>
+        <v>224300</v>
       </c>
       <c r="G72" s="3">
-        <v>515400</v>
+        <v>163400</v>
       </c>
       <c r="H72" s="3">
-        <v>493800</v>
+        <v>127900</v>
       </c>
       <c r="I72" s="3">
+        <v>568900</v>
+      </c>
+      <c r="J72" s="3">
+        <v>545100</v>
+      </c>
+      <c r="K72" s="3">
         <v>462000</v>
       </c>
-      <c r="J72" s="3" t="s">
-        <v>3</v>
-      </c>
-      <c r="K72" s="3">
-        <v>0</v>
-      </c>
-      <c r="L72" s="3">
-        <v>0</v>
+      <c r="L72" s="3" t="s">
+        <v>3</v>
       </c>
       <c r="M72" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="73" spans="2:13" x14ac:dyDescent="0.2">
+      <c r="N72" s="3">
+        <v>0</v>
+      </c>
+      <c r="O72" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="73" spans="2:15" x14ac:dyDescent="0.2">
       <c r="C73" s="1" t="s">
         <v>65</v>
       </c>
@@ -2801,8 +3154,14 @@
       <c r="M73" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="74" spans="2:13" x14ac:dyDescent="0.2">
+      <c r="N73" s="3">
+        <v>0</v>
+      </c>
+      <c r="O73" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="74" spans="2:15" x14ac:dyDescent="0.2">
       <c r="C74" s="1" t="s">
         <v>66</v>
       </c>
@@ -2836,8 +3195,14 @@
       <c r="M74" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="75" spans="2:13" x14ac:dyDescent="0.2">
+      <c r="N74" s="3">
+        <v>0</v>
+      </c>
+      <c r="O74" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="75" spans="2:15" x14ac:dyDescent="0.2">
       <c r="C75" s="1" t="s">
         <v>67</v>
       </c>
@@ -2871,43 +3236,55 @@
       <c r="M75" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="76" spans="2:13" x14ac:dyDescent="0.2">
+      <c r="N75" s="3">
+        <v>0</v>
+      </c>
+      <c r="O75" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="76" spans="2:15" x14ac:dyDescent="0.2">
       <c r="C76" s="1" t="s">
         <v>68</v>
       </c>
       <c r="D76" s="3">
-        <v>342200</v>
+        <v>545100</v>
       </c>
       <c r="E76" s="3">
-        <v>283800</v>
+        <v>473300</v>
       </c>
       <c r="F76" s="3">
-        <v>251700</v>
+        <v>377800</v>
       </c>
       <c r="G76" s="3">
-        <v>1704500</v>
+        <v>313300</v>
       </c>
       <c r="H76" s="3">
-        <v>1622400</v>
+        <v>277900</v>
       </c>
       <c r="I76" s="3">
+        <v>1881500</v>
+      </c>
+      <c r="J76" s="3">
+        <v>1790900</v>
+      </c>
+      <c r="K76" s="3">
         <v>1391000</v>
       </c>
-      <c r="J76" s="3" t="s">
-        <v>3</v>
-      </c>
-      <c r="K76" s="3">
-        <v>0</v>
-      </c>
-      <c r="L76" s="3">
-        <v>0</v>
+      <c r="L76" s="3" t="s">
+        <v>3</v>
       </c>
       <c r="M76" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="77" spans="2:13" x14ac:dyDescent="0.2">
+      <c r="N76" s="3">
+        <v>0</v>
+      </c>
+      <c r="O76" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="77" spans="2:15" x14ac:dyDescent="0.2">
       <c r="C77" s="1" t="s">
         <v>69</v>
       </c>
@@ -2941,83 +3318,101 @@
       <c r="M77" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="79" spans="2:13" x14ac:dyDescent="0.2">
+      <c r="N77" s="3">
+        <v>0</v>
+      </c>
+      <c r="O77" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="79" spans="2:15" x14ac:dyDescent="0.2">
       <c r="B79" s="1" t="s">
         <v>70</v>
       </c>
     </row>
-    <row r="80" spans="2:13" x14ac:dyDescent="0.2">
+    <row r="80" spans="2:15" x14ac:dyDescent="0.2">
       <c r="C80" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D80" s="2">
+        <v>44561</v>
+      </c>
+      <c r="E80" s="2">
+        <v>44469</v>
+      </c>
+      <c r="F80" s="2">
         <v>44377</v>
       </c>
-      <c r="E80" s="2">
+      <c r="G80" s="2">
         <v>44286</v>
       </c>
-      <c r="F80" s="2">
+      <c r="H80" s="2">
         <v>44196</v>
       </c>
-      <c r="G80" s="2">
+      <c r="I80" s="2">
         <v>44104</v>
       </c>
-      <c r="H80" s="2">
+      <c r="J80" s="2">
         <v>44012</v>
       </c>
-      <c r="I80" s="2">
+      <c r="K80" s="2">
         <v>43921</v>
       </c>
-      <c r="J80" s="2">
+      <c r="L80" s="2">
         <v>43830</v>
       </c>
-      <c r="K80" s="2" t="s">
-        <v>3</v>
-      </c>
-      <c r="L80" s="2" t="s">
-        <v>3</v>
-      </c>
       <c r="M80" s="2" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="81" spans="3:13" x14ac:dyDescent="0.2">
+      <c r="N80" s="2" t="s">
+        <v>3</v>
+      </c>
+      <c r="O80" s="2" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="81" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C81" s="1" t="s">
         <v>28</v>
       </c>
-      <c r="D81" s="3">
-        <v>54400</v>
+      <c r="D81" s="3" t="s">
+        <v>3</v>
       </c>
       <c r="E81" s="3">
-        <v>42800</v>
+        <v>106000</v>
       </c>
       <c r="F81" s="3">
-        <v>249600</v>
+        <v>60100</v>
       </c>
       <c r="G81" s="3">
-        <v>78000</v>
+        <v>47300</v>
       </c>
       <c r="H81" s="3">
-        <v>31200</v>
+        <v>275500</v>
       </c>
       <c r="I81" s="3">
+        <v>86100</v>
+      </c>
+      <c r="J81" s="3">
+        <v>34500</v>
+      </c>
+      <c r="K81" s="3">
         <v>17900</v>
       </c>
-      <c r="J81" s="3">
+      <c r="L81" s="3">
         <v>48700</v>
       </c>
-      <c r="K81" s="3" t="s">
-        <v>3</v>
-      </c>
-      <c r="L81" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="M81" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="82" spans="3:13" x14ac:dyDescent="0.2">
+      <c r="N81" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="O81" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="82" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C82" s="1" t="s">
         <v>71</v>
       </c>
@@ -3031,43 +3426,51 @@
       <c r="K82" s="3"/>
       <c r="L82" s="3"/>
       <c r="M82" s="3"/>
-    </row>
-    <row r="83" spans="3:13" x14ac:dyDescent="0.2">
+      <c r="N82" s="3"/>
+      <c r="O82" s="3"/>
+    </row>
+    <row r="83" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C83" s="1" t="s">
         <v>72</v>
       </c>
       <c r="D83" s="3">
-        <v>29800</v>
+        <v>37000</v>
       </c>
       <c r="E83" s="3">
-        <v>28000</v>
+        <v>34500</v>
       </c>
       <c r="F83" s="3">
-        <v>244900</v>
+        <v>32900</v>
       </c>
       <c r="G83" s="3">
-        <v>63600</v>
+        <v>30900</v>
       </c>
       <c r="H83" s="3">
-        <v>59300</v>
+        <v>270400</v>
       </c>
       <c r="I83" s="3">
+        <v>70200</v>
+      </c>
+      <c r="J83" s="3">
+        <v>65400</v>
+      </c>
+      <c r="K83" s="3">
         <v>56100</v>
       </c>
-      <c r="J83" s="3">
+      <c r="L83" s="3">
         <v>32100</v>
       </c>
-      <c r="K83" s="3" t="s">
-        <v>3</v>
-      </c>
-      <c r="L83" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="M83" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="84" spans="3:13" x14ac:dyDescent="0.2">
+      <c r="N83" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="O83" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="84" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C84" s="1" t="s">
         <v>73</v>
       </c>
@@ -3101,8 +3504,14 @@
       <c r="M84" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="85" spans="3:13" x14ac:dyDescent="0.2">
+      <c r="N84" s="3">
+        <v>0</v>
+      </c>
+      <c r="O84" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="85" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C85" s="1" t="s">
         <v>74</v>
       </c>
@@ -3136,8 +3545,14 @@
       <c r="M85" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="86" spans="3:13" x14ac:dyDescent="0.2">
+      <c r="N85" s="3">
+        <v>0</v>
+      </c>
+      <c r="O85" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="86" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C86" s="1" t="s">
         <v>75</v>
       </c>
@@ -3171,8 +3586,14 @@
       <c r="M86" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="87" spans="3:13" x14ac:dyDescent="0.2">
+      <c r="N86" s="3">
+        <v>0</v>
+      </c>
+      <c r="O86" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="87" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C87" s="1" t="s">
         <v>76</v>
       </c>
@@ -3206,8 +3627,14 @@
       <c r="M87" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="88" spans="3:13" x14ac:dyDescent="0.2">
+      <c r="N87" s="3">
+        <v>0</v>
+      </c>
+      <c r="O87" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="88" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C88" s="1" t="s">
         <v>77</v>
       </c>
@@ -3241,43 +3668,55 @@
       <c r="M88" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="89" spans="3:13" x14ac:dyDescent="0.2">
+      <c r="N88" s="3">
+        <v>0</v>
+      </c>
+      <c r="O88" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="89" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C89" s="1" t="s">
         <v>78</v>
       </c>
       <c r="D89" s="3">
-        <v>127600</v>
+        <v>423700</v>
       </c>
       <c r="E89" s="3">
-        <v>-39100</v>
+        <v>123400</v>
       </c>
       <c r="F89" s="3">
-        <v>624500</v>
+        <v>140900</v>
       </c>
       <c r="G89" s="3">
-        <v>43900</v>
+        <v>-43200</v>
       </c>
       <c r="H89" s="3">
-        <v>182600</v>
+        <v>689300</v>
       </c>
       <c r="I89" s="3">
+        <v>48500</v>
+      </c>
+      <c r="J89" s="3">
+        <v>201600</v>
+      </c>
+      <c r="K89" s="3">
         <v>-341200</v>
       </c>
-      <c r="J89" s="3">
+      <c r="L89" s="3">
         <v>505600</v>
       </c>
-      <c r="K89" s="3" t="s">
-        <v>3</v>
-      </c>
-      <c r="L89" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="M89" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="90" spans="3:13" x14ac:dyDescent="0.2">
+      <c r="N89" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="O89" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="90" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C90" s="1" t="s">
         <v>79</v>
       </c>
@@ -3291,43 +3730,51 @@
       <c r="K90" s="3"/>
       <c r="L90" s="3"/>
       <c r="M90" s="3"/>
-    </row>
-    <row r="91" spans="3:13" x14ac:dyDescent="0.2">
+      <c r="N90" s="3"/>
+      <c r="O90" s="3"/>
+    </row>
+    <row r="91" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C91" s="1" t="s">
         <v>80</v>
       </c>
-      <c r="D91" s="3">
-        <v>-100900</v>
+      <c r="D91" s="3" t="s">
+        <v>3</v>
       </c>
       <c r="E91" s="3">
-        <v>-31100</v>
+        <v>-161200</v>
       </c>
       <c r="F91" s="3">
-        <v>-278800</v>
+        <v>-111300</v>
       </c>
       <c r="G91" s="3">
-        <v>-78700</v>
+        <v>-34300</v>
       </c>
       <c r="H91" s="3">
-        <v>-59800</v>
+        <v>-307800</v>
       </c>
       <c r="I91" s="3">
+        <v>-86900</v>
+      </c>
+      <c r="J91" s="3">
+        <v>-66000</v>
+      </c>
+      <c r="K91" s="3">
         <v>-64600</v>
       </c>
-      <c r="J91" s="3">
+      <c r="L91" s="3">
         <v>-91900</v>
       </c>
-      <c r="K91" s="3" t="s">
-        <v>3</v>
-      </c>
-      <c r="L91" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="M91" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="92" spans="3:13" x14ac:dyDescent="0.2">
+      <c r="N91" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="O91" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="92" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C92" s="1" t="s">
         <v>81</v>
       </c>
@@ -3361,8 +3808,14 @@
       <c r="M92" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="93" spans="3:13" x14ac:dyDescent="0.2">
+      <c r="N92" s="3">
+        <v>0</v>
+      </c>
+      <c r="O92" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="93" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C93" s="1" t="s">
         <v>82</v>
       </c>
@@ -3396,43 +3849,55 @@
       <c r="M93" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="94" spans="3:13" x14ac:dyDescent="0.2">
+      <c r="N93" s="3">
+        <v>0</v>
+      </c>
+      <c r="O93" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="94" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C94" s="1" t="s">
         <v>83</v>
       </c>
       <c r="D94" s="3">
-        <v>-103500</v>
+        <v>-372800</v>
       </c>
       <c r="E94" s="3">
-        <v>-31600</v>
+        <v>-123600</v>
       </c>
       <c r="F94" s="3">
-        <v>-854600</v>
+        <v>-114300</v>
       </c>
       <c r="G94" s="3">
-        <v>-59100</v>
+        <v>-34900</v>
       </c>
       <c r="H94" s="3">
-        <v>4600</v>
+        <v>-943300</v>
       </c>
       <c r="I94" s="3">
+        <v>-65200</v>
+      </c>
+      <c r="J94" s="3">
+        <v>5100</v>
+      </c>
+      <c r="K94" s="3">
         <v>-68700</v>
       </c>
-      <c r="J94" s="3">
+      <c r="L94" s="3">
         <v>-623700</v>
       </c>
-      <c r="K94" s="3" t="s">
-        <v>3</v>
-      </c>
-      <c r="L94" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="M94" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="95" spans="3:13" x14ac:dyDescent="0.2">
+      <c r="N94" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="O94" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="95" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C95" s="1" t="s">
         <v>84</v>
       </c>
@@ -3446,43 +3911,51 @@
       <c r="K95" s="3"/>
       <c r="L95" s="3"/>
       <c r="M95" s="3"/>
-    </row>
-    <row r="96" spans="3:13" x14ac:dyDescent="0.2">
+      <c r="N95" s="3"/>
+      <c r="O95" s="3"/>
+    </row>
+    <row r="96" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C96" s="1" t="s">
         <v>85</v>
       </c>
       <c r="D96" s="3">
-        <v>-15200</v>
+        <v>0</v>
       </c>
       <c r="E96" s="3">
         <v>0</v>
       </c>
       <c r="F96" s="3">
-        <v>-87300</v>
+        <v>-16800</v>
       </c>
       <c r="G96" s="3">
-        <v>-2500</v>
+        <v>0</v>
       </c>
       <c r="H96" s="3">
-        <v>-19100</v>
+        <v>-96400</v>
       </c>
       <c r="I96" s="3">
+        <v>-2800</v>
+      </c>
+      <c r="J96" s="3">
+        <v>-21100</v>
+      </c>
+      <c r="K96" s="3">
         <v>-3000</v>
       </c>
-      <c r="J96" s="3">
+      <c r="L96" s="3">
         <v>-44500</v>
       </c>
-      <c r="K96" s="3">
-        <v>0</v>
-      </c>
-      <c r="L96" s="3">
-        <v>0</v>
-      </c>
       <c r="M96" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="97" spans="3:13" x14ac:dyDescent="0.2">
+      <c r="N96" s="3">
+        <v>0</v>
+      </c>
+      <c r="O96" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="97" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C97" s="1" t="s">
         <v>86</v>
       </c>
@@ -3516,8 +3989,14 @@
       <c r="M97" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="98" spans="3:13" x14ac:dyDescent="0.2">
+      <c r="N97" s="3">
+        <v>0</v>
+      </c>
+      <c r="O97" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="98" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C98" s="1" t="s">
         <v>87</v>
       </c>
@@ -3551,8 +4030,14 @@
       <c r="M98" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="99" spans="3:13" x14ac:dyDescent="0.2">
+      <c r="N98" s="3">
+        <v>0</v>
+      </c>
+      <c r="O98" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="99" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C99" s="1" t="s">
         <v>88</v>
       </c>
@@ -3586,109 +4071,133 @@
       <c r="M99" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="100" spans="3:13" x14ac:dyDescent="0.2">
+      <c r="N99" s="3">
+        <v>0</v>
+      </c>
+      <c r="O99" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="100" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C100" s="1" t="s">
         <v>89</v>
       </c>
-      <c r="D100" s="3">
-        <v>287800</v>
+      <c r="D100" s="3" t="s">
+        <v>3</v>
       </c>
       <c r="E100" s="3">
-        <v>-66400</v>
+        <v>-321000</v>
       </c>
       <c r="F100" s="3">
-        <v>-141600</v>
+        <v>317700</v>
       </c>
       <c r="G100" s="3">
-        <v>-108500</v>
+        <v>-73300</v>
       </c>
       <c r="H100" s="3">
-        <v>-90500</v>
+        <v>-156300</v>
       </c>
       <c r="I100" s="3">
+        <v>-119800</v>
+      </c>
+      <c r="J100" s="3">
+        <v>-99900</v>
+      </c>
+      <c r="K100" s="3">
         <v>159100</v>
       </c>
-      <c r="J100" s="3">
+      <c r="L100" s="3">
         <v>-662800</v>
       </c>
-      <c r="K100" s="3" t="s">
-        <v>3</v>
-      </c>
-      <c r="L100" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="M100" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="101" spans="3:13" x14ac:dyDescent="0.2">
+      <c r="N100" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="O100" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="101" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C101" s="1" t="s">
         <v>90</v>
       </c>
-      <c r="D101" s="3">
-        <v>0</v>
+      <c r="D101" s="3" t="s">
+        <v>3</v>
       </c>
       <c r="E101" s="3">
         <v>0</v>
       </c>
       <c r="F101" s="3">
-        <v>105000</v>
+        <v>0</v>
       </c>
       <c r="G101" s="3">
-        <v>-4800</v>
+        <v>0</v>
       </c>
       <c r="H101" s="3">
-        <v>53400</v>
+        <v>115900</v>
       </c>
       <c r="I101" s="3">
+        <v>-5300</v>
+      </c>
+      <c r="J101" s="3">
+        <v>58900</v>
+      </c>
+      <c r="K101" s="3">
         <v>27800</v>
       </c>
-      <c r="J101" s="3">
+      <c r="L101" s="3">
         <v>19800</v>
       </c>
-      <c r="K101" s="3" t="s">
-        <v>3</v>
-      </c>
-      <c r="L101" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="M101" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="102" spans="3:13" x14ac:dyDescent="0.2">
+      <c r="N101" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="O101" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="102" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C102" s="1" t="s">
         <v>91</v>
       </c>
-      <c r="D102" s="3">
-        <v>311900</v>
+      <c r="D102" s="3" t="s">
+        <v>3</v>
       </c>
       <c r="E102" s="3">
-        <v>-137100</v>
+        <v>-321200</v>
       </c>
       <c r="F102" s="3">
-        <v>-266700</v>
+        <v>344300</v>
       </c>
       <c r="G102" s="3">
-        <v>-128500</v>
+        <v>-151300</v>
       </c>
       <c r="H102" s="3">
-        <v>150100</v>
+        <v>-294400</v>
       </c>
       <c r="I102" s="3">
+        <v>-141900</v>
+      </c>
+      <c r="J102" s="3">
+        <v>165700</v>
+      </c>
+      <c r="K102" s="3">
         <v>-223000</v>
       </c>
-      <c r="J102" s="3">
+      <c r="L102" s="3">
         <v>-761200</v>
       </c>
-      <c r="K102" s="3" t="s">
-        <v>3</v>
-      </c>
-      <c r="L102" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="M102" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="N102" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="O102" s="3" t="s">
         <v>3</v>
       </c>
     </row>

--- a/AAII_Financials/Quarterly/ASAI_QTR_FIN.xlsx
+++ b/AAII_Financials/Quarterly/ASAI_QTR_FIN.xlsx
@@ -22,7 +22,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="240" uniqueCount="92">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="244" uniqueCount="92">
   <si>
     <t>ASAI</t>
   </si>
@@ -656,7 +656,7 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <sheetPr codeName="Sheet2"/>
-  <dimension ref="A5:O102"/>
+  <dimension ref="A5:P102"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -665,192 +665,205 @@
     <col min="1" max="1" width="6.85546875" style="1" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="26.85546875" style="1" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="69.140625" style="1" bestFit="1" customWidth="1"/>
-    <col min="4" max="5" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="8" max="9" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="10" max="10" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="11" max="11" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="12" max="12" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="13" max="15" width="4.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="16" max="16384" width="9.140625" style="1"/>
+    <col min="4" max="4" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="5" max="6" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="9" max="10" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="11" max="11" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="12" max="12" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="13" max="13" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="14" max="16" width="4.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="17" max="16384" width="9.140625" style="1"/>
   </cols>
   <sheetData>
-    <row r="5" spans="1:15" x14ac:dyDescent="0.2">
+    <row r="5" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A5" s="1" t="s">
         <v>0</v>
       </c>
     </row>
-    <row r="6" spans="1:15" x14ac:dyDescent="0.2">
+    <row r="6" spans="1:16" x14ac:dyDescent="0.2">
       <c r="B6" s="1" t="s">
         <v>1</v>
       </c>
     </row>
-    <row r="7" spans="1:15" x14ac:dyDescent="0.2">
+    <row r="7" spans="1:16" x14ac:dyDescent="0.2">
       <c r="C7" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D7" s="2">
+        <v>44651</v>
+      </c>
+      <c r="E7" s="2">
         <v>44561</v>
       </c>
-      <c r="E7" s="2">
+      <c r="F7" s="2">
         <v>44469</v>
       </c>
-      <c r="F7" s="2">
+      <c r="G7" s="2">
         <v>44377</v>
       </c>
-      <c r="G7" s="2">
+      <c r="H7" s="2">
         <v>44286</v>
       </c>
-      <c r="H7" s="2">
+      <c r="I7" s="2">
         <v>44196</v>
       </c>
-      <c r="I7" s="2">
+      <c r="J7" s="2">
         <v>44104</v>
       </c>
-      <c r="J7" s="2">
+      <c r="K7" s="2">
         <v>44012</v>
       </c>
-      <c r="K7" s="2">
+      <c r="L7" s="2">
         <v>43921</v>
       </c>
-      <c r="L7" s="2">
+      <c r="M7" s="2">
         <v>43830</v>
       </c>
-      <c r="M7" s="2" t="s">
-        <v>3</v>
-      </c>
       <c r="N7" s="2" t="s">
         <v>3</v>
       </c>
       <c r="O7" s="2" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="8" spans="1:15" x14ac:dyDescent="0.2">
+      <c r="P7" s="2" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="8" spans="1:16" x14ac:dyDescent="0.2">
       <c r="C8" s="1" t="s">
         <v>4</v>
       </c>
       <c r="D8" s="3">
-        <v>2277200</v>
+        <v>2228900</v>
       </c>
       <c r="E8" s="3">
-        <v>2137100</v>
+        <v>2250900</v>
       </c>
       <c r="F8" s="3">
-        <v>1980300</v>
+        <v>2112400</v>
       </c>
       <c r="G8" s="3">
-        <v>1861800</v>
+        <v>1957300</v>
       </c>
       <c r="H8" s="3">
-        <v>7102600</v>
+        <v>1840300</v>
       </c>
       <c r="I8" s="3">
-        <v>1822800</v>
+        <v>7020500</v>
       </c>
       <c r="J8" s="3">
+        <v>1801700</v>
+      </c>
+      <c r="K8" s="3">
         <v>1624200</v>
       </c>
-      <c r="K8" s="3">
+      <c r="L8" s="3">
         <v>1399200</v>
       </c>
-      <c r="L8" s="3">
+      <c r="M8" s="3">
         <v>1427100</v>
       </c>
-      <c r="M8" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="N8" s="3" t="s">
         <v>3</v>
       </c>
       <c r="O8" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="9" spans="1:15" x14ac:dyDescent="0.2">
+      <c r="P8" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="9" spans="1:16" x14ac:dyDescent="0.2">
       <c r="C9" s="1" t="s">
         <v>5</v>
       </c>
       <c r="D9" s="3">
-        <v>1885300</v>
+        <v>1873200</v>
       </c>
       <c r="E9" s="3">
-        <v>1757400</v>
+        <v>1863500</v>
       </c>
       <c r="F9" s="3">
-        <v>1640900</v>
+        <v>1737000</v>
       </c>
       <c r="G9" s="3">
-        <v>1564900</v>
+        <v>1621900</v>
       </c>
       <c r="H9" s="3">
-        <v>5937200</v>
+        <v>1546700</v>
       </c>
       <c r="I9" s="3">
-        <v>1520500</v>
+        <v>5868500</v>
       </c>
       <c r="J9" s="3">
+        <v>1502900</v>
+      </c>
+      <c r="K9" s="3">
         <v>1360500</v>
       </c>
-      <c r="K9" s="3">
+      <c r="L9" s="3">
         <v>1182000</v>
       </c>
-      <c r="L9" s="3">
+      <c r="M9" s="3">
         <v>1189700</v>
       </c>
-      <c r="M9" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="N9" s="3" t="s">
         <v>3</v>
       </c>
       <c r="O9" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="10" spans="1:15" x14ac:dyDescent="0.2">
+      <c r="P9" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="10" spans="1:16" x14ac:dyDescent="0.2">
       <c r="C10" s="1" t="s">
         <v>6</v>
       </c>
       <c r="D10" s="3">
-        <v>392000</v>
+        <v>355700</v>
       </c>
       <c r="E10" s="3">
-        <v>379700</v>
+        <v>387400</v>
       </c>
       <c r="F10" s="3">
-        <v>339300</v>
+        <v>375300</v>
       </c>
       <c r="G10" s="3">
-        <v>297000</v>
+        <v>335400</v>
       </c>
       <c r="H10" s="3">
-        <v>1165400</v>
+        <v>293500</v>
       </c>
       <c r="I10" s="3">
-        <v>302300</v>
+        <v>1151900</v>
       </c>
       <c r="J10" s="3">
+        <v>298800</v>
+      </c>
+      <c r="K10" s="3">
         <v>263700</v>
       </c>
-      <c r="K10" s="3">
+      <c r="L10" s="3">
         <v>217300</v>
       </c>
-      <c r="L10" s="3">
+      <c r="M10" s="3">
         <v>237400</v>
       </c>
-      <c r="M10" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="N10" s="3" t="s">
         <v>3</v>
       </c>
       <c r="O10" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="11" spans="1:15" x14ac:dyDescent="0.2">
+      <c r="P10" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="11" spans="1:16" x14ac:dyDescent="0.2">
       <c r="C11" s="1" t="s">
         <v>7</v>
       </c>
@@ -866,8 +879,9 @@
       <c r="M11" s="3"/>
       <c r="N11" s="3"/>
       <c r="O11" s="3"/>
-    </row>
-    <row r="12" spans="1:15" x14ac:dyDescent="0.2">
+      <c r="P11" s="3"/>
+    </row>
+    <row r="12" spans="1:16" x14ac:dyDescent="0.2">
       <c r="C12" s="1" t="s">
         <v>8</v>
       </c>
@@ -907,8 +921,11 @@
       <c r="O12" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="13" spans="1:15" x14ac:dyDescent="0.2">
+      <c r="P12" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="13" spans="1:16" x14ac:dyDescent="0.2">
       <c r="C13" s="1" t="s">
         <v>9</v>
       </c>
@@ -948,90 +965,99 @@
       <c r="O13" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="14" spans="1:15" x14ac:dyDescent="0.2">
+      <c r="P13" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="14" spans="1:16" x14ac:dyDescent="0.2">
       <c r="C14" s="1" t="s">
         <v>10</v>
       </c>
-      <c r="D14" s="3" t="s">
-        <v>3</v>
-      </c>
-      <c r="E14" s="3">
+      <c r="D14" s="3">
+        <v>1000</v>
+      </c>
+      <c r="E14" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="F14" s="3">
         <v>1200</v>
       </c>
-      <c r="F14" s="3">
-        <v>6900</v>
-      </c>
       <c r="G14" s="3">
+        <v>6800</v>
+      </c>
+      <c r="H14" s="3">
         <v>400</v>
       </c>
-      <c r="H14" s="3">
-        <v>43900</v>
-      </c>
       <c r="I14" s="3">
-        <v>3200</v>
+        <v>43400</v>
       </c>
       <c r="J14" s="3">
+        <v>3100</v>
+      </c>
+      <c r="K14" s="3">
         <v>15000</v>
       </c>
-      <c r="K14" s="3">
+      <c r="L14" s="3">
         <v>7700</v>
       </c>
-      <c r="L14" s="3">
+      <c r="M14" s="3">
         <v>22100</v>
       </c>
-      <c r="M14" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="N14" s="3" t="s">
         <v>3</v>
       </c>
       <c r="O14" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="15" spans="1:15" x14ac:dyDescent="0.2">
+      <c r="P14" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="15" spans="1:16" x14ac:dyDescent="0.2">
       <c r="C15" s="1" t="s">
         <v>11</v>
       </c>
       <c r="D15" s="3">
-        <v>34900</v>
+        <v>39700</v>
       </c>
       <c r="E15" s="3">
-        <v>31900</v>
+        <v>34500</v>
       </c>
       <c r="F15" s="3">
-        <v>30300</v>
+        <v>31600</v>
       </c>
       <c r="G15" s="3">
-        <v>28600</v>
+        <v>30000</v>
       </c>
       <c r="H15" s="3">
-        <v>99100</v>
+        <v>28200</v>
       </c>
       <c r="I15" s="3">
-        <v>25400</v>
+        <v>98000</v>
       </c>
       <c r="J15" s="3">
+        <v>25100</v>
+      </c>
+      <c r="K15" s="3">
         <v>23800</v>
       </c>
-      <c r="K15" s="3">
+      <c r="L15" s="3">
         <v>20900</v>
       </c>
-      <c r="L15" s="3">
+      <c r="M15" s="3">
         <v>19100</v>
       </c>
-      <c r="M15" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="N15" s="3" t="s">
         <v>3</v>
       </c>
       <c r="O15" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="16" spans="1:15" x14ac:dyDescent="0.2">
+      <c r="P15" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="16" spans="1:16" x14ac:dyDescent="0.2">
       <c r="D16" s="3"/>
       <c r="E16" s="3"/>
       <c r="F16" s="3"/>
@@ -1044,90 +1070,97 @@
       <c r="M16" s="3"/>
       <c r="N16" s="3"/>
       <c r="O16" s="3"/>
-    </row>
-    <row r="17" spans="3:15" x14ac:dyDescent="0.2">
+      <c r="P16" s="3"/>
+    </row>
+    <row r="17" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C17" s="1" t="s">
         <v>12</v>
       </c>
-      <c r="D17" s="3" t="s">
-        <v>3</v>
-      </c>
-      <c r="E17" s="3">
-        <v>1979500</v>
+      <c r="D17" s="3">
+        <v>2126600</v>
+      </c>
+      <c r="E17" s="3" t="s">
+        <v>3</v>
       </c>
       <c r="F17" s="3">
-        <v>1862800</v>
+        <v>1956600</v>
       </c>
       <c r="G17" s="3">
-        <v>1766600</v>
+        <v>1841300</v>
       </c>
       <c r="H17" s="3">
-        <v>6695100</v>
+        <v>1746200</v>
       </c>
       <c r="I17" s="3">
-        <v>1711100</v>
+        <v>6617700</v>
       </c>
       <c r="J17" s="3">
+        <v>1691300</v>
+      </c>
+      <c r="K17" s="3">
         <v>1548500</v>
       </c>
-      <c r="K17" s="3">
+      <c r="L17" s="3">
         <v>1341000</v>
       </c>
-      <c r="L17" s="3">
+      <c r="M17" s="3">
         <v>1330900</v>
       </c>
-      <c r="M17" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="N17" s="3" t="s">
         <v>3</v>
       </c>
       <c r="O17" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="18" spans="3:15" x14ac:dyDescent="0.2">
+      <c r="P17" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="18" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C18" s="1" t="s">
         <v>13</v>
       </c>
-      <c r="D18" s="3" t="s">
-        <v>3</v>
-      </c>
-      <c r="E18" s="3">
-        <v>157600</v>
+      <c r="D18" s="3">
+        <v>102300</v>
+      </c>
+      <c r="E18" s="3" t="s">
+        <v>3</v>
       </c>
       <c r="F18" s="3">
-        <v>117400</v>
+        <v>155800</v>
       </c>
       <c r="G18" s="3">
-        <v>95200</v>
+        <v>116100</v>
       </c>
       <c r="H18" s="3">
-        <v>407500</v>
+        <v>94100</v>
       </c>
       <c r="I18" s="3">
-        <v>111700</v>
+        <v>402800</v>
       </c>
       <c r="J18" s="3">
+        <v>110400</v>
+      </c>
+      <c r="K18" s="3">
         <v>75700</v>
       </c>
-      <c r="K18" s="3">
+      <c r="L18" s="3">
         <v>58200</v>
       </c>
-      <c r="L18" s="3">
+      <c r="M18" s="3">
         <v>96200</v>
       </c>
-      <c r="M18" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="N18" s="3" t="s">
         <v>3</v>
       </c>
       <c r="O18" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="19" spans="3:15" x14ac:dyDescent="0.2">
+      <c r="P18" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="19" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C19" s="1" t="s">
         <v>14</v>
       </c>
@@ -1143,204 +1176,217 @@
       <c r="M19" s="3"/>
       <c r="N19" s="3"/>
       <c r="O19" s="3"/>
-    </row>
-    <row r="20" spans="3:15" x14ac:dyDescent="0.2">
+      <c r="P19" s="3"/>
+    </row>
+    <row r="20" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C20" s="1" t="s">
         <v>15</v>
       </c>
-      <c r="D20" s="3" t="s">
-        <v>3</v>
-      </c>
-      <c r="E20" s="3">
-        <v>8300</v>
+      <c r="D20" s="3">
+        <v>4900</v>
+      </c>
+      <c r="E20" s="3" t="s">
+        <v>3</v>
       </c>
       <c r="F20" s="3">
-        <v>7100</v>
+        <v>8200</v>
       </c>
       <c r="G20" s="3">
+        <v>7000</v>
+      </c>
+      <c r="H20" s="3">
         <v>1600</v>
       </c>
-      <c r="H20" s="3">
-        <v>49300</v>
-      </c>
       <c r="I20" s="3">
-        <v>2800</v>
+        <v>48700</v>
       </c>
       <c r="J20" s="3">
+        <v>2700</v>
+      </c>
+      <c r="K20" s="3">
         <v>-15400</v>
       </c>
-      <c r="K20" s="3">
+      <c r="L20" s="3">
         <v>13200</v>
       </c>
-      <c r="L20" s="3">
+      <c r="M20" s="3">
         <v>3000</v>
       </c>
-      <c r="M20" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="N20" s="3" t="s">
         <v>3</v>
       </c>
       <c r="O20" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="21" spans="3:15" x14ac:dyDescent="0.2">
+      <c r="P20" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="21" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C21" s="1" t="s">
         <v>16</v>
       </c>
-      <c r="D21" s="3" t="s">
-        <v>3</v>
-      </c>
-      <c r="E21" s="3">
-        <v>200400</v>
+      <c r="D21" s="3">
+        <v>149800</v>
+      </c>
+      <c r="E21" s="3" t="s">
+        <v>3</v>
       </c>
       <c r="F21" s="3">
-        <v>157500</v>
+        <v>198100</v>
       </c>
       <c r="G21" s="3">
-        <v>127700</v>
+        <v>155600</v>
       </c>
       <c r="H21" s="3">
-        <v>727200</v>
+        <v>126200</v>
       </c>
       <c r="I21" s="3">
-        <v>184600</v>
+        <v>718700</v>
       </c>
       <c r="J21" s="3">
+        <v>182500</v>
+      </c>
+      <c r="K21" s="3">
         <v>125700</v>
       </c>
-      <c r="K21" s="3">
+      <c r="L21" s="3">
         <v>127500</v>
       </c>
-      <c r="L21" s="3">
+      <c r="M21" s="3">
         <v>131400</v>
       </c>
-      <c r="M21" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="N21" s="3" t="s">
         <v>3</v>
       </c>
       <c r="O21" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="22" spans="3:15" x14ac:dyDescent="0.2">
+      <c r="P21" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="22" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C22" s="1" t="s">
         <v>17</v>
       </c>
-      <c r="D22" s="3" t="s">
-        <v>3</v>
-      </c>
-      <c r="E22" s="3">
-        <v>40600</v>
+      <c r="D22" s="3">
+        <v>63700</v>
+      </c>
+      <c r="E22" s="3" t="s">
+        <v>3</v>
       </c>
       <c r="F22" s="3">
-        <v>35700</v>
+        <v>40100</v>
       </c>
       <c r="G22" s="3">
+        <v>35300</v>
+      </c>
+      <c r="H22" s="3">
+        <v>27700</v>
+      </c>
+      <c r="I22" s="3">
+        <v>135000</v>
+      </c>
+      <c r="J22" s="3">
         <v>28000</v>
       </c>
-      <c r="H22" s="3">
-        <v>136600</v>
-      </c>
-      <c r="I22" s="3">
-        <v>28400</v>
-      </c>
-      <c r="J22" s="3">
+      <c r="K22" s="3">
         <v>10400</v>
       </c>
-      <c r="K22" s="3">
+      <c r="L22" s="3">
         <v>40900</v>
       </c>
-      <c r="L22" s="3">
+      <c r="M22" s="3">
         <v>35500</v>
       </c>
-      <c r="M22" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="N22" s="3" t="s">
         <v>3</v>
       </c>
       <c r="O22" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="23" spans="3:15" x14ac:dyDescent="0.2">
+      <c r="P22" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="23" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C23" s="1" t="s">
         <v>18</v>
       </c>
       <c r="D23" s="3">
-        <v>81400</v>
+        <v>43400</v>
       </c>
       <c r="E23" s="3">
-        <v>125300</v>
+        <v>80400</v>
       </c>
       <c r="F23" s="3">
-        <v>88900</v>
+        <v>123900</v>
       </c>
       <c r="G23" s="3">
-        <v>68800</v>
+        <v>87800</v>
       </c>
       <c r="H23" s="3">
-        <v>320200</v>
+        <v>68000</v>
       </c>
       <c r="I23" s="3">
-        <v>86100</v>
+        <v>316500</v>
       </c>
       <c r="J23" s="3">
+        <v>85100</v>
+      </c>
+      <c r="K23" s="3">
         <v>49900</v>
       </c>
-      <c r="K23" s="3">
+      <c r="L23" s="3">
         <v>30500</v>
       </c>
-      <c r="L23" s="3">
+      <c r="M23" s="3">
         <v>63700</v>
       </c>
-      <c r="M23" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="N23" s="3" t="s">
         <v>3</v>
       </c>
       <c r="O23" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="24" spans="3:15" x14ac:dyDescent="0.2">
+      <c r="P23" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="24" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C24" s="1" t="s">
         <v>19</v>
       </c>
       <c r="D24" s="3">
-        <v>-22500</v>
+        <v>1800</v>
       </c>
       <c r="E24" s="3">
-        <v>19300</v>
+        <v>-22200</v>
       </c>
       <c r="F24" s="3">
-        <v>28800</v>
+        <v>19100</v>
       </c>
       <c r="G24" s="3">
-        <v>21500</v>
+        <v>28400</v>
       </c>
       <c r="H24" s="3">
-        <v>85900</v>
+        <v>21200</v>
       </c>
       <c r="I24" s="3">
-        <v>7100</v>
+        <v>84900</v>
       </c>
       <c r="J24" s="3">
+        <v>7000</v>
+      </c>
+      <c r="K24" s="3">
         <v>16600</v>
-      </c>
-      <c r="K24" s="3">
-        <v>9800</v>
       </c>
       <c r="L24" s="3">
         <v>9800</v>
       </c>
-      <c r="M24" s="3" t="s">
-        <v>3</v>
+      <c r="M24" s="3">
+        <v>9800</v>
       </c>
       <c r="N24" s="3" t="s">
         <v>3</v>
@@ -1348,8 +1394,11 @@
       <c r="O24" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="25" spans="3:15" x14ac:dyDescent="0.2">
+      <c r="P24" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="25" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C25" s="1" t="s">
         <v>20</v>
       </c>
@@ -1389,90 +1438,99 @@
       <c r="O25" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="26" spans="3:15" x14ac:dyDescent="0.2">
+      <c r="P25" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="26" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C26" s="1" t="s">
         <v>21</v>
       </c>
-      <c r="D26" s="3" t="s">
-        <v>3</v>
-      </c>
-      <c r="E26" s="3">
-        <v>106000</v>
+      <c r="D26" s="3">
+        <v>41700</v>
+      </c>
+      <c r="E26" s="3" t="s">
+        <v>3</v>
       </c>
       <c r="F26" s="3">
-        <v>60100</v>
+        <v>104800</v>
       </c>
       <c r="G26" s="3">
-        <v>47300</v>
+        <v>59400</v>
       </c>
       <c r="H26" s="3">
-        <v>234300</v>
+        <v>46700</v>
       </c>
       <c r="I26" s="3">
-        <v>79000</v>
+        <v>231600</v>
       </c>
       <c r="J26" s="3">
+        <v>78100</v>
+      </c>
+      <c r="K26" s="3">
         <v>33300</v>
       </c>
-      <c r="K26" s="3">
+      <c r="L26" s="3">
         <v>20700</v>
       </c>
-      <c r="L26" s="3">
+      <c r="M26" s="3">
         <v>53900</v>
       </c>
-      <c r="M26" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="N26" s="3" t="s">
         <v>3</v>
       </c>
       <c r="O26" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="27" spans="3:15" x14ac:dyDescent="0.2">
+      <c r="P26" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="27" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C27" s="1" t="s">
         <v>22</v>
       </c>
-      <c r="D27" s="3" t="s">
-        <v>3</v>
-      </c>
-      <c r="E27" s="3">
-        <v>106000</v>
+      <c r="D27" s="3">
+        <v>41700</v>
+      </c>
+      <c r="E27" s="3" t="s">
+        <v>3</v>
       </c>
       <c r="F27" s="3">
-        <v>60100</v>
+        <v>104800</v>
       </c>
       <c r="G27" s="3">
-        <v>47300</v>
+        <v>59400</v>
       </c>
       <c r="H27" s="3">
-        <v>203200</v>
+        <v>46700</v>
       </c>
       <c r="I27" s="3">
-        <v>70400</v>
+        <v>200800</v>
       </c>
       <c r="J27" s="3">
+        <v>69500</v>
+      </c>
+      <c r="K27" s="3">
         <v>23100</v>
       </c>
-      <c r="K27" s="3">
+      <c r="L27" s="3">
         <v>16800</v>
       </c>
-      <c r="L27" s="3">
+      <c r="M27" s="3">
         <v>51600</v>
       </c>
-      <c r="M27" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="N27" s="3" t="s">
         <v>3</v>
       </c>
       <c r="O27" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="28" spans="3:15" x14ac:dyDescent="0.2">
+      <c r="P27" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="28" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C28" s="1" t="s">
         <v>23</v>
       </c>
@@ -1512,49 +1570,55 @@
       <c r="O28" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="29" spans="3:15" x14ac:dyDescent="0.2">
+      <c r="P28" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="29" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C29" s="1" t="s">
         <v>24</v>
       </c>
-      <c r="D29" s="3">
-        <v>0</v>
-      </c>
-      <c r="E29" s="3" t="s">
-        <v>3</v>
-      </c>
-      <c r="F29" s="3">
-        <v>0</v>
+      <c r="D29" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="E29" s="3">
+        <v>0</v>
+      </c>
+      <c r="F29" s="3" t="s">
+        <v>3</v>
       </c>
       <c r="G29" s="3">
         <v>0</v>
       </c>
       <c r="H29" s="3">
-        <v>72300</v>
+        <v>0</v>
       </c>
       <c r="I29" s="3">
-        <v>15800</v>
+        <v>71500</v>
       </c>
       <c r="J29" s="3">
+        <v>15600</v>
+      </c>
+      <c r="K29" s="3">
         <v>11400</v>
       </c>
-      <c r="K29" s="3">
+      <c r="L29" s="3">
         <v>1100</v>
       </c>
-      <c r="L29" s="3">
+      <c r="M29" s="3">
         <v>-2900</v>
       </c>
-      <c r="M29" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="N29" s="3" t="s">
         <v>3</v>
       </c>
       <c r="O29" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="30" spans="3:15" x14ac:dyDescent="0.2">
+      <c r="P29" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="30" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C30" s="1" t="s">
         <v>25</v>
       </c>
@@ -1594,8 +1658,11 @@
       <c r="O30" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="31" spans="3:15" x14ac:dyDescent="0.2">
+      <c r="P30" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="31" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C31" s="1" t="s">
         <v>26</v>
       </c>
@@ -1635,90 +1702,99 @@
       <c r="O31" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="32" spans="3:15" x14ac:dyDescent="0.2">
+      <c r="P31" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="32" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C32" s="1" t="s">
         <v>27</v>
       </c>
-      <c r="D32" s="3" t="s">
-        <v>3</v>
-      </c>
-      <c r="E32" s="3">
-        <v>-8300</v>
+      <c r="D32" s="3">
+        <v>-4900</v>
+      </c>
+      <c r="E32" s="3" t="s">
+        <v>3</v>
       </c>
       <c r="F32" s="3">
-        <v>-7100</v>
+        <v>-8200</v>
       </c>
       <c r="G32" s="3">
+        <v>-7000</v>
+      </c>
+      <c r="H32" s="3">
         <v>-1600</v>
       </c>
-      <c r="H32" s="3">
-        <v>-49300</v>
-      </c>
       <c r="I32" s="3">
-        <v>-2800</v>
+        <v>-48700</v>
       </c>
       <c r="J32" s="3">
+        <v>-2700</v>
+      </c>
+      <c r="K32" s="3">
         <v>15400</v>
       </c>
-      <c r="K32" s="3">
+      <c r="L32" s="3">
         <v>-13200</v>
       </c>
-      <c r="L32" s="3">
+      <c r="M32" s="3">
         <v>-3000</v>
       </c>
-      <c r="M32" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="N32" s="3" t="s">
         <v>3</v>
       </c>
       <c r="O32" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="33" spans="2:15" x14ac:dyDescent="0.2">
+      <c r="P32" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="33" spans="2:16" x14ac:dyDescent="0.2">
       <c r="C33" s="1" t="s">
         <v>28</v>
       </c>
-      <c r="D33" s="3" t="s">
-        <v>3</v>
-      </c>
-      <c r="E33" s="3">
-        <v>106000</v>
+      <c r="D33" s="3">
+        <v>41700</v>
+      </c>
+      <c r="E33" s="3" t="s">
+        <v>3</v>
       </c>
       <c r="F33" s="3">
-        <v>60100</v>
+        <v>104800</v>
       </c>
       <c r="G33" s="3">
-        <v>47300</v>
+        <v>59400</v>
       </c>
       <c r="H33" s="3">
-        <v>275500</v>
+        <v>46700</v>
       </c>
       <c r="I33" s="3">
-        <v>86100</v>
+        <v>272300</v>
       </c>
       <c r="J33" s="3">
+        <v>85100</v>
+      </c>
+      <c r="K33" s="3">
         <v>34500</v>
       </c>
-      <c r="K33" s="3">
+      <c r="L33" s="3">
         <v>17900</v>
       </c>
-      <c r="L33" s="3">
+      <c r="M33" s="3">
         <v>48700</v>
       </c>
-      <c r="M33" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="N33" s="3" t="s">
         <v>3</v>
       </c>
       <c r="O33" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="34" spans="2:15" x14ac:dyDescent="0.2">
+      <c r="P33" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="34" spans="2:16" x14ac:dyDescent="0.2">
       <c r="C34" s="1" t="s">
         <v>29</v>
       </c>
@@ -1758,95 +1834,104 @@
       <c r="O34" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="35" spans="2:15" x14ac:dyDescent="0.2">
+      <c r="P34" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="35" spans="2:16" x14ac:dyDescent="0.2">
       <c r="C35" s="1" t="s">
         <v>30</v>
       </c>
-      <c r="D35" s="3" t="s">
-        <v>3</v>
-      </c>
-      <c r="E35" s="3">
-        <v>106000</v>
+      <c r="D35" s="3">
+        <v>41700</v>
+      </c>
+      <c r="E35" s="3" t="s">
+        <v>3</v>
       </c>
       <c r="F35" s="3">
-        <v>60100</v>
+        <v>104800</v>
       </c>
       <c r="G35" s="3">
-        <v>47300</v>
+        <v>59400</v>
       </c>
       <c r="H35" s="3">
-        <v>275500</v>
+        <v>46700</v>
       </c>
       <c r="I35" s="3">
-        <v>86100</v>
+        <v>272300</v>
       </c>
       <c r="J35" s="3">
+        <v>85100</v>
+      </c>
+      <c r="K35" s="3">
         <v>34500</v>
       </c>
-      <c r="K35" s="3">
+      <c r="L35" s="3">
         <v>17900</v>
       </c>
-      <c r="L35" s="3">
+      <c r="M35" s="3">
         <v>48700</v>
       </c>
-      <c r="M35" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="N35" s="3" t="s">
         <v>3</v>
       </c>
       <c r="O35" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="37" spans="2:15" x14ac:dyDescent="0.2">
+      <c r="P35" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="37" spans="2:16" x14ac:dyDescent="0.2">
       <c r="B37" s="1" t="s">
         <v>31</v>
       </c>
     </row>
-    <row r="38" spans="2:15" x14ac:dyDescent="0.2">
+    <row r="38" spans="2:16" x14ac:dyDescent="0.2">
       <c r="C38" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D38" s="2">
+        <v>44651</v>
+      </c>
+      <c r="E38" s="2">
         <v>44561</v>
       </c>
-      <c r="E38" s="2">
+      <c r="F38" s="2">
         <v>44469</v>
       </c>
-      <c r="F38" s="2">
+      <c r="G38" s="2">
         <v>44377</v>
       </c>
-      <c r="G38" s="2">
+      <c r="H38" s="2">
         <v>44286</v>
       </c>
-      <c r="H38" s="2">
+      <c r="I38" s="2">
         <v>44196</v>
       </c>
-      <c r="I38" s="2">
+      <c r="J38" s="2">
         <v>44104</v>
       </c>
-      <c r="J38" s="2">
+      <c r="K38" s="2">
         <v>44012</v>
       </c>
-      <c r="K38" s="2">
+      <c r="L38" s="2">
         <v>43921</v>
       </c>
-      <c r="L38" s="2">
+      <c r="M38" s="2">
         <v>43830</v>
       </c>
-      <c r="M38" s="2" t="s">
-        <v>3</v>
-      </c>
       <c r="N38" s="2" t="s">
         <v>3</v>
       </c>
       <c r="O38" s="2" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="39" spans="2:15" x14ac:dyDescent="0.2">
+      <c r="P38" s="2" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="39" spans="2:16" x14ac:dyDescent="0.2">
       <c r="C39" s="1" t="s">
         <v>32</v>
       </c>
@@ -1862,8 +1947,9 @@
       <c r="M39" s="3"/>
       <c r="N39" s="3"/>
       <c r="O39" s="3"/>
-    </row>
-    <row r="40" spans="2:15" x14ac:dyDescent="0.2">
+      <c r="P39" s="3"/>
+    </row>
+    <row r="40" spans="2:16" x14ac:dyDescent="0.2">
       <c r="C40" s="1" t="s">
         <v>33</v>
       </c>
@@ -1879,40 +1965,41 @@
       <c r="M40" s="3"/>
       <c r="N40" s="3"/>
       <c r="O40" s="3"/>
-    </row>
-    <row r="41" spans="2:15" x14ac:dyDescent="0.2">
+      <c r="P40" s="3"/>
+    </row>
+    <row r="41" spans="2:16" x14ac:dyDescent="0.2">
       <c r="C41" s="1" t="s">
         <v>34</v>
       </c>
-      <c r="D41" s="3" t="s">
-        <v>3</v>
-      </c>
-      <c r="E41" s="3">
-        <v>19100</v>
+      <c r="D41" s="3">
+        <v>854900</v>
+      </c>
+      <c r="E41" s="3" t="s">
+        <v>3</v>
       </c>
       <c r="F41" s="3">
-        <v>18300</v>
+        <v>18900</v>
       </c>
       <c r="G41" s="3">
-        <v>19700</v>
+        <v>18100</v>
       </c>
       <c r="H41" s="3">
-        <v>18300</v>
+        <v>19500</v>
       </c>
       <c r="I41" s="3">
-        <v>347000</v>
+        <v>18100</v>
       </c>
       <c r="J41" s="3">
+        <v>343000</v>
+      </c>
+      <c r="K41" s="3">
         <v>461300</v>
       </c>
-      <c r="K41" s="3">
+      <c r="L41" s="3">
         <v>484000</v>
       </c>
-      <c r="L41" s="3" t="s">
-        <v>3</v>
-      </c>
-      <c r="M41" s="3">
-        <v>0</v>
+      <c r="M41" s="3" t="s">
+        <v>3</v>
       </c>
       <c r="N41" s="3">
         <v>0</v>
@@ -1920,40 +2007,43 @@
       <c r="O41" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="42" spans="2:15" x14ac:dyDescent="0.2">
+      <c r="P41" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="42" spans="2:16" x14ac:dyDescent="0.2">
       <c r="C42" s="1" t="s">
         <v>35</v>
       </c>
       <c r="D42" s="3" t="s">
         <v>3</v>
       </c>
-      <c r="E42" s="3">
-        <v>548600</v>
+      <c r="E42" s="3" t="s">
+        <v>3</v>
       </c>
       <c r="F42" s="3">
-        <v>870600</v>
+        <v>542300</v>
       </c>
       <c r="G42" s="3">
-        <v>525000</v>
+        <v>860500</v>
       </c>
       <c r="H42" s="3">
-        <v>677700</v>
+        <v>518900</v>
       </c>
       <c r="I42" s="3">
-        <v>421100</v>
+        <v>669800</v>
       </c>
       <c r="J42" s="3">
+        <v>416200</v>
+      </c>
+      <c r="K42" s="3">
         <v>448700</v>
       </c>
-      <c r="K42" s="3">
+      <c r="L42" s="3">
         <v>190300</v>
       </c>
-      <c r="L42" s="3" t="s">
-        <v>3</v>
-      </c>
-      <c r="M42" s="3">
-        <v>0</v>
+      <c r="M42" s="3" t="s">
+        <v>3</v>
       </c>
       <c r="N42" s="3">
         <v>0</v>
@@ -1961,40 +2051,43 @@
       <c r="O42" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="43" spans="2:15" x14ac:dyDescent="0.2">
+      <c r="P42" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="43" spans="2:16" x14ac:dyDescent="0.2">
       <c r="C43" s="1" t="s">
         <v>36</v>
       </c>
-      <c r="D43" s="3" t="s">
-        <v>3</v>
-      </c>
-      <c r="E43" s="3">
-        <v>255600</v>
+      <c r="D43" s="3">
+        <v>301300</v>
+      </c>
+      <c r="E43" s="3" t="s">
+        <v>3</v>
       </c>
       <c r="F43" s="3">
-        <v>186600</v>
+        <v>252600</v>
       </c>
       <c r="G43" s="3">
-        <v>156700</v>
+        <v>184500</v>
       </c>
       <c r="H43" s="3">
-        <v>193900</v>
+        <v>154900</v>
       </c>
       <c r="I43" s="3">
-        <v>357500</v>
+        <v>191700</v>
       </c>
       <c r="J43" s="3">
+        <v>353300</v>
+      </c>
+      <c r="K43" s="3">
         <v>375600</v>
       </c>
-      <c r="K43" s="3">
+      <c r="L43" s="3">
         <v>280100</v>
       </c>
-      <c r="L43" s="3" t="s">
-        <v>3</v>
-      </c>
-      <c r="M43" s="3">
-        <v>0</v>
+      <c r="M43" s="3" t="s">
+        <v>3</v>
       </c>
       <c r="N43" s="3">
         <v>0</v>
@@ -2002,40 +2095,43 @@
       <c r="O43" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="44" spans="2:15" x14ac:dyDescent="0.2">
+      <c r="P43" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="44" spans="2:16" x14ac:dyDescent="0.2">
       <c r="C44" s="1" t="s">
         <v>37</v>
       </c>
-      <c r="D44" s="3" t="s">
-        <v>3</v>
-      </c>
-      <c r="E44" s="3">
-        <v>878900</v>
+      <c r="D44" s="3">
+        <v>943700</v>
+      </c>
+      <c r="E44" s="3" t="s">
+        <v>3</v>
       </c>
       <c r="F44" s="3">
-        <v>726800</v>
+        <v>868700</v>
       </c>
       <c r="G44" s="3">
-        <v>677100</v>
+        <v>718300</v>
       </c>
       <c r="H44" s="3">
-        <v>736800</v>
+        <v>669300</v>
       </c>
       <c r="I44" s="3">
-        <v>1257800</v>
+        <v>728300</v>
       </c>
       <c r="J44" s="3">
+        <v>1243300</v>
+      </c>
+      <c r="K44" s="3">
         <v>1113600</v>
       </c>
-      <c r="K44" s="3">
+      <c r="L44" s="3">
         <v>1036500</v>
       </c>
-      <c r="L44" s="3" t="s">
-        <v>3</v>
-      </c>
-      <c r="M44" s="3">
-        <v>0</v>
+      <c r="M44" s="3" t="s">
+        <v>3</v>
       </c>
       <c r="N44" s="3">
         <v>0</v>
@@ -2043,40 +2139,43 @@
       <c r="O44" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="45" spans="2:15" x14ac:dyDescent="0.2">
+      <c r="P44" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="45" spans="2:16" x14ac:dyDescent="0.2">
       <c r="C45" s="1" t="s">
         <v>38</v>
       </c>
-      <c r="D45" s="3" t="s">
-        <v>3</v>
-      </c>
-      <c r="E45" s="3">
-        <v>47900</v>
+      <c r="D45" s="3">
+        <v>290000</v>
+      </c>
+      <c r="E45" s="3" t="s">
+        <v>3</v>
       </c>
       <c r="F45" s="3">
-        <v>44300</v>
+        <v>47300</v>
       </c>
       <c r="G45" s="3">
-        <v>17700</v>
+        <v>43800</v>
       </c>
       <c r="H45" s="3">
-        <v>18500</v>
+        <v>17500</v>
       </c>
       <c r="I45" s="3">
-        <v>63700</v>
+        <v>18300</v>
       </c>
       <c r="J45" s="3">
+        <v>62900</v>
+      </c>
+      <c r="K45" s="3">
         <v>84900</v>
       </c>
-      <c r="K45" s="3">
+      <c r="L45" s="3">
         <v>154400</v>
       </c>
-      <c r="L45" s="3" t="s">
-        <v>3</v>
-      </c>
-      <c r="M45" s="3">
-        <v>0</v>
+      <c r="M45" s="3" t="s">
+        <v>3</v>
       </c>
       <c r="N45" s="3">
         <v>0</v>
@@ -2084,40 +2183,43 @@
       <c r="O45" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="46" spans="2:15" x14ac:dyDescent="0.2">
+      <c r="P45" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="46" spans="2:16" x14ac:dyDescent="0.2">
       <c r="C46" s="1" t="s">
         <v>39</v>
       </c>
-      <c r="D46" s="3" t="s">
-        <v>3</v>
-      </c>
-      <c r="E46" s="3">
-        <v>1750100</v>
+      <c r="D46" s="3">
+        <v>2390000</v>
+      </c>
+      <c r="E46" s="3" t="s">
+        <v>3</v>
       </c>
       <c r="F46" s="3">
-        <v>1846600</v>
+        <v>1729800</v>
       </c>
       <c r="G46" s="3">
-        <v>1396200</v>
+        <v>1825300</v>
       </c>
       <c r="H46" s="3">
-        <v>1645300</v>
+        <v>1380000</v>
       </c>
       <c r="I46" s="3">
-        <v>2447100</v>
+        <v>1626200</v>
       </c>
       <c r="J46" s="3">
+        <v>2418800</v>
+      </c>
+      <c r="K46" s="3">
         <v>2484100</v>
       </c>
-      <c r="K46" s="3">
+      <c r="L46" s="3">
         <v>2145300</v>
       </c>
-      <c r="L46" s="3" t="s">
-        <v>3</v>
-      </c>
-      <c r="M46" s="3">
-        <v>0</v>
+      <c r="M46" s="3" t="s">
+        <v>3</v>
       </c>
       <c r="N46" s="3">
         <v>0</v>
@@ -2125,40 +2227,43 @@
       <c r="O46" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="47" spans="2:15" x14ac:dyDescent="0.2">
+      <c r="P46" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="47" spans="2:16" x14ac:dyDescent="0.2">
       <c r="C47" s="1" t="s">
         <v>40</v>
       </c>
-      <c r="D47" s="3" t="s">
-        <v>3</v>
-      </c>
-      <c r="E47" s="3">
-        <v>351200</v>
+      <c r="D47" s="3">
+        <v>455800</v>
+      </c>
+      <c r="E47" s="3" t="s">
+        <v>3</v>
       </c>
       <c r="F47" s="3">
-        <v>344500</v>
+        <v>347100</v>
       </c>
       <c r="G47" s="3">
-        <v>344900</v>
+        <v>340500</v>
       </c>
       <c r="H47" s="3">
-        <v>357300</v>
+        <v>340900</v>
       </c>
       <c r="I47" s="3">
-        <v>288500</v>
+        <v>353100</v>
       </c>
       <c r="J47" s="3">
+        <v>285200</v>
+      </c>
+      <c r="K47" s="3">
         <v>291300</v>
       </c>
-      <c r="K47" s="3">
+      <c r="L47" s="3">
         <v>297400</v>
       </c>
-      <c r="L47" s="3" t="s">
-        <v>3</v>
-      </c>
-      <c r="M47" s="3">
-        <v>0</v>
+      <c r="M47" s="3" t="s">
+        <v>3</v>
       </c>
       <c r="N47" s="3">
         <v>0</v>
@@ -2166,40 +2271,43 @@
       <c r="O47" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="48" spans="2:15" x14ac:dyDescent="0.2">
+      <c r="P47" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="48" spans="2:16" x14ac:dyDescent="0.2">
       <c r="C48" s="1" t="s">
         <v>41</v>
       </c>
-      <c r="D48" s="3" t="s">
-        <v>3</v>
-      </c>
-      <c r="E48" s="3">
-        <v>1753200</v>
+      <c r="D48" s="3">
+        <v>2503900</v>
+      </c>
+      <c r="E48" s="3" t="s">
+        <v>3</v>
       </c>
       <c r="F48" s="3">
-        <v>1608000</v>
+        <v>1733000</v>
       </c>
       <c r="G48" s="3">
-        <v>1498200</v>
+        <v>1589400</v>
       </c>
       <c r="H48" s="3">
-        <v>1473200</v>
+        <v>1480900</v>
       </c>
       <c r="I48" s="3">
-        <v>4123900</v>
+        <v>1456200</v>
       </c>
       <c r="J48" s="3">
+        <v>4076200</v>
+      </c>
+      <c r="K48" s="3">
         <v>4057500</v>
       </c>
-      <c r="K48" s="3">
+      <c r="L48" s="3">
         <v>3266400</v>
       </c>
-      <c r="L48" s="3" t="s">
-        <v>3</v>
-      </c>
-      <c r="M48" s="3">
-        <v>0</v>
+      <c r="M48" s="3" t="s">
+        <v>3</v>
       </c>
       <c r="N48" s="3">
         <v>0</v>
@@ -2207,40 +2315,43 @@
       <c r="O48" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="49" spans="3:15" x14ac:dyDescent="0.2">
+      <c r="P48" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="49" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C49" s="1" t="s">
         <v>42</v>
       </c>
-      <c r="D49" s="3" t="s">
-        <v>3</v>
-      </c>
-      <c r="E49" s="3">
-        <v>208900</v>
+      <c r="D49" s="3">
+        <v>929100</v>
+      </c>
+      <c r="E49" s="3" t="s">
+        <v>3</v>
       </c>
       <c r="F49" s="3">
-        <v>206300</v>
+        <v>206500</v>
       </c>
       <c r="G49" s="3">
-        <v>204400</v>
+        <v>203900</v>
       </c>
       <c r="H49" s="3">
-        <v>204400</v>
+        <v>202000</v>
       </c>
       <c r="I49" s="3">
-        <v>976000</v>
+        <v>202000</v>
       </c>
       <c r="J49" s="3">
+        <v>964700</v>
+      </c>
+      <c r="K49" s="3">
         <v>971300</v>
       </c>
-      <c r="K49" s="3">
+      <c r="L49" s="3">
         <v>796000</v>
       </c>
-      <c r="L49" s="3" t="s">
-        <v>3</v>
-      </c>
-      <c r="M49" s="3">
-        <v>0</v>
+      <c r="M49" s="3" t="s">
+        <v>3</v>
       </c>
       <c r="N49" s="3">
         <v>0</v>
@@ -2248,8 +2359,11 @@
       <c r="O49" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="50" spans="3:15" x14ac:dyDescent="0.2">
+      <c r="P49" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="50" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C50" s="1" t="s">
         <v>43</v>
       </c>
@@ -2289,8 +2403,11 @@
       <c r="O50" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="51" spans="3:15" x14ac:dyDescent="0.2">
+      <c r="P50" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="51" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C51" s="1" t="s">
         <v>44</v>
       </c>
@@ -2330,40 +2447,43 @@
       <c r="O51" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="52" spans="3:15" x14ac:dyDescent="0.2">
+      <c r="P51" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="52" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C52" s="1" t="s">
         <v>45</v>
       </c>
       <c r="D52" s="3">
-        <v>0</v>
+        <v>49100</v>
       </c>
       <c r="E52" s="3">
-        <v>29400</v>
+        <v>0</v>
       </c>
       <c r="F52" s="3">
-        <v>30500</v>
+        <v>29000</v>
       </c>
       <c r="G52" s="3">
-        <v>27800</v>
+        <v>30200</v>
       </c>
       <c r="H52" s="3">
-        <v>28800</v>
+        <v>27500</v>
       </c>
       <c r="I52" s="3">
-        <v>41600</v>
+        <v>28400</v>
       </c>
       <c r="J52" s="3">
+        <v>41100</v>
+      </c>
+      <c r="K52" s="3">
         <v>39800</v>
       </c>
-      <c r="K52" s="3">
+      <c r="L52" s="3">
         <v>39300</v>
       </c>
-      <c r="L52" s="3" t="s">
-        <v>3</v>
-      </c>
-      <c r="M52" s="3">
-        <v>0</v>
+      <c r="M52" s="3" t="s">
+        <v>3</v>
       </c>
       <c r="N52" s="3">
         <v>0</v>
@@ -2371,8 +2491,11 @@
       <c r="O52" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="53" spans="3:15" x14ac:dyDescent="0.2">
+      <c r="P52" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="53" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C53" s="1" t="s">
         <v>46</v>
       </c>
@@ -2412,40 +2535,43 @@
       <c r="O53" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="54" spans="3:15" x14ac:dyDescent="0.2">
+      <c r="P53" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="54" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C54" s="1" t="s">
         <v>47</v>
       </c>
-      <c r="D54" s="3" t="s">
-        <v>3</v>
-      </c>
-      <c r="E54" s="3">
-        <v>4092700</v>
+      <c r="D54" s="3">
+        <v>6327800</v>
+      </c>
+      <c r="E54" s="3" t="s">
+        <v>3</v>
       </c>
       <c r="F54" s="3">
-        <v>4036000</v>
+        <v>4045400</v>
       </c>
       <c r="G54" s="3">
-        <v>3471400</v>
+        <v>3989300</v>
       </c>
       <c r="H54" s="3">
-        <v>3708900</v>
+        <v>3431200</v>
       </c>
       <c r="I54" s="3">
-        <v>7877100</v>
+        <v>3666000</v>
       </c>
       <c r="J54" s="3">
+        <v>7785900</v>
+      </c>
+      <c r="K54" s="3">
         <v>7844000</v>
       </c>
-      <c r="K54" s="3">
+      <c r="L54" s="3">
         <v>6544400</v>
       </c>
-      <c r="L54" s="3" t="s">
-        <v>3</v>
-      </c>
-      <c r="M54" s="3">
-        <v>0</v>
+      <c r="M54" s="3" t="s">
+        <v>3</v>
       </c>
       <c r="N54" s="3">
         <v>0</v>
@@ -2453,8 +2579,11 @@
       <c r="O54" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="55" spans="3:15" x14ac:dyDescent="0.2">
+      <c r="P54" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="55" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C55" s="1" t="s">
         <v>48</v>
       </c>
@@ -2470,8 +2599,9 @@
       <c r="M55" s="3"/>
       <c r="N55" s="3"/>
       <c r="O55" s="3"/>
-    </row>
-    <row r="56" spans="3:15" x14ac:dyDescent="0.2">
+      <c r="P55" s="3"/>
+    </row>
+    <row r="56" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C56" s="1" t="s">
         <v>49</v>
       </c>
@@ -2487,40 +2617,41 @@
       <c r="M56" s="3"/>
       <c r="N56" s="3"/>
       <c r="O56" s="3"/>
-    </row>
-    <row r="57" spans="3:15" x14ac:dyDescent="0.2">
+      <c r="P56" s="3"/>
+    </row>
+    <row r="57" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C57" s="1" t="s">
         <v>50</v>
       </c>
       <c r="D57" s="3">
-        <v>1243400</v>
+        <v>1822400</v>
       </c>
       <c r="E57" s="3">
-        <v>1068100</v>
+        <v>1229100</v>
       </c>
       <c r="F57" s="3">
-        <v>908200</v>
+        <v>1055700</v>
       </c>
       <c r="G57" s="3">
-        <v>829400</v>
+        <v>897700</v>
       </c>
       <c r="H57" s="3">
-        <v>1004800</v>
+        <v>819800</v>
       </c>
       <c r="I57" s="3">
-        <v>1648200</v>
+        <v>993200</v>
       </c>
       <c r="J57" s="3">
+        <v>1629100</v>
+      </c>
+      <c r="K57" s="3">
         <v>1636800</v>
       </c>
-      <c r="K57" s="3">
+      <c r="L57" s="3">
         <v>1465500</v>
       </c>
-      <c r="L57" s="3" t="s">
-        <v>3</v>
-      </c>
-      <c r="M57" s="3">
-        <v>0</v>
+      <c r="M57" s="3" t="s">
+        <v>3</v>
       </c>
       <c r="N57" s="3">
         <v>0</v>
@@ -2528,40 +2659,43 @@
       <c r="O57" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="58" spans="3:15" x14ac:dyDescent="0.2">
+      <c r="P57" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="58" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C58" s="1" t="s">
         <v>51</v>
       </c>
       <c r="D58" s="3">
-        <v>168900</v>
+        <v>114300</v>
       </c>
       <c r="E58" s="3">
-        <v>507600</v>
+        <v>166900</v>
       </c>
       <c r="F58" s="3">
-        <v>473700</v>
+        <v>501800</v>
       </c>
       <c r="G58" s="3">
-        <v>403600</v>
+        <v>468300</v>
       </c>
       <c r="H58" s="3">
-        <v>451700</v>
+        <v>398900</v>
       </c>
       <c r="I58" s="3">
-        <v>827700</v>
+        <v>446400</v>
       </c>
       <c r="J58" s="3">
+        <v>818100</v>
+      </c>
+      <c r="K58" s="3">
         <v>530100</v>
       </c>
-      <c r="K58" s="3">
+      <c r="L58" s="3">
         <v>521100</v>
       </c>
-      <c r="L58" s="3" t="s">
-        <v>3</v>
-      </c>
-      <c r="M58" s="3">
-        <v>0</v>
+      <c r="M58" s="3" t="s">
+        <v>3</v>
       </c>
       <c r="N58" s="3">
         <v>0</v>
@@ -2569,40 +2703,43 @@
       <c r="O58" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="59" spans="3:15" x14ac:dyDescent="0.2">
+      <c r="P58" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="59" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C59" s="1" t="s">
         <v>52</v>
       </c>
       <c r="D59" s="3">
-        <v>291100</v>
+        <v>278900</v>
       </c>
       <c r="E59" s="3">
-        <v>230800</v>
+        <v>287700</v>
       </c>
       <c r="F59" s="3">
-        <v>195700</v>
+        <v>228100</v>
       </c>
       <c r="G59" s="3">
-        <v>195300</v>
+        <v>193400</v>
       </c>
       <c r="H59" s="3">
-        <v>262500</v>
+        <v>193000</v>
       </c>
       <c r="I59" s="3">
-        <v>514300</v>
+        <v>259400</v>
       </c>
       <c r="J59" s="3">
+        <v>508400</v>
+      </c>
+      <c r="K59" s="3">
         <v>491300</v>
       </c>
-      <c r="K59" s="3">
+      <c r="L59" s="3">
         <v>394000</v>
       </c>
-      <c r="L59" s="3" t="s">
-        <v>3</v>
-      </c>
-      <c r="M59" s="3">
-        <v>0</v>
+      <c r="M59" s="3" t="s">
+        <v>3</v>
       </c>
       <c r="N59" s="3">
         <v>0</v>
@@ -2610,40 +2747,43 @@
       <c r="O59" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="60" spans="3:15" x14ac:dyDescent="0.2">
+      <c r="P59" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="60" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C60" s="1" t="s">
         <v>53</v>
       </c>
       <c r="D60" s="3">
-        <v>1703400</v>
+        <v>2215600</v>
       </c>
       <c r="E60" s="3">
-        <v>1806400</v>
+        <v>1683700</v>
       </c>
       <c r="F60" s="3">
-        <v>1577700</v>
+        <v>1785500</v>
       </c>
       <c r="G60" s="3">
-        <v>1428300</v>
+        <v>1559400</v>
       </c>
       <c r="H60" s="3">
-        <v>1719000</v>
+        <v>1411800</v>
       </c>
       <c r="I60" s="3">
-        <v>2990200</v>
+        <v>1699100</v>
       </c>
       <c r="J60" s="3">
+        <v>2955600</v>
+      </c>
+      <c r="K60" s="3">
         <v>2658100</v>
       </c>
-      <c r="K60" s="3">
+      <c r="L60" s="3">
         <v>2380600</v>
       </c>
-      <c r="L60" s="3" t="s">
-        <v>3</v>
-      </c>
-      <c r="M60" s="3">
-        <v>0</v>
+      <c r="M60" s="3" t="s">
+        <v>3</v>
       </c>
       <c r="N60" s="3">
         <v>0</v>
@@ -2651,38 +2791,41 @@
       <c r="O60" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="61" spans="3:15" x14ac:dyDescent="0.2">
+      <c r="P60" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="61" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C61" s="1" t="s">
         <v>54</v>
       </c>
       <c r="D61" s="3">
-        <v>2212400</v>
+        <v>3200600</v>
       </c>
       <c r="E61" s="3">
-        <v>1754000</v>
+        <v>2186800</v>
       </c>
       <c r="F61" s="3">
-        <v>2014300</v>
+        <v>1733700</v>
       </c>
       <c r="G61" s="3">
-        <v>1652500</v>
+        <v>1991000</v>
       </c>
       <c r="H61" s="3">
-        <v>1638600</v>
+        <v>1633400</v>
       </c>
       <c r="I61" s="3">
-        <v>2099900</v>
+        <v>1619600</v>
       </c>
       <c r="J61" s="3">
+        <v>2075600</v>
+      </c>
+      <c r="K61" s="3">
         <v>2472300</v>
       </c>
-      <c r="K61" s="3">
+      <c r="L61" s="3">
         <v>2004400</v>
       </c>
-      <c r="L61" s="3">
-        <v>0</v>
-      </c>
       <c r="M61" s="3">
         <v>0</v>
       </c>
@@ -2692,40 +2835,43 @@
       <c r="O61" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="62" spans="3:15" x14ac:dyDescent="0.2">
+      <c r="P61" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="62" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C62" s="1" t="s">
         <v>55</v>
       </c>
       <c r="D62" s="3">
-        <v>42800</v>
+        <v>330300</v>
       </c>
       <c r="E62" s="3">
-        <v>58900</v>
+        <v>42300</v>
       </c>
       <c r="F62" s="3">
-        <v>66200</v>
+        <v>58200</v>
       </c>
       <c r="G62" s="3">
-        <v>77200</v>
+        <v>65400</v>
       </c>
       <c r="H62" s="3">
-        <v>73500</v>
+        <v>76400</v>
       </c>
       <c r="I62" s="3">
-        <v>284800</v>
+        <v>72700</v>
       </c>
       <c r="J62" s="3">
+        <v>281500</v>
+      </c>
+      <c r="K62" s="3">
         <v>311700</v>
       </c>
-      <c r="K62" s="3">
+      <c r="L62" s="3">
         <v>287800</v>
       </c>
-      <c r="L62" s="3" t="s">
-        <v>3</v>
-      </c>
-      <c r="M62" s="3">
-        <v>0</v>
+      <c r="M62" s="3" t="s">
+        <v>3</v>
       </c>
       <c r="N62" s="3">
         <v>0</v>
@@ -2733,8 +2879,11 @@
       <c r="O62" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="63" spans="3:15" x14ac:dyDescent="0.2">
+      <c r="P62" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="63" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C63" s="1" t="s">
         <v>56</v>
       </c>
@@ -2774,8 +2923,11 @@
       <c r="O63" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="64" spans="3:15" x14ac:dyDescent="0.2">
+      <c r="P63" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="64" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C64" s="1" t="s">
         <v>20</v>
       </c>
@@ -2815,8 +2967,11 @@
       <c r="O64" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="65" spans="2:15" x14ac:dyDescent="0.2">
+      <c r="P64" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="65" spans="2:16" x14ac:dyDescent="0.2">
       <c r="C65" s="1" t="s">
         <v>57</v>
       </c>
@@ -2856,40 +3011,43 @@
       <c r="O65" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="66" spans="2:15" x14ac:dyDescent="0.2">
+      <c r="P65" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="66" spans="2:16" x14ac:dyDescent="0.2">
       <c r="C66" s="1" t="s">
         <v>58</v>
       </c>
       <c r="D66" s="3">
-        <v>3958500</v>
+        <v>5746600</v>
       </c>
       <c r="E66" s="3">
-        <v>3619400</v>
+        <v>3912700</v>
       </c>
       <c r="F66" s="3">
-        <v>3658200</v>
+        <v>3577500</v>
       </c>
       <c r="G66" s="3">
-        <v>3158100</v>
+        <v>3615900</v>
       </c>
       <c r="H66" s="3">
-        <v>3431000</v>
+        <v>3121500</v>
       </c>
       <c r="I66" s="3">
-        <v>5995600</v>
+        <v>3391300</v>
       </c>
       <c r="J66" s="3">
+        <v>5926200</v>
+      </c>
+      <c r="K66" s="3">
         <v>6053100</v>
       </c>
-      <c r="K66" s="3">
+      <c r="L66" s="3">
         <v>5153300</v>
       </c>
-      <c r="L66" s="3" t="s">
-        <v>3</v>
-      </c>
-      <c r="M66" s="3">
-        <v>0</v>
+      <c r="M66" s="3" t="s">
+        <v>3</v>
       </c>
       <c r="N66" s="3">
         <v>0</v>
@@ -2897,8 +3055,11 @@
       <c r="O66" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="67" spans="2:15" x14ac:dyDescent="0.2">
+      <c r="P66" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="67" spans="2:16" x14ac:dyDescent="0.2">
       <c r="C67" s="1" t="s">
         <v>59</v>
       </c>
@@ -2914,8 +3075,9 @@
       <c r="M67" s="3"/>
       <c r="N67" s="3"/>
       <c r="O67" s="3"/>
-    </row>
-    <row r="68" spans="2:15" x14ac:dyDescent="0.2">
+      <c r="P67" s="3"/>
+    </row>
+    <row r="68" spans="2:16" x14ac:dyDescent="0.2">
       <c r="C68" s="1" t="s">
         <v>60</v>
       </c>
@@ -2955,8 +3117,11 @@
       <c r="O68" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="69" spans="2:15" x14ac:dyDescent="0.2">
+      <c r="P68" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="69" spans="2:16" x14ac:dyDescent="0.2">
       <c r="C69" s="1" t="s">
         <v>61</v>
       </c>
@@ -2996,8 +3161,11 @@
       <c r="O69" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="70" spans="2:15" x14ac:dyDescent="0.2">
+      <c r="P69" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="70" spans="2:16" x14ac:dyDescent="0.2">
       <c r="C70" s="1" t="s">
         <v>62</v>
       </c>
@@ -3037,8 +3205,11 @@
       <c r="O70" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="71" spans="2:15" x14ac:dyDescent="0.2">
+      <c r="P70" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="71" spans="2:16" x14ac:dyDescent="0.2">
       <c r="C71" s="1" t="s">
         <v>63</v>
       </c>
@@ -3078,40 +3249,43 @@
       <c r="O71" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="72" spans="2:15" x14ac:dyDescent="0.2">
+      <c r="P71" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="72" spans="2:16" x14ac:dyDescent="0.2">
       <c r="C72" s="1" t="s">
         <v>64</v>
       </c>
       <c r="D72" s="3">
-        <v>390000</v>
+        <v>427900</v>
       </c>
       <c r="E72" s="3">
-        <v>318300</v>
+        <v>385500</v>
       </c>
       <c r="F72" s="3">
-        <v>224300</v>
+        <v>314600</v>
       </c>
       <c r="G72" s="3">
-        <v>163400</v>
+        <v>221700</v>
       </c>
       <c r="H72" s="3">
-        <v>127900</v>
+        <v>161500</v>
       </c>
       <c r="I72" s="3">
-        <v>568900</v>
+        <v>126400</v>
       </c>
       <c r="J72" s="3">
+        <v>562300</v>
+      </c>
+      <c r="K72" s="3">
         <v>545100</v>
       </c>
-      <c r="K72" s="3">
+      <c r="L72" s="3">
         <v>462000</v>
       </c>
-      <c r="L72" s="3" t="s">
-        <v>3</v>
-      </c>
-      <c r="M72" s="3">
-        <v>0</v>
+      <c r="M72" s="3" t="s">
+        <v>3</v>
       </c>
       <c r="N72" s="3">
         <v>0</v>
@@ -3119,8 +3293,11 @@
       <c r="O72" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="73" spans="2:15" x14ac:dyDescent="0.2">
+      <c r="P72" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="73" spans="2:16" x14ac:dyDescent="0.2">
       <c r="C73" s="1" t="s">
         <v>65</v>
       </c>
@@ -3160,8 +3337,11 @@
       <c r="O73" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="74" spans="2:15" x14ac:dyDescent="0.2">
+      <c r="P73" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="74" spans="2:16" x14ac:dyDescent="0.2">
       <c r="C74" s="1" t="s">
         <v>66</v>
       </c>
@@ -3201,8 +3381,11 @@
       <c r="O74" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="75" spans="2:15" x14ac:dyDescent="0.2">
+      <c r="P74" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="75" spans="2:16" x14ac:dyDescent="0.2">
       <c r="C75" s="1" t="s">
         <v>67</v>
       </c>
@@ -3242,40 +3425,43 @@
       <c r="O75" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="76" spans="2:15" x14ac:dyDescent="0.2">
+      <c r="P75" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="76" spans="2:16" x14ac:dyDescent="0.2">
       <c r="C76" s="1" t="s">
         <v>68</v>
       </c>
       <c r="D76" s="3">
-        <v>545100</v>
+        <v>581200</v>
       </c>
       <c r="E76" s="3">
-        <v>473300</v>
+        <v>538800</v>
       </c>
       <c r="F76" s="3">
-        <v>377800</v>
+        <v>467900</v>
       </c>
       <c r="G76" s="3">
-        <v>313300</v>
+        <v>373400</v>
       </c>
       <c r="H76" s="3">
-        <v>277900</v>
+        <v>309700</v>
       </c>
       <c r="I76" s="3">
-        <v>1881500</v>
+        <v>274600</v>
       </c>
       <c r="J76" s="3">
+        <v>1859800</v>
+      </c>
+      <c r="K76" s="3">
         <v>1790900</v>
       </c>
-      <c r="K76" s="3">
+      <c r="L76" s="3">
         <v>1391000</v>
       </c>
-      <c r="L76" s="3" t="s">
-        <v>3</v>
-      </c>
-      <c r="M76" s="3">
-        <v>0</v>
+      <c r="M76" s="3" t="s">
+        <v>3</v>
       </c>
       <c r="N76" s="3">
         <v>0</v>
@@ -3283,8 +3469,11 @@
       <c r="O76" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="77" spans="2:15" x14ac:dyDescent="0.2">
+      <c r="P76" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="77" spans="2:16" x14ac:dyDescent="0.2">
       <c r="C77" s="1" t="s">
         <v>69</v>
       </c>
@@ -3324,95 +3513,104 @@
       <c r="O77" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="79" spans="2:15" x14ac:dyDescent="0.2">
+      <c r="P77" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="79" spans="2:16" x14ac:dyDescent="0.2">
       <c r="B79" s="1" t="s">
         <v>70</v>
       </c>
     </row>
-    <row r="80" spans="2:15" x14ac:dyDescent="0.2">
+    <row r="80" spans="2:16" x14ac:dyDescent="0.2">
       <c r="C80" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D80" s="2">
+        <v>44651</v>
+      </c>
+      <c r="E80" s="2">
         <v>44561</v>
       </c>
-      <c r="E80" s="2">
+      <c r="F80" s="2">
         <v>44469</v>
       </c>
-      <c r="F80" s="2">
+      <c r="G80" s="2">
         <v>44377</v>
       </c>
-      <c r="G80" s="2">
+      <c r="H80" s="2">
         <v>44286</v>
       </c>
-      <c r="H80" s="2">
+      <c r="I80" s="2">
         <v>44196</v>
       </c>
-      <c r="I80" s="2">
+      <c r="J80" s="2">
         <v>44104</v>
       </c>
-      <c r="J80" s="2">
+      <c r="K80" s="2">
         <v>44012</v>
       </c>
-      <c r="K80" s="2">
+      <c r="L80" s="2">
         <v>43921</v>
       </c>
-      <c r="L80" s="2">
+      <c r="M80" s="2">
         <v>43830</v>
       </c>
-      <c r="M80" s="2" t="s">
-        <v>3</v>
-      </c>
       <c r="N80" s="2" t="s">
         <v>3</v>
       </c>
       <c r="O80" s="2" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="81" spans="3:15" x14ac:dyDescent="0.2">
+      <c r="P80" s="2" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="81" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C81" s="1" t="s">
         <v>28</v>
       </c>
-      <c r="D81" s="3" t="s">
-        <v>3</v>
-      </c>
-      <c r="E81" s="3">
-        <v>106000</v>
+      <c r="D81" s="3">
+        <v>41700</v>
+      </c>
+      <c r="E81" s="3" t="s">
+        <v>3</v>
       </c>
       <c r="F81" s="3">
-        <v>60100</v>
+        <v>104800</v>
       </c>
       <c r="G81" s="3">
-        <v>47300</v>
+        <v>59400</v>
       </c>
       <c r="H81" s="3">
-        <v>275500</v>
+        <v>46700</v>
       </c>
       <c r="I81" s="3">
-        <v>86100</v>
+        <v>272300</v>
       </c>
       <c r="J81" s="3">
+        <v>85100</v>
+      </c>
+      <c r="K81" s="3">
         <v>34500</v>
       </c>
-      <c r="K81" s="3">
+      <c r="L81" s="3">
         <v>17900</v>
       </c>
-      <c r="L81" s="3">
+      <c r="M81" s="3">
         <v>48700</v>
       </c>
-      <c r="M81" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="N81" s="3" t="s">
         <v>3</v>
       </c>
       <c r="O81" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="82" spans="3:15" x14ac:dyDescent="0.2">
+      <c r="P81" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="82" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C82" s="1" t="s">
         <v>71</v>
       </c>
@@ -3428,49 +3626,53 @@
       <c r="M82" s="3"/>
       <c r="N82" s="3"/>
       <c r="O82" s="3"/>
-    </row>
-    <row r="83" spans="3:15" x14ac:dyDescent="0.2">
+      <c r="P82" s="3"/>
+    </row>
+    <row r="83" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C83" s="1" t="s">
         <v>72</v>
       </c>
       <c r="D83" s="3">
-        <v>37000</v>
+        <v>42700</v>
       </c>
       <c r="E83" s="3">
-        <v>34500</v>
+        <v>36600</v>
       </c>
       <c r="F83" s="3">
-        <v>32900</v>
+        <v>34100</v>
       </c>
       <c r="G83" s="3">
-        <v>30900</v>
+        <v>32500</v>
       </c>
       <c r="H83" s="3">
-        <v>270400</v>
+        <v>30600</v>
       </c>
       <c r="I83" s="3">
-        <v>70200</v>
+        <v>267200</v>
       </c>
       <c r="J83" s="3">
+        <v>69300</v>
+      </c>
+      <c r="K83" s="3">
         <v>65400</v>
       </c>
-      <c r="K83" s="3">
+      <c r="L83" s="3">
         <v>56100</v>
       </c>
-      <c r="L83" s="3">
+      <c r="M83" s="3">
         <v>32100</v>
       </c>
-      <c r="M83" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="N83" s="3" t="s">
         <v>3</v>
       </c>
       <c r="O83" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="84" spans="3:15" x14ac:dyDescent="0.2">
+      <c r="P83" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="84" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C84" s="1" t="s">
         <v>73</v>
       </c>
@@ -3510,8 +3712,11 @@
       <c r="O84" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="85" spans="3:15" x14ac:dyDescent="0.2">
+      <c r="P84" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="85" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C85" s="1" t="s">
         <v>74</v>
       </c>
@@ -3551,8 +3756,11 @@
       <c r="O85" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="86" spans="3:15" x14ac:dyDescent="0.2">
+      <c r="P85" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="86" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C86" s="1" t="s">
         <v>75</v>
       </c>
@@ -3592,8 +3800,11 @@
       <c r="O86" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="87" spans="3:15" x14ac:dyDescent="0.2">
+      <c r="P86" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="87" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C87" s="1" t="s">
         <v>76</v>
       </c>
@@ -3633,8 +3844,11 @@
       <c r="O87" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="88" spans="3:15" x14ac:dyDescent="0.2">
+      <c r="P87" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="88" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C88" s="1" t="s">
         <v>77</v>
       </c>
@@ -3674,49 +3888,55 @@
       <c r="O88" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="89" spans="3:15" x14ac:dyDescent="0.2">
+      <c r="P88" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="89" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C89" s="1" t="s">
         <v>78</v>
       </c>
       <c r="D89" s="3">
-        <v>423700</v>
+        <v>166100</v>
       </c>
       <c r="E89" s="3">
-        <v>123400</v>
+        <v>418800</v>
       </c>
       <c r="F89" s="3">
-        <v>140900</v>
+        <v>121900</v>
       </c>
       <c r="G89" s="3">
-        <v>-43200</v>
+        <v>139300</v>
       </c>
       <c r="H89" s="3">
-        <v>689300</v>
+        <v>-42700</v>
       </c>
       <c r="I89" s="3">
-        <v>48500</v>
+        <v>681300</v>
       </c>
       <c r="J89" s="3">
+        <v>47900</v>
+      </c>
+      <c r="K89" s="3">
         <v>201600</v>
       </c>
-      <c r="K89" s="3">
+      <c r="L89" s="3">
         <v>-341200</v>
       </c>
-      <c r="L89" s="3">
+      <c r="M89" s="3">
         <v>505600</v>
       </c>
-      <c r="M89" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="N89" s="3" t="s">
         <v>3</v>
       </c>
       <c r="O89" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="90" spans="3:15" x14ac:dyDescent="0.2">
+      <c r="P89" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="90" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C90" s="1" t="s">
         <v>79</v>
       </c>
@@ -3732,49 +3952,53 @@
       <c r="M90" s="3"/>
       <c r="N90" s="3"/>
       <c r="O90" s="3"/>
-    </row>
-    <row r="91" spans="3:15" x14ac:dyDescent="0.2">
+      <c r="P90" s="3"/>
+    </row>
+    <row r="91" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C91" s="1" t="s">
         <v>80</v>
       </c>
-      <c r="D91" s="3" t="s">
-        <v>3</v>
-      </c>
-      <c r="E91" s="3">
-        <v>-161200</v>
+      <c r="D91" s="3">
+        <v>-131500</v>
+      </c>
+      <c r="E91" s="3" t="s">
+        <v>3</v>
       </c>
       <c r="F91" s="3">
-        <v>-111300</v>
+        <v>-159300</v>
       </c>
       <c r="G91" s="3">
-        <v>-34300</v>
+        <v>-110100</v>
       </c>
       <c r="H91" s="3">
-        <v>-307800</v>
+        <v>-33900</v>
       </c>
       <c r="I91" s="3">
-        <v>-86900</v>
+        <v>-304200</v>
       </c>
       <c r="J91" s="3">
+        <v>-85900</v>
+      </c>
+      <c r="K91" s="3">
         <v>-66000</v>
       </c>
-      <c r="K91" s="3">
+      <c r="L91" s="3">
         <v>-64600</v>
       </c>
-      <c r="L91" s="3">
+      <c r="M91" s="3">
         <v>-91900</v>
       </c>
-      <c r="M91" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="N91" s="3" t="s">
         <v>3</v>
       </c>
       <c r="O91" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="92" spans="3:15" x14ac:dyDescent="0.2">
+      <c r="P91" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="92" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C92" s="1" t="s">
         <v>81</v>
       </c>
@@ -3814,8 +4038,11 @@
       <c r="O92" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="93" spans="3:15" x14ac:dyDescent="0.2">
+      <c r="P92" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="93" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C93" s="1" t="s">
         <v>82</v>
       </c>
@@ -3855,49 +4082,55 @@
       <c r="O93" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="94" spans="3:15" x14ac:dyDescent="0.2">
+      <c r="P93" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="94" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C94" s="1" t="s">
         <v>83</v>
       </c>
       <c r="D94" s="3">
-        <v>-372800</v>
+        <v>-297400</v>
       </c>
       <c r="E94" s="3">
-        <v>-123600</v>
+        <v>-368500</v>
       </c>
       <c r="F94" s="3">
-        <v>-114300</v>
+        <v>-122100</v>
       </c>
       <c r="G94" s="3">
-        <v>-34900</v>
+        <v>-113000</v>
       </c>
       <c r="H94" s="3">
-        <v>-943300</v>
+        <v>-34500</v>
       </c>
       <c r="I94" s="3">
-        <v>-65200</v>
+        <v>-932400</v>
       </c>
       <c r="J94" s="3">
+        <v>-64500</v>
+      </c>
+      <c r="K94" s="3">
         <v>5100</v>
       </c>
-      <c r="K94" s="3">
+      <c r="L94" s="3">
         <v>-68700</v>
       </c>
-      <c r="L94" s="3">
+      <c r="M94" s="3">
         <v>-623700</v>
       </c>
-      <c r="M94" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="N94" s="3" t="s">
         <v>3</v>
       </c>
       <c r="O94" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="95" spans="3:15" x14ac:dyDescent="0.2">
+      <c r="P94" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="95" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C95" s="1" t="s">
         <v>84</v>
       </c>
@@ -3913,8 +4146,9 @@
       <c r="M95" s="3"/>
       <c r="N95" s="3"/>
       <c r="O95" s="3"/>
-    </row>
-    <row r="96" spans="3:15" x14ac:dyDescent="0.2">
+      <c r="P95" s="3"/>
+    </row>
+    <row r="96" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C96" s="1" t="s">
         <v>85</v>
       </c>
@@ -3925,37 +4159,40 @@
         <v>0</v>
       </c>
       <c r="F96" s="3">
-        <v>-16800</v>
+        <v>0</v>
       </c>
       <c r="G96" s="3">
-        <v>0</v>
+        <v>-16600</v>
       </c>
       <c r="H96" s="3">
-        <v>-96400</v>
+        <v>0</v>
       </c>
       <c r="I96" s="3">
-        <v>-2800</v>
+        <v>-95200</v>
       </c>
       <c r="J96" s="3">
+        <v>-2700</v>
+      </c>
+      <c r="K96" s="3">
         <v>-21100</v>
       </c>
-      <c r="K96" s="3">
+      <c r="L96" s="3">
         <v>-3000</v>
       </c>
-      <c r="L96" s="3">
+      <c r="M96" s="3">
         <v>-44500</v>
       </c>
-      <c r="M96" s="3">
-        <v>0</v>
-      </c>
       <c r="N96" s="3">
         <v>0</v>
       </c>
       <c r="O96" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="97" spans="3:15" x14ac:dyDescent="0.2">
+      <c r="P96" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="97" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C97" s="1" t="s">
         <v>86</v>
       </c>
@@ -3995,8 +4232,11 @@
       <c r="O97" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="98" spans="3:15" x14ac:dyDescent="0.2">
+      <c r="P97" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="98" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C98" s="1" t="s">
         <v>87</v>
       </c>
@@ -4036,8 +4276,11 @@
       <c r="O98" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="99" spans="3:15" x14ac:dyDescent="0.2">
+      <c r="P98" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="99" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C99" s="1" t="s">
         <v>88</v>
       </c>
@@ -4077,57 +4320,63 @@
       <c r="O99" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="100" spans="3:15" x14ac:dyDescent="0.2">
+      <c r="P99" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="100" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C100" s="1" t="s">
         <v>89</v>
       </c>
-      <c r="D100" s="3" t="s">
-        <v>3</v>
-      </c>
-      <c r="E100" s="3">
-        <v>-321000</v>
+      <c r="D100" s="3">
+        <v>489500</v>
+      </c>
+      <c r="E100" s="3" t="s">
+        <v>3</v>
       </c>
       <c r="F100" s="3">
-        <v>317700</v>
+        <v>-317300</v>
       </c>
       <c r="G100" s="3">
-        <v>-73300</v>
+        <v>314000</v>
       </c>
       <c r="H100" s="3">
-        <v>-156300</v>
+        <v>-72500</v>
       </c>
       <c r="I100" s="3">
-        <v>-119800</v>
+        <v>-154500</v>
       </c>
       <c r="J100" s="3">
+        <v>-118400</v>
+      </c>
+      <c r="K100" s="3">
         <v>-99900</v>
       </c>
-      <c r="K100" s="3">
+      <c r="L100" s="3">
         <v>159100</v>
       </c>
-      <c r="L100" s="3">
+      <c r="M100" s="3">
         <v>-662800</v>
       </c>
-      <c r="M100" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="N100" s="3" t="s">
         <v>3</v>
       </c>
       <c r="O100" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="101" spans="3:15" x14ac:dyDescent="0.2">
+      <c r="P100" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="101" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C101" s="1" t="s">
         <v>90</v>
       </c>
       <c r="D101" s="3" t="s">
         <v>3</v>
       </c>
-      <c r="E101" s="3">
-        <v>0</v>
+      <c r="E101" s="3" t="s">
+        <v>3</v>
       </c>
       <c r="F101" s="3">
         <v>0</v>
@@ -4136,68 +4385,74 @@
         <v>0</v>
       </c>
       <c r="H101" s="3">
-        <v>115900</v>
+        <v>0</v>
       </c>
       <c r="I101" s="3">
+        <v>114500</v>
+      </c>
+      <c r="J101" s="3">
         <v>-5300</v>
       </c>
-      <c r="J101" s="3">
+      <c r="K101" s="3">
         <v>58900</v>
       </c>
-      <c r="K101" s="3">
+      <c r="L101" s="3">
         <v>27800</v>
       </c>
-      <c r="L101" s="3">
+      <c r="M101" s="3">
         <v>19800</v>
       </c>
-      <c r="M101" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="N101" s="3" t="s">
         <v>3</v>
       </c>
       <c r="O101" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="102" spans="3:15" x14ac:dyDescent="0.2">
+      <c r="P101" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="102" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C102" s="1" t="s">
         <v>91</v>
       </c>
-      <c r="D102" s="3" t="s">
-        <v>3</v>
-      </c>
-      <c r="E102" s="3">
-        <v>-321200</v>
+      <c r="D102" s="3">
+        <v>358200</v>
+      </c>
+      <c r="E102" s="3" t="s">
+        <v>3</v>
       </c>
       <c r="F102" s="3">
-        <v>344300</v>
+        <v>-317500</v>
       </c>
       <c r="G102" s="3">
-        <v>-151300</v>
+        <v>340300</v>
       </c>
       <c r="H102" s="3">
-        <v>-294400</v>
+        <v>-149600</v>
       </c>
       <c r="I102" s="3">
-        <v>-141900</v>
+        <v>-291000</v>
       </c>
       <c r="J102" s="3">
+        <v>-140200</v>
+      </c>
+      <c r="K102" s="3">
         <v>165700</v>
       </c>
-      <c r="K102" s="3">
+      <c r="L102" s="3">
         <v>-223000</v>
       </c>
-      <c r="L102" s="3">
+      <c r="M102" s="3">
         <v>-761200</v>
       </c>
-      <c r="M102" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="N102" s="3" t="s">
         <v>3</v>
       </c>
       <c r="O102" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="P102" s="3" t="s">
         <v>3</v>
       </c>
     </row>

--- a/AAII_Financials/Quarterly/ASAI_QTR_FIN.xlsx
+++ b/AAII_Financials/Quarterly/ASAI_QTR_FIN.xlsx
@@ -22,7 +22,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="244" uniqueCount="92">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="222" uniqueCount="92">
   <si>
     <t>ASAI</t>
   </si>
@@ -656,7 +656,7 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <sheetPr codeName="Sheet2"/>
-  <dimension ref="A5:P102"/>
+  <dimension ref="A5:Q102"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -665,205 +665,218 @@
     <col min="1" max="1" width="6.85546875" style="1" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="26.85546875" style="1" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="69.140625" style="1" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="5" max="6" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="8" max="8" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="9" max="10" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="11" max="11" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="12" max="12" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="13" max="13" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="14" max="16" width="4.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="17" max="16384" width="9.140625" style="1"/>
+    <col min="4" max="4" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="6" max="7" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="10" max="11" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="12" max="12" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="13" max="13" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="14" max="14" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="15" max="17" width="4.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="18" max="16384" width="9.140625" style="1"/>
   </cols>
   <sheetData>
-    <row r="5" spans="1:16" x14ac:dyDescent="0.2">
+    <row r="5" spans="1:17" x14ac:dyDescent="0.2">
       <c r="A5" s="1" t="s">
         <v>0</v>
       </c>
     </row>
-    <row r="6" spans="1:16" x14ac:dyDescent="0.2">
+    <row r="6" spans="1:17" x14ac:dyDescent="0.2">
       <c r="B6" s="1" t="s">
         <v>1</v>
       </c>
     </row>
-    <row r="7" spans="1:16" x14ac:dyDescent="0.2">
+    <row r="7" spans="1:17" x14ac:dyDescent="0.2">
       <c r="C7" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D7" s="2">
+        <v>44742</v>
+      </c>
+      <c r="E7" s="2">
         <v>44651</v>
       </c>
-      <c r="E7" s="2">
+      <c r="F7" s="2">
         <v>44561</v>
       </c>
-      <c r="F7" s="2">
+      <c r="G7" s="2">
         <v>44469</v>
       </c>
-      <c r="G7" s="2">
+      <c r="H7" s="2">
         <v>44377</v>
       </c>
-      <c r="H7" s="2">
+      <c r="I7" s="2">
         <v>44286</v>
       </c>
-      <c r="I7" s="2">
+      <c r="J7" s="2">
         <v>44196</v>
       </c>
-      <c r="J7" s="2">
+      <c r="K7" s="2">
         <v>44104</v>
       </c>
-      <c r="K7" s="2">
+      <c r="L7" s="2">
         <v>44012</v>
       </c>
-      <c r="L7" s="2">
+      <c r="M7" s="2">
         <v>43921</v>
       </c>
-      <c r="M7" s="2">
+      <c r="N7" s="2">
         <v>43830</v>
       </c>
-      <c r="N7" s="2" t="s">
-        <v>3</v>
-      </c>
       <c r="O7" s="2" t="s">
         <v>3</v>
       </c>
       <c r="P7" s="2" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="8" spans="1:16" x14ac:dyDescent="0.2">
+      <c r="Q7" s="2" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="8" spans="1:17" x14ac:dyDescent="0.2">
       <c r="C8" s="1" t="s">
         <v>4</v>
       </c>
       <c r="D8" s="3">
-        <v>2228900</v>
+        <v>2601000</v>
       </c>
       <c r="E8" s="3">
-        <v>2250900</v>
+        <v>2239400</v>
       </c>
       <c r="F8" s="3">
-        <v>2112400</v>
+        <v>2261500</v>
       </c>
       <c r="G8" s="3">
-        <v>1957300</v>
+        <v>2122400</v>
       </c>
       <c r="H8" s="3">
-        <v>1840300</v>
+        <v>1966600</v>
       </c>
       <c r="I8" s="3">
-        <v>7020500</v>
+        <v>1849000</v>
       </c>
       <c r="J8" s="3">
+        <v>7053600</v>
+      </c>
+      <c r="K8" s="3">
         <v>1801700</v>
       </c>
-      <c r="K8" s="3">
+      <c r="L8" s="3">
         <v>1624200</v>
       </c>
-      <c r="L8" s="3">
+      <c r="M8" s="3">
         <v>1399200</v>
       </c>
-      <c r="M8" s="3">
+      <c r="N8" s="3">
         <v>1427100</v>
       </c>
-      <c r="N8" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="O8" s="3" t="s">
         <v>3</v>
       </c>
       <c r="P8" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="9" spans="1:16" x14ac:dyDescent="0.2">
+      <c r="Q8" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="9" spans="1:17" x14ac:dyDescent="0.2">
       <c r="C9" s="1" t="s">
         <v>5</v>
       </c>
       <c r="D9" s="3">
-        <v>1873200</v>
+        <v>2181300</v>
       </c>
       <c r="E9" s="3">
-        <v>1863500</v>
+        <v>1882000</v>
       </c>
       <c r="F9" s="3">
-        <v>1737000</v>
+        <v>1872300</v>
       </c>
       <c r="G9" s="3">
-        <v>1621900</v>
+        <v>1745300</v>
       </c>
       <c r="H9" s="3">
-        <v>1546700</v>
+        <v>1629600</v>
       </c>
       <c r="I9" s="3">
-        <v>5868500</v>
+        <v>1554100</v>
       </c>
       <c r="J9" s="3">
+        <v>5896200</v>
+      </c>
+      <c r="K9" s="3">
         <v>1502900</v>
       </c>
-      <c r="K9" s="3">
+      <c r="L9" s="3">
         <v>1360500</v>
       </c>
-      <c r="L9" s="3">
+      <c r="M9" s="3">
         <v>1182000</v>
       </c>
-      <c r="M9" s="3">
+      <c r="N9" s="3">
         <v>1189700</v>
       </c>
-      <c r="N9" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="O9" s="3" t="s">
         <v>3</v>
       </c>
       <c r="P9" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="10" spans="1:16" x14ac:dyDescent="0.2">
+      <c r="Q9" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="10" spans="1:17" x14ac:dyDescent="0.2">
       <c r="C10" s="1" t="s">
         <v>6</v>
       </c>
       <c r="D10" s="3">
-        <v>355700</v>
+        <v>419800</v>
       </c>
       <c r="E10" s="3">
-        <v>387400</v>
+        <v>357300</v>
       </c>
       <c r="F10" s="3">
-        <v>375300</v>
+        <v>389200</v>
       </c>
       <c r="G10" s="3">
-        <v>335400</v>
+        <v>377100</v>
       </c>
       <c r="H10" s="3">
-        <v>293500</v>
+        <v>337000</v>
       </c>
       <c r="I10" s="3">
-        <v>1151900</v>
+        <v>294900</v>
       </c>
       <c r="J10" s="3">
+        <v>1157400</v>
+      </c>
+      <c r="K10" s="3">
         <v>298800</v>
       </c>
-      <c r="K10" s="3">
+      <c r="L10" s="3">
         <v>263700</v>
       </c>
-      <c r="L10" s="3">
+      <c r="M10" s="3">
         <v>217300</v>
       </c>
-      <c r="M10" s="3">
+      <c r="N10" s="3">
         <v>237400</v>
       </c>
-      <c r="N10" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="O10" s="3" t="s">
         <v>3</v>
       </c>
       <c r="P10" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="11" spans="1:16" x14ac:dyDescent="0.2">
+      <c r="Q10" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="11" spans="1:17" x14ac:dyDescent="0.2">
       <c r="C11" s="1" t="s">
         <v>7</v>
       </c>
@@ -880,8 +893,9 @@
       <c r="N11" s="3"/>
       <c r="O11" s="3"/>
       <c r="P11" s="3"/>
-    </row>
-    <row r="12" spans="1:16" x14ac:dyDescent="0.2">
+      <c r="Q11" s="3"/>
+    </row>
+    <row r="12" spans="1:17" x14ac:dyDescent="0.2">
       <c r="C12" s="1" t="s">
         <v>8</v>
       </c>
@@ -924,8 +938,11 @@
       <c r="P12" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="13" spans="1:16" x14ac:dyDescent="0.2">
+      <c r="Q12" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="13" spans="1:17" x14ac:dyDescent="0.2">
       <c r="C13" s="1" t="s">
         <v>9</v>
       </c>
@@ -968,96 +985,105 @@
       <c r="P13" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="14" spans="1:16" x14ac:dyDescent="0.2">
+      <c r="Q13" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="14" spans="1:17" x14ac:dyDescent="0.2">
       <c r="C14" s="1" t="s">
         <v>10</v>
       </c>
       <c r="D14" s="3">
+        <v>3500</v>
+      </c>
+      <c r="E14" s="3">
         <v>1000</v>
       </c>
-      <c r="E14" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="F14" s="3">
+        <v>6100</v>
+      </c>
+      <c r="G14" s="3">
         <v>1200</v>
       </c>
-      <c r="G14" s="3">
+      <c r="H14" s="3">
         <v>6800</v>
       </c>
-      <c r="H14" s="3">
+      <c r="I14" s="3">
         <v>400</v>
       </c>
-      <c r="I14" s="3">
-        <v>43400</v>
-      </c>
       <c r="J14" s="3">
+        <v>43600</v>
+      </c>
+      <c r="K14" s="3">
         <v>3100</v>
       </c>
-      <c r="K14" s="3">
+      <c r="L14" s="3">
         <v>15000</v>
       </c>
-      <c r="L14" s="3">
+      <c r="M14" s="3">
         <v>7700</v>
       </c>
-      <c r="M14" s="3">
+      <c r="N14" s="3">
         <v>22100</v>
       </c>
-      <c r="N14" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="O14" s="3" t="s">
         <v>3</v>
       </c>
       <c r="P14" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="15" spans="1:16" x14ac:dyDescent="0.2">
+      <c r="Q14" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="15" spans="1:17" x14ac:dyDescent="0.2">
       <c r="C15" s="1" t="s">
         <v>11</v>
       </c>
       <c r="D15" s="3">
-        <v>39700</v>
+        <v>41700</v>
       </c>
       <c r="E15" s="3">
-        <v>34500</v>
+        <v>39900</v>
       </c>
       <c r="F15" s="3">
-        <v>31600</v>
+        <v>34600</v>
       </c>
       <c r="G15" s="3">
-        <v>30000</v>
+        <v>31700</v>
       </c>
       <c r="H15" s="3">
-        <v>28200</v>
+        <v>30100</v>
       </c>
       <c r="I15" s="3">
-        <v>98000</v>
+        <v>28400</v>
       </c>
       <c r="J15" s="3">
+        <v>98400</v>
+      </c>
+      <c r="K15" s="3">
         <v>25100</v>
       </c>
-      <c r="K15" s="3">
+      <c r="L15" s="3">
         <v>23800</v>
       </c>
-      <c r="L15" s="3">
+      <c r="M15" s="3">
         <v>20900</v>
       </c>
-      <c r="M15" s="3">
+      <c r="N15" s="3">
         <v>19100</v>
       </c>
-      <c r="N15" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="O15" s="3" t="s">
         <v>3</v>
       </c>
       <c r="P15" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="16" spans="1:16" x14ac:dyDescent="0.2">
+      <c r="Q15" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="16" spans="1:17" x14ac:dyDescent="0.2">
       <c r="D16" s="3"/>
       <c r="E16" s="3"/>
       <c r="F16" s="3"/>
@@ -1071,96 +1097,103 @@
       <c r="N16" s="3"/>
       <c r="O16" s="3"/>
       <c r="P16" s="3"/>
-    </row>
-    <row r="17" spans="3:16" x14ac:dyDescent="0.2">
+      <c r="Q16" s="3"/>
+    </row>
+    <row r="17" spans="3:17" x14ac:dyDescent="0.2">
       <c r="C17" s="1" t="s">
         <v>12</v>
       </c>
       <c r="D17" s="3">
-        <v>2126600</v>
-      </c>
-      <c r="E17" s="3" t="s">
-        <v>3</v>
+        <v>2462300</v>
+      </c>
+      <c r="E17" s="3">
+        <v>2136700</v>
       </c>
       <c r="F17" s="3">
-        <v>1956600</v>
+        <v>2124500</v>
       </c>
       <c r="G17" s="3">
-        <v>1841300</v>
+        <v>1965800</v>
       </c>
       <c r="H17" s="3">
-        <v>1746200</v>
+        <v>1850000</v>
       </c>
       <c r="I17" s="3">
-        <v>6617700</v>
+        <v>1754500</v>
       </c>
       <c r="J17" s="3">
+        <v>6648900</v>
+      </c>
+      <c r="K17" s="3">
         <v>1691300</v>
       </c>
-      <c r="K17" s="3">
+      <c r="L17" s="3">
         <v>1548500</v>
       </c>
-      <c r="L17" s="3">
+      <c r="M17" s="3">
         <v>1341000</v>
       </c>
-      <c r="M17" s="3">
+      <c r="N17" s="3">
         <v>1330900</v>
       </c>
-      <c r="N17" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="O17" s="3" t="s">
         <v>3</v>
       </c>
       <c r="P17" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="18" spans="3:16" x14ac:dyDescent="0.2">
+      <c r="Q17" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="18" spans="3:17" x14ac:dyDescent="0.2">
       <c r="C18" s="1" t="s">
         <v>13</v>
       </c>
       <c r="D18" s="3">
-        <v>102300</v>
-      </c>
-      <c r="E18" s="3" t="s">
-        <v>3</v>
+        <v>138800</v>
+      </c>
+      <c r="E18" s="3">
+        <v>102700</v>
       </c>
       <c r="F18" s="3">
-        <v>155800</v>
+        <v>137000</v>
       </c>
       <c r="G18" s="3">
-        <v>116100</v>
+        <v>156600</v>
       </c>
       <c r="H18" s="3">
-        <v>94100</v>
+        <v>116600</v>
       </c>
       <c r="I18" s="3">
-        <v>402800</v>
+        <v>94500</v>
       </c>
       <c r="J18" s="3">
+        <v>404700</v>
+      </c>
+      <c r="K18" s="3">
         <v>110400</v>
       </c>
-      <c r="K18" s="3">
+      <c r="L18" s="3">
         <v>75700</v>
       </c>
-      <c r="L18" s="3">
+      <c r="M18" s="3">
         <v>58200</v>
       </c>
-      <c r="M18" s="3">
+      <c r="N18" s="3">
         <v>96200</v>
       </c>
-      <c r="N18" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="O18" s="3" t="s">
         <v>3</v>
       </c>
       <c r="P18" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="19" spans="3:16" x14ac:dyDescent="0.2">
+      <c r="Q18" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="19" spans="3:17" x14ac:dyDescent="0.2">
       <c r="C19" s="1" t="s">
         <v>14</v>
       </c>
@@ -1177,219 +1210,232 @@
       <c r="N19" s="3"/>
       <c r="O19" s="3"/>
       <c r="P19" s="3"/>
-    </row>
-    <row r="20" spans="3:16" x14ac:dyDescent="0.2">
+      <c r="Q19" s="3"/>
+    </row>
+    <row r="20" spans="3:17" x14ac:dyDescent="0.2">
       <c r="C20" s="1" t="s">
         <v>15</v>
       </c>
       <c r="D20" s="3">
+        <v>-21500</v>
+      </c>
+      <c r="E20" s="3">
         <v>4900</v>
       </c>
-      <c r="E20" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="F20" s="3">
+        <v>3700</v>
+      </c>
+      <c r="G20" s="3">
         <v>8200</v>
       </c>
-      <c r="G20" s="3">
+      <c r="H20" s="3">
         <v>7000</v>
       </c>
-      <c r="H20" s="3">
+      <c r="I20" s="3">
         <v>1600</v>
       </c>
-      <c r="I20" s="3">
-        <v>48700</v>
-      </c>
       <c r="J20" s="3">
+        <v>48900</v>
+      </c>
+      <c r="K20" s="3">
         <v>2700</v>
       </c>
-      <c r="K20" s="3">
+      <c r="L20" s="3">
         <v>-15400</v>
       </c>
-      <c r="L20" s="3">
+      <c r="M20" s="3">
         <v>13200</v>
       </c>
-      <c r="M20" s="3">
+      <c r="N20" s="3">
         <v>3000</v>
       </c>
-      <c r="N20" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="O20" s="3" t="s">
         <v>3</v>
       </c>
       <c r="P20" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="21" spans="3:16" x14ac:dyDescent="0.2">
+      <c r="Q20" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="21" spans="3:17" x14ac:dyDescent="0.2">
       <c r="C21" s="1" t="s">
         <v>16</v>
       </c>
       <c r="D21" s="3">
-        <v>149800</v>
-      </c>
-      <c r="E21" s="3" t="s">
-        <v>3</v>
+        <v>163200</v>
+      </c>
+      <c r="E21" s="3">
+        <v>150500</v>
       </c>
       <c r="F21" s="3">
-        <v>198100</v>
+        <v>177500</v>
       </c>
       <c r="G21" s="3">
-        <v>155600</v>
+        <v>199000</v>
       </c>
       <c r="H21" s="3">
-        <v>126200</v>
+        <v>156400</v>
       </c>
       <c r="I21" s="3">
-        <v>718700</v>
+        <v>126800</v>
       </c>
       <c r="J21" s="3">
+        <v>722100</v>
+      </c>
+      <c r="K21" s="3">
         <v>182500</v>
       </c>
-      <c r="K21" s="3">
+      <c r="L21" s="3">
         <v>125700</v>
       </c>
-      <c r="L21" s="3">
+      <c r="M21" s="3">
         <v>127500</v>
       </c>
-      <c r="M21" s="3">
+      <c r="N21" s="3">
         <v>131400</v>
       </c>
-      <c r="N21" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="O21" s="3" t="s">
         <v>3</v>
       </c>
       <c r="P21" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="22" spans="3:16" x14ac:dyDescent="0.2">
+      <c r="Q21" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="22" spans="3:17" x14ac:dyDescent="0.2">
       <c r="C22" s="1" t="s">
         <v>17</v>
       </c>
       <c r="D22" s="3">
-        <v>63700</v>
-      </c>
-      <c r="E22" s="3" t="s">
-        <v>3</v>
+        <v>42700</v>
+      </c>
+      <c r="E22" s="3">
+        <v>64000</v>
       </c>
       <c r="F22" s="3">
-        <v>40100</v>
+        <v>59900</v>
       </c>
       <c r="G22" s="3">
-        <v>35300</v>
+        <v>40300</v>
       </c>
       <c r="H22" s="3">
-        <v>27700</v>
+        <v>35400</v>
       </c>
       <c r="I22" s="3">
-        <v>135000</v>
+        <v>27800</v>
       </c>
       <c r="J22" s="3">
+        <v>135600</v>
+      </c>
+      <c r="K22" s="3">
         <v>28000</v>
       </c>
-      <c r="K22" s="3">
+      <c r="L22" s="3">
         <v>10400</v>
       </c>
-      <c r="L22" s="3">
+      <c r="M22" s="3">
         <v>40900</v>
       </c>
-      <c r="M22" s="3">
+      <c r="N22" s="3">
         <v>35500</v>
       </c>
-      <c r="N22" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="O22" s="3" t="s">
         <v>3</v>
       </c>
       <c r="P22" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="23" spans="3:16" x14ac:dyDescent="0.2">
+      <c r="Q22" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="23" spans="3:17" x14ac:dyDescent="0.2">
       <c r="C23" s="1" t="s">
         <v>18</v>
       </c>
       <c r="D23" s="3">
-        <v>43400</v>
+        <v>74600</v>
       </c>
       <c r="E23" s="3">
-        <v>80400</v>
+        <v>43600</v>
       </c>
       <c r="F23" s="3">
-        <v>123900</v>
+        <v>80800</v>
       </c>
       <c r="G23" s="3">
-        <v>87800</v>
+        <v>124500</v>
       </c>
       <c r="H23" s="3">
-        <v>68000</v>
+        <v>88300</v>
       </c>
       <c r="I23" s="3">
-        <v>316500</v>
+        <v>68300</v>
       </c>
       <c r="J23" s="3">
+        <v>318000</v>
+      </c>
+      <c r="K23" s="3">
         <v>85100</v>
       </c>
-      <c r="K23" s="3">
+      <c r="L23" s="3">
         <v>49900</v>
       </c>
-      <c r="L23" s="3">
+      <c r="M23" s="3">
         <v>30500</v>
       </c>
-      <c r="M23" s="3">
+      <c r="N23" s="3">
         <v>63700</v>
       </c>
-      <c r="N23" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="O23" s="3" t="s">
         <v>3</v>
       </c>
       <c r="P23" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="24" spans="3:16" x14ac:dyDescent="0.2">
+      <c r="Q23" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="24" spans="3:17" x14ac:dyDescent="0.2">
       <c r="C24" s="1" t="s">
         <v>19</v>
       </c>
       <c r="D24" s="3">
+        <v>12100</v>
+      </c>
+      <c r="E24" s="3">
         <v>1800</v>
       </c>
-      <c r="E24" s="3">
-        <v>-22200</v>
-      </c>
       <c r="F24" s="3">
-        <v>19100</v>
+        <v>-22300</v>
       </c>
       <c r="G24" s="3">
-        <v>28400</v>
+        <v>19200</v>
       </c>
       <c r="H24" s="3">
-        <v>21200</v>
+        <v>28600</v>
       </c>
       <c r="I24" s="3">
-        <v>84900</v>
+        <v>21300</v>
       </c>
       <c r="J24" s="3">
+        <v>85300</v>
+      </c>
+      <c r="K24" s="3">
         <v>7000</v>
       </c>
-      <c r="K24" s="3">
+      <c r="L24" s="3">
         <v>16600</v>
-      </c>
-      <c r="L24" s="3">
-        <v>9800</v>
       </c>
       <c r="M24" s="3">
         <v>9800</v>
       </c>
-      <c r="N24" s="3" t="s">
-        <v>3</v>
+      <c r="N24" s="3">
+        <v>9800</v>
       </c>
       <c r="O24" s="3" t="s">
         <v>3</v>
@@ -1397,8 +1443,11 @@
       <c r="P24" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="25" spans="3:16" x14ac:dyDescent="0.2">
+      <c r="Q24" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="25" spans="3:17" x14ac:dyDescent="0.2">
       <c r="C25" s="1" t="s">
         <v>20</v>
       </c>
@@ -1441,96 +1490,105 @@
       <c r="P25" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="26" spans="3:16" x14ac:dyDescent="0.2">
+      <c r="Q25" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="26" spans="3:17" x14ac:dyDescent="0.2">
       <c r="C26" s="1" t="s">
         <v>21</v>
       </c>
       <c r="D26" s="3">
-        <v>41700</v>
-      </c>
-      <c r="E26" s="3" t="s">
-        <v>3</v>
+        <v>62400</v>
+      </c>
+      <c r="E26" s="3">
+        <v>41900</v>
       </c>
       <c r="F26" s="3">
-        <v>104800</v>
+        <v>103100</v>
       </c>
       <c r="G26" s="3">
-        <v>59400</v>
+        <v>105300</v>
       </c>
       <c r="H26" s="3">
-        <v>46700</v>
+        <v>59700</v>
       </c>
       <c r="I26" s="3">
-        <v>231600</v>
+        <v>47000</v>
       </c>
       <c r="J26" s="3">
+        <v>232700</v>
+      </c>
+      <c r="K26" s="3">
         <v>78100</v>
       </c>
-      <c r="K26" s="3">
+      <c r="L26" s="3">
         <v>33300</v>
       </c>
-      <c r="L26" s="3">
+      <c r="M26" s="3">
         <v>20700</v>
       </c>
-      <c r="M26" s="3">
+      <c r="N26" s="3">
         <v>53900</v>
       </c>
-      <c r="N26" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="O26" s="3" t="s">
         <v>3</v>
       </c>
       <c r="P26" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="27" spans="3:16" x14ac:dyDescent="0.2">
+      <c r="Q26" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="27" spans="3:17" x14ac:dyDescent="0.2">
       <c r="C27" s="1" t="s">
         <v>22</v>
       </c>
       <c r="D27" s="3">
-        <v>41700</v>
-      </c>
-      <c r="E27" s="3" t="s">
-        <v>3</v>
+        <v>62400</v>
+      </c>
+      <c r="E27" s="3">
+        <v>41900</v>
       </c>
       <c r="F27" s="3">
-        <v>104800</v>
+        <v>103100</v>
       </c>
       <c r="G27" s="3">
-        <v>59400</v>
+        <v>105300</v>
       </c>
       <c r="H27" s="3">
-        <v>46700</v>
+        <v>59700</v>
       </c>
       <c r="I27" s="3">
-        <v>200800</v>
+        <v>47000</v>
       </c>
       <c r="J27" s="3">
+        <v>201800</v>
+      </c>
+      <c r="K27" s="3">
         <v>69500</v>
       </c>
-      <c r="K27" s="3">
+      <c r="L27" s="3">
         <v>23100</v>
       </c>
-      <c r="L27" s="3">
+      <c r="M27" s="3">
         <v>16800</v>
       </c>
-      <c r="M27" s="3">
+      <c r="N27" s="3">
         <v>51600</v>
       </c>
-      <c r="N27" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="O27" s="3" t="s">
         <v>3</v>
       </c>
       <c r="P27" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="28" spans="3:16" x14ac:dyDescent="0.2">
+      <c r="Q27" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="28" spans="3:17" x14ac:dyDescent="0.2">
       <c r="C28" s="1" t="s">
         <v>23</v>
       </c>
@@ -1573,52 +1631,58 @@
       <c r="P28" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="29" spans="3:16" x14ac:dyDescent="0.2">
+      <c r="Q28" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="29" spans="3:17" x14ac:dyDescent="0.2">
       <c r="C29" s="1" t="s">
         <v>24</v>
       </c>
       <c r="D29" s="3" t="s">
         <v>3</v>
       </c>
-      <c r="E29" s="3">
-        <v>0</v>
+      <c r="E29" s="3" t="s">
+        <v>3</v>
       </c>
       <c r="F29" s="3" t="s">
         <v>3</v>
       </c>
-      <c r="G29" s="3">
-        <v>0</v>
+      <c r="G29" s="3" t="s">
+        <v>3</v>
       </c>
       <c r="H29" s="3">
         <v>0</v>
       </c>
       <c r="I29" s="3">
-        <v>71500</v>
+        <v>0</v>
       </c>
       <c r="J29" s="3">
+        <v>71800</v>
+      </c>
+      <c r="K29" s="3">
         <v>15600</v>
       </c>
-      <c r="K29" s="3">
+      <c r="L29" s="3">
         <v>11400</v>
       </c>
-      <c r="L29" s="3">
+      <c r="M29" s="3">
         <v>1100</v>
       </c>
-      <c r="M29" s="3">
+      <c r="N29" s="3">
         <v>-2900</v>
       </c>
-      <c r="N29" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="O29" s="3" t="s">
         <v>3</v>
       </c>
       <c r="P29" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="30" spans="3:16" x14ac:dyDescent="0.2">
+      <c r="Q29" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="30" spans="3:17" x14ac:dyDescent="0.2">
       <c r="C30" s="1" t="s">
         <v>25</v>
       </c>
@@ -1661,8 +1725,11 @@
       <c r="P30" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="31" spans="3:16" x14ac:dyDescent="0.2">
+      <c r="Q30" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="31" spans="3:17" x14ac:dyDescent="0.2">
       <c r="C31" s="1" t="s">
         <v>26</v>
       </c>
@@ -1705,96 +1772,105 @@
       <c r="P31" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="32" spans="3:16" x14ac:dyDescent="0.2">
+      <c r="Q31" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="32" spans="3:17" x14ac:dyDescent="0.2">
       <c r="C32" s="1" t="s">
         <v>27</v>
       </c>
       <c r="D32" s="3">
+        <v>21500</v>
+      </c>
+      <c r="E32" s="3">
         <v>-4900</v>
       </c>
-      <c r="E32" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="F32" s="3">
+        <v>-3700</v>
+      </c>
+      <c r="G32" s="3">
         <v>-8200</v>
       </c>
-      <c r="G32" s="3">
+      <c r="H32" s="3">
         <v>-7000</v>
       </c>
-      <c r="H32" s="3">
+      <c r="I32" s="3">
         <v>-1600</v>
       </c>
-      <c r="I32" s="3">
-        <v>-48700</v>
-      </c>
       <c r="J32" s="3">
+        <v>-48900</v>
+      </c>
+      <c r="K32" s="3">
         <v>-2700</v>
       </c>
-      <c r="K32" s="3">
+      <c r="L32" s="3">
         <v>15400</v>
       </c>
-      <c r="L32" s="3">
+      <c r="M32" s="3">
         <v>-13200</v>
       </c>
-      <c r="M32" s="3">
+      <c r="N32" s="3">
         <v>-3000</v>
       </c>
-      <c r="N32" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="O32" s="3" t="s">
         <v>3</v>
       </c>
       <c r="P32" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="33" spans="2:16" x14ac:dyDescent="0.2">
+      <c r="Q32" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="33" spans="2:17" x14ac:dyDescent="0.2">
       <c r="C33" s="1" t="s">
         <v>28</v>
       </c>
       <c r="D33" s="3">
-        <v>41700</v>
-      </c>
-      <c r="E33" s="3" t="s">
-        <v>3</v>
+        <v>62400</v>
+      </c>
+      <c r="E33" s="3">
+        <v>41900</v>
       </c>
       <c r="F33" s="3">
-        <v>104800</v>
+        <v>103100</v>
       </c>
       <c r="G33" s="3">
-        <v>59400</v>
+        <v>105300</v>
       </c>
       <c r="H33" s="3">
-        <v>46700</v>
+        <v>59700</v>
       </c>
       <c r="I33" s="3">
-        <v>272300</v>
+        <v>47000</v>
       </c>
       <c r="J33" s="3">
+        <v>273600</v>
+      </c>
+      <c r="K33" s="3">
         <v>85100</v>
       </c>
-      <c r="K33" s="3">
+      <c r="L33" s="3">
         <v>34500</v>
       </c>
-      <c r="L33" s="3">
+      <c r="M33" s="3">
         <v>17900</v>
       </c>
-      <c r="M33" s="3">
+      <c r="N33" s="3">
         <v>48700</v>
       </c>
-      <c r="N33" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="O33" s="3" t="s">
         <v>3</v>
       </c>
       <c r="P33" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="34" spans="2:16" x14ac:dyDescent="0.2">
+      <c r="Q33" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="34" spans="2:17" x14ac:dyDescent="0.2">
       <c r="C34" s="1" t="s">
         <v>29</v>
       </c>
@@ -1837,101 +1913,110 @@
       <c r="P34" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="35" spans="2:16" x14ac:dyDescent="0.2">
+      <c r="Q34" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="35" spans="2:17" x14ac:dyDescent="0.2">
       <c r="C35" s="1" t="s">
         <v>30</v>
       </c>
       <c r="D35" s="3">
-        <v>41700</v>
-      </c>
-      <c r="E35" s="3" t="s">
-        <v>3</v>
+        <v>62400</v>
+      </c>
+      <c r="E35" s="3">
+        <v>41900</v>
       </c>
       <c r="F35" s="3">
-        <v>104800</v>
+        <v>103100</v>
       </c>
       <c r="G35" s="3">
-        <v>59400</v>
+        <v>105300</v>
       </c>
       <c r="H35" s="3">
-        <v>46700</v>
+        <v>59700</v>
       </c>
       <c r="I35" s="3">
-        <v>272300</v>
+        <v>47000</v>
       </c>
       <c r="J35" s="3">
+        <v>273600</v>
+      </c>
+      <c r="K35" s="3">
         <v>85100</v>
       </c>
-      <c r="K35" s="3">
+      <c r="L35" s="3">
         <v>34500</v>
       </c>
-      <c r="L35" s="3">
+      <c r="M35" s="3">
         <v>17900</v>
       </c>
-      <c r="M35" s="3">
+      <c r="N35" s="3">
         <v>48700</v>
       </c>
-      <c r="N35" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="O35" s="3" t="s">
         <v>3</v>
       </c>
       <c r="P35" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="37" spans="2:16" x14ac:dyDescent="0.2">
+      <c r="Q35" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="37" spans="2:17" x14ac:dyDescent="0.2">
       <c r="B37" s="1" t="s">
         <v>31</v>
       </c>
     </row>
-    <row r="38" spans="2:16" x14ac:dyDescent="0.2">
+    <row r="38" spans="2:17" x14ac:dyDescent="0.2">
       <c r="C38" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D38" s="2">
+        <v>44742</v>
+      </c>
+      <c r="E38" s="2">
         <v>44651</v>
       </c>
-      <c r="E38" s="2">
+      <c r="F38" s="2">
         <v>44561</v>
       </c>
-      <c r="F38" s="2">
+      <c r="G38" s="2">
         <v>44469</v>
       </c>
-      <c r="G38" s="2">
+      <c r="H38" s="2">
         <v>44377</v>
       </c>
-      <c r="H38" s="2">
+      <c r="I38" s="2">
         <v>44286</v>
       </c>
-      <c r="I38" s="2">
+      <c r="J38" s="2">
         <v>44196</v>
       </c>
-      <c r="J38" s="2">
+      <c r="K38" s="2">
         <v>44104</v>
       </c>
-      <c r="K38" s="2">
+      <c r="L38" s="2">
         <v>44012</v>
       </c>
-      <c r="L38" s="2">
+      <c r="M38" s="2">
         <v>43921</v>
       </c>
-      <c r="M38" s="2">
+      <c r="N38" s="2">
         <v>43830</v>
       </c>
-      <c r="N38" s="2" t="s">
-        <v>3</v>
-      </c>
       <c r="O38" s="2" t="s">
         <v>3</v>
       </c>
       <c r="P38" s="2" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="39" spans="2:16" x14ac:dyDescent="0.2">
+      <c r="Q38" s="2" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="39" spans="2:17" x14ac:dyDescent="0.2">
       <c r="C39" s="1" t="s">
         <v>32</v>
       </c>
@@ -1948,8 +2033,9 @@
       <c r="N39" s="3"/>
       <c r="O39" s="3"/>
       <c r="P39" s="3"/>
-    </row>
-    <row r="40" spans="2:16" x14ac:dyDescent="0.2">
+      <c r="Q39" s="3"/>
+    </row>
+    <row r="40" spans="2:17" x14ac:dyDescent="0.2">
       <c r="C40" s="1" t="s">
         <v>33</v>
       </c>
@@ -1966,43 +2052,44 @@
       <c r="N40" s="3"/>
       <c r="O40" s="3"/>
       <c r="P40" s="3"/>
-    </row>
-    <row r="41" spans="2:16" x14ac:dyDescent="0.2">
+      <c r="Q40" s="3"/>
+    </row>
+    <row r="41" spans="2:17" x14ac:dyDescent="0.2">
       <c r="C41" s="1" t="s">
         <v>34</v>
       </c>
       <c r="D41" s="3">
-        <v>854900</v>
-      </c>
-      <c r="E41" s="3" t="s">
-        <v>3</v>
+        <v>608200</v>
+      </c>
+      <c r="E41" s="3">
+        <v>858900</v>
       </c>
       <c r="F41" s="3">
-        <v>18900</v>
+        <v>499000</v>
       </c>
       <c r="G41" s="3">
-        <v>18100</v>
+        <v>563800</v>
       </c>
       <c r="H41" s="3">
-        <v>19500</v>
+        <v>882800</v>
       </c>
       <c r="I41" s="3">
-        <v>18100</v>
+        <v>540900</v>
       </c>
       <c r="J41" s="3">
+        <v>691200</v>
+      </c>
+      <c r="K41" s="3">
         <v>343000</v>
       </c>
-      <c r="K41" s="3">
+      <c r="L41" s="3">
         <v>461300</v>
       </c>
-      <c r="L41" s="3">
+      <c r="M41" s="3">
         <v>484000</v>
       </c>
-      <c r="M41" s="3" t="s">
-        <v>3</v>
-      </c>
-      <c r="N41" s="3">
-        <v>0</v>
+      <c r="N41" s="3" t="s">
+        <v>3</v>
       </c>
       <c r="O41" s="3">
         <v>0</v>
@@ -2010,43 +2097,46 @@
       <c r="P41" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="42" spans="2:16" x14ac:dyDescent="0.2">
+      <c r="Q41" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="42" spans="2:17" x14ac:dyDescent="0.2">
       <c r="C42" s="1" t="s">
         <v>35</v>
       </c>
-      <c r="D42" s="3" t="s">
-        <v>3</v>
-      </c>
-      <c r="E42" s="3" t="s">
-        <v>3</v>
+      <c r="D42" s="3">
+        <v>0</v>
+      </c>
+      <c r="E42" s="3">
+        <v>0</v>
       </c>
       <c r="F42" s="3">
-        <v>542300</v>
+        <v>0</v>
       </c>
       <c r="G42" s="3">
-        <v>860500</v>
+        <v>0</v>
       </c>
       <c r="H42" s="3">
-        <v>518900</v>
+        <v>0</v>
       </c>
       <c r="I42" s="3">
-        <v>669800</v>
+        <v>0</v>
       </c>
       <c r="J42" s="3">
+        <v>0</v>
+      </c>
+      <c r="K42" s="3">
         <v>416200</v>
       </c>
-      <c r="K42" s="3">
+      <c r="L42" s="3">
         <v>448700</v>
       </c>
-      <c r="L42" s="3">
+      <c r="M42" s="3">
         <v>190300</v>
       </c>
-      <c r="M42" s="3" t="s">
-        <v>3</v>
-      </c>
-      <c r="N42" s="3">
-        <v>0</v>
+      <c r="N42" s="3" t="s">
+        <v>3</v>
       </c>
       <c r="O42" s="3">
         <v>0</v>
@@ -2054,43 +2144,46 @@
       <c r="P42" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="43" spans="2:16" x14ac:dyDescent="0.2">
+      <c r="Q42" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="43" spans="2:17" x14ac:dyDescent="0.2">
       <c r="C43" s="1" t="s">
         <v>36</v>
       </c>
       <c r="D43" s="3">
-        <v>301300</v>
-      </c>
-      <c r="E43" s="3" t="s">
-        <v>3</v>
+        <v>266200</v>
+      </c>
+      <c r="E43" s="3">
+        <v>302700</v>
       </c>
       <c r="F43" s="3">
-        <v>252600</v>
+        <v>234800</v>
       </c>
       <c r="G43" s="3">
-        <v>184500</v>
+        <v>253800</v>
       </c>
       <c r="H43" s="3">
-        <v>154900</v>
+        <v>185300</v>
       </c>
       <c r="I43" s="3">
-        <v>191700</v>
+        <v>155600</v>
       </c>
       <c r="J43" s="3">
+        <v>192600</v>
+      </c>
+      <c r="K43" s="3">
         <v>353300</v>
       </c>
-      <c r="K43" s="3">
+      <c r="L43" s="3">
         <v>375600</v>
       </c>
-      <c r="L43" s="3">
+      <c r="M43" s="3">
         <v>280100</v>
       </c>
-      <c r="M43" s="3" t="s">
-        <v>3</v>
-      </c>
-      <c r="N43" s="3">
-        <v>0</v>
+      <c r="N43" s="3" t="s">
+        <v>3</v>
       </c>
       <c r="O43" s="3">
         <v>0</v>
@@ -2098,43 +2191,46 @@
       <c r="P43" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="44" spans="2:16" x14ac:dyDescent="0.2">
+      <c r="Q43" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="44" spans="2:17" x14ac:dyDescent="0.2">
       <c r="C44" s="1" t="s">
         <v>37</v>
       </c>
       <c r="D44" s="3">
-        <v>943700</v>
-      </c>
-      <c r="E44" s="3" t="s">
-        <v>3</v>
+        <v>1098100</v>
+      </c>
+      <c r="E44" s="3">
+        <v>948200</v>
       </c>
       <c r="F44" s="3">
-        <v>868700</v>
+        <v>857200</v>
       </c>
       <c r="G44" s="3">
-        <v>718300</v>
+        <v>872800</v>
       </c>
       <c r="H44" s="3">
-        <v>669300</v>
+        <v>721700</v>
       </c>
       <c r="I44" s="3">
-        <v>728300</v>
+        <v>672400</v>
       </c>
       <c r="J44" s="3">
+        <v>731700</v>
+      </c>
+      <c r="K44" s="3">
         <v>1243300</v>
       </c>
-      <c r="K44" s="3">
+      <c r="L44" s="3">
         <v>1113600</v>
       </c>
-      <c r="L44" s="3">
+      <c r="M44" s="3">
         <v>1036500</v>
       </c>
-      <c r="M44" s="3" t="s">
-        <v>3</v>
-      </c>
-      <c r="N44" s="3">
-        <v>0</v>
+      <c r="N44" s="3" t="s">
+        <v>3</v>
       </c>
       <c r="O44" s="3">
         <v>0</v>
@@ -2142,43 +2238,46 @@
       <c r="P44" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="45" spans="2:16" x14ac:dyDescent="0.2">
+      <c r="Q44" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="45" spans="2:17" x14ac:dyDescent="0.2">
       <c r="C45" s="1" t="s">
         <v>38</v>
       </c>
       <c r="D45" s="3">
-        <v>290000</v>
-      </c>
-      <c r="E45" s="3" t="s">
-        <v>3</v>
+        <v>77700</v>
+      </c>
+      <c r="E45" s="3">
+        <v>291400</v>
       </c>
       <c r="F45" s="3">
-        <v>47300</v>
+        <v>125600</v>
       </c>
       <c r="G45" s="3">
-        <v>43800</v>
+        <v>47600</v>
       </c>
       <c r="H45" s="3">
-        <v>17500</v>
+        <v>44000</v>
       </c>
       <c r="I45" s="3">
-        <v>18300</v>
+        <v>17600</v>
       </c>
       <c r="J45" s="3">
+        <v>18400</v>
+      </c>
+      <c r="K45" s="3">
         <v>62900</v>
       </c>
-      <c r="K45" s="3">
+      <c r="L45" s="3">
         <v>84900</v>
       </c>
-      <c r="L45" s="3">
+      <c r="M45" s="3">
         <v>154400</v>
       </c>
-      <c r="M45" s="3" t="s">
-        <v>3</v>
-      </c>
-      <c r="N45" s="3">
-        <v>0</v>
+      <c r="N45" s="3" t="s">
+        <v>3</v>
       </c>
       <c r="O45" s="3">
         <v>0</v>
@@ -2186,43 +2285,46 @@
       <c r="P45" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="46" spans="2:16" x14ac:dyDescent="0.2">
+      <c r="Q45" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="46" spans="2:17" x14ac:dyDescent="0.2">
       <c r="C46" s="1" t="s">
         <v>39</v>
       </c>
       <c r="D46" s="3">
-        <v>2390000</v>
-      </c>
-      <c r="E46" s="3" t="s">
-        <v>3</v>
+        <v>2050200</v>
+      </c>
+      <c r="E46" s="3">
+        <v>2401200</v>
       </c>
       <c r="F46" s="3">
-        <v>1729800</v>
+        <v>1716700</v>
       </c>
       <c r="G46" s="3">
-        <v>1825300</v>
+        <v>1738000</v>
       </c>
       <c r="H46" s="3">
-        <v>1380000</v>
+        <v>1833900</v>
       </c>
       <c r="I46" s="3">
-        <v>1626200</v>
+        <v>1386500</v>
       </c>
       <c r="J46" s="3">
+        <v>1633900</v>
+      </c>
+      <c r="K46" s="3">
         <v>2418800</v>
       </c>
-      <c r="K46" s="3">
+      <c r="L46" s="3">
         <v>2484100</v>
       </c>
-      <c r="L46" s="3">
+      <c r="M46" s="3">
         <v>2145300</v>
       </c>
-      <c r="M46" s="3" t="s">
-        <v>3</v>
-      </c>
-      <c r="N46" s="3">
-        <v>0</v>
+      <c r="N46" s="3" t="s">
+        <v>3</v>
       </c>
       <c r="O46" s="3">
         <v>0</v>
@@ -2230,43 +2332,46 @@
       <c r="P46" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="47" spans="2:16" x14ac:dyDescent="0.2">
+      <c r="Q46" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="47" spans="2:17" x14ac:dyDescent="0.2">
       <c r="C47" s="1" t="s">
         <v>40</v>
       </c>
       <c r="D47" s="3">
-        <v>455800</v>
-      </c>
-      <c r="E47" s="3" t="s">
-        <v>3</v>
+        <v>463600</v>
+      </c>
+      <c r="E47" s="3">
+        <v>457900</v>
       </c>
       <c r="F47" s="3">
-        <v>347100</v>
+        <v>327400</v>
       </c>
       <c r="G47" s="3">
-        <v>340500</v>
+        <v>348700</v>
       </c>
       <c r="H47" s="3">
-        <v>340900</v>
+        <v>342100</v>
       </c>
       <c r="I47" s="3">
-        <v>353100</v>
+        <v>342500</v>
       </c>
       <c r="J47" s="3">
+        <v>354800</v>
+      </c>
+      <c r="K47" s="3">
         <v>285200</v>
       </c>
-      <c r="K47" s="3">
+      <c r="L47" s="3">
         <v>291300</v>
       </c>
-      <c r="L47" s="3">
+      <c r="M47" s="3">
         <v>297400</v>
       </c>
-      <c r="M47" s="3" t="s">
-        <v>3</v>
-      </c>
-      <c r="N47" s="3">
-        <v>0</v>
+      <c r="N47" s="3" t="s">
+        <v>3</v>
       </c>
       <c r="O47" s="3">
         <v>0</v>
@@ -2274,43 +2379,46 @@
       <c r="P47" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="48" spans="2:16" x14ac:dyDescent="0.2">
+      <c r="Q47" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="48" spans="2:17" x14ac:dyDescent="0.2">
       <c r="C48" s="1" t="s">
         <v>41</v>
       </c>
       <c r="D48" s="3">
-        <v>2503900</v>
-      </c>
-      <c r="E48" s="3" t="s">
-        <v>3</v>
+        <v>3029200</v>
+      </c>
+      <c r="E48" s="3">
+        <v>2515700</v>
       </c>
       <c r="F48" s="3">
-        <v>1733000</v>
+        <v>2019600</v>
       </c>
       <c r="G48" s="3">
-        <v>1589400</v>
+        <v>1741100</v>
       </c>
       <c r="H48" s="3">
-        <v>1480900</v>
+        <v>1596900</v>
       </c>
       <c r="I48" s="3">
-        <v>1456200</v>
+        <v>1487900</v>
       </c>
       <c r="J48" s="3">
+        <v>1463100</v>
+      </c>
+      <c r="K48" s="3">
         <v>4076200</v>
       </c>
-      <c r="K48" s="3">
+      <c r="L48" s="3">
         <v>4057500</v>
       </c>
-      <c r="L48" s="3">
+      <c r="M48" s="3">
         <v>3266400</v>
       </c>
-      <c r="M48" s="3" t="s">
-        <v>3</v>
-      </c>
-      <c r="N48" s="3">
-        <v>0</v>
+      <c r="N48" s="3" t="s">
+        <v>3</v>
       </c>
       <c r="O48" s="3">
         <v>0</v>
@@ -2318,43 +2426,46 @@
       <c r="P48" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="49" spans="3:16" x14ac:dyDescent="0.2">
+      <c r="Q48" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="49" spans="3:17" x14ac:dyDescent="0.2">
       <c r="C49" s="1" t="s">
         <v>42</v>
       </c>
       <c r="D49" s="3">
-        <v>929100</v>
-      </c>
-      <c r="E49" s="3" t="s">
-        <v>3</v>
+        <v>943300</v>
+      </c>
+      <c r="E49" s="3">
+        <v>933500</v>
       </c>
       <c r="F49" s="3">
-        <v>206500</v>
+        <v>369300</v>
       </c>
       <c r="G49" s="3">
-        <v>203900</v>
+        <v>207400</v>
       </c>
       <c r="H49" s="3">
-        <v>202000</v>
+        <v>204900</v>
       </c>
       <c r="I49" s="3">
-        <v>202000</v>
+        <v>202900</v>
       </c>
       <c r="J49" s="3">
+        <v>202900</v>
+      </c>
+      <c r="K49" s="3">
         <v>964700</v>
       </c>
-      <c r="K49" s="3">
+      <c r="L49" s="3">
         <v>971300</v>
       </c>
-      <c r="L49" s="3">
+      <c r="M49" s="3">
         <v>796000</v>
       </c>
-      <c r="M49" s="3" t="s">
-        <v>3</v>
-      </c>
-      <c r="N49" s="3">
-        <v>0</v>
+      <c r="N49" s="3" t="s">
+        <v>3</v>
       </c>
       <c r="O49" s="3">
         <v>0</v>
@@ -2362,8 +2473,11 @@
       <c r="P49" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="50" spans="3:16" x14ac:dyDescent="0.2">
+      <c r="Q49" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="50" spans="3:17" x14ac:dyDescent="0.2">
       <c r="C50" s="1" t="s">
         <v>43</v>
       </c>
@@ -2406,8 +2520,11 @@
       <c r="P50" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="51" spans="3:16" x14ac:dyDescent="0.2">
+      <c r="Q50" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="51" spans="3:17" x14ac:dyDescent="0.2">
       <c r="C51" s="1" t="s">
         <v>44</v>
       </c>
@@ -2450,43 +2567,46 @@
       <c r="P51" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="52" spans="3:16" x14ac:dyDescent="0.2">
+      <c r="Q51" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="52" spans="3:17" x14ac:dyDescent="0.2">
       <c r="C52" s="1" t="s">
         <v>45</v>
       </c>
       <c r="D52" s="3">
-        <v>49100</v>
+        <v>57100</v>
       </c>
       <c r="E52" s="3">
-        <v>0</v>
+        <v>49300</v>
       </c>
       <c r="F52" s="3">
-        <v>29000</v>
+        <v>39500</v>
       </c>
       <c r="G52" s="3">
-        <v>30200</v>
+        <v>29200</v>
       </c>
       <c r="H52" s="3">
-        <v>27500</v>
+        <v>30300</v>
       </c>
       <c r="I52" s="3">
-        <v>28400</v>
+        <v>27600</v>
       </c>
       <c r="J52" s="3">
+        <v>28600</v>
+      </c>
+      <c r="K52" s="3">
         <v>41100</v>
       </c>
-      <c r="K52" s="3">
+      <c r="L52" s="3">
         <v>39800</v>
       </c>
-      <c r="L52" s="3">
+      <c r="M52" s="3">
         <v>39300</v>
       </c>
-      <c r="M52" s="3" t="s">
-        <v>3</v>
-      </c>
-      <c r="N52" s="3">
-        <v>0</v>
+      <c r="N52" s="3" t="s">
+        <v>3</v>
       </c>
       <c r="O52" s="3">
         <v>0</v>
@@ -2494,8 +2614,11 @@
       <c r="P52" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="53" spans="3:16" x14ac:dyDescent="0.2">
+      <c r="Q52" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="53" spans="3:17" x14ac:dyDescent="0.2">
       <c r="C53" s="1" t="s">
         <v>46</v>
       </c>
@@ -2538,43 +2661,46 @@
       <c r="P53" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="54" spans="3:16" x14ac:dyDescent="0.2">
+      <c r="Q53" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="54" spans="3:17" x14ac:dyDescent="0.2">
       <c r="C54" s="1" t="s">
         <v>47</v>
       </c>
       <c r="D54" s="3">
-        <v>6327800</v>
-      </c>
-      <c r="E54" s="3" t="s">
-        <v>3</v>
+        <v>6543400</v>
+      </c>
+      <c r="E54" s="3">
+        <v>6357700</v>
       </c>
       <c r="F54" s="3">
-        <v>4045400</v>
+        <v>4472500</v>
       </c>
       <c r="G54" s="3">
-        <v>3989300</v>
+        <v>4064500</v>
       </c>
       <c r="H54" s="3">
-        <v>3431200</v>
+        <v>4008100</v>
       </c>
       <c r="I54" s="3">
-        <v>3666000</v>
+        <v>3447500</v>
       </c>
       <c r="J54" s="3">
+        <v>3683300</v>
+      </c>
+      <c r="K54" s="3">
         <v>7785900</v>
       </c>
-      <c r="K54" s="3">
+      <c r="L54" s="3">
         <v>7844000</v>
       </c>
-      <c r="L54" s="3">
+      <c r="M54" s="3">
         <v>6544400</v>
       </c>
-      <c r="M54" s="3" t="s">
-        <v>3</v>
-      </c>
-      <c r="N54" s="3">
-        <v>0</v>
+      <c r="N54" s="3" t="s">
+        <v>3</v>
       </c>
       <c r="O54" s="3">
         <v>0</v>
@@ -2582,8 +2708,11 @@
       <c r="P54" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="55" spans="3:16" x14ac:dyDescent="0.2">
+      <c r="Q54" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="55" spans="3:17" x14ac:dyDescent="0.2">
       <c r="C55" s="1" t="s">
         <v>48</v>
       </c>
@@ -2600,8 +2729,9 @@
       <c r="N55" s="3"/>
       <c r="O55" s="3"/>
       <c r="P55" s="3"/>
-    </row>
-    <row r="56" spans="3:16" x14ac:dyDescent="0.2">
+      <c r="Q55" s="3"/>
+    </row>
+    <row r="56" spans="3:17" x14ac:dyDescent="0.2">
       <c r="C56" s="1" t="s">
         <v>49</v>
       </c>
@@ -2618,43 +2748,44 @@
       <c r="N56" s="3"/>
       <c r="O56" s="3"/>
       <c r="P56" s="3"/>
-    </row>
-    <row r="57" spans="3:16" x14ac:dyDescent="0.2">
+      <c r="Q56" s="3"/>
+    </row>
+    <row r="57" spans="3:17" x14ac:dyDescent="0.2">
       <c r="C57" s="1" t="s">
         <v>50</v>
       </c>
       <c r="D57" s="3">
-        <v>1822400</v>
+        <v>1797300</v>
       </c>
       <c r="E57" s="3">
-        <v>1229100</v>
+        <v>1831000</v>
       </c>
       <c r="F57" s="3">
-        <v>1055700</v>
+        <v>1234900</v>
       </c>
       <c r="G57" s="3">
-        <v>897700</v>
+        <v>1060700</v>
       </c>
       <c r="H57" s="3">
-        <v>819800</v>
+        <v>902000</v>
       </c>
       <c r="I57" s="3">
-        <v>993200</v>
+        <v>823700</v>
       </c>
       <c r="J57" s="3">
+        <v>997900</v>
+      </c>
+      <c r="K57" s="3">
         <v>1629100</v>
       </c>
-      <c r="K57" s="3">
+      <c r="L57" s="3">
         <v>1636800</v>
       </c>
-      <c r="L57" s="3">
+      <c r="M57" s="3">
         <v>1465500</v>
       </c>
-      <c r="M57" s="3" t="s">
-        <v>3</v>
-      </c>
-      <c r="N57" s="3">
-        <v>0</v>
+      <c r="N57" s="3" t="s">
+        <v>3</v>
       </c>
       <c r="O57" s="3">
         <v>0</v>
@@ -2662,43 +2793,46 @@
       <c r="P57" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="58" spans="3:16" x14ac:dyDescent="0.2">
+      <c r="Q57" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="58" spans="3:17" x14ac:dyDescent="0.2">
       <c r="C58" s="1" t="s">
         <v>51</v>
       </c>
       <c r="D58" s="3">
-        <v>114300</v>
+        <v>108200</v>
       </c>
       <c r="E58" s="3">
-        <v>166900</v>
+        <v>114900</v>
       </c>
       <c r="F58" s="3">
-        <v>501800</v>
+        <v>167700</v>
       </c>
       <c r="G58" s="3">
-        <v>468300</v>
+        <v>504100</v>
       </c>
       <c r="H58" s="3">
-        <v>398900</v>
+        <v>470500</v>
       </c>
       <c r="I58" s="3">
-        <v>446400</v>
+        <v>400800</v>
       </c>
       <c r="J58" s="3">
+        <v>448500</v>
+      </c>
+      <c r="K58" s="3">
         <v>818100</v>
       </c>
-      <c r="K58" s="3">
+      <c r="L58" s="3">
         <v>530100</v>
       </c>
-      <c r="L58" s="3">
+      <c r="M58" s="3">
         <v>521100</v>
       </c>
-      <c r="M58" s="3" t="s">
-        <v>3</v>
-      </c>
-      <c r="N58" s="3">
-        <v>0</v>
+      <c r="N58" s="3" t="s">
+        <v>3</v>
       </c>
       <c r="O58" s="3">
         <v>0</v>
@@ -2706,43 +2840,46 @@
       <c r="P58" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="59" spans="3:16" x14ac:dyDescent="0.2">
+      <c r="Q58" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="59" spans="3:17" x14ac:dyDescent="0.2">
       <c r="C59" s="1" t="s">
         <v>52</v>
       </c>
       <c r="D59" s="3">
-        <v>278900</v>
+        <v>257000</v>
       </c>
       <c r="E59" s="3">
-        <v>287700</v>
+        <v>280200</v>
       </c>
       <c r="F59" s="3">
-        <v>228100</v>
+        <v>289000</v>
       </c>
       <c r="G59" s="3">
-        <v>193400</v>
+        <v>229200</v>
       </c>
       <c r="H59" s="3">
-        <v>193000</v>
+        <v>194300</v>
       </c>
       <c r="I59" s="3">
-        <v>259400</v>
+        <v>193900</v>
       </c>
       <c r="J59" s="3">
+        <v>260700</v>
+      </c>
+      <c r="K59" s="3">
         <v>508400</v>
       </c>
-      <c r="K59" s="3">
+      <c r="L59" s="3">
         <v>491300</v>
       </c>
-      <c r="L59" s="3">
+      <c r="M59" s="3">
         <v>394000</v>
       </c>
-      <c r="M59" s="3" t="s">
-        <v>3</v>
-      </c>
-      <c r="N59" s="3">
-        <v>0</v>
+      <c r="N59" s="3" t="s">
+        <v>3</v>
       </c>
       <c r="O59" s="3">
         <v>0</v>
@@ -2750,43 +2887,46 @@
       <c r="P59" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="60" spans="3:16" x14ac:dyDescent="0.2">
+      <c r="Q59" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="60" spans="3:17" x14ac:dyDescent="0.2">
       <c r="C60" s="1" t="s">
         <v>53</v>
       </c>
       <c r="D60" s="3">
-        <v>2215600</v>
+        <v>2162500</v>
       </c>
       <c r="E60" s="3">
-        <v>1683700</v>
+        <v>2226100</v>
       </c>
       <c r="F60" s="3">
-        <v>1785500</v>
+        <v>1691600</v>
       </c>
       <c r="G60" s="3">
-        <v>1559400</v>
+        <v>1794000</v>
       </c>
       <c r="H60" s="3">
-        <v>1411800</v>
+        <v>1566800</v>
       </c>
       <c r="I60" s="3">
-        <v>1699100</v>
+        <v>1418400</v>
       </c>
       <c r="J60" s="3">
+        <v>1707100</v>
+      </c>
+      <c r="K60" s="3">
         <v>2955600</v>
       </c>
-      <c r="K60" s="3">
+      <c r="L60" s="3">
         <v>2658100</v>
       </c>
-      <c r="L60" s="3">
+      <c r="M60" s="3">
         <v>2380600</v>
       </c>
-      <c r="M60" s="3" t="s">
-        <v>3</v>
-      </c>
-      <c r="N60" s="3">
-        <v>0</v>
+      <c r="N60" s="3" t="s">
+        <v>3</v>
       </c>
       <c r="O60" s="3">
         <v>0</v>
@@ -2794,41 +2934,44 @@
       <c r="P60" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="61" spans="3:16" x14ac:dyDescent="0.2">
+      <c r="Q60" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="61" spans="3:17" x14ac:dyDescent="0.2">
       <c r="C61" s="1" t="s">
         <v>54</v>
       </c>
       <c r="D61" s="3">
-        <v>3200600</v>
+        <v>3533400</v>
       </c>
       <c r="E61" s="3">
-        <v>2186800</v>
+        <v>3215700</v>
       </c>
       <c r="F61" s="3">
-        <v>1733700</v>
+        <v>2197100</v>
       </c>
       <c r="G61" s="3">
-        <v>1991000</v>
+        <v>1741900</v>
       </c>
       <c r="H61" s="3">
-        <v>1633400</v>
+        <v>2000400</v>
       </c>
       <c r="I61" s="3">
-        <v>1619600</v>
+        <v>1641100</v>
       </c>
       <c r="J61" s="3">
+        <v>1627200</v>
+      </c>
+      <c r="K61" s="3">
         <v>2075600</v>
       </c>
-      <c r="K61" s="3">
+      <c r="L61" s="3">
         <v>2472300</v>
       </c>
-      <c r="L61" s="3">
+      <c r="M61" s="3">
         <v>2004400</v>
       </c>
-      <c r="M61" s="3">
-        <v>0</v>
-      </c>
       <c r="N61" s="3">
         <v>0</v>
       </c>
@@ -2838,43 +2981,46 @@
       <c r="P61" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="62" spans="3:16" x14ac:dyDescent="0.2">
+      <c r="Q61" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="62" spans="3:17" x14ac:dyDescent="0.2">
       <c r="C62" s="1" t="s">
         <v>55</v>
       </c>
       <c r="D62" s="3">
-        <v>330300</v>
+        <v>199600</v>
       </c>
       <c r="E62" s="3">
-        <v>42300</v>
+        <v>331900</v>
       </c>
       <c r="F62" s="3">
-        <v>58200</v>
+        <v>42500</v>
       </c>
       <c r="G62" s="3">
-        <v>65400</v>
+        <v>58500</v>
       </c>
       <c r="H62" s="3">
-        <v>76400</v>
+        <v>65800</v>
       </c>
       <c r="I62" s="3">
-        <v>72700</v>
+        <v>76700</v>
       </c>
       <c r="J62" s="3">
+        <v>73000</v>
+      </c>
+      <c r="K62" s="3">
         <v>281500</v>
       </c>
-      <c r="K62" s="3">
+      <c r="L62" s="3">
         <v>311700</v>
       </c>
-      <c r="L62" s="3">
+      <c r="M62" s="3">
         <v>287800</v>
       </c>
-      <c r="M62" s="3" t="s">
-        <v>3</v>
-      </c>
-      <c r="N62" s="3">
-        <v>0</v>
+      <c r="N62" s="3" t="s">
+        <v>3</v>
       </c>
       <c r="O62" s="3">
         <v>0</v>
@@ -2882,8 +3028,11 @@
       <c r="P62" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="63" spans="3:16" x14ac:dyDescent="0.2">
+      <c r="Q62" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="63" spans="3:17" x14ac:dyDescent="0.2">
       <c r="C63" s="1" t="s">
         <v>56</v>
       </c>
@@ -2926,8 +3075,11 @@
       <c r="P63" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="64" spans="3:16" x14ac:dyDescent="0.2">
+      <c r="Q63" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="64" spans="3:17" x14ac:dyDescent="0.2">
       <c r="C64" s="1" t="s">
         <v>20</v>
       </c>
@@ -2970,8 +3122,11 @@
       <c r="P64" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="65" spans="2:16" x14ac:dyDescent="0.2">
+      <c r="Q64" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="65" spans="2:17" x14ac:dyDescent="0.2">
       <c r="C65" s="1" t="s">
         <v>57</v>
       </c>
@@ -3014,43 +3169,46 @@
       <c r="P65" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="66" spans="2:16" x14ac:dyDescent="0.2">
+      <c r="Q65" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="66" spans="2:17" x14ac:dyDescent="0.2">
       <c r="C66" s="1" t="s">
         <v>58</v>
       </c>
       <c r="D66" s="3">
-        <v>5746600</v>
+        <v>5895500</v>
       </c>
       <c r="E66" s="3">
-        <v>3912700</v>
+        <v>5773700</v>
       </c>
       <c r="F66" s="3">
-        <v>3577500</v>
+        <v>3931200</v>
       </c>
       <c r="G66" s="3">
-        <v>3615900</v>
+        <v>3594400</v>
       </c>
       <c r="H66" s="3">
-        <v>3121500</v>
+        <v>3633000</v>
       </c>
       <c r="I66" s="3">
-        <v>3391300</v>
+        <v>3136300</v>
       </c>
       <c r="J66" s="3">
+        <v>3407300</v>
+      </c>
+      <c r="K66" s="3">
         <v>5926200</v>
       </c>
-      <c r="K66" s="3">
+      <c r="L66" s="3">
         <v>6053100</v>
       </c>
-      <c r="L66" s="3">
+      <c r="M66" s="3">
         <v>5153300</v>
       </c>
-      <c r="M66" s="3" t="s">
-        <v>3</v>
-      </c>
-      <c r="N66" s="3">
-        <v>0</v>
+      <c r="N66" s="3" t="s">
+        <v>3</v>
       </c>
       <c r="O66" s="3">
         <v>0</v>
@@ -3058,8 +3216,11 @@
       <c r="P66" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="67" spans="2:16" x14ac:dyDescent="0.2">
+      <c r="Q66" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="67" spans="2:17" x14ac:dyDescent="0.2">
       <c r="C67" s="1" t="s">
         <v>59</v>
       </c>
@@ -3076,8 +3237,9 @@
       <c r="N67" s="3"/>
       <c r="O67" s="3"/>
       <c r="P67" s="3"/>
-    </row>
-    <row r="68" spans="2:16" x14ac:dyDescent="0.2">
+      <c r="Q67" s="3"/>
+    </row>
+    <row r="68" spans="2:17" x14ac:dyDescent="0.2">
       <c r="C68" s="1" t="s">
         <v>60</v>
       </c>
@@ -3120,8 +3282,11 @@
       <c r="P68" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="69" spans="2:16" x14ac:dyDescent="0.2">
+      <c r="Q68" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="69" spans="2:17" x14ac:dyDescent="0.2">
       <c r="C69" s="1" t="s">
         <v>61</v>
       </c>
@@ -3164,8 +3329,11 @@
       <c r="P69" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="70" spans="2:16" x14ac:dyDescent="0.2">
+      <c r="Q69" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="70" spans="2:17" x14ac:dyDescent="0.2">
       <c r="C70" s="1" t="s">
         <v>62</v>
       </c>
@@ -3208,8 +3376,11 @@
       <c r="P70" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="71" spans="2:16" x14ac:dyDescent="0.2">
+      <c r="Q70" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="71" spans="2:17" x14ac:dyDescent="0.2">
       <c r="C71" s="1" t="s">
         <v>63</v>
       </c>
@@ -3252,43 +3423,46 @@
       <c r="P71" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="72" spans="2:16" x14ac:dyDescent="0.2">
+      <c r="Q71" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="72" spans="2:17" x14ac:dyDescent="0.2">
       <c r="C72" s="1" t="s">
         <v>64</v>
       </c>
       <c r="D72" s="3">
-        <v>427900</v>
+        <v>402600</v>
       </c>
       <c r="E72" s="3">
-        <v>385500</v>
+        <v>430000</v>
       </c>
       <c r="F72" s="3">
-        <v>314600</v>
+        <v>387300</v>
       </c>
       <c r="G72" s="3">
-        <v>221700</v>
+        <v>316100</v>
       </c>
       <c r="H72" s="3">
-        <v>161500</v>
+        <v>222700</v>
       </c>
       <c r="I72" s="3">
-        <v>126400</v>
+        <v>162200</v>
       </c>
       <c r="J72" s="3">
+        <v>127000</v>
+      </c>
+      <c r="K72" s="3">
         <v>562300</v>
       </c>
-      <c r="K72" s="3">
+      <c r="L72" s="3">
         <v>545100</v>
       </c>
-      <c r="L72" s="3">
+      <c r="M72" s="3">
         <v>462000</v>
       </c>
-      <c r="M72" s="3" t="s">
-        <v>3</v>
-      </c>
-      <c r="N72" s="3">
-        <v>0</v>
+      <c r="N72" s="3" t="s">
+        <v>3</v>
       </c>
       <c r="O72" s="3">
         <v>0</v>
@@ -3296,8 +3470,11 @@
       <c r="P72" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="73" spans="2:16" x14ac:dyDescent="0.2">
+      <c r="Q72" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="73" spans="2:17" x14ac:dyDescent="0.2">
       <c r="C73" s="1" t="s">
         <v>65</v>
       </c>
@@ -3340,8 +3517,11 @@
       <c r="P73" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="74" spans="2:16" x14ac:dyDescent="0.2">
+      <c r="Q73" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="74" spans="2:17" x14ac:dyDescent="0.2">
       <c r="C74" s="1" t="s">
         <v>66</v>
       </c>
@@ -3384,8 +3564,11 @@
       <c r="P74" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="75" spans="2:16" x14ac:dyDescent="0.2">
+      <c r="Q74" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="75" spans="2:17" x14ac:dyDescent="0.2">
       <c r="C75" s="1" t="s">
         <v>67</v>
       </c>
@@ -3428,43 +3611,46 @@
       <c r="P75" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="76" spans="2:16" x14ac:dyDescent="0.2">
+      <c r="Q75" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="76" spans="2:17" x14ac:dyDescent="0.2">
       <c r="C76" s="1" t="s">
         <v>68</v>
       </c>
       <c r="D76" s="3">
-        <v>581200</v>
+        <v>648000</v>
       </c>
       <c r="E76" s="3">
-        <v>538800</v>
+        <v>584000</v>
       </c>
       <c r="F76" s="3">
-        <v>467900</v>
+        <v>541300</v>
       </c>
       <c r="G76" s="3">
-        <v>373400</v>
+        <v>470100</v>
       </c>
       <c r="H76" s="3">
-        <v>309700</v>
+        <v>375200</v>
       </c>
       <c r="I76" s="3">
-        <v>274600</v>
+        <v>311200</v>
       </c>
       <c r="J76" s="3">
+        <v>275900</v>
+      </c>
+      <c r="K76" s="3">
         <v>1859800</v>
       </c>
-      <c r="K76" s="3">
+      <c r="L76" s="3">
         <v>1790900</v>
       </c>
-      <c r="L76" s="3">
+      <c r="M76" s="3">
         <v>1391000</v>
       </c>
-      <c r="M76" s="3" t="s">
-        <v>3</v>
-      </c>
-      <c r="N76" s="3">
-        <v>0</v>
+      <c r="N76" s="3" t="s">
+        <v>3</v>
       </c>
       <c r="O76" s="3">
         <v>0</v>
@@ -3472,8 +3658,11 @@
       <c r="P76" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="77" spans="2:16" x14ac:dyDescent="0.2">
+      <c r="Q76" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="77" spans="2:17" x14ac:dyDescent="0.2">
       <c r="C77" s="1" t="s">
         <v>69</v>
       </c>
@@ -3516,101 +3705,110 @@
       <c r="P77" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="79" spans="2:16" x14ac:dyDescent="0.2">
+      <c r="Q77" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="79" spans="2:17" x14ac:dyDescent="0.2">
       <c r="B79" s="1" t="s">
         <v>70</v>
       </c>
     </row>
-    <row r="80" spans="2:16" x14ac:dyDescent="0.2">
+    <row r="80" spans="2:17" x14ac:dyDescent="0.2">
       <c r="C80" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D80" s="2">
+        <v>44742</v>
+      </c>
+      <c r="E80" s="2">
         <v>44651</v>
       </c>
-      <c r="E80" s="2">
+      <c r="F80" s="2">
         <v>44561</v>
       </c>
-      <c r="F80" s="2">
+      <c r="G80" s="2">
         <v>44469</v>
       </c>
-      <c r="G80" s="2">
+      <c r="H80" s="2">
         <v>44377</v>
       </c>
-      <c r="H80" s="2">
+      <c r="I80" s="2">
         <v>44286</v>
       </c>
-      <c r="I80" s="2">
+      <c r="J80" s="2">
         <v>44196</v>
       </c>
-      <c r="J80" s="2">
+      <c r="K80" s="2">
         <v>44104</v>
       </c>
-      <c r="K80" s="2">
+      <c r="L80" s="2">
         <v>44012</v>
       </c>
-      <c r="L80" s="2">
+      <c r="M80" s="2">
         <v>43921</v>
       </c>
-      <c r="M80" s="2">
+      <c r="N80" s="2">
         <v>43830</v>
       </c>
-      <c r="N80" s="2" t="s">
-        <v>3</v>
-      </c>
       <c r="O80" s="2" t="s">
         <v>3</v>
       </c>
       <c r="P80" s="2" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="81" spans="3:16" x14ac:dyDescent="0.2">
+      <c r="Q80" s="2" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="81" spans="3:17" x14ac:dyDescent="0.2">
       <c r="C81" s="1" t="s">
         <v>28</v>
       </c>
       <c r="D81" s="3">
-        <v>41700</v>
-      </c>
-      <c r="E81" s="3" t="s">
-        <v>3</v>
+        <v>62400</v>
+      </c>
+      <c r="E81" s="3">
+        <v>41900</v>
       </c>
       <c r="F81" s="3">
-        <v>104800</v>
+        <v>103100</v>
       </c>
       <c r="G81" s="3">
-        <v>59400</v>
+        <v>105300</v>
       </c>
       <c r="H81" s="3">
-        <v>46700</v>
+        <v>59700</v>
       </c>
       <c r="I81" s="3">
-        <v>272300</v>
+        <v>47000</v>
       </c>
       <c r="J81" s="3">
+        <v>273600</v>
+      </c>
+      <c r="K81" s="3">
         <v>85100</v>
       </c>
-      <c r="K81" s="3">
+      <c r="L81" s="3">
         <v>34500</v>
       </c>
-      <c r="L81" s="3">
+      <c r="M81" s="3">
         <v>17900</v>
       </c>
-      <c r="M81" s="3">
+      <c r="N81" s="3">
         <v>48700</v>
       </c>
-      <c r="N81" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="O81" s="3" t="s">
         <v>3</v>
       </c>
       <c r="P81" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="82" spans="3:16" x14ac:dyDescent="0.2">
+      <c r="Q81" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="82" spans="3:17" x14ac:dyDescent="0.2">
       <c r="C82" s="1" t="s">
         <v>71</v>
       </c>
@@ -3627,52 +3825,56 @@
       <c r="N82" s="3"/>
       <c r="O82" s="3"/>
       <c r="P82" s="3"/>
-    </row>
-    <row r="83" spans="3:16" x14ac:dyDescent="0.2">
+      <c r="Q82" s="3"/>
+    </row>
+    <row r="83" spans="3:17" x14ac:dyDescent="0.2">
       <c r="C83" s="1" t="s">
         <v>72</v>
       </c>
       <c r="D83" s="3">
-        <v>42700</v>
+        <v>46000</v>
       </c>
       <c r="E83" s="3">
-        <v>36600</v>
+        <v>42900</v>
       </c>
       <c r="F83" s="3">
-        <v>34100</v>
+        <v>36800</v>
       </c>
       <c r="G83" s="3">
-        <v>32500</v>
+        <v>34200</v>
       </c>
       <c r="H83" s="3">
-        <v>30600</v>
+        <v>32700</v>
       </c>
       <c r="I83" s="3">
-        <v>267200</v>
+        <v>30700</v>
       </c>
       <c r="J83" s="3">
+        <v>268500</v>
+      </c>
+      <c r="K83" s="3">
         <v>69300</v>
       </c>
-      <c r="K83" s="3">
+      <c r="L83" s="3">
         <v>65400</v>
       </c>
-      <c r="L83" s="3">
+      <c r="M83" s="3">
         <v>56100</v>
       </c>
-      <c r="M83" s="3">
+      <c r="N83" s="3">
         <v>32100</v>
       </c>
-      <c r="N83" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="O83" s="3" t="s">
         <v>3</v>
       </c>
       <c r="P83" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="84" spans="3:16" x14ac:dyDescent="0.2">
+      <c r="Q83" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="84" spans="3:17" x14ac:dyDescent="0.2">
       <c r="C84" s="1" t="s">
         <v>73</v>
       </c>
@@ -3715,8 +3917,11 @@
       <c r="P84" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="85" spans="3:16" x14ac:dyDescent="0.2">
+      <c r="Q84" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="85" spans="3:17" x14ac:dyDescent="0.2">
       <c r="C85" s="1" t="s">
         <v>74</v>
       </c>
@@ -3759,8 +3964,11 @@
       <c r="P85" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="86" spans="3:16" x14ac:dyDescent="0.2">
+      <c r="Q85" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="86" spans="3:17" x14ac:dyDescent="0.2">
       <c r="C86" s="1" t="s">
         <v>75</v>
       </c>
@@ -3803,8 +4011,11 @@
       <c r="P86" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="87" spans="3:16" x14ac:dyDescent="0.2">
+      <c r="Q86" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="87" spans="3:17" x14ac:dyDescent="0.2">
       <c r="C87" s="1" t="s">
         <v>76</v>
       </c>
@@ -3847,8 +4058,11 @@
       <c r="P87" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="88" spans="3:16" x14ac:dyDescent="0.2">
+      <c r="Q87" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="88" spans="3:17" x14ac:dyDescent="0.2">
       <c r="C88" s="1" t="s">
         <v>77</v>
       </c>
@@ -3891,52 +4105,58 @@
       <c r="P88" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="89" spans="3:16" x14ac:dyDescent="0.2">
+      <c r="Q88" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="89" spans="3:17" x14ac:dyDescent="0.2">
       <c r="C89" s="1" t="s">
         <v>78</v>
       </c>
       <c r="D89" s="3">
-        <v>166100</v>
+        <v>73000</v>
       </c>
       <c r="E89" s="3">
-        <v>418800</v>
+        <v>166900</v>
       </c>
       <c r="F89" s="3">
-        <v>121900</v>
+        <v>420800</v>
       </c>
       <c r="G89" s="3">
-        <v>139300</v>
+        <v>122500</v>
       </c>
       <c r="H89" s="3">
-        <v>-42700</v>
+        <v>139900</v>
       </c>
       <c r="I89" s="3">
-        <v>681300</v>
+        <v>-42900</v>
       </c>
       <c r="J89" s="3">
+        <v>684600</v>
+      </c>
+      <c r="K89" s="3">
         <v>47900</v>
       </c>
-      <c r="K89" s="3">
+      <c r="L89" s="3">
         <v>201600</v>
       </c>
-      <c r="L89" s="3">
+      <c r="M89" s="3">
         <v>-341200</v>
       </c>
-      <c r="M89" s="3">
+      <c r="N89" s="3">
         <v>505600</v>
       </c>
-      <c r="N89" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="O89" s="3" t="s">
         <v>3</v>
       </c>
       <c r="P89" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="90" spans="3:16" x14ac:dyDescent="0.2">
+      <c r="Q89" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="90" spans="3:17" x14ac:dyDescent="0.2">
       <c r="C90" s="1" t="s">
         <v>79</v>
       </c>
@@ -3953,52 +4173,56 @@
       <c r="N90" s="3"/>
       <c r="O90" s="3"/>
       <c r="P90" s="3"/>
-    </row>
-    <row r="91" spans="3:16" x14ac:dyDescent="0.2">
+      <c r="Q90" s="3"/>
+    </row>
+    <row r="91" spans="3:17" x14ac:dyDescent="0.2">
       <c r="C91" s="1" t="s">
         <v>80</v>
       </c>
       <c r="D91" s="3">
-        <v>-131500</v>
-      </c>
-      <c r="E91" s="3" t="s">
-        <v>3</v>
+        <v>-261800</v>
+      </c>
+      <c r="E91" s="3">
+        <v>-132100</v>
       </c>
       <c r="F91" s="3">
-        <v>-159300</v>
+        <v>-131900</v>
       </c>
       <c r="G91" s="3">
-        <v>-110100</v>
+        <v>-160100</v>
       </c>
       <c r="H91" s="3">
-        <v>-33900</v>
+        <v>-110600</v>
       </c>
       <c r="I91" s="3">
-        <v>-304200</v>
+        <v>-34100</v>
       </c>
       <c r="J91" s="3">
+        <v>-305700</v>
+      </c>
+      <c r="K91" s="3">
         <v>-85900</v>
       </c>
-      <c r="K91" s="3">
+      <c r="L91" s="3">
         <v>-66000</v>
       </c>
-      <c r="L91" s="3">
+      <c r="M91" s="3">
         <v>-64600</v>
       </c>
-      <c r="M91" s="3">
+      <c r="N91" s="3">
         <v>-91900</v>
       </c>
-      <c r="N91" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="O91" s="3" t="s">
         <v>3</v>
       </c>
       <c r="P91" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="92" spans="3:16" x14ac:dyDescent="0.2">
+      <c r="Q91" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="92" spans="3:17" x14ac:dyDescent="0.2">
       <c r="C92" s="1" t="s">
         <v>81</v>
       </c>
@@ -4041,8 +4265,11 @@
       <c r="P92" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="93" spans="3:16" x14ac:dyDescent="0.2">
+      <c r="Q92" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="93" spans="3:17" x14ac:dyDescent="0.2">
       <c r="C93" s="1" t="s">
         <v>82</v>
       </c>
@@ -4085,52 +4312,58 @@
       <c r="P93" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="94" spans="3:16" x14ac:dyDescent="0.2">
+      <c r="Q93" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="94" spans="3:17" x14ac:dyDescent="0.2">
       <c r="C94" s="1" t="s">
         <v>83</v>
       </c>
       <c r="D94" s="3">
-        <v>-297400</v>
+        <v>-241300</v>
       </c>
       <c r="E94" s="3">
-        <v>-368500</v>
+        <v>-298800</v>
       </c>
       <c r="F94" s="3">
-        <v>-122100</v>
+        <v>-370300</v>
       </c>
       <c r="G94" s="3">
-        <v>-113000</v>
+        <v>-122700</v>
       </c>
       <c r="H94" s="3">
-        <v>-34500</v>
+        <v>-113500</v>
       </c>
       <c r="I94" s="3">
-        <v>-932400</v>
+        <v>-34600</v>
       </c>
       <c r="J94" s="3">
+        <v>-936800</v>
+      </c>
+      <c r="K94" s="3">
         <v>-64500</v>
       </c>
-      <c r="K94" s="3">
+      <c r="L94" s="3">
         <v>5100</v>
       </c>
-      <c r="L94" s="3">
+      <c r="M94" s="3">
         <v>-68700</v>
       </c>
-      <c r="M94" s="3">
+      <c r="N94" s="3">
         <v>-623700</v>
       </c>
-      <c r="N94" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="O94" s="3" t="s">
         <v>3</v>
       </c>
       <c r="P94" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="95" spans="3:16" x14ac:dyDescent="0.2">
+      <c r="Q94" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="95" spans="3:17" x14ac:dyDescent="0.2">
       <c r="C95" s="1" t="s">
         <v>84</v>
       </c>
@@ -4147,8 +4380,9 @@
       <c r="N95" s="3"/>
       <c r="O95" s="3"/>
       <c r="P95" s="3"/>
-    </row>
-    <row r="96" spans="3:16" x14ac:dyDescent="0.2">
+      <c r="Q95" s="3"/>
+    </row>
+    <row r="96" spans="3:17" x14ac:dyDescent="0.2">
       <c r="C96" s="1" t="s">
         <v>85</v>
       </c>
@@ -4159,40 +4393,43 @@
         <v>0</v>
       </c>
       <c r="F96" s="3">
-        <v>0</v>
+        <v>-12300</v>
       </c>
       <c r="G96" s="3">
+        <v>0</v>
+      </c>
+      <c r="H96" s="3">
         <v>-16600</v>
       </c>
-      <c r="H96" s="3">
-        <v>0</v>
-      </c>
       <c r="I96" s="3">
-        <v>-95200</v>
+        <v>0</v>
       </c>
       <c r="J96" s="3">
+        <v>-95700</v>
+      </c>
+      <c r="K96" s="3">
         <v>-2700</v>
       </c>
-      <c r="K96" s="3">
+      <c r="L96" s="3">
         <v>-21100</v>
       </c>
-      <c r="L96" s="3">
+      <c r="M96" s="3">
         <v>-3000</v>
       </c>
-      <c r="M96" s="3">
+      <c r="N96" s="3">
         <v>-44500</v>
       </c>
-      <c r="N96" s="3">
-        <v>0</v>
-      </c>
       <c r="O96" s="3">
         <v>0</v>
       </c>
       <c r="P96" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="97" spans="3:16" x14ac:dyDescent="0.2">
+      <c r="Q96" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="97" spans="3:17" x14ac:dyDescent="0.2">
       <c r="C97" s="1" t="s">
         <v>86</v>
       </c>
@@ -4235,8 +4472,11 @@
       <c r="P97" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="98" spans="3:16" x14ac:dyDescent="0.2">
+      <c r="Q97" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="98" spans="3:17" x14ac:dyDescent="0.2">
       <c r="C98" s="1" t="s">
         <v>87</v>
       </c>
@@ -4279,8 +4519,11 @@
       <c r="P98" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="99" spans="3:16" x14ac:dyDescent="0.2">
+      <c r="Q98" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="99" spans="3:17" x14ac:dyDescent="0.2">
       <c r="C99" s="1" t="s">
         <v>88</v>
       </c>
@@ -4323,52 +4566,58 @@
       <c r="P99" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="100" spans="3:16" x14ac:dyDescent="0.2">
+      <c r="Q99" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="100" spans="3:17" x14ac:dyDescent="0.2">
       <c r="C100" s="1" t="s">
         <v>89</v>
       </c>
       <c r="D100" s="3">
-        <v>489500</v>
-      </c>
-      <c r="E100" s="3" t="s">
-        <v>3</v>
+        <v>-82400</v>
+      </c>
+      <c r="E100" s="3">
+        <v>491800</v>
       </c>
       <c r="F100" s="3">
-        <v>-317300</v>
+        <v>-115300</v>
       </c>
       <c r="G100" s="3">
-        <v>314000</v>
+        <v>-318800</v>
       </c>
       <c r="H100" s="3">
-        <v>-72500</v>
+        <v>315500</v>
       </c>
       <c r="I100" s="3">
-        <v>-154500</v>
+        <v>-72800</v>
       </c>
       <c r="J100" s="3">
+        <v>-155200</v>
+      </c>
+      <c r="K100" s="3">
         <v>-118400</v>
       </c>
-      <c r="K100" s="3">
+      <c r="L100" s="3">
         <v>-99900</v>
       </c>
-      <c r="L100" s="3">
+      <c r="M100" s="3">
         <v>159100</v>
       </c>
-      <c r="M100" s="3">
+      <c r="N100" s="3">
         <v>-662800</v>
       </c>
-      <c r="N100" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="O100" s="3" t="s">
         <v>3</v>
       </c>
       <c r="P100" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="101" spans="3:16" x14ac:dyDescent="0.2">
+      <c r="Q100" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="101" spans="3:17" x14ac:dyDescent="0.2">
       <c r="C101" s="1" t="s">
         <v>90</v>
       </c>
@@ -4378,8 +4627,8 @@
       <c r="E101" s="3" t="s">
         <v>3</v>
       </c>
-      <c r="F101" s="3">
-        <v>0</v>
+      <c r="F101" s="3" t="s">
+        <v>3</v>
       </c>
       <c r="G101" s="3">
         <v>0</v>
@@ -4388,71 +4637,77 @@
         <v>0</v>
       </c>
       <c r="I101" s="3">
-        <v>114500</v>
+        <v>0</v>
       </c>
       <c r="J101" s="3">
+        <v>115100</v>
+      </c>
+      <c r="K101" s="3">
         <v>-5300</v>
       </c>
-      <c r="K101" s="3">
+      <c r="L101" s="3">
         <v>58900</v>
       </c>
-      <c r="L101" s="3">
+      <c r="M101" s="3">
         <v>27800</v>
       </c>
-      <c r="M101" s="3">
+      <c r="N101" s="3">
         <v>19800</v>
       </c>
-      <c r="N101" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="O101" s="3" t="s">
         <v>3</v>
       </c>
       <c r="P101" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="102" spans="3:16" x14ac:dyDescent="0.2">
+      <c r="Q101" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="102" spans="3:17" x14ac:dyDescent="0.2">
       <c r="C102" s="1" t="s">
         <v>91</v>
       </c>
       <c r="D102" s="3">
-        <v>358200</v>
-      </c>
-      <c r="E102" s="3" t="s">
-        <v>3</v>
+        <v>-250700</v>
+      </c>
+      <c r="E102" s="3">
+        <v>359900</v>
       </c>
       <c r="F102" s="3">
-        <v>-317500</v>
+        <v>-64800</v>
       </c>
       <c r="G102" s="3">
-        <v>340300</v>
+        <v>-319000</v>
       </c>
       <c r="H102" s="3">
-        <v>-149600</v>
+        <v>341900</v>
       </c>
       <c r="I102" s="3">
-        <v>-291000</v>
+        <v>-150300</v>
       </c>
       <c r="J102" s="3">
+        <v>-292400</v>
+      </c>
+      <c r="K102" s="3">
         <v>-140200</v>
       </c>
-      <c r="K102" s="3">
+      <c r="L102" s="3">
         <v>165700</v>
       </c>
-      <c r="L102" s="3">
+      <c r="M102" s="3">
         <v>-223000</v>
       </c>
-      <c r="M102" s="3">
+      <c r="N102" s="3">
         <v>-761200</v>
       </c>
-      <c r="N102" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="O102" s="3" t="s">
         <v>3</v>
       </c>
       <c r="P102" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="Q102" s="3" t="s">
         <v>3</v>
       </c>
     </row>

--- a/AAII_Financials/Quarterly/ASAI_QTR_FIN.xlsx
+++ b/AAII_Financials/Quarterly/ASAI_QTR_FIN.xlsx
@@ -22,7 +22,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="222" uniqueCount="92">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="225" uniqueCount="92">
   <si>
     <t>ASAI</t>
   </si>
@@ -656,7 +656,7 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <sheetPr codeName="Sheet2"/>
-  <dimension ref="A5:Q102"/>
+  <dimension ref="A5:R102"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -665,218 +665,231 @@
     <col min="1" max="1" width="6.85546875" style="1" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="26.85546875" style="1" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="69.140625" style="1" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="6" max="7" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="8" max="8" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="9" max="9" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="10" max="11" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="12" max="12" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="13" max="13" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="14" max="14" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="15" max="17" width="4.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="18" max="16384" width="9.140625" style="1"/>
+    <col min="4" max="4" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="7" max="8" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="10" max="10" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="11" max="12" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="13" max="13" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="14" max="14" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="15" max="15" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="16" max="18" width="4.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="19" max="16384" width="9.140625" style="1"/>
   </cols>
   <sheetData>
-    <row r="5" spans="1:17" x14ac:dyDescent="0.2">
+    <row r="5" spans="1:18" x14ac:dyDescent="0.2">
       <c r="A5" s="1" t="s">
         <v>0</v>
       </c>
     </row>
-    <row r="6" spans="1:17" x14ac:dyDescent="0.2">
+    <row r="6" spans="1:18" x14ac:dyDescent="0.2">
       <c r="B6" s="1" t="s">
         <v>1</v>
       </c>
     </row>
-    <row r="7" spans="1:17" x14ac:dyDescent="0.2">
+    <row r="7" spans="1:18" x14ac:dyDescent="0.2">
       <c r="C7" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D7" s="2">
+        <v>44834</v>
+      </c>
+      <c r="E7" s="2">
         <v>44742</v>
       </c>
-      <c r="E7" s="2">
+      <c r="F7" s="2">
         <v>44651</v>
       </c>
-      <c r="F7" s="2">
+      <c r="G7" s="2">
         <v>44561</v>
       </c>
-      <c r="G7" s="2">
+      <c r="H7" s="2">
         <v>44469</v>
       </c>
-      <c r="H7" s="2">
+      <c r="I7" s="2">
         <v>44377</v>
       </c>
-      <c r="I7" s="2">
+      <c r="J7" s="2">
         <v>44286</v>
       </c>
-      <c r="J7" s="2">
+      <c r="K7" s="2">
         <v>44196</v>
       </c>
-      <c r="K7" s="2">
+      <c r="L7" s="2">
         <v>44104</v>
       </c>
-      <c r="L7" s="2">
+      <c r="M7" s="2">
         <v>44012</v>
       </c>
-      <c r="M7" s="2">
+      <c r="N7" s="2">
         <v>43921</v>
       </c>
-      <c r="N7" s="2">
+      <c r="O7" s="2">
         <v>43830</v>
       </c>
-      <c r="O7" s="2" t="s">
-        <v>3</v>
-      </c>
       <c r="P7" s="2" t="s">
         <v>3</v>
       </c>
       <c r="Q7" s="2" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="8" spans="1:17" x14ac:dyDescent="0.2">
+      <c r="R7" s="2" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="8" spans="1:18" x14ac:dyDescent="0.2">
       <c r="C8" s="1" t="s">
         <v>4</v>
       </c>
       <c r="D8" s="3">
-        <v>2601000</v>
+        <v>2587800</v>
       </c>
       <c r="E8" s="3">
-        <v>2239400</v>
+        <v>2486600</v>
       </c>
       <c r="F8" s="3">
-        <v>2261500</v>
+        <v>2140900</v>
       </c>
       <c r="G8" s="3">
-        <v>2122400</v>
+        <v>2162000</v>
       </c>
       <c r="H8" s="3">
-        <v>1966600</v>
+        <v>2029000</v>
       </c>
       <c r="I8" s="3">
-        <v>1849000</v>
+        <v>1880100</v>
       </c>
       <c r="J8" s="3">
+        <v>1767600</v>
+      </c>
+      <c r="K8" s="3">
         <v>7053600</v>
       </c>
-      <c r="K8" s="3">
+      <c r="L8" s="3">
         <v>1801700</v>
       </c>
-      <c r="L8" s="3">
+      <c r="M8" s="3">
         <v>1624200</v>
       </c>
-      <c r="M8" s="3">
+      <c r="N8" s="3">
         <v>1399200</v>
       </c>
-      <c r="N8" s="3">
+      <c r="O8" s="3">
         <v>1427100</v>
       </c>
-      <c r="O8" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="P8" s="3" t="s">
         <v>3</v>
       </c>
       <c r="Q8" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="9" spans="1:17" x14ac:dyDescent="0.2">
+      <c r="R8" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="9" spans="1:18" x14ac:dyDescent="0.2">
       <c r="C9" s="1" t="s">
         <v>5</v>
       </c>
       <c r="D9" s="3">
-        <v>2181300</v>
+        <v>2166100</v>
       </c>
       <c r="E9" s="3">
-        <v>1882000</v>
+        <v>2085300</v>
       </c>
       <c r="F9" s="3">
-        <v>1872300</v>
+        <v>1799200</v>
       </c>
       <c r="G9" s="3">
-        <v>1745300</v>
+        <v>1789900</v>
       </c>
       <c r="H9" s="3">
-        <v>1629600</v>
+        <v>1668500</v>
       </c>
       <c r="I9" s="3">
-        <v>1554100</v>
+        <v>1557900</v>
       </c>
       <c r="J9" s="3">
+        <v>1485700</v>
+      </c>
+      <c r="K9" s="3">
         <v>5896200</v>
       </c>
-      <c r="K9" s="3">
+      <c r="L9" s="3">
         <v>1502900</v>
       </c>
-      <c r="L9" s="3">
+      <c r="M9" s="3">
         <v>1360500</v>
       </c>
-      <c r="M9" s="3">
+      <c r="N9" s="3">
         <v>1182000</v>
       </c>
-      <c r="N9" s="3">
+      <c r="O9" s="3">
         <v>1189700</v>
       </c>
-      <c r="O9" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="P9" s="3" t="s">
         <v>3</v>
       </c>
       <c r="Q9" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="10" spans="1:17" x14ac:dyDescent="0.2">
+      <c r="R9" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="10" spans="1:18" x14ac:dyDescent="0.2">
       <c r="C10" s="1" t="s">
         <v>6</v>
       </c>
       <c r="D10" s="3">
-        <v>419800</v>
+        <v>421700</v>
       </c>
       <c r="E10" s="3">
-        <v>357300</v>
+        <v>401300</v>
       </c>
       <c r="F10" s="3">
-        <v>389200</v>
+        <v>341600</v>
       </c>
       <c r="G10" s="3">
-        <v>377100</v>
+        <v>372100</v>
       </c>
       <c r="H10" s="3">
-        <v>337000</v>
+        <v>360500</v>
       </c>
       <c r="I10" s="3">
-        <v>294900</v>
+        <v>322200</v>
       </c>
       <c r="J10" s="3">
+        <v>281900</v>
+      </c>
+      <c r="K10" s="3">
         <v>1157400</v>
       </c>
-      <c r="K10" s="3">
+      <c r="L10" s="3">
         <v>298800</v>
       </c>
-      <c r="L10" s="3">
+      <c r="M10" s="3">
         <v>263700</v>
       </c>
-      <c r="M10" s="3">
+      <c r="N10" s="3">
         <v>217300</v>
       </c>
-      <c r="N10" s="3">
+      <c r="O10" s="3">
         <v>237400</v>
       </c>
-      <c r="O10" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="P10" s="3" t="s">
         <v>3</v>
       </c>
       <c r="Q10" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="11" spans="1:17" x14ac:dyDescent="0.2">
+      <c r="R10" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="11" spans="1:18" x14ac:dyDescent="0.2">
       <c r="C11" s="1" t="s">
         <v>7</v>
       </c>
@@ -894,8 +907,9 @@
       <c r="O11" s="3"/>
       <c r="P11" s="3"/>
       <c r="Q11" s="3"/>
-    </row>
-    <row r="12" spans="1:17" x14ac:dyDescent="0.2">
+      <c r="R11" s="3"/>
+    </row>
+    <row r="12" spans="1:18" x14ac:dyDescent="0.2">
       <c r="C12" s="1" t="s">
         <v>8</v>
       </c>
@@ -941,8 +955,11 @@
       <c r="Q12" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="13" spans="1:17" x14ac:dyDescent="0.2">
+      <c r="R12" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="13" spans="1:18" x14ac:dyDescent="0.2">
       <c r="C13" s="1" t="s">
         <v>9</v>
       </c>
@@ -988,102 +1005,111 @@
       <c r="Q13" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="14" spans="1:17" x14ac:dyDescent="0.2">
+      <c r="R13" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="14" spans="1:18" x14ac:dyDescent="0.2">
       <c r="C14" s="1" t="s">
         <v>10</v>
       </c>
       <c r="D14" s="3">
-        <v>3500</v>
+        <v>700</v>
       </c>
       <c r="E14" s="3">
-        <v>1000</v>
+        <v>3400</v>
       </c>
       <c r="F14" s="3">
-        <v>6100</v>
+        <v>900</v>
       </c>
       <c r="G14" s="3">
-        <v>1200</v>
+        <v>5800</v>
       </c>
       <c r="H14" s="3">
-        <v>6800</v>
+        <v>1100</v>
       </c>
       <c r="I14" s="3">
+        <v>6500</v>
+      </c>
+      <c r="J14" s="3">
         <v>400</v>
       </c>
-      <c r="J14" s="3">
+      <c r="K14" s="3">
         <v>43600</v>
       </c>
-      <c r="K14" s="3">
+      <c r="L14" s="3">
         <v>3100</v>
       </c>
-      <c r="L14" s="3">
+      <c r="M14" s="3">
         <v>15000</v>
       </c>
-      <c r="M14" s="3">
+      <c r="N14" s="3">
         <v>7700</v>
       </c>
-      <c r="N14" s="3">
+      <c r="O14" s="3">
         <v>22100</v>
       </c>
-      <c r="O14" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="P14" s="3" t="s">
         <v>3</v>
       </c>
       <c r="Q14" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="15" spans="1:17" x14ac:dyDescent="0.2">
+      <c r="R14" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="15" spans="1:18" x14ac:dyDescent="0.2">
       <c r="C15" s="1" t="s">
         <v>11</v>
       </c>
       <c r="D15" s="3">
-        <v>41700</v>
+        <v>43400</v>
       </c>
       <c r="E15" s="3">
         <v>39900</v>
       </c>
       <c r="F15" s="3">
-        <v>34600</v>
+        <v>38200</v>
       </c>
       <c r="G15" s="3">
-        <v>31700</v>
+        <v>33100</v>
       </c>
       <c r="H15" s="3">
-        <v>30100</v>
+        <v>30300</v>
       </c>
       <c r="I15" s="3">
-        <v>28400</v>
+        <v>28800</v>
       </c>
       <c r="J15" s="3">
+        <v>27100</v>
+      </c>
+      <c r="K15" s="3">
         <v>98400</v>
       </c>
-      <c r="K15" s="3">
+      <c r="L15" s="3">
         <v>25100</v>
       </c>
-      <c r="L15" s="3">
+      <c r="M15" s="3">
         <v>23800</v>
       </c>
-      <c r="M15" s="3">
+      <c r="N15" s="3">
         <v>20900</v>
       </c>
-      <c r="N15" s="3">
+      <c r="O15" s="3">
         <v>19100</v>
       </c>
-      <c r="O15" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="P15" s="3" t="s">
         <v>3</v>
       </c>
       <c r="Q15" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="16" spans="1:17" x14ac:dyDescent="0.2">
+      <c r="R15" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="16" spans="1:18" x14ac:dyDescent="0.2">
       <c r="D16" s="3"/>
       <c r="E16" s="3"/>
       <c r="F16" s="3"/>
@@ -1098,102 +1124,109 @@
       <c r="O16" s="3"/>
       <c r="P16" s="3"/>
       <c r="Q16" s="3"/>
-    </row>
-    <row r="17" spans="3:17" x14ac:dyDescent="0.2">
+      <c r="R16" s="3"/>
+    </row>
+    <row r="17" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C17" s="1" t="s">
         <v>12</v>
       </c>
       <c r="D17" s="3">
-        <v>2462300</v>
+        <v>2447900</v>
       </c>
       <c r="E17" s="3">
-        <v>2136700</v>
+        <v>2354000</v>
       </c>
       <c r="F17" s="3">
-        <v>2124500</v>
+        <v>2042600</v>
       </c>
       <c r="G17" s="3">
-        <v>1965800</v>
+        <v>2031000</v>
       </c>
       <c r="H17" s="3">
-        <v>1850000</v>
+        <v>1879300</v>
       </c>
       <c r="I17" s="3">
-        <v>1754500</v>
+        <v>1768600</v>
       </c>
       <c r="J17" s="3">
+        <v>1677300</v>
+      </c>
+      <c r="K17" s="3">
         <v>6648900</v>
       </c>
-      <c r="K17" s="3">
+      <c r="L17" s="3">
         <v>1691300</v>
       </c>
-      <c r="L17" s="3">
+      <c r="M17" s="3">
         <v>1548500</v>
       </c>
-      <c r="M17" s="3">
+      <c r="N17" s="3">
         <v>1341000</v>
       </c>
-      <c r="N17" s="3">
+      <c r="O17" s="3">
         <v>1330900</v>
       </c>
-      <c r="O17" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="P17" s="3" t="s">
         <v>3</v>
       </c>
       <c r="Q17" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="18" spans="3:17" x14ac:dyDescent="0.2">
+      <c r="R17" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="18" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C18" s="1" t="s">
         <v>13</v>
       </c>
       <c r="D18" s="3">
-        <v>138800</v>
+        <v>139900</v>
       </c>
       <c r="E18" s="3">
-        <v>102700</v>
+        <v>132600</v>
       </c>
       <c r="F18" s="3">
-        <v>137000</v>
+        <v>98200</v>
       </c>
       <c r="G18" s="3">
-        <v>156600</v>
+        <v>131000</v>
       </c>
       <c r="H18" s="3">
-        <v>116600</v>
+        <v>149700</v>
       </c>
       <c r="I18" s="3">
-        <v>94500</v>
+        <v>111500</v>
       </c>
       <c r="J18" s="3">
+        <v>90400</v>
+      </c>
+      <c r="K18" s="3">
         <v>404700</v>
       </c>
-      <c r="K18" s="3">
+      <c r="L18" s="3">
         <v>110400</v>
       </c>
-      <c r="L18" s="3">
+      <c r="M18" s="3">
         <v>75700</v>
       </c>
-      <c r="M18" s="3">
+      <c r="N18" s="3">
         <v>58200</v>
       </c>
-      <c r="N18" s="3">
+      <c r="O18" s="3">
         <v>96200</v>
       </c>
-      <c r="O18" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="P18" s="3" t="s">
         <v>3</v>
       </c>
       <c r="Q18" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="19" spans="3:17" x14ac:dyDescent="0.2">
+      <c r="R18" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="19" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C19" s="1" t="s">
         <v>14</v>
       </c>
@@ -1211,234 +1244,247 @@
       <c r="O19" s="3"/>
       <c r="P19" s="3"/>
       <c r="Q19" s="3"/>
-    </row>
-    <row r="20" spans="3:17" x14ac:dyDescent="0.2">
+      <c r="R19" s="3"/>
+    </row>
+    <row r="20" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C20" s="1" t="s">
         <v>15</v>
       </c>
       <c r="D20" s="3">
-        <v>-21500</v>
+        <v>-12900</v>
       </c>
       <c r="E20" s="3">
-        <v>4900</v>
+        <v>-20600</v>
       </c>
       <c r="F20" s="3">
-        <v>3700</v>
+        <v>4700</v>
       </c>
       <c r="G20" s="3">
-        <v>8200</v>
+        <v>3600</v>
       </c>
       <c r="H20" s="3">
-        <v>7000</v>
+        <v>7900</v>
       </c>
       <c r="I20" s="3">
-        <v>1600</v>
+        <v>6700</v>
       </c>
       <c r="J20" s="3">
+        <v>1500</v>
+      </c>
+      <c r="K20" s="3">
         <v>48900</v>
       </c>
-      <c r="K20" s="3">
+      <c r="L20" s="3">
         <v>2700</v>
       </c>
-      <c r="L20" s="3">
+      <c r="M20" s="3">
         <v>-15400</v>
       </c>
-      <c r="M20" s="3">
+      <c r="N20" s="3">
         <v>13200</v>
       </c>
-      <c r="N20" s="3">
+      <c r="O20" s="3">
         <v>3000</v>
       </c>
-      <c r="O20" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="P20" s="3" t="s">
         <v>3</v>
       </c>
       <c r="Q20" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="21" spans="3:17" x14ac:dyDescent="0.2">
+      <c r="R20" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="21" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C21" s="1" t="s">
         <v>16</v>
       </c>
       <c r="D21" s="3">
-        <v>163200</v>
+        <v>173100</v>
       </c>
       <c r="E21" s="3">
-        <v>150500</v>
+        <v>156000</v>
       </c>
       <c r="F21" s="3">
-        <v>177500</v>
+        <v>143900</v>
       </c>
       <c r="G21" s="3">
-        <v>199000</v>
+        <v>169700</v>
       </c>
       <c r="H21" s="3">
-        <v>156400</v>
+        <v>190300</v>
       </c>
       <c r="I21" s="3">
-        <v>126800</v>
+        <v>149500</v>
       </c>
       <c r="J21" s="3">
+        <v>121200</v>
+      </c>
+      <c r="K21" s="3">
         <v>722100</v>
       </c>
-      <c r="K21" s="3">
+      <c r="L21" s="3">
         <v>182500</v>
       </c>
-      <c r="L21" s="3">
+      <c r="M21" s="3">
         <v>125700</v>
       </c>
-      <c r="M21" s="3">
+      <c r="N21" s="3">
         <v>127500</v>
       </c>
-      <c r="N21" s="3">
+      <c r="O21" s="3">
         <v>131400</v>
       </c>
-      <c r="O21" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="P21" s="3" t="s">
         <v>3</v>
       </c>
       <c r="Q21" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="22" spans="3:17" x14ac:dyDescent="0.2">
+      <c r="R21" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="22" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C22" s="1" t="s">
         <v>17</v>
       </c>
       <c r="D22" s="3">
-        <v>42700</v>
+        <v>69400</v>
       </c>
       <c r="E22" s="3">
-        <v>64000</v>
+        <v>40800</v>
       </c>
       <c r="F22" s="3">
-        <v>59900</v>
+        <v>61200</v>
       </c>
       <c r="G22" s="3">
-        <v>40300</v>
+        <v>57200</v>
       </c>
       <c r="H22" s="3">
-        <v>35400</v>
+        <v>38500</v>
       </c>
       <c r="I22" s="3">
-        <v>27800</v>
+        <v>33900</v>
       </c>
       <c r="J22" s="3">
+        <v>26600</v>
+      </c>
+      <c r="K22" s="3">
         <v>135600</v>
       </c>
-      <c r="K22" s="3">
+      <c r="L22" s="3">
         <v>28000</v>
       </c>
-      <c r="L22" s="3">
+      <c r="M22" s="3">
         <v>10400</v>
       </c>
-      <c r="M22" s="3">
+      <c r="N22" s="3">
         <v>40900</v>
       </c>
-      <c r="N22" s="3">
+      <c r="O22" s="3">
         <v>35500</v>
       </c>
-      <c r="O22" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="P22" s="3" t="s">
         <v>3</v>
       </c>
       <c r="Q22" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="23" spans="3:17" x14ac:dyDescent="0.2">
+      <c r="R22" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="23" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C23" s="1" t="s">
         <v>18</v>
       </c>
       <c r="D23" s="3">
-        <v>74600</v>
+        <v>57600</v>
       </c>
       <c r="E23" s="3">
-        <v>43600</v>
+        <v>71300</v>
       </c>
       <c r="F23" s="3">
-        <v>80800</v>
+        <v>41700</v>
       </c>
       <c r="G23" s="3">
-        <v>124500</v>
+        <v>77300</v>
       </c>
       <c r="H23" s="3">
-        <v>88300</v>
+        <v>119000</v>
       </c>
       <c r="I23" s="3">
-        <v>68300</v>
+        <v>84400</v>
       </c>
       <c r="J23" s="3">
+        <v>65300</v>
+      </c>
+      <c r="K23" s="3">
         <v>318000</v>
       </c>
-      <c r="K23" s="3">
+      <c r="L23" s="3">
         <v>85100</v>
       </c>
-      <c r="L23" s="3">
+      <c r="M23" s="3">
         <v>49900</v>
       </c>
-      <c r="M23" s="3">
+      <c r="N23" s="3">
         <v>30500</v>
       </c>
-      <c r="N23" s="3">
+      <c r="O23" s="3">
         <v>63700</v>
       </c>
-      <c r="O23" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="P23" s="3" t="s">
         <v>3</v>
       </c>
       <c r="Q23" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="24" spans="3:17" x14ac:dyDescent="0.2">
+      <c r="R23" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="24" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C24" s="1" t="s">
         <v>19</v>
       </c>
       <c r="D24" s="3">
-        <v>12100</v>
+        <v>5100</v>
       </c>
       <c r="E24" s="3">
-        <v>1800</v>
+        <v>11600</v>
       </c>
       <c r="F24" s="3">
-        <v>-22300</v>
+        <v>1700</v>
       </c>
       <c r="G24" s="3">
-        <v>19200</v>
+        <v>-21300</v>
       </c>
       <c r="H24" s="3">
-        <v>28600</v>
+        <v>18300</v>
       </c>
       <c r="I24" s="3">
-        <v>21300</v>
+        <v>27300</v>
       </c>
       <c r="J24" s="3">
+        <v>20400</v>
+      </c>
+      <c r="K24" s="3">
         <v>85300</v>
       </c>
-      <c r="K24" s="3">
+      <c r="L24" s="3">
         <v>7000</v>
       </c>
-      <c r="L24" s="3">
+      <c r="M24" s="3">
         <v>16600</v>
-      </c>
-      <c r="M24" s="3">
-        <v>9800</v>
       </c>
       <c r="N24" s="3">
         <v>9800</v>
       </c>
-      <c r="O24" s="3" t="s">
-        <v>3</v>
+      <c r="O24" s="3">
+        <v>9800</v>
       </c>
       <c r="P24" s="3" t="s">
         <v>3</v>
@@ -1446,8 +1492,11 @@
       <c r="Q24" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="25" spans="3:17" x14ac:dyDescent="0.2">
+      <c r="R24" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="25" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C25" s="1" t="s">
         <v>20</v>
       </c>
@@ -1493,102 +1542,111 @@
       <c r="Q25" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="26" spans="3:17" x14ac:dyDescent="0.2">
+      <c r="R25" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="26" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C26" s="1" t="s">
         <v>21</v>
       </c>
       <c r="D26" s="3">
-        <v>62400</v>
+        <v>52600</v>
       </c>
       <c r="E26" s="3">
-        <v>41900</v>
+        <v>59700</v>
       </c>
       <c r="F26" s="3">
-        <v>103100</v>
+        <v>40000</v>
       </c>
       <c r="G26" s="3">
-        <v>105300</v>
+        <v>98600</v>
       </c>
       <c r="H26" s="3">
-        <v>59700</v>
+        <v>100700</v>
       </c>
       <c r="I26" s="3">
-        <v>47000</v>
+        <v>57100</v>
       </c>
       <c r="J26" s="3">
+        <v>44900</v>
+      </c>
+      <c r="K26" s="3">
         <v>232700</v>
       </c>
-      <c r="K26" s="3">
+      <c r="L26" s="3">
         <v>78100</v>
       </c>
-      <c r="L26" s="3">
+      <c r="M26" s="3">
         <v>33300</v>
       </c>
-      <c r="M26" s="3">
+      <c r="N26" s="3">
         <v>20700</v>
       </c>
-      <c r="N26" s="3">
+      <c r="O26" s="3">
         <v>53900</v>
       </c>
-      <c r="O26" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="P26" s="3" t="s">
         <v>3</v>
       </c>
       <c r="Q26" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="27" spans="3:17" x14ac:dyDescent="0.2">
+      <c r="R26" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="27" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C27" s="1" t="s">
         <v>22</v>
       </c>
       <c r="D27" s="3">
-        <v>62400</v>
+        <v>52600</v>
       </c>
       <c r="E27" s="3">
-        <v>41900</v>
+        <v>59700</v>
       </c>
       <c r="F27" s="3">
-        <v>103100</v>
+        <v>40000</v>
       </c>
       <c r="G27" s="3">
-        <v>105300</v>
+        <v>98600</v>
       </c>
       <c r="H27" s="3">
-        <v>59700</v>
+        <v>100700</v>
       </c>
       <c r="I27" s="3">
-        <v>47000</v>
+        <v>57100</v>
       </c>
       <c r="J27" s="3">
+        <v>44900</v>
+      </c>
+      <c r="K27" s="3">
         <v>201800</v>
       </c>
-      <c r="K27" s="3">
+      <c r="L27" s="3">
         <v>69500</v>
       </c>
-      <c r="L27" s="3">
+      <c r="M27" s="3">
         <v>23100</v>
       </c>
-      <c r="M27" s="3">
+      <c r="N27" s="3">
         <v>16800</v>
       </c>
-      <c r="N27" s="3">
+      <c r="O27" s="3">
         <v>51600</v>
       </c>
-      <c r="O27" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="P27" s="3" t="s">
         <v>3</v>
       </c>
       <c r="Q27" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="28" spans="3:17" x14ac:dyDescent="0.2">
+      <c r="R27" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="28" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C28" s="1" t="s">
         <v>23</v>
       </c>
@@ -1634,8 +1692,11 @@
       <c r="Q28" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="29" spans="3:17" x14ac:dyDescent="0.2">
+      <c r="R28" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="29" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C29" s="1" t="s">
         <v>24</v>
       </c>
@@ -1651,38 +1712,41 @@
       <c r="G29" s="3" t="s">
         <v>3</v>
       </c>
-      <c r="H29" s="3">
-        <v>0</v>
+      <c r="H29" s="3" t="s">
+        <v>3</v>
       </c>
       <c r="I29" s="3">
         <v>0</v>
       </c>
       <c r="J29" s="3">
+        <v>0</v>
+      </c>
+      <c r="K29" s="3">
         <v>71800</v>
       </c>
-      <c r="K29" s="3">
+      <c r="L29" s="3">
         <v>15600</v>
       </c>
-      <c r="L29" s="3">
+      <c r="M29" s="3">
         <v>11400</v>
       </c>
-      <c r="M29" s="3">
+      <c r="N29" s="3">
         <v>1100</v>
       </c>
-      <c r="N29" s="3">
+      <c r="O29" s="3">
         <v>-2900</v>
       </c>
-      <c r="O29" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="P29" s="3" t="s">
         <v>3</v>
       </c>
       <c r="Q29" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="30" spans="3:17" x14ac:dyDescent="0.2">
+      <c r="R29" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="30" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C30" s="1" t="s">
         <v>25</v>
       </c>
@@ -1728,8 +1792,11 @@
       <c r="Q30" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="31" spans="3:17" x14ac:dyDescent="0.2">
+      <c r="R30" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="31" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C31" s="1" t="s">
         <v>26</v>
       </c>
@@ -1775,102 +1842,111 @@
       <c r="Q31" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="32" spans="3:17" x14ac:dyDescent="0.2">
+      <c r="R31" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="32" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C32" s="1" t="s">
         <v>27</v>
       </c>
       <c r="D32" s="3">
-        <v>21500</v>
+        <v>12900</v>
       </c>
       <c r="E32" s="3">
-        <v>-4900</v>
+        <v>20600</v>
       </c>
       <c r="F32" s="3">
-        <v>-3700</v>
+        <v>-4700</v>
       </c>
       <c r="G32" s="3">
-        <v>-8200</v>
+        <v>-3600</v>
       </c>
       <c r="H32" s="3">
-        <v>-7000</v>
+        <v>-7900</v>
       </c>
       <c r="I32" s="3">
-        <v>-1600</v>
+        <v>-6700</v>
       </c>
       <c r="J32" s="3">
+        <v>-1500</v>
+      </c>
+      <c r="K32" s="3">
         <v>-48900</v>
       </c>
-      <c r="K32" s="3">
+      <c r="L32" s="3">
         <v>-2700</v>
       </c>
-      <c r="L32" s="3">
+      <c r="M32" s="3">
         <v>15400</v>
       </c>
-      <c r="M32" s="3">
+      <c r="N32" s="3">
         <v>-13200</v>
       </c>
-      <c r="N32" s="3">
+      <c r="O32" s="3">
         <v>-3000</v>
       </c>
-      <c r="O32" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="P32" s="3" t="s">
         <v>3</v>
       </c>
       <c r="Q32" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="33" spans="2:17" x14ac:dyDescent="0.2">
+      <c r="R32" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="33" spans="2:18" x14ac:dyDescent="0.2">
       <c r="C33" s="1" t="s">
         <v>28</v>
       </c>
       <c r="D33" s="3">
-        <v>62400</v>
+        <v>52600</v>
       </c>
       <c r="E33" s="3">
-        <v>41900</v>
+        <v>59700</v>
       </c>
       <c r="F33" s="3">
-        <v>103100</v>
+        <v>40000</v>
       </c>
       <c r="G33" s="3">
-        <v>105300</v>
+        <v>98600</v>
       </c>
       <c r="H33" s="3">
-        <v>59700</v>
+        <v>100700</v>
       </c>
       <c r="I33" s="3">
-        <v>47000</v>
+        <v>57100</v>
       </c>
       <c r="J33" s="3">
+        <v>44900</v>
+      </c>
+      <c r="K33" s="3">
         <v>273600</v>
       </c>
-      <c r="K33" s="3">
+      <c r="L33" s="3">
         <v>85100</v>
       </c>
-      <c r="L33" s="3">
+      <c r="M33" s="3">
         <v>34500</v>
       </c>
-      <c r="M33" s="3">
+      <c r="N33" s="3">
         <v>17900</v>
       </c>
-      <c r="N33" s="3">
+      <c r="O33" s="3">
         <v>48700</v>
       </c>
-      <c r="O33" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="P33" s="3" t="s">
         <v>3</v>
       </c>
       <c r="Q33" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="34" spans="2:17" x14ac:dyDescent="0.2">
+      <c r="R33" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="34" spans="2:18" x14ac:dyDescent="0.2">
       <c r="C34" s="1" t="s">
         <v>29</v>
       </c>
@@ -1916,107 +1992,116 @@
       <c r="Q34" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="35" spans="2:17" x14ac:dyDescent="0.2">
+      <c r="R34" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="35" spans="2:18" x14ac:dyDescent="0.2">
       <c r="C35" s="1" t="s">
         <v>30</v>
       </c>
       <c r="D35" s="3">
-        <v>62400</v>
+        <v>52600</v>
       </c>
       <c r="E35" s="3">
-        <v>41900</v>
+        <v>59700</v>
       </c>
       <c r="F35" s="3">
-        <v>103100</v>
+        <v>40000</v>
       </c>
       <c r="G35" s="3">
-        <v>105300</v>
+        <v>98600</v>
       </c>
       <c r="H35" s="3">
-        <v>59700</v>
+        <v>100700</v>
       </c>
       <c r="I35" s="3">
-        <v>47000</v>
+        <v>57100</v>
       </c>
       <c r="J35" s="3">
+        <v>44900</v>
+      </c>
+      <c r="K35" s="3">
         <v>273600</v>
       </c>
-      <c r="K35" s="3">
+      <c r="L35" s="3">
         <v>85100</v>
       </c>
-      <c r="L35" s="3">
+      <c r="M35" s="3">
         <v>34500</v>
       </c>
-      <c r="M35" s="3">
+      <c r="N35" s="3">
         <v>17900</v>
       </c>
-      <c r="N35" s="3">
+      <c r="O35" s="3">
         <v>48700</v>
       </c>
-      <c r="O35" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="P35" s="3" t="s">
         <v>3</v>
       </c>
       <c r="Q35" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="37" spans="2:17" x14ac:dyDescent="0.2">
+      <c r="R35" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="37" spans="2:18" x14ac:dyDescent="0.2">
       <c r="B37" s="1" t="s">
         <v>31</v>
       </c>
     </row>
-    <row r="38" spans="2:17" x14ac:dyDescent="0.2">
+    <row r="38" spans="2:18" x14ac:dyDescent="0.2">
       <c r="C38" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D38" s="2">
+        <v>44834</v>
+      </c>
+      <c r="E38" s="2">
         <v>44742</v>
       </c>
-      <c r="E38" s="2">
+      <c r="F38" s="2">
         <v>44651</v>
       </c>
-      <c r="F38" s="2">
+      <c r="G38" s="2">
         <v>44561</v>
       </c>
-      <c r="G38" s="2">
+      <c r="H38" s="2">
         <v>44469</v>
       </c>
-      <c r="H38" s="2">
+      <c r="I38" s="2">
         <v>44377</v>
       </c>
-      <c r="I38" s="2">
+      <c r="J38" s="2">
         <v>44286</v>
       </c>
-      <c r="J38" s="2">
+      <c r="K38" s="2">
         <v>44196</v>
       </c>
-      <c r="K38" s="2">
+      <c r="L38" s="2">
         <v>44104</v>
       </c>
-      <c r="L38" s="2">
+      <c r="M38" s="2">
         <v>44012</v>
       </c>
-      <c r="M38" s="2">
+      <c r="N38" s="2">
         <v>43921</v>
       </c>
-      <c r="N38" s="2">
+      <c r="O38" s="2">
         <v>43830</v>
       </c>
-      <c r="O38" s="2" t="s">
-        <v>3</v>
-      </c>
       <c r="P38" s="2" t="s">
         <v>3</v>
       </c>
       <c r="Q38" s="2" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="39" spans="2:17" x14ac:dyDescent="0.2">
+      <c r="R38" s="2" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="39" spans="2:18" x14ac:dyDescent="0.2">
       <c r="C39" s="1" t="s">
         <v>32</v>
       </c>
@@ -2034,8 +2119,9 @@
       <c r="O39" s="3"/>
       <c r="P39" s="3"/>
       <c r="Q39" s="3"/>
-    </row>
-    <row r="40" spans="2:17" x14ac:dyDescent="0.2">
+      <c r="R39" s="3"/>
+    </row>
+    <row r="40" spans="2:18" x14ac:dyDescent="0.2">
       <c r="C40" s="1" t="s">
         <v>33</v>
       </c>
@@ -2053,46 +2139,47 @@
       <c r="O40" s="3"/>
       <c r="P40" s="3"/>
       <c r="Q40" s="3"/>
-    </row>
-    <row r="41" spans="2:17" x14ac:dyDescent="0.2">
+      <c r="R40" s="3"/>
+    </row>
+    <row r="41" spans="2:18" x14ac:dyDescent="0.2">
       <c r="C41" s="1" t="s">
         <v>34</v>
       </c>
       <c r="D41" s="3">
-        <v>608200</v>
+        <v>787600</v>
       </c>
       <c r="E41" s="3">
-        <v>858900</v>
+        <v>581500</v>
       </c>
       <c r="F41" s="3">
-        <v>499000</v>
+        <v>821100</v>
       </c>
       <c r="G41" s="3">
-        <v>563800</v>
+        <v>477100</v>
       </c>
       <c r="H41" s="3">
-        <v>882800</v>
+        <v>539000</v>
       </c>
       <c r="I41" s="3">
-        <v>540900</v>
+        <v>844000</v>
       </c>
       <c r="J41" s="3">
+        <v>517100</v>
+      </c>
+      <c r="K41" s="3">
         <v>691200</v>
       </c>
-      <c r="K41" s="3">
+      <c r="L41" s="3">
         <v>343000</v>
       </c>
-      <c r="L41" s="3">
+      <c r="M41" s="3">
         <v>461300</v>
       </c>
-      <c r="M41" s="3">
+      <c r="N41" s="3">
         <v>484000</v>
       </c>
-      <c r="N41" s="3" t="s">
-        <v>3</v>
-      </c>
-      <c r="O41" s="3">
-        <v>0</v>
+      <c r="O41" s="3" t="s">
+        <v>3</v>
       </c>
       <c r="P41" s="3">
         <v>0</v>
@@ -2100,8 +2187,11 @@
       <c r="Q41" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="42" spans="2:17" x14ac:dyDescent="0.2">
+      <c r="R41" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="42" spans="2:18" x14ac:dyDescent="0.2">
       <c r="C42" s="1" t="s">
         <v>35</v>
       </c>
@@ -2127,19 +2217,19 @@
         <v>0</v>
       </c>
       <c r="K42" s="3">
+        <v>0</v>
+      </c>
+      <c r="L42" s="3">
         <v>416200</v>
       </c>
-      <c r="L42" s="3">
+      <c r="M42" s="3">
         <v>448700</v>
       </c>
-      <c r="M42" s="3">
+      <c r="N42" s="3">
         <v>190300</v>
       </c>
-      <c r="N42" s="3" t="s">
-        <v>3</v>
-      </c>
-      <c r="O42" s="3">
-        <v>0</v>
+      <c r="O42" s="3" t="s">
+        <v>3</v>
       </c>
       <c r="P42" s="3">
         <v>0</v>
@@ -2147,46 +2237,49 @@
       <c r="Q42" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="43" spans="2:17" x14ac:dyDescent="0.2">
+      <c r="R42" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="43" spans="2:18" x14ac:dyDescent="0.2">
       <c r="C43" s="1" t="s">
         <v>36</v>
       </c>
       <c r="D43" s="3">
-        <v>266200</v>
+        <v>308000</v>
       </c>
       <c r="E43" s="3">
-        <v>302700</v>
+        <v>254400</v>
       </c>
       <c r="F43" s="3">
-        <v>234800</v>
+        <v>289400</v>
       </c>
       <c r="G43" s="3">
-        <v>253800</v>
+        <v>224500</v>
       </c>
       <c r="H43" s="3">
-        <v>185300</v>
+        <v>242700</v>
       </c>
       <c r="I43" s="3">
-        <v>155600</v>
+        <v>177200</v>
       </c>
       <c r="J43" s="3">
+        <v>148700</v>
+      </c>
+      <c r="K43" s="3">
         <v>192600</v>
       </c>
-      <c r="K43" s="3">
+      <c r="L43" s="3">
         <v>353300</v>
       </c>
-      <c r="L43" s="3">
+      <c r="M43" s="3">
         <v>375600</v>
       </c>
-      <c r="M43" s="3">
+      <c r="N43" s="3">
         <v>280100</v>
       </c>
-      <c r="N43" s="3" t="s">
-        <v>3</v>
-      </c>
-      <c r="O43" s="3">
-        <v>0</v>
+      <c r="O43" s="3" t="s">
+        <v>3</v>
       </c>
       <c r="P43" s="3">
         <v>0</v>
@@ -2194,46 +2287,49 @@
       <c r="Q43" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="44" spans="2:17" x14ac:dyDescent="0.2">
+      <c r="R43" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="44" spans="2:18" x14ac:dyDescent="0.2">
       <c r="C44" s="1" t="s">
         <v>37</v>
       </c>
       <c r="D44" s="3">
-        <v>1098100</v>
+        <v>1131300</v>
       </c>
       <c r="E44" s="3">
-        <v>948200</v>
+        <v>1049800</v>
       </c>
       <c r="F44" s="3">
-        <v>857200</v>
+        <v>906500</v>
       </c>
       <c r="G44" s="3">
-        <v>872800</v>
+        <v>819500</v>
       </c>
       <c r="H44" s="3">
-        <v>721700</v>
+        <v>834400</v>
       </c>
       <c r="I44" s="3">
-        <v>672400</v>
+        <v>690000</v>
       </c>
       <c r="J44" s="3">
+        <v>642800</v>
+      </c>
+      <c r="K44" s="3">
         <v>731700</v>
       </c>
-      <c r="K44" s="3">
+      <c r="L44" s="3">
         <v>1243300</v>
       </c>
-      <c r="L44" s="3">
+      <c r="M44" s="3">
         <v>1113600</v>
       </c>
-      <c r="M44" s="3">
+      <c r="N44" s="3">
         <v>1036500</v>
       </c>
-      <c r="N44" s="3" t="s">
-        <v>3</v>
-      </c>
-      <c r="O44" s="3">
-        <v>0</v>
+      <c r="O44" s="3" t="s">
+        <v>3</v>
       </c>
       <c r="P44" s="3">
         <v>0</v>
@@ -2241,46 +2337,49 @@
       <c r="Q44" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="45" spans="2:17" x14ac:dyDescent="0.2">
+      <c r="R44" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="45" spans="2:18" x14ac:dyDescent="0.2">
       <c r="C45" s="1" t="s">
         <v>38</v>
       </c>
       <c r="D45" s="3">
-        <v>77700</v>
+        <v>67500</v>
       </c>
       <c r="E45" s="3">
-        <v>291400</v>
+        <v>74300</v>
       </c>
       <c r="F45" s="3">
-        <v>125600</v>
+        <v>278600</v>
       </c>
       <c r="G45" s="3">
-        <v>47600</v>
+        <v>120100</v>
       </c>
       <c r="H45" s="3">
-        <v>44000</v>
+        <v>45500</v>
       </c>
       <c r="I45" s="3">
-        <v>17600</v>
+        <v>42100</v>
       </c>
       <c r="J45" s="3">
+        <v>16800</v>
+      </c>
+      <c r="K45" s="3">
         <v>18400</v>
       </c>
-      <c r="K45" s="3">
+      <c r="L45" s="3">
         <v>62900</v>
       </c>
-      <c r="L45" s="3">
+      <c r="M45" s="3">
         <v>84900</v>
       </c>
-      <c r="M45" s="3">
+      <c r="N45" s="3">
         <v>154400</v>
       </c>
-      <c r="N45" s="3" t="s">
-        <v>3</v>
-      </c>
-      <c r="O45" s="3">
-        <v>0</v>
+      <c r="O45" s="3" t="s">
+        <v>3</v>
       </c>
       <c r="P45" s="3">
         <v>0</v>
@@ -2288,46 +2387,49 @@
       <c r="Q45" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="46" spans="2:17" x14ac:dyDescent="0.2">
+      <c r="R45" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="46" spans="2:18" x14ac:dyDescent="0.2">
       <c r="C46" s="1" t="s">
         <v>39</v>
       </c>
       <c r="D46" s="3">
-        <v>2050200</v>
+        <v>2294500</v>
       </c>
       <c r="E46" s="3">
-        <v>2401200</v>
+        <v>1960000</v>
       </c>
       <c r="F46" s="3">
-        <v>1716700</v>
+        <v>2295600</v>
       </c>
       <c r="G46" s="3">
-        <v>1738000</v>
+        <v>1641200</v>
       </c>
       <c r="H46" s="3">
-        <v>1833900</v>
+        <v>1661500</v>
       </c>
       <c r="I46" s="3">
-        <v>1386500</v>
+        <v>1753200</v>
       </c>
       <c r="J46" s="3">
+        <v>1325500</v>
+      </c>
+      <c r="K46" s="3">
         <v>1633900</v>
       </c>
-      <c r="K46" s="3">
+      <c r="L46" s="3">
         <v>2418800</v>
       </c>
-      <c r="L46" s="3">
+      <c r="M46" s="3">
         <v>2484100</v>
       </c>
-      <c r="M46" s="3">
+      <c r="N46" s="3">
         <v>2145300</v>
       </c>
-      <c r="N46" s="3" t="s">
-        <v>3</v>
-      </c>
-      <c r="O46" s="3">
-        <v>0</v>
+      <c r="O46" s="3" t="s">
+        <v>3</v>
       </c>
       <c r="P46" s="3">
         <v>0</v>
@@ -2335,46 +2437,49 @@
       <c r="Q46" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="47" spans="2:17" x14ac:dyDescent="0.2">
+      <c r="R46" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="47" spans="2:18" x14ac:dyDescent="0.2">
       <c r="C47" s="1" t="s">
         <v>40</v>
       </c>
       <c r="D47" s="3">
-        <v>463600</v>
+        <v>373800</v>
       </c>
       <c r="E47" s="3">
-        <v>457900</v>
+        <v>443200</v>
       </c>
       <c r="F47" s="3">
+        <v>437800</v>
+      </c>
+      <c r="G47" s="3">
+        <v>313000</v>
+      </c>
+      <c r="H47" s="3">
+        <v>333400</v>
+      </c>
+      <c r="I47" s="3">
+        <v>327000</v>
+      </c>
+      <c r="J47" s="3">
         <v>327400</v>
       </c>
-      <c r="G47" s="3">
-        <v>348700</v>
-      </c>
-      <c r="H47" s="3">
-        <v>342100</v>
-      </c>
-      <c r="I47" s="3">
-        <v>342500</v>
-      </c>
-      <c r="J47" s="3">
+      <c r="K47" s="3">
         <v>354800</v>
       </c>
-      <c r="K47" s="3">
+      <c r="L47" s="3">
         <v>285200</v>
       </c>
-      <c r="L47" s="3">
+      <c r="M47" s="3">
         <v>291300</v>
       </c>
-      <c r="M47" s="3">
+      <c r="N47" s="3">
         <v>297400</v>
       </c>
-      <c r="N47" s="3" t="s">
-        <v>3</v>
-      </c>
-      <c r="O47" s="3">
-        <v>0</v>
+      <c r="O47" s="3" t="s">
+        <v>3</v>
       </c>
       <c r="P47" s="3">
         <v>0</v>
@@ -2382,46 +2487,49 @@
       <c r="Q47" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="48" spans="2:17" x14ac:dyDescent="0.2">
+      <c r="R47" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="48" spans="2:18" x14ac:dyDescent="0.2">
       <c r="C48" s="1" t="s">
         <v>41</v>
       </c>
       <c r="D48" s="3">
-        <v>3029200</v>
+        <v>3168400</v>
       </c>
       <c r="E48" s="3">
-        <v>2515700</v>
+        <v>2896000</v>
       </c>
       <c r="F48" s="3">
-        <v>2019600</v>
+        <v>2405000</v>
       </c>
       <c r="G48" s="3">
-        <v>1741100</v>
+        <v>1930800</v>
       </c>
       <c r="H48" s="3">
-        <v>1596900</v>
+        <v>1664500</v>
       </c>
       <c r="I48" s="3">
-        <v>1487900</v>
+        <v>1526700</v>
       </c>
       <c r="J48" s="3">
+        <v>1422400</v>
+      </c>
+      <c r="K48" s="3">
         <v>1463100</v>
       </c>
-      <c r="K48" s="3">
+      <c r="L48" s="3">
         <v>4076200</v>
       </c>
-      <c r="L48" s="3">
+      <c r="M48" s="3">
         <v>4057500</v>
       </c>
-      <c r="M48" s="3">
+      <c r="N48" s="3">
         <v>3266400</v>
       </c>
-      <c r="N48" s="3" t="s">
-        <v>3</v>
-      </c>
-      <c r="O48" s="3">
-        <v>0</v>
+      <c r="O48" s="3" t="s">
+        <v>3</v>
       </c>
       <c r="P48" s="3">
         <v>0</v>
@@ -2429,46 +2537,49 @@
       <c r="Q48" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="49" spans="3:17" x14ac:dyDescent="0.2">
+      <c r="R48" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="49" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C49" s="1" t="s">
         <v>42</v>
       </c>
       <c r="D49" s="3">
-        <v>943300</v>
+        <v>938800</v>
       </c>
       <c r="E49" s="3">
-        <v>933500</v>
+        <v>901800</v>
       </c>
       <c r="F49" s="3">
-        <v>369300</v>
+        <v>892400</v>
       </c>
       <c r="G49" s="3">
-        <v>207400</v>
+        <v>353000</v>
       </c>
       <c r="H49" s="3">
-        <v>204900</v>
+        <v>198300</v>
       </c>
       <c r="I49" s="3">
+        <v>195900</v>
+      </c>
+      <c r="J49" s="3">
+        <v>194000</v>
+      </c>
+      <c r="K49" s="3">
         <v>202900</v>
       </c>
-      <c r="J49" s="3">
-        <v>202900</v>
-      </c>
-      <c r="K49" s="3">
+      <c r="L49" s="3">
         <v>964700</v>
       </c>
-      <c r="L49" s="3">
+      <c r="M49" s="3">
         <v>971300</v>
       </c>
-      <c r="M49" s="3">
+      <c r="N49" s="3">
         <v>796000</v>
       </c>
-      <c r="N49" s="3" t="s">
-        <v>3</v>
-      </c>
-      <c r="O49" s="3">
-        <v>0</v>
+      <c r="O49" s="3" t="s">
+        <v>3</v>
       </c>
       <c r="P49" s="3">
         <v>0</v>
@@ -2476,8 +2587,11 @@
       <c r="Q49" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="50" spans="3:17" x14ac:dyDescent="0.2">
+      <c r="R49" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="50" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C50" s="1" t="s">
         <v>43</v>
       </c>
@@ -2523,8 +2637,11 @@
       <c r="Q50" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="51" spans="3:17" x14ac:dyDescent="0.2">
+      <c r="R50" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="51" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C51" s="1" t="s">
         <v>44</v>
       </c>
@@ -2570,46 +2687,49 @@
       <c r="Q51" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="52" spans="3:17" x14ac:dyDescent="0.2">
+      <c r="R51" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="52" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C52" s="1" t="s">
         <v>45</v>
       </c>
       <c r="D52" s="3">
-        <v>57100</v>
+        <v>38700</v>
       </c>
       <c r="E52" s="3">
-        <v>49300</v>
+        <v>54600</v>
       </c>
       <c r="F52" s="3">
-        <v>39500</v>
+        <v>47100</v>
       </c>
       <c r="G52" s="3">
-        <v>29200</v>
+        <v>37800</v>
       </c>
       <c r="H52" s="3">
-        <v>30300</v>
+        <v>27900</v>
       </c>
       <c r="I52" s="3">
-        <v>27600</v>
+        <v>29000</v>
       </c>
       <c r="J52" s="3">
+        <v>26400</v>
+      </c>
+      <c r="K52" s="3">
         <v>28600</v>
       </c>
-      <c r="K52" s="3">
+      <c r="L52" s="3">
         <v>41100</v>
       </c>
-      <c r="L52" s="3">
+      <c r="M52" s="3">
         <v>39800</v>
       </c>
-      <c r="M52" s="3">
+      <c r="N52" s="3">
         <v>39300</v>
       </c>
-      <c r="N52" s="3" t="s">
-        <v>3</v>
-      </c>
-      <c r="O52" s="3">
-        <v>0</v>
+      <c r="O52" s="3" t="s">
+        <v>3</v>
       </c>
       <c r="P52" s="3">
         <v>0</v>
@@ -2617,8 +2737,11 @@
       <c r="Q52" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="53" spans="3:17" x14ac:dyDescent="0.2">
+      <c r="R52" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="53" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C53" s="1" t="s">
         <v>46</v>
       </c>
@@ -2664,46 +2787,49 @@
       <c r="Q53" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="54" spans="3:17" x14ac:dyDescent="0.2">
+      <c r="R53" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="54" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C54" s="1" t="s">
         <v>47</v>
       </c>
       <c r="D54" s="3">
-        <v>6543400</v>
+        <v>6814200</v>
       </c>
       <c r="E54" s="3">
-        <v>6357700</v>
+        <v>6255500</v>
       </c>
       <c r="F54" s="3">
-        <v>4472500</v>
+        <v>6078000</v>
       </c>
       <c r="G54" s="3">
-        <v>4064500</v>
+        <v>4275800</v>
       </c>
       <c r="H54" s="3">
-        <v>4008100</v>
+        <v>3885700</v>
       </c>
       <c r="I54" s="3">
-        <v>3447500</v>
+        <v>3831800</v>
       </c>
       <c r="J54" s="3">
+        <v>3295800</v>
+      </c>
+      <c r="K54" s="3">
         <v>3683300</v>
       </c>
-      <c r="K54" s="3">
+      <c r="L54" s="3">
         <v>7785900</v>
       </c>
-      <c r="L54" s="3">
+      <c r="M54" s="3">
         <v>7844000</v>
       </c>
-      <c r="M54" s="3">
+      <c r="N54" s="3">
         <v>6544400</v>
       </c>
-      <c r="N54" s="3" t="s">
-        <v>3</v>
-      </c>
-      <c r="O54" s="3">
-        <v>0</v>
+      <c r="O54" s="3" t="s">
+        <v>3</v>
       </c>
       <c r="P54" s="3">
         <v>0</v>
@@ -2711,8 +2837,11 @@
       <c r="Q54" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="55" spans="3:17" x14ac:dyDescent="0.2">
+      <c r="R54" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="55" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C55" s="1" t="s">
         <v>48</v>
       </c>
@@ -2730,8 +2859,9 @@
       <c r="O55" s="3"/>
       <c r="P55" s="3"/>
       <c r="Q55" s="3"/>
-    </row>
-    <row r="56" spans="3:17" x14ac:dyDescent="0.2">
+      <c r="R55" s="3"/>
+    </row>
+    <row r="56" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C56" s="1" t="s">
         <v>49</v>
       </c>
@@ -2749,46 +2879,47 @@
       <c r="O56" s="3"/>
       <c r="P56" s="3"/>
       <c r="Q56" s="3"/>
-    </row>
-    <row r="57" spans="3:17" x14ac:dyDescent="0.2">
+      <c r="R56" s="3"/>
+    </row>
+    <row r="57" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C57" s="1" t="s">
         <v>50</v>
       </c>
       <c r="D57" s="3">
-        <v>1797300</v>
+        <v>1983700</v>
       </c>
       <c r="E57" s="3">
-        <v>1831000</v>
+        <v>1718200</v>
       </c>
       <c r="F57" s="3">
-        <v>1234900</v>
+        <v>1750400</v>
       </c>
       <c r="G57" s="3">
-        <v>1060700</v>
+        <v>1180500</v>
       </c>
       <c r="H57" s="3">
-        <v>902000</v>
+        <v>1014000</v>
       </c>
       <c r="I57" s="3">
-        <v>823700</v>
+        <v>862300</v>
       </c>
       <c r="J57" s="3">
+        <v>787500</v>
+      </c>
+      <c r="K57" s="3">
         <v>997900</v>
       </c>
-      <c r="K57" s="3">
+      <c r="L57" s="3">
         <v>1629100</v>
       </c>
-      <c r="L57" s="3">
+      <c r="M57" s="3">
         <v>1636800</v>
       </c>
-      <c r="M57" s="3">
+      <c r="N57" s="3">
         <v>1465500</v>
       </c>
-      <c r="N57" s="3" t="s">
-        <v>3</v>
-      </c>
-      <c r="O57" s="3">
-        <v>0</v>
+      <c r="O57" s="3" t="s">
+        <v>3</v>
       </c>
       <c r="P57" s="3">
         <v>0</v>
@@ -2796,46 +2927,49 @@
       <c r="Q57" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="58" spans="3:17" x14ac:dyDescent="0.2">
+      <c r="R57" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="58" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C58" s="1" t="s">
         <v>51</v>
       </c>
       <c r="D58" s="3">
-        <v>108200</v>
+        <v>226000</v>
       </c>
       <c r="E58" s="3">
-        <v>114900</v>
+        <v>103500</v>
       </c>
       <c r="F58" s="3">
-        <v>167700</v>
+        <v>109800</v>
       </c>
       <c r="G58" s="3">
-        <v>504100</v>
+        <v>160300</v>
       </c>
       <c r="H58" s="3">
-        <v>470500</v>
+        <v>481900</v>
       </c>
       <c r="I58" s="3">
-        <v>400800</v>
+        <v>449800</v>
       </c>
       <c r="J58" s="3">
+        <v>383200</v>
+      </c>
+      <c r="K58" s="3">
         <v>448500</v>
       </c>
-      <c r="K58" s="3">
+      <c r="L58" s="3">
         <v>818100</v>
       </c>
-      <c r="L58" s="3">
+      <c r="M58" s="3">
         <v>530100</v>
       </c>
-      <c r="M58" s="3">
+      <c r="N58" s="3">
         <v>521100</v>
       </c>
-      <c r="N58" s="3" t="s">
-        <v>3</v>
-      </c>
-      <c r="O58" s="3">
-        <v>0</v>
+      <c r="O58" s="3" t="s">
+        <v>3</v>
       </c>
       <c r="P58" s="3">
         <v>0</v>
@@ -2843,46 +2977,49 @@
       <c r="Q58" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="59" spans="3:17" x14ac:dyDescent="0.2">
+      <c r="R58" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="59" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C59" s="1" t="s">
         <v>52</v>
       </c>
       <c r="D59" s="3">
-        <v>257000</v>
+        <v>314700</v>
       </c>
       <c r="E59" s="3">
-        <v>280200</v>
+        <v>245600</v>
       </c>
       <c r="F59" s="3">
-        <v>289000</v>
+        <v>267900</v>
       </c>
       <c r="G59" s="3">
-        <v>229200</v>
+        <v>276300</v>
       </c>
       <c r="H59" s="3">
-        <v>194300</v>
+        <v>219100</v>
       </c>
       <c r="I59" s="3">
-        <v>193900</v>
+        <v>185800</v>
       </c>
       <c r="J59" s="3">
+        <v>185400</v>
+      </c>
+      <c r="K59" s="3">
         <v>260700</v>
       </c>
-      <c r="K59" s="3">
+      <c r="L59" s="3">
         <v>508400</v>
       </c>
-      <c r="L59" s="3">
+      <c r="M59" s="3">
         <v>491300</v>
       </c>
-      <c r="M59" s="3">
+      <c r="N59" s="3">
         <v>394000</v>
       </c>
-      <c r="N59" s="3" t="s">
-        <v>3</v>
-      </c>
-      <c r="O59" s="3">
-        <v>0</v>
+      <c r="O59" s="3" t="s">
+        <v>3</v>
       </c>
       <c r="P59" s="3">
         <v>0</v>
@@ -2890,46 +3027,49 @@
       <c r="Q59" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="60" spans="3:17" x14ac:dyDescent="0.2">
+      <c r="R59" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="60" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C60" s="1" t="s">
         <v>53</v>
       </c>
       <c r="D60" s="3">
-        <v>2162500</v>
+        <v>2524400</v>
       </c>
       <c r="E60" s="3">
-        <v>2226100</v>
+        <v>2067300</v>
       </c>
       <c r="F60" s="3">
-        <v>1691600</v>
+        <v>2128100</v>
       </c>
       <c r="G60" s="3">
-        <v>1794000</v>
+        <v>1617200</v>
       </c>
       <c r="H60" s="3">
-        <v>1566800</v>
+        <v>1715100</v>
       </c>
       <c r="I60" s="3">
-        <v>1418400</v>
+        <v>1497800</v>
       </c>
       <c r="J60" s="3">
+        <v>1356000</v>
+      </c>
+      <c r="K60" s="3">
         <v>1707100</v>
       </c>
-      <c r="K60" s="3">
+      <c r="L60" s="3">
         <v>2955600</v>
       </c>
-      <c r="L60" s="3">
+      <c r="M60" s="3">
         <v>2658100</v>
       </c>
-      <c r="M60" s="3">
+      <c r="N60" s="3">
         <v>2380600</v>
       </c>
-      <c r="N60" s="3" t="s">
-        <v>3</v>
-      </c>
-      <c r="O60" s="3">
-        <v>0</v>
+      <c r="O60" s="3" t="s">
+        <v>3</v>
       </c>
       <c r="P60" s="3">
         <v>0</v>
@@ -2937,44 +3077,47 @@
       <c r="Q60" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="61" spans="3:17" x14ac:dyDescent="0.2">
+      <c r="R60" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="61" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C61" s="1" t="s">
         <v>54</v>
       </c>
       <c r="D61" s="3">
-        <v>3533400</v>
+        <v>3431800</v>
       </c>
       <c r="E61" s="3">
-        <v>3215700</v>
+        <v>3377900</v>
       </c>
       <c r="F61" s="3">
-        <v>2197100</v>
+        <v>3074300</v>
       </c>
       <c r="G61" s="3">
-        <v>1741900</v>
+        <v>2100500</v>
       </c>
       <c r="H61" s="3">
-        <v>2000400</v>
+        <v>1665300</v>
       </c>
       <c r="I61" s="3">
-        <v>1641100</v>
+        <v>1912400</v>
       </c>
       <c r="J61" s="3">
+        <v>1568900</v>
+      </c>
+      <c r="K61" s="3">
         <v>1627200</v>
       </c>
-      <c r="K61" s="3">
+      <c r="L61" s="3">
         <v>2075600</v>
       </c>
-      <c r="L61" s="3">
+      <c r="M61" s="3">
         <v>2472300</v>
       </c>
-      <c r="M61" s="3">
+      <c r="N61" s="3">
         <v>2004400</v>
       </c>
-      <c r="N61" s="3">
-        <v>0</v>
-      </c>
       <c r="O61" s="3">
         <v>0</v>
       </c>
@@ -2984,46 +3127,49 @@
       <c r="Q61" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="62" spans="3:17" x14ac:dyDescent="0.2">
+      <c r="R61" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="62" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C62" s="1" t="s">
         <v>55</v>
       </c>
       <c r="D62" s="3">
-        <v>199600</v>
+        <v>185400</v>
       </c>
       <c r="E62" s="3">
-        <v>331900</v>
+        <v>190800</v>
       </c>
       <c r="F62" s="3">
-        <v>42500</v>
+        <v>317300</v>
       </c>
       <c r="G62" s="3">
-        <v>58500</v>
+        <v>40600</v>
       </c>
       <c r="H62" s="3">
-        <v>65800</v>
+        <v>55900</v>
       </c>
       <c r="I62" s="3">
-        <v>76700</v>
+        <v>62900</v>
       </c>
       <c r="J62" s="3">
+        <v>73300</v>
+      </c>
+      <c r="K62" s="3">
         <v>73000</v>
       </c>
-      <c r="K62" s="3">
+      <c r="L62" s="3">
         <v>281500</v>
       </c>
-      <c r="L62" s="3">
+      <c r="M62" s="3">
         <v>311700</v>
       </c>
-      <c r="M62" s="3">
+      <c r="N62" s="3">
         <v>287800</v>
       </c>
-      <c r="N62" s="3" t="s">
-        <v>3</v>
-      </c>
-      <c r="O62" s="3">
-        <v>0</v>
+      <c r="O62" s="3" t="s">
+        <v>3</v>
       </c>
       <c r="P62" s="3">
         <v>0</v>
@@ -3031,8 +3177,11 @@
       <c r="Q62" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="63" spans="3:17" x14ac:dyDescent="0.2">
+      <c r="R62" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="63" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C63" s="1" t="s">
         <v>56</v>
       </c>
@@ -3078,8 +3227,11 @@
       <c r="Q63" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="64" spans="3:17" x14ac:dyDescent="0.2">
+      <c r="R63" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="64" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C64" s="1" t="s">
         <v>20</v>
       </c>
@@ -3125,8 +3277,11 @@
       <c r="Q64" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="65" spans="2:17" x14ac:dyDescent="0.2">
+      <c r="R64" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="65" spans="2:18" x14ac:dyDescent="0.2">
       <c r="C65" s="1" t="s">
         <v>57</v>
       </c>
@@ -3172,46 +3327,49 @@
       <c r="Q65" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="66" spans="2:17" x14ac:dyDescent="0.2">
+      <c r="R65" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="66" spans="2:18" x14ac:dyDescent="0.2">
       <c r="C66" s="1" t="s">
         <v>58</v>
       </c>
       <c r="D66" s="3">
-        <v>5895500</v>
+        <v>6141600</v>
       </c>
       <c r="E66" s="3">
-        <v>5773700</v>
+        <v>5636100</v>
       </c>
       <c r="F66" s="3">
-        <v>3931200</v>
+        <v>5519700</v>
       </c>
       <c r="G66" s="3">
-        <v>3594400</v>
+        <v>3758300</v>
       </c>
       <c r="H66" s="3">
-        <v>3633000</v>
+        <v>3436300</v>
       </c>
       <c r="I66" s="3">
-        <v>3136300</v>
+        <v>3473100</v>
       </c>
       <c r="J66" s="3">
+        <v>2998300</v>
+      </c>
+      <c r="K66" s="3">
         <v>3407300</v>
       </c>
-      <c r="K66" s="3">
+      <c r="L66" s="3">
         <v>5926200</v>
       </c>
-      <c r="L66" s="3">
+      <c r="M66" s="3">
         <v>6053100</v>
       </c>
-      <c r="M66" s="3">
+      <c r="N66" s="3">
         <v>5153300</v>
       </c>
-      <c r="N66" s="3" t="s">
-        <v>3</v>
-      </c>
-      <c r="O66" s="3">
-        <v>0</v>
+      <c r="O66" s="3" t="s">
+        <v>3</v>
       </c>
       <c r="P66" s="3">
         <v>0</v>
@@ -3219,8 +3377,11 @@
       <c r="Q66" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="67" spans="2:17" x14ac:dyDescent="0.2">
+      <c r="R66" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="67" spans="2:18" x14ac:dyDescent="0.2">
       <c r="C67" s="1" t="s">
         <v>59</v>
       </c>
@@ -3238,8 +3399,9 @@
       <c r="O67" s="3"/>
       <c r="P67" s="3"/>
       <c r="Q67" s="3"/>
-    </row>
-    <row r="68" spans="2:17" x14ac:dyDescent="0.2">
+      <c r="R67" s="3"/>
+    </row>
+    <row r="68" spans="2:18" x14ac:dyDescent="0.2">
       <c r="C68" s="1" t="s">
         <v>60</v>
       </c>
@@ -3285,8 +3447,11 @@
       <c r="Q68" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="69" spans="2:17" x14ac:dyDescent="0.2">
+      <c r="R68" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="69" spans="2:18" x14ac:dyDescent="0.2">
       <c r="C69" s="1" t="s">
         <v>61</v>
       </c>
@@ -3332,8 +3497,11 @@
       <c r="Q69" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="70" spans="2:17" x14ac:dyDescent="0.2">
+      <c r="R69" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="70" spans="2:18" x14ac:dyDescent="0.2">
       <c r="C70" s="1" t="s">
         <v>62</v>
       </c>
@@ -3379,8 +3547,11 @@
       <c r="Q70" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="71" spans="2:17" x14ac:dyDescent="0.2">
+      <c r="R70" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="71" spans="2:18" x14ac:dyDescent="0.2">
       <c r="C71" s="1" t="s">
         <v>63</v>
       </c>
@@ -3426,46 +3597,49 @@
       <c r="Q71" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="72" spans="2:17" x14ac:dyDescent="0.2">
+      <c r="R71" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="72" spans="2:18" x14ac:dyDescent="0.2">
       <c r="C72" s="1" t="s">
         <v>64</v>
       </c>
       <c r="D72" s="3">
-        <v>402600</v>
+        <v>437800</v>
       </c>
       <c r="E72" s="3">
-        <v>430000</v>
+        <v>384800</v>
       </c>
       <c r="F72" s="3">
-        <v>387300</v>
+        <v>411000</v>
       </c>
       <c r="G72" s="3">
-        <v>316100</v>
+        <v>370300</v>
       </c>
       <c r="H72" s="3">
-        <v>222700</v>
+        <v>302200</v>
       </c>
       <c r="I72" s="3">
-        <v>162200</v>
+        <v>212900</v>
       </c>
       <c r="J72" s="3">
+        <v>155100</v>
+      </c>
+      <c r="K72" s="3">
         <v>127000</v>
       </c>
-      <c r="K72" s="3">
+      <c r="L72" s="3">
         <v>562300</v>
       </c>
-      <c r="L72" s="3">
+      <c r="M72" s="3">
         <v>545100</v>
       </c>
-      <c r="M72" s="3">
+      <c r="N72" s="3">
         <v>462000</v>
       </c>
-      <c r="N72" s="3" t="s">
-        <v>3</v>
-      </c>
-      <c r="O72" s="3">
-        <v>0</v>
+      <c r="O72" s="3" t="s">
+        <v>3</v>
       </c>
       <c r="P72" s="3">
         <v>0</v>
@@ -3473,8 +3647,11 @@
       <c r="Q72" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="73" spans="2:17" x14ac:dyDescent="0.2">
+      <c r="R72" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="73" spans="2:18" x14ac:dyDescent="0.2">
       <c r="C73" s="1" t="s">
         <v>65</v>
       </c>
@@ -3520,8 +3697,11 @@
       <c r="Q73" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="74" spans="2:17" x14ac:dyDescent="0.2">
+      <c r="R73" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="74" spans="2:18" x14ac:dyDescent="0.2">
       <c r="C74" s="1" t="s">
         <v>66</v>
       </c>
@@ -3567,8 +3747,11 @@
       <c r="Q74" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="75" spans="2:17" x14ac:dyDescent="0.2">
+      <c r="R74" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="75" spans="2:18" x14ac:dyDescent="0.2">
       <c r="C75" s="1" t="s">
         <v>67</v>
       </c>
@@ -3614,46 +3797,49 @@
       <c r="Q75" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="76" spans="2:17" x14ac:dyDescent="0.2">
+      <c r="R75" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="76" spans="2:18" x14ac:dyDescent="0.2">
       <c r="C76" s="1" t="s">
         <v>68</v>
       </c>
       <c r="D76" s="3">
-        <v>648000</v>
+        <v>672600</v>
       </c>
       <c r="E76" s="3">
-        <v>584000</v>
+        <v>619500</v>
       </c>
       <c r="F76" s="3">
-        <v>541300</v>
+        <v>558300</v>
       </c>
       <c r="G76" s="3">
-        <v>470100</v>
+        <v>517500</v>
       </c>
       <c r="H76" s="3">
-        <v>375200</v>
+        <v>449400</v>
       </c>
       <c r="I76" s="3">
-        <v>311200</v>
+        <v>358700</v>
       </c>
       <c r="J76" s="3">
+        <v>297500</v>
+      </c>
+      <c r="K76" s="3">
         <v>275900</v>
       </c>
-      <c r="K76" s="3">
+      <c r="L76" s="3">
         <v>1859800</v>
       </c>
-      <c r="L76" s="3">
+      <c r="M76" s="3">
         <v>1790900</v>
       </c>
-      <c r="M76" s="3">
+      <c r="N76" s="3">
         <v>1391000</v>
       </c>
-      <c r="N76" s="3" t="s">
-        <v>3</v>
-      </c>
-      <c r="O76" s="3">
-        <v>0</v>
+      <c r="O76" s="3" t="s">
+        <v>3</v>
       </c>
       <c r="P76" s="3">
         <v>0</v>
@@ -3661,8 +3847,11 @@
       <c r="Q76" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="77" spans="2:17" x14ac:dyDescent="0.2">
+      <c r="R76" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="77" spans="2:18" x14ac:dyDescent="0.2">
       <c r="C77" s="1" t="s">
         <v>69</v>
       </c>
@@ -3708,107 +3897,116 @@
       <c r="Q77" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="79" spans="2:17" x14ac:dyDescent="0.2">
+      <c r="R77" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="79" spans="2:18" x14ac:dyDescent="0.2">
       <c r="B79" s="1" t="s">
         <v>70</v>
       </c>
     </row>
-    <row r="80" spans="2:17" x14ac:dyDescent="0.2">
+    <row r="80" spans="2:18" x14ac:dyDescent="0.2">
       <c r="C80" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D80" s="2">
+        <v>44834</v>
+      </c>
+      <c r="E80" s="2">
         <v>44742</v>
       </c>
-      <c r="E80" s="2">
+      <c r="F80" s="2">
         <v>44651</v>
       </c>
-      <c r="F80" s="2">
+      <c r="G80" s="2">
         <v>44561</v>
       </c>
-      <c r="G80" s="2">
+      <c r="H80" s="2">
         <v>44469</v>
       </c>
-      <c r="H80" s="2">
+      <c r="I80" s="2">
         <v>44377</v>
       </c>
-      <c r="I80" s="2">
+      <c r="J80" s="2">
         <v>44286</v>
       </c>
-      <c r="J80" s="2">
+      <c r="K80" s="2">
         <v>44196</v>
       </c>
-      <c r="K80" s="2">
+      <c r="L80" s="2">
         <v>44104</v>
       </c>
-      <c r="L80" s="2">
+      <c r="M80" s="2">
         <v>44012</v>
       </c>
-      <c r="M80" s="2">
+      <c r="N80" s="2">
         <v>43921</v>
       </c>
-      <c r="N80" s="2">
+      <c r="O80" s="2">
         <v>43830</v>
       </c>
-      <c r="O80" s="2" t="s">
-        <v>3</v>
-      </c>
       <c r="P80" s="2" t="s">
         <v>3</v>
       </c>
       <c r="Q80" s="2" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="81" spans="3:17" x14ac:dyDescent="0.2">
+      <c r="R80" s="2" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="81" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C81" s="1" t="s">
         <v>28</v>
       </c>
       <c r="D81" s="3">
-        <v>62400</v>
+        <v>52600</v>
       </c>
       <c r="E81" s="3">
-        <v>41900</v>
+        <v>59700</v>
       </c>
       <c r="F81" s="3">
-        <v>103100</v>
+        <v>40000</v>
       </c>
       <c r="G81" s="3">
-        <v>105300</v>
+        <v>98600</v>
       </c>
       <c r="H81" s="3">
-        <v>59700</v>
+        <v>100700</v>
       </c>
       <c r="I81" s="3">
-        <v>47000</v>
+        <v>57100</v>
       </c>
       <c r="J81" s="3">
+        <v>44900</v>
+      </c>
+      <c r="K81" s="3">
         <v>273600</v>
       </c>
-      <c r="K81" s="3">
+      <c r="L81" s="3">
         <v>85100</v>
       </c>
-      <c r="L81" s="3">
+      <c r="M81" s="3">
         <v>34500</v>
       </c>
-      <c r="M81" s="3">
+      <c r="N81" s="3">
         <v>17900</v>
       </c>
-      <c r="N81" s="3">
+      <c r="O81" s="3">
         <v>48700</v>
       </c>
-      <c r="O81" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="P81" s="3" t="s">
         <v>3</v>
       </c>
       <c r="Q81" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="82" spans="3:17" x14ac:dyDescent="0.2">
+      <c r="R81" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="82" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C82" s="1" t="s">
         <v>71</v>
       </c>
@@ -3826,8 +4024,9 @@
       <c r="O82" s="3"/>
       <c r="P82" s="3"/>
       <c r="Q82" s="3"/>
-    </row>
-    <row r="83" spans="3:17" x14ac:dyDescent="0.2">
+      <c r="R82" s="3"/>
+    </row>
+    <row r="83" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C83" s="1" t="s">
         <v>72</v>
       </c>
@@ -3835,46 +4034,49 @@
         <v>46000</v>
       </c>
       <c r="E83" s="3">
-        <v>42900</v>
+        <v>44000</v>
       </c>
       <c r="F83" s="3">
-        <v>36800</v>
+        <v>41000</v>
       </c>
       <c r="G83" s="3">
-        <v>34200</v>
+        <v>35200</v>
       </c>
       <c r="H83" s="3">
         <v>32700</v>
       </c>
       <c r="I83" s="3">
-        <v>30700</v>
+        <v>31200</v>
       </c>
       <c r="J83" s="3">
+        <v>29400</v>
+      </c>
+      <c r="K83" s="3">
         <v>268500</v>
       </c>
-      <c r="K83" s="3">
+      <c r="L83" s="3">
         <v>69300</v>
       </c>
-      <c r="L83" s="3">
+      <c r="M83" s="3">
         <v>65400</v>
       </c>
-      <c r="M83" s="3">
+      <c r="N83" s="3">
         <v>56100</v>
       </c>
-      <c r="N83" s="3">
+      <c r="O83" s="3">
         <v>32100</v>
       </c>
-      <c r="O83" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="P83" s="3" t="s">
         <v>3</v>
       </c>
       <c r="Q83" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="84" spans="3:17" x14ac:dyDescent="0.2">
+      <c r="R83" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="84" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C84" s="1" t="s">
         <v>73</v>
       </c>
@@ -3920,8 +4122,11 @@
       <c r="Q84" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="85" spans="3:17" x14ac:dyDescent="0.2">
+      <c r="R84" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="85" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C85" s="1" t="s">
         <v>74</v>
       </c>
@@ -3967,8 +4172,11 @@
       <c r="Q85" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="86" spans="3:17" x14ac:dyDescent="0.2">
+      <c r="R85" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="86" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C86" s="1" t="s">
         <v>75</v>
       </c>
@@ -4014,8 +4222,11 @@
       <c r="Q86" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="87" spans="3:17" x14ac:dyDescent="0.2">
+      <c r="R86" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="87" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C87" s="1" t="s">
         <v>76</v>
       </c>
@@ -4061,8 +4272,11 @@
       <c r="Q87" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="88" spans="3:17" x14ac:dyDescent="0.2">
+      <c r="R87" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="88" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C88" s="1" t="s">
         <v>77</v>
       </c>
@@ -4108,55 +4322,61 @@
       <c r="Q88" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="89" spans="3:17" x14ac:dyDescent="0.2">
+      <c r="R88" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="89" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C89" s="1" t="s">
         <v>78</v>
       </c>
       <c r="D89" s="3">
-        <v>73000</v>
+        <v>313900</v>
       </c>
       <c r="E89" s="3">
-        <v>166900</v>
+        <v>69800</v>
       </c>
       <c r="F89" s="3">
-        <v>420800</v>
+        <v>159600</v>
       </c>
       <c r="G89" s="3">
-        <v>122500</v>
+        <v>402200</v>
       </c>
       <c r="H89" s="3">
-        <v>139900</v>
+        <v>117100</v>
       </c>
       <c r="I89" s="3">
-        <v>-42900</v>
+        <v>133800</v>
       </c>
       <c r="J89" s="3">
+        <v>-41000</v>
+      </c>
+      <c r="K89" s="3">
         <v>684600</v>
       </c>
-      <c r="K89" s="3">
+      <c r="L89" s="3">
         <v>47900</v>
       </c>
-      <c r="L89" s="3">
+      <c r="M89" s="3">
         <v>201600</v>
       </c>
-      <c r="M89" s="3">
+      <c r="N89" s="3">
         <v>-341200</v>
       </c>
-      <c r="N89" s="3">
+      <c r="O89" s="3">
         <v>505600</v>
       </c>
-      <c r="O89" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="P89" s="3" t="s">
         <v>3</v>
       </c>
       <c r="Q89" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="90" spans="3:17" x14ac:dyDescent="0.2">
+      <c r="R89" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="90" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C90" s="1" t="s">
         <v>79</v>
       </c>
@@ -4174,55 +4394,59 @@
       <c r="O90" s="3"/>
       <c r="P90" s="3"/>
       <c r="Q90" s="3"/>
-    </row>
-    <row r="91" spans="3:17" x14ac:dyDescent="0.2">
+      <c r="R90" s="3"/>
+    </row>
+    <row r="91" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C91" s="1" t="s">
         <v>80</v>
       </c>
       <c r="D91" s="3">
-        <v>-261800</v>
+        <v>-193300</v>
       </c>
       <c r="E91" s="3">
-        <v>-132100</v>
+        <v>-250300</v>
       </c>
       <c r="F91" s="3">
-        <v>-131900</v>
+        <v>-126300</v>
       </c>
       <c r="G91" s="3">
-        <v>-160100</v>
+        <v>-126100</v>
       </c>
       <c r="H91" s="3">
-        <v>-110600</v>
+        <v>-153000</v>
       </c>
       <c r="I91" s="3">
-        <v>-34100</v>
+        <v>-105700</v>
       </c>
       <c r="J91" s="3">
+        <v>-32600</v>
+      </c>
+      <c r="K91" s="3">
         <v>-305700</v>
       </c>
-      <c r="K91" s="3">
+      <c r="L91" s="3">
         <v>-85900</v>
       </c>
-      <c r="L91" s="3">
+      <c r="M91" s="3">
         <v>-66000</v>
       </c>
-      <c r="M91" s="3">
+      <c r="N91" s="3">
         <v>-64600</v>
       </c>
-      <c r="N91" s="3">
+      <c r="O91" s="3">
         <v>-91900</v>
       </c>
-      <c r="O91" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="P91" s="3" t="s">
         <v>3</v>
       </c>
       <c r="Q91" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="92" spans="3:17" x14ac:dyDescent="0.2">
+      <c r="R91" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="92" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C92" s="1" t="s">
         <v>81</v>
       </c>
@@ -4268,8 +4492,11 @@
       <c r="Q92" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="93" spans="3:17" x14ac:dyDescent="0.2">
+      <c r="R92" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="93" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C93" s="1" t="s">
         <v>82</v>
       </c>
@@ -4315,55 +4542,61 @@
       <c r="Q93" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="94" spans="3:17" x14ac:dyDescent="0.2">
+      <c r="R93" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="94" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C94" s="1" t="s">
         <v>83</v>
       </c>
       <c r="D94" s="3">
-        <v>-241300</v>
+        <v>-127200</v>
       </c>
       <c r="E94" s="3">
-        <v>-298800</v>
+        <v>-230700</v>
       </c>
       <c r="F94" s="3">
-        <v>-370300</v>
+        <v>-285700</v>
       </c>
       <c r="G94" s="3">
-        <v>-122700</v>
+        <v>-354000</v>
       </c>
       <c r="H94" s="3">
-        <v>-113500</v>
+        <v>-117300</v>
       </c>
       <c r="I94" s="3">
-        <v>-34600</v>
+        <v>-108500</v>
       </c>
       <c r="J94" s="3">
+        <v>-33100</v>
+      </c>
+      <c r="K94" s="3">
         <v>-936800</v>
       </c>
-      <c r="K94" s="3">
+      <c r="L94" s="3">
         <v>-64500</v>
       </c>
-      <c r="L94" s="3">
+      <c r="M94" s="3">
         <v>5100</v>
       </c>
-      <c r="M94" s="3">
+      <c r="N94" s="3">
         <v>-68700</v>
       </c>
-      <c r="N94" s="3">
+      <c r="O94" s="3">
         <v>-623700</v>
       </c>
-      <c r="O94" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="P94" s="3" t="s">
         <v>3</v>
       </c>
       <c r="Q94" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="95" spans="3:17" x14ac:dyDescent="0.2">
+      <c r="R94" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="95" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C95" s="1" t="s">
         <v>84</v>
       </c>
@@ -4381,8 +4614,9 @@
       <c r="O95" s="3"/>
       <c r="P95" s="3"/>
       <c r="Q95" s="3"/>
-    </row>
-    <row r="96" spans="3:17" x14ac:dyDescent="0.2">
+      <c r="R95" s="3"/>
+    </row>
+    <row r="96" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C96" s="1" t="s">
         <v>85</v>
       </c>
@@ -4393,43 +4627,46 @@
         <v>0</v>
       </c>
       <c r="F96" s="3">
-        <v>-12300</v>
+        <v>0</v>
       </c>
       <c r="G96" s="3">
-        <v>0</v>
+        <v>-11800</v>
       </c>
       <c r="H96" s="3">
-        <v>-16600</v>
+        <v>0</v>
       </c>
       <c r="I96" s="3">
-        <v>0</v>
+        <v>-15900</v>
       </c>
       <c r="J96" s="3">
+        <v>0</v>
+      </c>
+      <c r="K96" s="3">
         <v>-95700</v>
       </c>
-      <c r="K96" s="3">
+      <c r="L96" s="3">
         <v>-2700</v>
       </c>
-      <c r="L96" s="3">
+      <c r="M96" s="3">
         <v>-21100</v>
       </c>
-      <c r="M96" s="3">
+      <c r="N96" s="3">
         <v>-3000</v>
       </c>
-      <c r="N96" s="3">
+      <c r="O96" s="3">
         <v>-44500</v>
       </c>
-      <c r="O96" s="3">
-        <v>0</v>
-      </c>
       <c r="P96" s="3">
         <v>0</v>
       </c>
       <c r="Q96" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="97" spans="3:17" x14ac:dyDescent="0.2">
+      <c r="R96" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="97" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C97" s="1" t="s">
         <v>86</v>
       </c>
@@ -4475,8 +4712,11 @@
       <c r="Q97" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="98" spans="3:17" x14ac:dyDescent="0.2">
+      <c r="R97" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="98" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C98" s="1" t="s">
         <v>87</v>
       </c>
@@ -4522,8 +4762,11 @@
       <c r="Q98" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="99" spans="3:17" x14ac:dyDescent="0.2">
+      <c r="R98" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="99" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C99" s="1" t="s">
         <v>88</v>
       </c>
@@ -4569,55 +4812,61 @@
       <c r="Q99" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="100" spans="3:17" x14ac:dyDescent="0.2">
+      <c r="R99" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="100" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C100" s="1" t="s">
         <v>89</v>
       </c>
       <c r="D100" s="3">
-        <v>-82400</v>
+        <v>19500</v>
       </c>
       <c r="E100" s="3">
-        <v>491800</v>
+        <v>-78800</v>
       </c>
       <c r="F100" s="3">
-        <v>-115300</v>
+        <v>470200</v>
       </c>
       <c r="G100" s="3">
-        <v>-318800</v>
+        <v>-110200</v>
       </c>
       <c r="H100" s="3">
-        <v>315500</v>
+        <v>-304800</v>
       </c>
       <c r="I100" s="3">
-        <v>-72800</v>
+        <v>301600</v>
       </c>
       <c r="J100" s="3">
+        <v>-69600</v>
+      </c>
+      <c r="K100" s="3">
         <v>-155200</v>
       </c>
-      <c r="K100" s="3">
+      <c r="L100" s="3">
         <v>-118400</v>
       </c>
-      <c r="L100" s="3">
+      <c r="M100" s="3">
         <v>-99900</v>
       </c>
-      <c r="M100" s="3">
+      <c r="N100" s="3">
         <v>159100</v>
       </c>
-      <c r="N100" s="3">
+      <c r="O100" s="3">
         <v>-662800</v>
       </c>
-      <c r="O100" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="P100" s="3" t="s">
         <v>3</v>
       </c>
       <c r="Q100" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="101" spans="3:17" x14ac:dyDescent="0.2">
+      <c r="R100" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="101" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C101" s="1" t="s">
         <v>90</v>
       </c>
@@ -4630,8 +4879,8 @@
       <c r="F101" s="3" t="s">
         <v>3</v>
       </c>
-      <c r="G101" s="3">
-        <v>0</v>
+      <c r="G101" s="3" t="s">
+        <v>3</v>
       </c>
       <c r="H101" s="3">
         <v>0</v>
@@ -4640,74 +4889,80 @@
         <v>0</v>
       </c>
       <c r="J101" s="3">
+        <v>0</v>
+      </c>
+      <c r="K101" s="3">
         <v>115100</v>
       </c>
-      <c r="K101" s="3">
+      <c r="L101" s="3">
         <v>-5300</v>
       </c>
-      <c r="L101" s="3">
+      <c r="M101" s="3">
         <v>58900</v>
       </c>
-      <c r="M101" s="3">
+      <c r="N101" s="3">
         <v>27800</v>
       </c>
-      <c r="N101" s="3">
+      <c r="O101" s="3">
         <v>19800</v>
       </c>
-      <c r="O101" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="P101" s="3" t="s">
         <v>3</v>
       </c>
       <c r="Q101" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="102" spans="3:17" x14ac:dyDescent="0.2">
+      <c r="R101" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="102" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C102" s="1" t="s">
         <v>91</v>
       </c>
       <c r="D102" s="3">
-        <v>-250700</v>
+        <v>206200</v>
       </c>
       <c r="E102" s="3">
-        <v>359900</v>
+        <v>-239700</v>
       </c>
       <c r="F102" s="3">
-        <v>-64800</v>
+        <v>344100</v>
       </c>
       <c r="G102" s="3">
-        <v>-319000</v>
+        <v>-61900</v>
       </c>
       <c r="H102" s="3">
-        <v>341900</v>
+        <v>-305000</v>
       </c>
       <c r="I102" s="3">
-        <v>-150300</v>
+        <v>326800</v>
       </c>
       <c r="J102" s="3">
+        <v>-143700</v>
+      </c>
+      <c r="K102" s="3">
         <v>-292400</v>
       </c>
-      <c r="K102" s="3">
+      <c r="L102" s="3">
         <v>-140200</v>
       </c>
-      <c r="L102" s="3">
+      <c r="M102" s="3">
         <v>165700</v>
       </c>
-      <c r="M102" s="3">
+      <c r="N102" s="3">
         <v>-223000</v>
       </c>
-      <c r="N102" s="3">
+      <c r="O102" s="3">
         <v>-761200</v>
       </c>
-      <c r="O102" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="P102" s="3" t="s">
         <v>3</v>
       </c>
       <c r="Q102" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="R102" s="3" t="s">
         <v>3</v>
       </c>
     </row>

--- a/AAII_Financials/Quarterly/ASAI_QTR_FIN.xlsx
+++ b/AAII_Financials/Quarterly/ASAI_QTR_FIN.xlsx
@@ -22,7 +22,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="225" uniqueCount="92">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="223" uniqueCount="92">
   <si>
     <t>ASAI</t>
   </si>
@@ -656,7 +656,7 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <sheetPr codeName="Sheet2"/>
-  <dimension ref="A5:R102"/>
+  <dimension ref="A5:S102"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -665,231 +665,243 @@
     <col min="1" max="1" width="6.85546875" style="1" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="26.85546875" style="1" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="69.140625" style="1" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="7" max="8" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="9" max="9" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="10" max="10" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="11" max="12" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="13" max="13" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="14" max="14" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="15" max="15" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="16" max="18" width="4.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="19" max="16384" width="9.140625" style="1"/>
+    <col min="4" max="5" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="8" max="9" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="10" max="10" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="11" max="11" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="12" max="13" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="14" max="14" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="15" max="15" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="16" max="16" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="17" max="19" width="4.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="20" max="16384" width="9.140625" style="1"/>
   </cols>
   <sheetData>
-    <row r="5" spans="1:18" x14ac:dyDescent="0.2">
+    <row r="5" spans="1:19" x14ac:dyDescent="0.2">
       <c r="A5" s="1" t="s">
         <v>0</v>
       </c>
     </row>
-    <row r="6" spans="1:18" x14ac:dyDescent="0.2">
+    <row r="6" spans="1:19" x14ac:dyDescent="0.2">
       <c r="B6" s="1" t="s">
         <v>1</v>
       </c>
     </row>
-    <row r="7" spans="1:18" x14ac:dyDescent="0.2">
+    <row r="7" spans="1:19" x14ac:dyDescent="0.2">
       <c r="C7" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D7" s="2">
+        <v>44926</v>
+      </c>
+      <c r="E7" s="2">
         <v>44834</v>
       </c>
-      <c r="E7" s="2">
+      <c r="F7" s="2">
         <v>44742</v>
       </c>
-      <c r="F7" s="2">
+      <c r="G7" s="2">
         <v>44651</v>
       </c>
-      <c r="G7" s="2">
+      <c r="H7" s="2">
         <v>44561</v>
       </c>
-      <c r="H7" s="2">
+      <c r="I7" s="2">
         <v>44469</v>
       </c>
-      <c r="I7" s="2">
+      <c r="J7" s="2">
         <v>44377</v>
       </c>
-      <c r="J7" s="2">
+      <c r="K7" s="2">
         <v>44286</v>
       </c>
-      <c r="K7" s="2">
+      <c r="L7" s="2">
         <v>44196</v>
       </c>
-      <c r="L7" s="2">
+      <c r="M7" s="2">
         <v>44104</v>
       </c>
-      <c r="M7" s="2">
+      <c r="N7" s="2">
         <v>44012</v>
       </c>
-      <c r="N7" s="2">
+      <c r="O7" s="2">
         <v>43921</v>
       </c>
-      <c r="O7" s="2">
+      <c r="P7" s="2">
         <v>43830</v>
       </c>
-      <c r="P7" s="2" t="s">
-        <v>3</v>
-      </c>
       <c r="Q7" s="2" t="s">
         <v>3</v>
       </c>
       <c r="R7" s="2" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="8" spans="1:18" x14ac:dyDescent="0.2">
+      <c r="S7" s="2" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="8" spans="1:19" x14ac:dyDescent="0.2">
       <c r="C8" s="1" t="s">
         <v>4</v>
       </c>
       <c r="D8" s="3">
-        <v>2587800</v>
+        <v>3089200</v>
       </c>
       <c r="E8" s="3">
-        <v>2486600</v>
+        <v>2678300</v>
       </c>
       <c r="F8" s="3">
-        <v>2140900</v>
+        <v>2573500</v>
       </c>
       <c r="G8" s="3">
-        <v>2162000</v>
+        <v>2215700</v>
       </c>
       <c r="H8" s="3">
-        <v>2029000</v>
+        <v>2237600</v>
       </c>
       <c r="I8" s="3">
-        <v>1880100</v>
+        <v>2099900</v>
       </c>
       <c r="J8" s="3">
+        <v>1945800</v>
+      </c>
+      <c r="K8" s="3">
         <v>1767600</v>
       </c>
-      <c r="K8" s="3">
+      <c r="L8" s="3">
         <v>7053600</v>
       </c>
-      <c r="L8" s="3">
+      <c r="M8" s="3">
         <v>1801700</v>
       </c>
-      <c r="M8" s="3">
+      <c r="N8" s="3">
         <v>1624200</v>
       </c>
-      <c r="N8" s="3">
+      <c r="O8" s="3">
         <v>1399200</v>
       </c>
-      <c r="O8" s="3">
+      <c r="P8" s="3">
         <v>1427100</v>
       </c>
-      <c r="P8" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="Q8" s="3" t="s">
         <v>3</v>
       </c>
       <c r="R8" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="9" spans="1:18" x14ac:dyDescent="0.2">
+      <c r="S8" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="9" spans="1:19" x14ac:dyDescent="0.2">
       <c r="C9" s="1" t="s">
         <v>5</v>
       </c>
       <c r="D9" s="3">
-        <v>2166100</v>
+        <v>2559000</v>
       </c>
       <c r="E9" s="3">
-        <v>2085300</v>
+        <v>2241800</v>
       </c>
       <c r="F9" s="3">
-        <v>1799200</v>
+        <v>2158200</v>
       </c>
       <c r="G9" s="3">
-        <v>1789900</v>
+        <v>1862100</v>
       </c>
       <c r="H9" s="3">
-        <v>1668500</v>
+        <v>1852500</v>
       </c>
       <c r="I9" s="3">
-        <v>1557900</v>
+        <v>1726800</v>
       </c>
       <c r="J9" s="3">
+        <v>1612400</v>
+      </c>
+      <c r="K9" s="3">
         <v>1485700</v>
       </c>
-      <c r="K9" s="3">
+      <c r="L9" s="3">
         <v>5896200</v>
       </c>
-      <c r="L9" s="3">
+      <c r="M9" s="3">
         <v>1502900</v>
       </c>
-      <c r="M9" s="3">
+      <c r="N9" s="3">
         <v>1360500</v>
       </c>
-      <c r="N9" s="3">
+      <c r="O9" s="3">
         <v>1182000</v>
       </c>
-      <c r="O9" s="3">
+      <c r="P9" s="3">
         <v>1189700</v>
       </c>
-      <c r="P9" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="Q9" s="3" t="s">
         <v>3</v>
       </c>
       <c r="R9" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="10" spans="1:18" x14ac:dyDescent="0.2">
+      <c r="S9" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="10" spans="1:19" x14ac:dyDescent="0.2">
       <c r="C10" s="1" t="s">
         <v>6</v>
       </c>
       <c r="D10" s="3">
-        <v>421700</v>
+        <v>530200</v>
       </c>
       <c r="E10" s="3">
-        <v>401300</v>
+        <v>436400</v>
       </c>
       <c r="F10" s="3">
-        <v>341600</v>
+        <v>415300</v>
       </c>
       <c r="G10" s="3">
-        <v>372100</v>
+        <v>353600</v>
       </c>
       <c r="H10" s="3">
-        <v>360500</v>
+        <v>385100</v>
       </c>
       <c r="I10" s="3">
-        <v>322200</v>
+        <v>373100</v>
       </c>
       <c r="J10" s="3">
+        <v>333400</v>
+      </c>
+      <c r="K10" s="3">
         <v>281900</v>
       </c>
-      <c r="K10" s="3">
+      <c r="L10" s="3">
         <v>1157400</v>
       </c>
-      <c r="L10" s="3">
+      <c r="M10" s="3">
         <v>298800</v>
       </c>
-      <c r="M10" s="3">
+      <c r="N10" s="3">
         <v>263700</v>
       </c>
-      <c r="N10" s="3">
+      <c r="O10" s="3">
         <v>217300</v>
       </c>
-      <c r="O10" s="3">
+      <c r="P10" s="3">
         <v>237400</v>
       </c>
-      <c r="P10" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="Q10" s="3" t="s">
         <v>3</v>
       </c>
       <c r="R10" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="11" spans="1:18" x14ac:dyDescent="0.2">
+      <c r="S10" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="11" spans="1:19" x14ac:dyDescent="0.2">
       <c r="C11" s="1" t="s">
         <v>7</v>
       </c>
@@ -908,8 +920,9 @@
       <c r="P11" s="3"/>
       <c r="Q11" s="3"/>
       <c r="R11" s="3"/>
-    </row>
-    <row r="12" spans="1:18" x14ac:dyDescent="0.2">
+      <c r="S11" s="3"/>
+    </row>
+    <row r="12" spans="1:19" x14ac:dyDescent="0.2">
       <c r="C12" s="1" t="s">
         <v>8</v>
       </c>
@@ -958,8 +971,11 @@
       <c r="R12" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="13" spans="1:18" x14ac:dyDescent="0.2">
+      <c r="S12" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="13" spans="1:19" x14ac:dyDescent="0.2">
       <c r="C13" s="1" t="s">
         <v>9</v>
       </c>
@@ -1008,108 +1024,117 @@
       <c r="R13" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="14" spans="1:18" x14ac:dyDescent="0.2">
+      <c r="S13" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="14" spans="1:19" x14ac:dyDescent="0.2">
       <c r="C14" s="1" t="s">
         <v>10</v>
       </c>
       <c r="D14" s="3">
-        <v>700</v>
+        <v>4800</v>
       </c>
       <c r="E14" s="3">
-        <v>3400</v>
+        <v>800</v>
       </c>
       <c r="F14" s="3">
-        <v>900</v>
+        <v>3500</v>
       </c>
       <c r="G14" s="3">
-        <v>5800</v>
+        <v>1000</v>
       </c>
       <c r="H14" s="3">
-        <v>1100</v>
+        <v>4300</v>
       </c>
       <c r="I14" s="3">
-        <v>6500</v>
+        <v>1200</v>
       </c>
       <c r="J14" s="3">
+        <v>6800</v>
+      </c>
+      <c r="K14" s="3">
         <v>400</v>
       </c>
-      <c r="K14" s="3">
+      <c r="L14" s="3">
         <v>43600</v>
       </c>
-      <c r="L14" s="3">
+      <c r="M14" s="3">
         <v>3100</v>
       </c>
-      <c r="M14" s="3">
+      <c r="N14" s="3">
         <v>15000</v>
       </c>
-      <c r="N14" s="3">
+      <c r="O14" s="3">
         <v>7700</v>
       </c>
-      <c r="O14" s="3">
+      <c r="P14" s="3">
         <v>22100</v>
       </c>
-      <c r="P14" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="Q14" s="3" t="s">
         <v>3</v>
       </c>
       <c r="R14" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="15" spans="1:18" x14ac:dyDescent="0.2">
+      <c r="S14" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="15" spans="1:19" x14ac:dyDescent="0.2">
       <c r="C15" s="1" t="s">
         <v>11</v>
       </c>
       <c r="D15" s="3">
-        <v>43400</v>
+        <v>52300</v>
       </c>
       <c r="E15" s="3">
-        <v>39900</v>
+        <v>44900</v>
       </c>
       <c r="F15" s="3">
-        <v>38200</v>
+        <v>41200</v>
       </c>
       <c r="G15" s="3">
-        <v>33100</v>
+        <v>39500</v>
       </c>
       <c r="H15" s="3">
-        <v>30300</v>
+        <v>34300</v>
       </c>
       <c r="I15" s="3">
-        <v>28800</v>
+        <v>31400</v>
       </c>
       <c r="J15" s="3">
+        <v>29800</v>
+      </c>
+      <c r="K15" s="3">
         <v>27100</v>
       </c>
-      <c r="K15" s="3">
+      <c r="L15" s="3">
         <v>98400</v>
       </c>
-      <c r="L15" s="3">
+      <c r="M15" s="3">
         <v>25100</v>
       </c>
-      <c r="M15" s="3">
+      <c r="N15" s="3">
         <v>23800</v>
       </c>
-      <c r="N15" s="3">
+      <c r="O15" s="3">
         <v>20900</v>
       </c>
-      <c r="O15" s="3">
+      <c r="P15" s="3">
         <v>19100</v>
       </c>
-      <c r="P15" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="Q15" s="3" t="s">
         <v>3</v>
       </c>
       <c r="R15" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="16" spans="1:18" x14ac:dyDescent="0.2">
+      <c r="S15" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="16" spans="1:19" x14ac:dyDescent="0.2">
       <c r="D16" s="3"/>
       <c r="E16" s="3"/>
       <c r="F16" s="3"/>
@@ -1125,108 +1150,115 @@
       <c r="P16" s="3"/>
       <c r="Q16" s="3"/>
       <c r="R16" s="3"/>
-    </row>
-    <row r="17" spans="3:18" x14ac:dyDescent="0.2">
+      <c r="S16" s="3"/>
+    </row>
+    <row r="17" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C17" s="1" t="s">
         <v>12</v>
       </c>
       <c r="D17" s="3">
-        <v>2447900</v>
+        <v>2921100</v>
       </c>
       <c r="E17" s="3">
-        <v>2354000</v>
+        <v>2533500</v>
       </c>
       <c r="F17" s="3">
-        <v>2042600</v>
+        <v>2436300</v>
       </c>
       <c r="G17" s="3">
-        <v>2031000</v>
+        <v>2114100</v>
       </c>
       <c r="H17" s="3">
-        <v>1879300</v>
+        <v>2102000</v>
       </c>
       <c r="I17" s="3">
-        <v>1768600</v>
+        <v>1945000</v>
       </c>
       <c r="J17" s="3">
+        <v>1830400</v>
+      </c>
+      <c r="K17" s="3">
         <v>1677300</v>
       </c>
-      <c r="K17" s="3">
+      <c r="L17" s="3">
         <v>6648900</v>
       </c>
-      <c r="L17" s="3">
+      <c r="M17" s="3">
         <v>1691300</v>
       </c>
-      <c r="M17" s="3">
+      <c r="N17" s="3">
         <v>1548500</v>
       </c>
-      <c r="N17" s="3">
+      <c r="O17" s="3">
         <v>1341000</v>
       </c>
-      <c r="O17" s="3">
+      <c r="P17" s="3">
         <v>1330900</v>
       </c>
-      <c r="P17" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="Q17" s="3" t="s">
         <v>3</v>
       </c>
       <c r="R17" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="18" spans="3:18" x14ac:dyDescent="0.2">
+      <c r="S17" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="18" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C18" s="1" t="s">
         <v>13</v>
       </c>
       <c r="D18" s="3">
-        <v>139900</v>
+        <v>168100</v>
       </c>
       <c r="E18" s="3">
-        <v>132600</v>
+        <v>144800</v>
       </c>
       <c r="F18" s="3">
-        <v>98200</v>
+        <v>137300</v>
       </c>
       <c r="G18" s="3">
-        <v>131000</v>
+        <v>101700</v>
       </c>
       <c r="H18" s="3">
-        <v>149700</v>
+        <v>135500</v>
       </c>
       <c r="I18" s="3">
-        <v>111500</v>
+        <v>154900</v>
       </c>
       <c r="J18" s="3">
+        <v>115400</v>
+      </c>
+      <c r="K18" s="3">
         <v>90400</v>
       </c>
-      <c r="K18" s="3">
+      <c r="L18" s="3">
         <v>404700</v>
       </c>
-      <c r="L18" s="3">
+      <c r="M18" s="3">
         <v>110400</v>
       </c>
-      <c r="M18" s="3">
+      <c r="N18" s="3">
         <v>75700</v>
       </c>
-      <c r="N18" s="3">
+      <c r="O18" s="3">
         <v>58200</v>
       </c>
-      <c r="O18" s="3">
+      <c r="P18" s="3">
         <v>96200</v>
       </c>
-      <c r="P18" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="Q18" s="3" t="s">
         <v>3</v>
       </c>
       <c r="R18" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="19" spans="3:18" x14ac:dyDescent="0.2">
+      <c r="S18" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="19" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C19" s="1" t="s">
         <v>14</v>
       </c>
@@ -1245,249 +1277,262 @@
       <c r="P19" s="3"/>
       <c r="Q19" s="3"/>
       <c r="R19" s="3"/>
-    </row>
-    <row r="20" spans="3:18" x14ac:dyDescent="0.2">
+      <c r="S19" s="3"/>
+    </row>
+    <row r="20" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C20" s="1" t="s">
         <v>15</v>
       </c>
       <c r="D20" s="3">
-        <v>-12900</v>
+        <v>8500</v>
       </c>
       <c r="E20" s="3">
-        <v>-20600</v>
+        <v>-13400</v>
       </c>
       <c r="F20" s="3">
-        <v>4700</v>
+        <v>-21300</v>
       </c>
       <c r="G20" s="3">
-        <v>3600</v>
+        <v>4800</v>
       </c>
       <c r="H20" s="3">
-        <v>7900</v>
+        <v>3700</v>
       </c>
       <c r="I20" s="3">
-        <v>6700</v>
+        <v>8100</v>
       </c>
       <c r="J20" s="3">
+        <v>7000</v>
+      </c>
+      <c r="K20" s="3">
         <v>1500</v>
       </c>
-      <c r="K20" s="3">
+      <c r="L20" s="3">
         <v>48900</v>
       </c>
-      <c r="L20" s="3">
+      <c r="M20" s="3">
         <v>2700</v>
       </c>
-      <c r="M20" s="3">
+      <c r="N20" s="3">
         <v>-15400</v>
       </c>
-      <c r="N20" s="3">
+      <c r="O20" s="3">
         <v>13200</v>
       </c>
-      <c r="O20" s="3">
+      <c r="P20" s="3">
         <v>3000</v>
       </c>
-      <c r="P20" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="Q20" s="3" t="s">
         <v>3</v>
       </c>
       <c r="R20" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="21" spans="3:18" x14ac:dyDescent="0.2">
+      <c r="S20" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="21" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C21" s="1" t="s">
         <v>16</v>
       </c>
       <c r="D21" s="3">
-        <v>173100</v>
+        <v>232700</v>
       </c>
       <c r="E21" s="3">
-        <v>156000</v>
+        <v>179100</v>
       </c>
       <c r="F21" s="3">
-        <v>143900</v>
+        <v>161500</v>
       </c>
       <c r="G21" s="3">
-        <v>169700</v>
+        <v>148900</v>
       </c>
       <c r="H21" s="3">
-        <v>190300</v>
+        <v>175600</v>
       </c>
       <c r="I21" s="3">
-        <v>149500</v>
+        <v>196900</v>
       </c>
       <c r="J21" s="3">
+        <v>154700</v>
+      </c>
+      <c r="K21" s="3">
         <v>121200</v>
       </c>
-      <c r="K21" s="3">
+      <c r="L21" s="3">
         <v>722100</v>
       </c>
-      <c r="L21" s="3">
+      <c r="M21" s="3">
         <v>182500</v>
       </c>
-      <c r="M21" s="3">
+      <c r="N21" s="3">
         <v>125700</v>
       </c>
-      <c r="N21" s="3">
+      <c r="O21" s="3">
         <v>127500</v>
       </c>
-      <c r="O21" s="3">
+      <c r="P21" s="3">
         <v>131400</v>
       </c>
-      <c r="P21" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="Q21" s="3" t="s">
         <v>3</v>
       </c>
       <c r="R21" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="22" spans="3:18" x14ac:dyDescent="0.2">
+      <c r="S21" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="22" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C22" s="1" t="s">
         <v>17</v>
       </c>
       <c r="D22" s="3">
-        <v>69400</v>
+        <v>94700</v>
       </c>
       <c r="E22" s="3">
-        <v>40800</v>
+        <v>71800</v>
       </c>
       <c r="F22" s="3">
-        <v>61200</v>
+        <v>42200</v>
       </c>
       <c r="G22" s="3">
-        <v>57200</v>
+        <v>63300</v>
       </c>
       <c r="H22" s="3">
-        <v>38500</v>
+        <v>59300</v>
       </c>
       <c r="I22" s="3">
-        <v>33900</v>
+        <v>39900</v>
       </c>
       <c r="J22" s="3">
+        <v>35000</v>
+      </c>
+      <c r="K22" s="3">
         <v>26600</v>
       </c>
-      <c r="K22" s="3">
+      <c r="L22" s="3">
         <v>135600</v>
       </c>
-      <c r="L22" s="3">
+      <c r="M22" s="3">
         <v>28000</v>
       </c>
-      <c r="M22" s="3">
+      <c r="N22" s="3">
         <v>10400</v>
       </c>
-      <c r="N22" s="3">
+      <c r="O22" s="3">
         <v>40900</v>
       </c>
-      <c r="O22" s="3">
+      <c r="P22" s="3">
         <v>35500</v>
       </c>
-      <c r="P22" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="Q22" s="3" t="s">
         <v>3</v>
       </c>
       <c r="R22" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="23" spans="3:18" x14ac:dyDescent="0.2">
+      <c r="S22" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="23" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C23" s="1" t="s">
         <v>18</v>
       </c>
       <c r="D23" s="3">
-        <v>57600</v>
+        <v>81900</v>
       </c>
       <c r="E23" s="3">
-        <v>71300</v>
+        <v>59600</v>
       </c>
       <c r="F23" s="3">
-        <v>41700</v>
+        <v>73800</v>
       </c>
       <c r="G23" s="3">
-        <v>77300</v>
+        <v>43200</v>
       </c>
       <c r="H23" s="3">
-        <v>119000</v>
+        <v>80000</v>
       </c>
       <c r="I23" s="3">
-        <v>84400</v>
+        <v>123100</v>
       </c>
       <c r="J23" s="3">
+        <v>87300</v>
+      </c>
+      <c r="K23" s="3">
         <v>65300</v>
       </c>
-      <c r="K23" s="3">
+      <c r="L23" s="3">
         <v>318000</v>
       </c>
-      <c r="L23" s="3">
+      <c r="M23" s="3">
         <v>85100</v>
       </c>
-      <c r="M23" s="3">
+      <c r="N23" s="3">
         <v>49900</v>
       </c>
-      <c r="N23" s="3">
+      <c r="O23" s="3">
         <v>30500</v>
       </c>
-      <c r="O23" s="3">
+      <c r="P23" s="3">
         <v>63700</v>
       </c>
-      <c r="P23" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="Q23" s="3" t="s">
         <v>3</v>
       </c>
       <c r="R23" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="24" spans="3:18" x14ac:dyDescent="0.2">
+      <c r="S23" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="24" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C24" s="1" t="s">
         <v>19</v>
       </c>
       <c r="D24" s="3">
-        <v>5100</v>
+        <v>3300</v>
       </c>
       <c r="E24" s="3">
-        <v>11600</v>
+        <v>5200</v>
       </c>
       <c r="F24" s="3">
+        <v>12000</v>
+      </c>
+      <c r="G24" s="3">
         <v>1700</v>
       </c>
-      <c r="G24" s="3">
-        <v>-21300</v>
-      </c>
       <c r="H24" s="3">
-        <v>18300</v>
+        <v>-22100</v>
       </c>
       <c r="I24" s="3">
-        <v>27300</v>
+        <v>19000</v>
       </c>
       <c r="J24" s="3">
+        <v>28300</v>
+      </c>
+      <c r="K24" s="3">
         <v>20400</v>
       </c>
-      <c r="K24" s="3">
+      <c r="L24" s="3">
         <v>85300</v>
       </c>
-      <c r="L24" s="3">
+      <c r="M24" s="3">
         <v>7000</v>
       </c>
-      <c r="M24" s="3">
+      <c r="N24" s="3">
         <v>16600</v>
-      </c>
-      <c r="N24" s="3">
-        <v>9800</v>
       </c>
       <c r="O24" s="3">
         <v>9800</v>
       </c>
-      <c r="P24" s="3" t="s">
-        <v>3</v>
+      <c r="P24" s="3">
+        <v>9800</v>
       </c>
       <c r="Q24" s="3" t="s">
         <v>3</v>
@@ -1495,8 +1540,11 @@
       <c r="R24" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="25" spans="3:18" x14ac:dyDescent="0.2">
+      <c r="S24" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="25" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C25" s="1" t="s">
         <v>20</v>
       </c>
@@ -1545,108 +1593,117 @@
       <c r="R25" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="26" spans="3:18" x14ac:dyDescent="0.2">
+      <c r="S25" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="26" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C26" s="1" t="s">
         <v>21</v>
       </c>
       <c r="D26" s="3">
-        <v>52600</v>
+        <v>78600</v>
       </c>
       <c r="E26" s="3">
-        <v>59700</v>
+        <v>54400</v>
       </c>
       <c r="F26" s="3">
-        <v>40000</v>
+        <v>61800</v>
       </c>
       <c r="G26" s="3">
-        <v>98600</v>
+        <v>41400</v>
       </c>
       <c r="H26" s="3">
-        <v>100700</v>
+        <v>102000</v>
       </c>
       <c r="I26" s="3">
-        <v>57100</v>
+        <v>104200</v>
       </c>
       <c r="J26" s="3">
+        <v>59100</v>
+      </c>
+      <c r="K26" s="3">
         <v>44900</v>
       </c>
-      <c r="K26" s="3">
+      <c r="L26" s="3">
         <v>232700</v>
       </c>
-      <c r="L26" s="3">
+      <c r="M26" s="3">
         <v>78100</v>
       </c>
-      <c r="M26" s="3">
+      <c r="N26" s="3">
         <v>33300</v>
       </c>
-      <c r="N26" s="3">
+      <c r="O26" s="3">
         <v>20700</v>
       </c>
-      <c r="O26" s="3">
+      <c r="P26" s="3">
         <v>53900</v>
       </c>
-      <c r="P26" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="Q26" s="3" t="s">
         <v>3</v>
       </c>
       <c r="R26" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="27" spans="3:18" x14ac:dyDescent="0.2">
+      <c r="S26" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="27" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C27" s="1" t="s">
         <v>22</v>
       </c>
       <c r="D27" s="3">
-        <v>52600</v>
+        <v>78600</v>
       </c>
       <c r="E27" s="3">
-        <v>59700</v>
+        <v>54400</v>
       </c>
       <c r="F27" s="3">
-        <v>40000</v>
+        <v>61800</v>
       </c>
       <c r="G27" s="3">
-        <v>98600</v>
+        <v>41400</v>
       </c>
       <c r="H27" s="3">
-        <v>100700</v>
+        <v>102000</v>
       </c>
       <c r="I27" s="3">
-        <v>57100</v>
+        <v>104200</v>
       </c>
       <c r="J27" s="3">
+        <v>59100</v>
+      </c>
+      <c r="K27" s="3">
         <v>44900</v>
       </c>
-      <c r="K27" s="3">
+      <c r="L27" s="3">
         <v>201800</v>
       </c>
-      <c r="L27" s="3">
+      <c r="M27" s="3">
         <v>69500</v>
       </c>
-      <c r="M27" s="3">
+      <c r="N27" s="3">
         <v>23100</v>
       </c>
-      <c r="N27" s="3">
+      <c r="O27" s="3">
         <v>16800</v>
       </c>
-      <c r="O27" s="3">
+      <c r="P27" s="3">
         <v>51600</v>
       </c>
-      <c r="P27" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="Q27" s="3" t="s">
         <v>3</v>
       </c>
       <c r="R27" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="28" spans="3:18" x14ac:dyDescent="0.2">
+      <c r="S27" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="28" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C28" s="1" t="s">
         <v>23</v>
       </c>
@@ -1695,8 +1752,11 @@
       <c r="R28" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="29" spans="3:18" x14ac:dyDescent="0.2">
+      <c r="S28" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="29" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C29" s="1" t="s">
         <v>24</v>
       </c>
@@ -1715,38 +1775,41 @@
       <c r="H29" s="3" t="s">
         <v>3</v>
       </c>
-      <c r="I29" s="3">
-        <v>0</v>
+      <c r="I29" s="3" t="s">
+        <v>3</v>
       </c>
       <c r="J29" s="3">
         <v>0</v>
       </c>
       <c r="K29" s="3">
+        <v>0</v>
+      </c>
+      <c r="L29" s="3">
         <v>71800</v>
       </c>
-      <c r="L29" s="3">
+      <c r="M29" s="3">
         <v>15600</v>
       </c>
-      <c r="M29" s="3">
+      <c r="N29" s="3">
         <v>11400</v>
       </c>
-      <c r="N29" s="3">
+      <c r="O29" s="3">
         <v>1100</v>
       </c>
-      <c r="O29" s="3">
+      <c r="P29" s="3">
         <v>-2900</v>
       </c>
-      <c r="P29" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="Q29" s="3" t="s">
         <v>3</v>
       </c>
       <c r="R29" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="30" spans="3:18" x14ac:dyDescent="0.2">
+      <c r="S29" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="30" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C30" s="1" t="s">
         <v>25</v>
       </c>
@@ -1795,8 +1858,11 @@
       <c r="R30" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="31" spans="3:18" x14ac:dyDescent="0.2">
+      <c r="S30" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="31" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C31" s="1" t="s">
         <v>26</v>
       </c>
@@ -1845,108 +1911,117 @@
       <c r="R31" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="32" spans="3:18" x14ac:dyDescent="0.2">
+      <c r="S31" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="32" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C32" s="1" t="s">
         <v>27</v>
       </c>
       <c r="D32" s="3">
-        <v>12900</v>
+        <v>-8500</v>
       </c>
       <c r="E32" s="3">
-        <v>20600</v>
+        <v>13400</v>
       </c>
       <c r="F32" s="3">
-        <v>-4700</v>
+        <v>21300</v>
       </c>
       <c r="G32" s="3">
-        <v>-3600</v>
+        <v>-4800</v>
       </c>
       <c r="H32" s="3">
-        <v>-7900</v>
+        <v>-3700</v>
       </c>
       <c r="I32" s="3">
-        <v>-6700</v>
+        <v>-8100</v>
       </c>
       <c r="J32" s="3">
+        <v>-7000</v>
+      </c>
+      <c r="K32" s="3">
         <v>-1500</v>
       </c>
-      <c r="K32" s="3">
+      <c r="L32" s="3">
         <v>-48900</v>
       </c>
-      <c r="L32" s="3">
+      <c r="M32" s="3">
         <v>-2700</v>
       </c>
-      <c r="M32" s="3">
+      <c r="N32" s="3">
         <v>15400</v>
       </c>
-      <c r="N32" s="3">
+      <c r="O32" s="3">
         <v>-13200</v>
       </c>
-      <c r="O32" s="3">
+      <c r="P32" s="3">
         <v>-3000</v>
       </c>
-      <c r="P32" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="Q32" s="3" t="s">
         <v>3</v>
       </c>
       <c r="R32" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="33" spans="2:18" x14ac:dyDescent="0.2">
+      <c r="S32" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="33" spans="2:19" x14ac:dyDescent="0.2">
       <c r="C33" s="1" t="s">
         <v>28</v>
       </c>
       <c r="D33" s="3">
-        <v>52600</v>
+        <v>78600</v>
       </c>
       <c r="E33" s="3">
-        <v>59700</v>
+        <v>54400</v>
       </c>
       <c r="F33" s="3">
-        <v>40000</v>
+        <v>61800</v>
       </c>
       <c r="G33" s="3">
-        <v>98600</v>
+        <v>41400</v>
       </c>
       <c r="H33" s="3">
-        <v>100700</v>
+        <v>102000</v>
       </c>
       <c r="I33" s="3">
-        <v>57100</v>
+        <v>104200</v>
       </c>
       <c r="J33" s="3">
+        <v>59100</v>
+      </c>
+      <c r="K33" s="3">
         <v>44900</v>
       </c>
-      <c r="K33" s="3">
+      <c r="L33" s="3">
         <v>273600</v>
       </c>
-      <c r="L33" s="3">
+      <c r="M33" s="3">
         <v>85100</v>
       </c>
-      <c r="M33" s="3">
+      <c r="N33" s="3">
         <v>34500</v>
       </c>
-      <c r="N33" s="3">
+      <c r="O33" s="3">
         <v>17900</v>
       </c>
-      <c r="O33" s="3">
+      <c r="P33" s="3">
         <v>48700</v>
       </c>
-      <c r="P33" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="Q33" s="3" t="s">
         <v>3</v>
       </c>
       <c r="R33" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="34" spans="2:18" x14ac:dyDescent="0.2">
+      <c r="S33" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="34" spans="2:19" x14ac:dyDescent="0.2">
       <c r="C34" s="1" t="s">
         <v>29</v>
       </c>
@@ -1995,113 +2070,122 @@
       <c r="R34" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="35" spans="2:18" x14ac:dyDescent="0.2">
+      <c r="S34" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="35" spans="2:19" x14ac:dyDescent="0.2">
       <c r="C35" s="1" t="s">
         <v>30</v>
       </c>
       <c r="D35" s="3">
-        <v>52600</v>
+        <v>78600</v>
       </c>
       <c r="E35" s="3">
-        <v>59700</v>
+        <v>54400</v>
       </c>
       <c r="F35" s="3">
-        <v>40000</v>
+        <v>61800</v>
       </c>
       <c r="G35" s="3">
-        <v>98600</v>
+        <v>41400</v>
       </c>
       <c r="H35" s="3">
-        <v>100700</v>
+        <v>102000</v>
       </c>
       <c r="I35" s="3">
-        <v>57100</v>
+        <v>104200</v>
       </c>
       <c r="J35" s="3">
+        <v>59100</v>
+      </c>
+      <c r="K35" s="3">
         <v>44900</v>
       </c>
-      <c r="K35" s="3">
+      <c r="L35" s="3">
         <v>273600</v>
       </c>
-      <c r="L35" s="3">
+      <c r="M35" s="3">
         <v>85100</v>
       </c>
-      <c r="M35" s="3">
+      <c r="N35" s="3">
         <v>34500</v>
       </c>
-      <c r="N35" s="3">
+      <c r="O35" s="3">
         <v>17900</v>
       </c>
-      <c r="O35" s="3">
+      <c r="P35" s="3">
         <v>48700</v>
       </c>
-      <c r="P35" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="Q35" s="3" t="s">
         <v>3</v>
       </c>
       <c r="R35" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="37" spans="2:18" x14ac:dyDescent="0.2">
+      <c r="S35" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="37" spans="2:19" x14ac:dyDescent="0.2">
       <c r="B37" s="1" t="s">
         <v>31</v>
       </c>
     </row>
-    <row r="38" spans="2:18" x14ac:dyDescent="0.2">
+    <row r="38" spans="2:19" x14ac:dyDescent="0.2">
       <c r="C38" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D38" s="2">
+        <v>44926</v>
+      </c>
+      <c r="E38" s="2">
         <v>44834</v>
       </c>
-      <c r="E38" s="2">
+      <c r="F38" s="2">
         <v>44742</v>
       </c>
-      <c r="F38" s="2">
+      <c r="G38" s="2">
         <v>44651</v>
       </c>
-      <c r="G38" s="2">
+      <c r="H38" s="2">
         <v>44561</v>
       </c>
-      <c r="H38" s="2">
+      <c r="I38" s="2">
         <v>44469</v>
       </c>
-      <c r="I38" s="2">
+      <c r="J38" s="2">
         <v>44377</v>
       </c>
-      <c r="J38" s="2">
+      <c r="K38" s="2">
         <v>44286</v>
       </c>
-      <c r="K38" s="2">
+      <c r="L38" s="2">
         <v>44196</v>
       </c>
-      <c r="L38" s="2">
+      <c r="M38" s="2">
         <v>44104</v>
       </c>
-      <c r="M38" s="2">
+      <c r="N38" s="2">
         <v>44012</v>
       </c>
-      <c r="N38" s="2">
+      <c r="O38" s="2">
         <v>43921</v>
       </c>
-      <c r="O38" s="2">
+      <c r="P38" s="2">
         <v>43830</v>
       </c>
-      <c r="P38" s="2" t="s">
-        <v>3</v>
-      </c>
       <c r="Q38" s="2" t="s">
         <v>3</v>
       </c>
       <c r="R38" s="2" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="39" spans="2:18" x14ac:dyDescent="0.2">
+      <c r="S38" s="2" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="39" spans="2:19" x14ac:dyDescent="0.2">
       <c r="C39" s="1" t="s">
         <v>32</v>
       </c>
@@ -2120,8 +2204,9 @@
       <c r="P39" s="3"/>
       <c r="Q39" s="3"/>
       <c r="R39" s="3"/>
-    </row>
-    <row r="40" spans="2:18" x14ac:dyDescent="0.2">
+      <c r="S39" s="3"/>
+    </row>
+    <row r="40" spans="2:19" x14ac:dyDescent="0.2">
       <c r="C40" s="1" t="s">
         <v>33</v>
       </c>
@@ -2140,49 +2225,50 @@
       <c r="P40" s="3"/>
       <c r="Q40" s="3"/>
       <c r="R40" s="3"/>
-    </row>
-    <row r="41" spans="2:18" x14ac:dyDescent="0.2">
+      <c r="S40" s="3"/>
+    </row>
+    <row r="41" spans="2:19" x14ac:dyDescent="0.2">
       <c r="C41" s="1" t="s">
         <v>34</v>
       </c>
       <c r="D41" s="3">
-        <v>787600</v>
+        <v>1131200</v>
       </c>
       <c r="E41" s="3">
-        <v>581500</v>
+        <v>815200</v>
       </c>
       <c r="F41" s="3">
-        <v>821100</v>
+        <v>601800</v>
       </c>
       <c r="G41" s="3">
-        <v>477100</v>
+        <v>849800</v>
       </c>
       <c r="H41" s="3">
-        <v>539000</v>
+        <v>493800</v>
       </c>
       <c r="I41" s="3">
-        <v>844000</v>
+        <v>557800</v>
       </c>
       <c r="J41" s="3">
+        <v>873500</v>
+      </c>
+      <c r="K41" s="3">
         <v>517100</v>
       </c>
-      <c r="K41" s="3">
+      <c r="L41" s="3">
         <v>691200</v>
       </c>
-      <c r="L41" s="3">
+      <c r="M41" s="3">
         <v>343000</v>
       </c>
-      <c r="M41" s="3">
+      <c r="N41" s="3">
         <v>461300</v>
       </c>
-      <c r="N41" s="3">
+      <c r="O41" s="3">
         <v>484000</v>
       </c>
-      <c r="O41" s="3" t="s">
-        <v>3</v>
-      </c>
-      <c r="P41" s="3">
-        <v>0</v>
+      <c r="P41" s="3" t="s">
+        <v>3</v>
       </c>
       <c r="Q41" s="3">
         <v>0</v>
@@ -2190,8 +2276,11 @@
       <c r="R41" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="42" spans="2:18" x14ac:dyDescent="0.2">
+      <c r="S41" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="42" spans="2:19" x14ac:dyDescent="0.2">
       <c r="C42" s="1" t="s">
         <v>35</v>
       </c>
@@ -2220,19 +2309,19 @@
         <v>0</v>
       </c>
       <c r="L42" s="3">
+        <v>0</v>
+      </c>
+      <c r="M42" s="3">
         <v>416200</v>
       </c>
-      <c r="M42" s="3">
+      <c r="N42" s="3">
         <v>448700</v>
       </c>
-      <c r="N42" s="3">
+      <c r="O42" s="3">
         <v>190300</v>
       </c>
-      <c r="O42" s="3" t="s">
-        <v>3</v>
-      </c>
-      <c r="P42" s="3">
-        <v>0</v>
+      <c r="P42" s="3" t="s">
+        <v>3</v>
       </c>
       <c r="Q42" s="3">
         <v>0</v>
@@ -2240,49 +2329,52 @@
       <c r="R42" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="43" spans="2:18" x14ac:dyDescent="0.2">
+      <c r="S42" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="43" spans="2:19" x14ac:dyDescent="0.2">
       <c r="C43" s="1" t="s">
         <v>36</v>
       </c>
       <c r="D43" s="3">
-        <v>308000</v>
+        <v>324700</v>
       </c>
       <c r="E43" s="3">
-        <v>254400</v>
+        <v>318700</v>
       </c>
       <c r="F43" s="3">
-        <v>289400</v>
+        <v>263300</v>
       </c>
       <c r="G43" s="3">
-        <v>224500</v>
+        <v>299500</v>
       </c>
       <c r="H43" s="3">
-        <v>242700</v>
+        <v>232400</v>
       </c>
       <c r="I43" s="3">
-        <v>177200</v>
+        <v>251100</v>
       </c>
       <c r="J43" s="3">
+        <v>183400</v>
+      </c>
+      <c r="K43" s="3">
         <v>148700</v>
       </c>
-      <c r="K43" s="3">
+      <c r="L43" s="3">
         <v>192600</v>
       </c>
-      <c r="L43" s="3">
+      <c r="M43" s="3">
         <v>353300</v>
       </c>
-      <c r="M43" s="3">
+      <c r="N43" s="3">
         <v>375600</v>
       </c>
-      <c r="N43" s="3">
+      <c r="O43" s="3">
         <v>280100</v>
       </c>
-      <c r="O43" s="3" t="s">
-        <v>3</v>
-      </c>
-      <c r="P43" s="3">
-        <v>0</v>
+      <c r="P43" s="3" t="s">
+        <v>3</v>
       </c>
       <c r="Q43" s="3">
         <v>0</v>
@@ -2290,49 +2382,52 @@
       <c r="R43" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="44" spans="2:18" x14ac:dyDescent="0.2">
+      <c r="S43" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="44" spans="2:19" x14ac:dyDescent="0.2">
       <c r="C44" s="1" t="s">
         <v>37</v>
       </c>
       <c r="D44" s="3">
-        <v>1131300</v>
+        <v>1252200</v>
       </c>
       <c r="E44" s="3">
-        <v>1049800</v>
+        <v>1170900</v>
       </c>
       <c r="F44" s="3">
-        <v>906500</v>
+        <v>1086500</v>
       </c>
       <c r="G44" s="3">
-        <v>819500</v>
+        <v>938100</v>
       </c>
       <c r="H44" s="3">
-        <v>834400</v>
+        <v>848100</v>
       </c>
       <c r="I44" s="3">
-        <v>690000</v>
+        <v>863600</v>
       </c>
       <c r="J44" s="3">
+        <v>714100</v>
+      </c>
+      <c r="K44" s="3">
         <v>642800</v>
       </c>
-      <c r="K44" s="3">
+      <c r="L44" s="3">
         <v>731700</v>
       </c>
-      <c r="L44" s="3">
+      <c r="M44" s="3">
         <v>1243300</v>
       </c>
-      <c r="M44" s="3">
+      <c r="N44" s="3">
         <v>1113600</v>
       </c>
-      <c r="N44" s="3">
+      <c r="O44" s="3">
         <v>1036500</v>
       </c>
-      <c r="O44" s="3" t="s">
-        <v>3</v>
-      </c>
-      <c r="P44" s="3">
-        <v>0</v>
+      <c r="P44" s="3" t="s">
+        <v>3</v>
       </c>
       <c r="Q44" s="3">
         <v>0</v>
@@ -2340,49 +2435,52 @@
       <c r="R44" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="45" spans="2:18" x14ac:dyDescent="0.2">
+      <c r="S44" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="45" spans="2:19" x14ac:dyDescent="0.2">
       <c r="C45" s="1" t="s">
         <v>38</v>
       </c>
       <c r="D45" s="3">
-        <v>67500</v>
+        <v>37400</v>
       </c>
       <c r="E45" s="3">
-        <v>74300</v>
+        <v>69900</v>
       </c>
       <c r="F45" s="3">
-        <v>278600</v>
+        <v>76900</v>
       </c>
       <c r="G45" s="3">
-        <v>120100</v>
+        <v>288300</v>
       </c>
       <c r="H45" s="3">
-        <v>45500</v>
+        <v>124300</v>
       </c>
       <c r="I45" s="3">
-        <v>42100</v>
+        <v>47100</v>
       </c>
       <c r="J45" s="3">
+        <v>43600</v>
+      </c>
+      <c r="K45" s="3">
         <v>16800</v>
       </c>
-      <c r="K45" s="3">
+      <c r="L45" s="3">
         <v>18400</v>
       </c>
-      <c r="L45" s="3">
+      <c r="M45" s="3">
         <v>62900</v>
       </c>
-      <c r="M45" s="3">
+      <c r="N45" s="3">
         <v>84900</v>
       </c>
-      <c r="N45" s="3">
+      <c r="O45" s="3">
         <v>154400</v>
       </c>
-      <c r="O45" s="3" t="s">
-        <v>3</v>
-      </c>
-      <c r="P45" s="3">
-        <v>0</v>
+      <c r="P45" s="3" t="s">
+        <v>3</v>
       </c>
       <c r="Q45" s="3">
         <v>0</v>
@@ -2390,49 +2488,52 @@
       <c r="R45" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="46" spans="2:18" x14ac:dyDescent="0.2">
+      <c r="S45" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="46" spans="2:19" x14ac:dyDescent="0.2">
       <c r="C46" s="1" t="s">
         <v>39</v>
       </c>
       <c r="D46" s="3">
-        <v>2294500</v>
+        <v>2745500</v>
       </c>
       <c r="E46" s="3">
-        <v>1960000</v>
+        <v>2374700</v>
       </c>
       <c r="F46" s="3">
-        <v>2295600</v>
+        <v>2028500</v>
       </c>
       <c r="G46" s="3">
-        <v>1641200</v>
+        <v>2375800</v>
       </c>
       <c r="H46" s="3">
-        <v>1661500</v>
+        <v>1698500</v>
       </c>
       <c r="I46" s="3">
-        <v>1753200</v>
+        <v>1719600</v>
       </c>
       <c r="J46" s="3">
+        <v>1814500</v>
+      </c>
+      <c r="K46" s="3">
         <v>1325500</v>
       </c>
-      <c r="K46" s="3">
+      <c r="L46" s="3">
         <v>1633900</v>
       </c>
-      <c r="L46" s="3">
+      <c r="M46" s="3">
         <v>2418800</v>
       </c>
-      <c r="M46" s="3">
+      <c r="N46" s="3">
         <v>2484100</v>
       </c>
-      <c r="N46" s="3">
+      <c r="O46" s="3">
         <v>2145300</v>
       </c>
-      <c r="O46" s="3" t="s">
-        <v>3</v>
-      </c>
-      <c r="P46" s="3">
-        <v>0</v>
+      <c r="P46" s="3" t="s">
+        <v>3</v>
       </c>
       <c r="Q46" s="3">
         <v>0</v>
@@ -2440,49 +2541,52 @@
       <c r="R46" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="47" spans="2:18" x14ac:dyDescent="0.2">
+      <c r="S46" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="47" spans="2:19" x14ac:dyDescent="0.2">
       <c r="C47" s="1" t="s">
         <v>40</v>
       </c>
       <c r="D47" s="3">
-        <v>373800</v>
+        <v>389600</v>
       </c>
       <c r="E47" s="3">
-        <v>443200</v>
+        <v>386900</v>
       </c>
       <c r="F47" s="3">
-        <v>437800</v>
+        <v>458700</v>
       </c>
       <c r="G47" s="3">
-        <v>313000</v>
+        <v>453100</v>
       </c>
       <c r="H47" s="3">
-        <v>333400</v>
+        <v>323900</v>
       </c>
       <c r="I47" s="3">
-        <v>327000</v>
+        <v>345000</v>
       </c>
       <c r="J47" s="3">
+        <v>338500</v>
+      </c>
+      <c r="K47" s="3">
         <v>327400</v>
       </c>
-      <c r="K47" s="3">
+      <c r="L47" s="3">
         <v>354800</v>
       </c>
-      <c r="L47" s="3">
+      <c r="M47" s="3">
         <v>285200</v>
       </c>
-      <c r="M47" s="3">
+      <c r="N47" s="3">
         <v>291300</v>
       </c>
-      <c r="N47" s="3">
+      <c r="O47" s="3">
         <v>297400</v>
       </c>
-      <c r="O47" s="3" t="s">
-        <v>3</v>
-      </c>
-      <c r="P47" s="3">
-        <v>0</v>
+      <c r="P47" s="3" t="s">
+        <v>3</v>
       </c>
       <c r="Q47" s="3">
         <v>0</v>
@@ -2490,49 +2594,52 @@
       <c r="R47" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="48" spans="2:18" x14ac:dyDescent="0.2">
+      <c r="S47" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="48" spans="2:19" x14ac:dyDescent="0.2">
       <c r="C48" s="1" t="s">
         <v>41</v>
       </c>
       <c r="D48" s="3">
-        <v>3168400</v>
+        <v>3714400</v>
       </c>
       <c r="E48" s="3">
-        <v>2896000</v>
+        <v>3279100</v>
       </c>
       <c r="F48" s="3">
-        <v>2405000</v>
+        <v>2997200</v>
       </c>
       <c r="G48" s="3">
-        <v>1930800</v>
+        <v>2489100</v>
       </c>
       <c r="H48" s="3">
-        <v>1664500</v>
+        <v>1998300</v>
       </c>
       <c r="I48" s="3">
-        <v>1526700</v>
+        <v>1722700</v>
       </c>
       <c r="J48" s="3">
+        <v>1580000</v>
+      </c>
+      <c r="K48" s="3">
         <v>1422400</v>
       </c>
-      <c r="K48" s="3">
+      <c r="L48" s="3">
         <v>1463100</v>
       </c>
-      <c r="L48" s="3">
+      <c r="M48" s="3">
         <v>4076200</v>
       </c>
-      <c r="M48" s="3">
+      <c r="N48" s="3">
         <v>4057500</v>
       </c>
-      <c r="N48" s="3">
+      <c r="O48" s="3">
         <v>3266400</v>
       </c>
-      <c r="O48" s="3" t="s">
-        <v>3</v>
-      </c>
-      <c r="P48" s="3">
-        <v>0</v>
+      <c r="P48" s="3" t="s">
+        <v>3</v>
       </c>
       <c r="Q48" s="3">
         <v>0</v>
@@ -2540,49 +2647,52 @@
       <c r="R48" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="49" spans="3:18" x14ac:dyDescent="0.2">
+      <c r="S48" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="49" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C49" s="1" t="s">
         <v>42</v>
       </c>
       <c r="D49" s="3">
-        <v>938800</v>
+        <v>971600</v>
       </c>
       <c r="E49" s="3">
-        <v>901800</v>
+        <v>971600</v>
       </c>
       <c r="F49" s="3">
-        <v>892400</v>
+        <v>933300</v>
       </c>
       <c r="G49" s="3">
-        <v>353000</v>
+        <v>923600</v>
       </c>
       <c r="H49" s="3">
-        <v>198300</v>
+        <v>365400</v>
       </c>
       <c r="I49" s="3">
-        <v>195900</v>
+        <v>205200</v>
       </c>
       <c r="J49" s="3">
+        <v>202700</v>
+      </c>
+      <c r="K49" s="3">
         <v>194000</v>
       </c>
-      <c r="K49" s="3">
+      <c r="L49" s="3">
         <v>202900</v>
       </c>
-      <c r="L49" s="3">
+      <c r="M49" s="3">
         <v>964700</v>
       </c>
-      <c r="M49" s="3">
+      <c r="N49" s="3">
         <v>971300</v>
       </c>
-      <c r="N49" s="3">
+      <c r="O49" s="3">
         <v>796000</v>
       </c>
-      <c r="O49" s="3" t="s">
-        <v>3</v>
-      </c>
-      <c r="P49" s="3">
-        <v>0</v>
+      <c r="P49" s="3" t="s">
+        <v>3</v>
       </c>
       <c r="Q49" s="3">
         <v>0</v>
@@ -2590,8 +2700,11 @@
       <c r="R49" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="50" spans="3:18" x14ac:dyDescent="0.2">
+      <c r="S49" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="50" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C50" s="1" t="s">
         <v>43</v>
       </c>
@@ -2640,8 +2753,11 @@
       <c r="R50" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="51" spans="3:18" x14ac:dyDescent="0.2">
+      <c r="S50" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="51" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C51" s="1" t="s">
         <v>44</v>
       </c>
@@ -2690,49 +2806,52 @@
       <c r="R51" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="52" spans="3:18" x14ac:dyDescent="0.2">
+      <c r="S51" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="52" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C52" s="1" t="s">
         <v>45</v>
       </c>
       <c r="D52" s="3">
-        <v>38700</v>
+        <v>43800</v>
       </c>
       <c r="E52" s="3">
-        <v>54600</v>
+        <v>40100</v>
       </c>
       <c r="F52" s="3">
-        <v>47100</v>
+        <v>56500</v>
       </c>
       <c r="G52" s="3">
-        <v>37800</v>
+        <v>48800</v>
       </c>
       <c r="H52" s="3">
-        <v>27900</v>
+        <v>39100</v>
       </c>
       <c r="I52" s="3">
-        <v>29000</v>
+        <v>28900</v>
       </c>
       <c r="J52" s="3">
+        <v>30000</v>
+      </c>
+      <c r="K52" s="3">
         <v>26400</v>
       </c>
-      <c r="K52" s="3">
+      <c r="L52" s="3">
         <v>28600</v>
       </c>
-      <c r="L52" s="3">
+      <c r="M52" s="3">
         <v>41100</v>
       </c>
-      <c r="M52" s="3">
+      <c r="N52" s="3">
         <v>39800</v>
       </c>
-      <c r="N52" s="3">
+      <c r="O52" s="3">
         <v>39300</v>
       </c>
-      <c r="O52" s="3" t="s">
-        <v>3</v>
-      </c>
-      <c r="P52" s="3">
-        <v>0</v>
+      <c r="P52" s="3" t="s">
+        <v>3</v>
       </c>
       <c r="Q52" s="3">
         <v>0</v>
@@ -2740,8 +2859,11 @@
       <c r="R52" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="53" spans="3:18" x14ac:dyDescent="0.2">
+      <c r="S52" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="53" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C53" s="1" t="s">
         <v>46</v>
       </c>
@@ -2790,49 +2912,52 @@
       <c r="R53" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="54" spans="3:18" x14ac:dyDescent="0.2">
+      <c r="S53" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="54" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C54" s="1" t="s">
         <v>47</v>
       </c>
       <c r="D54" s="3">
-        <v>6814200</v>
+        <v>7864900</v>
       </c>
       <c r="E54" s="3">
-        <v>6255500</v>
+        <v>7052400</v>
       </c>
       <c r="F54" s="3">
-        <v>6078000</v>
+        <v>6474200</v>
       </c>
       <c r="G54" s="3">
-        <v>4275800</v>
+        <v>6290500</v>
       </c>
       <c r="H54" s="3">
-        <v>3885700</v>
+        <v>4425200</v>
       </c>
       <c r="I54" s="3">
-        <v>3831800</v>
+        <v>4021500</v>
       </c>
       <c r="J54" s="3">
+        <v>3965700</v>
+      </c>
+      <c r="K54" s="3">
         <v>3295800</v>
       </c>
-      <c r="K54" s="3">
+      <c r="L54" s="3">
         <v>3683300</v>
       </c>
-      <c r="L54" s="3">
+      <c r="M54" s="3">
         <v>7785900</v>
       </c>
-      <c r="M54" s="3">
+      <c r="N54" s="3">
         <v>7844000</v>
       </c>
-      <c r="N54" s="3">
+      <c r="O54" s="3">
         <v>6544400</v>
       </c>
-      <c r="O54" s="3" t="s">
-        <v>3</v>
-      </c>
-      <c r="P54" s="3">
-        <v>0</v>
+      <c r="P54" s="3" t="s">
+        <v>3</v>
       </c>
       <c r="Q54" s="3">
         <v>0</v>
@@ -2840,8 +2965,11 @@
       <c r="R54" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="55" spans="3:18" x14ac:dyDescent="0.2">
+      <c r="S54" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="55" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C55" s="1" t="s">
         <v>48</v>
       </c>
@@ -2860,8 +2988,9 @@
       <c r="P55" s="3"/>
       <c r="Q55" s="3"/>
       <c r="R55" s="3"/>
-    </row>
-    <row r="56" spans="3:18" x14ac:dyDescent="0.2">
+      <c r="S55" s="3"/>
+    </row>
+    <row r="56" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C56" s="1" t="s">
         <v>49</v>
       </c>
@@ -2880,49 +3009,50 @@
       <c r="P56" s="3"/>
       <c r="Q56" s="3"/>
       <c r="R56" s="3"/>
-    </row>
-    <row r="57" spans="3:18" x14ac:dyDescent="0.2">
+      <c r="S56" s="3"/>
+    </row>
+    <row r="57" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C57" s="1" t="s">
         <v>50</v>
       </c>
       <c r="D57" s="3">
-        <v>1983700</v>
+        <v>2555900</v>
       </c>
       <c r="E57" s="3">
-        <v>1718200</v>
+        <v>2053100</v>
       </c>
       <c r="F57" s="3">
-        <v>1750400</v>
+        <v>1778300</v>
       </c>
       <c r="G57" s="3">
-        <v>1180500</v>
+        <v>1811600</v>
       </c>
       <c r="H57" s="3">
-        <v>1014000</v>
+        <v>1221800</v>
       </c>
       <c r="I57" s="3">
-        <v>862300</v>
+        <v>1049500</v>
       </c>
       <c r="J57" s="3">
+        <v>892400</v>
+      </c>
+      <c r="K57" s="3">
         <v>787500</v>
       </c>
-      <c r="K57" s="3">
+      <c r="L57" s="3">
         <v>997900</v>
       </c>
-      <c r="L57" s="3">
+      <c r="M57" s="3">
         <v>1629100</v>
       </c>
-      <c r="M57" s="3">
+      <c r="N57" s="3">
         <v>1636800</v>
       </c>
-      <c r="N57" s="3">
+      <c r="O57" s="3">
         <v>1465500</v>
       </c>
-      <c r="O57" s="3" t="s">
-        <v>3</v>
-      </c>
-      <c r="P57" s="3">
-        <v>0</v>
+      <c r="P57" s="3" t="s">
+        <v>3</v>
       </c>
       <c r="Q57" s="3">
         <v>0</v>
@@ -2930,49 +3060,52 @@
       <c r="R57" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="58" spans="3:18" x14ac:dyDescent="0.2">
+      <c r="S57" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="58" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C58" s="1" t="s">
         <v>51</v>
       </c>
       <c r="D58" s="3">
-        <v>226000</v>
+        <v>328200</v>
       </c>
       <c r="E58" s="3">
-        <v>103500</v>
+        <v>233900</v>
       </c>
       <c r="F58" s="3">
-        <v>109800</v>
+        <v>107100</v>
       </c>
       <c r="G58" s="3">
-        <v>160300</v>
+        <v>113700</v>
       </c>
       <c r="H58" s="3">
-        <v>481900</v>
+        <v>165900</v>
       </c>
       <c r="I58" s="3">
-        <v>449800</v>
+        <v>498800</v>
       </c>
       <c r="J58" s="3">
+        <v>465500</v>
+      </c>
+      <c r="K58" s="3">
         <v>383200</v>
       </c>
-      <c r="K58" s="3">
+      <c r="L58" s="3">
         <v>448500</v>
       </c>
-      <c r="L58" s="3">
+      <c r="M58" s="3">
         <v>818100</v>
       </c>
-      <c r="M58" s="3">
+      <c r="N58" s="3">
         <v>530100</v>
       </c>
-      <c r="N58" s="3">
+      <c r="O58" s="3">
         <v>521100</v>
       </c>
-      <c r="O58" s="3" t="s">
-        <v>3</v>
-      </c>
-      <c r="P58" s="3">
-        <v>0</v>
+      <c r="P58" s="3" t="s">
+        <v>3</v>
       </c>
       <c r="Q58" s="3">
         <v>0</v>
@@ -2980,49 +3113,52 @@
       <c r="R58" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="59" spans="3:18" x14ac:dyDescent="0.2">
+      <c r="S58" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="59" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C59" s="1" t="s">
         <v>52</v>
       </c>
       <c r="D59" s="3">
-        <v>314700</v>
+        <v>294500</v>
       </c>
       <c r="E59" s="3">
-        <v>245600</v>
+        <v>325700</v>
       </c>
       <c r="F59" s="3">
-        <v>267900</v>
+        <v>254200</v>
       </c>
       <c r="G59" s="3">
-        <v>276300</v>
+        <v>277300</v>
       </c>
       <c r="H59" s="3">
-        <v>219100</v>
+        <v>286000</v>
       </c>
       <c r="I59" s="3">
-        <v>185800</v>
+        <v>226700</v>
       </c>
       <c r="J59" s="3">
+        <v>192300</v>
+      </c>
+      <c r="K59" s="3">
         <v>185400</v>
       </c>
-      <c r="K59" s="3">
+      <c r="L59" s="3">
         <v>260700</v>
       </c>
-      <c r="L59" s="3">
+      <c r="M59" s="3">
         <v>508400</v>
       </c>
-      <c r="M59" s="3">
+      <c r="N59" s="3">
         <v>491300</v>
       </c>
-      <c r="N59" s="3">
+      <c r="O59" s="3">
         <v>394000</v>
       </c>
-      <c r="O59" s="3" t="s">
-        <v>3</v>
-      </c>
-      <c r="P59" s="3">
-        <v>0</v>
+      <c r="P59" s="3" t="s">
+        <v>3</v>
       </c>
       <c r="Q59" s="3">
         <v>0</v>
@@ -3030,49 +3166,52 @@
       <c r="R59" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="60" spans="3:18" x14ac:dyDescent="0.2">
+      <c r="S59" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="60" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C60" s="1" t="s">
         <v>53</v>
       </c>
       <c r="D60" s="3">
-        <v>2524400</v>
+        <v>3178600</v>
       </c>
       <c r="E60" s="3">
-        <v>2067300</v>
+        <v>2612600</v>
       </c>
       <c r="F60" s="3">
-        <v>2128100</v>
+        <v>2139600</v>
       </c>
       <c r="G60" s="3">
-        <v>1617200</v>
+        <v>2202500</v>
       </c>
       <c r="H60" s="3">
-        <v>1715100</v>
+        <v>1673700</v>
       </c>
       <c r="I60" s="3">
-        <v>1497800</v>
+        <v>1775000</v>
       </c>
       <c r="J60" s="3">
+        <v>1550200</v>
+      </c>
+      <c r="K60" s="3">
         <v>1356000</v>
       </c>
-      <c r="K60" s="3">
+      <c r="L60" s="3">
         <v>1707100</v>
       </c>
-      <c r="L60" s="3">
+      <c r="M60" s="3">
         <v>2955600</v>
       </c>
-      <c r="M60" s="3">
+      <c r="N60" s="3">
         <v>2658100</v>
       </c>
-      <c r="N60" s="3">
+      <c r="O60" s="3">
         <v>2380600</v>
       </c>
-      <c r="O60" s="3" t="s">
-        <v>3</v>
-      </c>
-      <c r="P60" s="3">
-        <v>0</v>
+      <c r="P60" s="3" t="s">
+        <v>3</v>
       </c>
       <c r="Q60" s="3">
         <v>0</v>
@@ -3080,47 +3219,50 @@
       <c r="R60" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="61" spans="3:18" x14ac:dyDescent="0.2">
+      <c r="S60" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="61" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C61" s="1" t="s">
         <v>54</v>
       </c>
       <c r="D61" s="3">
-        <v>3431800</v>
+        <v>3728500</v>
       </c>
       <c r="E61" s="3">
-        <v>3377900</v>
+        <v>3551800</v>
       </c>
       <c r="F61" s="3">
-        <v>3074300</v>
+        <v>3496000</v>
       </c>
       <c r="G61" s="3">
-        <v>2100500</v>
+        <v>3181700</v>
       </c>
       <c r="H61" s="3">
-        <v>1665300</v>
+        <v>2173900</v>
       </c>
       <c r="I61" s="3">
-        <v>1912400</v>
+        <v>1723500</v>
       </c>
       <c r="J61" s="3">
+        <v>1979300</v>
+      </c>
+      <c r="K61" s="3">
         <v>1568900</v>
       </c>
-      <c r="K61" s="3">
+      <c r="L61" s="3">
         <v>1627200</v>
       </c>
-      <c r="L61" s="3">
+      <c r="M61" s="3">
         <v>2075600</v>
       </c>
-      <c r="M61" s="3">
+      <c r="N61" s="3">
         <v>2472300</v>
       </c>
-      <c r="N61" s="3">
+      <c r="O61" s="3">
         <v>2004400</v>
       </c>
-      <c r="O61" s="3">
-        <v>0</v>
-      </c>
       <c r="P61" s="3">
         <v>0</v>
       </c>
@@ -3130,49 +3272,52 @@
       <c r="R61" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="62" spans="3:18" x14ac:dyDescent="0.2">
+      <c r="S61" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="62" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C62" s="1" t="s">
         <v>55</v>
       </c>
       <c r="D62" s="3">
-        <v>185400</v>
+        <v>203300</v>
       </c>
       <c r="E62" s="3">
-        <v>190800</v>
+        <v>191900</v>
       </c>
       <c r="F62" s="3">
-        <v>317300</v>
+        <v>197500</v>
       </c>
       <c r="G62" s="3">
-        <v>40600</v>
+        <v>328400</v>
       </c>
       <c r="H62" s="3">
-        <v>55900</v>
+        <v>42000</v>
       </c>
       <c r="I62" s="3">
-        <v>62900</v>
+        <v>57900</v>
       </c>
       <c r="J62" s="3">
+        <v>65100</v>
+      </c>
+      <c r="K62" s="3">
         <v>73300</v>
       </c>
-      <c r="K62" s="3">
+      <c r="L62" s="3">
         <v>73000</v>
       </c>
-      <c r="L62" s="3">
+      <c r="M62" s="3">
         <v>281500</v>
       </c>
-      <c r="M62" s="3">
+      <c r="N62" s="3">
         <v>311700</v>
       </c>
-      <c r="N62" s="3">
+      <c r="O62" s="3">
         <v>287800</v>
       </c>
-      <c r="O62" s="3" t="s">
-        <v>3</v>
-      </c>
-      <c r="P62" s="3">
-        <v>0</v>
+      <c r="P62" s="3" t="s">
+        <v>3</v>
       </c>
       <c r="Q62" s="3">
         <v>0</v>
@@ -3180,8 +3325,11 @@
       <c r="R62" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="63" spans="3:18" x14ac:dyDescent="0.2">
+      <c r="S62" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="63" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C63" s="1" t="s">
         <v>56</v>
       </c>
@@ -3230,8 +3378,11 @@
       <c r="R63" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="64" spans="3:18" x14ac:dyDescent="0.2">
+      <c r="S63" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="64" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C64" s="1" t="s">
         <v>20</v>
       </c>
@@ -3280,8 +3431,11 @@
       <c r="R64" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="65" spans="2:18" x14ac:dyDescent="0.2">
+      <c r="S64" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="65" spans="2:19" x14ac:dyDescent="0.2">
       <c r="C65" s="1" t="s">
         <v>57</v>
       </c>
@@ -3330,49 +3484,52 @@
       <c r="R65" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="66" spans="2:18" x14ac:dyDescent="0.2">
+      <c r="S65" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="66" spans="2:19" x14ac:dyDescent="0.2">
       <c r="C66" s="1" t="s">
         <v>58</v>
       </c>
       <c r="D66" s="3">
-        <v>6141600</v>
+        <v>7110500</v>
       </c>
       <c r="E66" s="3">
-        <v>5636100</v>
+        <v>6356300</v>
       </c>
       <c r="F66" s="3">
-        <v>5519700</v>
+        <v>5833100</v>
       </c>
       <c r="G66" s="3">
-        <v>3758300</v>
+        <v>5712700</v>
       </c>
       <c r="H66" s="3">
-        <v>3436300</v>
+        <v>3889600</v>
       </c>
       <c r="I66" s="3">
-        <v>3473100</v>
+        <v>3556400</v>
       </c>
       <c r="J66" s="3">
+        <v>3594500</v>
+      </c>
+      <c r="K66" s="3">
         <v>2998300</v>
       </c>
-      <c r="K66" s="3">
+      <c r="L66" s="3">
         <v>3407300</v>
       </c>
-      <c r="L66" s="3">
+      <c r="M66" s="3">
         <v>5926200</v>
       </c>
-      <c r="M66" s="3">
+      <c r="N66" s="3">
         <v>6053100</v>
       </c>
-      <c r="N66" s="3">
+      <c r="O66" s="3">
         <v>5153300</v>
       </c>
-      <c r="O66" s="3" t="s">
-        <v>3</v>
-      </c>
-      <c r="P66" s="3">
-        <v>0</v>
+      <c r="P66" s="3" t="s">
+        <v>3</v>
       </c>
       <c r="Q66" s="3">
         <v>0</v>
@@ -3380,8 +3537,11 @@
       <c r="R66" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="67" spans="2:18" x14ac:dyDescent="0.2">
+      <c r="S66" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="67" spans="2:19" x14ac:dyDescent="0.2">
       <c r="C67" s="1" t="s">
         <v>59</v>
       </c>
@@ -3400,8 +3560,9 @@
       <c r="P67" s="3"/>
       <c r="Q67" s="3"/>
       <c r="R67" s="3"/>
-    </row>
-    <row r="68" spans="2:18" x14ac:dyDescent="0.2">
+      <c r="S67" s="3"/>
+    </row>
+    <row r="68" spans="2:19" x14ac:dyDescent="0.2">
       <c r="C68" s="1" t="s">
         <v>60</v>
       </c>
@@ -3450,8 +3611,11 @@
       <c r="R68" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="69" spans="2:18" x14ac:dyDescent="0.2">
+      <c r="S68" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="69" spans="2:19" x14ac:dyDescent="0.2">
       <c r="C69" s="1" t="s">
         <v>61</v>
       </c>
@@ -3500,8 +3664,11 @@
       <c r="R69" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="70" spans="2:18" x14ac:dyDescent="0.2">
+      <c r="S69" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="70" spans="2:19" x14ac:dyDescent="0.2">
       <c r="C70" s="1" t="s">
         <v>62</v>
       </c>
@@ -3550,8 +3717,11 @@
       <c r="R70" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="71" spans="2:18" x14ac:dyDescent="0.2">
+      <c r="S70" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="71" spans="2:19" x14ac:dyDescent="0.2">
       <c r="C71" s="1" t="s">
         <v>63</v>
       </c>
@@ -3600,49 +3770,52 @@
       <c r="R71" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="72" spans="2:18" x14ac:dyDescent="0.2">
+      <c r="S71" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="72" spans="2:19" x14ac:dyDescent="0.2">
       <c r="C72" s="1" t="s">
         <v>64</v>
       </c>
       <c r="D72" s="3">
-        <v>437800</v>
+        <v>510200</v>
       </c>
       <c r="E72" s="3">
-        <v>384800</v>
+        <v>453100</v>
       </c>
       <c r="F72" s="3">
-        <v>411000</v>
+        <v>398300</v>
       </c>
       <c r="G72" s="3">
-        <v>370300</v>
+        <v>425400</v>
       </c>
       <c r="H72" s="3">
-        <v>302200</v>
+        <v>383200</v>
       </c>
       <c r="I72" s="3">
-        <v>212900</v>
+        <v>312700</v>
       </c>
       <c r="J72" s="3">
+        <v>220400</v>
+      </c>
+      <c r="K72" s="3">
         <v>155100</v>
       </c>
-      <c r="K72" s="3">
+      <c r="L72" s="3">
         <v>127000</v>
       </c>
-      <c r="L72" s="3">
+      <c r="M72" s="3">
         <v>562300</v>
       </c>
-      <c r="M72" s="3">
+      <c r="N72" s="3">
         <v>545100</v>
       </c>
-      <c r="N72" s="3">
+      <c r="O72" s="3">
         <v>462000</v>
       </c>
-      <c r="O72" s="3" t="s">
-        <v>3</v>
-      </c>
-      <c r="P72" s="3">
-        <v>0</v>
+      <c r="P72" s="3" t="s">
+        <v>3</v>
       </c>
       <c r="Q72" s="3">
         <v>0</v>
@@ -3650,8 +3823,11 @@
       <c r="R72" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="73" spans="2:18" x14ac:dyDescent="0.2">
+      <c r="S72" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="73" spans="2:19" x14ac:dyDescent="0.2">
       <c r="C73" s="1" t="s">
         <v>65</v>
       </c>
@@ -3700,8 +3876,11 @@
       <c r="R73" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="74" spans="2:18" x14ac:dyDescent="0.2">
+      <c r="S73" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="74" spans="2:19" x14ac:dyDescent="0.2">
       <c r="C74" s="1" t="s">
         <v>66</v>
       </c>
@@ -3750,8 +3929,11 @@
       <c r="R74" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="75" spans="2:18" x14ac:dyDescent="0.2">
+      <c r="S74" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="75" spans="2:19" x14ac:dyDescent="0.2">
       <c r="C75" s="1" t="s">
         <v>67</v>
       </c>
@@ -3800,49 +3982,52 @@
       <c r="R75" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="76" spans="2:18" x14ac:dyDescent="0.2">
+      <c r="S75" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="76" spans="2:19" x14ac:dyDescent="0.2">
       <c r="C76" s="1" t="s">
         <v>68</v>
       </c>
       <c r="D76" s="3">
-        <v>672600</v>
+        <v>754400</v>
       </c>
       <c r="E76" s="3">
-        <v>619500</v>
+        <v>696100</v>
       </c>
       <c r="F76" s="3">
-        <v>558300</v>
+        <v>641100</v>
       </c>
       <c r="G76" s="3">
-        <v>517500</v>
+        <v>577800</v>
       </c>
       <c r="H76" s="3">
-        <v>449400</v>
+        <v>535600</v>
       </c>
       <c r="I76" s="3">
-        <v>358700</v>
+        <v>465100</v>
       </c>
       <c r="J76" s="3">
+        <v>371200</v>
+      </c>
+      <c r="K76" s="3">
         <v>297500</v>
       </c>
-      <c r="K76" s="3">
+      <c r="L76" s="3">
         <v>275900</v>
       </c>
-      <c r="L76" s="3">
+      <c r="M76" s="3">
         <v>1859800</v>
       </c>
-      <c r="M76" s="3">
+      <c r="N76" s="3">
         <v>1790900</v>
       </c>
-      <c r="N76" s="3">
+      <c r="O76" s="3">
         <v>1391000</v>
       </c>
-      <c r="O76" s="3" t="s">
-        <v>3</v>
-      </c>
-      <c r="P76" s="3">
-        <v>0</v>
+      <c r="P76" s="3" t="s">
+        <v>3</v>
       </c>
       <c r="Q76" s="3">
         <v>0</v>
@@ -3850,8 +4035,11 @@
       <c r="R76" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="77" spans="2:18" x14ac:dyDescent="0.2">
+      <c r="S76" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="77" spans="2:19" x14ac:dyDescent="0.2">
       <c r="C77" s="1" t="s">
         <v>69</v>
       </c>
@@ -3900,113 +4088,122 @@
       <c r="R77" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="79" spans="2:18" x14ac:dyDescent="0.2">
+      <c r="S77" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="79" spans="2:19" x14ac:dyDescent="0.2">
       <c r="B79" s="1" t="s">
         <v>70</v>
       </c>
     </row>
-    <row r="80" spans="2:18" x14ac:dyDescent="0.2">
+    <row r="80" spans="2:19" x14ac:dyDescent="0.2">
       <c r="C80" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D80" s="2">
+        <v>44926</v>
+      </c>
+      <c r="E80" s="2">
         <v>44834</v>
       </c>
-      <c r="E80" s="2">
+      <c r="F80" s="2">
         <v>44742</v>
       </c>
-      <c r="F80" s="2">
+      <c r="G80" s="2">
         <v>44651</v>
       </c>
-      <c r="G80" s="2">
+      <c r="H80" s="2">
         <v>44561</v>
       </c>
-      <c r="H80" s="2">
+      <c r="I80" s="2">
         <v>44469</v>
       </c>
-      <c r="I80" s="2">
+      <c r="J80" s="2">
         <v>44377</v>
       </c>
-      <c r="J80" s="2">
+      <c r="K80" s="2">
         <v>44286</v>
       </c>
-      <c r="K80" s="2">
+      <c r="L80" s="2">
         <v>44196</v>
       </c>
-      <c r="L80" s="2">
+      <c r="M80" s="2">
         <v>44104</v>
       </c>
-      <c r="M80" s="2">
+      <c r="N80" s="2">
         <v>44012</v>
       </c>
-      <c r="N80" s="2">
+      <c r="O80" s="2">
         <v>43921</v>
       </c>
-      <c r="O80" s="2">
+      <c r="P80" s="2">
         <v>43830</v>
       </c>
-      <c r="P80" s="2" t="s">
-        <v>3</v>
-      </c>
       <c r="Q80" s="2" t="s">
         <v>3</v>
       </c>
       <c r="R80" s="2" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="81" spans="3:18" x14ac:dyDescent="0.2">
+      <c r="S80" s="2" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="81" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C81" s="1" t="s">
         <v>28</v>
       </c>
       <c r="D81" s="3">
-        <v>52600</v>
+        <v>78600</v>
       </c>
       <c r="E81" s="3">
-        <v>59700</v>
+        <v>54400</v>
       </c>
       <c r="F81" s="3">
-        <v>40000</v>
+        <v>61800</v>
       </c>
       <c r="G81" s="3">
-        <v>98600</v>
+        <v>41400</v>
       </c>
       <c r="H81" s="3">
-        <v>100700</v>
+        <v>102000</v>
       </c>
       <c r="I81" s="3">
-        <v>57100</v>
+        <v>104200</v>
       </c>
       <c r="J81" s="3">
+        <v>59100</v>
+      </c>
+      <c r="K81" s="3">
         <v>44900</v>
       </c>
-      <c r="K81" s="3">
+      <c r="L81" s="3">
         <v>273600</v>
       </c>
-      <c r="L81" s="3">
+      <c r="M81" s="3">
         <v>85100</v>
       </c>
-      <c r="M81" s="3">
+      <c r="N81" s="3">
         <v>34500</v>
       </c>
-      <c r="N81" s="3">
+      <c r="O81" s="3">
         <v>17900</v>
       </c>
-      <c r="O81" s="3">
+      <c r="P81" s="3">
         <v>48700</v>
       </c>
-      <c r="P81" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="Q81" s="3" t="s">
         <v>3</v>
       </c>
       <c r="R81" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="82" spans="3:18" x14ac:dyDescent="0.2">
+      <c r="S81" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="82" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C82" s="1" t="s">
         <v>71</v>
       </c>
@@ -4025,58 +4222,62 @@
       <c r="P82" s="3"/>
       <c r="Q82" s="3"/>
       <c r="R82" s="3"/>
-    </row>
-    <row r="83" spans="3:18" x14ac:dyDescent="0.2">
+      <c r="S82" s="3"/>
+    </row>
+    <row r="83" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C83" s="1" t="s">
         <v>72</v>
       </c>
       <c r="D83" s="3">
-        <v>46000</v>
+        <v>56200</v>
       </c>
       <c r="E83" s="3">
-        <v>44000</v>
+        <v>47600</v>
       </c>
       <c r="F83" s="3">
-        <v>41000</v>
+        <v>45500</v>
       </c>
       <c r="G83" s="3">
-        <v>35200</v>
+        <v>42400</v>
       </c>
       <c r="H83" s="3">
-        <v>32700</v>
+        <v>36400</v>
       </c>
       <c r="I83" s="3">
-        <v>31200</v>
+        <v>33900</v>
       </c>
       <c r="J83" s="3">
+        <v>32300</v>
+      </c>
+      <c r="K83" s="3">
         <v>29400</v>
       </c>
-      <c r="K83" s="3">
+      <c r="L83" s="3">
         <v>268500</v>
       </c>
-      <c r="L83" s="3">
+      <c r="M83" s="3">
         <v>69300</v>
       </c>
-      <c r="M83" s="3">
+      <c r="N83" s="3">
         <v>65400</v>
       </c>
-      <c r="N83" s="3">
+      <c r="O83" s="3">
         <v>56100</v>
       </c>
-      <c r="O83" s="3">
+      <c r="P83" s="3">
         <v>32100</v>
       </c>
-      <c r="P83" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="Q83" s="3" t="s">
         <v>3</v>
       </c>
       <c r="R83" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="84" spans="3:18" x14ac:dyDescent="0.2">
+      <c r="S83" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="84" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C84" s="1" t="s">
         <v>73</v>
       </c>
@@ -4125,8 +4326,11 @@
       <c r="R84" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="85" spans="3:18" x14ac:dyDescent="0.2">
+      <c r="S84" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="85" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C85" s="1" t="s">
         <v>74</v>
       </c>
@@ -4175,8 +4379,11 @@
       <c r="R85" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="86" spans="3:18" x14ac:dyDescent="0.2">
+      <c r="S85" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="86" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C86" s="1" t="s">
         <v>75</v>
       </c>
@@ -4225,8 +4432,11 @@
       <c r="R86" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="87" spans="3:18" x14ac:dyDescent="0.2">
+      <c r="S86" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="87" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C87" s="1" t="s">
         <v>76</v>
       </c>
@@ -4275,8 +4485,11 @@
       <c r="R87" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="88" spans="3:18" x14ac:dyDescent="0.2">
+      <c r="S87" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="88" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C88" s="1" t="s">
         <v>77</v>
       </c>
@@ -4325,58 +4538,64 @@
       <c r="R88" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="89" spans="3:18" x14ac:dyDescent="0.2">
+      <c r="S88" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="89" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C89" s="1" t="s">
         <v>78</v>
       </c>
       <c r="D89" s="3">
-        <v>313900</v>
+        <v>433700</v>
       </c>
       <c r="E89" s="3">
-        <v>69800</v>
+        <v>324900</v>
       </c>
       <c r="F89" s="3">
-        <v>159600</v>
+        <v>72200</v>
       </c>
       <c r="G89" s="3">
-        <v>402200</v>
+        <v>165200</v>
       </c>
       <c r="H89" s="3">
-        <v>117100</v>
+        <v>416300</v>
       </c>
       <c r="I89" s="3">
-        <v>133800</v>
+        <v>121200</v>
       </c>
       <c r="J89" s="3">
+        <v>138400</v>
+      </c>
+      <c r="K89" s="3">
         <v>-41000</v>
       </c>
-      <c r="K89" s="3">
+      <c r="L89" s="3">
         <v>684600</v>
       </c>
-      <c r="L89" s="3">
+      <c r="M89" s="3">
         <v>47900</v>
       </c>
-      <c r="M89" s="3">
+      <c r="N89" s="3">
         <v>201600</v>
       </c>
-      <c r="N89" s="3">
+      <c r="O89" s="3">
         <v>-341200</v>
       </c>
-      <c r="O89" s="3">
+      <c r="P89" s="3">
         <v>505600</v>
       </c>
-      <c r="P89" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="Q89" s="3" t="s">
         <v>3</v>
       </c>
       <c r="R89" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="90" spans="3:18" x14ac:dyDescent="0.2">
+      <c r="S89" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="90" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C90" s="1" t="s">
         <v>79</v>
       </c>
@@ -4395,58 +4614,62 @@
       <c r="P90" s="3"/>
       <c r="Q90" s="3"/>
       <c r="R90" s="3"/>
-    </row>
-    <row r="91" spans="3:18" x14ac:dyDescent="0.2">
+      <c r="S90" s="3"/>
+    </row>
+    <row r="91" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C91" s="1" t="s">
         <v>80</v>
       </c>
       <c r="D91" s="3">
-        <v>-193300</v>
+        <v>-92600</v>
       </c>
       <c r="E91" s="3">
-        <v>-250300</v>
+        <v>-200000</v>
       </c>
       <c r="F91" s="3">
-        <v>-126300</v>
+        <v>-259100</v>
       </c>
       <c r="G91" s="3">
-        <v>-126100</v>
+        <v>-130700</v>
       </c>
       <c r="H91" s="3">
-        <v>-153000</v>
+        <v>-130500</v>
       </c>
       <c r="I91" s="3">
-        <v>-105700</v>
+        <v>-158400</v>
       </c>
       <c r="J91" s="3">
+        <v>-109400</v>
+      </c>
+      <c r="K91" s="3">
         <v>-32600</v>
       </c>
-      <c r="K91" s="3">
+      <c r="L91" s="3">
         <v>-305700</v>
       </c>
-      <c r="L91" s="3">
+      <c r="M91" s="3">
         <v>-85900</v>
       </c>
-      <c r="M91" s="3">
+      <c r="N91" s="3">
         <v>-66000</v>
       </c>
-      <c r="N91" s="3">
+      <c r="O91" s="3">
         <v>-64600</v>
       </c>
-      <c r="O91" s="3">
+      <c r="P91" s="3">
         <v>-91900</v>
       </c>
-      <c r="P91" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="Q91" s="3" t="s">
         <v>3</v>
       </c>
       <c r="R91" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="92" spans="3:18" x14ac:dyDescent="0.2">
+      <c r="S91" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="92" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C92" s="1" t="s">
         <v>81</v>
       </c>
@@ -4495,8 +4718,11 @@
       <c r="R92" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="93" spans="3:18" x14ac:dyDescent="0.2">
+      <c r="S92" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="93" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C93" s="1" t="s">
         <v>82</v>
       </c>
@@ -4545,58 +4771,64 @@
       <c r="R93" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="94" spans="3:18" x14ac:dyDescent="0.2">
+      <c r="S93" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="94" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C94" s="1" t="s">
         <v>83</v>
       </c>
       <c r="D94" s="3">
-        <v>-127200</v>
+        <v>-67800</v>
       </c>
       <c r="E94" s="3">
-        <v>-230700</v>
+        <v>-131700</v>
       </c>
       <c r="F94" s="3">
-        <v>-285700</v>
+        <v>-238700</v>
       </c>
       <c r="G94" s="3">
-        <v>-354000</v>
+        <v>-295700</v>
       </c>
       <c r="H94" s="3">
-        <v>-117300</v>
+        <v>-366300</v>
       </c>
       <c r="I94" s="3">
-        <v>-108500</v>
+        <v>-121400</v>
       </c>
       <c r="J94" s="3">
+        <v>-112300</v>
+      </c>
+      <c r="K94" s="3">
         <v>-33100</v>
       </c>
-      <c r="K94" s="3">
+      <c r="L94" s="3">
         <v>-936800</v>
       </c>
-      <c r="L94" s="3">
+      <c r="M94" s="3">
         <v>-64500</v>
       </c>
-      <c r="M94" s="3">
+      <c r="N94" s="3">
         <v>5100</v>
       </c>
-      <c r="N94" s="3">
+      <c r="O94" s="3">
         <v>-68700</v>
       </c>
-      <c r="O94" s="3">
+      <c r="P94" s="3">
         <v>-623700</v>
       </c>
-      <c r="P94" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="Q94" s="3" t="s">
         <v>3</v>
       </c>
       <c r="R94" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="95" spans="3:18" x14ac:dyDescent="0.2">
+      <c r="S94" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="95" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C95" s="1" t="s">
         <v>84</v>
       </c>
@@ -4615,8 +4847,9 @@
       <c r="P95" s="3"/>
       <c r="Q95" s="3"/>
       <c r="R95" s="3"/>
-    </row>
-    <row r="96" spans="3:18" x14ac:dyDescent="0.2">
+      <c r="S95" s="3"/>
+    </row>
+    <row r="96" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C96" s="1" t="s">
         <v>85</v>
       </c>
@@ -4630,43 +4863,46 @@
         <v>0</v>
       </c>
       <c r="G96" s="3">
-        <v>-11800</v>
+        <v>0</v>
       </c>
       <c r="H96" s="3">
-        <v>0</v>
+        <v>-12200</v>
       </c>
       <c r="I96" s="3">
-        <v>-15900</v>
+        <v>0</v>
       </c>
       <c r="J96" s="3">
-        <v>0</v>
+        <v>-16500</v>
       </c>
       <c r="K96" s="3">
+        <v>0</v>
+      </c>
+      <c r="L96" s="3">
         <v>-95700</v>
       </c>
-      <c r="L96" s="3">
+      <c r="M96" s="3">
         <v>-2700</v>
       </c>
-      <c r="M96" s="3">
+      <c r="N96" s="3">
         <v>-21100</v>
       </c>
-      <c r="N96" s="3">
+      <c r="O96" s="3">
         <v>-3000</v>
       </c>
-      <c r="O96" s="3">
+      <c r="P96" s="3">
         <v>-44500</v>
       </c>
-      <c r="P96" s="3">
-        <v>0</v>
-      </c>
       <c r="Q96" s="3">
         <v>0</v>
       </c>
       <c r="R96" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="97" spans="3:18" x14ac:dyDescent="0.2">
+      <c r="S96" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="97" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C97" s="1" t="s">
         <v>86</v>
       </c>
@@ -4715,8 +4951,11 @@
       <c r="R97" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="98" spans="3:18" x14ac:dyDescent="0.2">
+      <c r="S97" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="98" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C98" s="1" t="s">
         <v>87</v>
       </c>
@@ -4765,8 +5004,11 @@
       <c r="R98" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="99" spans="3:18" x14ac:dyDescent="0.2">
+      <c r="S98" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="99" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C99" s="1" t="s">
         <v>88</v>
       </c>
@@ -4815,72 +5057,78 @@
       <c r="R99" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="100" spans="3:18" x14ac:dyDescent="0.2">
+      <c r="S99" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="100" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C100" s="1" t="s">
         <v>89</v>
       </c>
       <c r="D100" s="3">
-        <v>19500</v>
+        <v>-50000</v>
       </c>
       <c r="E100" s="3">
-        <v>-78800</v>
+        <v>20100</v>
       </c>
       <c r="F100" s="3">
-        <v>470200</v>
+        <v>-81500</v>
       </c>
       <c r="G100" s="3">
-        <v>-110200</v>
+        <v>486600</v>
       </c>
       <c r="H100" s="3">
-        <v>-304800</v>
+        <v>-114000</v>
       </c>
       <c r="I100" s="3">
-        <v>301600</v>
+        <v>-315400</v>
       </c>
       <c r="J100" s="3">
+        <v>312100</v>
+      </c>
+      <c r="K100" s="3">
         <v>-69600</v>
       </c>
-      <c r="K100" s="3">
+      <c r="L100" s="3">
         <v>-155200</v>
       </c>
-      <c r="L100" s="3">
+      <c r="M100" s="3">
         <v>-118400</v>
       </c>
-      <c r="M100" s="3">
+      <c r="N100" s="3">
         <v>-99900</v>
       </c>
-      <c r="N100" s="3">
+      <c r="O100" s="3">
         <v>159100</v>
       </c>
-      <c r="O100" s="3">
+      <c r="P100" s="3">
         <v>-662800</v>
       </c>
-      <c r="P100" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="Q100" s="3" t="s">
         <v>3</v>
       </c>
       <c r="R100" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="101" spans="3:18" x14ac:dyDescent="0.2">
+      <c r="S100" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="101" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C101" s="1" t="s">
         <v>90</v>
       </c>
-      <c r="D101" s="3" t="s">
-        <v>3</v>
-      </c>
-      <c r="E101" s="3" t="s">
-        <v>3</v>
-      </c>
-      <c r="F101" s="3" t="s">
-        <v>3</v>
-      </c>
-      <c r="G101" s="3" t="s">
-        <v>3</v>
+      <c r="D101" s="3">
+        <v>0</v>
+      </c>
+      <c r="E101" s="3">
+        <v>0</v>
+      </c>
+      <c r="F101" s="3">
+        <v>0</v>
+      </c>
+      <c r="G101" s="3">
+        <v>0</v>
       </c>
       <c r="H101" s="3">
         <v>0</v>
@@ -4892,77 +5140,83 @@
         <v>0</v>
       </c>
       <c r="K101" s="3">
+        <v>0</v>
+      </c>
+      <c r="L101" s="3">
         <v>115100</v>
       </c>
-      <c r="L101" s="3">
+      <c r="M101" s="3">
         <v>-5300</v>
       </c>
-      <c r="M101" s="3">
+      <c r="N101" s="3">
         <v>58900</v>
       </c>
-      <c r="N101" s="3">
+      <c r="O101" s="3">
         <v>27800</v>
       </c>
-      <c r="O101" s="3">
+      <c r="P101" s="3">
         <v>19800</v>
       </c>
-      <c r="P101" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="Q101" s="3" t="s">
         <v>3</v>
       </c>
       <c r="R101" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="102" spans="3:18" x14ac:dyDescent="0.2">
+      <c r="S101" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="102" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C102" s="1" t="s">
         <v>91</v>
       </c>
       <c r="D102" s="3">
-        <v>206200</v>
+        <v>316000</v>
       </c>
       <c r="E102" s="3">
-        <v>-239700</v>
+        <v>213400</v>
       </c>
       <c r="F102" s="3">
-        <v>344100</v>
+        <v>-248000</v>
       </c>
       <c r="G102" s="3">
-        <v>-61900</v>
+        <v>356100</v>
       </c>
       <c r="H102" s="3">
-        <v>-305000</v>
+        <v>-64100</v>
       </c>
       <c r="I102" s="3">
-        <v>326800</v>
+        <v>-315600</v>
       </c>
       <c r="J102" s="3">
+        <v>338300</v>
+      </c>
+      <c r="K102" s="3">
         <v>-143700</v>
       </c>
-      <c r="K102" s="3">
+      <c r="L102" s="3">
         <v>-292400</v>
       </c>
-      <c r="L102" s="3">
+      <c r="M102" s="3">
         <v>-140200</v>
       </c>
-      <c r="M102" s="3">
+      <c r="N102" s="3">
         <v>165700</v>
       </c>
-      <c r="N102" s="3">
+      <c r="O102" s="3">
         <v>-223000</v>
       </c>
-      <c r="O102" s="3">
+      <c r="P102" s="3">
         <v>-761200</v>
       </c>
-      <c r="P102" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="Q102" s="3" t="s">
         <v>3</v>
       </c>
       <c r="R102" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="S102" s="3" t="s">
         <v>3</v>
       </c>
     </row>

--- a/AAII_Financials/Quarterly/ASAI_QTR_FIN.xlsx
+++ b/AAII_Financials/Quarterly/ASAI_QTR_FIN.xlsx
@@ -22,7 +22,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="223" uniqueCount="92">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="225" uniqueCount="92">
   <si>
     <t>ASAI</t>
   </si>
@@ -656,7 +656,7 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <sheetPr codeName="Sheet2"/>
-  <dimension ref="A5:S102"/>
+  <dimension ref="A5:T102"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -665,243 +665,256 @@
     <col min="1" max="1" width="6.85546875" style="1" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="26.85546875" style="1" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="69.140625" style="1" bestFit="1" customWidth="1"/>
-    <col min="4" max="5" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="8" max="9" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="10" max="10" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="11" max="11" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="12" max="13" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="14" max="14" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="15" max="15" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="16" max="16" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="17" max="19" width="4.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="20" max="16384" width="9.140625" style="1"/>
+    <col min="4" max="4" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="5" max="6" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="9" max="10" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="11" max="11" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="12" max="12" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="13" max="14" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="15" max="15" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="16" max="16" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="17" max="17" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="18" max="20" width="4.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="21" max="16384" width="9.140625" style="1"/>
   </cols>
   <sheetData>
-    <row r="5" spans="1:19" x14ac:dyDescent="0.2">
+    <row r="5" spans="1:20" x14ac:dyDescent="0.2">
       <c r="A5" s="1" t="s">
         <v>0</v>
       </c>
     </row>
-    <row r="6" spans="1:19" x14ac:dyDescent="0.2">
+    <row r="6" spans="1:20" x14ac:dyDescent="0.2">
       <c r="B6" s="1" t="s">
         <v>1</v>
       </c>
     </row>
-    <row r="7" spans="1:19" x14ac:dyDescent="0.2">
+    <row r="7" spans="1:20" x14ac:dyDescent="0.2">
       <c r="C7" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D7" s="2">
+        <v>45016</v>
+      </c>
+      <c r="E7" s="2">
         <v>44926</v>
       </c>
-      <c r="E7" s="2">
+      <c r="F7" s="2">
         <v>44834</v>
       </c>
-      <c r="F7" s="2">
+      <c r="G7" s="2">
         <v>44742</v>
       </c>
-      <c r="G7" s="2">
+      <c r="H7" s="2">
         <v>44651</v>
       </c>
-      <c r="H7" s="2">
+      <c r="I7" s="2">
         <v>44561</v>
       </c>
-      <c r="I7" s="2">
+      <c r="J7" s="2">
         <v>44469</v>
       </c>
-      <c r="J7" s="2">
+      <c r="K7" s="2">
         <v>44377</v>
       </c>
-      <c r="K7" s="2">
+      <c r="L7" s="2">
         <v>44286</v>
       </c>
-      <c r="L7" s="2">
+      <c r="M7" s="2">
         <v>44196</v>
       </c>
-      <c r="M7" s="2">
+      <c r="N7" s="2">
         <v>44104</v>
       </c>
-      <c r="N7" s="2">
+      <c r="O7" s="2">
         <v>44012</v>
       </c>
-      <c r="O7" s="2">
+      <c r="P7" s="2">
         <v>43921</v>
       </c>
-      <c r="P7" s="2">
+      <c r="Q7" s="2">
         <v>43830</v>
       </c>
-      <c r="Q7" s="2" t="s">
-        <v>3</v>
-      </c>
       <c r="R7" s="2" t="s">
         <v>3</v>
       </c>
       <c r="S7" s="2" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="8" spans="1:19" x14ac:dyDescent="0.2">
+      <c r="T7" s="2" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="8" spans="1:20" x14ac:dyDescent="0.2">
       <c r="C8" s="1" t="s">
         <v>4</v>
       </c>
       <c r="D8" s="3">
-        <v>3089200</v>
+        <v>3040300</v>
       </c>
       <c r="E8" s="3">
-        <v>2678300</v>
+        <v>3213100</v>
       </c>
       <c r="F8" s="3">
-        <v>2573500</v>
+        <v>2785800</v>
       </c>
       <c r="G8" s="3">
-        <v>2215700</v>
+        <v>2676800</v>
       </c>
       <c r="H8" s="3">
-        <v>2237600</v>
+        <v>2304600</v>
       </c>
       <c r="I8" s="3">
-        <v>2099900</v>
+        <v>2327400</v>
       </c>
       <c r="J8" s="3">
+        <v>2184200</v>
+      </c>
+      <c r="K8" s="3">
         <v>1945800</v>
       </c>
-      <c r="K8" s="3">
+      <c r="L8" s="3">
         <v>1767600</v>
       </c>
-      <c r="L8" s="3">
+      <c r="M8" s="3">
         <v>7053600</v>
       </c>
-      <c r="M8" s="3">
+      <c r="N8" s="3">
         <v>1801700</v>
       </c>
-      <c r="N8" s="3">
+      <c r="O8" s="3">
         <v>1624200</v>
       </c>
-      <c r="O8" s="3">
+      <c r="P8" s="3">
         <v>1399200</v>
       </c>
-      <c r="P8" s="3">
+      <c r="Q8" s="3">
         <v>1427100</v>
       </c>
-      <c r="Q8" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="R8" s="3" t="s">
         <v>3</v>
       </c>
       <c r="S8" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="9" spans="1:19" x14ac:dyDescent="0.2">
+      <c r="T8" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="9" spans="1:20" x14ac:dyDescent="0.2">
       <c r="C9" s="1" t="s">
         <v>5</v>
       </c>
       <c r="D9" s="3">
-        <v>2559000</v>
+        <v>2551300</v>
       </c>
       <c r="E9" s="3">
-        <v>2241800</v>
+        <v>2661700</v>
       </c>
       <c r="F9" s="3">
-        <v>2158200</v>
+        <v>2331800</v>
       </c>
       <c r="G9" s="3">
-        <v>1862100</v>
+        <v>2244800</v>
       </c>
       <c r="H9" s="3">
-        <v>1852500</v>
+        <v>1936900</v>
       </c>
       <c r="I9" s="3">
-        <v>1726800</v>
+        <v>1926800</v>
       </c>
       <c r="J9" s="3">
+        <v>1796100</v>
+      </c>
+      <c r="K9" s="3">
         <v>1612400</v>
       </c>
-      <c r="K9" s="3">
+      <c r="L9" s="3">
         <v>1485700</v>
       </c>
-      <c r="L9" s="3">
+      <c r="M9" s="3">
         <v>5896200</v>
       </c>
-      <c r="M9" s="3">
+      <c r="N9" s="3">
         <v>1502900</v>
       </c>
-      <c r="N9" s="3">
+      <c r="O9" s="3">
         <v>1360500</v>
       </c>
-      <c r="O9" s="3">
+      <c r="P9" s="3">
         <v>1182000</v>
       </c>
-      <c r="P9" s="3">
+      <c r="Q9" s="3">
         <v>1189700</v>
       </c>
-      <c r="Q9" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="R9" s="3" t="s">
         <v>3</v>
       </c>
       <c r="S9" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="10" spans="1:19" x14ac:dyDescent="0.2">
+      <c r="T9" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="10" spans="1:20" x14ac:dyDescent="0.2">
       <c r="C10" s="1" t="s">
         <v>6</v>
       </c>
       <c r="D10" s="3">
-        <v>530200</v>
+        <v>489000</v>
       </c>
       <c r="E10" s="3">
-        <v>436400</v>
+        <v>551400</v>
       </c>
       <c r="F10" s="3">
-        <v>415300</v>
+        <v>454000</v>
       </c>
       <c r="G10" s="3">
-        <v>353600</v>
+        <v>432000</v>
       </c>
       <c r="H10" s="3">
-        <v>385100</v>
+        <v>367800</v>
       </c>
       <c r="I10" s="3">
-        <v>373100</v>
+        <v>400600</v>
       </c>
       <c r="J10" s="3">
+        <v>388100</v>
+      </c>
+      <c r="K10" s="3">
         <v>333400</v>
       </c>
-      <c r="K10" s="3">
+      <c r="L10" s="3">
         <v>281900</v>
       </c>
-      <c r="L10" s="3">
+      <c r="M10" s="3">
         <v>1157400</v>
       </c>
-      <c r="M10" s="3">
+      <c r="N10" s="3">
         <v>298800</v>
       </c>
-      <c r="N10" s="3">
+      <c r="O10" s="3">
         <v>263700</v>
       </c>
-      <c r="O10" s="3">
+      <c r="P10" s="3">
         <v>217300</v>
       </c>
-      <c r="P10" s="3">
+      <c r="Q10" s="3">
         <v>237400</v>
       </c>
-      <c r="Q10" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="R10" s="3" t="s">
         <v>3</v>
       </c>
       <c r="S10" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="11" spans="1:19" x14ac:dyDescent="0.2">
+      <c r="T10" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="11" spans="1:20" x14ac:dyDescent="0.2">
       <c r="C11" s="1" t="s">
         <v>7</v>
       </c>
@@ -921,8 +934,9 @@
       <c r="Q11" s="3"/>
       <c r="R11" s="3"/>
       <c r="S11" s="3"/>
-    </row>
-    <row r="12" spans="1:19" x14ac:dyDescent="0.2">
+      <c r="T11" s="3"/>
+    </row>
+    <row r="12" spans="1:20" x14ac:dyDescent="0.2">
       <c r="C12" s="1" t="s">
         <v>8</v>
       </c>
@@ -974,8 +988,11 @@
       <c r="S12" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="13" spans="1:19" x14ac:dyDescent="0.2">
+      <c r="T12" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="13" spans="1:20" x14ac:dyDescent="0.2">
       <c r="C13" s="1" t="s">
         <v>9</v>
       </c>
@@ -1027,114 +1044,123 @@
       <c r="S13" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="14" spans="1:19" x14ac:dyDescent="0.2">
+      <c r="T13" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="14" spans="1:20" x14ac:dyDescent="0.2">
       <c r="C14" s="1" t="s">
         <v>10</v>
       </c>
       <c r="D14" s="3">
-        <v>4800</v>
+        <v>400</v>
       </c>
       <c r="E14" s="3">
+        <v>5000</v>
+      </c>
+      <c r="F14" s="3">
         <v>800</v>
       </c>
-      <c r="F14" s="3">
-        <v>3500</v>
-      </c>
       <c r="G14" s="3">
+        <v>3600</v>
+      </c>
+      <c r="H14" s="3">
         <v>1000</v>
       </c>
-      <c r="H14" s="3">
-        <v>4300</v>
-      </c>
       <c r="I14" s="3">
+        <v>4400</v>
+      </c>
+      <c r="J14" s="3">
         <v>1200</v>
       </c>
-      <c r="J14" s="3">
+      <c r="K14" s="3">
         <v>6800</v>
       </c>
-      <c r="K14" s="3">
+      <c r="L14" s="3">
         <v>400</v>
       </c>
-      <c r="L14" s="3">
+      <c r="M14" s="3">
         <v>43600</v>
       </c>
-      <c r="M14" s="3">
+      <c r="N14" s="3">
         <v>3100</v>
       </c>
-      <c r="N14" s="3">
+      <c r="O14" s="3">
         <v>15000</v>
       </c>
-      <c r="O14" s="3">
+      <c r="P14" s="3">
         <v>7700</v>
       </c>
-      <c r="P14" s="3">
+      <c r="Q14" s="3">
         <v>22100</v>
       </c>
-      <c r="Q14" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="R14" s="3" t="s">
         <v>3</v>
       </c>
       <c r="S14" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="15" spans="1:19" x14ac:dyDescent="0.2">
+      <c r="T14" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="15" spans="1:20" x14ac:dyDescent="0.2">
       <c r="C15" s="1" t="s">
         <v>11</v>
       </c>
       <c r="D15" s="3">
-        <v>52300</v>
+        <v>63000</v>
       </c>
       <c r="E15" s="3">
-        <v>44900</v>
+        <v>54400</v>
       </c>
       <c r="F15" s="3">
-        <v>41200</v>
+        <v>46700</v>
       </c>
       <c r="G15" s="3">
-        <v>39500</v>
+        <v>42900</v>
       </c>
       <c r="H15" s="3">
-        <v>34300</v>
+        <v>41100</v>
       </c>
       <c r="I15" s="3">
-        <v>31400</v>
+        <v>35600</v>
       </c>
       <c r="J15" s="3">
+        <v>32600</v>
+      </c>
+      <c r="K15" s="3">
         <v>29800</v>
       </c>
-      <c r="K15" s="3">
+      <c r="L15" s="3">
         <v>27100</v>
       </c>
-      <c r="L15" s="3">
+      <c r="M15" s="3">
         <v>98400</v>
       </c>
-      <c r="M15" s="3">
+      <c r="N15" s="3">
         <v>25100</v>
       </c>
-      <c r="N15" s="3">
+      <c r="O15" s="3">
         <v>23800</v>
       </c>
-      <c r="O15" s="3">
+      <c r="P15" s="3">
         <v>20900</v>
       </c>
-      <c r="P15" s="3">
+      <c r="Q15" s="3">
         <v>19100</v>
       </c>
-      <c r="Q15" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="R15" s="3" t="s">
         <v>3</v>
       </c>
       <c r="S15" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="16" spans="1:19" x14ac:dyDescent="0.2">
+      <c r="T15" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="16" spans="1:20" x14ac:dyDescent="0.2">
       <c r="D16" s="3"/>
       <c r="E16" s="3"/>
       <c r="F16" s="3"/>
@@ -1151,114 +1177,121 @@
       <c r="Q16" s="3"/>
       <c r="R16" s="3"/>
       <c r="S16" s="3"/>
-    </row>
-    <row r="17" spans="3:19" x14ac:dyDescent="0.2">
+      <c r="T16" s="3"/>
+    </row>
+    <row r="17" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C17" s="1" t="s">
         <v>12</v>
       </c>
       <c r="D17" s="3">
-        <v>2921100</v>
+        <v>2915700</v>
       </c>
       <c r="E17" s="3">
-        <v>2533500</v>
+        <v>3038300</v>
       </c>
       <c r="F17" s="3">
-        <v>2436300</v>
+        <v>2635100</v>
       </c>
       <c r="G17" s="3">
-        <v>2114100</v>
+        <v>2534000</v>
       </c>
       <c r="H17" s="3">
-        <v>2102000</v>
+        <v>2198900</v>
       </c>
       <c r="I17" s="3">
-        <v>1945000</v>
+        <v>2186400</v>
       </c>
       <c r="J17" s="3">
+        <v>2023100</v>
+      </c>
+      <c r="K17" s="3">
         <v>1830400</v>
       </c>
-      <c r="K17" s="3">
+      <c r="L17" s="3">
         <v>1677300</v>
       </c>
-      <c r="L17" s="3">
+      <c r="M17" s="3">
         <v>6648900</v>
       </c>
-      <c r="M17" s="3">
+      <c r="N17" s="3">
         <v>1691300</v>
       </c>
-      <c r="N17" s="3">
+      <c r="O17" s="3">
         <v>1548500</v>
       </c>
-      <c r="O17" s="3">
+      <c r="P17" s="3">
         <v>1341000</v>
       </c>
-      <c r="P17" s="3">
+      <c r="Q17" s="3">
         <v>1330900</v>
       </c>
-      <c r="Q17" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="R17" s="3" t="s">
         <v>3</v>
       </c>
       <c r="S17" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="18" spans="3:19" x14ac:dyDescent="0.2">
+      <c r="T17" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="18" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C18" s="1" t="s">
         <v>13</v>
       </c>
       <c r="D18" s="3">
-        <v>168100</v>
+        <v>124700</v>
       </c>
       <c r="E18" s="3">
-        <v>144800</v>
+        <v>174800</v>
       </c>
       <c r="F18" s="3">
-        <v>137300</v>
+        <v>150600</v>
       </c>
       <c r="G18" s="3">
-        <v>101700</v>
+        <v>142800</v>
       </c>
       <c r="H18" s="3">
-        <v>135500</v>
+        <v>105700</v>
       </c>
       <c r="I18" s="3">
-        <v>154900</v>
+        <v>141000</v>
       </c>
       <c r="J18" s="3">
+        <v>161100</v>
+      </c>
+      <c r="K18" s="3">
         <v>115400</v>
       </c>
-      <c r="K18" s="3">
+      <c r="L18" s="3">
         <v>90400</v>
       </c>
-      <c r="L18" s="3">
+      <c r="M18" s="3">
         <v>404700</v>
       </c>
-      <c r="M18" s="3">
+      <c r="N18" s="3">
         <v>110400</v>
       </c>
-      <c r="N18" s="3">
+      <c r="O18" s="3">
         <v>75700</v>
       </c>
-      <c r="O18" s="3">
+      <c r="P18" s="3">
         <v>58200</v>
       </c>
-      <c r="P18" s="3">
+      <c r="Q18" s="3">
         <v>96200</v>
       </c>
-      <c r="Q18" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="R18" s="3" t="s">
         <v>3</v>
       </c>
       <c r="S18" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="19" spans="3:19" x14ac:dyDescent="0.2">
+      <c r="T18" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="19" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C19" s="1" t="s">
         <v>14</v>
       </c>
@@ -1278,264 +1311,277 @@
       <c r="Q19" s="3"/>
       <c r="R19" s="3"/>
       <c r="S19" s="3"/>
-    </row>
-    <row r="20" spans="3:19" x14ac:dyDescent="0.2">
+      <c r="T19" s="3"/>
+    </row>
+    <row r="20" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C20" s="1" t="s">
         <v>15</v>
       </c>
       <c r="D20" s="3">
+        <v>-10300</v>
+      </c>
+      <c r="E20" s="3">
+        <v>8900</v>
+      </c>
+      <c r="F20" s="3">
+        <v>-13900</v>
+      </c>
+      <c r="G20" s="3">
+        <v>-22200</v>
+      </c>
+      <c r="H20" s="3">
+        <v>5000</v>
+      </c>
+      <c r="I20" s="3">
+        <v>3800</v>
+      </c>
+      <c r="J20" s="3">
         <v>8500</v>
       </c>
-      <c r="E20" s="3">
-        <v>-13400</v>
-      </c>
-      <c r="F20" s="3">
-        <v>-21300</v>
-      </c>
-      <c r="G20" s="3">
-        <v>4800</v>
-      </c>
-      <c r="H20" s="3">
-        <v>3700</v>
-      </c>
-      <c r="I20" s="3">
-        <v>8100</v>
-      </c>
-      <c r="J20" s="3">
+      <c r="K20" s="3">
         <v>7000</v>
       </c>
-      <c r="K20" s="3">
+      <c r="L20" s="3">
         <v>1500</v>
       </c>
-      <c r="L20" s="3">
+      <c r="M20" s="3">
         <v>48900</v>
       </c>
-      <c r="M20" s="3">
+      <c r="N20" s="3">
         <v>2700</v>
       </c>
-      <c r="N20" s="3">
+      <c r="O20" s="3">
         <v>-15400</v>
       </c>
-      <c r="O20" s="3">
+      <c r="P20" s="3">
         <v>13200</v>
       </c>
-      <c r="P20" s="3">
+      <c r="Q20" s="3">
         <v>3000</v>
       </c>
-      <c r="Q20" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="R20" s="3" t="s">
         <v>3</v>
       </c>
       <c r="S20" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="21" spans="3:19" x14ac:dyDescent="0.2">
+      <c r="T20" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="21" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C21" s="1" t="s">
         <v>16</v>
       </c>
       <c r="D21" s="3">
-        <v>232700</v>
+        <v>182100</v>
       </c>
       <c r="E21" s="3">
-        <v>179100</v>
+        <v>242100</v>
       </c>
       <c r="F21" s="3">
-        <v>161500</v>
+        <v>186300</v>
       </c>
       <c r="G21" s="3">
-        <v>148900</v>
+        <v>168000</v>
       </c>
       <c r="H21" s="3">
-        <v>175600</v>
+        <v>154900</v>
       </c>
       <c r="I21" s="3">
-        <v>196900</v>
+        <v>182700</v>
       </c>
       <c r="J21" s="3">
+        <v>204800</v>
+      </c>
+      <c r="K21" s="3">
         <v>154700</v>
       </c>
-      <c r="K21" s="3">
+      <c r="L21" s="3">
         <v>121200</v>
       </c>
-      <c r="L21" s="3">
+      <c r="M21" s="3">
         <v>722100</v>
       </c>
-      <c r="M21" s="3">
+      <c r="N21" s="3">
         <v>182500</v>
       </c>
-      <c r="N21" s="3">
+      <c r="O21" s="3">
         <v>125700</v>
       </c>
-      <c r="O21" s="3">
+      <c r="P21" s="3">
         <v>127500</v>
       </c>
-      <c r="P21" s="3">
+      <c r="Q21" s="3">
         <v>131400</v>
       </c>
-      <c r="Q21" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="R21" s="3" t="s">
         <v>3</v>
       </c>
       <c r="S21" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="22" spans="3:19" x14ac:dyDescent="0.2">
+      <c r="T21" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="22" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C22" s="1" t="s">
         <v>17</v>
       </c>
       <c r="D22" s="3">
-        <v>94700</v>
+        <v>116600</v>
       </c>
       <c r="E22" s="3">
-        <v>71800</v>
+        <v>98500</v>
       </c>
       <c r="F22" s="3">
-        <v>42200</v>
+        <v>74700</v>
       </c>
       <c r="G22" s="3">
-        <v>63300</v>
+        <v>43900</v>
       </c>
       <c r="H22" s="3">
-        <v>59300</v>
+        <v>65900</v>
       </c>
       <c r="I22" s="3">
-        <v>39900</v>
+        <v>61600</v>
       </c>
       <c r="J22" s="3">
+        <v>41500</v>
+      </c>
+      <c r="K22" s="3">
         <v>35000</v>
       </c>
-      <c r="K22" s="3">
+      <c r="L22" s="3">
         <v>26600</v>
       </c>
-      <c r="L22" s="3">
+      <c r="M22" s="3">
         <v>135600</v>
       </c>
-      <c r="M22" s="3">
+      <c r="N22" s="3">
         <v>28000</v>
       </c>
-      <c r="N22" s="3">
+      <c r="O22" s="3">
         <v>10400</v>
       </c>
-      <c r="O22" s="3">
+      <c r="P22" s="3">
         <v>40900</v>
       </c>
-      <c r="P22" s="3">
+      <c r="Q22" s="3">
         <v>35500</v>
       </c>
-      <c r="Q22" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="R22" s="3" t="s">
         <v>3</v>
       </c>
       <c r="S22" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="23" spans="3:19" x14ac:dyDescent="0.2">
+      <c r="T22" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="23" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C23" s="1" t="s">
         <v>18</v>
       </c>
       <c r="D23" s="3">
-        <v>81900</v>
+        <v>-2200</v>
       </c>
       <c r="E23" s="3">
-        <v>59600</v>
+        <v>85200</v>
       </c>
       <c r="F23" s="3">
-        <v>73800</v>
+        <v>62000</v>
       </c>
       <c r="G23" s="3">
-        <v>43200</v>
+        <v>76700</v>
       </c>
       <c r="H23" s="3">
-        <v>80000</v>
+        <v>44900</v>
       </c>
       <c r="I23" s="3">
-        <v>123100</v>
+        <v>83200</v>
       </c>
       <c r="J23" s="3">
+        <v>128100</v>
+      </c>
+      <c r="K23" s="3">
         <v>87300</v>
       </c>
-      <c r="K23" s="3">
+      <c r="L23" s="3">
         <v>65300</v>
       </c>
-      <c r="L23" s="3">
+      <c r="M23" s="3">
         <v>318000</v>
       </c>
-      <c r="M23" s="3">
+      <c r="N23" s="3">
         <v>85100</v>
       </c>
-      <c r="N23" s="3">
+      <c r="O23" s="3">
         <v>49900</v>
       </c>
-      <c r="O23" s="3">
+      <c r="P23" s="3">
         <v>30500</v>
       </c>
-      <c r="P23" s="3">
+      <c r="Q23" s="3">
         <v>63700</v>
       </c>
-      <c r="Q23" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="R23" s="3" t="s">
         <v>3</v>
       </c>
       <c r="S23" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="24" spans="3:19" x14ac:dyDescent="0.2">
+      <c r="T23" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="24" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C24" s="1" t="s">
         <v>19</v>
       </c>
       <c r="D24" s="3">
-        <v>3300</v>
+        <v>-16700</v>
       </c>
       <c r="E24" s="3">
-        <v>5200</v>
+        <v>3400</v>
       </c>
       <c r="F24" s="3">
-        <v>12000</v>
+        <v>5400</v>
       </c>
       <c r="G24" s="3">
-        <v>1700</v>
+        <v>12500</v>
       </c>
       <c r="H24" s="3">
-        <v>-22100</v>
+        <v>1800</v>
       </c>
       <c r="I24" s="3">
-        <v>19000</v>
+        <v>-23000</v>
       </c>
       <c r="J24" s="3">
+        <v>19700</v>
+      </c>
+      <c r="K24" s="3">
         <v>28300</v>
       </c>
-      <c r="K24" s="3">
+      <c r="L24" s="3">
         <v>20400</v>
       </c>
-      <c r="L24" s="3">
+      <c r="M24" s="3">
         <v>85300</v>
       </c>
-      <c r="M24" s="3">
+      <c r="N24" s="3">
         <v>7000</v>
       </c>
-      <c r="N24" s="3">
+      <c r="O24" s="3">
         <v>16600</v>
-      </c>
-      <c r="O24" s="3">
-        <v>9800</v>
       </c>
       <c r="P24" s="3">
         <v>9800</v>
       </c>
-      <c r="Q24" s="3" t="s">
-        <v>3</v>
+      <c r="Q24" s="3">
+        <v>9800</v>
       </c>
       <c r="R24" s="3" t="s">
         <v>3</v>
@@ -1543,8 +1589,11 @@
       <c r="S24" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="25" spans="3:19" x14ac:dyDescent="0.2">
+      <c r="T24" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="25" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C25" s="1" t="s">
         <v>20</v>
       </c>
@@ -1596,114 +1645,123 @@
       <c r="S25" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="26" spans="3:19" x14ac:dyDescent="0.2">
+      <c r="T25" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="26" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C26" s="1" t="s">
         <v>21</v>
       </c>
       <c r="D26" s="3">
-        <v>78600</v>
+        <v>14500</v>
       </c>
       <c r="E26" s="3">
-        <v>54400</v>
+        <v>81800</v>
       </c>
       <c r="F26" s="3">
-        <v>61800</v>
+        <v>56600</v>
       </c>
       <c r="G26" s="3">
-        <v>41400</v>
+        <v>64200</v>
       </c>
       <c r="H26" s="3">
-        <v>102000</v>
+        <v>43100</v>
       </c>
       <c r="I26" s="3">
-        <v>104200</v>
+        <v>106100</v>
       </c>
       <c r="J26" s="3">
+        <v>108400</v>
+      </c>
+      <c r="K26" s="3">
         <v>59100</v>
       </c>
-      <c r="K26" s="3">
+      <c r="L26" s="3">
         <v>44900</v>
       </c>
-      <c r="L26" s="3">
+      <c r="M26" s="3">
         <v>232700</v>
       </c>
-      <c r="M26" s="3">
+      <c r="N26" s="3">
         <v>78100</v>
       </c>
-      <c r="N26" s="3">
+      <c r="O26" s="3">
         <v>33300</v>
       </c>
-      <c r="O26" s="3">
+      <c r="P26" s="3">
         <v>20700</v>
       </c>
-      <c r="P26" s="3">
+      <c r="Q26" s="3">
         <v>53900</v>
       </c>
-      <c r="Q26" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="R26" s="3" t="s">
         <v>3</v>
       </c>
       <c r="S26" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="27" spans="3:19" x14ac:dyDescent="0.2">
+      <c r="T26" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="27" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C27" s="1" t="s">
         <v>22</v>
       </c>
       <c r="D27" s="3">
-        <v>78600</v>
+        <v>14500</v>
       </c>
       <c r="E27" s="3">
-        <v>54400</v>
+        <v>81800</v>
       </c>
       <c r="F27" s="3">
-        <v>61800</v>
+        <v>56600</v>
       </c>
       <c r="G27" s="3">
-        <v>41400</v>
+        <v>64200</v>
       </c>
       <c r="H27" s="3">
-        <v>102000</v>
+        <v>43100</v>
       </c>
       <c r="I27" s="3">
-        <v>104200</v>
+        <v>106100</v>
       </c>
       <c r="J27" s="3">
+        <v>108400</v>
+      </c>
+      <c r="K27" s="3">
         <v>59100</v>
       </c>
-      <c r="K27" s="3">
+      <c r="L27" s="3">
         <v>44900</v>
       </c>
-      <c r="L27" s="3">
+      <c r="M27" s="3">
         <v>201800</v>
       </c>
-      <c r="M27" s="3">
+      <c r="N27" s="3">
         <v>69500</v>
       </c>
-      <c r="N27" s="3">
+      <c r="O27" s="3">
         <v>23100</v>
       </c>
-      <c r="O27" s="3">
+      <c r="P27" s="3">
         <v>16800</v>
       </c>
-      <c r="P27" s="3">
+      <c r="Q27" s="3">
         <v>51600</v>
       </c>
-      <c r="Q27" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="R27" s="3" t="s">
         <v>3</v>
       </c>
       <c r="S27" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="28" spans="3:19" x14ac:dyDescent="0.2">
+      <c r="T27" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="28" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C28" s="1" t="s">
         <v>23</v>
       </c>
@@ -1755,8 +1813,11 @@
       <c r="S28" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="29" spans="3:19" x14ac:dyDescent="0.2">
+      <c r="T28" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="29" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C29" s="1" t="s">
         <v>24</v>
       </c>
@@ -1778,38 +1839,41 @@
       <c r="I29" s="3" t="s">
         <v>3</v>
       </c>
-      <c r="J29" s="3">
-        <v>0</v>
+      <c r="J29" s="3" t="s">
+        <v>3</v>
       </c>
       <c r="K29" s="3">
         <v>0</v>
       </c>
       <c r="L29" s="3">
+        <v>0</v>
+      </c>
+      <c r="M29" s="3">
         <v>71800</v>
       </c>
-      <c r="M29" s="3">
+      <c r="N29" s="3">
         <v>15600</v>
       </c>
-      <c r="N29" s="3">
+      <c r="O29" s="3">
         <v>11400</v>
       </c>
-      <c r="O29" s="3">
+      <c r="P29" s="3">
         <v>1100</v>
       </c>
-      <c r="P29" s="3">
+      <c r="Q29" s="3">
         <v>-2900</v>
       </c>
-      <c r="Q29" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="R29" s="3" t="s">
         <v>3</v>
       </c>
       <c r="S29" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="30" spans="3:19" x14ac:dyDescent="0.2">
+      <c r="T29" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="30" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C30" s="1" t="s">
         <v>25</v>
       </c>
@@ -1861,8 +1925,11 @@
       <c r="S30" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="31" spans="3:19" x14ac:dyDescent="0.2">
+      <c r="T30" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="31" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C31" s="1" t="s">
         <v>26</v>
       </c>
@@ -1914,114 +1981,123 @@
       <c r="S31" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="32" spans="3:19" x14ac:dyDescent="0.2">
+      <c r="T31" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="32" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C32" s="1" t="s">
         <v>27</v>
       </c>
       <c r="D32" s="3">
+        <v>10300</v>
+      </c>
+      <c r="E32" s="3">
+        <v>-8900</v>
+      </c>
+      <c r="F32" s="3">
+        <v>13900</v>
+      </c>
+      <c r="G32" s="3">
+        <v>22200</v>
+      </c>
+      <c r="H32" s="3">
+        <v>-5000</v>
+      </c>
+      <c r="I32" s="3">
+        <v>-3800</v>
+      </c>
+      <c r="J32" s="3">
         <v>-8500</v>
       </c>
-      <c r="E32" s="3">
-        <v>13400</v>
-      </c>
-      <c r="F32" s="3">
-        <v>21300</v>
-      </c>
-      <c r="G32" s="3">
-        <v>-4800</v>
-      </c>
-      <c r="H32" s="3">
-        <v>-3700</v>
-      </c>
-      <c r="I32" s="3">
-        <v>-8100</v>
-      </c>
-      <c r="J32" s="3">
+      <c r="K32" s="3">
         <v>-7000</v>
       </c>
-      <c r="K32" s="3">
+      <c r="L32" s="3">
         <v>-1500</v>
       </c>
-      <c r="L32" s="3">
+      <c r="M32" s="3">
         <v>-48900</v>
       </c>
-      <c r="M32" s="3">
+      <c r="N32" s="3">
         <v>-2700</v>
       </c>
-      <c r="N32" s="3">
+      <c r="O32" s="3">
         <v>15400</v>
       </c>
-      <c r="O32" s="3">
+      <c r="P32" s="3">
         <v>-13200</v>
       </c>
-      <c r="P32" s="3">
+      <c r="Q32" s="3">
         <v>-3000</v>
       </c>
-      <c r="Q32" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="R32" s="3" t="s">
         <v>3</v>
       </c>
       <c r="S32" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="33" spans="2:19" x14ac:dyDescent="0.2">
+      <c r="T32" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="33" spans="2:20" x14ac:dyDescent="0.2">
       <c r="C33" s="1" t="s">
         <v>28</v>
       </c>
       <c r="D33" s="3">
-        <v>78600</v>
+        <v>14500</v>
       </c>
       <c r="E33" s="3">
-        <v>54400</v>
+        <v>81800</v>
       </c>
       <c r="F33" s="3">
-        <v>61800</v>
+        <v>56600</v>
       </c>
       <c r="G33" s="3">
-        <v>41400</v>
+        <v>64200</v>
       </c>
       <c r="H33" s="3">
-        <v>102000</v>
+        <v>43100</v>
       </c>
       <c r="I33" s="3">
-        <v>104200</v>
+        <v>106100</v>
       </c>
       <c r="J33" s="3">
+        <v>108400</v>
+      </c>
+      <c r="K33" s="3">
         <v>59100</v>
       </c>
-      <c r="K33" s="3">
+      <c r="L33" s="3">
         <v>44900</v>
       </c>
-      <c r="L33" s="3">
+      <c r="M33" s="3">
         <v>273600</v>
       </c>
-      <c r="M33" s="3">
+      <c r="N33" s="3">
         <v>85100</v>
       </c>
-      <c r="N33" s="3">
+      <c r="O33" s="3">
         <v>34500</v>
       </c>
-      <c r="O33" s="3">
+      <c r="P33" s="3">
         <v>17900</v>
       </c>
-      <c r="P33" s="3">
+      <c r="Q33" s="3">
         <v>48700</v>
       </c>
-      <c r="Q33" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="R33" s="3" t="s">
         <v>3</v>
       </c>
       <c r="S33" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="34" spans="2:19" x14ac:dyDescent="0.2">
+      <c r="T33" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="34" spans="2:20" x14ac:dyDescent="0.2">
       <c r="C34" s="1" t="s">
         <v>29</v>
       </c>
@@ -2073,119 +2149,128 @@
       <c r="S34" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="35" spans="2:19" x14ac:dyDescent="0.2">
+      <c r="T34" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="35" spans="2:20" x14ac:dyDescent="0.2">
       <c r="C35" s="1" t="s">
         <v>30</v>
       </c>
       <c r="D35" s="3">
-        <v>78600</v>
+        <v>14500</v>
       </c>
       <c r="E35" s="3">
-        <v>54400</v>
+        <v>81800</v>
       </c>
       <c r="F35" s="3">
-        <v>61800</v>
+        <v>56600</v>
       </c>
       <c r="G35" s="3">
-        <v>41400</v>
+        <v>64200</v>
       </c>
       <c r="H35" s="3">
-        <v>102000</v>
+        <v>43100</v>
       </c>
       <c r="I35" s="3">
-        <v>104200</v>
+        <v>106100</v>
       </c>
       <c r="J35" s="3">
+        <v>108400</v>
+      </c>
+      <c r="K35" s="3">
         <v>59100</v>
       </c>
-      <c r="K35" s="3">
+      <c r="L35" s="3">
         <v>44900</v>
       </c>
-      <c r="L35" s="3">
+      <c r="M35" s="3">
         <v>273600</v>
       </c>
-      <c r="M35" s="3">
+      <c r="N35" s="3">
         <v>85100</v>
       </c>
-      <c r="N35" s="3">
+      <c r="O35" s="3">
         <v>34500</v>
       </c>
-      <c r="O35" s="3">
+      <c r="P35" s="3">
         <v>17900</v>
       </c>
-      <c r="P35" s="3">
+      <c r="Q35" s="3">
         <v>48700</v>
       </c>
-      <c r="Q35" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="R35" s="3" t="s">
         <v>3</v>
       </c>
       <c r="S35" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="37" spans="2:19" x14ac:dyDescent="0.2">
+      <c r="T35" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="37" spans="2:20" x14ac:dyDescent="0.2">
       <c r="B37" s="1" t="s">
         <v>31</v>
       </c>
     </row>
-    <row r="38" spans="2:19" x14ac:dyDescent="0.2">
+    <row r="38" spans="2:20" x14ac:dyDescent="0.2">
       <c r="C38" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D38" s="2">
+        <v>45016</v>
+      </c>
+      <c r="E38" s="2">
         <v>44926</v>
       </c>
-      <c r="E38" s="2">
+      <c r="F38" s="2">
         <v>44834</v>
       </c>
-      <c r="F38" s="2">
+      <c r="G38" s="2">
         <v>44742</v>
       </c>
-      <c r="G38" s="2">
+      <c r="H38" s="2">
         <v>44651</v>
       </c>
-      <c r="H38" s="2">
+      <c r="I38" s="2">
         <v>44561</v>
       </c>
-      <c r="I38" s="2">
+      <c r="J38" s="2">
         <v>44469</v>
       </c>
-      <c r="J38" s="2">
+      <c r="K38" s="2">
         <v>44377</v>
       </c>
-      <c r="K38" s="2">
+      <c r="L38" s="2">
         <v>44286</v>
       </c>
-      <c r="L38" s="2">
+      <c r="M38" s="2">
         <v>44196</v>
       </c>
-      <c r="M38" s="2">
+      <c r="N38" s="2">
         <v>44104</v>
       </c>
-      <c r="N38" s="2">
+      <c r="O38" s="2">
         <v>44012</v>
       </c>
-      <c r="O38" s="2">
+      <c r="P38" s="2">
         <v>43921</v>
       </c>
-      <c r="P38" s="2">
+      <c r="Q38" s="2">
         <v>43830</v>
       </c>
-      <c r="Q38" s="2" t="s">
-        <v>3</v>
-      </c>
       <c r="R38" s="2" t="s">
         <v>3</v>
       </c>
       <c r="S38" s="2" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="39" spans="2:19" x14ac:dyDescent="0.2">
+      <c r="T38" s="2" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="39" spans="2:20" x14ac:dyDescent="0.2">
       <c r="C39" s="1" t="s">
         <v>32</v>
       </c>
@@ -2205,8 +2290,9 @@
       <c r="Q39" s="3"/>
       <c r="R39" s="3"/>
       <c r="S39" s="3"/>
-    </row>
-    <row r="40" spans="2:19" x14ac:dyDescent="0.2">
+      <c r="T39" s="3"/>
+    </row>
+    <row r="40" spans="2:20" x14ac:dyDescent="0.2">
       <c r="C40" s="1" t="s">
         <v>33</v>
       </c>
@@ -2226,52 +2312,53 @@
       <c r="Q40" s="3"/>
       <c r="R40" s="3"/>
       <c r="S40" s="3"/>
-    </row>
-    <row r="41" spans="2:19" x14ac:dyDescent="0.2">
+      <c r="T40" s="3"/>
+    </row>
+    <row r="41" spans="2:20" x14ac:dyDescent="0.2">
       <c r="C41" s="1" t="s">
         <v>34</v>
       </c>
       <c r="D41" s="3">
-        <v>1131200</v>
+        <v>832600</v>
       </c>
       <c r="E41" s="3">
-        <v>815200</v>
+        <v>1176600</v>
       </c>
       <c r="F41" s="3">
-        <v>601800</v>
+        <v>847900</v>
       </c>
       <c r="G41" s="3">
-        <v>849800</v>
+        <v>626000</v>
       </c>
       <c r="H41" s="3">
-        <v>493800</v>
+        <v>883900</v>
       </c>
       <c r="I41" s="3">
-        <v>557800</v>
+        <v>513600</v>
       </c>
       <c r="J41" s="3">
+        <v>580200</v>
+      </c>
+      <c r="K41" s="3">
         <v>873500</v>
       </c>
-      <c r="K41" s="3">
+      <c r="L41" s="3">
         <v>517100</v>
       </c>
-      <c r="L41" s="3">
+      <c r="M41" s="3">
         <v>691200</v>
       </c>
-      <c r="M41" s="3">
+      <c r="N41" s="3">
         <v>343000</v>
       </c>
-      <c r="N41" s="3">
+      <c r="O41" s="3">
         <v>461300</v>
       </c>
-      <c r="O41" s="3">
+      <c r="P41" s="3">
         <v>484000</v>
       </c>
-      <c r="P41" s="3" t="s">
-        <v>3</v>
-      </c>
-      <c r="Q41" s="3">
-        <v>0</v>
+      <c r="Q41" s="3" t="s">
+        <v>3</v>
       </c>
       <c r="R41" s="3">
         <v>0</v>
@@ -2279,8 +2366,11 @@
       <c r="S41" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="42" spans="2:19" x14ac:dyDescent="0.2">
+      <c r="T41" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="42" spans="2:20" x14ac:dyDescent="0.2">
       <c r="C42" s="1" t="s">
         <v>35</v>
       </c>
@@ -2312,19 +2402,19 @@
         <v>0</v>
       </c>
       <c r="M42" s="3">
+        <v>0</v>
+      </c>
+      <c r="N42" s="3">
         <v>416200</v>
       </c>
-      <c r="N42" s="3">
+      <c r="O42" s="3">
         <v>448700</v>
       </c>
-      <c r="O42" s="3">
+      <c r="P42" s="3">
         <v>190300</v>
       </c>
-      <c r="P42" s="3" t="s">
-        <v>3</v>
-      </c>
-      <c r="Q42" s="3">
-        <v>0</v>
+      <c r="Q42" s="3" t="s">
+        <v>3</v>
       </c>
       <c r="R42" s="3">
         <v>0</v>
@@ -2332,52 +2422,55 @@
       <c r="S42" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="43" spans="2:19" x14ac:dyDescent="0.2">
+      <c r="T42" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="43" spans="2:20" x14ac:dyDescent="0.2">
       <c r="C43" s="1" t="s">
         <v>36</v>
       </c>
       <c r="D43" s="3">
-        <v>324700</v>
+        <v>326100</v>
       </c>
       <c r="E43" s="3">
-        <v>318700</v>
+        <v>337700</v>
       </c>
       <c r="F43" s="3">
-        <v>263300</v>
+        <v>331500</v>
       </c>
       <c r="G43" s="3">
-        <v>299500</v>
+        <v>273900</v>
       </c>
       <c r="H43" s="3">
-        <v>232400</v>
+        <v>311600</v>
       </c>
       <c r="I43" s="3">
-        <v>251100</v>
+        <v>241700</v>
       </c>
       <c r="J43" s="3">
+        <v>261200</v>
+      </c>
+      <c r="K43" s="3">
         <v>183400</v>
       </c>
-      <c r="K43" s="3">
+      <c r="L43" s="3">
         <v>148700</v>
       </c>
-      <c r="L43" s="3">
+      <c r="M43" s="3">
         <v>192600</v>
       </c>
-      <c r="M43" s="3">
+      <c r="N43" s="3">
         <v>353300</v>
       </c>
-      <c r="N43" s="3">
+      <c r="O43" s="3">
         <v>375600</v>
       </c>
-      <c r="O43" s="3">
+      <c r="P43" s="3">
         <v>280100</v>
       </c>
-      <c r="P43" s="3" t="s">
-        <v>3</v>
-      </c>
-      <c r="Q43" s="3">
-        <v>0</v>
+      <c r="Q43" s="3" t="s">
+        <v>3</v>
       </c>
       <c r="R43" s="3">
         <v>0</v>
@@ -2385,52 +2478,55 @@
       <c r="S43" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="44" spans="2:19" x14ac:dyDescent="0.2">
+      <c r="T43" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="44" spans="2:20" x14ac:dyDescent="0.2">
       <c r="C44" s="1" t="s">
         <v>37</v>
       </c>
       <c r="D44" s="3">
-        <v>1252200</v>
+        <v>1273700</v>
       </c>
       <c r="E44" s="3">
-        <v>1170900</v>
+        <v>1302500</v>
       </c>
       <c r="F44" s="3">
-        <v>1086500</v>
+        <v>1217900</v>
       </c>
       <c r="G44" s="3">
-        <v>938100</v>
+        <v>1130100</v>
       </c>
       <c r="H44" s="3">
-        <v>848100</v>
+        <v>975800</v>
       </c>
       <c r="I44" s="3">
-        <v>863600</v>
+        <v>882100</v>
       </c>
       <c r="J44" s="3">
+        <v>898200</v>
+      </c>
+      <c r="K44" s="3">
         <v>714100</v>
       </c>
-      <c r="K44" s="3">
+      <c r="L44" s="3">
         <v>642800</v>
       </c>
-      <c r="L44" s="3">
+      <c r="M44" s="3">
         <v>731700</v>
       </c>
-      <c r="M44" s="3">
+      <c r="N44" s="3">
         <v>1243300</v>
       </c>
-      <c r="N44" s="3">
+      <c r="O44" s="3">
         <v>1113600</v>
       </c>
-      <c r="O44" s="3">
+      <c r="P44" s="3">
         <v>1036500</v>
       </c>
-      <c r="P44" s="3" t="s">
-        <v>3</v>
-      </c>
-      <c r="Q44" s="3">
-        <v>0</v>
+      <c r="Q44" s="3" t="s">
+        <v>3</v>
       </c>
       <c r="R44" s="3">
         <v>0</v>
@@ -2438,52 +2534,55 @@
       <c r="S44" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="45" spans="2:19" x14ac:dyDescent="0.2">
+      <c r="T44" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="45" spans="2:20" x14ac:dyDescent="0.2">
       <c r="C45" s="1" t="s">
         <v>38</v>
       </c>
       <c r="D45" s="3">
-        <v>37400</v>
+        <v>60600</v>
       </c>
       <c r="E45" s="3">
-        <v>69900</v>
+        <v>38900</v>
       </c>
       <c r="F45" s="3">
-        <v>76900</v>
+        <v>72700</v>
       </c>
       <c r="G45" s="3">
-        <v>288300</v>
+        <v>80000</v>
       </c>
       <c r="H45" s="3">
-        <v>124300</v>
+        <v>299900</v>
       </c>
       <c r="I45" s="3">
-        <v>47100</v>
+        <v>129300</v>
       </c>
       <c r="J45" s="3">
+        <v>48900</v>
+      </c>
+      <c r="K45" s="3">
         <v>43600</v>
       </c>
-      <c r="K45" s="3">
+      <c r="L45" s="3">
         <v>16800</v>
       </c>
-      <c r="L45" s="3">
+      <c r="M45" s="3">
         <v>18400</v>
       </c>
-      <c r="M45" s="3">
+      <c r="N45" s="3">
         <v>62900</v>
       </c>
-      <c r="N45" s="3">
+      <c r="O45" s="3">
         <v>84900</v>
       </c>
-      <c r="O45" s="3">
+      <c r="P45" s="3">
         <v>154400</v>
       </c>
-      <c r="P45" s="3" t="s">
-        <v>3</v>
-      </c>
-      <c r="Q45" s="3">
-        <v>0</v>
+      <c r="Q45" s="3" t="s">
+        <v>3</v>
       </c>
       <c r="R45" s="3">
         <v>0</v>
@@ -2491,52 +2590,55 @@
       <c r="S45" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="46" spans="2:19" x14ac:dyDescent="0.2">
+      <c r="T45" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="46" spans="2:20" x14ac:dyDescent="0.2">
       <c r="C46" s="1" t="s">
         <v>39</v>
       </c>
       <c r="D46" s="3">
-        <v>2745500</v>
+        <v>2492900</v>
       </c>
       <c r="E46" s="3">
-        <v>2374700</v>
+        <v>2855700</v>
       </c>
       <c r="F46" s="3">
-        <v>2028500</v>
+        <v>2470000</v>
       </c>
       <c r="G46" s="3">
-        <v>2375800</v>
+        <v>2109900</v>
       </c>
       <c r="H46" s="3">
-        <v>1698500</v>
+        <v>2471200</v>
       </c>
       <c r="I46" s="3">
-        <v>1719600</v>
+        <v>1766700</v>
       </c>
       <c r="J46" s="3">
+        <v>1788600</v>
+      </c>
+      <c r="K46" s="3">
         <v>1814500</v>
       </c>
-      <c r="K46" s="3">
+      <c r="L46" s="3">
         <v>1325500</v>
       </c>
-      <c r="L46" s="3">
+      <c r="M46" s="3">
         <v>1633900</v>
       </c>
-      <c r="M46" s="3">
+      <c r="N46" s="3">
         <v>2418800</v>
       </c>
-      <c r="N46" s="3">
+      <c r="O46" s="3">
         <v>2484100</v>
       </c>
-      <c r="O46" s="3">
+      <c r="P46" s="3">
         <v>2145300</v>
       </c>
-      <c r="P46" s="3" t="s">
-        <v>3</v>
-      </c>
-      <c r="Q46" s="3">
-        <v>0</v>
+      <c r="Q46" s="3" t="s">
+        <v>3</v>
       </c>
       <c r="R46" s="3">
         <v>0</v>
@@ -2544,52 +2646,55 @@
       <c r="S46" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="47" spans="2:19" x14ac:dyDescent="0.2">
+      <c r="T46" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="47" spans="2:20" x14ac:dyDescent="0.2">
       <c r="C47" s="1" t="s">
         <v>40</v>
       </c>
       <c r="D47" s="3">
-        <v>389600</v>
+        <v>392300</v>
       </c>
       <c r="E47" s="3">
-        <v>386900</v>
+        <v>405200</v>
       </c>
       <c r="F47" s="3">
-        <v>458700</v>
+        <v>402400</v>
       </c>
       <c r="G47" s="3">
-        <v>453100</v>
+        <v>477100</v>
       </c>
       <c r="H47" s="3">
-        <v>323900</v>
+        <v>471300</v>
       </c>
       <c r="I47" s="3">
-        <v>345000</v>
+        <v>336900</v>
       </c>
       <c r="J47" s="3">
+        <v>358900</v>
+      </c>
+      <c r="K47" s="3">
         <v>338500</v>
       </c>
-      <c r="K47" s="3">
+      <c r="L47" s="3">
         <v>327400</v>
       </c>
-      <c r="L47" s="3">
+      <c r="M47" s="3">
         <v>354800</v>
       </c>
-      <c r="M47" s="3">
+      <c r="N47" s="3">
         <v>285200</v>
       </c>
-      <c r="N47" s="3">
+      <c r="O47" s="3">
         <v>291300</v>
       </c>
-      <c r="O47" s="3">
+      <c r="P47" s="3">
         <v>297400</v>
       </c>
-      <c r="P47" s="3" t="s">
-        <v>3</v>
-      </c>
-      <c r="Q47" s="3">
-        <v>0</v>
+      <c r="Q47" s="3" t="s">
+        <v>3</v>
       </c>
       <c r="R47" s="3">
         <v>0</v>
@@ -2597,52 +2702,55 @@
       <c r="S47" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="48" spans="2:19" x14ac:dyDescent="0.2">
+      <c r="T47" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="48" spans="2:20" x14ac:dyDescent="0.2">
       <c r="C48" s="1" t="s">
         <v>41</v>
       </c>
       <c r="D48" s="3">
-        <v>3714400</v>
+        <v>3904700</v>
       </c>
       <c r="E48" s="3">
-        <v>3279100</v>
+        <v>3863500</v>
       </c>
       <c r="F48" s="3">
-        <v>2997200</v>
+        <v>3410700</v>
       </c>
       <c r="G48" s="3">
-        <v>2489100</v>
+        <v>3117500</v>
       </c>
       <c r="H48" s="3">
-        <v>1998300</v>
+        <v>2589000</v>
       </c>
       <c r="I48" s="3">
-        <v>1722700</v>
+        <v>2078400</v>
       </c>
       <c r="J48" s="3">
+        <v>1791900</v>
+      </c>
+      <c r="K48" s="3">
         <v>1580000</v>
       </c>
-      <c r="K48" s="3">
+      <c r="L48" s="3">
         <v>1422400</v>
       </c>
-      <c r="L48" s="3">
+      <c r="M48" s="3">
         <v>1463100</v>
       </c>
-      <c r="M48" s="3">
+      <c r="N48" s="3">
         <v>4076200</v>
       </c>
-      <c r="N48" s="3">
+      <c r="O48" s="3">
         <v>4057500</v>
       </c>
-      <c r="O48" s="3">
+      <c r="P48" s="3">
         <v>3266400</v>
       </c>
-      <c r="P48" s="3" t="s">
-        <v>3</v>
-      </c>
-      <c r="Q48" s="3">
-        <v>0</v>
+      <c r="Q48" s="3" t="s">
+        <v>3</v>
       </c>
       <c r="R48" s="3">
         <v>0</v>
@@ -2650,52 +2758,55 @@
       <c r="S48" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="49" spans="3:19" x14ac:dyDescent="0.2">
+      <c r="T48" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="49" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C49" s="1" t="s">
         <v>42</v>
       </c>
       <c r="D49" s="3">
-        <v>971600</v>
+        <v>1013600</v>
       </c>
       <c r="E49" s="3">
-        <v>971600</v>
+        <v>1010600</v>
       </c>
       <c r="F49" s="3">
-        <v>933300</v>
+        <v>1010600</v>
       </c>
       <c r="G49" s="3">
-        <v>923600</v>
+        <v>970700</v>
       </c>
       <c r="H49" s="3">
-        <v>365400</v>
+        <v>960700</v>
       </c>
       <c r="I49" s="3">
-        <v>205200</v>
+        <v>380000</v>
       </c>
       <c r="J49" s="3">
+        <v>213500</v>
+      </c>
+      <c r="K49" s="3">
         <v>202700</v>
       </c>
-      <c r="K49" s="3">
+      <c r="L49" s="3">
         <v>194000</v>
       </c>
-      <c r="L49" s="3">
+      <c r="M49" s="3">
         <v>202900</v>
       </c>
-      <c r="M49" s="3">
+      <c r="N49" s="3">
         <v>964700</v>
       </c>
-      <c r="N49" s="3">
+      <c r="O49" s="3">
         <v>971300</v>
       </c>
-      <c r="O49" s="3">
+      <c r="P49" s="3">
         <v>796000</v>
       </c>
-      <c r="P49" s="3" t="s">
-        <v>3</v>
-      </c>
-      <c r="Q49" s="3">
-        <v>0</v>
+      <c r="Q49" s="3" t="s">
+        <v>3</v>
       </c>
       <c r="R49" s="3">
         <v>0</v>
@@ -2703,8 +2814,11 @@
       <c r="S49" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="50" spans="3:19" x14ac:dyDescent="0.2">
+      <c r="T49" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="50" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C50" s="1" t="s">
         <v>43</v>
       </c>
@@ -2756,8 +2870,11 @@
       <c r="S50" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="51" spans="3:19" x14ac:dyDescent="0.2">
+      <c r="T50" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="51" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C51" s="1" t="s">
         <v>44</v>
       </c>
@@ -2809,52 +2926,55 @@
       <c r="S51" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="52" spans="3:19" x14ac:dyDescent="0.2">
+      <c r="T51" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="52" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C52" s="1" t="s">
         <v>45</v>
       </c>
       <c r="D52" s="3">
-        <v>43800</v>
+        <v>68900</v>
       </c>
       <c r="E52" s="3">
-        <v>40100</v>
+        <v>45500</v>
       </c>
       <c r="F52" s="3">
-        <v>56500</v>
+        <v>41700</v>
       </c>
       <c r="G52" s="3">
-        <v>48800</v>
+        <v>58800</v>
       </c>
       <c r="H52" s="3">
-        <v>39100</v>
+        <v>50800</v>
       </c>
       <c r="I52" s="3">
-        <v>28900</v>
+        <v>40700</v>
       </c>
       <c r="J52" s="3">
         <v>30000</v>
       </c>
       <c r="K52" s="3">
+        <v>30000</v>
+      </c>
+      <c r="L52" s="3">
         <v>26400</v>
       </c>
-      <c r="L52" s="3">
+      <c r="M52" s="3">
         <v>28600</v>
       </c>
-      <c r="M52" s="3">
+      <c r="N52" s="3">
         <v>41100</v>
       </c>
-      <c r="N52" s="3">
+      <c r="O52" s="3">
         <v>39800</v>
       </c>
-      <c r="O52" s="3">
+      <c r="P52" s="3">
         <v>39300</v>
       </c>
-      <c r="P52" s="3" t="s">
-        <v>3</v>
-      </c>
-      <c r="Q52" s="3">
-        <v>0</v>
+      <c r="Q52" s="3" t="s">
+        <v>3</v>
       </c>
       <c r="R52" s="3">
         <v>0</v>
@@ -2862,8 +2982,11 @@
       <c r="S52" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="53" spans="3:19" x14ac:dyDescent="0.2">
+      <c r="T52" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="53" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C53" s="1" t="s">
         <v>46</v>
       </c>
@@ -2915,52 +3038,55 @@
       <c r="S53" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="54" spans="3:19" x14ac:dyDescent="0.2">
+      <c r="T53" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="54" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C54" s="1" t="s">
         <v>47</v>
       </c>
       <c r="D54" s="3">
-        <v>7864900</v>
+        <v>7872500</v>
       </c>
       <c r="E54" s="3">
-        <v>7052400</v>
+        <v>8180500</v>
       </c>
       <c r="F54" s="3">
-        <v>6474200</v>
+        <v>7335400</v>
       </c>
       <c r="G54" s="3">
-        <v>6290500</v>
+        <v>6734000</v>
       </c>
       <c r="H54" s="3">
-        <v>4425200</v>
+        <v>6542900</v>
       </c>
       <c r="I54" s="3">
-        <v>4021500</v>
+        <v>4602800</v>
       </c>
       <c r="J54" s="3">
+        <v>4182900</v>
+      </c>
+      <c r="K54" s="3">
         <v>3965700</v>
       </c>
-      <c r="K54" s="3">
+      <c r="L54" s="3">
         <v>3295800</v>
       </c>
-      <c r="L54" s="3">
+      <c r="M54" s="3">
         <v>3683300</v>
       </c>
-      <c r="M54" s="3">
+      <c r="N54" s="3">
         <v>7785900</v>
       </c>
-      <c r="N54" s="3">
+      <c r="O54" s="3">
         <v>7844000</v>
       </c>
-      <c r="O54" s="3">
+      <c r="P54" s="3">
         <v>6544400</v>
       </c>
-      <c r="P54" s="3" t="s">
-        <v>3</v>
-      </c>
-      <c r="Q54" s="3">
-        <v>0</v>
+      <c r="Q54" s="3" t="s">
+        <v>3</v>
       </c>
       <c r="R54" s="3">
         <v>0</v>
@@ -2968,8 +3094,11 @@
       <c r="S54" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="55" spans="3:19" x14ac:dyDescent="0.2">
+      <c r="T54" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="55" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C55" s="1" t="s">
         <v>48</v>
       </c>
@@ -2989,8 +3118,9 @@
       <c r="Q55" s="3"/>
       <c r="R55" s="3"/>
       <c r="S55" s="3"/>
-    </row>
-    <row r="56" spans="3:19" x14ac:dyDescent="0.2">
+      <c r="T55" s="3"/>
+    </row>
+    <row r="56" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C56" s="1" t="s">
         <v>49</v>
       </c>
@@ -3010,52 +3140,53 @@
       <c r="Q56" s="3"/>
       <c r="R56" s="3"/>
       <c r="S56" s="3"/>
-    </row>
-    <row r="57" spans="3:19" x14ac:dyDescent="0.2">
+      <c r="T56" s="3"/>
+    </row>
+    <row r="57" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C57" s="1" t="s">
         <v>50</v>
       </c>
       <c r="D57" s="3">
-        <v>2555900</v>
+        <v>2463900</v>
       </c>
       <c r="E57" s="3">
-        <v>2053100</v>
+        <v>2658500</v>
       </c>
       <c r="F57" s="3">
-        <v>1778300</v>
+        <v>2135400</v>
       </c>
       <c r="G57" s="3">
-        <v>1811600</v>
+        <v>1849700</v>
       </c>
       <c r="H57" s="3">
-        <v>1221800</v>
+        <v>1884300</v>
       </c>
       <c r="I57" s="3">
-        <v>1049500</v>
+        <v>1270800</v>
       </c>
       <c r="J57" s="3">
+        <v>1091600</v>
+      </c>
+      <c r="K57" s="3">
         <v>892400</v>
       </c>
-      <c r="K57" s="3">
+      <c r="L57" s="3">
         <v>787500</v>
       </c>
-      <c r="L57" s="3">
+      <c r="M57" s="3">
         <v>997900</v>
       </c>
-      <c r="M57" s="3">
+      <c r="N57" s="3">
         <v>1629100</v>
       </c>
-      <c r="N57" s="3">
+      <c r="O57" s="3">
         <v>1636800</v>
       </c>
-      <c r="O57" s="3">
+      <c r="P57" s="3">
         <v>1465500</v>
       </c>
-      <c r="P57" s="3" t="s">
-        <v>3</v>
-      </c>
-      <c r="Q57" s="3">
-        <v>0</v>
+      <c r="Q57" s="3" t="s">
+        <v>3</v>
       </c>
       <c r="R57" s="3">
         <v>0</v>
@@ -3063,52 +3194,55 @@
       <c r="S57" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="58" spans="3:19" x14ac:dyDescent="0.2">
+      <c r="T57" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="58" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C58" s="1" t="s">
         <v>51</v>
       </c>
       <c r="D58" s="3">
-        <v>328200</v>
+        <v>340000</v>
       </c>
       <c r="E58" s="3">
-        <v>233900</v>
+        <v>341400</v>
       </c>
       <c r="F58" s="3">
-        <v>107100</v>
+        <v>243300</v>
       </c>
       <c r="G58" s="3">
-        <v>113700</v>
+        <v>111400</v>
       </c>
       <c r="H58" s="3">
-        <v>165900</v>
+        <v>118200</v>
       </c>
       <c r="I58" s="3">
-        <v>498800</v>
+        <v>172600</v>
       </c>
       <c r="J58" s="3">
+        <v>518800</v>
+      </c>
+      <c r="K58" s="3">
         <v>465500</v>
       </c>
-      <c r="K58" s="3">
+      <c r="L58" s="3">
         <v>383200</v>
       </c>
-      <c r="L58" s="3">
+      <c r="M58" s="3">
         <v>448500</v>
       </c>
-      <c r="M58" s="3">
+      <c r="N58" s="3">
         <v>818100</v>
       </c>
-      <c r="N58" s="3">
+      <c r="O58" s="3">
         <v>530100</v>
       </c>
-      <c r="O58" s="3">
+      <c r="P58" s="3">
         <v>521100</v>
       </c>
-      <c r="P58" s="3" t="s">
-        <v>3</v>
-      </c>
-      <c r="Q58" s="3">
-        <v>0</v>
+      <c r="Q58" s="3" t="s">
+        <v>3</v>
       </c>
       <c r="R58" s="3">
         <v>0</v>
@@ -3116,52 +3250,55 @@
       <c r="S58" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="59" spans="3:19" x14ac:dyDescent="0.2">
+      <c r="T58" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="59" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C59" s="1" t="s">
         <v>52</v>
       </c>
       <c r="D59" s="3">
-        <v>294500</v>
+        <v>282200</v>
       </c>
       <c r="E59" s="3">
-        <v>325700</v>
+        <v>306300</v>
       </c>
       <c r="F59" s="3">
-        <v>254200</v>
+        <v>338800</v>
       </c>
       <c r="G59" s="3">
-        <v>277300</v>
+        <v>264400</v>
       </c>
       <c r="H59" s="3">
-        <v>286000</v>
+        <v>288400</v>
       </c>
       <c r="I59" s="3">
-        <v>226700</v>
+        <v>297500</v>
       </c>
       <c r="J59" s="3">
+        <v>235800</v>
+      </c>
+      <c r="K59" s="3">
         <v>192300</v>
       </c>
-      <c r="K59" s="3">
+      <c r="L59" s="3">
         <v>185400</v>
       </c>
-      <c r="L59" s="3">
+      <c r="M59" s="3">
         <v>260700</v>
       </c>
-      <c r="M59" s="3">
+      <c r="N59" s="3">
         <v>508400</v>
       </c>
-      <c r="N59" s="3">
+      <c r="O59" s="3">
         <v>491300</v>
       </c>
-      <c r="O59" s="3">
+      <c r="P59" s="3">
         <v>394000</v>
       </c>
-      <c r="P59" s="3" t="s">
-        <v>3</v>
-      </c>
-      <c r="Q59" s="3">
-        <v>0</v>
+      <c r="Q59" s="3" t="s">
+        <v>3</v>
       </c>
       <c r="R59" s="3">
         <v>0</v>
@@ -3169,52 +3306,55 @@
       <c r="S59" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="60" spans="3:19" x14ac:dyDescent="0.2">
+      <c r="T59" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="60" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C60" s="1" t="s">
         <v>53</v>
       </c>
       <c r="D60" s="3">
-        <v>3178600</v>
+        <v>3086100</v>
       </c>
       <c r="E60" s="3">
-        <v>2612600</v>
+        <v>3306200</v>
       </c>
       <c r="F60" s="3">
-        <v>2139600</v>
+        <v>2717500</v>
       </c>
       <c r="G60" s="3">
-        <v>2202500</v>
+        <v>2225500</v>
       </c>
       <c r="H60" s="3">
-        <v>1673700</v>
+        <v>2290900</v>
       </c>
       <c r="I60" s="3">
-        <v>1775000</v>
+        <v>1740900</v>
       </c>
       <c r="J60" s="3">
+        <v>1846200</v>
+      </c>
+      <c r="K60" s="3">
         <v>1550200</v>
       </c>
-      <c r="K60" s="3">
+      <c r="L60" s="3">
         <v>1356000</v>
       </c>
-      <c r="L60" s="3">
+      <c r="M60" s="3">
         <v>1707100</v>
       </c>
-      <c r="M60" s="3">
+      <c r="N60" s="3">
         <v>2955600</v>
       </c>
-      <c r="N60" s="3">
+      <c r="O60" s="3">
         <v>2658100</v>
       </c>
-      <c r="O60" s="3">
+      <c r="P60" s="3">
         <v>2380600</v>
       </c>
-      <c r="P60" s="3" t="s">
-        <v>3</v>
-      </c>
-      <c r="Q60" s="3">
-        <v>0</v>
+      <c r="Q60" s="3" t="s">
+        <v>3</v>
       </c>
       <c r="R60" s="3">
         <v>0</v>
@@ -3222,50 +3362,53 @@
       <c r="S60" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="61" spans="3:19" x14ac:dyDescent="0.2">
+      <c r="T60" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="61" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C61" s="1" t="s">
         <v>54</v>
       </c>
       <c r="D61" s="3">
-        <v>3728500</v>
+        <v>3921900</v>
       </c>
       <c r="E61" s="3">
-        <v>3551800</v>
+        <v>3878200</v>
       </c>
       <c r="F61" s="3">
-        <v>3496000</v>
+        <v>3694300</v>
       </c>
       <c r="G61" s="3">
-        <v>3181700</v>
+        <v>3636300</v>
       </c>
       <c r="H61" s="3">
-        <v>2173900</v>
+        <v>3309400</v>
       </c>
       <c r="I61" s="3">
-        <v>1723500</v>
+        <v>2261100</v>
       </c>
       <c r="J61" s="3">
+        <v>1792700</v>
+      </c>
+      <c r="K61" s="3">
         <v>1979300</v>
       </c>
-      <c r="K61" s="3">
+      <c r="L61" s="3">
         <v>1568900</v>
       </c>
-      <c r="L61" s="3">
+      <c r="M61" s="3">
         <v>1627200</v>
       </c>
-      <c r="M61" s="3">
+      <c r="N61" s="3">
         <v>2075600</v>
       </c>
-      <c r="N61" s="3">
+      <c r="O61" s="3">
         <v>2472300</v>
       </c>
-      <c r="O61" s="3">
+      <c r="P61" s="3">
         <v>2004400</v>
       </c>
-      <c r="P61" s="3">
-        <v>0</v>
-      </c>
       <c r="Q61" s="3">
         <v>0</v>
       </c>
@@ -3275,52 +3418,55 @@
       <c r="S61" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="62" spans="3:19" x14ac:dyDescent="0.2">
+      <c r="T61" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="62" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C62" s="1" t="s">
         <v>55</v>
       </c>
       <c r="D62" s="3">
-        <v>203300</v>
+        <v>63000</v>
       </c>
       <c r="E62" s="3">
-        <v>191900</v>
+        <v>211500</v>
       </c>
       <c r="F62" s="3">
-        <v>197500</v>
+        <v>199600</v>
       </c>
       <c r="G62" s="3">
-        <v>328400</v>
+        <v>205400</v>
       </c>
       <c r="H62" s="3">
-        <v>42000</v>
+        <v>341600</v>
       </c>
       <c r="I62" s="3">
-        <v>57900</v>
+        <v>43700</v>
       </c>
       <c r="J62" s="3">
+        <v>60200</v>
+      </c>
+      <c r="K62" s="3">
         <v>65100</v>
       </c>
-      <c r="K62" s="3">
+      <c r="L62" s="3">
         <v>73300</v>
       </c>
-      <c r="L62" s="3">
+      <c r="M62" s="3">
         <v>73000</v>
       </c>
-      <c r="M62" s="3">
+      <c r="N62" s="3">
         <v>281500</v>
       </c>
-      <c r="N62" s="3">
+      <c r="O62" s="3">
         <v>311700</v>
       </c>
-      <c r="O62" s="3">
+      <c r="P62" s="3">
         <v>287800</v>
       </c>
-      <c r="P62" s="3" t="s">
-        <v>3</v>
-      </c>
-      <c r="Q62" s="3">
-        <v>0</v>
+      <c r="Q62" s="3" t="s">
+        <v>3</v>
       </c>
       <c r="R62" s="3">
         <v>0</v>
@@ -3328,8 +3474,11 @@
       <c r="S62" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="63" spans="3:19" x14ac:dyDescent="0.2">
+      <c r="T62" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="63" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C63" s="1" t="s">
         <v>56</v>
       </c>
@@ -3381,8 +3530,11 @@
       <c r="S63" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="64" spans="3:19" x14ac:dyDescent="0.2">
+      <c r="T63" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="64" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C64" s="1" t="s">
         <v>20</v>
       </c>
@@ -3434,8 +3586,11 @@
       <c r="S64" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="65" spans="2:19" x14ac:dyDescent="0.2">
+      <c r="T64" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="65" spans="2:20" x14ac:dyDescent="0.2">
       <c r="C65" s="1" t="s">
         <v>57</v>
       </c>
@@ -3487,52 +3642,55 @@
       <c r="S65" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="66" spans="2:19" x14ac:dyDescent="0.2">
+      <c r="T65" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="66" spans="2:20" x14ac:dyDescent="0.2">
       <c r="C66" s="1" t="s">
         <v>58</v>
       </c>
       <c r="D66" s="3">
-        <v>7110500</v>
+        <v>7071000</v>
       </c>
       <c r="E66" s="3">
-        <v>6356300</v>
+        <v>7395800</v>
       </c>
       <c r="F66" s="3">
-        <v>5833100</v>
+        <v>6611400</v>
       </c>
       <c r="G66" s="3">
-        <v>5712700</v>
+        <v>6067200</v>
       </c>
       <c r="H66" s="3">
-        <v>3889600</v>
+        <v>5941900</v>
       </c>
       <c r="I66" s="3">
-        <v>3556400</v>
+        <v>4045700</v>
       </c>
       <c r="J66" s="3">
+        <v>3699100</v>
+      </c>
+      <c r="K66" s="3">
         <v>3594500</v>
       </c>
-      <c r="K66" s="3">
+      <c r="L66" s="3">
         <v>2998300</v>
       </c>
-      <c r="L66" s="3">
+      <c r="M66" s="3">
         <v>3407300</v>
       </c>
-      <c r="M66" s="3">
+      <c r="N66" s="3">
         <v>5926200</v>
       </c>
-      <c r="N66" s="3">
+      <c r="O66" s="3">
         <v>6053100</v>
       </c>
-      <c r="O66" s="3">
+      <c r="P66" s="3">
         <v>5153300</v>
       </c>
-      <c r="P66" s="3" t="s">
-        <v>3</v>
-      </c>
-      <c r="Q66" s="3">
-        <v>0</v>
+      <c r="Q66" s="3" t="s">
+        <v>3</v>
       </c>
       <c r="R66" s="3">
         <v>0</v>
@@ -3540,8 +3698,11 @@
       <c r="S66" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="67" spans="2:19" x14ac:dyDescent="0.2">
+      <c r="T66" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="67" spans="2:20" x14ac:dyDescent="0.2">
       <c r="C67" s="1" t="s">
         <v>59</v>
       </c>
@@ -3561,8 +3722,9 @@
       <c r="Q67" s="3"/>
       <c r="R67" s="3"/>
       <c r="S67" s="3"/>
-    </row>
-    <row r="68" spans="2:19" x14ac:dyDescent="0.2">
+      <c r="T67" s="3"/>
+    </row>
+    <row r="68" spans="2:20" x14ac:dyDescent="0.2">
       <c r="C68" s="1" t="s">
         <v>60</v>
       </c>
@@ -3614,8 +3776,11 @@
       <c r="S68" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="69" spans="2:19" x14ac:dyDescent="0.2">
+      <c r="T68" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="69" spans="2:20" x14ac:dyDescent="0.2">
       <c r="C69" s="1" t="s">
         <v>61</v>
       </c>
@@ -3667,8 +3832,11 @@
       <c r="S69" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="70" spans="2:19" x14ac:dyDescent="0.2">
+      <c r="T69" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="70" spans="2:20" x14ac:dyDescent="0.2">
       <c r="C70" s="1" t="s">
         <v>62</v>
       </c>
@@ -3720,8 +3888,11 @@
       <c r="S70" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="71" spans="2:19" x14ac:dyDescent="0.2">
+      <c r="T70" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="71" spans="2:20" x14ac:dyDescent="0.2">
       <c r="C71" s="1" t="s">
         <v>63</v>
       </c>
@@ -3773,52 +3944,55 @@
       <c r="S71" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="72" spans="2:19" x14ac:dyDescent="0.2">
+      <c r="T71" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="72" spans="2:20" x14ac:dyDescent="0.2">
       <c r="C72" s="1" t="s">
         <v>64</v>
       </c>
       <c r="D72" s="3">
-        <v>510200</v>
+        <v>547000</v>
       </c>
       <c r="E72" s="3">
-        <v>453100</v>
+        <v>530700</v>
       </c>
       <c r="F72" s="3">
-        <v>398300</v>
+        <v>471300</v>
       </c>
       <c r="G72" s="3">
-        <v>425400</v>
+        <v>414300</v>
       </c>
       <c r="H72" s="3">
-        <v>383200</v>
+        <v>442500</v>
       </c>
       <c r="I72" s="3">
-        <v>312700</v>
+        <v>398600</v>
       </c>
       <c r="J72" s="3">
+        <v>325300</v>
+      </c>
+      <c r="K72" s="3">
         <v>220400</v>
       </c>
-      <c r="K72" s="3">
+      <c r="L72" s="3">
         <v>155100</v>
       </c>
-      <c r="L72" s="3">
+      <c r="M72" s="3">
         <v>127000</v>
       </c>
-      <c r="M72" s="3">
+      <c r="N72" s="3">
         <v>562300</v>
       </c>
-      <c r="N72" s="3">
+      <c r="O72" s="3">
         <v>545100</v>
       </c>
-      <c r="O72" s="3">
+      <c r="P72" s="3">
         <v>462000</v>
       </c>
-      <c r="P72" s="3" t="s">
-        <v>3</v>
-      </c>
-      <c r="Q72" s="3">
-        <v>0</v>
+      <c r="Q72" s="3" t="s">
+        <v>3</v>
       </c>
       <c r="R72" s="3">
         <v>0</v>
@@ -3826,8 +4000,11 @@
       <c r="S72" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="73" spans="2:19" x14ac:dyDescent="0.2">
+      <c r="T72" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="73" spans="2:20" x14ac:dyDescent="0.2">
       <c r="C73" s="1" t="s">
         <v>65</v>
       </c>
@@ -3879,8 +4056,11 @@
       <c r="S73" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="74" spans="2:19" x14ac:dyDescent="0.2">
+      <c r="T73" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="74" spans="2:20" x14ac:dyDescent="0.2">
       <c r="C74" s="1" t="s">
         <v>66</v>
       </c>
@@ -3932,8 +4112,11 @@
       <c r="S74" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="75" spans="2:19" x14ac:dyDescent="0.2">
+      <c r="T74" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="75" spans="2:20" x14ac:dyDescent="0.2">
       <c r="C75" s="1" t="s">
         <v>67</v>
       </c>
@@ -3985,52 +4168,55 @@
       <c r="S75" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="76" spans="2:19" x14ac:dyDescent="0.2">
+      <c r="T75" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="76" spans="2:20" x14ac:dyDescent="0.2">
       <c r="C76" s="1" t="s">
         <v>68</v>
       </c>
       <c r="D76" s="3">
-        <v>754400</v>
+        <v>801600</v>
       </c>
       <c r="E76" s="3">
-        <v>696100</v>
+        <v>784700</v>
       </c>
       <c r="F76" s="3">
-        <v>641100</v>
+        <v>724000</v>
       </c>
       <c r="G76" s="3">
-        <v>577800</v>
+        <v>666800</v>
       </c>
       <c r="H76" s="3">
-        <v>535600</v>
+        <v>601000</v>
       </c>
       <c r="I76" s="3">
-        <v>465100</v>
+        <v>557100</v>
       </c>
       <c r="J76" s="3">
+        <v>483800</v>
+      </c>
+      <c r="K76" s="3">
         <v>371200</v>
       </c>
-      <c r="K76" s="3">
+      <c r="L76" s="3">
         <v>297500</v>
       </c>
-      <c r="L76" s="3">
+      <c r="M76" s="3">
         <v>275900</v>
       </c>
-      <c r="M76" s="3">
+      <c r="N76" s="3">
         <v>1859800</v>
       </c>
-      <c r="N76" s="3">
+      <c r="O76" s="3">
         <v>1790900</v>
       </c>
-      <c r="O76" s="3">
+      <c r="P76" s="3">
         <v>1391000</v>
       </c>
-      <c r="P76" s="3" t="s">
-        <v>3</v>
-      </c>
-      <c r="Q76" s="3">
-        <v>0</v>
+      <c r="Q76" s="3" t="s">
+        <v>3</v>
       </c>
       <c r="R76" s="3">
         <v>0</v>
@@ -4038,8 +4224,11 @@
       <c r="S76" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="77" spans="2:19" x14ac:dyDescent="0.2">
+      <c r="T76" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="77" spans="2:20" x14ac:dyDescent="0.2">
       <c r="C77" s="1" t="s">
         <v>69</v>
       </c>
@@ -4091,119 +4280,128 @@
       <c r="S77" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="79" spans="2:19" x14ac:dyDescent="0.2">
+      <c r="T77" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="79" spans="2:20" x14ac:dyDescent="0.2">
       <c r="B79" s="1" t="s">
         <v>70</v>
       </c>
     </row>
-    <row r="80" spans="2:19" x14ac:dyDescent="0.2">
+    <row r="80" spans="2:20" x14ac:dyDescent="0.2">
       <c r="C80" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D80" s="2">
+        <v>45016</v>
+      </c>
+      <c r="E80" s="2">
         <v>44926</v>
       </c>
-      <c r="E80" s="2">
+      <c r="F80" s="2">
         <v>44834</v>
       </c>
-      <c r="F80" s="2">
+      <c r="G80" s="2">
         <v>44742</v>
       </c>
-      <c r="G80" s="2">
+      <c r="H80" s="2">
         <v>44651</v>
       </c>
-      <c r="H80" s="2">
+      <c r="I80" s="2">
         <v>44561</v>
       </c>
-      <c r="I80" s="2">
+      <c r="J80" s="2">
         <v>44469</v>
       </c>
-      <c r="J80" s="2">
+      <c r="K80" s="2">
         <v>44377</v>
       </c>
-      <c r="K80" s="2">
+      <c r="L80" s="2">
         <v>44286</v>
       </c>
-      <c r="L80" s="2">
+      <c r="M80" s="2">
         <v>44196</v>
       </c>
-      <c r="M80" s="2">
+      <c r="N80" s="2">
         <v>44104</v>
       </c>
-      <c r="N80" s="2">
+      <c r="O80" s="2">
         <v>44012</v>
       </c>
-      <c r="O80" s="2">
+      <c r="P80" s="2">
         <v>43921</v>
       </c>
-      <c r="P80" s="2">
+      <c r="Q80" s="2">
         <v>43830</v>
       </c>
-      <c r="Q80" s="2" t="s">
-        <v>3</v>
-      </c>
       <c r="R80" s="2" t="s">
         <v>3</v>
       </c>
       <c r="S80" s="2" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="81" spans="3:19" x14ac:dyDescent="0.2">
+      <c r="T80" s="2" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="81" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C81" s="1" t="s">
         <v>28</v>
       </c>
       <c r="D81" s="3">
-        <v>78600</v>
+        <v>14500</v>
       </c>
       <c r="E81" s="3">
-        <v>54400</v>
+        <v>81800</v>
       </c>
       <c r="F81" s="3">
-        <v>61800</v>
+        <v>56600</v>
       </c>
       <c r="G81" s="3">
-        <v>41400</v>
+        <v>64200</v>
       </c>
       <c r="H81" s="3">
-        <v>102000</v>
+        <v>43100</v>
       </c>
       <c r="I81" s="3">
-        <v>104200</v>
+        <v>106100</v>
       </c>
       <c r="J81" s="3">
+        <v>108400</v>
+      </c>
+      <c r="K81" s="3">
         <v>59100</v>
       </c>
-      <c r="K81" s="3">
+      <c r="L81" s="3">
         <v>44900</v>
       </c>
-      <c r="L81" s="3">
+      <c r="M81" s="3">
         <v>273600</v>
       </c>
-      <c r="M81" s="3">
+      <c r="N81" s="3">
         <v>85100</v>
       </c>
-      <c r="N81" s="3">
+      <c r="O81" s="3">
         <v>34500</v>
       </c>
-      <c r="O81" s="3">
+      <c r="P81" s="3">
         <v>17900</v>
       </c>
-      <c r="P81" s="3">
+      <c r="Q81" s="3">
         <v>48700</v>
       </c>
-      <c r="Q81" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="R81" s="3" t="s">
         <v>3</v>
       </c>
       <c r="S81" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="82" spans="3:19" x14ac:dyDescent="0.2">
+      <c r="T81" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="82" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C82" s="1" t="s">
         <v>71</v>
       </c>
@@ -4223,61 +4421,65 @@
       <c r="Q82" s="3"/>
       <c r="R82" s="3"/>
       <c r="S82" s="3"/>
-    </row>
-    <row r="83" spans="3:19" x14ac:dyDescent="0.2">
+      <c r="T82" s="3"/>
+    </row>
+    <row r="83" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C83" s="1" t="s">
         <v>72</v>
       </c>
       <c r="D83" s="3">
-        <v>56200</v>
+        <v>67700</v>
       </c>
       <c r="E83" s="3">
-        <v>47600</v>
+        <v>58400</v>
       </c>
       <c r="F83" s="3">
-        <v>45500</v>
+        <v>49500</v>
       </c>
       <c r="G83" s="3">
-        <v>42400</v>
+        <v>47300</v>
       </c>
       <c r="H83" s="3">
-        <v>36400</v>
+        <v>44100</v>
       </c>
       <c r="I83" s="3">
-        <v>33900</v>
+        <v>37900</v>
       </c>
       <c r="J83" s="3">
+        <v>35200</v>
+      </c>
+      <c r="K83" s="3">
         <v>32300</v>
       </c>
-      <c r="K83" s="3">
+      <c r="L83" s="3">
         <v>29400</v>
       </c>
-      <c r="L83" s="3">
+      <c r="M83" s="3">
         <v>268500</v>
       </c>
-      <c r="M83" s="3">
+      <c r="N83" s="3">
         <v>69300</v>
       </c>
-      <c r="N83" s="3">
+      <c r="O83" s="3">
         <v>65400</v>
       </c>
-      <c r="O83" s="3">
+      <c r="P83" s="3">
         <v>56100</v>
       </c>
-      <c r="P83" s="3">
+      <c r="Q83" s="3">
         <v>32100</v>
       </c>
-      <c r="Q83" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="R83" s="3" t="s">
         <v>3</v>
       </c>
       <c r="S83" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="84" spans="3:19" x14ac:dyDescent="0.2">
+      <c r="T83" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="84" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C84" s="1" t="s">
         <v>73</v>
       </c>
@@ -4329,8 +4531,11 @@
       <c r="S84" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="85" spans="3:19" x14ac:dyDescent="0.2">
+      <c r="T84" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="85" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C85" s="1" t="s">
         <v>74</v>
       </c>
@@ -4382,8 +4587,11 @@
       <c r="S85" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="86" spans="3:19" x14ac:dyDescent="0.2">
+      <c r="T85" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="86" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C86" s="1" t="s">
         <v>75</v>
       </c>
@@ -4435,8 +4643,11 @@
       <c r="S86" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="87" spans="3:19" x14ac:dyDescent="0.2">
+      <c r="T86" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="87" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C87" s="1" t="s">
         <v>76</v>
       </c>
@@ -4488,8 +4699,11 @@
       <c r="S87" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="88" spans="3:19" x14ac:dyDescent="0.2">
+      <c r="T87" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="88" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C88" s="1" t="s">
         <v>77</v>
       </c>
@@ -4541,61 +4755,67 @@
       <c r="S88" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="89" spans="3:19" x14ac:dyDescent="0.2">
+      <c r="T88" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="89" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C89" s="1" t="s">
         <v>78</v>
       </c>
       <c r="D89" s="3">
-        <v>433700</v>
+        <v>4800</v>
       </c>
       <c r="E89" s="3">
-        <v>324900</v>
+        <v>451100</v>
       </c>
       <c r="F89" s="3">
-        <v>72200</v>
+        <v>337900</v>
       </c>
       <c r="G89" s="3">
-        <v>165200</v>
+        <v>75100</v>
       </c>
       <c r="H89" s="3">
-        <v>416300</v>
+        <v>171800</v>
       </c>
       <c r="I89" s="3">
-        <v>121200</v>
+        <v>433000</v>
       </c>
       <c r="J89" s="3">
+        <v>126100</v>
+      </c>
+      <c r="K89" s="3">
         <v>138400</v>
       </c>
-      <c r="K89" s="3">
+      <c r="L89" s="3">
         <v>-41000</v>
       </c>
-      <c r="L89" s="3">
+      <c r="M89" s="3">
         <v>684600</v>
       </c>
-      <c r="M89" s="3">
+      <c r="N89" s="3">
         <v>47900</v>
       </c>
-      <c r="N89" s="3">
+      <c r="O89" s="3">
         <v>201600</v>
       </c>
-      <c r="O89" s="3">
+      <c r="P89" s="3">
         <v>-341200</v>
       </c>
-      <c r="P89" s="3">
+      <c r="Q89" s="3">
         <v>505600</v>
       </c>
-      <c r="Q89" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="R89" s="3" t="s">
         <v>3</v>
       </c>
       <c r="S89" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="90" spans="3:19" x14ac:dyDescent="0.2">
+      <c r="T89" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="90" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C90" s="1" t="s">
         <v>79</v>
       </c>
@@ -4615,61 +4835,65 @@
       <c r="Q90" s="3"/>
       <c r="R90" s="3"/>
       <c r="S90" s="3"/>
-    </row>
-    <row r="91" spans="3:19" x14ac:dyDescent="0.2">
+      <c r="T90" s="3"/>
+    </row>
+    <row r="91" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C91" s="1" t="s">
         <v>80</v>
       </c>
       <c r="D91" s="3">
-        <v>-92600</v>
+        <v>-549000</v>
       </c>
       <c r="E91" s="3">
-        <v>-200000</v>
+        <v>-485000</v>
       </c>
       <c r="F91" s="3">
-        <v>-259100</v>
+        <v>-1057000</v>
       </c>
       <c r="G91" s="3">
-        <v>-130700</v>
+        <v>-1341000</v>
       </c>
       <c r="H91" s="3">
-        <v>-130500</v>
+        <v>-1277000</v>
       </c>
       <c r="I91" s="3">
-        <v>-158400</v>
+        <v>-1490000</v>
       </c>
       <c r="J91" s="3">
+        <v>-837000</v>
+      </c>
+      <c r="K91" s="3">
         <v>-109400</v>
       </c>
-      <c r="K91" s="3">
+      <c r="L91" s="3">
         <v>-32600</v>
       </c>
-      <c r="L91" s="3">
+      <c r="M91" s="3">
         <v>-305700</v>
       </c>
-      <c r="M91" s="3">
+      <c r="N91" s="3">
         <v>-85900</v>
       </c>
-      <c r="N91" s="3">
+      <c r="O91" s="3">
         <v>-66000</v>
       </c>
-      <c r="O91" s="3">
+      <c r="P91" s="3">
         <v>-64600</v>
       </c>
-      <c r="P91" s="3">
+      <c r="Q91" s="3">
         <v>-91900</v>
       </c>
-      <c r="Q91" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="R91" s="3" t="s">
         <v>3</v>
       </c>
       <c r="S91" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="92" spans="3:19" x14ac:dyDescent="0.2">
+      <c r="T91" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="92" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C92" s="1" t="s">
         <v>81</v>
       </c>
@@ -4721,8 +4945,11 @@
       <c r="S92" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="93" spans="3:19" x14ac:dyDescent="0.2">
+      <c r="T92" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="93" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C93" s="1" t="s">
         <v>82</v>
       </c>
@@ -4774,61 +5001,67 @@
       <c r="S93" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="94" spans="3:19" x14ac:dyDescent="0.2">
+      <c r="T93" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="94" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C94" s="1" t="s">
         <v>83</v>
       </c>
       <c r="D94" s="3">
-        <v>-67800</v>
+        <v>-107500</v>
       </c>
       <c r="E94" s="3">
-        <v>-131700</v>
+        <v>-70500</v>
       </c>
       <c r="F94" s="3">
-        <v>-238700</v>
+        <v>-137000</v>
       </c>
       <c r="G94" s="3">
-        <v>-295700</v>
+        <v>-248300</v>
       </c>
       <c r="H94" s="3">
-        <v>-366300</v>
+        <v>-307500</v>
       </c>
       <c r="I94" s="3">
-        <v>-121400</v>
+        <v>-381000</v>
       </c>
       <c r="J94" s="3">
+        <v>-126300</v>
+      </c>
+      <c r="K94" s="3">
         <v>-112300</v>
       </c>
-      <c r="K94" s="3">
+      <c r="L94" s="3">
         <v>-33100</v>
       </c>
-      <c r="L94" s="3">
+      <c r="M94" s="3">
         <v>-936800</v>
       </c>
-      <c r="M94" s="3">
+      <c r="N94" s="3">
         <v>-64500</v>
       </c>
-      <c r="N94" s="3">
+      <c r="O94" s="3">
         <v>5100</v>
       </c>
-      <c r="O94" s="3">
+      <c r="P94" s="3">
         <v>-68700</v>
       </c>
-      <c r="P94" s="3">
+      <c r="Q94" s="3">
         <v>-623700</v>
       </c>
-      <c r="Q94" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="R94" s="3" t="s">
         <v>3</v>
       </c>
       <c r="S94" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="95" spans="3:19" x14ac:dyDescent="0.2">
+      <c r="T94" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="95" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C95" s="1" t="s">
         <v>84</v>
       </c>
@@ -4848,13 +5081,14 @@
       <c r="Q95" s="3"/>
       <c r="R95" s="3"/>
       <c r="S95" s="3"/>
-    </row>
-    <row r="96" spans="3:19" x14ac:dyDescent="0.2">
+      <c r="T95" s="3"/>
+    </row>
+    <row r="96" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C96" s="1" t="s">
         <v>85</v>
       </c>
       <c r="D96" s="3">
-        <v>0</v>
+        <v>-10100</v>
       </c>
       <c r="E96" s="3">
         <v>0</v>
@@ -4866,43 +5100,46 @@
         <v>0</v>
       </c>
       <c r="H96" s="3">
-        <v>-12200</v>
+        <v>0</v>
       </c>
       <c r="I96" s="3">
-        <v>0</v>
+        <v>-12700</v>
       </c>
       <c r="J96" s="3">
+        <v>0</v>
+      </c>
+      <c r="K96" s="3">
         <v>-16500</v>
       </c>
-      <c r="K96" s="3">
-        <v>0</v>
-      </c>
       <c r="L96" s="3">
+        <v>0</v>
+      </c>
+      <c r="M96" s="3">
         <v>-95700</v>
       </c>
-      <c r="M96" s="3">
+      <c r="N96" s="3">
         <v>-2700</v>
       </c>
-      <c r="N96" s="3">
+      <c r="O96" s="3">
         <v>-21100</v>
       </c>
-      <c r="O96" s="3">
+      <c r="P96" s="3">
         <v>-3000</v>
       </c>
-      <c r="P96" s="3">
+      <c r="Q96" s="3">
         <v>-44500</v>
       </c>
-      <c r="Q96" s="3">
-        <v>0</v>
-      </c>
       <c r="R96" s="3">
         <v>0</v>
       </c>
       <c r="S96" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="97" spans="3:19" x14ac:dyDescent="0.2">
+      <c r="T96" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="97" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C97" s="1" t="s">
         <v>86</v>
       </c>
@@ -4954,8 +5191,11 @@
       <c r="S97" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="98" spans="3:19" x14ac:dyDescent="0.2">
+      <c r="T97" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="98" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C98" s="1" t="s">
         <v>87</v>
       </c>
@@ -5007,8 +5247,11 @@
       <c r="S98" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="99" spans="3:19" x14ac:dyDescent="0.2">
+      <c r="T98" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="99" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C99" s="1" t="s">
         <v>88</v>
       </c>
@@ -5060,61 +5303,67 @@
       <c r="S99" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="100" spans="3:19" x14ac:dyDescent="0.2">
+      <c r="T99" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="100" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C100" s="1" t="s">
         <v>89</v>
       </c>
       <c r="D100" s="3">
-        <v>-50000</v>
+        <v>-241300</v>
       </c>
       <c r="E100" s="3">
-        <v>20100</v>
+        <v>-52000</v>
       </c>
       <c r="F100" s="3">
-        <v>-81500</v>
+        <v>20900</v>
       </c>
       <c r="G100" s="3">
-        <v>486600</v>
+        <v>-84800</v>
       </c>
       <c r="H100" s="3">
-        <v>-114000</v>
+        <v>506100</v>
       </c>
       <c r="I100" s="3">
-        <v>-315400</v>
+        <v>-118600</v>
       </c>
       <c r="J100" s="3">
+        <v>-328100</v>
+      </c>
+      <c r="K100" s="3">
         <v>312100</v>
       </c>
-      <c r="K100" s="3">
+      <c r="L100" s="3">
         <v>-69600</v>
       </c>
-      <c r="L100" s="3">
+      <c r="M100" s="3">
         <v>-155200</v>
       </c>
-      <c r="M100" s="3">
+      <c r="N100" s="3">
         <v>-118400</v>
       </c>
-      <c r="N100" s="3">
+      <c r="O100" s="3">
         <v>-99900</v>
       </c>
-      <c r="O100" s="3">
+      <c r="P100" s="3">
         <v>159100</v>
       </c>
-      <c r="P100" s="3">
+      <c r="Q100" s="3">
         <v>-662800</v>
       </c>
-      <c r="Q100" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="R100" s="3" t="s">
         <v>3</v>
       </c>
       <c r="S100" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="101" spans="3:19" x14ac:dyDescent="0.2">
+      <c r="T100" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="101" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C101" s="1" t="s">
         <v>90</v>
       </c>
@@ -5143,80 +5392,86 @@
         <v>0</v>
       </c>
       <c r="L101" s="3">
+        <v>0</v>
+      </c>
+      <c r="M101" s="3">
         <v>115100</v>
       </c>
-      <c r="M101" s="3">
+      <c r="N101" s="3">
         <v>-5300</v>
       </c>
-      <c r="N101" s="3">
+      <c r="O101" s="3">
         <v>58900</v>
       </c>
-      <c r="O101" s="3">
+      <c r="P101" s="3">
         <v>27800</v>
       </c>
-      <c r="P101" s="3">
+      <c r="Q101" s="3">
         <v>19800</v>
       </c>
-      <c r="Q101" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="R101" s="3" t="s">
         <v>3</v>
       </c>
       <c r="S101" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="102" spans="3:19" x14ac:dyDescent="0.2">
+      <c r="T101" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="102" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C102" s="1" t="s">
         <v>91</v>
       </c>
       <c r="D102" s="3">
-        <v>316000</v>
+        <v>-344000</v>
       </c>
       <c r="E102" s="3">
-        <v>213400</v>
+        <v>328700</v>
       </c>
       <c r="F102" s="3">
-        <v>-248000</v>
+        <v>221900</v>
       </c>
       <c r="G102" s="3">
-        <v>356100</v>
+        <v>-258000</v>
       </c>
       <c r="H102" s="3">
-        <v>-64100</v>
+        <v>370400</v>
       </c>
       <c r="I102" s="3">
-        <v>-315600</v>
+        <v>-66700</v>
       </c>
       <c r="J102" s="3">
+        <v>-328300</v>
+      </c>
+      <c r="K102" s="3">
         <v>338300</v>
       </c>
-      <c r="K102" s="3">
+      <c r="L102" s="3">
         <v>-143700</v>
       </c>
-      <c r="L102" s="3">
+      <c r="M102" s="3">
         <v>-292400</v>
       </c>
-      <c r="M102" s="3">
+      <c r="N102" s="3">
         <v>-140200</v>
       </c>
-      <c r="N102" s="3">
+      <c r="O102" s="3">
         <v>165700</v>
       </c>
-      <c r="O102" s="3">
+      <c r="P102" s="3">
         <v>-223000</v>
       </c>
-      <c r="P102" s="3">
+      <c r="Q102" s="3">
         <v>-761200</v>
       </c>
-      <c r="Q102" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="R102" s="3" t="s">
         <v>3</v>
       </c>
       <c r="S102" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="T102" s="3" t="s">
         <v>3</v>
       </c>
     </row>

--- a/AAII_Financials/Quarterly/ASAI_QTR_FIN.xlsx
+++ b/AAII_Financials/Quarterly/ASAI_QTR_FIN.xlsx
@@ -22,7 +22,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="225" uniqueCount="92">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="227" uniqueCount="92">
   <si>
     <t>ASAI</t>
   </si>
@@ -656,7 +656,7 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <sheetPr codeName="Sheet2"/>
-  <dimension ref="A5:T102"/>
+  <dimension ref="A5:U102"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -665,256 +665,269 @@
     <col min="1" max="1" width="6.85546875" style="1" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="26.85546875" style="1" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="69.140625" style="1" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="5" max="6" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="8" max="8" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="9" max="10" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="11" max="11" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="12" max="12" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="13" max="14" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="15" max="15" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="16" max="16" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="17" max="17" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="18" max="20" width="4.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="21" max="16384" width="9.140625" style="1"/>
+    <col min="4" max="4" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="6" max="7" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="10" max="11" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="12" max="12" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="13" max="13" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="14" max="15" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="16" max="16" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="17" max="17" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="18" max="18" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="19" max="21" width="4.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="22" max="16384" width="9.140625" style="1"/>
   </cols>
   <sheetData>
-    <row r="5" spans="1:20" x14ac:dyDescent="0.2">
+    <row r="5" spans="1:21" x14ac:dyDescent="0.2">
       <c r="A5" s="1" t="s">
         <v>0</v>
       </c>
     </row>
-    <row r="6" spans="1:20" x14ac:dyDescent="0.2">
+    <row r="6" spans="1:21" x14ac:dyDescent="0.2">
       <c r="B6" s="1" t="s">
         <v>1</v>
       </c>
     </row>
-    <row r="7" spans="1:20" x14ac:dyDescent="0.2">
+    <row r="7" spans="1:21" x14ac:dyDescent="0.2">
       <c r="C7" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D7" s="2">
+        <v>45107</v>
+      </c>
+      <c r="E7" s="2">
         <v>45016</v>
       </c>
-      <c r="E7" s="2">
+      <c r="F7" s="2">
         <v>44926</v>
       </c>
-      <c r="F7" s="2">
+      <c r="G7" s="2">
         <v>44834</v>
       </c>
-      <c r="G7" s="2">
+      <c r="H7" s="2">
         <v>44742</v>
       </c>
-      <c r="H7" s="2">
+      <c r="I7" s="2">
         <v>44651</v>
       </c>
-      <c r="I7" s="2">
+      <c r="J7" s="2">
         <v>44561</v>
       </c>
-      <c r="J7" s="2">
+      <c r="K7" s="2">
         <v>44469</v>
       </c>
-      <c r="K7" s="2">
+      <c r="L7" s="2">
         <v>44377</v>
       </c>
-      <c r="L7" s="2">
+      <c r="M7" s="2">
         <v>44286</v>
       </c>
-      <c r="M7" s="2">
+      <c r="N7" s="2">
         <v>44196</v>
       </c>
-      <c r="N7" s="2">
+      <c r="O7" s="2">
         <v>44104</v>
       </c>
-      <c r="O7" s="2">
+      <c r="P7" s="2">
         <v>44012</v>
       </c>
-      <c r="P7" s="2">
+      <c r="Q7" s="2">
         <v>43921</v>
       </c>
-      <c r="Q7" s="2">
+      <c r="R7" s="2">
         <v>43830</v>
       </c>
-      <c r="R7" s="2" t="s">
-        <v>3</v>
-      </c>
       <c r="S7" s="2" t="s">
         <v>3</v>
       </c>
       <c r="T7" s="2" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="8" spans="1:20" x14ac:dyDescent="0.2">
+      <c r="U7" s="2" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="8" spans="1:21" x14ac:dyDescent="0.2">
       <c r="C8" s="1" t="s">
         <v>4</v>
       </c>
       <c r="D8" s="3">
-        <v>3040300</v>
+        <v>3226200</v>
       </c>
       <c r="E8" s="3">
-        <v>3213100</v>
+        <v>3047000</v>
       </c>
       <c r="F8" s="3">
-        <v>2785800</v>
+        <v>3220200</v>
       </c>
       <c r="G8" s="3">
-        <v>2676800</v>
+        <v>2791900</v>
       </c>
       <c r="H8" s="3">
-        <v>2304600</v>
+        <v>2682700</v>
       </c>
       <c r="I8" s="3">
-        <v>2327400</v>
+        <v>2309700</v>
       </c>
       <c r="J8" s="3">
+        <v>2332500</v>
+      </c>
+      <c r="K8" s="3">
         <v>2184200</v>
       </c>
-      <c r="K8" s="3">
+      <c r="L8" s="3">
         <v>1945800</v>
       </c>
-      <c r="L8" s="3">
+      <c r="M8" s="3">
         <v>1767600</v>
       </c>
-      <c r="M8" s="3">
+      <c r="N8" s="3">
         <v>7053600</v>
       </c>
-      <c r="N8" s="3">
+      <c r="O8" s="3">
         <v>1801700</v>
       </c>
-      <c r="O8" s="3">
+      <c r="P8" s="3">
         <v>1624200</v>
       </c>
-      <c r="P8" s="3">
+      <c r="Q8" s="3">
         <v>1399200</v>
       </c>
-      <c r="Q8" s="3">
+      <c r="R8" s="3">
         <v>1427100</v>
       </c>
-      <c r="R8" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="S8" s="3" t="s">
         <v>3</v>
       </c>
       <c r="T8" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="9" spans="1:20" x14ac:dyDescent="0.2">
+      <c r="U8" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="9" spans="1:21" x14ac:dyDescent="0.2">
       <c r="C9" s="1" t="s">
         <v>5</v>
       </c>
       <c r="D9" s="3">
-        <v>2551300</v>
+        <v>2708700</v>
       </c>
       <c r="E9" s="3">
-        <v>2661700</v>
+        <v>2556900</v>
       </c>
       <c r="F9" s="3">
-        <v>2331800</v>
+        <v>2667500</v>
       </c>
       <c r="G9" s="3">
-        <v>2244800</v>
+        <v>2336900</v>
       </c>
       <c r="H9" s="3">
-        <v>1936900</v>
+        <v>2249700</v>
       </c>
       <c r="I9" s="3">
-        <v>1926800</v>
+        <v>1941100</v>
       </c>
       <c r="J9" s="3">
+        <v>1931000</v>
+      </c>
+      <c r="K9" s="3">
         <v>1796100</v>
       </c>
-      <c r="K9" s="3">
+      <c r="L9" s="3">
         <v>1612400</v>
       </c>
-      <c r="L9" s="3">
+      <c r="M9" s="3">
         <v>1485700</v>
       </c>
-      <c r="M9" s="3">
+      <c r="N9" s="3">
         <v>5896200</v>
       </c>
-      <c r="N9" s="3">
+      <c r="O9" s="3">
         <v>1502900</v>
       </c>
-      <c r="O9" s="3">
+      <c r="P9" s="3">
         <v>1360500</v>
       </c>
-      <c r="P9" s="3">
+      <c r="Q9" s="3">
         <v>1182000</v>
       </c>
-      <c r="Q9" s="3">
+      <c r="R9" s="3">
         <v>1189700</v>
       </c>
-      <c r="R9" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="S9" s="3" t="s">
         <v>3</v>
       </c>
       <c r="T9" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="10" spans="1:20" x14ac:dyDescent="0.2">
+      <c r="U9" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="10" spans="1:21" x14ac:dyDescent="0.2">
       <c r="C10" s="1" t="s">
         <v>6</v>
       </c>
       <c r="D10" s="3">
-        <v>489000</v>
+        <v>517500</v>
       </c>
       <c r="E10" s="3">
-        <v>551400</v>
+        <v>490100</v>
       </c>
       <c r="F10" s="3">
-        <v>454000</v>
+        <v>552600</v>
       </c>
       <c r="G10" s="3">
-        <v>432000</v>
+        <v>454900</v>
       </c>
       <c r="H10" s="3">
-        <v>367800</v>
+        <v>432900</v>
       </c>
       <c r="I10" s="3">
-        <v>400600</v>
+        <v>368600</v>
       </c>
       <c r="J10" s="3">
+        <v>401500</v>
+      </c>
+      <c r="K10" s="3">
         <v>388100</v>
       </c>
-      <c r="K10" s="3">
+      <c r="L10" s="3">
         <v>333400</v>
       </c>
-      <c r="L10" s="3">
+      <c r="M10" s="3">
         <v>281900</v>
       </c>
-      <c r="M10" s="3">
+      <c r="N10" s="3">
         <v>1157400</v>
       </c>
-      <c r="N10" s="3">
+      <c r="O10" s="3">
         <v>298800</v>
       </c>
-      <c r="O10" s="3">
+      <c r="P10" s="3">
         <v>263700</v>
       </c>
-      <c r="P10" s="3">
+      <c r="Q10" s="3">
         <v>217300</v>
       </c>
-      <c r="Q10" s="3">
+      <c r="R10" s="3">
         <v>237400</v>
       </c>
-      <c r="R10" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="S10" s="3" t="s">
         <v>3</v>
       </c>
       <c r="T10" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="11" spans="1:20" x14ac:dyDescent="0.2">
+      <c r="U10" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="11" spans="1:21" x14ac:dyDescent="0.2">
       <c r="C11" s="1" t="s">
         <v>7</v>
       </c>
@@ -935,8 +948,9 @@
       <c r="R11" s="3"/>
       <c r="S11" s="3"/>
       <c r="T11" s="3"/>
-    </row>
-    <row r="12" spans="1:20" x14ac:dyDescent="0.2">
+      <c r="U11" s="3"/>
+    </row>
+    <row r="12" spans="1:21" x14ac:dyDescent="0.2">
       <c r="C12" s="1" t="s">
         <v>8</v>
       </c>
@@ -991,8 +1005,11 @@
       <c r="T12" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="13" spans="1:20" x14ac:dyDescent="0.2">
+      <c r="U12" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="13" spans="1:21" x14ac:dyDescent="0.2">
       <c r="C13" s="1" t="s">
         <v>9</v>
       </c>
@@ -1047,120 +1064,129 @@
       <c r="T13" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="14" spans="1:20" x14ac:dyDescent="0.2">
+      <c r="U13" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="14" spans="1:21" x14ac:dyDescent="0.2">
       <c r="C14" s="1" t="s">
         <v>10</v>
       </c>
       <c r="D14" s="3">
+        <v>1000</v>
+      </c>
+      <c r="E14" s="3">
         <v>400</v>
       </c>
-      <c r="E14" s="3">
+      <c r="F14" s="3">
         <v>5000</v>
       </c>
-      <c r="F14" s="3">
+      <c r="G14" s="3">
         <v>800</v>
       </c>
-      <c r="G14" s="3">
+      <c r="H14" s="3">
         <v>3600</v>
       </c>
-      <c r="H14" s="3">
+      <c r="I14" s="3">
         <v>1000</v>
       </c>
-      <c r="I14" s="3">
+      <c r="J14" s="3">
         <v>4400</v>
       </c>
-      <c r="J14" s="3">
+      <c r="K14" s="3">
         <v>1200</v>
       </c>
-      <c r="K14" s="3">
+      <c r="L14" s="3">
         <v>6800</v>
       </c>
-      <c r="L14" s="3">
+      <c r="M14" s="3">
         <v>400</v>
       </c>
-      <c r="M14" s="3">
+      <c r="N14" s="3">
         <v>43600</v>
       </c>
-      <c r="N14" s="3">
+      <c r="O14" s="3">
         <v>3100</v>
       </c>
-      <c r="O14" s="3">
+      <c r="P14" s="3">
         <v>15000</v>
       </c>
-      <c r="P14" s="3">
+      <c r="Q14" s="3">
         <v>7700</v>
       </c>
-      <c r="Q14" s="3">
+      <c r="R14" s="3">
         <v>22100</v>
       </c>
-      <c r="R14" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="S14" s="3" t="s">
         <v>3</v>
       </c>
       <c r="T14" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="15" spans="1:20" x14ac:dyDescent="0.2">
+      <c r="U14" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="15" spans="1:21" x14ac:dyDescent="0.2">
       <c r="C15" s="1" t="s">
         <v>11</v>
       </c>
       <c r="D15" s="3">
-        <v>63000</v>
+        <v>68800</v>
       </c>
       <c r="E15" s="3">
-        <v>54400</v>
+        <v>63200</v>
       </c>
       <c r="F15" s="3">
-        <v>46700</v>
+        <v>54500</v>
       </c>
       <c r="G15" s="3">
-        <v>42900</v>
+        <v>46800</v>
       </c>
       <c r="H15" s="3">
-        <v>41100</v>
+        <v>43000</v>
       </c>
       <c r="I15" s="3">
-        <v>35600</v>
+        <v>41200</v>
       </c>
       <c r="J15" s="3">
+        <v>35700</v>
+      </c>
+      <c r="K15" s="3">
         <v>32600</v>
       </c>
-      <c r="K15" s="3">
+      <c r="L15" s="3">
         <v>29800</v>
       </c>
-      <c r="L15" s="3">
+      <c r="M15" s="3">
         <v>27100</v>
       </c>
-      <c r="M15" s="3">
+      <c r="N15" s="3">
         <v>98400</v>
       </c>
-      <c r="N15" s="3">
+      <c r="O15" s="3">
         <v>25100</v>
       </c>
-      <c r="O15" s="3">
+      <c r="P15" s="3">
         <v>23800</v>
       </c>
-      <c r="P15" s="3">
+      <c r="Q15" s="3">
         <v>20900</v>
       </c>
-      <c r="Q15" s="3">
+      <c r="R15" s="3">
         <v>19100</v>
       </c>
-      <c r="R15" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="S15" s="3" t="s">
         <v>3</v>
       </c>
       <c r="T15" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="16" spans="1:20" x14ac:dyDescent="0.2">
+      <c r="U15" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="16" spans="1:21" x14ac:dyDescent="0.2">
       <c r="D16" s="3"/>
       <c r="E16" s="3"/>
       <c r="F16" s="3"/>
@@ -1178,120 +1204,127 @@
       <c r="R16" s="3"/>
       <c r="S16" s="3"/>
       <c r="T16" s="3"/>
-    </row>
-    <row r="17" spans="3:20" x14ac:dyDescent="0.2">
+      <c r="U16" s="3"/>
+    </row>
+    <row r="17" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C17" s="1" t="s">
         <v>12</v>
       </c>
       <c r="D17" s="3">
-        <v>2915700</v>
+        <v>3077500</v>
       </c>
       <c r="E17" s="3">
-        <v>3038300</v>
+        <v>2922000</v>
       </c>
       <c r="F17" s="3">
-        <v>2635100</v>
+        <v>3045000</v>
       </c>
       <c r="G17" s="3">
-        <v>2534000</v>
+        <v>2640900</v>
       </c>
       <c r="H17" s="3">
-        <v>2198900</v>
+        <v>2539600</v>
       </c>
       <c r="I17" s="3">
-        <v>2186400</v>
+        <v>2203700</v>
       </c>
       <c r="J17" s="3">
+        <v>2191200</v>
+      </c>
+      <c r="K17" s="3">
         <v>2023100</v>
       </c>
-      <c r="K17" s="3">
+      <c r="L17" s="3">
         <v>1830400</v>
       </c>
-      <c r="L17" s="3">
+      <c r="M17" s="3">
         <v>1677300</v>
       </c>
-      <c r="M17" s="3">
+      <c r="N17" s="3">
         <v>6648900</v>
       </c>
-      <c r="N17" s="3">
+      <c r="O17" s="3">
         <v>1691300</v>
       </c>
-      <c r="O17" s="3">
+      <c r="P17" s="3">
         <v>1548500</v>
       </c>
-      <c r="P17" s="3">
+      <c r="Q17" s="3">
         <v>1341000</v>
       </c>
-      <c r="Q17" s="3">
+      <c r="R17" s="3">
         <v>1330900</v>
       </c>
-      <c r="R17" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="S17" s="3" t="s">
         <v>3</v>
       </c>
       <c r="T17" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="18" spans="3:20" x14ac:dyDescent="0.2">
+      <c r="U17" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="18" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C18" s="1" t="s">
         <v>13</v>
       </c>
       <c r="D18" s="3">
-        <v>124700</v>
+        <v>148800</v>
       </c>
       <c r="E18" s="3">
-        <v>174800</v>
+        <v>124900</v>
       </c>
       <c r="F18" s="3">
-        <v>150600</v>
+        <v>175200</v>
       </c>
       <c r="G18" s="3">
-        <v>142800</v>
+        <v>151000</v>
       </c>
       <c r="H18" s="3">
-        <v>105700</v>
+        <v>143100</v>
       </c>
       <c r="I18" s="3">
-        <v>141000</v>
+        <v>106000</v>
       </c>
       <c r="J18" s="3">
+        <v>141300</v>
+      </c>
+      <c r="K18" s="3">
         <v>161100</v>
       </c>
-      <c r="K18" s="3">
+      <c r="L18" s="3">
         <v>115400</v>
       </c>
-      <c r="L18" s="3">
+      <c r="M18" s="3">
         <v>90400</v>
       </c>
-      <c r="M18" s="3">
+      <c r="N18" s="3">
         <v>404700</v>
       </c>
-      <c r="N18" s="3">
+      <c r="O18" s="3">
         <v>110400</v>
       </c>
-      <c r="O18" s="3">
+      <c r="P18" s="3">
         <v>75700</v>
       </c>
-      <c r="P18" s="3">
+      <c r="Q18" s="3">
         <v>58200</v>
       </c>
-      <c r="Q18" s="3">
+      <c r="R18" s="3">
         <v>96200</v>
       </c>
-      <c r="R18" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="S18" s="3" t="s">
         <v>3</v>
       </c>
       <c r="T18" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="19" spans="3:20" x14ac:dyDescent="0.2">
+      <c r="U18" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="19" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C19" s="1" t="s">
         <v>14</v>
       </c>
@@ -1312,279 +1345,292 @@
       <c r="R19" s="3"/>
       <c r="S19" s="3"/>
       <c r="T19" s="3"/>
-    </row>
-    <row r="20" spans="3:20" x14ac:dyDescent="0.2">
+      <c r="U19" s="3"/>
+    </row>
+    <row r="20" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C20" s="1" t="s">
         <v>15</v>
       </c>
       <c r="D20" s="3">
+        <v>-5400</v>
+      </c>
+      <c r="E20" s="3">
         <v>-10300</v>
       </c>
-      <c r="E20" s="3">
+      <c r="F20" s="3">
         <v>8900</v>
       </c>
-      <c r="F20" s="3">
+      <c r="G20" s="3">
         <v>-13900</v>
       </c>
-      <c r="G20" s="3">
+      <c r="H20" s="3">
         <v>-22200</v>
       </c>
-      <c r="H20" s="3">
+      <c r="I20" s="3">
         <v>5000</v>
       </c>
-      <c r="I20" s="3">
+      <c r="J20" s="3">
         <v>3800</v>
       </c>
-      <c r="J20" s="3">
+      <c r="K20" s="3">
         <v>8500</v>
       </c>
-      <c r="K20" s="3">
+      <c r="L20" s="3">
         <v>7000</v>
       </c>
-      <c r="L20" s="3">
+      <c r="M20" s="3">
         <v>1500</v>
       </c>
-      <c r="M20" s="3">
+      <c r="N20" s="3">
         <v>48900</v>
       </c>
-      <c r="N20" s="3">
+      <c r="O20" s="3">
         <v>2700</v>
       </c>
-      <c r="O20" s="3">
+      <c r="P20" s="3">
         <v>-15400</v>
       </c>
-      <c r="P20" s="3">
+      <c r="Q20" s="3">
         <v>13200</v>
       </c>
-      <c r="Q20" s="3">
+      <c r="R20" s="3">
         <v>3000</v>
       </c>
-      <c r="R20" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="S20" s="3" t="s">
         <v>3</v>
       </c>
       <c r="T20" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="21" spans="3:20" x14ac:dyDescent="0.2">
+      <c r="U20" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="21" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C21" s="1" t="s">
         <v>16</v>
       </c>
       <c r="D21" s="3">
-        <v>182100</v>
+        <v>215600</v>
       </c>
       <c r="E21" s="3">
-        <v>242100</v>
+        <v>182500</v>
       </c>
       <c r="F21" s="3">
-        <v>186300</v>
+        <v>242600</v>
       </c>
       <c r="G21" s="3">
-        <v>168000</v>
+        <v>186700</v>
       </c>
       <c r="H21" s="3">
-        <v>154900</v>
+        <v>168300</v>
       </c>
       <c r="I21" s="3">
-        <v>182700</v>
+        <v>155200</v>
       </c>
       <c r="J21" s="3">
+        <v>183100</v>
+      </c>
+      <c r="K21" s="3">
         <v>204800</v>
       </c>
-      <c r="K21" s="3">
+      <c r="L21" s="3">
         <v>154700</v>
       </c>
-      <c r="L21" s="3">
+      <c r="M21" s="3">
         <v>121200</v>
       </c>
-      <c r="M21" s="3">
+      <c r="N21" s="3">
         <v>722100</v>
       </c>
-      <c r="N21" s="3">
+      <c r="O21" s="3">
         <v>182500</v>
       </c>
-      <c r="O21" s="3">
+      <c r="P21" s="3">
         <v>125700</v>
       </c>
-      <c r="P21" s="3">
+      <c r="Q21" s="3">
         <v>127500</v>
       </c>
-      <c r="Q21" s="3">
+      <c r="R21" s="3">
         <v>131400</v>
       </c>
-      <c r="R21" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="S21" s="3" t="s">
         <v>3</v>
       </c>
       <c r="T21" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="22" spans="3:20" x14ac:dyDescent="0.2">
+      <c r="U21" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="22" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C22" s="1" t="s">
         <v>17</v>
       </c>
       <c r="D22" s="3">
-        <v>116600</v>
+        <v>121300</v>
       </c>
       <c r="E22" s="3">
-        <v>98500</v>
+        <v>116900</v>
       </c>
       <c r="F22" s="3">
-        <v>74700</v>
+        <v>98700</v>
       </c>
       <c r="G22" s="3">
-        <v>43900</v>
+        <v>74900</v>
       </c>
       <c r="H22" s="3">
-        <v>65900</v>
+        <v>44000</v>
       </c>
       <c r="I22" s="3">
-        <v>61600</v>
+        <v>66000</v>
       </c>
       <c r="J22" s="3">
+        <v>61800</v>
+      </c>
+      <c r="K22" s="3">
         <v>41500</v>
       </c>
-      <c r="K22" s="3">
+      <c r="L22" s="3">
         <v>35000</v>
       </c>
-      <c r="L22" s="3">
+      <c r="M22" s="3">
         <v>26600</v>
       </c>
-      <c r="M22" s="3">
+      <c r="N22" s="3">
         <v>135600</v>
       </c>
-      <c r="N22" s="3">
+      <c r="O22" s="3">
         <v>28000</v>
       </c>
-      <c r="O22" s="3">
+      <c r="P22" s="3">
         <v>10400</v>
       </c>
-      <c r="P22" s="3">
+      <c r="Q22" s="3">
         <v>40900</v>
       </c>
-      <c r="Q22" s="3">
+      <c r="R22" s="3">
         <v>35500</v>
       </c>
-      <c r="R22" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="S22" s="3" t="s">
         <v>3</v>
       </c>
       <c r="T22" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="23" spans="3:20" x14ac:dyDescent="0.2">
+      <c r="U22" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="23" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C23" s="1" t="s">
         <v>18</v>
       </c>
       <c r="D23" s="3">
+        <v>22000</v>
+      </c>
+      <c r="E23" s="3">
         <v>-2200</v>
       </c>
-      <c r="E23" s="3">
-        <v>85200</v>
-      </c>
       <c r="F23" s="3">
-        <v>62000</v>
+        <v>85400</v>
       </c>
       <c r="G23" s="3">
-        <v>76700</v>
+        <v>62200</v>
       </c>
       <c r="H23" s="3">
-        <v>44900</v>
+        <v>76900</v>
       </c>
       <c r="I23" s="3">
-        <v>83200</v>
+        <v>45000</v>
       </c>
       <c r="J23" s="3">
+        <v>83400</v>
+      </c>
+      <c r="K23" s="3">
         <v>128100</v>
       </c>
-      <c r="K23" s="3">
+      <c r="L23" s="3">
         <v>87300</v>
       </c>
-      <c r="L23" s="3">
+      <c r="M23" s="3">
         <v>65300</v>
       </c>
-      <c r="M23" s="3">
+      <c r="N23" s="3">
         <v>318000</v>
       </c>
-      <c r="N23" s="3">
+      <c r="O23" s="3">
         <v>85100</v>
       </c>
-      <c r="O23" s="3">
+      <c r="P23" s="3">
         <v>49900</v>
       </c>
-      <c r="P23" s="3">
+      <c r="Q23" s="3">
         <v>30500</v>
       </c>
-      <c r="Q23" s="3">
+      <c r="R23" s="3">
         <v>63700</v>
       </c>
-      <c r="R23" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="S23" s="3" t="s">
         <v>3</v>
       </c>
       <c r="T23" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="24" spans="3:20" x14ac:dyDescent="0.2">
+      <c r="U23" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="24" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C24" s="1" t="s">
         <v>19</v>
       </c>
       <c r="D24" s="3">
-        <v>-16700</v>
+        <v>-9500</v>
       </c>
       <c r="E24" s="3">
+        <v>-16800</v>
+      </c>
+      <c r="F24" s="3">
         <v>3400</v>
       </c>
-      <c r="F24" s="3">
+      <c r="G24" s="3">
         <v>5400</v>
       </c>
-      <c r="G24" s="3">
+      <c r="H24" s="3">
         <v>12500</v>
       </c>
-      <c r="H24" s="3">
+      <c r="I24" s="3">
         <v>1800</v>
       </c>
-      <c r="I24" s="3">
+      <c r="J24" s="3">
         <v>-23000</v>
       </c>
-      <c r="J24" s="3">
+      <c r="K24" s="3">
         <v>19700</v>
       </c>
-      <c r="K24" s="3">
+      <c r="L24" s="3">
         <v>28300</v>
       </c>
-      <c r="L24" s="3">
+      <c r="M24" s="3">
         <v>20400</v>
       </c>
-      <c r="M24" s="3">
+      <c r="N24" s="3">
         <v>85300</v>
       </c>
-      <c r="N24" s="3">
+      <c r="O24" s="3">
         <v>7000</v>
       </c>
-      <c r="O24" s="3">
+      <c r="P24" s="3">
         <v>16600</v>
-      </c>
-      <c r="P24" s="3">
-        <v>9800</v>
       </c>
       <c r="Q24" s="3">
         <v>9800</v>
       </c>
-      <c r="R24" s="3" t="s">
-        <v>3</v>
+      <c r="R24" s="3">
+        <v>9800</v>
       </c>
       <c r="S24" s="3" t="s">
         <v>3</v>
@@ -1592,8 +1638,11 @@
       <c r="T24" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="25" spans="3:20" x14ac:dyDescent="0.2">
+      <c r="U24" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="25" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C25" s="1" t="s">
         <v>20</v>
       </c>
@@ -1648,120 +1697,129 @@
       <c r="T25" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="26" spans="3:20" x14ac:dyDescent="0.2">
+      <c r="U25" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="26" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C26" s="1" t="s">
         <v>21</v>
       </c>
       <c r="D26" s="3">
+        <v>31500</v>
+      </c>
+      <c r="E26" s="3">
         <v>14500</v>
       </c>
-      <c r="E26" s="3">
-        <v>81800</v>
-      </c>
       <c r="F26" s="3">
-        <v>56600</v>
+        <v>81900</v>
       </c>
       <c r="G26" s="3">
-        <v>64200</v>
+        <v>56700</v>
       </c>
       <c r="H26" s="3">
-        <v>43100</v>
+        <v>64400</v>
       </c>
       <c r="I26" s="3">
-        <v>106100</v>
+        <v>43200</v>
       </c>
       <c r="J26" s="3">
+        <v>106400</v>
+      </c>
+      <c r="K26" s="3">
         <v>108400</v>
       </c>
-      <c r="K26" s="3">
+      <c r="L26" s="3">
         <v>59100</v>
       </c>
-      <c r="L26" s="3">
+      <c r="M26" s="3">
         <v>44900</v>
       </c>
-      <c r="M26" s="3">
+      <c r="N26" s="3">
         <v>232700</v>
       </c>
-      <c r="N26" s="3">
+      <c r="O26" s="3">
         <v>78100</v>
       </c>
-      <c r="O26" s="3">
+      <c r="P26" s="3">
         <v>33300</v>
       </c>
-      <c r="P26" s="3">
+      <c r="Q26" s="3">
         <v>20700</v>
       </c>
-      <c r="Q26" s="3">
+      <c r="R26" s="3">
         <v>53900</v>
       </c>
-      <c r="R26" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="S26" s="3" t="s">
         <v>3</v>
       </c>
       <c r="T26" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="27" spans="3:20" x14ac:dyDescent="0.2">
+      <c r="U26" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="27" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C27" s="1" t="s">
         <v>22</v>
       </c>
       <c r="D27" s="3">
+        <v>31500</v>
+      </c>
+      <c r="E27" s="3">
         <v>14500</v>
       </c>
-      <c r="E27" s="3">
-        <v>81800</v>
-      </c>
       <c r="F27" s="3">
-        <v>56600</v>
+        <v>81900</v>
       </c>
       <c r="G27" s="3">
-        <v>64200</v>
+        <v>56700</v>
       </c>
       <c r="H27" s="3">
-        <v>43100</v>
+        <v>64400</v>
       </c>
       <c r="I27" s="3">
-        <v>106100</v>
+        <v>43200</v>
       </c>
       <c r="J27" s="3">
+        <v>106400</v>
+      </c>
+      <c r="K27" s="3">
         <v>108400</v>
       </c>
-      <c r="K27" s="3">
+      <c r="L27" s="3">
         <v>59100</v>
       </c>
-      <c r="L27" s="3">
+      <c r="M27" s="3">
         <v>44900</v>
       </c>
-      <c r="M27" s="3">
+      <c r="N27" s="3">
         <v>201800</v>
       </c>
-      <c r="N27" s="3">
+      <c r="O27" s="3">
         <v>69500</v>
       </c>
-      <c r="O27" s="3">
+      <c r="P27" s="3">
         <v>23100</v>
       </c>
-      <c r="P27" s="3">
+      <c r="Q27" s="3">
         <v>16800</v>
       </c>
-      <c r="Q27" s="3">
+      <c r="R27" s="3">
         <v>51600</v>
       </c>
-      <c r="R27" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="S27" s="3" t="s">
         <v>3</v>
       </c>
       <c r="T27" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="28" spans="3:20" x14ac:dyDescent="0.2">
+      <c r="U27" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="28" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C28" s="1" t="s">
         <v>23</v>
       </c>
@@ -1816,8 +1874,11 @@
       <c r="T28" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="29" spans="3:20" x14ac:dyDescent="0.2">
+      <c r="U28" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="29" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C29" s="1" t="s">
         <v>24</v>
       </c>
@@ -1842,38 +1903,41 @@
       <c r="J29" s="3" t="s">
         <v>3</v>
       </c>
-      <c r="K29" s="3">
-        <v>0</v>
+      <c r="K29" s="3" t="s">
+        <v>3</v>
       </c>
       <c r="L29" s="3">
         <v>0</v>
       </c>
       <c r="M29" s="3">
+        <v>0</v>
+      </c>
+      <c r="N29" s="3">
         <v>71800</v>
       </c>
-      <c r="N29" s="3">
+      <c r="O29" s="3">
         <v>15600</v>
       </c>
-      <c r="O29" s="3">
+      <c r="P29" s="3">
         <v>11400</v>
       </c>
-      <c r="P29" s="3">
+      <c r="Q29" s="3">
         <v>1100</v>
       </c>
-      <c r="Q29" s="3">
+      <c r="R29" s="3">
         <v>-2900</v>
       </c>
-      <c r="R29" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="S29" s="3" t="s">
         <v>3</v>
       </c>
       <c r="T29" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="30" spans="3:20" x14ac:dyDescent="0.2">
+      <c r="U29" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="30" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C30" s="1" t="s">
         <v>25</v>
       </c>
@@ -1928,8 +1992,11 @@
       <c r="T30" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="31" spans="3:20" x14ac:dyDescent="0.2">
+      <c r="U30" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="31" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C31" s="1" t="s">
         <v>26</v>
       </c>
@@ -1984,120 +2051,129 @@
       <c r="T31" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="32" spans="3:20" x14ac:dyDescent="0.2">
+      <c r="U31" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="32" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C32" s="1" t="s">
         <v>27</v>
       </c>
       <c r="D32" s="3">
+        <v>5400</v>
+      </c>
+      <c r="E32" s="3">
         <v>10300</v>
       </c>
-      <c r="E32" s="3">
+      <c r="F32" s="3">
         <v>-8900</v>
       </c>
-      <c r="F32" s="3">
+      <c r="G32" s="3">
         <v>13900</v>
       </c>
-      <c r="G32" s="3">
+      <c r="H32" s="3">
         <v>22200</v>
       </c>
-      <c r="H32" s="3">
+      <c r="I32" s="3">
         <v>-5000</v>
       </c>
-      <c r="I32" s="3">
+      <c r="J32" s="3">
         <v>-3800</v>
       </c>
-      <c r="J32" s="3">
+      <c r="K32" s="3">
         <v>-8500</v>
       </c>
-      <c r="K32" s="3">
+      <c r="L32" s="3">
         <v>-7000</v>
       </c>
-      <c r="L32" s="3">
+      <c r="M32" s="3">
         <v>-1500</v>
       </c>
-      <c r="M32" s="3">
+      <c r="N32" s="3">
         <v>-48900</v>
       </c>
-      <c r="N32" s="3">
+      <c r="O32" s="3">
         <v>-2700</v>
       </c>
-      <c r="O32" s="3">
+      <c r="P32" s="3">
         <v>15400</v>
       </c>
-      <c r="P32" s="3">
+      <c r="Q32" s="3">
         <v>-13200</v>
       </c>
-      <c r="Q32" s="3">
+      <c r="R32" s="3">
         <v>-3000</v>
       </c>
-      <c r="R32" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="S32" s="3" t="s">
         <v>3</v>
       </c>
       <c r="T32" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="33" spans="2:20" x14ac:dyDescent="0.2">
+      <c r="U32" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="33" spans="2:21" x14ac:dyDescent="0.2">
       <c r="C33" s="1" t="s">
         <v>28</v>
       </c>
       <c r="D33" s="3">
+        <v>31500</v>
+      </c>
+      <c r="E33" s="3">
         <v>14500</v>
       </c>
-      <c r="E33" s="3">
-        <v>81800</v>
-      </c>
       <c r="F33" s="3">
-        <v>56600</v>
+        <v>81900</v>
       </c>
       <c r="G33" s="3">
-        <v>64200</v>
+        <v>56700</v>
       </c>
       <c r="H33" s="3">
-        <v>43100</v>
+        <v>64400</v>
       </c>
       <c r="I33" s="3">
-        <v>106100</v>
+        <v>43200</v>
       </c>
       <c r="J33" s="3">
+        <v>106400</v>
+      </c>
+      <c r="K33" s="3">
         <v>108400</v>
       </c>
-      <c r="K33" s="3">
+      <c r="L33" s="3">
         <v>59100</v>
       </c>
-      <c r="L33" s="3">
+      <c r="M33" s="3">
         <v>44900</v>
       </c>
-      <c r="M33" s="3">
+      <c r="N33" s="3">
         <v>273600</v>
       </c>
-      <c r="N33" s="3">
+      <c r="O33" s="3">
         <v>85100</v>
       </c>
-      <c r="O33" s="3">
+      <c r="P33" s="3">
         <v>34500</v>
       </c>
-      <c r="P33" s="3">
+      <c r="Q33" s="3">
         <v>17900</v>
       </c>
-      <c r="Q33" s="3">
+      <c r="R33" s="3">
         <v>48700</v>
       </c>
-      <c r="R33" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="S33" s="3" t="s">
         <v>3</v>
       </c>
       <c r="T33" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="34" spans="2:20" x14ac:dyDescent="0.2">
+      <c r="U33" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="34" spans="2:21" x14ac:dyDescent="0.2">
       <c r="C34" s="1" t="s">
         <v>29</v>
       </c>
@@ -2152,125 +2228,134 @@
       <c r="T34" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="35" spans="2:20" x14ac:dyDescent="0.2">
+      <c r="U34" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="35" spans="2:21" x14ac:dyDescent="0.2">
       <c r="C35" s="1" t="s">
         <v>30</v>
       </c>
       <c r="D35" s="3">
+        <v>31500</v>
+      </c>
+      <c r="E35" s="3">
         <v>14500</v>
       </c>
-      <c r="E35" s="3">
-        <v>81800</v>
-      </c>
       <c r="F35" s="3">
-        <v>56600</v>
+        <v>81900</v>
       </c>
       <c r="G35" s="3">
-        <v>64200</v>
+        <v>56700</v>
       </c>
       <c r="H35" s="3">
-        <v>43100</v>
+        <v>64400</v>
       </c>
       <c r="I35" s="3">
-        <v>106100</v>
+        <v>43200</v>
       </c>
       <c r="J35" s="3">
+        <v>106400</v>
+      </c>
+      <c r="K35" s="3">
         <v>108400</v>
       </c>
-      <c r="K35" s="3">
+      <c r="L35" s="3">
         <v>59100</v>
       </c>
-      <c r="L35" s="3">
+      <c r="M35" s="3">
         <v>44900</v>
       </c>
-      <c r="M35" s="3">
+      <c r="N35" s="3">
         <v>273600</v>
       </c>
-      <c r="N35" s="3">
+      <c r="O35" s="3">
         <v>85100</v>
       </c>
-      <c r="O35" s="3">
+      <c r="P35" s="3">
         <v>34500</v>
       </c>
-      <c r="P35" s="3">
+      <c r="Q35" s="3">
         <v>17900</v>
       </c>
-      <c r="Q35" s="3">
+      <c r="R35" s="3">
         <v>48700</v>
       </c>
-      <c r="R35" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="S35" s="3" t="s">
         <v>3</v>
       </c>
       <c r="T35" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="37" spans="2:20" x14ac:dyDescent="0.2">
+      <c r="U35" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="37" spans="2:21" x14ac:dyDescent="0.2">
       <c r="B37" s="1" t="s">
         <v>31</v>
       </c>
     </row>
-    <row r="38" spans="2:20" x14ac:dyDescent="0.2">
+    <row r="38" spans="2:21" x14ac:dyDescent="0.2">
       <c r="C38" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D38" s="2">
+        <v>45107</v>
+      </c>
+      <c r="E38" s="2">
         <v>45016</v>
       </c>
-      <c r="E38" s="2">
+      <c r="F38" s="2">
         <v>44926</v>
       </c>
-      <c r="F38" s="2">
+      <c r="G38" s="2">
         <v>44834</v>
       </c>
-      <c r="G38" s="2">
+      <c r="H38" s="2">
         <v>44742</v>
       </c>
-      <c r="H38" s="2">
+      <c r="I38" s="2">
         <v>44651</v>
       </c>
-      <c r="I38" s="2">
+      <c r="J38" s="2">
         <v>44561</v>
       </c>
-      <c r="J38" s="2">
+      <c r="K38" s="2">
         <v>44469</v>
       </c>
-      <c r="K38" s="2">
+      <c r="L38" s="2">
         <v>44377</v>
       </c>
-      <c r="L38" s="2">
+      <c r="M38" s="2">
         <v>44286</v>
       </c>
-      <c r="M38" s="2">
+      <c r="N38" s="2">
         <v>44196</v>
       </c>
-      <c r="N38" s="2">
+      <c r="O38" s="2">
         <v>44104</v>
       </c>
-      <c r="O38" s="2">
+      <c r="P38" s="2">
         <v>44012</v>
       </c>
-      <c r="P38" s="2">
+      <c r="Q38" s="2">
         <v>43921</v>
       </c>
-      <c r="Q38" s="2">
+      <c r="R38" s="2">
         <v>43830</v>
       </c>
-      <c r="R38" s="2" t="s">
-        <v>3</v>
-      </c>
       <c r="S38" s="2" t="s">
         <v>3</v>
       </c>
       <c r="T38" s="2" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="39" spans="2:20" x14ac:dyDescent="0.2">
+      <c r="U38" s="2" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="39" spans="2:21" x14ac:dyDescent="0.2">
       <c r="C39" s="1" t="s">
         <v>32</v>
       </c>
@@ -2291,8 +2376,9 @@
       <c r="R39" s="3"/>
       <c r="S39" s="3"/>
       <c r="T39" s="3"/>
-    </row>
-    <row r="40" spans="2:20" x14ac:dyDescent="0.2">
+      <c r="U39" s="3"/>
+    </row>
+    <row r="40" spans="2:21" x14ac:dyDescent="0.2">
       <c r="C40" s="1" t="s">
         <v>33</v>
       </c>
@@ -2313,55 +2399,56 @@
       <c r="R40" s="3"/>
       <c r="S40" s="3"/>
       <c r="T40" s="3"/>
-    </row>
-    <row r="41" spans="2:20" x14ac:dyDescent="0.2">
+      <c r="U40" s="3"/>
+    </row>
+    <row r="41" spans="2:21" x14ac:dyDescent="0.2">
       <c r="C41" s="1" t="s">
         <v>34</v>
       </c>
       <c r="D41" s="3">
-        <v>832600</v>
+        <v>927700</v>
       </c>
       <c r="E41" s="3">
-        <v>1176600</v>
+        <v>834400</v>
       </c>
       <c r="F41" s="3">
-        <v>847900</v>
+        <v>1179100</v>
       </c>
       <c r="G41" s="3">
-        <v>626000</v>
+        <v>849700</v>
       </c>
       <c r="H41" s="3">
-        <v>883900</v>
+        <v>627300</v>
       </c>
       <c r="I41" s="3">
-        <v>513600</v>
+        <v>885900</v>
       </c>
       <c r="J41" s="3">
+        <v>514700</v>
+      </c>
+      <c r="K41" s="3">
         <v>580200</v>
       </c>
-      <c r="K41" s="3">
+      <c r="L41" s="3">
         <v>873500</v>
       </c>
-      <c r="L41" s="3">
+      <c r="M41" s="3">
         <v>517100</v>
       </c>
-      <c r="M41" s="3">
+      <c r="N41" s="3">
         <v>691200</v>
       </c>
-      <c r="N41" s="3">
+      <c r="O41" s="3">
         <v>343000</v>
       </c>
-      <c r="O41" s="3">
+      <c r="P41" s="3">
         <v>461300</v>
       </c>
-      <c r="P41" s="3">
+      <c r="Q41" s="3">
         <v>484000</v>
       </c>
-      <c r="Q41" s="3" t="s">
-        <v>3</v>
-      </c>
-      <c r="R41" s="3">
-        <v>0</v>
+      <c r="R41" s="3" t="s">
+        <v>3</v>
       </c>
       <c r="S41" s="3">
         <v>0</v>
@@ -2369,8 +2456,11 @@
       <c r="T41" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="42" spans="2:20" x14ac:dyDescent="0.2">
+      <c r="U41" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="42" spans="2:21" x14ac:dyDescent="0.2">
       <c r="C42" s="1" t="s">
         <v>35</v>
       </c>
@@ -2405,19 +2495,19 @@
         <v>0</v>
       </c>
       <c r="N42" s="3">
+        <v>0</v>
+      </c>
+      <c r="O42" s="3">
         <v>416200</v>
       </c>
-      <c r="O42" s="3">
+      <c r="P42" s="3">
         <v>448700</v>
       </c>
-      <c r="P42" s="3">
+      <c r="Q42" s="3">
         <v>190300</v>
       </c>
-      <c r="Q42" s="3" t="s">
-        <v>3</v>
-      </c>
-      <c r="R42" s="3">
-        <v>0</v>
+      <c r="R42" s="3" t="s">
+        <v>3</v>
       </c>
       <c r="S42" s="3">
         <v>0</v>
@@ -2425,55 +2515,58 @@
       <c r="T42" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="43" spans="2:20" x14ac:dyDescent="0.2">
+      <c r="U42" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="43" spans="2:21" x14ac:dyDescent="0.2">
       <c r="C43" s="1" t="s">
         <v>36</v>
       </c>
       <c r="D43" s="3">
-        <v>326100</v>
+        <v>359100</v>
       </c>
       <c r="E43" s="3">
-        <v>337700</v>
+        <v>326800</v>
       </c>
       <c r="F43" s="3">
-        <v>331500</v>
+        <v>338500</v>
       </c>
       <c r="G43" s="3">
-        <v>273900</v>
+        <v>332200</v>
       </c>
       <c r="H43" s="3">
-        <v>311600</v>
+        <v>274500</v>
       </c>
       <c r="I43" s="3">
-        <v>241700</v>
+        <v>312200</v>
       </c>
       <c r="J43" s="3">
+        <v>242200</v>
+      </c>
+      <c r="K43" s="3">
         <v>261200</v>
       </c>
-      <c r="K43" s="3">
+      <c r="L43" s="3">
         <v>183400</v>
       </c>
-      <c r="L43" s="3">
+      <c r="M43" s="3">
         <v>148700</v>
       </c>
-      <c r="M43" s="3">
+      <c r="N43" s="3">
         <v>192600</v>
       </c>
-      <c r="N43" s="3">
+      <c r="O43" s="3">
         <v>353300</v>
       </c>
-      <c r="O43" s="3">
+      <c r="P43" s="3">
         <v>375600</v>
       </c>
-      <c r="P43" s="3">
+      <c r="Q43" s="3">
         <v>280100</v>
       </c>
-      <c r="Q43" s="3" t="s">
-        <v>3</v>
-      </c>
-      <c r="R43" s="3">
-        <v>0</v>
+      <c r="R43" s="3" t="s">
+        <v>3</v>
       </c>
       <c r="S43" s="3">
         <v>0</v>
@@ -2481,55 +2574,58 @@
       <c r="T43" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="44" spans="2:20" x14ac:dyDescent="0.2">
+      <c r="U43" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="44" spans="2:21" x14ac:dyDescent="0.2">
       <c r="C44" s="1" t="s">
         <v>37</v>
       </c>
       <c r="D44" s="3">
-        <v>1273700</v>
+        <v>1286500</v>
       </c>
       <c r="E44" s="3">
-        <v>1302500</v>
+        <v>1276400</v>
       </c>
       <c r="F44" s="3">
-        <v>1217900</v>
+        <v>1305300</v>
       </c>
       <c r="G44" s="3">
-        <v>1130100</v>
+        <v>1220500</v>
       </c>
       <c r="H44" s="3">
-        <v>975800</v>
+        <v>1132500</v>
       </c>
       <c r="I44" s="3">
-        <v>882100</v>
+        <v>977900</v>
       </c>
       <c r="J44" s="3">
+        <v>884100</v>
+      </c>
+      <c r="K44" s="3">
         <v>898200</v>
       </c>
-      <c r="K44" s="3">
+      <c r="L44" s="3">
         <v>714100</v>
       </c>
-      <c r="L44" s="3">
+      <c r="M44" s="3">
         <v>642800</v>
       </c>
-      <c r="M44" s="3">
+      <c r="N44" s="3">
         <v>731700</v>
       </c>
-      <c r="N44" s="3">
+      <c r="O44" s="3">
         <v>1243300</v>
       </c>
-      <c r="O44" s="3">
+      <c r="P44" s="3">
         <v>1113600</v>
       </c>
-      <c r="P44" s="3">
+      <c r="Q44" s="3">
         <v>1036500</v>
       </c>
-      <c r="Q44" s="3" t="s">
-        <v>3</v>
-      </c>
-      <c r="R44" s="3">
-        <v>0</v>
+      <c r="R44" s="3" t="s">
+        <v>3</v>
       </c>
       <c r="S44" s="3">
         <v>0</v>
@@ -2537,55 +2633,58 @@
       <c r="T44" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="45" spans="2:20" x14ac:dyDescent="0.2">
+      <c r="U44" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="45" spans="2:21" x14ac:dyDescent="0.2">
       <c r="C45" s="1" t="s">
         <v>38</v>
       </c>
       <c r="D45" s="3">
-        <v>60600</v>
+        <v>62400</v>
       </c>
       <c r="E45" s="3">
-        <v>38900</v>
+        <v>60800</v>
       </c>
       <c r="F45" s="3">
-        <v>72700</v>
+        <v>39000</v>
       </c>
       <c r="G45" s="3">
-        <v>80000</v>
+        <v>72900</v>
       </c>
       <c r="H45" s="3">
-        <v>299900</v>
+        <v>80100</v>
       </c>
       <c r="I45" s="3">
-        <v>129300</v>
+        <v>300500</v>
       </c>
       <c r="J45" s="3">
+        <v>129600</v>
+      </c>
+      <c r="K45" s="3">
         <v>48900</v>
       </c>
-      <c r="K45" s="3">
+      <c r="L45" s="3">
         <v>43600</v>
       </c>
-      <c r="L45" s="3">
+      <c r="M45" s="3">
         <v>16800</v>
       </c>
-      <c r="M45" s="3">
+      <c r="N45" s="3">
         <v>18400</v>
       </c>
-      <c r="N45" s="3">
+      <c r="O45" s="3">
         <v>62900</v>
       </c>
-      <c r="O45" s="3">
+      <c r="P45" s="3">
         <v>84900</v>
       </c>
-      <c r="P45" s="3">
+      <c r="Q45" s="3">
         <v>154400</v>
       </c>
-      <c r="Q45" s="3" t="s">
-        <v>3</v>
-      </c>
-      <c r="R45" s="3">
-        <v>0</v>
+      <c r="R45" s="3" t="s">
+        <v>3</v>
       </c>
       <c r="S45" s="3">
         <v>0</v>
@@ -2593,55 +2692,58 @@
       <c r="T45" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="46" spans="2:20" x14ac:dyDescent="0.2">
+      <c r="U45" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="46" spans="2:21" x14ac:dyDescent="0.2">
       <c r="C46" s="1" t="s">
         <v>39</v>
       </c>
       <c r="D46" s="3">
-        <v>2492900</v>
+        <v>2635600</v>
       </c>
       <c r="E46" s="3">
-        <v>2855700</v>
+        <v>2498400</v>
       </c>
       <c r="F46" s="3">
-        <v>2470000</v>
+        <v>2861900</v>
       </c>
       <c r="G46" s="3">
-        <v>2109900</v>
+        <v>2475400</v>
       </c>
       <c r="H46" s="3">
-        <v>2471200</v>
+        <v>2114500</v>
       </c>
       <c r="I46" s="3">
-        <v>1766700</v>
+        <v>2476600</v>
       </c>
       <c r="J46" s="3">
+        <v>1770500</v>
+      </c>
+      <c r="K46" s="3">
         <v>1788600</v>
       </c>
-      <c r="K46" s="3">
+      <c r="L46" s="3">
         <v>1814500</v>
       </c>
-      <c r="L46" s="3">
+      <c r="M46" s="3">
         <v>1325500</v>
       </c>
-      <c r="M46" s="3">
+      <c r="N46" s="3">
         <v>1633900</v>
       </c>
-      <c r="N46" s="3">
+      <c r="O46" s="3">
         <v>2418800</v>
       </c>
-      <c r="O46" s="3">
+      <c r="P46" s="3">
         <v>2484100</v>
       </c>
-      <c r="P46" s="3">
+      <c r="Q46" s="3">
         <v>2145300</v>
       </c>
-      <c r="Q46" s="3" t="s">
-        <v>3</v>
-      </c>
-      <c r="R46" s="3">
-        <v>0</v>
+      <c r="R46" s="3" t="s">
+        <v>3</v>
       </c>
       <c r="S46" s="3">
         <v>0</v>
@@ -2649,55 +2751,58 @@
       <c r="T46" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="47" spans="2:20" x14ac:dyDescent="0.2">
+      <c r="U46" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="47" spans="2:21" x14ac:dyDescent="0.2">
       <c r="C47" s="1" t="s">
         <v>40</v>
       </c>
       <c r="D47" s="3">
-        <v>392300</v>
+        <v>338100</v>
       </c>
       <c r="E47" s="3">
-        <v>405200</v>
+        <v>393200</v>
       </c>
       <c r="F47" s="3">
-        <v>402400</v>
+        <v>406100</v>
       </c>
       <c r="G47" s="3">
-        <v>477100</v>
+        <v>403300</v>
       </c>
       <c r="H47" s="3">
-        <v>471300</v>
+        <v>478200</v>
       </c>
       <c r="I47" s="3">
-        <v>336900</v>
+        <v>472300</v>
       </c>
       <c r="J47" s="3">
+        <v>337700</v>
+      </c>
+      <c r="K47" s="3">
         <v>358900</v>
       </c>
-      <c r="K47" s="3">
+      <c r="L47" s="3">
         <v>338500</v>
       </c>
-      <c r="L47" s="3">
+      <c r="M47" s="3">
         <v>327400</v>
       </c>
-      <c r="M47" s="3">
+      <c r="N47" s="3">
         <v>354800</v>
       </c>
-      <c r="N47" s="3">
+      <c r="O47" s="3">
         <v>285200</v>
       </c>
-      <c r="O47" s="3">
+      <c r="P47" s="3">
         <v>291300</v>
       </c>
-      <c r="P47" s="3">
+      <c r="Q47" s="3">
         <v>297400</v>
       </c>
-      <c r="Q47" s="3" t="s">
-        <v>3</v>
-      </c>
-      <c r="R47" s="3">
-        <v>0</v>
+      <c r="R47" s="3" t="s">
+        <v>3</v>
       </c>
       <c r="S47" s="3">
         <v>0</v>
@@ -2705,55 +2810,58 @@
       <c r="T47" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="48" spans="2:20" x14ac:dyDescent="0.2">
+      <c r="U47" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="48" spans="2:21" x14ac:dyDescent="0.2">
       <c r="C48" s="1" t="s">
         <v>41</v>
       </c>
       <c r="D48" s="3">
-        <v>3904700</v>
+        <v>3997400</v>
       </c>
       <c r="E48" s="3">
-        <v>3863500</v>
+        <v>3913300</v>
       </c>
       <c r="F48" s="3">
-        <v>3410700</v>
+        <v>3871900</v>
       </c>
       <c r="G48" s="3">
-        <v>3117500</v>
+        <v>3418200</v>
       </c>
       <c r="H48" s="3">
-        <v>2589000</v>
+        <v>3124300</v>
       </c>
       <c r="I48" s="3">
-        <v>2078400</v>
+        <v>2594700</v>
       </c>
       <c r="J48" s="3">
+        <v>2083000</v>
+      </c>
+      <c r="K48" s="3">
         <v>1791900</v>
       </c>
-      <c r="K48" s="3">
+      <c r="L48" s="3">
         <v>1580000</v>
       </c>
-      <c r="L48" s="3">
+      <c r="M48" s="3">
         <v>1422400</v>
       </c>
-      <c r="M48" s="3">
+      <c r="N48" s="3">
         <v>1463100</v>
       </c>
-      <c r="N48" s="3">
+      <c r="O48" s="3">
         <v>4076200</v>
       </c>
-      <c r="O48" s="3">
+      <c r="P48" s="3">
         <v>4057500</v>
       </c>
-      <c r="P48" s="3">
+      <c r="Q48" s="3">
         <v>3266400</v>
       </c>
-      <c r="Q48" s="3" t="s">
-        <v>3</v>
-      </c>
-      <c r="R48" s="3">
-        <v>0</v>
+      <c r="R48" s="3" t="s">
+        <v>3</v>
       </c>
       <c r="S48" s="3">
         <v>0</v>
@@ -2761,55 +2869,58 @@
       <c r="T48" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="49" spans="3:20" x14ac:dyDescent="0.2">
+      <c r="U48" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="49" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C49" s="1" t="s">
         <v>42</v>
       </c>
       <c r="D49" s="3">
-        <v>1013600</v>
+        <v>1015700</v>
       </c>
       <c r="E49" s="3">
-        <v>1010600</v>
+        <v>1015900</v>
       </c>
       <c r="F49" s="3">
-        <v>1010600</v>
+        <v>1012800</v>
       </c>
       <c r="G49" s="3">
-        <v>970700</v>
+        <v>1012800</v>
       </c>
       <c r="H49" s="3">
-        <v>960700</v>
+        <v>972900</v>
       </c>
       <c r="I49" s="3">
-        <v>380000</v>
+        <v>962800</v>
       </c>
       <c r="J49" s="3">
+        <v>380900</v>
+      </c>
+      <c r="K49" s="3">
         <v>213500</v>
       </c>
-      <c r="K49" s="3">
+      <c r="L49" s="3">
         <v>202700</v>
       </c>
-      <c r="L49" s="3">
+      <c r="M49" s="3">
         <v>194000</v>
       </c>
-      <c r="M49" s="3">
+      <c r="N49" s="3">
         <v>202900</v>
       </c>
-      <c r="N49" s="3">
+      <c r="O49" s="3">
         <v>964700</v>
       </c>
-      <c r="O49" s="3">
+      <c r="P49" s="3">
         <v>971300</v>
       </c>
-      <c r="P49" s="3">
+      <c r="Q49" s="3">
         <v>796000</v>
       </c>
-      <c r="Q49" s="3" t="s">
-        <v>3</v>
-      </c>
-      <c r="R49" s="3">
-        <v>0</v>
+      <c r="R49" s="3" t="s">
+        <v>3</v>
       </c>
       <c r="S49" s="3">
         <v>0</v>
@@ -2817,8 +2928,11 @@
       <c r="T49" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="50" spans="3:20" x14ac:dyDescent="0.2">
+      <c r="U49" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="50" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C50" s="1" t="s">
         <v>43</v>
       </c>
@@ -2873,8 +2987,11 @@
       <c r="T50" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="51" spans="3:20" x14ac:dyDescent="0.2">
+      <c r="U50" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="51" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C51" s="1" t="s">
         <v>44</v>
       </c>
@@ -2929,55 +3046,58 @@
       <c r="T51" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="52" spans="3:20" x14ac:dyDescent="0.2">
+      <c r="U51" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="52" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C52" s="1" t="s">
         <v>45</v>
       </c>
       <c r="D52" s="3">
-        <v>68900</v>
+        <v>107400</v>
       </c>
       <c r="E52" s="3">
-        <v>45500</v>
+        <v>69000</v>
       </c>
       <c r="F52" s="3">
-        <v>41700</v>
+        <v>45600</v>
       </c>
       <c r="G52" s="3">
-        <v>58800</v>
+        <v>41800</v>
       </c>
       <c r="H52" s="3">
-        <v>50800</v>
+        <v>58900</v>
       </c>
       <c r="I52" s="3">
-        <v>40700</v>
+        <v>50900</v>
       </c>
       <c r="J52" s="3">
-        <v>30000</v>
+        <v>40800</v>
       </c>
       <c r="K52" s="3">
         <v>30000</v>
       </c>
       <c r="L52" s="3">
+        <v>30000</v>
+      </c>
+      <c r="M52" s="3">
         <v>26400</v>
       </c>
-      <c r="M52" s="3">
+      <c r="N52" s="3">
         <v>28600</v>
       </c>
-      <c r="N52" s="3">
+      <c r="O52" s="3">
         <v>41100</v>
       </c>
-      <c r="O52" s="3">
+      <c r="P52" s="3">
         <v>39800</v>
       </c>
-      <c r="P52" s="3">
+      <c r="Q52" s="3">
         <v>39300</v>
       </c>
-      <c r="Q52" s="3" t="s">
-        <v>3</v>
-      </c>
-      <c r="R52" s="3">
-        <v>0</v>
+      <c r="R52" s="3" t="s">
+        <v>3</v>
       </c>
       <c r="S52" s="3">
         <v>0</v>
@@ -2985,8 +3105,11 @@
       <c r="T52" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="53" spans="3:20" x14ac:dyDescent="0.2">
+      <c r="U52" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="53" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C53" s="1" t="s">
         <v>46</v>
       </c>
@@ -3041,55 +3164,58 @@
       <c r="T53" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="54" spans="3:20" x14ac:dyDescent="0.2">
+      <c r="U53" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="54" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C54" s="1" t="s">
         <v>47</v>
       </c>
       <c r="D54" s="3">
-        <v>7872500</v>
+        <v>8094200</v>
       </c>
       <c r="E54" s="3">
-        <v>8180500</v>
+        <v>7889700</v>
       </c>
       <c r="F54" s="3">
-        <v>7335400</v>
+        <v>8198300</v>
       </c>
       <c r="G54" s="3">
-        <v>6734000</v>
+        <v>7351400</v>
       </c>
       <c r="H54" s="3">
-        <v>6542900</v>
+        <v>6748700</v>
       </c>
       <c r="I54" s="3">
-        <v>4602800</v>
+        <v>6557200</v>
       </c>
       <c r="J54" s="3">
+        <v>4612900</v>
+      </c>
+      <c r="K54" s="3">
         <v>4182900</v>
       </c>
-      <c r="K54" s="3">
+      <c r="L54" s="3">
         <v>3965700</v>
       </c>
-      <c r="L54" s="3">
+      <c r="M54" s="3">
         <v>3295800</v>
       </c>
-      <c r="M54" s="3">
+      <c r="N54" s="3">
         <v>3683300</v>
       </c>
-      <c r="N54" s="3">
+      <c r="O54" s="3">
         <v>7785900</v>
       </c>
-      <c r="O54" s="3">
+      <c r="P54" s="3">
         <v>7844000</v>
       </c>
-      <c r="P54" s="3">
+      <c r="Q54" s="3">
         <v>6544400</v>
       </c>
-      <c r="Q54" s="3" t="s">
-        <v>3</v>
-      </c>
-      <c r="R54" s="3">
-        <v>0</v>
+      <c r="R54" s="3" t="s">
+        <v>3</v>
       </c>
       <c r="S54" s="3">
         <v>0</v>
@@ -3097,8 +3223,11 @@
       <c r="T54" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="55" spans="3:20" x14ac:dyDescent="0.2">
+      <c r="U54" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="55" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C55" s="1" t="s">
         <v>48</v>
       </c>
@@ -3119,8 +3248,9 @@
       <c r="R55" s="3"/>
       <c r="S55" s="3"/>
       <c r="T55" s="3"/>
-    </row>
-    <row r="56" spans="3:20" x14ac:dyDescent="0.2">
+      <c r="U55" s="3"/>
+    </row>
+    <row r="56" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C56" s="1" t="s">
         <v>49</v>
       </c>
@@ -3141,55 +3271,56 @@
       <c r="R56" s="3"/>
       <c r="S56" s="3"/>
       <c r="T56" s="3"/>
-    </row>
-    <row r="57" spans="3:20" x14ac:dyDescent="0.2">
+      <c r="U56" s="3"/>
+    </row>
+    <row r="57" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C57" s="1" t="s">
         <v>50</v>
       </c>
       <c r="D57" s="3">
-        <v>2463900</v>
+        <v>2576300</v>
       </c>
       <c r="E57" s="3">
-        <v>2658500</v>
+        <v>2469300</v>
       </c>
       <c r="F57" s="3">
-        <v>2135400</v>
+        <v>2664300</v>
       </c>
       <c r="G57" s="3">
-        <v>1849700</v>
+        <v>2140100</v>
       </c>
       <c r="H57" s="3">
-        <v>1884300</v>
+        <v>1853700</v>
       </c>
       <c r="I57" s="3">
-        <v>1270800</v>
+        <v>1888400</v>
       </c>
       <c r="J57" s="3">
+        <v>1273600</v>
+      </c>
+      <c r="K57" s="3">
         <v>1091600</v>
       </c>
-      <c r="K57" s="3">
+      <c r="L57" s="3">
         <v>892400</v>
       </c>
-      <c r="L57" s="3">
+      <c r="M57" s="3">
         <v>787500</v>
       </c>
-      <c r="M57" s="3">
+      <c r="N57" s="3">
         <v>997900</v>
       </c>
-      <c r="N57" s="3">
+      <c r="O57" s="3">
         <v>1629100</v>
       </c>
-      <c r="O57" s="3">
+      <c r="P57" s="3">
         <v>1636800</v>
       </c>
-      <c r="P57" s="3">
+      <c r="Q57" s="3">
         <v>1465500</v>
       </c>
-      <c r="Q57" s="3" t="s">
-        <v>3</v>
-      </c>
-      <c r="R57" s="3">
-        <v>0</v>
+      <c r="R57" s="3" t="s">
+        <v>3</v>
       </c>
       <c r="S57" s="3">
         <v>0</v>
@@ -3197,55 +3328,58 @@
       <c r="T57" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="58" spans="3:20" x14ac:dyDescent="0.2">
+      <c r="U57" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="58" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C58" s="1" t="s">
         <v>51</v>
       </c>
       <c r="D58" s="3">
-        <v>340000</v>
+        <v>331000</v>
       </c>
       <c r="E58" s="3">
-        <v>341400</v>
+        <v>340700</v>
       </c>
       <c r="F58" s="3">
-        <v>243300</v>
+        <v>342100</v>
       </c>
       <c r="G58" s="3">
-        <v>111400</v>
+        <v>243800</v>
       </c>
       <c r="H58" s="3">
-        <v>118200</v>
+        <v>111600</v>
       </c>
       <c r="I58" s="3">
-        <v>172600</v>
+        <v>118500</v>
       </c>
       <c r="J58" s="3">
+        <v>173000</v>
+      </c>
+      <c r="K58" s="3">
         <v>518800</v>
       </c>
-      <c r="K58" s="3">
+      <c r="L58" s="3">
         <v>465500</v>
       </c>
-      <c r="L58" s="3">
+      <c r="M58" s="3">
         <v>383200</v>
       </c>
-      <c r="M58" s="3">
+      <c r="N58" s="3">
         <v>448500</v>
       </c>
-      <c r="N58" s="3">
+      <c r="O58" s="3">
         <v>818100</v>
       </c>
-      <c r="O58" s="3">
+      <c r="P58" s="3">
         <v>530100</v>
       </c>
-      <c r="P58" s="3">
+      <c r="Q58" s="3">
         <v>521100</v>
       </c>
-      <c r="Q58" s="3" t="s">
-        <v>3</v>
-      </c>
-      <c r="R58" s="3">
-        <v>0</v>
+      <c r="R58" s="3" t="s">
+        <v>3</v>
       </c>
       <c r="S58" s="3">
         <v>0</v>
@@ -3253,55 +3387,58 @@
       <c r="T58" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="59" spans="3:20" x14ac:dyDescent="0.2">
+      <c r="U58" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="59" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C59" s="1" t="s">
         <v>52</v>
       </c>
       <c r="D59" s="3">
-        <v>282200</v>
+        <v>271300</v>
       </c>
       <c r="E59" s="3">
-        <v>306300</v>
+        <v>282800</v>
       </c>
       <c r="F59" s="3">
-        <v>338800</v>
+        <v>307000</v>
       </c>
       <c r="G59" s="3">
-        <v>264400</v>
+        <v>339500</v>
       </c>
       <c r="H59" s="3">
-        <v>288400</v>
+        <v>265000</v>
       </c>
       <c r="I59" s="3">
-        <v>297500</v>
+        <v>289000</v>
       </c>
       <c r="J59" s="3">
+        <v>298100</v>
+      </c>
+      <c r="K59" s="3">
         <v>235800</v>
       </c>
-      <c r="K59" s="3">
+      <c r="L59" s="3">
         <v>192300</v>
       </c>
-      <c r="L59" s="3">
+      <c r="M59" s="3">
         <v>185400</v>
       </c>
-      <c r="M59" s="3">
+      <c r="N59" s="3">
         <v>260700</v>
       </c>
-      <c r="N59" s="3">
+      <c r="O59" s="3">
         <v>508400</v>
       </c>
-      <c r="O59" s="3">
+      <c r="P59" s="3">
         <v>491300</v>
       </c>
-      <c r="P59" s="3">
+      <c r="Q59" s="3">
         <v>394000</v>
       </c>
-      <c r="Q59" s="3" t="s">
-        <v>3</v>
-      </c>
-      <c r="R59" s="3">
-        <v>0</v>
+      <c r="R59" s="3" t="s">
+        <v>3</v>
       </c>
       <c r="S59" s="3">
         <v>0</v>
@@ -3309,55 +3446,58 @@
       <c r="T59" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="60" spans="3:20" x14ac:dyDescent="0.2">
+      <c r="U59" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="60" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C60" s="1" t="s">
         <v>53</v>
       </c>
       <c r="D60" s="3">
-        <v>3086100</v>
+        <v>3178600</v>
       </c>
       <c r="E60" s="3">
-        <v>3306200</v>
+        <v>3092800</v>
       </c>
       <c r="F60" s="3">
-        <v>2717500</v>
+        <v>3313400</v>
       </c>
       <c r="G60" s="3">
-        <v>2225500</v>
+        <v>2723400</v>
       </c>
       <c r="H60" s="3">
-        <v>2290900</v>
+        <v>2230300</v>
       </c>
       <c r="I60" s="3">
-        <v>1740900</v>
+        <v>2295900</v>
       </c>
       <c r="J60" s="3">
+        <v>1744700</v>
+      </c>
+      <c r="K60" s="3">
         <v>1846200</v>
       </c>
-      <c r="K60" s="3">
+      <c r="L60" s="3">
         <v>1550200</v>
       </c>
-      <c r="L60" s="3">
+      <c r="M60" s="3">
         <v>1356000</v>
       </c>
-      <c r="M60" s="3">
+      <c r="N60" s="3">
         <v>1707100</v>
       </c>
-      <c r="N60" s="3">
+      <c r="O60" s="3">
         <v>2955600</v>
       </c>
-      <c r="O60" s="3">
+      <c r="P60" s="3">
         <v>2658100</v>
       </c>
-      <c r="P60" s="3">
+      <c r="Q60" s="3">
         <v>2380600</v>
       </c>
-      <c r="Q60" s="3" t="s">
-        <v>3</v>
-      </c>
-      <c r="R60" s="3">
-        <v>0</v>
+      <c r="R60" s="3" t="s">
+        <v>3</v>
       </c>
       <c r="S60" s="3">
         <v>0</v>
@@ -3365,53 +3505,56 @@
       <c r="T60" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="61" spans="3:20" x14ac:dyDescent="0.2">
+      <c r="U60" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="61" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C61" s="1" t="s">
         <v>54</v>
       </c>
       <c r="D61" s="3">
-        <v>3921900</v>
+        <v>4016600</v>
       </c>
       <c r="E61" s="3">
-        <v>3878200</v>
+        <v>3930400</v>
       </c>
       <c r="F61" s="3">
-        <v>3694300</v>
+        <v>3886600</v>
       </c>
       <c r="G61" s="3">
-        <v>3636300</v>
+        <v>3702400</v>
       </c>
       <c r="H61" s="3">
-        <v>3309400</v>
+        <v>3644200</v>
       </c>
       <c r="I61" s="3">
-        <v>2261100</v>
+        <v>3316600</v>
       </c>
       <c r="J61" s="3">
+        <v>2266100</v>
+      </c>
+      <c r="K61" s="3">
         <v>1792700</v>
       </c>
-      <c r="K61" s="3">
+      <c r="L61" s="3">
         <v>1979300</v>
       </c>
-      <c r="L61" s="3">
+      <c r="M61" s="3">
         <v>1568900</v>
       </c>
-      <c r="M61" s="3">
+      <c r="N61" s="3">
         <v>1627200</v>
       </c>
-      <c r="N61" s="3">
+      <c r="O61" s="3">
         <v>2075600</v>
       </c>
-      <c r="O61" s="3">
+      <c r="P61" s="3">
         <v>2472300</v>
       </c>
-      <c r="P61" s="3">
+      <c r="Q61" s="3">
         <v>2004400</v>
       </c>
-      <c r="Q61" s="3">
-        <v>0</v>
-      </c>
       <c r="R61" s="3">
         <v>0</v>
       </c>
@@ -3421,55 +3564,58 @@
       <c r="T61" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="62" spans="3:20" x14ac:dyDescent="0.2">
+      <c r="U61" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="62" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C62" s="1" t="s">
         <v>55</v>
       </c>
       <c r="D62" s="3">
-        <v>63000</v>
+        <v>65200</v>
       </c>
       <c r="E62" s="3">
-        <v>211500</v>
+        <v>63200</v>
       </c>
       <c r="F62" s="3">
-        <v>199600</v>
+        <v>211900</v>
       </c>
       <c r="G62" s="3">
-        <v>205400</v>
+        <v>200000</v>
       </c>
       <c r="H62" s="3">
-        <v>341600</v>
+        <v>205900</v>
       </c>
       <c r="I62" s="3">
-        <v>43700</v>
+        <v>342300</v>
       </c>
       <c r="J62" s="3">
+        <v>43800</v>
+      </c>
+      <c r="K62" s="3">
         <v>60200</v>
       </c>
-      <c r="K62" s="3">
+      <c r="L62" s="3">
         <v>65100</v>
       </c>
-      <c r="L62" s="3">
+      <c r="M62" s="3">
         <v>73300</v>
       </c>
-      <c r="M62" s="3">
+      <c r="N62" s="3">
         <v>73000</v>
       </c>
-      <c r="N62" s="3">
+      <c r="O62" s="3">
         <v>281500</v>
       </c>
-      <c r="O62" s="3">
+      <c r="P62" s="3">
         <v>311700</v>
       </c>
-      <c r="P62" s="3">
+      <c r="Q62" s="3">
         <v>287800</v>
       </c>
-      <c r="Q62" s="3" t="s">
-        <v>3</v>
-      </c>
-      <c r="R62" s="3">
-        <v>0</v>
+      <c r="R62" s="3" t="s">
+        <v>3</v>
       </c>
       <c r="S62" s="3">
         <v>0</v>
@@ -3477,8 +3623,11 @@
       <c r="T62" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="63" spans="3:20" x14ac:dyDescent="0.2">
+      <c r="U62" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="63" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C63" s="1" t="s">
         <v>56</v>
       </c>
@@ -3533,8 +3682,11 @@
       <c r="T63" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="64" spans="3:20" x14ac:dyDescent="0.2">
+      <c r="U63" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="64" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C64" s="1" t="s">
         <v>20</v>
       </c>
@@ -3589,8 +3741,11 @@
       <c r="T64" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="65" spans="2:20" x14ac:dyDescent="0.2">
+      <c r="U64" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="65" spans="2:21" x14ac:dyDescent="0.2">
       <c r="C65" s="1" t="s">
         <v>57</v>
       </c>
@@ -3645,55 +3800,58 @@
       <c r="T65" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="66" spans="2:20" x14ac:dyDescent="0.2">
+      <c r="U65" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="66" spans="2:21" x14ac:dyDescent="0.2">
       <c r="C66" s="1" t="s">
         <v>58</v>
       </c>
       <c r="D66" s="3">
-        <v>7071000</v>
+        <v>7260400</v>
       </c>
       <c r="E66" s="3">
-        <v>7395800</v>
+        <v>7086400</v>
       </c>
       <c r="F66" s="3">
-        <v>6611400</v>
+        <v>7412000</v>
       </c>
       <c r="G66" s="3">
-        <v>6067200</v>
+        <v>6625800</v>
       </c>
       <c r="H66" s="3">
-        <v>5941900</v>
+        <v>6080400</v>
       </c>
       <c r="I66" s="3">
-        <v>4045700</v>
+        <v>5954900</v>
       </c>
       <c r="J66" s="3">
+        <v>4054600</v>
+      </c>
+      <c r="K66" s="3">
         <v>3699100</v>
       </c>
-      <c r="K66" s="3">
+      <c r="L66" s="3">
         <v>3594500</v>
       </c>
-      <c r="L66" s="3">
+      <c r="M66" s="3">
         <v>2998300</v>
       </c>
-      <c r="M66" s="3">
+      <c r="N66" s="3">
         <v>3407300</v>
       </c>
-      <c r="N66" s="3">
+      <c r="O66" s="3">
         <v>5926200</v>
       </c>
-      <c r="O66" s="3">
+      <c r="P66" s="3">
         <v>6053100</v>
       </c>
-      <c r="P66" s="3">
+      <c r="Q66" s="3">
         <v>5153300</v>
       </c>
-      <c r="Q66" s="3" t="s">
-        <v>3</v>
-      </c>
-      <c r="R66" s="3">
-        <v>0</v>
+      <c r="R66" s="3" t="s">
+        <v>3</v>
       </c>
       <c r="S66" s="3">
         <v>0</v>
@@ -3701,8 +3859,11 @@
       <c r="T66" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="67" spans="2:20" x14ac:dyDescent="0.2">
+      <c r="U66" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="67" spans="2:21" x14ac:dyDescent="0.2">
       <c r="C67" s="1" t="s">
         <v>59</v>
       </c>
@@ -3723,8 +3884,9 @@
       <c r="R67" s="3"/>
       <c r="S67" s="3"/>
       <c r="T67" s="3"/>
-    </row>
-    <row r="68" spans="2:20" x14ac:dyDescent="0.2">
+      <c r="U67" s="3"/>
+    </row>
+    <row r="68" spans="2:21" x14ac:dyDescent="0.2">
       <c r="C68" s="1" t="s">
         <v>60</v>
       </c>
@@ -3779,8 +3941,11 @@
       <c r="T68" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="69" spans="2:20" x14ac:dyDescent="0.2">
+      <c r="U68" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="69" spans="2:21" x14ac:dyDescent="0.2">
       <c r="C69" s="1" t="s">
         <v>61</v>
       </c>
@@ -3835,8 +4000,11 @@
       <c r="T69" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="70" spans="2:20" x14ac:dyDescent="0.2">
+      <c r="U69" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="70" spans="2:21" x14ac:dyDescent="0.2">
       <c r="C70" s="1" t="s">
         <v>62</v>
       </c>
@@ -3891,8 +4059,11 @@
       <c r="T70" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="71" spans="2:20" x14ac:dyDescent="0.2">
+      <c r="U70" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="71" spans="2:21" x14ac:dyDescent="0.2">
       <c r="C71" s="1" t="s">
         <v>63</v>
       </c>
@@ -3947,55 +4118,58 @@
       <c r="T71" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="72" spans="2:20" x14ac:dyDescent="0.2">
+      <c r="U71" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="72" spans="2:21" x14ac:dyDescent="0.2">
       <c r="C72" s="1" t="s">
         <v>64</v>
       </c>
       <c r="D72" s="3">
-        <v>547000</v>
+        <v>579700</v>
       </c>
       <c r="E72" s="3">
-        <v>530700</v>
+        <v>548200</v>
       </c>
       <c r="F72" s="3">
-        <v>471300</v>
+        <v>531800</v>
       </c>
       <c r="G72" s="3">
-        <v>414300</v>
+        <v>472300</v>
       </c>
       <c r="H72" s="3">
-        <v>442500</v>
+        <v>415200</v>
       </c>
       <c r="I72" s="3">
-        <v>398600</v>
+        <v>443400</v>
       </c>
       <c r="J72" s="3">
+        <v>399400</v>
+      </c>
+      <c r="K72" s="3">
         <v>325300</v>
       </c>
-      <c r="K72" s="3">
+      <c r="L72" s="3">
         <v>220400</v>
       </c>
-      <c r="L72" s="3">
+      <c r="M72" s="3">
         <v>155100</v>
       </c>
-      <c r="M72" s="3">
+      <c r="N72" s="3">
         <v>127000</v>
       </c>
-      <c r="N72" s="3">
+      <c r="O72" s="3">
         <v>562300</v>
       </c>
-      <c r="O72" s="3">
+      <c r="P72" s="3">
         <v>545100</v>
       </c>
-      <c r="P72" s="3">
+      <c r="Q72" s="3">
         <v>462000</v>
       </c>
-      <c r="Q72" s="3" t="s">
-        <v>3</v>
-      </c>
-      <c r="R72" s="3">
-        <v>0</v>
+      <c r="R72" s="3" t="s">
+        <v>3</v>
       </c>
       <c r="S72" s="3">
         <v>0</v>
@@ -4003,8 +4177,11 @@
       <c r="T72" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="73" spans="2:20" x14ac:dyDescent="0.2">
+      <c r="U72" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="73" spans="2:21" x14ac:dyDescent="0.2">
       <c r="C73" s="1" t="s">
         <v>65</v>
       </c>
@@ -4059,8 +4236,11 @@
       <c r="T73" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="74" spans="2:20" x14ac:dyDescent="0.2">
+      <c r="U73" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="74" spans="2:21" x14ac:dyDescent="0.2">
       <c r="C74" s="1" t="s">
         <v>66</v>
       </c>
@@ -4115,8 +4295,11 @@
       <c r="T74" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="75" spans="2:20" x14ac:dyDescent="0.2">
+      <c r="U74" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="75" spans="2:21" x14ac:dyDescent="0.2">
       <c r="C75" s="1" t="s">
         <v>67</v>
       </c>
@@ -4171,55 +4354,58 @@
       <c r="T75" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="76" spans="2:20" x14ac:dyDescent="0.2">
+      <c r="U75" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="76" spans="2:21" x14ac:dyDescent="0.2">
       <c r="C76" s="1" t="s">
         <v>68</v>
       </c>
       <c r="D76" s="3">
-        <v>801600</v>
+        <v>833800</v>
       </c>
       <c r="E76" s="3">
-        <v>784700</v>
+        <v>803300</v>
       </c>
       <c r="F76" s="3">
-        <v>724000</v>
+        <v>786400</v>
       </c>
       <c r="G76" s="3">
-        <v>666800</v>
+        <v>725600</v>
       </c>
       <c r="H76" s="3">
-        <v>601000</v>
+        <v>668300</v>
       </c>
       <c r="I76" s="3">
-        <v>557100</v>
+        <v>602300</v>
       </c>
       <c r="J76" s="3">
+        <v>558300</v>
+      </c>
+      <c r="K76" s="3">
         <v>483800</v>
       </c>
-      <c r="K76" s="3">
+      <c r="L76" s="3">
         <v>371200</v>
       </c>
-      <c r="L76" s="3">
+      <c r="M76" s="3">
         <v>297500</v>
       </c>
-      <c r="M76" s="3">
+      <c r="N76" s="3">
         <v>275900</v>
       </c>
-      <c r="N76" s="3">
+      <c r="O76" s="3">
         <v>1859800</v>
       </c>
-      <c r="O76" s="3">
+      <c r="P76" s="3">
         <v>1790900</v>
       </c>
-      <c r="P76" s="3">
+      <c r="Q76" s="3">
         <v>1391000</v>
       </c>
-      <c r="Q76" s="3" t="s">
-        <v>3</v>
-      </c>
-      <c r="R76" s="3">
-        <v>0</v>
+      <c r="R76" s="3" t="s">
+        <v>3</v>
       </c>
       <c r="S76" s="3">
         <v>0</v>
@@ -4227,8 +4413,11 @@
       <c r="T76" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="77" spans="2:20" x14ac:dyDescent="0.2">
+      <c r="U76" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="77" spans="2:21" x14ac:dyDescent="0.2">
       <c r="C77" s="1" t="s">
         <v>69</v>
       </c>
@@ -4283,125 +4472,134 @@
       <c r="T77" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="79" spans="2:20" x14ac:dyDescent="0.2">
+      <c r="U77" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="79" spans="2:21" x14ac:dyDescent="0.2">
       <c r="B79" s="1" t="s">
         <v>70</v>
       </c>
     </row>
-    <row r="80" spans="2:20" x14ac:dyDescent="0.2">
+    <row r="80" spans="2:21" x14ac:dyDescent="0.2">
       <c r="C80" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D80" s="2">
+        <v>45107</v>
+      </c>
+      <c r="E80" s="2">
         <v>45016</v>
       </c>
-      <c r="E80" s="2">
+      <c r="F80" s="2">
         <v>44926</v>
       </c>
-      <c r="F80" s="2">
+      <c r="G80" s="2">
         <v>44834</v>
       </c>
-      <c r="G80" s="2">
+      <c r="H80" s="2">
         <v>44742</v>
       </c>
-      <c r="H80" s="2">
+      <c r="I80" s="2">
         <v>44651</v>
       </c>
-      <c r="I80" s="2">
+      <c r="J80" s="2">
         <v>44561</v>
       </c>
-      <c r="J80" s="2">
+      <c r="K80" s="2">
         <v>44469</v>
       </c>
-      <c r="K80" s="2">
+      <c r="L80" s="2">
         <v>44377</v>
       </c>
-      <c r="L80" s="2">
+      <c r="M80" s="2">
         <v>44286</v>
       </c>
-      <c r="M80" s="2">
+      <c r="N80" s="2">
         <v>44196</v>
       </c>
-      <c r="N80" s="2">
+      <c r="O80" s="2">
         <v>44104</v>
       </c>
-      <c r="O80" s="2">
+      <c r="P80" s="2">
         <v>44012</v>
       </c>
-      <c r="P80" s="2">
+      <c r="Q80" s="2">
         <v>43921</v>
       </c>
-      <c r="Q80" s="2">
+      <c r="R80" s="2">
         <v>43830</v>
       </c>
-      <c r="R80" s="2" t="s">
-        <v>3</v>
-      </c>
       <c r="S80" s="2" t="s">
         <v>3</v>
       </c>
       <c r="T80" s="2" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="81" spans="3:20" x14ac:dyDescent="0.2">
+      <c r="U80" s="2" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="81" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C81" s="1" t="s">
         <v>28</v>
       </c>
       <c r="D81" s="3">
+        <v>31500</v>
+      </c>
+      <c r="E81" s="3">
         <v>14500</v>
       </c>
-      <c r="E81" s="3">
-        <v>81800</v>
-      </c>
       <c r="F81" s="3">
-        <v>56600</v>
+        <v>81900</v>
       </c>
       <c r="G81" s="3">
-        <v>64200</v>
+        <v>56700</v>
       </c>
       <c r="H81" s="3">
-        <v>43100</v>
+        <v>64400</v>
       </c>
       <c r="I81" s="3">
-        <v>106100</v>
+        <v>43200</v>
       </c>
       <c r="J81" s="3">
+        <v>106400</v>
+      </c>
+      <c r="K81" s="3">
         <v>108400</v>
       </c>
-      <c r="K81" s="3">
+      <c r="L81" s="3">
         <v>59100</v>
       </c>
-      <c r="L81" s="3">
+      <c r="M81" s="3">
         <v>44900</v>
       </c>
-      <c r="M81" s="3">
+      <c r="N81" s="3">
         <v>273600</v>
       </c>
-      <c r="N81" s="3">
+      <c r="O81" s="3">
         <v>85100</v>
       </c>
-      <c r="O81" s="3">
+      <c r="P81" s="3">
         <v>34500</v>
       </c>
-      <c r="P81" s="3">
+      <c r="Q81" s="3">
         <v>17900</v>
       </c>
-      <c r="Q81" s="3">
+      <c r="R81" s="3">
         <v>48700</v>
       </c>
-      <c r="R81" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="S81" s="3" t="s">
         <v>3</v>
       </c>
       <c r="T81" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="82" spans="3:20" x14ac:dyDescent="0.2">
+      <c r="U81" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="82" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C82" s="1" t="s">
         <v>71</v>
       </c>
@@ -4422,64 +4620,68 @@
       <c r="R82" s="3"/>
       <c r="S82" s="3"/>
       <c r="T82" s="3"/>
-    </row>
-    <row r="83" spans="3:20" x14ac:dyDescent="0.2">
+      <c r="U82" s="3"/>
+    </row>
+    <row r="83" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C83" s="1" t="s">
         <v>72</v>
       </c>
       <c r="D83" s="3">
-        <v>67700</v>
+        <v>72300</v>
       </c>
       <c r="E83" s="3">
-        <v>58400</v>
+        <v>67800</v>
       </c>
       <c r="F83" s="3">
-        <v>49500</v>
+        <v>58500</v>
       </c>
       <c r="G83" s="3">
-        <v>47300</v>
+        <v>49700</v>
       </c>
       <c r="H83" s="3">
-        <v>44100</v>
+        <v>47400</v>
       </c>
       <c r="I83" s="3">
+        <v>44200</v>
+      </c>
+      <c r="J83" s="3">
         <v>37900</v>
       </c>
-      <c r="J83" s="3">
+      <c r="K83" s="3">
         <v>35200</v>
       </c>
-      <c r="K83" s="3">
+      <c r="L83" s="3">
         <v>32300</v>
       </c>
-      <c r="L83" s="3">
+      <c r="M83" s="3">
         <v>29400</v>
       </c>
-      <c r="M83" s="3">
+      <c r="N83" s="3">
         <v>268500</v>
       </c>
-      <c r="N83" s="3">
+      <c r="O83" s="3">
         <v>69300</v>
       </c>
-      <c r="O83" s="3">
+      <c r="P83" s="3">
         <v>65400</v>
       </c>
-      <c r="P83" s="3">
+      <c r="Q83" s="3">
         <v>56100</v>
       </c>
-      <c r="Q83" s="3">
+      <c r="R83" s="3">
         <v>32100</v>
       </c>
-      <c r="R83" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="S83" s="3" t="s">
         <v>3</v>
       </c>
       <c r="T83" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="84" spans="3:20" x14ac:dyDescent="0.2">
+      <c r="U83" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="84" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C84" s="1" t="s">
         <v>73</v>
       </c>
@@ -4534,8 +4736,11 @@
       <c r="T84" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="85" spans="3:20" x14ac:dyDescent="0.2">
+      <c r="U84" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="85" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C85" s="1" t="s">
         <v>74</v>
       </c>
@@ -4590,8 +4795,11 @@
       <c r="T85" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="86" spans="3:20" x14ac:dyDescent="0.2">
+      <c r="U85" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="86" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C86" s="1" t="s">
         <v>75</v>
       </c>
@@ -4646,8 +4854,11 @@
       <c r="T86" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="87" spans="3:20" x14ac:dyDescent="0.2">
+      <c r="U86" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="87" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C87" s="1" t="s">
         <v>76</v>
       </c>
@@ -4702,8 +4913,11 @@
       <c r="T87" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="88" spans="3:20" x14ac:dyDescent="0.2">
+      <c r="U87" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="88" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C88" s="1" t="s">
         <v>77</v>
       </c>
@@ -4758,64 +4972,70 @@
       <c r="T88" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="89" spans="3:20" x14ac:dyDescent="0.2">
+      <c r="U88" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="89" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C89" s="1" t="s">
         <v>78</v>
       </c>
       <c r="D89" s="3">
+        <v>526800</v>
+      </c>
+      <c r="E89" s="3">
         <v>4800</v>
       </c>
-      <c r="E89" s="3">
-        <v>451100</v>
-      </c>
       <c r="F89" s="3">
-        <v>337900</v>
+        <v>452100</v>
       </c>
       <c r="G89" s="3">
-        <v>75100</v>
+        <v>338700</v>
       </c>
       <c r="H89" s="3">
-        <v>171800</v>
+        <v>75300</v>
       </c>
       <c r="I89" s="3">
-        <v>433000</v>
+        <v>172200</v>
       </c>
       <c r="J89" s="3">
+        <v>434000</v>
+      </c>
+      <c r="K89" s="3">
         <v>126100</v>
       </c>
-      <c r="K89" s="3">
+      <c r="L89" s="3">
         <v>138400</v>
       </c>
-      <c r="L89" s="3">
+      <c r="M89" s="3">
         <v>-41000</v>
       </c>
-      <c r="M89" s="3">
+      <c r="N89" s="3">
         <v>684600</v>
       </c>
-      <c r="N89" s="3">
+      <c r="O89" s="3">
         <v>47900</v>
       </c>
-      <c r="O89" s="3">
+      <c r="P89" s="3">
         <v>201600</v>
       </c>
-      <c r="P89" s="3">
+      <c r="Q89" s="3">
         <v>-341200</v>
       </c>
-      <c r="Q89" s="3">
+      <c r="R89" s="3">
         <v>505600</v>
       </c>
-      <c r="R89" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="S89" s="3" t="s">
         <v>3</v>
       </c>
       <c r="T89" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="90" spans="3:20" x14ac:dyDescent="0.2">
+      <c r="U89" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="90" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C90" s="1" t="s">
         <v>79</v>
       </c>
@@ -4836,64 +5056,68 @@
       <c r="R90" s="3"/>
       <c r="S90" s="3"/>
       <c r="T90" s="3"/>
-    </row>
-    <row r="91" spans="3:20" x14ac:dyDescent="0.2">
+      <c r="U90" s="3"/>
+    </row>
+    <row r="91" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C91" s="1" t="s">
         <v>80</v>
       </c>
       <c r="D91" s="3">
+        <v>-842000</v>
+      </c>
+      <c r="E91" s="3">
         <v>-549000</v>
       </c>
-      <c r="E91" s="3">
+      <c r="F91" s="3">
         <v>-485000</v>
       </c>
-      <c r="F91" s="3">
+      <c r="G91" s="3">
         <v>-1057000</v>
       </c>
-      <c r="G91" s="3">
+      <c r="H91" s="3">
         <v>-1341000</v>
       </c>
-      <c r="H91" s="3">
+      <c r="I91" s="3">
         <v>-1277000</v>
       </c>
-      <c r="I91" s="3">
+      <c r="J91" s="3">
         <v>-1490000</v>
       </c>
-      <c r="J91" s="3">
+      <c r="K91" s="3">
         <v>-837000</v>
       </c>
-      <c r="K91" s="3">
+      <c r="L91" s="3">
         <v>-109400</v>
       </c>
-      <c r="L91" s="3">
+      <c r="M91" s="3">
         <v>-32600</v>
       </c>
-      <c r="M91" s="3">
+      <c r="N91" s="3">
         <v>-305700</v>
       </c>
-      <c r="N91" s="3">
+      <c r="O91" s="3">
         <v>-85900</v>
       </c>
-      <c r="O91" s="3">
+      <c r="P91" s="3">
         <v>-66000</v>
       </c>
-      <c r="P91" s="3">
+      <c r="Q91" s="3">
         <v>-64600</v>
       </c>
-      <c r="Q91" s="3">
+      <c r="R91" s="3">
         <v>-91900</v>
       </c>
-      <c r="R91" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="S91" s="3" t="s">
         <v>3</v>
       </c>
       <c r="T91" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="92" spans="3:20" x14ac:dyDescent="0.2">
+      <c r="U91" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="92" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C92" s="1" t="s">
         <v>81</v>
       </c>
@@ -4948,8 +5172,11 @@
       <c r="T92" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="93" spans="3:20" x14ac:dyDescent="0.2">
+      <c r="U92" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="93" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C93" s="1" t="s">
         <v>82</v>
       </c>
@@ -5004,64 +5231,70 @@
       <c r="T93" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="94" spans="3:20" x14ac:dyDescent="0.2">
+      <c r="U93" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="94" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C94" s="1" t="s">
         <v>83</v>
       </c>
       <c r="D94" s="3">
-        <v>-107500</v>
+        <v>-167900</v>
       </c>
       <c r="E94" s="3">
-        <v>-70500</v>
+        <v>-107800</v>
       </c>
       <c r="F94" s="3">
-        <v>-137000</v>
+        <v>-70600</v>
       </c>
       <c r="G94" s="3">
-        <v>-248300</v>
+        <v>-137300</v>
       </c>
       <c r="H94" s="3">
-        <v>-307500</v>
+        <v>-248900</v>
       </c>
       <c r="I94" s="3">
-        <v>-381000</v>
+        <v>-308200</v>
       </c>
       <c r="J94" s="3">
+        <v>-381900</v>
+      </c>
+      <c r="K94" s="3">
         <v>-126300</v>
       </c>
-      <c r="K94" s="3">
+      <c r="L94" s="3">
         <v>-112300</v>
       </c>
-      <c r="L94" s="3">
+      <c r="M94" s="3">
         <v>-33100</v>
       </c>
-      <c r="M94" s="3">
+      <c r="N94" s="3">
         <v>-936800</v>
       </c>
-      <c r="N94" s="3">
+      <c r="O94" s="3">
         <v>-64500</v>
       </c>
-      <c r="O94" s="3">
+      <c r="P94" s="3">
         <v>5100</v>
       </c>
-      <c r="P94" s="3">
+      <c r="Q94" s="3">
         <v>-68700</v>
       </c>
-      <c r="Q94" s="3">
+      <c r="R94" s="3">
         <v>-623700</v>
       </c>
-      <c r="R94" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="S94" s="3" t="s">
         <v>3</v>
       </c>
       <c r="T94" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="95" spans="3:20" x14ac:dyDescent="0.2">
+      <c r="U94" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="95" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C95" s="1" t="s">
         <v>84</v>
       </c>
@@ -5082,17 +5315,18 @@
       <c r="R95" s="3"/>
       <c r="S95" s="3"/>
       <c r="T95" s="3"/>
-    </row>
-    <row r="96" spans="3:20" x14ac:dyDescent="0.2">
+      <c r="U95" s="3"/>
+    </row>
+    <row r="96" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C96" s="1" t="s">
         <v>85</v>
       </c>
       <c r="D96" s="3">
+        <v>-13700</v>
+      </c>
+      <c r="E96" s="3">
         <v>-10100</v>
       </c>
-      <c r="E96" s="3">
-        <v>0</v>
-      </c>
       <c r="F96" s="3">
         <v>0</v>
       </c>
@@ -5103,43 +5337,46 @@
         <v>0</v>
       </c>
       <c r="I96" s="3">
+        <v>0</v>
+      </c>
+      <c r="J96" s="3">
         <v>-12700</v>
       </c>
-      <c r="J96" s="3">
-        <v>0</v>
-      </c>
       <c r="K96" s="3">
+        <v>0</v>
+      </c>
+      <c r="L96" s="3">
         <v>-16500</v>
       </c>
-      <c r="L96" s="3">
-        <v>0</v>
-      </c>
       <c r="M96" s="3">
+        <v>0</v>
+      </c>
+      <c r="N96" s="3">
         <v>-95700</v>
       </c>
-      <c r="N96" s="3">
+      <c r="O96" s="3">
         <v>-2700</v>
       </c>
-      <c r="O96" s="3">
+      <c r="P96" s="3">
         <v>-21100</v>
       </c>
-      <c r="P96" s="3">
+      <c r="Q96" s="3">
         <v>-3000</v>
       </c>
-      <c r="Q96" s="3">
+      <c r="R96" s="3">
         <v>-44500</v>
       </c>
-      <c r="R96" s="3">
-        <v>0</v>
-      </c>
       <c r="S96" s="3">
         <v>0</v>
       </c>
       <c r="T96" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="97" spans="3:20" x14ac:dyDescent="0.2">
+      <c r="U96" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="97" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C97" s="1" t="s">
         <v>86</v>
       </c>
@@ -5194,8 +5431,11 @@
       <c r="T97" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="98" spans="3:20" x14ac:dyDescent="0.2">
+      <c r="U97" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="98" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C98" s="1" t="s">
         <v>87</v>
       </c>
@@ -5250,8 +5490,11 @@
       <c r="T98" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="99" spans="3:20" x14ac:dyDescent="0.2">
+      <c r="U98" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="99" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C99" s="1" t="s">
         <v>88</v>
       </c>
@@ -5306,64 +5549,70 @@
       <c r="T99" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="100" spans="3:20" x14ac:dyDescent="0.2">
+      <c r="U99" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="100" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C100" s="1" t="s">
         <v>89</v>
       </c>
       <c r="D100" s="3">
-        <v>-241300</v>
+        <v>-265600</v>
       </c>
       <c r="E100" s="3">
-        <v>-52000</v>
+        <v>-241800</v>
       </c>
       <c r="F100" s="3">
-        <v>20900</v>
+        <v>-52100</v>
       </c>
       <c r="G100" s="3">
-        <v>-84800</v>
+        <v>21000</v>
       </c>
       <c r="H100" s="3">
-        <v>506100</v>
+        <v>-85000</v>
       </c>
       <c r="I100" s="3">
-        <v>-118600</v>
+        <v>507200</v>
       </c>
       <c r="J100" s="3">
+        <v>-118900</v>
+      </c>
+      <c r="K100" s="3">
         <v>-328100</v>
       </c>
-      <c r="K100" s="3">
+      <c r="L100" s="3">
         <v>312100</v>
       </c>
-      <c r="L100" s="3">
+      <c r="M100" s="3">
         <v>-69600</v>
       </c>
-      <c r="M100" s="3">
+      <c r="N100" s="3">
         <v>-155200</v>
       </c>
-      <c r="N100" s="3">
+      <c r="O100" s="3">
         <v>-118400</v>
       </c>
-      <c r="O100" s="3">
+      <c r="P100" s="3">
         <v>-99900</v>
       </c>
-      <c r="P100" s="3">
+      <c r="Q100" s="3">
         <v>159100</v>
       </c>
-      <c r="Q100" s="3">
+      <c r="R100" s="3">
         <v>-662800</v>
       </c>
-      <c r="R100" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="S100" s="3" t="s">
         <v>3</v>
       </c>
       <c r="T100" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="101" spans="3:20" x14ac:dyDescent="0.2">
+      <c r="U100" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="101" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C101" s="1" t="s">
         <v>90</v>
       </c>
@@ -5395,83 +5644,89 @@
         <v>0</v>
       </c>
       <c r="M101" s="3">
+        <v>0</v>
+      </c>
+      <c r="N101" s="3">
         <v>115100</v>
       </c>
-      <c r="N101" s="3">
+      <c r="O101" s="3">
         <v>-5300</v>
       </c>
-      <c r="O101" s="3">
+      <c r="P101" s="3">
         <v>58900</v>
       </c>
-      <c r="P101" s="3">
+      <c r="Q101" s="3">
         <v>27800</v>
       </c>
-      <c r="Q101" s="3">
+      <c r="R101" s="3">
         <v>19800</v>
       </c>
-      <c r="R101" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="S101" s="3" t="s">
         <v>3</v>
       </c>
       <c r="T101" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="102" spans="3:20" x14ac:dyDescent="0.2">
+      <c r="U101" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="102" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C102" s="1" t="s">
         <v>91</v>
       </c>
       <c r="D102" s="3">
-        <v>-344000</v>
+        <v>93300</v>
       </c>
       <c r="E102" s="3">
-        <v>328700</v>
+        <v>-344700</v>
       </c>
       <c r="F102" s="3">
-        <v>221900</v>
+        <v>329400</v>
       </c>
       <c r="G102" s="3">
-        <v>-258000</v>
+        <v>222400</v>
       </c>
       <c r="H102" s="3">
-        <v>370400</v>
+        <v>-258600</v>
       </c>
       <c r="I102" s="3">
-        <v>-66700</v>
+        <v>371200</v>
       </c>
       <c r="J102" s="3">
+        <v>-66800</v>
+      </c>
+      <c r="K102" s="3">
         <v>-328300</v>
       </c>
-      <c r="K102" s="3">
+      <c r="L102" s="3">
         <v>338300</v>
       </c>
-      <c r="L102" s="3">
+      <c r="M102" s="3">
         <v>-143700</v>
       </c>
-      <c r="M102" s="3">
+      <c r="N102" s="3">
         <v>-292400</v>
       </c>
-      <c r="N102" s="3">
+      <c r="O102" s="3">
         <v>-140200</v>
       </c>
-      <c r="O102" s="3">
+      <c r="P102" s="3">
         <v>165700</v>
       </c>
-      <c r="P102" s="3">
+      <c r="Q102" s="3">
         <v>-223000</v>
       </c>
-      <c r="Q102" s="3">
+      <c r="R102" s="3">
         <v>-761200</v>
       </c>
-      <c r="R102" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="S102" s="3" t="s">
         <v>3</v>
       </c>
       <c r="T102" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="U102" s="3" t="s">
         <v>3</v>
       </c>
     </row>

--- a/AAII_Financials/Quarterly/ASAI_QTR_FIN.xlsx
+++ b/AAII_Financials/Quarterly/ASAI_QTR_FIN.xlsx
@@ -22,7 +22,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="227" uniqueCount="92">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="229" uniqueCount="92">
   <si>
     <t>ASAI</t>
   </si>
@@ -656,7 +656,7 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <sheetPr codeName="Sheet2"/>
-  <dimension ref="A5:U102"/>
+  <dimension ref="A5:V102"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -665,269 +665,282 @@
     <col min="1" max="1" width="6.85546875" style="1" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="26.85546875" style="1" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="69.140625" style="1" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="6" max="7" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="8" max="8" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="9" max="9" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="10" max="11" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="12" max="12" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="13" max="13" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="14" max="15" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="16" max="16" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="17" max="17" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="18" max="18" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="19" max="21" width="4.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="22" max="16384" width="9.140625" style="1"/>
+    <col min="4" max="4" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="7" max="8" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="10" max="10" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="11" max="12" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="13" max="13" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="14" max="14" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="15" max="16" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="17" max="17" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="18" max="18" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="19" max="19" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="20" max="22" width="4.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="23" max="16384" width="9.140625" style="1"/>
   </cols>
   <sheetData>
-    <row r="5" spans="1:21" x14ac:dyDescent="0.2">
+    <row r="5" spans="1:22" x14ac:dyDescent="0.2">
       <c r="A5" s="1" t="s">
         <v>0</v>
       </c>
     </row>
-    <row r="6" spans="1:21" x14ac:dyDescent="0.2">
+    <row r="6" spans="1:22" x14ac:dyDescent="0.2">
       <c r="B6" s="1" t="s">
         <v>1</v>
       </c>
     </row>
-    <row r="7" spans="1:21" x14ac:dyDescent="0.2">
+    <row r="7" spans="1:22" x14ac:dyDescent="0.2">
       <c r="C7" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D7" s="2">
+        <v>45199</v>
+      </c>
+      <c r="E7" s="2">
         <v>45107</v>
       </c>
-      <c r="E7" s="2">
+      <c r="F7" s="2">
         <v>45016</v>
       </c>
-      <c r="F7" s="2">
+      <c r="G7" s="2">
         <v>44926</v>
       </c>
-      <c r="G7" s="2">
+      <c r="H7" s="2">
         <v>44834</v>
       </c>
-      <c r="H7" s="2">
+      <c r="I7" s="2">
         <v>44742</v>
       </c>
-      <c r="I7" s="2">
+      <c r="J7" s="2">
         <v>44651</v>
       </c>
-      <c r="J7" s="2">
+      <c r="K7" s="2">
         <v>44561</v>
       </c>
-      <c r="K7" s="2">
+      <c r="L7" s="2">
         <v>44469</v>
       </c>
-      <c r="L7" s="2">
+      <c r="M7" s="2">
         <v>44377</v>
       </c>
-      <c r="M7" s="2">
+      <c r="N7" s="2">
         <v>44286</v>
       </c>
-      <c r="N7" s="2">
+      <c r="O7" s="2">
         <v>44196</v>
       </c>
-      <c r="O7" s="2">
+      <c r="P7" s="2">
         <v>44104</v>
       </c>
-      <c r="P7" s="2">
+      <c r="Q7" s="2">
         <v>44012</v>
       </c>
-      <c r="Q7" s="2">
+      <c r="R7" s="2">
         <v>43921</v>
       </c>
-      <c r="R7" s="2">
+      <c r="S7" s="2">
         <v>43830</v>
       </c>
-      <c r="S7" s="2" t="s">
-        <v>3</v>
-      </c>
       <c r="T7" s="2" t="s">
         <v>3</v>
       </c>
       <c r="U7" s="2" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="8" spans="1:21" x14ac:dyDescent="0.2">
+      <c r="V7" s="2" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="8" spans="1:22" x14ac:dyDescent="0.2">
       <c r="C8" s="1" t="s">
         <v>4</v>
       </c>
       <c r="D8" s="3">
-        <v>3226200</v>
+        <v>3496100</v>
       </c>
       <c r="E8" s="3">
-        <v>3047000</v>
+        <v>3286800</v>
       </c>
       <c r="F8" s="3">
-        <v>3220200</v>
+        <v>3104200</v>
       </c>
       <c r="G8" s="3">
-        <v>2791900</v>
+        <v>3280600</v>
       </c>
       <c r="H8" s="3">
-        <v>2682700</v>
+        <v>2844300</v>
       </c>
       <c r="I8" s="3">
-        <v>2309700</v>
+        <v>2733000</v>
       </c>
       <c r="J8" s="3">
+        <v>2353000</v>
+      </c>
+      <c r="K8" s="3">
         <v>2332500</v>
       </c>
-      <c r="K8" s="3">
+      <c r="L8" s="3">
         <v>2184200</v>
       </c>
-      <c r="L8" s="3">
+      <c r="M8" s="3">
         <v>1945800</v>
       </c>
-      <c r="M8" s="3">
+      <c r="N8" s="3">
         <v>1767600</v>
       </c>
-      <c r="N8" s="3">
+      <c r="O8" s="3">
         <v>7053600</v>
       </c>
-      <c r="O8" s="3">
+      <c r="P8" s="3">
         <v>1801700</v>
       </c>
-      <c r="P8" s="3">
+      <c r="Q8" s="3">
         <v>1624200</v>
       </c>
-      <c r="Q8" s="3">
+      <c r="R8" s="3">
         <v>1399200</v>
       </c>
-      <c r="R8" s="3">
+      <c r="S8" s="3">
         <v>1427100</v>
       </c>
-      <c r="S8" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="T8" s="3" t="s">
         <v>3</v>
       </c>
       <c r="U8" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="9" spans="1:21" x14ac:dyDescent="0.2">
+      <c r="V8" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="9" spans="1:22" x14ac:dyDescent="0.2">
       <c r="C9" s="1" t="s">
         <v>5</v>
       </c>
       <c r="D9" s="3">
-        <v>2708700</v>
+        <v>2929200</v>
       </c>
       <c r="E9" s="3">
-        <v>2556900</v>
+        <v>2759600</v>
       </c>
       <c r="F9" s="3">
-        <v>2667500</v>
+        <v>2604900</v>
       </c>
       <c r="G9" s="3">
-        <v>2336900</v>
+        <v>2717600</v>
       </c>
       <c r="H9" s="3">
-        <v>2249700</v>
+        <v>2380800</v>
       </c>
       <c r="I9" s="3">
-        <v>1941100</v>
+        <v>2292000</v>
       </c>
       <c r="J9" s="3">
+        <v>1977500</v>
+      </c>
+      <c r="K9" s="3">
         <v>1931000</v>
       </c>
-      <c r="K9" s="3">
+      <c r="L9" s="3">
         <v>1796100</v>
       </c>
-      <c r="L9" s="3">
+      <c r="M9" s="3">
         <v>1612400</v>
       </c>
-      <c r="M9" s="3">
+      <c r="N9" s="3">
         <v>1485700</v>
       </c>
-      <c r="N9" s="3">
+      <c r="O9" s="3">
         <v>5896200</v>
       </c>
-      <c r="O9" s="3">
+      <c r="P9" s="3">
         <v>1502900</v>
       </c>
-      <c r="P9" s="3">
+      <c r="Q9" s="3">
         <v>1360500</v>
       </c>
-      <c r="Q9" s="3">
+      <c r="R9" s="3">
         <v>1182000</v>
       </c>
-      <c r="R9" s="3">
+      <c r="S9" s="3">
         <v>1189700</v>
       </c>
-      <c r="S9" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="T9" s="3" t="s">
         <v>3</v>
       </c>
       <c r="U9" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="10" spans="1:21" x14ac:dyDescent="0.2">
+      <c r="V9" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="10" spans="1:22" x14ac:dyDescent="0.2">
       <c r="C10" s="1" t="s">
         <v>6</v>
       </c>
       <c r="D10" s="3">
-        <v>517500</v>
+        <v>566900</v>
       </c>
       <c r="E10" s="3">
-        <v>490100</v>
+        <v>527200</v>
       </c>
       <c r="F10" s="3">
-        <v>552600</v>
+        <v>499300</v>
       </c>
       <c r="G10" s="3">
-        <v>454900</v>
+        <v>563000</v>
       </c>
       <c r="H10" s="3">
-        <v>432900</v>
+        <v>463500</v>
       </c>
       <c r="I10" s="3">
-        <v>368600</v>
+        <v>441100</v>
       </c>
       <c r="J10" s="3">
+        <v>375500</v>
+      </c>
+      <c r="K10" s="3">
         <v>401500</v>
       </c>
-      <c r="K10" s="3">
+      <c r="L10" s="3">
         <v>388100</v>
       </c>
-      <c r="L10" s="3">
+      <c r="M10" s="3">
         <v>333400</v>
       </c>
-      <c r="M10" s="3">
+      <c r="N10" s="3">
         <v>281900</v>
       </c>
-      <c r="N10" s="3">
+      <c r="O10" s="3">
         <v>1157400</v>
       </c>
-      <c r="O10" s="3">
+      <c r="P10" s="3">
         <v>298800</v>
       </c>
-      <c r="P10" s="3">
+      <c r="Q10" s="3">
         <v>263700</v>
       </c>
-      <c r="Q10" s="3">
+      <c r="R10" s="3">
         <v>217300</v>
       </c>
-      <c r="R10" s="3">
+      <c r="S10" s="3">
         <v>237400</v>
       </c>
-      <c r="S10" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="T10" s="3" t="s">
         <v>3</v>
       </c>
       <c r="U10" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="11" spans="1:21" x14ac:dyDescent="0.2">
+      <c r="V10" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="11" spans="1:22" x14ac:dyDescent="0.2">
       <c r="C11" s="1" t="s">
         <v>7</v>
       </c>
@@ -949,8 +962,9 @@
       <c r="S11" s="3"/>
       <c r="T11" s="3"/>
       <c r="U11" s="3"/>
-    </row>
-    <row r="12" spans="1:21" x14ac:dyDescent="0.2">
+      <c r="V11" s="3"/>
+    </row>
+    <row r="12" spans="1:22" x14ac:dyDescent="0.2">
       <c r="C12" s="1" t="s">
         <v>8</v>
       </c>
@@ -1008,8 +1022,11 @@
       <c r="U12" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="13" spans="1:21" x14ac:dyDescent="0.2">
+      <c r="V12" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="13" spans="1:22" x14ac:dyDescent="0.2">
       <c r="C13" s="1" t="s">
         <v>9</v>
       </c>
@@ -1067,126 +1084,135 @@
       <c r="U13" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="14" spans="1:21" x14ac:dyDescent="0.2">
+      <c r="V13" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="14" spans="1:22" x14ac:dyDescent="0.2">
       <c r="C14" s="1" t="s">
         <v>10</v>
       </c>
       <c r="D14" s="3">
+        <v>-400</v>
+      </c>
+      <c r="E14" s="3">
         <v>1000</v>
       </c>
-      <c r="E14" s="3">
+      <c r="F14" s="3">
         <v>400</v>
       </c>
-      <c r="F14" s="3">
-        <v>5000</v>
-      </c>
       <c r="G14" s="3">
+        <v>5100</v>
+      </c>
+      <c r="H14" s="3">
         <v>800</v>
       </c>
-      <c r="H14" s="3">
-        <v>3600</v>
-      </c>
       <c r="I14" s="3">
+        <v>3700</v>
+      </c>
+      <c r="J14" s="3">
         <v>1000</v>
       </c>
-      <c r="J14" s="3">
+      <c r="K14" s="3">
         <v>4400</v>
       </c>
-      <c r="K14" s="3">
+      <c r="L14" s="3">
         <v>1200</v>
       </c>
-      <c r="L14" s="3">
+      <c r="M14" s="3">
         <v>6800</v>
       </c>
-      <c r="M14" s="3">
+      <c r="N14" s="3">
         <v>400</v>
       </c>
-      <c r="N14" s="3">
+      <c r="O14" s="3">
         <v>43600</v>
       </c>
-      <c r="O14" s="3">
+      <c r="P14" s="3">
         <v>3100</v>
       </c>
-      <c r="P14" s="3">
+      <c r="Q14" s="3">
         <v>15000</v>
       </c>
-      <c r="Q14" s="3">
+      <c r="R14" s="3">
         <v>7700</v>
       </c>
-      <c r="R14" s="3">
+      <c r="S14" s="3">
         <v>22100</v>
       </c>
-      <c r="S14" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="T14" s="3" t="s">
         <v>3</v>
       </c>
       <c r="U14" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="15" spans="1:21" x14ac:dyDescent="0.2">
+      <c r="V14" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="15" spans="1:22" x14ac:dyDescent="0.2">
       <c r="C15" s="1" t="s">
         <v>11</v>
       </c>
       <c r="D15" s="3">
-        <v>68800</v>
+        <v>76100</v>
       </c>
       <c r="E15" s="3">
-        <v>63200</v>
+        <v>70100</v>
       </c>
       <c r="F15" s="3">
-        <v>54500</v>
+        <v>64400</v>
       </c>
       <c r="G15" s="3">
-        <v>46800</v>
+        <v>55500</v>
       </c>
       <c r="H15" s="3">
-        <v>43000</v>
+        <v>47700</v>
       </c>
       <c r="I15" s="3">
-        <v>41200</v>
+        <v>43800</v>
       </c>
       <c r="J15" s="3">
+        <v>41900</v>
+      </c>
+      <c r="K15" s="3">
         <v>35700</v>
       </c>
-      <c r="K15" s="3">
+      <c r="L15" s="3">
         <v>32600</v>
       </c>
-      <c r="L15" s="3">
+      <c r="M15" s="3">
         <v>29800</v>
       </c>
-      <c r="M15" s="3">
+      <c r="N15" s="3">
         <v>27100</v>
       </c>
-      <c r="N15" s="3">
+      <c r="O15" s="3">
         <v>98400</v>
       </c>
-      <c r="O15" s="3">
+      <c r="P15" s="3">
         <v>25100</v>
       </c>
-      <c r="P15" s="3">
+      <c r="Q15" s="3">
         <v>23800</v>
       </c>
-      <c r="Q15" s="3">
+      <c r="R15" s="3">
         <v>20900</v>
       </c>
-      <c r="R15" s="3">
+      <c r="S15" s="3">
         <v>19100</v>
       </c>
-      <c r="S15" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="T15" s="3" t="s">
         <v>3</v>
       </c>
       <c r="U15" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="16" spans="1:21" x14ac:dyDescent="0.2">
+      <c r="V15" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="16" spans="1:22" x14ac:dyDescent="0.2">
       <c r="D16" s="3"/>
       <c r="E16" s="3"/>
       <c r="F16" s="3"/>
@@ -1205,126 +1231,133 @@
       <c r="S16" s="3"/>
       <c r="T16" s="3"/>
       <c r="U16" s="3"/>
-    </row>
-    <row r="17" spans="3:21" x14ac:dyDescent="0.2">
+      <c r="V16" s="3"/>
+    </row>
+    <row r="17" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C17" s="1" t="s">
         <v>12</v>
       </c>
       <c r="D17" s="3">
-        <v>3077500</v>
+        <v>3313700</v>
       </c>
       <c r="E17" s="3">
-        <v>2922000</v>
+        <v>3135200</v>
       </c>
       <c r="F17" s="3">
-        <v>3045000</v>
+        <v>2976900</v>
       </c>
       <c r="G17" s="3">
-        <v>2640900</v>
+        <v>3102100</v>
       </c>
       <c r="H17" s="3">
-        <v>2539600</v>
+        <v>2690500</v>
       </c>
       <c r="I17" s="3">
-        <v>2203700</v>
+        <v>2587200</v>
       </c>
       <c r="J17" s="3">
+        <v>2245100</v>
+      </c>
+      <c r="K17" s="3">
         <v>2191200</v>
       </c>
-      <c r="K17" s="3">
+      <c r="L17" s="3">
         <v>2023100</v>
       </c>
-      <c r="L17" s="3">
+      <c r="M17" s="3">
         <v>1830400</v>
       </c>
-      <c r="M17" s="3">
+      <c r="N17" s="3">
         <v>1677300</v>
       </c>
-      <c r="N17" s="3">
+      <c r="O17" s="3">
         <v>6648900</v>
       </c>
-      <c r="O17" s="3">
+      <c r="P17" s="3">
         <v>1691300</v>
       </c>
-      <c r="P17" s="3">
+      <c r="Q17" s="3">
         <v>1548500</v>
       </c>
-      <c r="Q17" s="3">
+      <c r="R17" s="3">
         <v>1341000</v>
       </c>
-      <c r="R17" s="3">
+      <c r="S17" s="3">
         <v>1330900</v>
       </c>
-      <c r="S17" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="T17" s="3" t="s">
         <v>3</v>
       </c>
       <c r="U17" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="18" spans="3:21" x14ac:dyDescent="0.2">
+      <c r="V17" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="18" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C18" s="1" t="s">
         <v>13</v>
       </c>
       <c r="D18" s="3">
-        <v>148800</v>
+        <v>182400</v>
       </c>
       <c r="E18" s="3">
-        <v>124900</v>
+        <v>151500</v>
       </c>
       <c r="F18" s="3">
-        <v>175200</v>
+        <v>127300</v>
       </c>
       <c r="G18" s="3">
-        <v>151000</v>
+        <v>178500</v>
       </c>
       <c r="H18" s="3">
-        <v>143100</v>
+        <v>153800</v>
       </c>
       <c r="I18" s="3">
-        <v>106000</v>
+        <v>145800</v>
       </c>
       <c r="J18" s="3">
+        <v>108000</v>
+      </c>
+      <c r="K18" s="3">
         <v>141300</v>
       </c>
-      <c r="K18" s="3">
+      <c r="L18" s="3">
         <v>161100</v>
       </c>
-      <c r="L18" s="3">
+      <c r="M18" s="3">
         <v>115400</v>
       </c>
-      <c r="M18" s="3">
+      <c r="N18" s="3">
         <v>90400</v>
       </c>
-      <c r="N18" s="3">
+      <c r="O18" s="3">
         <v>404700</v>
       </c>
-      <c r="O18" s="3">
+      <c r="P18" s="3">
         <v>110400</v>
       </c>
-      <c r="P18" s="3">
+      <c r="Q18" s="3">
         <v>75700</v>
       </c>
-      <c r="Q18" s="3">
+      <c r="R18" s="3">
         <v>58200</v>
       </c>
-      <c r="R18" s="3">
+      <c r="S18" s="3">
         <v>96200</v>
       </c>
-      <c r="S18" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="T18" s="3" t="s">
         <v>3</v>
       </c>
       <c r="U18" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="19" spans="3:21" x14ac:dyDescent="0.2">
+      <c r="V18" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="19" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C19" s="1" t="s">
         <v>14</v>
       </c>
@@ -1346,294 +1379,307 @@
       <c r="S19" s="3"/>
       <c r="T19" s="3"/>
       <c r="U19" s="3"/>
-    </row>
-    <row r="20" spans="3:21" x14ac:dyDescent="0.2">
+      <c r="V19" s="3"/>
+    </row>
+    <row r="20" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C20" s="1" t="s">
         <v>15</v>
       </c>
       <c r="D20" s="3">
-        <v>-5400</v>
+        <v>-4100</v>
       </c>
       <c r="E20" s="3">
-        <v>-10300</v>
+        <v>-5600</v>
       </c>
       <c r="F20" s="3">
-        <v>8900</v>
+        <v>-10500</v>
       </c>
       <c r="G20" s="3">
-        <v>-13900</v>
+        <v>9000</v>
       </c>
       <c r="H20" s="3">
-        <v>-22200</v>
+        <v>-14200</v>
       </c>
       <c r="I20" s="3">
-        <v>5000</v>
+        <v>-22600</v>
       </c>
       <c r="J20" s="3">
+        <v>5100</v>
+      </c>
+      <c r="K20" s="3">
         <v>3800</v>
       </c>
-      <c r="K20" s="3">
+      <c r="L20" s="3">
         <v>8500</v>
       </c>
-      <c r="L20" s="3">
+      <c r="M20" s="3">
         <v>7000</v>
       </c>
-      <c r="M20" s="3">
+      <c r="N20" s="3">
         <v>1500</v>
       </c>
-      <c r="N20" s="3">
+      <c r="O20" s="3">
         <v>48900</v>
       </c>
-      <c r="O20" s="3">
+      <c r="P20" s="3">
         <v>2700</v>
       </c>
-      <c r="P20" s="3">
+      <c r="Q20" s="3">
         <v>-15400</v>
       </c>
-      <c r="Q20" s="3">
+      <c r="R20" s="3">
         <v>13200</v>
       </c>
-      <c r="R20" s="3">
+      <c r="S20" s="3">
         <v>3000</v>
       </c>
-      <c r="S20" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="T20" s="3" t="s">
         <v>3</v>
       </c>
       <c r="U20" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="21" spans="3:21" x14ac:dyDescent="0.2">
+      <c r="V20" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="21" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C21" s="1" t="s">
         <v>16</v>
       </c>
       <c r="D21" s="3">
-        <v>215600</v>
+        <v>258500</v>
       </c>
       <c r="E21" s="3">
+        <v>219600</v>
+      </c>
+      <c r="F21" s="3">
+        <v>185900</v>
+      </c>
+      <c r="G21" s="3">
+        <v>247200</v>
+      </c>
+      <c r="H21" s="3">
+        <v>190200</v>
+      </c>
+      <c r="I21" s="3">
+        <v>171500</v>
+      </c>
+      <c r="J21" s="3">
+        <v>158100</v>
+      </c>
+      <c r="K21" s="3">
+        <v>183100</v>
+      </c>
+      <c r="L21" s="3">
+        <v>204800</v>
+      </c>
+      <c r="M21" s="3">
+        <v>154700</v>
+      </c>
+      <c r="N21" s="3">
+        <v>121200</v>
+      </c>
+      <c r="O21" s="3">
+        <v>722100</v>
+      </c>
+      <c r="P21" s="3">
         <v>182500</v>
       </c>
-      <c r="F21" s="3">
-        <v>242600</v>
-      </c>
-      <c r="G21" s="3">
-        <v>186700</v>
-      </c>
-      <c r="H21" s="3">
-        <v>168300</v>
-      </c>
-      <c r="I21" s="3">
-        <v>155200</v>
-      </c>
-      <c r="J21" s="3">
-        <v>183100</v>
-      </c>
-      <c r="K21" s="3">
-        <v>204800</v>
-      </c>
-      <c r="L21" s="3">
-        <v>154700</v>
-      </c>
-      <c r="M21" s="3">
-        <v>121200</v>
-      </c>
-      <c r="N21" s="3">
-        <v>722100</v>
-      </c>
-      <c r="O21" s="3">
-        <v>182500</v>
-      </c>
-      <c r="P21" s="3">
+      <c r="Q21" s="3">
         <v>125700</v>
       </c>
-      <c r="Q21" s="3">
+      <c r="R21" s="3">
         <v>127500</v>
       </c>
-      <c r="R21" s="3">
+      <c r="S21" s="3">
         <v>131400</v>
       </c>
-      <c r="S21" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="T21" s="3" t="s">
         <v>3</v>
       </c>
       <c r="U21" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="22" spans="3:21" x14ac:dyDescent="0.2">
+      <c r="V21" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="22" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C22" s="1" t="s">
         <v>17</v>
       </c>
       <c r="D22" s="3">
-        <v>121300</v>
+        <v>147400</v>
       </c>
       <c r="E22" s="3">
-        <v>116900</v>
+        <v>123600</v>
       </c>
       <c r="F22" s="3">
-        <v>98700</v>
+        <v>119100</v>
       </c>
       <c r="G22" s="3">
-        <v>74900</v>
+        <v>100600</v>
       </c>
       <c r="H22" s="3">
-        <v>44000</v>
+        <v>76300</v>
       </c>
       <c r="I22" s="3">
-        <v>66000</v>
+        <v>44800</v>
       </c>
       <c r="J22" s="3">
+        <v>67200</v>
+      </c>
+      <c r="K22" s="3">
         <v>61800</v>
       </c>
-      <c r="K22" s="3">
+      <c r="L22" s="3">
         <v>41500</v>
       </c>
-      <c r="L22" s="3">
+      <c r="M22" s="3">
         <v>35000</v>
       </c>
-      <c r="M22" s="3">
+      <c r="N22" s="3">
         <v>26600</v>
       </c>
-      <c r="N22" s="3">
+      <c r="O22" s="3">
         <v>135600</v>
       </c>
-      <c r="O22" s="3">
+      <c r="P22" s="3">
         <v>28000</v>
       </c>
-      <c r="P22" s="3">
+      <c r="Q22" s="3">
         <v>10400</v>
       </c>
-      <c r="Q22" s="3">
+      <c r="R22" s="3">
         <v>40900</v>
       </c>
-      <c r="R22" s="3">
+      <c r="S22" s="3">
         <v>35500</v>
       </c>
-      <c r="S22" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="T22" s="3" t="s">
         <v>3</v>
       </c>
       <c r="U22" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="23" spans="3:21" x14ac:dyDescent="0.2">
+      <c r="V22" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="23" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C23" s="1" t="s">
         <v>18</v>
       </c>
       <c r="D23" s="3">
-        <v>22000</v>
+        <v>30800</v>
       </c>
       <c r="E23" s="3">
-        <v>-2200</v>
+        <v>22400</v>
       </c>
       <c r="F23" s="3">
-        <v>85400</v>
+        <v>-2300</v>
       </c>
       <c r="G23" s="3">
-        <v>62200</v>
+        <v>87000</v>
       </c>
       <c r="H23" s="3">
-        <v>76900</v>
+        <v>63300</v>
       </c>
       <c r="I23" s="3">
-        <v>45000</v>
+        <v>78300</v>
       </c>
       <c r="J23" s="3">
+        <v>45900</v>
+      </c>
+      <c r="K23" s="3">
         <v>83400</v>
       </c>
-      <c r="K23" s="3">
+      <c r="L23" s="3">
         <v>128100</v>
       </c>
-      <c r="L23" s="3">
+      <c r="M23" s="3">
         <v>87300</v>
       </c>
-      <c r="M23" s="3">
+      <c r="N23" s="3">
         <v>65300</v>
       </c>
-      <c r="N23" s="3">
+      <c r="O23" s="3">
         <v>318000</v>
       </c>
-      <c r="O23" s="3">
+      <c r="P23" s="3">
         <v>85100</v>
       </c>
-      <c r="P23" s="3">
+      <c r="Q23" s="3">
         <v>49900</v>
       </c>
-      <c r="Q23" s="3">
+      <c r="R23" s="3">
         <v>30500</v>
       </c>
-      <c r="R23" s="3">
+      <c r="S23" s="3">
         <v>63700</v>
       </c>
-      <c r="S23" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="T23" s="3" t="s">
         <v>3</v>
       </c>
       <c r="U23" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="24" spans="3:21" x14ac:dyDescent="0.2">
+      <c r="V23" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="24" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C24" s="1" t="s">
         <v>19</v>
       </c>
       <c r="D24" s="3">
-        <v>-9500</v>
+        <v>-7200</v>
       </c>
       <c r="E24" s="3">
-        <v>-16800</v>
+        <v>-9700</v>
       </c>
       <c r="F24" s="3">
-        <v>3400</v>
+        <v>-17100</v>
       </c>
       <c r="G24" s="3">
-        <v>5400</v>
+        <v>3500</v>
       </c>
       <c r="H24" s="3">
-        <v>12500</v>
+        <v>5600</v>
       </c>
       <c r="I24" s="3">
-        <v>1800</v>
+        <v>12700</v>
       </c>
       <c r="J24" s="3">
+        <v>1900</v>
+      </c>
+      <c r="K24" s="3">
         <v>-23000</v>
       </c>
-      <c r="K24" s="3">
+      <c r="L24" s="3">
         <v>19700</v>
       </c>
-      <c r="L24" s="3">
+      <c r="M24" s="3">
         <v>28300</v>
       </c>
-      <c r="M24" s="3">
+      <c r="N24" s="3">
         <v>20400</v>
       </c>
-      <c r="N24" s="3">
+      <c r="O24" s="3">
         <v>85300</v>
       </c>
-      <c r="O24" s="3">
+      <c r="P24" s="3">
         <v>7000</v>
       </c>
-      <c r="P24" s="3">
+      <c r="Q24" s="3">
         <v>16600</v>
-      </c>
-      <c r="Q24" s="3">
-        <v>9800</v>
       </c>
       <c r="R24" s="3">
         <v>9800</v>
       </c>
-      <c r="S24" s="3" t="s">
-        <v>3</v>
+      <c r="S24" s="3">
+        <v>9800</v>
       </c>
       <c r="T24" s="3" t="s">
         <v>3</v>
@@ -1641,8 +1687,11 @@
       <c r="U24" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="25" spans="3:21" x14ac:dyDescent="0.2">
+      <c r="V24" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="25" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C25" s="1" t="s">
         <v>20</v>
       </c>
@@ -1700,126 +1749,135 @@
       <c r="U25" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="26" spans="3:21" x14ac:dyDescent="0.2">
+      <c r="V25" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="26" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C26" s="1" t="s">
         <v>21</v>
       </c>
       <c r="D26" s="3">
-        <v>31500</v>
+        <v>38000</v>
       </c>
       <c r="E26" s="3">
-        <v>14500</v>
+        <v>32100</v>
       </c>
       <c r="F26" s="3">
-        <v>81900</v>
+        <v>14800</v>
       </c>
       <c r="G26" s="3">
-        <v>56700</v>
+        <v>83500</v>
       </c>
       <c r="H26" s="3">
-        <v>64400</v>
+        <v>57800</v>
       </c>
       <c r="I26" s="3">
-        <v>43200</v>
+        <v>65600</v>
       </c>
       <c r="J26" s="3">
+        <v>44000</v>
+      </c>
+      <c r="K26" s="3">
         <v>106400</v>
       </c>
-      <c r="K26" s="3">
+      <c r="L26" s="3">
         <v>108400</v>
       </c>
-      <c r="L26" s="3">
+      <c r="M26" s="3">
         <v>59100</v>
       </c>
-      <c r="M26" s="3">
+      <c r="N26" s="3">
         <v>44900</v>
       </c>
-      <c r="N26" s="3">
+      <c r="O26" s="3">
         <v>232700</v>
       </c>
-      <c r="O26" s="3">
+      <c r="P26" s="3">
         <v>78100</v>
       </c>
-      <c r="P26" s="3">
+      <c r="Q26" s="3">
         <v>33300</v>
       </c>
-      <c r="Q26" s="3">
+      <c r="R26" s="3">
         <v>20700</v>
       </c>
-      <c r="R26" s="3">
+      <c r="S26" s="3">
         <v>53900</v>
       </c>
-      <c r="S26" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="T26" s="3" t="s">
         <v>3</v>
       </c>
       <c r="U26" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="27" spans="3:21" x14ac:dyDescent="0.2">
+      <c r="V26" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="27" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C27" s="1" t="s">
         <v>22</v>
       </c>
       <c r="D27" s="3">
-        <v>31500</v>
+        <v>38000</v>
       </c>
       <c r="E27" s="3">
-        <v>14500</v>
+        <v>32100</v>
       </c>
       <c r="F27" s="3">
-        <v>81900</v>
+        <v>14800</v>
       </c>
       <c r="G27" s="3">
-        <v>56700</v>
+        <v>83500</v>
       </c>
       <c r="H27" s="3">
-        <v>64400</v>
+        <v>57800</v>
       </c>
       <c r="I27" s="3">
-        <v>43200</v>
+        <v>65600</v>
       </c>
       <c r="J27" s="3">
+        <v>44000</v>
+      </c>
+      <c r="K27" s="3">
         <v>106400</v>
       </c>
-      <c r="K27" s="3">
+      <c r="L27" s="3">
         <v>108400</v>
       </c>
-      <c r="L27" s="3">
+      <c r="M27" s="3">
         <v>59100</v>
       </c>
-      <c r="M27" s="3">
+      <c r="N27" s="3">
         <v>44900</v>
       </c>
-      <c r="N27" s="3">
+      <c r="O27" s="3">
         <v>201800</v>
       </c>
-      <c r="O27" s="3">
+      <c r="P27" s="3">
         <v>69500</v>
       </c>
-      <c r="P27" s="3">
+      <c r="Q27" s="3">
         <v>23100</v>
       </c>
-      <c r="Q27" s="3">
+      <c r="R27" s="3">
         <v>16800</v>
       </c>
-      <c r="R27" s="3">
+      <c r="S27" s="3">
         <v>51600</v>
       </c>
-      <c r="S27" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="T27" s="3" t="s">
         <v>3</v>
       </c>
       <c r="U27" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="28" spans="3:21" x14ac:dyDescent="0.2">
+      <c r="V27" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="28" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C28" s="1" t="s">
         <v>23</v>
       </c>
@@ -1877,8 +1935,11 @@
       <c r="U28" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="29" spans="3:21" x14ac:dyDescent="0.2">
+      <c r="V28" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="29" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C29" s="1" t="s">
         <v>24</v>
       </c>
@@ -1906,38 +1967,41 @@
       <c r="K29" s="3" t="s">
         <v>3</v>
       </c>
-      <c r="L29" s="3">
-        <v>0</v>
+      <c r="L29" s="3" t="s">
+        <v>3</v>
       </c>
       <c r="M29" s="3">
         <v>0</v>
       </c>
       <c r="N29" s="3">
+        <v>0</v>
+      </c>
+      <c r="O29" s="3">
         <v>71800</v>
       </c>
-      <c r="O29" s="3">
+      <c r="P29" s="3">
         <v>15600</v>
       </c>
-      <c r="P29" s="3">
+      <c r="Q29" s="3">
         <v>11400</v>
       </c>
-      <c r="Q29" s="3">
+      <c r="R29" s="3">
         <v>1100</v>
       </c>
-      <c r="R29" s="3">
+      <c r="S29" s="3">
         <v>-2900</v>
       </c>
-      <c r="S29" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="T29" s="3" t="s">
         <v>3</v>
       </c>
       <c r="U29" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="30" spans="3:21" x14ac:dyDescent="0.2">
+      <c r="V29" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="30" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C30" s="1" t="s">
         <v>25</v>
       </c>
@@ -1995,8 +2059,11 @@
       <c r="U30" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="31" spans="3:21" x14ac:dyDescent="0.2">
+      <c r="V30" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="31" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C31" s="1" t="s">
         <v>26</v>
       </c>
@@ -2054,126 +2121,135 @@
       <c r="U31" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="32" spans="3:21" x14ac:dyDescent="0.2">
+      <c r="V31" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="32" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C32" s="1" t="s">
         <v>27</v>
       </c>
       <c r="D32" s="3">
-        <v>5400</v>
+        <v>4100</v>
       </c>
       <c r="E32" s="3">
-        <v>10300</v>
+        <v>5600</v>
       </c>
       <c r="F32" s="3">
-        <v>-8900</v>
+        <v>10500</v>
       </c>
       <c r="G32" s="3">
-        <v>13900</v>
+        <v>-9000</v>
       </c>
       <c r="H32" s="3">
-        <v>22200</v>
+        <v>14200</v>
       </c>
       <c r="I32" s="3">
-        <v>-5000</v>
+        <v>22600</v>
       </c>
       <c r="J32" s="3">
+        <v>-5100</v>
+      </c>
+      <c r="K32" s="3">
         <v>-3800</v>
       </c>
-      <c r="K32" s="3">
+      <c r="L32" s="3">
         <v>-8500</v>
       </c>
-      <c r="L32" s="3">
+      <c r="M32" s="3">
         <v>-7000</v>
       </c>
-      <c r="M32" s="3">
+      <c r="N32" s="3">
         <v>-1500</v>
       </c>
-      <c r="N32" s="3">
+      <c r="O32" s="3">
         <v>-48900</v>
       </c>
-      <c r="O32" s="3">
+      <c r="P32" s="3">
         <v>-2700</v>
       </c>
-      <c r="P32" s="3">
+      <c r="Q32" s="3">
         <v>15400</v>
       </c>
-      <c r="Q32" s="3">
+      <c r="R32" s="3">
         <v>-13200</v>
       </c>
-      <c r="R32" s="3">
+      <c r="S32" s="3">
         <v>-3000</v>
       </c>
-      <c r="S32" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="T32" s="3" t="s">
         <v>3</v>
       </c>
       <c r="U32" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="33" spans="2:21" x14ac:dyDescent="0.2">
+      <c r="V32" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="33" spans="2:22" x14ac:dyDescent="0.2">
       <c r="C33" s="1" t="s">
         <v>28</v>
       </c>
       <c r="D33" s="3">
-        <v>31500</v>
+        <v>38000</v>
       </c>
       <c r="E33" s="3">
-        <v>14500</v>
+        <v>32100</v>
       </c>
       <c r="F33" s="3">
-        <v>81900</v>
+        <v>14800</v>
       </c>
       <c r="G33" s="3">
-        <v>56700</v>
+        <v>83500</v>
       </c>
       <c r="H33" s="3">
-        <v>64400</v>
+        <v>57800</v>
       </c>
       <c r="I33" s="3">
-        <v>43200</v>
+        <v>65600</v>
       </c>
       <c r="J33" s="3">
+        <v>44000</v>
+      </c>
+      <c r="K33" s="3">
         <v>106400</v>
       </c>
-      <c r="K33" s="3">
+      <c r="L33" s="3">
         <v>108400</v>
       </c>
-      <c r="L33" s="3">
+      <c r="M33" s="3">
         <v>59100</v>
       </c>
-      <c r="M33" s="3">
+      <c r="N33" s="3">
         <v>44900</v>
       </c>
-      <c r="N33" s="3">
+      <c r="O33" s="3">
         <v>273600</v>
       </c>
-      <c r="O33" s="3">
+      <c r="P33" s="3">
         <v>85100</v>
       </c>
-      <c r="P33" s="3">
+      <c r="Q33" s="3">
         <v>34500</v>
       </c>
-      <c r="Q33" s="3">
+      <c r="R33" s="3">
         <v>17900</v>
       </c>
-      <c r="R33" s="3">
+      <c r="S33" s="3">
         <v>48700</v>
       </c>
-      <c r="S33" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="T33" s="3" t="s">
         <v>3</v>
       </c>
       <c r="U33" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="34" spans="2:21" x14ac:dyDescent="0.2">
+      <c r="V33" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="34" spans="2:22" x14ac:dyDescent="0.2">
       <c r="C34" s="1" t="s">
         <v>29</v>
       </c>
@@ -2231,131 +2307,140 @@
       <c r="U34" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="35" spans="2:21" x14ac:dyDescent="0.2">
+      <c r="V34" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="35" spans="2:22" x14ac:dyDescent="0.2">
       <c r="C35" s="1" t="s">
         <v>30</v>
       </c>
       <c r="D35" s="3">
-        <v>31500</v>
+        <v>38000</v>
       </c>
       <c r="E35" s="3">
-        <v>14500</v>
+        <v>32100</v>
       </c>
       <c r="F35" s="3">
-        <v>81900</v>
+        <v>14800</v>
       </c>
       <c r="G35" s="3">
-        <v>56700</v>
+        <v>83500</v>
       </c>
       <c r="H35" s="3">
-        <v>64400</v>
+        <v>57800</v>
       </c>
       <c r="I35" s="3">
-        <v>43200</v>
+        <v>65600</v>
       </c>
       <c r="J35" s="3">
+        <v>44000</v>
+      </c>
+      <c r="K35" s="3">
         <v>106400</v>
       </c>
-      <c r="K35" s="3">
+      <c r="L35" s="3">
         <v>108400</v>
       </c>
-      <c r="L35" s="3">
+      <c r="M35" s="3">
         <v>59100</v>
       </c>
-      <c r="M35" s="3">
+      <c r="N35" s="3">
         <v>44900</v>
       </c>
-      <c r="N35" s="3">
+      <c r="O35" s="3">
         <v>273600</v>
       </c>
-      <c r="O35" s="3">
+      <c r="P35" s="3">
         <v>85100</v>
       </c>
-      <c r="P35" s="3">
+      <c r="Q35" s="3">
         <v>34500</v>
       </c>
-      <c r="Q35" s="3">
+      <c r="R35" s="3">
         <v>17900</v>
       </c>
-      <c r="R35" s="3">
+      <c r="S35" s="3">
         <v>48700</v>
       </c>
-      <c r="S35" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="T35" s="3" t="s">
         <v>3</v>
       </c>
       <c r="U35" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="37" spans="2:21" x14ac:dyDescent="0.2">
+      <c r="V35" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="37" spans="2:22" x14ac:dyDescent="0.2">
       <c r="B37" s="1" t="s">
         <v>31</v>
       </c>
     </row>
-    <row r="38" spans="2:21" x14ac:dyDescent="0.2">
+    <row r="38" spans="2:22" x14ac:dyDescent="0.2">
       <c r="C38" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D38" s="2">
+        <v>45199</v>
+      </c>
+      <c r="E38" s="2">
         <v>45107</v>
       </c>
-      <c r="E38" s="2">
+      <c r="F38" s="2">
         <v>45016</v>
       </c>
-      <c r="F38" s="2">
+      <c r="G38" s="2">
         <v>44926</v>
       </c>
-      <c r="G38" s="2">
+      <c r="H38" s="2">
         <v>44834</v>
       </c>
-      <c r="H38" s="2">
+      <c r="I38" s="2">
         <v>44742</v>
       </c>
-      <c r="I38" s="2">
+      <c r="J38" s="2">
         <v>44651</v>
       </c>
-      <c r="J38" s="2">
+      <c r="K38" s="2">
         <v>44561</v>
       </c>
-      <c r="K38" s="2">
+      <c r="L38" s="2">
         <v>44469</v>
       </c>
-      <c r="L38" s="2">
+      <c r="M38" s="2">
         <v>44377</v>
       </c>
-      <c r="M38" s="2">
+      <c r="N38" s="2">
         <v>44286</v>
       </c>
-      <c r="N38" s="2">
+      <c r="O38" s="2">
         <v>44196</v>
       </c>
-      <c r="O38" s="2">
+      <c r="P38" s="2">
         <v>44104</v>
       </c>
-      <c r="P38" s="2">
+      <c r="Q38" s="2">
         <v>44012</v>
       </c>
-      <c r="Q38" s="2">
+      <c r="R38" s="2">
         <v>43921</v>
       </c>
-      <c r="R38" s="2">
+      <c r="S38" s="2">
         <v>43830</v>
       </c>
-      <c r="S38" s="2" t="s">
-        <v>3</v>
-      </c>
       <c r="T38" s="2" t="s">
         <v>3</v>
       </c>
       <c r="U38" s="2" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="39" spans="2:21" x14ac:dyDescent="0.2">
+      <c r="V38" s="2" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="39" spans="2:22" x14ac:dyDescent="0.2">
       <c r="C39" s="1" t="s">
         <v>32</v>
       </c>
@@ -2377,8 +2462,9 @@
       <c r="S39" s="3"/>
       <c r="T39" s="3"/>
       <c r="U39" s="3"/>
-    </row>
-    <row r="40" spans="2:21" x14ac:dyDescent="0.2">
+      <c r="V39" s="3"/>
+    </row>
+    <row r="40" spans="2:22" x14ac:dyDescent="0.2">
       <c r="C40" s="1" t="s">
         <v>33</v>
       </c>
@@ -2400,58 +2486,59 @@
       <c r="S40" s="3"/>
       <c r="T40" s="3"/>
       <c r="U40" s="3"/>
-    </row>
-    <row r="41" spans="2:21" x14ac:dyDescent="0.2">
+      <c r="V40" s="3"/>
+    </row>
+    <row r="41" spans="2:22" x14ac:dyDescent="0.2">
       <c r="C41" s="1" t="s">
         <v>34</v>
       </c>
       <c r="D41" s="3">
-        <v>927700</v>
+        <v>908300</v>
       </c>
       <c r="E41" s="3">
-        <v>834400</v>
+        <v>945100</v>
       </c>
       <c r="F41" s="3">
-        <v>1179100</v>
+        <v>850100</v>
       </c>
       <c r="G41" s="3">
-        <v>849700</v>
+        <v>1201300</v>
       </c>
       <c r="H41" s="3">
-        <v>627300</v>
+        <v>865700</v>
       </c>
       <c r="I41" s="3">
-        <v>885900</v>
+        <v>639100</v>
       </c>
       <c r="J41" s="3">
+        <v>902500</v>
+      </c>
+      <c r="K41" s="3">
         <v>514700</v>
       </c>
-      <c r="K41" s="3">
+      <c r="L41" s="3">
         <v>580200</v>
       </c>
-      <c r="L41" s="3">
+      <c r="M41" s="3">
         <v>873500</v>
       </c>
-      <c r="M41" s="3">
+      <c r="N41" s="3">
         <v>517100</v>
       </c>
-      <c r="N41" s="3">
+      <c r="O41" s="3">
         <v>691200</v>
       </c>
-      <c r="O41" s="3">
+      <c r="P41" s="3">
         <v>343000</v>
       </c>
-      <c r="P41" s="3">
+      <c r="Q41" s="3">
         <v>461300</v>
       </c>
-      <c r="Q41" s="3">
+      <c r="R41" s="3">
         <v>484000</v>
       </c>
-      <c r="R41" s="3" t="s">
-        <v>3</v>
-      </c>
-      <c r="S41" s="3">
-        <v>0</v>
+      <c r="S41" s="3" t="s">
+        <v>3</v>
       </c>
       <c r="T41" s="3">
         <v>0</v>
@@ -2459,8 +2546,11 @@
       <c r="U41" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="42" spans="2:21" x14ac:dyDescent="0.2">
+      <c r="V41" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="42" spans="2:22" x14ac:dyDescent="0.2">
       <c r="C42" s="1" t="s">
         <v>35</v>
       </c>
@@ -2498,19 +2588,19 @@
         <v>0</v>
       </c>
       <c r="O42" s="3">
+        <v>0</v>
+      </c>
+      <c r="P42" s="3">
         <v>416200</v>
       </c>
-      <c r="P42" s="3">
+      <c r="Q42" s="3">
         <v>448700</v>
       </c>
-      <c r="Q42" s="3">
+      <c r="R42" s="3">
         <v>190300</v>
       </c>
-      <c r="R42" s="3" t="s">
-        <v>3</v>
-      </c>
-      <c r="S42" s="3">
-        <v>0</v>
+      <c r="S42" s="3" t="s">
+        <v>3</v>
       </c>
       <c r="T42" s="3">
         <v>0</v>
@@ -2518,58 +2608,61 @@
       <c r="U42" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="43" spans="2:21" x14ac:dyDescent="0.2">
+      <c r="V42" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="43" spans="2:22" x14ac:dyDescent="0.2">
       <c r="C43" s="1" t="s">
         <v>36</v>
       </c>
       <c r="D43" s="3">
-        <v>359100</v>
+        <v>415800</v>
       </c>
       <c r="E43" s="3">
-        <v>326800</v>
+        <v>365800</v>
       </c>
       <c r="F43" s="3">
+        <v>332900</v>
+      </c>
+      <c r="G43" s="3">
+        <v>344800</v>
+      </c>
+      <c r="H43" s="3">
         <v>338500</v>
       </c>
-      <c r="G43" s="3">
-        <v>332200</v>
-      </c>
-      <c r="H43" s="3">
-        <v>274500</v>
-      </c>
       <c r="I43" s="3">
-        <v>312200</v>
+        <v>279700</v>
       </c>
       <c r="J43" s="3">
+        <v>318100</v>
+      </c>
+      <c r="K43" s="3">
         <v>242200</v>
       </c>
-      <c r="K43" s="3">
+      <c r="L43" s="3">
         <v>261200</v>
       </c>
-      <c r="L43" s="3">
+      <c r="M43" s="3">
         <v>183400</v>
       </c>
-      <c r="M43" s="3">
+      <c r="N43" s="3">
         <v>148700</v>
       </c>
-      <c r="N43" s="3">
+      <c r="O43" s="3">
         <v>192600</v>
       </c>
-      <c r="O43" s="3">
+      <c r="P43" s="3">
         <v>353300</v>
       </c>
-      <c r="P43" s="3">
+      <c r="Q43" s="3">
         <v>375600</v>
       </c>
-      <c r="Q43" s="3">
+      <c r="R43" s="3">
         <v>280100</v>
       </c>
-      <c r="R43" s="3" t="s">
-        <v>3</v>
-      </c>
-      <c r="S43" s="3">
-        <v>0</v>
+      <c r="S43" s="3" t="s">
+        <v>3</v>
       </c>
       <c r="T43" s="3">
         <v>0</v>
@@ -2577,58 +2670,61 @@
       <c r="U43" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="44" spans="2:21" x14ac:dyDescent="0.2">
+      <c r="V43" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="44" spans="2:22" x14ac:dyDescent="0.2">
       <c r="C44" s="1" t="s">
         <v>37</v>
       </c>
       <c r="D44" s="3">
-        <v>1286500</v>
+        <v>1357200</v>
       </c>
       <c r="E44" s="3">
-        <v>1276400</v>
+        <v>1310700</v>
       </c>
       <c r="F44" s="3">
-        <v>1305300</v>
+        <v>1300400</v>
       </c>
       <c r="G44" s="3">
-        <v>1220500</v>
+        <v>1329800</v>
       </c>
       <c r="H44" s="3">
-        <v>1132500</v>
+        <v>1243400</v>
       </c>
       <c r="I44" s="3">
-        <v>977900</v>
+        <v>1153800</v>
       </c>
       <c r="J44" s="3">
+        <v>996300</v>
+      </c>
+      <c r="K44" s="3">
         <v>884100</v>
       </c>
-      <c r="K44" s="3">
+      <c r="L44" s="3">
         <v>898200</v>
       </c>
-      <c r="L44" s="3">
+      <c r="M44" s="3">
         <v>714100</v>
       </c>
-      <c r="M44" s="3">
+      <c r="N44" s="3">
         <v>642800</v>
       </c>
-      <c r="N44" s="3">
+      <c r="O44" s="3">
         <v>731700</v>
       </c>
-      <c r="O44" s="3">
+      <c r="P44" s="3">
         <v>1243300</v>
       </c>
-      <c r="P44" s="3">
+      <c r="Q44" s="3">
         <v>1113600</v>
       </c>
-      <c r="Q44" s="3">
+      <c r="R44" s="3">
         <v>1036500</v>
       </c>
-      <c r="R44" s="3" t="s">
-        <v>3</v>
-      </c>
-      <c r="S44" s="3">
-        <v>0</v>
+      <c r="S44" s="3" t="s">
+        <v>3</v>
       </c>
       <c r="T44" s="3">
         <v>0</v>
@@ -2636,58 +2732,61 @@
       <c r="U44" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="45" spans="2:21" x14ac:dyDescent="0.2">
+      <c r="V44" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="45" spans="2:22" x14ac:dyDescent="0.2">
       <c r="C45" s="1" t="s">
         <v>38</v>
       </c>
       <c r="D45" s="3">
-        <v>62400</v>
+        <v>36200</v>
       </c>
       <c r="E45" s="3">
-        <v>60800</v>
+        <v>63500</v>
       </c>
       <c r="F45" s="3">
-        <v>39000</v>
+        <v>61900</v>
       </c>
       <c r="G45" s="3">
-        <v>72900</v>
+        <v>39700</v>
       </c>
       <c r="H45" s="3">
-        <v>80100</v>
+        <v>74200</v>
       </c>
       <c r="I45" s="3">
-        <v>300500</v>
+        <v>81600</v>
       </c>
       <c r="J45" s="3">
+        <v>306200</v>
+      </c>
+      <c r="K45" s="3">
         <v>129600</v>
       </c>
-      <c r="K45" s="3">
+      <c r="L45" s="3">
         <v>48900</v>
       </c>
-      <c r="L45" s="3">
+      <c r="M45" s="3">
         <v>43600</v>
       </c>
-      <c r="M45" s="3">
+      <c r="N45" s="3">
         <v>16800</v>
       </c>
-      <c r="N45" s="3">
+      <c r="O45" s="3">
         <v>18400</v>
       </c>
-      <c r="O45" s="3">
+      <c r="P45" s="3">
         <v>62900</v>
       </c>
-      <c r="P45" s="3">
+      <c r="Q45" s="3">
         <v>84900</v>
       </c>
-      <c r="Q45" s="3">
+      <c r="R45" s="3">
         <v>154400</v>
       </c>
-      <c r="R45" s="3" t="s">
-        <v>3</v>
-      </c>
-      <c r="S45" s="3">
-        <v>0</v>
+      <c r="S45" s="3" t="s">
+        <v>3</v>
       </c>
       <c r="T45" s="3">
         <v>0</v>
@@ -2695,58 +2794,61 @@
       <c r="U45" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="46" spans="2:21" x14ac:dyDescent="0.2">
+      <c r="V45" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="46" spans="2:22" x14ac:dyDescent="0.2">
       <c r="C46" s="1" t="s">
         <v>39</v>
       </c>
       <c r="D46" s="3">
-        <v>2635600</v>
+        <v>2717400</v>
       </c>
       <c r="E46" s="3">
-        <v>2498400</v>
+        <v>2685100</v>
       </c>
       <c r="F46" s="3">
-        <v>2861900</v>
+        <v>2545300</v>
       </c>
       <c r="G46" s="3">
-        <v>2475400</v>
+        <v>2915600</v>
       </c>
       <c r="H46" s="3">
-        <v>2114500</v>
+        <v>2521800</v>
       </c>
       <c r="I46" s="3">
-        <v>2476600</v>
+        <v>2154200</v>
       </c>
       <c r="J46" s="3">
+        <v>2523100</v>
+      </c>
+      <c r="K46" s="3">
         <v>1770500</v>
       </c>
-      <c r="K46" s="3">
+      <c r="L46" s="3">
         <v>1788600</v>
       </c>
-      <c r="L46" s="3">
+      <c r="M46" s="3">
         <v>1814500</v>
       </c>
-      <c r="M46" s="3">
+      <c r="N46" s="3">
         <v>1325500</v>
       </c>
-      <c r="N46" s="3">
+      <c r="O46" s="3">
         <v>1633900</v>
       </c>
-      <c r="O46" s="3">
+      <c r="P46" s="3">
         <v>2418800</v>
       </c>
-      <c r="P46" s="3">
+      <c r="Q46" s="3">
         <v>2484100</v>
       </c>
-      <c r="Q46" s="3">
+      <c r="R46" s="3">
         <v>2145300</v>
       </c>
-      <c r="R46" s="3" t="s">
-        <v>3</v>
-      </c>
-      <c r="S46" s="3">
-        <v>0</v>
+      <c r="S46" s="3" t="s">
+        <v>3</v>
       </c>
       <c r="T46" s="3">
         <v>0</v>
@@ -2754,58 +2856,61 @@
       <c r="U46" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="47" spans="2:21" x14ac:dyDescent="0.2">
+      <c r="V46" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="47" spans="2:22" x14ac:dyDescent="0.2">
       <c r="C47" s="1" t="s">
         <v>40</v>
       </c>
       <c r="D47" s="3">
-        <v>338100</v>
+        <v>343400</v>
       </c>
       <c r="E47" s="3">
-        <v>393200</v>
+        <v>344400</v>
       </c>
       <c r="F47" s="3">
-        <v>406100</v>
+        <v>400600</v>
       </c>
       <c r="G47" s="3">
-        <v>403300</v>
+        <v>413700</v>
       </c>
       <c r="H47" s="3">
-        <v>478200</v>
+        <v>410800</v>
       </c>
       <c r="I47" s="3">
-        <v>472300</v>
+        <v>487100</v>
       </c>
       <c r="J47" s="3">
+        <v>481200</v>
+      </c>
+      <c r="K47" s="3">
         <v>337700</v>
       </c>
-      <c r="K47" s="3">
+      <c r="L47" s="3">
         <v>358900</v>
       </c>
-      <c r="L47" s="3">
+      <c r="M47" s="3">
         <v>338500</v>
       </c>
-      <c r="M47" s="3">
+      <c r="N47" s="3">
         <v>327400</v>
       </c>
-      <c r="N47" s="3">
+      <c r="O47" s="3">
         <v>354800</v>
       </c>
-      <c r="O47" s="3">
+      <c r="P47" s="3">
         <v>285200</v>
       </c>
-      <c r="P47" s="3">
+      <c r="Q47" s="3">
         <v>291300</v>
       </c>
-      <c r="Q47" s="3">
+      <c r="R47" s="3">
         <v>297400</v>
       </c>
-      <c r="R47" s="3" t="s">
-        <v>3</v>
-      </c>
-      <c r="S47" s="3">
-        <v>0</v>
+      <c r="S47" s="3" t="s">
+        <v>3</v>
       </c>
       <c r="T47" s="3">
         <v>0</v>
@@ -2813,58 +2918,61 @@
       <c r="U47" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="48" spans="2:21" x14ac:dyDescent="0.2">
+      <c r="V47" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="48" spans="2:22" x14ac:dyDescent="0.2">
       <c r="C48" s="1" t="s">
         <v>41</v>
       </c>
       <c r="D48" s="3">
-        <v>3997400</v>
+        <v>4274000</v>
       </c>
       <c r="E48" s="3">
-        <v>3913300</v>
+        <v>4072500</v>
       </c>
       <c r="F48" s="3">
-        <v>3871900</v>
+        <v>3986800</v>
       </c>
       <c r="G48" s="3">
-        <v>3418200</v>
+        <v>3944600</v>
       </c>
       <c r="H48" s="3">
-        <v>3124300</v>
+        <v>3482300</v>
       </c>
       <c r="I48" s="3">
-        <v>2594700</v>
+        <v>3182900</v>
       </c>
       <c r="J48" s="3">
+        <v>2643400</v>
+      </c>
+      <c r="K48" s="3">
         <v>2083000</v>
       </c>
-      <c r="K48" s="3">
+      <c r="L48" s="3">
         <v>1791900</v>
       </c>
-      <c r="L48" s="3">
+      <c r="M48" s="3">
         <v>1580000</v>
       </c>
-      <c r="M48" s="3">
+      <c r="N48" s="3">
         <v>1422400</v>
       </c>
-      <c r="N48" s="3">
+      <c r="O48" s="3">
         <v>1463100</v>
       </c>
-      <c r="O48" s="3">
+      <c r="P48" s="3">
         <v>4076200</v>
       </c>
-      <c r="P48" s="3">
+      <c r="Q48" s="3">
         <v>4057500</v>
       </c>
-      <c r="Q48" s="3">
+      <c r="R48" s="3">
         <v>3266400</v>
       </c>
-      <c r="R48" s="3" t="s">
-        <v>3</v>
-      </c>
-      <c r="S48" s="3">
-        <v>0</v>
+      <c r="S48" s="3" t="s">
+        <v>3</v>
       </c>
       <c r="T48" s="3">
         <v>0</v>
@@ -2872,58 +2980,61 @@
       <c r="U48" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="49" spans="3:21" x14ac:dyDescent="0.2">
+      <c r="V48" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="49" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C49" s="1" t="s">
         <v>42</v>
       </c>
       <c r="D49" s="3">
-        <v>1015700</v>
+        <v>1054100</v>
       </c>
       <c r="E49" s="3">
-        <v>1015900</v>
+        <v>1034700</v>
       </c>
       <c r="F49" s="3">
-        <v>1012800</v>
+        <v>1034900</v>
       </c>
       <c r="G49" s="3">
-        <v>1012800</v>
+        <v>1031900</v>
       </c>
       <c r="H49" s="3">
-        <v>972900</v>
+        <v>1031900</v>
       </c>
       <c r="I49" s="3">
-        <v>962800</v>
+        <v>991100</v>
       </c>
       <c r="J49" s="3">
+        <v>980900</v>
+      </c>
+      <c r="K49" s="3">
         <v>380900</v>
       </c>
-      <c r="K49" s="3">
+      <c r="L49" s="3">
         <v>213500</v>
       </c>
-      <c r="L49" s="3">
+      <c r="M49" s="3">
         <v>202700</v>
       </c>
-      <c r="M49" s="3">
+      <c r="N49" s="3">
         <v>194000</v>
       </c>
-      <c r="N49" s="3">
+      <c r="O49" s="3">
         <v>202900</v>
       </c>
-      <c r="O49" s="3">
+      <c r="P49" s="3">
         <v>964700</v>
       </c>
-      <c r="P49" s="3">
+      <c r="Q49" s="3">
         <v>971300</v>
       </c>
-      <c r="Q49" s="3">
+      <c r="R49" s="3">
         <v>796000</v>
       </c>
-      <c r="R49" s="3" t="s">
-        <v>3</v>
-      </c>
-      <c r="S49" s="3">
-        <v>0</v>
+      <c r="S49" s="3" t="s">
+        <v>3</v>
       </c>
       <c r="T49" s="3">
         <v>0</v>
@@ -2931,8 +3042,11 @@
       <c r="U49" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="50" spans="3:21" x14ac:dyDescent="0.2">
+      <c r="V49" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="50" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C50" s="1" t="s">
         <v>43</v>
       </c>
@@ -2990,8 +3104,11 @@
       <c r="U50" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="51" spans="3:21" x14ac:dyDescent="0.2">
+      <c r="V50" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="51" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C51" s="1" t="s">
         <v>44</v>
       </c>
@@ -3049,58 +3166,61 @@
       <c r="U51" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="52" spans="3:21" x14ac:dyDescent="0.2">
+      <c r="V51" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="52" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C52" s="1" t="s">
         <v>45</v>
       </c>
       <c r="D52" s="3">
-        <v>107400</v>
+        <v>112100</v>
       </c>
       <c r="E52" s="3">
-        <v>69000</v>
+        <v>109400</v>
       </c>
       <c r="F52" s="3">
-        <v>45600</v>
+        <v>70300</v>
       </c>
       <c r="G52" s="3">
-        <v>41800</v>
+        <v>46500</v>
       </c>
       <c r="H52" s="3">
-        <v>58900</v>
+        <v>42600</v>
       </c>
       <c r="I52" s="3">
-        <v>50900</v>
+        <v>60000</v>
       </c>
       <c r="J52" s="3">
+        <v>51800</v>
+      </c>
+      <c r="K52" s="3">
         <v>40800</v>
-      </c>
-      <c r="K52" s="3">
-        <v>30000</v>
       </c>
       <c r="L52" s="3">
         <v>30000</v>
       </c>
       <c r="M52" s="3">
+        <v>30000</v>
+      </c>
+      <c r="N52" s="3">
         <v>26400</v>
       </c>
-      <c r="N52" s="3">
+      <c r="O52" s="3">
         <v>28600</v>
       </c>
-      <c r="O52" s="3">
+      <c r="P52" s="3">
         <v>41100</v>
       </c>
-      <c r="P52" s="3">
+      <c r="Q52" s="3">
         <v>39800</v>
       </c>
-      <c r="Q52" s="3">
+      <c r="R52" s="3">
         <v>39300</v>
       </c>
-      <c r="R52" s="3" t="s">
-        <v>3</v>
-      </c>
-      <c r="S52" s="3">
-        <v>0</v>
+      <c r="S52" s="3" t="s">
+        <v>3</v>
       </c>
       <c r="T52" s="3">
         <v>0</v>
@@ -3108,8 +3228,11 @@
       <c r="U52" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="53" spans="3:21" x14ac:dyDescent="0.2">
+      <c r="V52" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="53" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C53" s="1" t="s">
         <v>46</v>
       </c>
@@ -3167,58 +3290,61 @@
       <c r="U53" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="54" spans="3:21" x14ac:dyDescent="0.2">
+      <c r="V53" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="54" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C54" s="1" t="s">
         <v>47</v>
       </c>
       <c r="D54" s="3">
-        <v>8094200</v>
+        <v>8500900</v>
       </c>
       <c r="E54" s="3">
-        <v>7889700</v>
+        <v>8246200</v>
       </c>
       <c r="F54" s="3">
-        <v>8198300</v>
+        <v>8037900</v>
       </c>
       <c r="G54" s="3">
-        <v>7351400</v>
+        <v>8352300</v>
       </c>
       <c r="H54" s="3">
-        <v>6748700</v>
+        <v>7489500</v>
       </c>
       <c r="I54" s="3">
-        <v>6557200</v>
+        <v>6875400</v>
       </c>
       <c r="J54" s="3">
+        <v>6680300</v>
+      </c>
+      <c r="K54" s="3">
         <v>4612900</v>
       </c>
-      <c r="K54" s="3">
+      <c r="L54" s="3">
         <v>4182900</v>
       </c>
-      <c r="L54" s="3">
+      <c r="M54" s="3">
         <v>3965700</v>
       </c>
-      <c r="M54" s="3">
+      <c r="N54" s="3">
         <v>3295800</v>
       </c>
-      <c r="N54" s="3">
+      <c r="O54" s="3">
         <v>3683300</v>
       </c>
-      <c r="O54" s="3">
+      <c r="P54" s="3">
         <v>7785900</v>
       </c>
-      <c r="P54" s="3">
+      <c r="Q54" s="3">
         <v>7844000</v>
       </c>
-      <c r="Q54" s="3">
+      <c r="R54" s="3">
         <v>6544400</v>
       </c>
-      <c r="R54" s="3" t="s">
-        <v>3</v>
-      </c>
-      <c r="S54" s="3">
-        <v>0</v>
+      <c r="S54" s="3" t="s">
+        <v>3</v>
       </c>
       <c r="T54" s="3">
         <v>0</v>
@@ -3226,8 +3352,11 @@
       <c r="U54" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="55" spans="3:21" x14ac:dyDescent="0.2">
+      <c r="V54" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="55" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C55" s="1" t="s">
         <v>48</v>
       </c>
@@ -3249,8 +3378,9 @@
       <c r="S55" s="3"/>
       <c r="T55" s="3"/>
       <c r="U55" s="3"/>
-    </row>
-    <row r="56" spans="3:21" x14ac:dyDescent="0.2">
+      <c r="V55" s="3"/>
+    </row>
+    <row r="56" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C56" s="1" t="s">
         <v>49</v>
       </c>
@@ -3272,58 +3402,59 @@
       <c r="S56" s="3"/>
       <c r="T56" s="3"/>
       <c r="U56" s="3"/>
-    </row>
-    <row r="57" spans="3:21" x14ac:dyDescent="0.2">
+      <c r="V56" s="3"/>
+    </row>
+    <row r="57" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C57" s="1" t="s">
         <v>50</v>
       </c>
       <c r="D57" s="3">
-        <v>2576300</v>
+        <v>2521200</v>
       </c>
       <c r="E57" s="3">
-        <v>2469300</v>
+        <v>2624700</v>
       </c>
       <c r="F57" s="3">
-        <v>2664300</v>
+        <v>2515700</v>
       </c>
       <c r="G57" s="3">
-        <v>2140100</v>
+        <v>2714300</v>
       </c>
       <c r="H57" s="3">
-        <v>1853700</v>
+        <v>2180300</v>
       </c>
       <c r="I57" s="3">
-        <v>1888400</v>
+        <v>1888500</v>
       </c>
       <c r="J57" s="3">
+        <v>1923900</v>
+      </c>
+      <c r="K57" s="3">
         <v>1273600</v>
       </c>
-      <c r="K57" s="3">
+      <c r="L57" s="3">
         <v>1091600</v>
       </c>
-      <c r="L57" s="3">
+      <c r="M57" s="3">
         <v>892400</v>
       </c>
-      <c r="M57" s="3">
+      <c r="N57" s="3">
         <v>787500</v>
       </c>
-      <c r="N57" s="3">
+      <c r="O57" s="3">
         <v>997900</v>
       </c>
-      <c r="O57" s="3">
+      <c r="P57" s="3">
         <v>1629100</v>
       </c>
-      <c r="P57" s="3">
+      <c r="Q57" s="3">
         <v>1636800</v>
       </c>
-      <c r="Q57" s="3">
+      <c r="R57" s="3">
         <v>1465500</v>
       </c>
-      <c r="R57" s="3" t="s">
-        <v>3</v>
-      </c>
-      <c r="S57" s="3">
-        <v>0</v>
+      <c r="S57" s="3" t="s">
+        <v>3</v>
       </c>
       <c r="T57" s="3">
         <v>0</v>
@@ -3331,58 +3462,61 @@
       <c r="U57" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="58" spans="3:21" x14ac:dyDescent="0.2">
+      <c r="V57" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="58" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C58" s="1" t="s">
         <v>51</v>
       </c>
       <c r="D58" s="3">
-        <v>331000</v>
+        <v>616500</v>
       </c>
       <c r="E58" s="3">
-        <v>340700</v>
+        <v>337200</v>
       </c>
       <c r="F58" s="3">
-        <v>342100</v>
+        <v>347100</v>
       </c>
       <c r="G58" s="3">
-        <v>243800</v>
+        <v>348500</v>
       </c>
       <c r="H58" s="3">
-        <v>111600</v>
+        <v>248400</v>
       </c>
       <c r="I58" s="3">
-        <v>118500</v>
+        <v>113700</v>
       </c>
       <c r="J58" s="3">
+        <v>120700</v>
+      </c>
+      <c r="K58" s="3">
         <v>173000</v>
       </c>
-      <c r="K58" s="3">
+      <c r="L58" s="3">
         <v>518800</v>
       </c>
-      <c r="L58" s="3">
+      <c r="M58" s="3">
         <v>465500</v>
       </c>
-      <c r="M58" s="3">
+      <c r="N58" s="3">
         <v>383200</v>
       </c>
-      <c r="N58" s="3">
+      <c r="O58" s="3">
         <v>448500</v>
       </c>
-      <c r="O58" s="3">
+      <c r="P58" s="3">
         <v>818100</v>
       </c>
-      <c r="P58" s="3">
+      <c r="Q58" s="3">
         <v>530100</v>
       </c>
-      <c r="Q58" s="3">
+      <c r="R58" s="3">
         <v>521100</v>
       </c>
-      <c r="R58" s="3" t="s">
-        <v>3</v>
-      </c>
-      <c r="S58" s="3">
-        <v>0</v>
+      <c r="S58" s="3" t="s">
+        <v>3</v>
       </c>
       <c r="T58" s="3">
         <v>0</v>
@@ -3390,58 +3524,61 @@
       <c r="U58" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="59" spans="3:21" x14ac:dyDescent="0.2">
+      <c r="V58" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="59" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C59" s="1" t="s">
         <v>52</v>
       </c>
       <c r="D59" s="3">
-        <v>271300</v>
+        <v>281900</v>
       </c>
       <c r="E59" s="3">
-        <v>282800</v>
+        <v>276400</v>
       </c>
       <c r="F59" s="3">
-        <v>307000</v>
+        <v>288100</v>
       </c>
       <c r="G59" s="3">
-        <v>339500</v>
+        <v>312800</v>
       </c>
       <c r="H59" s="3">
-        <v>265000</v>
+        <v>345900</v>
       </c>
       <c r="I59" s="3">
-        <v>289000</v>
+        <v>270000</v>
       </c>
       <c r="J59" s="3">
+        <v>294500</v>
+      </c>
+      <c r="K59" s="3">
         <v>298100</v>
       </c>
-      <c r="K59" s="3">
+      <c r="L59" s="3">
         <v>235800</v>
       </c>
-      <c r="L59" s="3">
+      <c r="M59" s="3">
         <v>192300</v>
       </c>
-      <c r="M59" s="3">
+      <c r="N59" s="3">
         <v>185400</v>
       </c>
-      <c r="N59" s="3">
+      <c r="O59" s="3">
         <v>260700</v>
       </c>
-      <c r="O59" s="3">
+      <c r="P59" s="3">
         <v>508400</v>
       </c>
-      <c r="P59" s="3">
+      <c r="Q59" s="3">
         <v>491300</v>
       </c>
-      <c r="Q59" s="3">
+      <c r="R59" s="3">
         <v>394000</v>
       </c>
-      <c r="R59" s="3" t="s">
-        <v>3</v>
-      </c>
-      <c r="S59" s="3">
-        <v>0</v>
+      <c r="S59" s="3" t="s">
+        <v>3</v>
       </c>
       <c r="T59" s="3">
         <v>0</v>
@@ -3449,58 +3586,61 @@
       <c r="U59" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="60" spans="3:21" x14ac:dyDescent="0.2">
+      <c r="V59" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="60" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C60" s="1" t="s">
         <v>53</v>
       </c>
       <c r="D60" s="3">
-        <v>3178600</v>
+        <v>3419600</v>
       </c>
       <c r="E60" s="3">
-        <v>3092800</v>
+        <v>3238300</v>
       </c>
       <c r="F60" s="3">
-        <v>3313400</v>
+        <v>3150900</v>
       </c>
       <c r="G60" s="3">
-        <v>2723400</v>
+        <v>3375600</v>
       </c>
       <c r="H60" s="3">
-        <v>2230300</v>
+        <v>2774600</v>
       </c>
       <c r="I60" s="3">
-        <v>2295900</v>
+        <v>2272200</v>
       </c>
       <c r="J60" s="3">
+        <v>2339000</v>
+      </c>
+      <c r="K60" s="3">
         <v>1744700</v>
       </c>
-      <c r="K60" s="3">
+      <c r="L60" s="3">
         <v>1846200</v>
       </c>
-      <c r="L60" s="3">
+      <c r="M60" s="3">
         <v>1550200</v>
       </c>
-      <c r="M60" s="3">
+      <c r="N60" s="3">
         <v>1356000</v>
       </c>
-      <c r="N60" s="3">
+      <c r="O60" s="3">
         <v>1707100</v>
       </c>
-      <c r="O60" s="3">
+      <c r="P60" s="3">
         <v>2955600</v>
       </c>
-      <c r="P60" s="3">
+      <c r="Q60" s="3">
         <v>2658100</v>
       </c>
-      <c r="Q60" s="3">
+      <c r="R60" s="3">
         <v>2380600</v>
       </c>
-      <c r="R60" s="3" t="s">
-        <v>3</v>
-      </c>
-      <c r="S60" s="3">
-        <v>0</v>
+      <c r="S60" s="3" t="s">
+        <v>3</v>
       </c>
       <c r="T60" s="3">
         <v>0</v>
@@ -3508,56 +3648,59 @@
       <c r="U60" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="61" spans="3:21" x14ac:dyDescent="0.2">
+      <c r="V60" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="61" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C61" s="1" t="s">
         <v>54</v>
       </c>
       <c r="D61" s="3">
-        <v>4016600</v>
+        <v>4119000</v>
       </c>
       <c r="E61" s="3">
-        <v>3930400</v>
+        <v>4092000</v>
       </c>
       <c r="F61" s="3">
-        <v>3886600</v>
+        <v>4004200</v>
       </c>
       <c r="G61" s="3">
-        <v>3702400</v>
+        <v>3959600</v>
       </c>
       <c r="H61" s="3">
-        <v>3644200</v>
+        <v>3771900</v>
       </c>
       <c r="I61" s="3">
-        <v>3316600</v>
+        <v>3712600</v>
       </c>
       <c r="J61" s="3">
+        <v>3378900</v>
+      </c>
+      <c r="K61" s="3">
         <v>2266100</v>
       </c>
-      <c r="K61" s="3">
+      <c r="L61" s="3">
         <v>1792700</v>
       </c>
-      <c r="L61" s="3">
+      <c r="M61" s="3">
         <v>1979300</v>
       </c>
-      <c r="M61" s="3">
+      <c r="N61" s="3">
         <v>1568900</v>
       </c>
-      <c r="N61" s="3">
+      <c r="O61" s="3">
         <v>1627200</v>
       </c>
-      <c r="O61" s="3">
+      <c r="P61" s="3">
         <v>2075600</v>
       </c>
-      <c r="P61" s="3">
+      <c r="Q61" s="3">
         <v>2472300</v>
       </c>
-      <c r="Q61" s="3">
+      <c r="R61" s="3">
         <v>2004400</v>
       </c>
-      <c r="R61" s="3">
-        <v>0</v>
-      </c>
       <c r="S61" s="3">
         <v>0</v>
       </c>
@@ -3567,58 +3710,61 @@
       <c r="U61" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="62" spans="3:21" x14ac:dyDescent="0.2">
+      <c r="V61" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="62" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C62" s="1" t="s">
         <v>55</v>
       </c>
       <c r="D62" s="3">
-        <v>65200</v>
+        <v>73000</v>
       </c>
       <c r="E62" s="3">
-        <v>63200</v>
+        <v>66400</v>
       </c>
       <c r="F62" s="3">
-        <v>211900</v>
+        <v>64400</v>
       </c>
       <c r="G62" s="3">
-        <v>200000</v>
+        <v>215900</v>
       </c>
       <c r="H62" s="3">
-        <v>205900</v>
+        <v>203800</v>
       </c>
       <c r="I62" s="3">
-        <v>342300</v>
+        <v>209700</v>
       </c>
       <c r="J62" s="3">
+        <v>348700</v>
+      </c>
+      <c r="K62" s="3">
         <v>43800</v>
       </c>
-      <c r="K62" s="3">
+      <c r="L62" s="3">
         <v>60200</v>
       </c>
-      <c r="L62" s="3">
+      <c r="M62" s="3">
         <v>65100</v>
       </c>
-      <c r="M62" s="3">
+      <c r="N62" s="3">
         <v>73300</v>
       </c>
-      <c r="N62" s="3">
+      <c r="O62" s="3">
         <v>73000</v>
       </c>
-      <c r="O62" s="3">
+      <c r="P62" s="3">
         <v>281500</v>
       </c>
-      <c r="P62" s="3">
+      <c r="Q62" s="3">
         <v>311700</v>
       </c>
-      <c r="Q62" s="3">
+      <c r="R62" s="3">
         <v>287800</v>
       </c>
-      <c r="R62" s="3" t="s">
-        <v>3</v>
-      </c>
-      <c r="S62" s="3">
-        <v>0</v>
+      <c r="S62" s="3" t="s">
+        <v>3</v>
       </c>
       <c r="T62" s="3">
         <v>0</v>
@@ -3626,8 +3772,11 @@
       <c r="U62" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="63" spans="3:21" x14ac:dyDescent="0.2">
+      <c r="V62" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="63" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C63" s="1" t="s">
         <v>56</v>
       </c>
@@ -3685,8 +3834,11 @@
       <c r="U63" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="64" spans="3:21" x14ac:dyDescent="0.2">
+      <c r="V63" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="64" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C64" s="1" t="s">
         <v>20</v>
       </c>
@@ -3744,8 +3896,11 @@
       <c r="U64" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="65" spans="2:21" x14ac:dyDescent="0.2">
+      <c r="V64" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="65" spans="2:22" x14ac:dyDescent="0.2">
       <c r="C65" s="1" t="s">
         <v>57</v>
       </c>
@@ -3803,58 +3958,61 @@
       <c r="U65" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="66" spans="2:21" x14ac:dyDescent="0.2">
+      <c r="V65" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="66" spans="2:22" x14ac:dyDescent="0.2">
       <c r="C66" s="1" t="s">
         <v>58</v>
       </c>
       <c r="D66" s="3">
-        <v>7260400</v>
+        <v>7611600</v>
       </c>
       <c r="E66" s="3">
-        <v>7086400</v>
+        <v>7396700</v>
       </c>
       <c r="F66" s="3">
-        <v>7412000</v>
+        <v>7219500</v>
       </c>
       <c r="G66" s="3">
-        <v>6625800</v>
+        <v>7551100</v>
       </c>
       <c r="H66" s="3">
-        <v>6080400</v>
+        <v>6750200</v>
       </c>
       <c r="I66" s="3">
-        <v>5954900</v>
+        <v>6194600</v>
       </c>
       <c r="J66" s="3">
+        <v>6066700</v>
+      </c>
+      <c r="K66" s="3">
         <v>4054600</v>
       </c>
-      <c r="K66" s="3">
+      <c r="L66" s="3">
         <v>3699100</v>
       </c>
-      <c r="L66" s="3">
+      <c r="M66" s="3">
         <v>3594500</v>
       </c>
-      <c r="M66" s="3">
+      <c r="N66" s="3">
         <v>2998300</v>
       </c>
-      <c r="N66" s="3">
+      <c r="O66" s="3">
         <v>3407300</v>
       </c>
-      <c r="O66" s="3">
+      <c r="P66" s="3">
         <v>5926200</v>
       </c>
-      <c r="P66" s="3">
+      <c r="Q66" s="3">
         <v>6053100</v>
       </c>
-      <c r="Q66" s="3">
+      <c r="R66" s="3">
         <v>5153300</v>
       </c>
-      <c r="R66" s="3" t="s">
-        <v>3</v>
-      </c>
-      <c r="S66" s="3">
-        <v>0</v>
+      <c r="S66" s="3" t="s">
+        <v>3</v>
       </c>
       <c r="T66" s="3">
         <v>0</v>
@@ -3862,8 +4020,11 @@
       <c r="U66" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="67" spans="2:21" x14ac:dyDescent="0.2">
+      <c r="V66" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="67" spans="2:22" x14ac:dyDescent="0.2">
       <c r="C67" s="1" t="s">
         <v>59</v>
       </c>
@@ -3885,8 +4046,9 @@
       <c r="S67" s="3"/>
       <c r="T67" s="3"/>
       <c r="U67" s="3"/>
-    </row>
-    <row r="68" spans="2:21" x14ac:dyDescent="0.2">
+      <c r="V67" s="3"/>
+    </row>
+    <row r="68" spans="2:22" x14ac:dyDescent="0.2">
       <c r="C68" s="1" t="s">
         <v>60</v>
       </c>
@@ -3944,8 +4106,11 @@
       <c r="U68" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="69" spans="2:21" x14ac:dyDescent="0.2">
+      <c r="V68" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="69" spans="2:22" x14ac:dyDescent="0.2">
       <c r="C69" s="1" t="s">
         <v>61</v>
       </c>
@@ -4003,8 +4168,11 @@
       <c r="U69" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="70" spans="2:21" x14ac:dyDescent="0.2">
+      <c r="V69" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="70" spans="2:22" x14ac:dyDescent="0.2">
       <c r="C70" s="1" t="s">
         <v>62</v>
       </c>
@@ -4062,8 +4230,11 @@
       <c r="U70" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="71" spans="2:21" x14ac:dyDescent="0.2">
+      <c r="V70" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="71" spans="2:22" x14ac:dyDescent="0.2">
       <c r="C71" s="1" t="s">
         <v>63</v>
       </c>
@@ -4121,58 +4292,61 @@
       <c r="U71" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="72" spans="2:21" x14ac:dyDescent="0.2">
+      <c r="V71" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="72" spans="2:22" x14ac:dyDescent="0.2">
       <c r="C72" s="1" t="s">
         <v>64</v>
       </c>
       <c r="D72" s="3">
-        <v>579700</v>
+        <v>629400</v>
       </c>
       <c r="E72" s="3">
-        <v>548200</v>
+        <v>590600</v>
       </c>
       <c r="F72" s="3">
-        <v>531800</v>
+        <v>558500</v>
       </c>
       <c r="G72" s="3">
-        <v>472300</v>
+        <v>541800</v>
       </c>
       <c r="H72" s="3">
-        <v>415200</v>
+        <v>481200</v>
       </c>
       <c r="I72" s="3">
-        <v>443400</v>
+        <v>423000</v>
       </c>
       <c r="J72" s="3">
+        <v>451800</v>
+      </c>
+      <c r="K72" s="3">
         <v>399400</v>
       </c>
-      <c r="K72" s="3">
+      <c r="L72" s="3">
         <v>325300</v>
       </c>
-      <c r="L72" s="3">
+      <c r="M72" s="3">
         <v>220400</v>
       </c>
-      <c r="M72" s="3">
+      <c r="N72" s="3">
         <v>155100</v>
       </c>
-      <c r="N72" s="3">
+      <c r="O72" s="3">
         <v>127000</v>
       </c>
-      <c r="O72" s="3">
+      <c r="P72" s="3">
         <v>562300</v>
       </c>
-      <c r="P72" s="3">
+      <c r="Q72" s="3">
         <v>545100</v>
       </c>
-      <c r="Q72" s="3">
+      <c r="R72" s="3">
         <v>462000</v>
       </c>
-      <c r="R72" s="3" t="s">
-        <v>3</v>
-      </c>
-      <c r="S72" s="3">
-        <v>0</v>
+      <c r="S72" s="3" t="s">
+        <v>3</v>
       </c>
       <c r="T72" s="3">
         <v>0</v>
@@ -4180,8 +4354,11 @@
       <c r="U72" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="73" spans="2:21" x14ac:dyDescent="0.2">
+      <c r="V72" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="73" spans="2:22" x14ac:dyDescent="0.2">
       <c r="C73" s="1" t="s">
         <v>65</v>
       </c>
@@ -4239,8 +4416,11 @@
       <c r="U73" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="74" spans="2:21" x14ac:dyDescent="0.2">
+      <c r="V73" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="74" spans="2:22" x14ac:dyDescent="0.2">
       <c r="C74" s="1" t="s">
         <v>66</v>
       </c>
@@ -4298,8 +4478,11 @@
       <c r="U74" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="75" spans="2:21" x14ac:dyDescent="0.2">
+      <c r="V74" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="75" spans="2:22" x14ac:dyDescent="0.2">
       <c r="C75" s="1" t="s">
         <v>67</v>
       </c>
@@ -4357,58 +4540,61 @@
       <c r="U75" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="76" spans="2:21" x14ac:dyDescent="0.2">
+      <c r="V75" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="76" spans="2:22" x14ac:dyDescent="0.2">
       <c r="C76" s="1" t="s">
         <v>68</v>
       </c>
       <c r="D76" s="3">
-        <v>833800</v>
+        <v>889300</v>
       </c>
       <c r="E76" s="3">
-        <v>803300</v>
+        <v>849500</v>
       </c>
       <c r="F76" s="3">
-        <v>786400</v>
+        <v>818400</v>
       </c>
       <c r="G76" s="3">
-        <v>725600</v>
+        <v>801100</v>
       </c>
       <c r="H76" s="3">
-        <v>668300</v>
+        <v>739200</v>
       </c>
       <c r="I76" s="3">
-        <v>602300</v>
+        <v>680800</v>
       </c>
       <c r="J76" s="3">
+        <v>613600</v>
+      </c>
+      <c r="K76" s="3">
         <v>558300</v>
       </c>
-      <c r="K76" s="3">
+      <c r="L76" s="3">
         <v>483800</v>
       </c>
-      <c r="L76" s="3">
+      <c r="M76" s="3">
         <v>371200</v>
       </c>
-      <c r="M76" s="3">
+      <c r="N76" s="3">
         <v>297500</v>
       </c>
-      <c r="N76" s="3">
+      <c r="O76" s="3">
         <v>275900</v>
       </c>
-      <c r="O76" s="3">
+      <c r="P76" s="3">
         <v>1859800</v>
       </c>
-      <c r="P76" s="3">
+      <c r="Q76" s="3">
         <v>1790900</v>
       </c>
-      <c r="Q76" s="3">
+      <c r="R76" s="3">
         <v>1391000</v>
       </c>
-      <c r="R76" s="3" t="s">
-        <v>3</v>
-      </c>
-      <c r="S76" s="3">
-        <v>0</v>
+      <c r="S76" s="3" t="s">
+        <v>3</v>
       </c>
       <c r="T76" s="3">
         <v>0</v>
@@ -4416,8 +4602,11 @@
       <c r="U76" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="77" spans="2:21" x14ac:dyDescent="0.2">
+      <c r="V76" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="77" spans="2:22" x14ac:dyDescent="0.2">
       <c r="C77" s="1" t="s">
         <v>69</v>
       </c>
@@ -4475,131 +4664,140 @@
       <c r="U77" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="79" spans="2:21" x14ac:dyDescent="0.2">
+      <c r="V77" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="79" spans="2:22" x14ac:dyDescent="0.2">
       <c r="B79" s="1" t="s">
         <v>70</v>
       </c>
     </row>
-    <row r="80" spans="2:21" x14ac:dyDescent="0.2">
+    <row r="80" spans="2:22" x14ac:dyDescent="0.2">
       <c r="C80" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D80" s="2">
+        <v>45199</v>
+      </c>
+      <c r="E80" s="2">
         <v>45107</v>
       </c>
-      <c r="E80" s="2">
+      <c r="F80" s="2">
         <v>45016</v>
       </c>
-      <c r="F80" s="2">
+      <c r="G80" s="2">
         <v>44926</v>
       </c>
-      <c r="G80" s="2">
+      <c r="H80" s="2">
         <v>44834</v>
       </c>
-      <c r="H80" s="2">
+      <c r="I80" s="2">
         <v>44742</v>
       </c>
-      <c r="I80" s="2">
+      <c r="J80" s="2">
         <v>44651</v>
       </c>
-      <c r="J80" s="2">
+      <c r="K80" s="2">
         <v>44561</v>
       </c>
-      <c r="K80" s="2">
+      <c r="L80" s="2">
         <v>44469</v>
       </c>
-      <c r="L80" s="2">
+      <c r="M80" s="2">
         <v>44377</v>
       </c>
-      <c r="M80" s="2">
+      <c r="N80" s="2">
         <v>44286</v>
       </c>
-      <c r="N80" s="2">
+      <c r="O80" s="2">
         <v>44196</v>
       </c>
-      <c r="O80" s="2">
+      <c r="P80" s="2">
         <v>44104</v>
       </c>
-      <c r="P80" s="2">
+      <c r="Q80" s="2">
         <v>44012</v>
       </c>
-      <c r="Q80" s="2">
+      <c r="R80" s="2">
         <v>43921</v>
       </c>
-      <c r="R80" s="2">
+      <c r="S80" s="2">
         <v>43830</v>
       </c>
-      <c r="S80" s="2" t="s">
-        <v>3</v>
-      </c>
       <c r="T80" s="2" t="s">
         <v>3</v>
       </c>
       <c r="U80" s="2" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="81" spans="3:21" x14ac:dyDescent="0.2">
+      <c r="V80" s="2" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="81" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C81" s="1" t="s">
         <v>28</v>
       </c>
       <c r="D81" s="3">
-        <v>31500</v>
+        <v>38000</v>
       </c>
       <c r="E81" s="3">
-        <v>14500</v>
+        <v>32100</v>
       </c>
       <c r="F81" s="3">
-        <v>81900</v>
+        <v>14800</v>
       </c>
       <c r="G81" s="3">
-        <v>56700</v>
+        <v>83500</v>
       </c>
       <c r="H81" s="3">
-        <v>64400</v>
+        <v>57800</v>
       </c>
       <c r="I81" s="3">
-        <v>43200</v>
+        <v>65600</v>
       </c>
       <c r="J81" s="3">
+        <v>44000</v>
+      </c>
+      <c r="K81" s="3">
         <v>106400</v>
       </c>
-      <c r="K81" s="3">
+      <c r="L81" s="3">
         <v>108400</v>
       </c>
-      <c r="L81" s="3">
+      <c r="M81" s="3">
         <v>59100</v>
       </c>
-      <c r="M81" s="3">
+      <c r="N81" s="3">
         <v>44900</v>
       </c>
-      <c r="N81" s="3">
+      <c r="O81" s="3">
         <v>273600</v>
       </c>
-      <c r="O81" s="3">
+      <c r="P81" s="3">
         <v>85100</v>
       </c>
-      <c r="P81" s="3">
+      <c r="Q81" s="3">
         <v>34500</v>
       </c>
-      <c r="Q81" s="3">
+      <c r="R81" s="3">
         <v>17900</v>
       </c>
-      <c r="R81" s="3">
+      <c r="S81" s="3">
         <v>48700</v>
       </c>
-      <c r="S81" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="T81" s="3" t="s">
         <v>3</v>
       </c>
       <c r="U81" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="82" spans="3:21" x14ac:dyDescent="0.2">
+      <c r="V81" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="82" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C82" s="1" t="s">
         <v>71</v>
       </c>
@@ -4621,67 +4819,71 @@
       <c r="S82" s="3"/>
       <c r="T82" s="3"/>
       <c r="U82" s="3"/>
-    </row>
-    <row r="83" spans="3:21" x14ac:dyDescent="0.2">
+      <c r="V82" s="3"/>
+    </row>
+    <row r="83" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C83" s="1" t="s">
         <v>72</v>
       </c>
       <c r="D83" s="3">
-        <v>72300</v>
+        <v>80200</v>
       </c>
       <c r="E83" s="3">
-        <v>67800</v>
+        <v>73600</v>
       </c>
       <c r="F83" s="3">
-        <v>58500</v>
+        <v>69100</v>
       </c>
       <c r="G83" s="3">
-        <v>49700</v>
+        <v>59600</v>
       </c>
       <c r="H83" s="3">
-        <v>47400</v>
+        <v>50600</v>
       </c>
       <c r="I83" s="3">
-        <v>44200</v>
+        <v>48300</v>
       </c>
       <c r="J83" s="3">
+        <v>45000</v>
+      </c>
+      <c r="K83" s="3">
         <v>37900</v>
       </c>
-      <c r="K83" s="3">
+      <c r="L83" s="3">
         <v>35200</v>
       </c>
-      <c r="L83" s="3">
+      <c r="M83" s="3">
         <v>32300</v>
       </c>
-      <c r="M83" s="3">
+      <c r="N83" s="3">
         <v>29400</v>
       </c>
-      <c r="N83" s="3">
+      <c r="O83" s="3">
         <v>268500</v>
       </c>
-      <c r="O83" s="3">
+      <c r="P83" s="3">
         <v>69300</v>
       </c>
-      <c r="P83" s="3">
+      <c r="Q83" s="3">
         <v>65400</v>
       </c>
-      <c r="Q83" s="3">
+      <c r="R83" s="3">
         <v>56100</v>
       </c>
-      <c r="R83" s="3">
+      <c r="S83" s="3">
         <v>32100</v>
       </c>
-      <c r="S83" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="T83" s="3" t="s">
         <v>3</v>
       </c>
       <c r="U83" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="84" spans="3:21" x14ac:dyDescent="0.2">
+      <c r="V83" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="84" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C84" s="1" t="s">
         <v>73</v>
       </c>
@@ -4739,8 +4941,11 @@
       <c r="U84" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="85" spans="3:21" x14ac:dyDescent="0.2">
+      <c r="V84" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="85" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C85" s="1" t="s">
         <v>74</v>
       </c>
@@ -4798,8 +5003,11 @@
       <c r="U85" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="86" spans="3:21" x14ac:dyDescent="0.2">
+      <c r="V85" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="86" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C86" s="1" t="s">
         <v>75</v>
       </c>
@@ -4857,8 +5065,11 @@
       <c r="U86" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="87" spans="3:21" x14ac:dyDescent="0.2">
+      <c r="V86" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="87" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C87" s="1" t="s">
         <v>76</v>
       </c>
@@ -4916,8 +5127,11 @@
       <c r="U87" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="88" spans="3:21" x14ac:dyDescent="0.2">
+      <c r="V87" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="88" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C88" s="1" t="s">
         <v>77</v>
       </c>
@@ -4975,67 +5189,73 @@
       <c r="U88" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="89" spans="3:21" x14ac:dyDescent="0.2">
+      <c r="V88" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="89" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C89" s="1" t="s">
         <v>78</v>
       </c>
       <c r="D89" s="3">
-        <v>526800</v>
+        <v>156700</v>
       </c>
       <c r="E89" s="3">
-        <v>4800</v>
+        <v>536700</v>
       </c>
       <c r="F89" s="3">
-        <v>452100</v>
+        <v>4900</v>
       </c>
       <c r="G89" s="3">
-        <v>338700</v>
+        <v>460600</v>
       </c>
       <c r="H89" s="3">
-        <v>75300</v>
+        <v>345000</v>
       </c>
       <c r="I89" s="3">
-        <v>172200</v>
+        <v>76700</v>
       </c>
       <c r="J89" s="3">
+        <v>175400</v>
+      </c>
+      <c r="K89" s="3">
         <v>434000</v>
       </c>
-      <c r="K89" s="3">
+      <c r="L89" s="3">
         <v>126100</v>
       </c>
-      <c r="L89" s="3">
+      <c r="M89" s="3">
         <v>138400</v>
       </c>
-      <c r="M89" s="3">
+      <c r="N89" s="3">
         <v>-41000</v>
       </c>
-      <c r="N89" s="3">
+      <c r="O89" s="3">
         <v>684600</v>
       </c>
-      <c r="O89" s="3">
+      <c r="P89" s="3">
         <v>47900</v>
       </c>
-      <c r="P89" s="3">
+      <c r="Q89" s="3">
         <v>201600</v>
       </c>
-      <c r="Q89" s="3">
+      <c r="R89" s="3">
         <v>-341200</v>
       </c>
-      <c r="R89" s="3">
+      <c r="S89" s="3">
         <v>505600</v>
       </c>
-      <c r="S89" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="T89" s="3" t="s">
         <v>3</v>
       </c>
       <c r="U89" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="90" spans="3:21" x14ac:dyDescent="0.2">
+      <c r="V89" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="90" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C90" s="1" t="s">
         <v>79</v>
       </c>
@@ -5057,67 +5277,71 @@
       <c r="S90" s="3"/>
       <c r="T90" s="3"/>
       <c r="U90" s="3"/>
-    </row>
-    <row r="91" spans="3:21" x14ac:dyDescent="0.2">
+      <c r="V90" s="3"/>
+    </row>
+    <row r="91" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C91" s="1" t="s">
         <v>80</v>
       </c>
       <c r="D91" s="3">
+        <v>-1107000</v>
+      </c>
+      <c r="E91" s="3">
         <v>-842000</v>
       </c>
-      <c r="E91" s="3">
+      <c r="F91" s="3">
         <v>-549000</v>
       </c>
-      <c r="F91" s="3">
+      <c r="G91" s="3">
         <v>-485000</v>
       </c>
-      <c r="G91" s="3">
+      <c r="H91" s="3">
         <v>-1057000</v>
       </c>
-      <c r="H91" s="3">
+      <c r="I91" s="3">
         <v>-1341000</v>
       </c>
-      <c r="I91" s="3">
+      <c r="J91" s="3">
         <v>-1277000</v>
       </c>
-      <c r="J91" s="3">
+      <c r="K91" s="3">
         <v>-1490000</v>
       </c>
-      <c r="K91" s="3">
+      <c r="L91" s="3">
         <v>-837000</v>
       </c>
-      <c r="L91" s="3">
+      <c r="M91" s="3">
         <v>-109400</v>
       </c>
-      <c r="M91" s="3">
+      <c r="N91" s="3">
         <v>-32600</v>
       </c>
-      <c r="N91" s="3">
+      <c r="O91" s="3">
         <v>-305700</v>
       </c>
-      <c r="O91" s="3">
+      <c r="P91" s="3">
         <v>-85900</v>
       </c>
-      <c r="P91" s="3">
+      <c r="Q91" s="3">
         <v>-66000</v>
       </c>
-      <c r="Q91" s="3">
+      <c r="R91" s="3">
         <v>-64600</v>
       </c>
-      <c r="R91" s="3">
+      <c r="S91" s="3">
         <v>-91900</v>
       </c>
-      <c r="S91" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="T91" s="3" t="s">
         <v>3</v>
       </c>
       <c r="U91" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="92" spans="3:21" x14ac:dyDescent="0.2">
+      <c r="V91" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="92" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C92" s="1" t="s">
         <v>81</v>
       </c>
@@ -5175,8 +5399,11 @@
       <c r="U92" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="93" spans="3:21" x14ac:dyDescent="0.2">
+      <c r="V92" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="93" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C93" s="1" t="s">
         <v>82</v>
       </c>
@@ -5234,67 +5461,73 @@
       <c r="U93" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="94" spans="3:21" x14ac:dyDescent="0.2">
+      <c r="V93" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="94" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C94" s="1" t="s">
         <v>83</v>
       </c>
       <c r="D94" s="3">
-        <v>-167900</v>
+        <v>-218000</v>
       </c>
       <c r="E94" s="3">
-        <v>-107800</v>
+        <v>-171100</v>
       </c>
       <c r="F94" s="3">
-        <v>-70600</v>
+        <v>-109800</v>
       </c>
       <c r="G94" s="3">
-        <v>-137300</v>
+        <v>-72000</v>
       </c>
       <c r="H94" s="3">
-        <v>-248900</v>
+        <v>-139800</v>
       </c>
       <c r="I94" s="3">
-        <v>-308200</v>
+        <v>-253500</v>
       </c>
       <c r="J94" s="3">
+        <v>-314000</v>
+      </c>
+      <c r="K94" s="3">
         <v>-381900</v>
       </c>
-      <c r="K94" s="3">
+      <c r="L94" s="3">
         <v>-126300</v>
       </c>
-      <c r="L94" s="3">
+      <c r="M94" s="3">
         <v>-112300</v>
       </c>
-      <c r="M94" s="3">
+      <c r="N94" s="3">
         <v>-33100</v>
       </c>
-      <c r="N94" s="3">
+      <c r="O94" s="3">
         <v>-936800</v>
       </c>
-      <c r="O94" s="3">
+      <c r="P94" s="3">
         <v>-64500</v>
       </c>
-      <c r="P94" s="3">
+      <c r="Q94" s="3">
         <v>5100</v>
       </c>
-      <c r="Q94" s="3">
+      <c r="R94" s="3">
         <v>-68700</v>
       </c>
-      <c r="R94" s="3">
+      <c r="S94" s="3">
         <v>-623700</v>
       </c>
-      <c r="S94" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="T94" s="3" t="s">
         <v>3</v>
       </c>
       <c r="U94" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="95" spans="3:21" x14ac:dyDescent="0.2">
+      <c r="V94" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="95" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C95" s="1" t="s">
         <v>84</v>
       </c>
@@ -5316,19 +5549,20 @@
       <c r="S95" s="3"/>
       <c r="T95" s="3"/>
       <c r="U95" s="3"/>
-    </row>
-    <row r="96" spans="3:21" x14ac:dyDescent="0.2">
+      <c r="V95" s="3"/>
+    </row>
+    <row r="96" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C96" s="1" t="s">
         <v>85</v>
       </c>
       <c r="D96" s="3">
-        <v>-13700</v>
+        <v>0</v>
       </c>
       <c r="E96" s="3">
-        <v>-10100</v>
+        <v>-14000</v>
       </c>
       <c r="F96" s="3">
-        <v>0</v>
+        <v>-10300</v>
       </c>
       <c r="G96" s="3">
         <v>0</v>
@@ -5340,43 +5574,46 @@
         <v>0</v>
       </c>
       <c r="J96" s="3">
+        <v>0</v>
+      </c>
+      <c r="K96" s="3">
         <v>-12700</v>
       </c>
-      <c r="K96" s="3">
-        <v>0</v>
-      </c>
       <c r="L96" s="3">
+        <v>0</v>
+      </c>
+      <c r="M96" s="3">
         <v>-16500</v>
       </c>
-      <c r="M96" s="3">
-        <v>0</v>
-      </c>
       <c r="N96" s="3">
+        <v>0</v>
+      </c>
+      <c r="O96" s="3">
         <v>-95700</v>
       </c>
-      <c r="O96" s="3">
+      <c r="P96" s="3">
         <v>-2700</v>
       </c>
-      <c r="P96" s="3">
+      <c r="Q96" s="3">
         <v>-21100</v>
       </c>
-      <c r="Q96" s="3">
+      <c r="R96" s="3">
         <v>-3000</v>
       </c>
-      <c r="R96" s="3">
+      <c r="S96" s="3">
         <v>-44500</v>
       </c>
-      <c r="S96" s="3">
-        <v>0</v>
-      </c>
       <c r="T96" s="3">
         <v>0</v>
       </c>
       <c r="U96" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="97" spans="3:21" x14ac:dyDescent="0.2">
+      <c r="V96" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="97" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C97" s="1" t="s">
         <v>86</v>
       </c>
@@ -5434,8 +5671,11 @@
       <c r="U97" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="98" spans="3:21" x14ac:dyDescent="0.2">
+      <c r="V97" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="98" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C98" s="1" t="s">
         <v>87</v>
       </c>
@@ -5493,8 +5733,11 @@
       <c r="U98" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="99" spans="3:21" x14ac:dyDescent="0.2">
+      <c r="V98" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="99" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C99" s="1" t="s">
         <v>88</v>
       </c>
@@ -5552,67 +5795,73 @@
       <c r="U99" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="100" spans="3:21" x14ac:dyDescent="0.2">
+      <c r="V99" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="100" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C100" s="1" t="s">
         <v>89</v>
       </c>
       <c r="D100" s="3">
-        <v>-265600</v>
+        <v>24500</v>
       </c>
       <c r="E100" s="3">
-        <v>-241800</v>
+        <v>-270600</v>
       </c>
       <c r="F100" s="3">
-        <v>-52100</v>
+        <v>-246300</v>
       </c>
       <c r="G100" s="3">
-        <v>21000</v>
+        <v>-53100</v>
       </c>
       <c r="H100" s="3">
-        <v>-85000</v>
+        <v>21400</v>
       </c>
       <c r="I100" s="3">
-        <v>507200</v>
+        <v>-86600</v>
       </c>
       <c r="J100" s="3">
+        <v>516700</v>
+      </c>
+      <c r="K100" s="3">
         <v>-118900</v>
       </c>
-      <c r="K100" s="3">
+      <c r="L100" s="3">
         <v>-328100</v>
       </c>
-      <c r="L100" s="3">
+      <c r="M100" s="3">
         <v>312100</v>
       </c>
-      <c r="M100" s="3">
+      <c r="N100" s="3">
         <v>-69600</v>
       </c>
-      <c r="N100" s="3">
+      <c r="O100" s="3">
         <v>-155200</v>
       </c>
-      <c r="O100" s="3">
+      <c r="P100" s="3">
         <v>-118400</v>
       </c>
-      <c r="P100" s="3">
+      <c r="Q100" s="3">
         <v>-99900</v>
       </c>
-      <c r="Q100" s="3">
+      <c r="R100" s="3">
         <v>159100</v>
       </c>
-      <c r="R100" s="3">
+      <c r="S100" s="3">
         <v>-662800</v>
       </c>
-      <c r="S100" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="T100" s="3" t="s">
         <v>3</v>
       </c>
       <c r="U100" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="101" spans="3:21" x14ac:dyDescent="0.2">
+      <c r="V100" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="101" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C101" s="1" t="s">
         <v>90</v>
       </c>
@@ -5647,86 +5896,92 @@
         <v>0</v>
       </c>
       <c r="N101" s="3">
+        <v>0</v>
+      </c>
+      <c r="O101" s="3">
         <v>115100</v>
       </c>
-      <c r="O101" s="3">
+      <c r="P101" s="3">
         <v>-5300</v>
       </c>
-      <c r="P101" s="3">
+      <c r="Q101" s="3">
         <v>58900</v>
       </c>
-      <c r="Q101" s="3">
+      <c r="R101" s="3">
         <v>27800</v>
       </c>
-      <c r="R101" s="3">
+      <c r="S101" s="3">
         <v>19800</v>
       </c>
-      <c r="S101" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="T101" s="3" t="s">
         <v>3</v>
       </c>
       <c r="U101" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="102" spans="3:21" x14ac:dyDescent="0.2">
+      <c r="V101" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="102" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C102" s="1" t="s">
         <v>91</v>
       </c>
       <c r="D102" s="3">
-        <v>93300</v>
+        <v>-36800</v>
       </c>
       <c r="E102" s="3">
-        <v>-344700</v>
+        <v>95000</v>
       </c>
       <c r="F102" s="3">
-        <v>329400</v>
+        <v>-351200</v>
       </c>
       <c r="G102" s="3">
-        <v>222400</v>
+        <v>335600</v>
       </c>
       <c r="H102" s="3">
-        <v>-258600</v>
+        <v>226600</v>
       </c>
       <c r="I102" s="3">
-        <v>371200</v>
+        <v>-263400</v>
       </c>
       <c r="J102" s="3">
+        <v>378200</v>
+      </c>
+      <c r="K102" s="3">
         <v>-66800</v>
       </c>
-      <c r="K102" s="3">
+      <c r="L102" s="3">
         <v>-328300</v>
       </c>
-      <c r="L102" s="3">
+      <c r="M102" s="3">
         <v>338300</v>
       </c>
-      <c r="M102" s="3">
+      <c r="N102" s="3">
         <v>-143700</v>
       </c>
-      <c r="N102" s="3">
+      <c r="O102" s="3">
         <v>-292400</v>
       </c>
-      <c r="O102" s="3">
+      <c r="P102" s="3">
         <v>-140200</v>
       </c>
-      <c r="P102" s="3">
+      <c r="Q102" s="3">
         <v>165700</v>
       </c>
-      <c r="Q102" s="3">
+      <c r="R102" s="3">
         <v>-223000</v>
       </c>
-      <c r="R102" s="3">
+      <c r="S102" s="3">
         <v>-761200</v>
       </c>
-      <c r="S102" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="T102" s="3" t="s">
         <v>3</v>
       </c>
       <c r="U102" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="V102" s="3" t="s">
         <v>3</v>
       </c>
     </row>
